--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="цели на сезон" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,9 @@
     <sheet name="Ц1Н1" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Ц1Н2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Ц1Н3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="СИ комплексы" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Лист2" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Ц1Н4" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="СИ комплексы" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Лист2" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,24 +28,46 @@
 </workbook>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
   </authors>
   <commentList>
     <comment ref="C59" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
     </comment>
     <comment ref="C99" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="270">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -658,19 +681,22 @@
     <t xml:space="preserve">ОСИ+CCB ~ 55 минут. Делала дома. Со слезами на глазах. Тело болит. Ломит кости. С трудом встала утром с постели. В основном занималась йогой и растяжкой на разные группы мышц.  Стало полегче с мышцами после проработки связок. </t>
   </si>
   <si>
-    <t xml:space="preserve">ДИС(45)+ГРИ(19)+бассеин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бассеин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСИ(26)+ССИ(26)+бассеин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВД(109)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСИ(42)</t>
+    <t xml:space="preserve">ДИС(45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+бассейн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДИС(45)+ГРИ(19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСИ(26)+ССИ(26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВД(120)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДИС(60)</t>
   </si>
   <si>
     <t xml:space="preserve">ДИС 45 минут в лесу за работой. Легко. Затем Бассейн. Отрабатывала технику движения рук.</t>
@@ -704,6 +730,21 @@
   </si>
   <si>
     <t xml:space="preserve">Пробежала первые 20 минут – очень легким темпом, разогрелась, затем бежала ускорения 30/60 сек. Около 30 минут, и затем просто 10 минут ДИС, поняла что нужно 30/90. А то после 20 минуты уже бежать становится тяжело.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРИ 15 + ДИС 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ бассейн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВД 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">До начала бега была разминка, 20 минут. Растяжка, качала пресс, наклоны. Затем бег ДИС + ГРИ (примерно час). Горка понравилась. Пульс скачками, забавно смотреть. Вроде успевает успокоиться, пока добегаю до начала горки. Чувствовала себя легко. Потом бассейн. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Утром пробежалась, недолго, 33 минуты – 5,5 км. Пульс до 140. Светило солнце)</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -867,7 +908,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="H:MM"/>
@@ -878,7 +919,6 @@
     <numFmt numFmtId="171" formatCode="@"/>
     <numFmt numFmtId="172" formatCode="0"/>
     <numFmt numFmtId="173" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1683,7 +1723,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="441">
+  <cellXfs count="439">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3236,6 +3276,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3412,20 +3456,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="22" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3521,7 +3553,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3747,12 +3779,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="71248197"/>
-        <c:axId val="99653098"/>
+        <c:axId val="19872135"/>
+        <c:axId val="64743657"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71248197"/>
+        <c:axId val="19872135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,14 +3817,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99653098"/>
+        <c:crossAx val="64743657"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99653098"/>
+        <c:axId val="64743657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3873,7 +3905,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71248197"/>
+        <c:crossAx val="19872135"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3916,9 +3948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3927,7 +3959,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6243120"/>
-        <a:ext cx="4390560" cy="2637360"/>
+        <a:ext cx="4390560" cy="2637000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4331,6 +4363,62 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:M15"/>
   </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="97.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="437" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="438" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="438" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.youtube.com/watch?v=qGSlehRBBMM"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://marathonec.ru/10-strength-exercises-for-runners/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -9932,7 +10020,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -10736,8 +10824,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10975,7 +11063,9 @@
         <v>196</v>
       </c>
       <c r="D9" s="365"/>
-      <c r="E9" s="386"/>
+      <c r="E9" s="386" t="s">
+        <v>197</v>
+      </c>
       <c r="F9" s="386"/>
       <c r="G9" s="386"/>
       <c r="H9" s="386"/>
@@ -10990,9 +11080,7 @@
       <c r="B10" s="362" t="n">
         <v>43537</v>
       </c>
-      <c r="C10" s="365" t="s">
-        <v>197</v>
-      </c>
+      <c r="C10" s="365"/>
       <c r="D10" s="365"/>
       <c r="E10" s="386"/>
       <c r="F10" s="386"/>
@@ -11009,8 +11097,10 @@
       <c r="B11" s="362" t="n">
         <v>43538</v>
       </c>
-      <c r="C11" s="366"/>
-      <c r="D11" s="366"/>
+      <c r="C11" s="365" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="365"/>
       <c r="E11" s="386"/>
       <c r="F11" s="386"/>
       <c r="G11" s="386"/>
@@ -11027,7 +11117,7 @@
         <v>43539</v>
       </c>
       <c r="C12" s="365" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D12" s="365"/>
       <c r="E12" s="386"/>
@@ -11046,7 +11136,7 @@
         <v>43540</v>
       </c>
       <c r="C13" s="365" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D13" s="365"/>
       <c r="E13" s="386"/>
@@ -11065,10 +11155,12 @@
         <v>43541</v>
       </c>
       <c r="C14" s="365" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D14" s="365"/>
-      <c r="E14" s="386"/>
+      <c r="E14" s="386" t="s">
+        <v>197</v>
+      </c>
       <c r="F14" s="386"/>
       <c r="G14" s="386"/>
       <c r="H14" s="386"/>
@@ -11186,7 +11278,7 @@
       <c r="A22" s="377"/>
       <c r="B22" s="373"/>
       <c r="C22" s="379" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D22" s="379"/>
       <c r="E22" s="379"/>
@@ -11274,7 +11366,7 @@
       <c r="A28" s="377"/>
       <c r="B28" s="373"/>
       <c r="C28" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -11319,7 +11411,7 @@
       <c r="A31" s="372"/>
       <c r="B31" s="372"/>
       <c r="C31" s="387" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D31" s="387"/>
       <c r="E31" s="387"/>
@@ -11364,7 +11456,7 @@
       <c r="A34" s="377"/>
       <c r="B34" s="373"/>
       <c r="C34" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -11409,7 +11501,7 @@
       <c r="A37" s="372"/>
       <c r="B37" s="372"/>
       <c r="C37" s="387" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D37" s="387"/>
       <c r="E37" s="387"/>
@@ -11494,10 +11586,17 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="41.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="332" t="s">
@@ -11771,7 +11870,6 @@
       <c r="I14" s="386"/>
       <c r="J14" s="386"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="368"/>
       <c r="B16" s="368"/>
@@ -11820,8 +11918,12 @@
       <c r="C18" s="374"/>
       <c r="D18" s="374"/>
       <c r="E18" s="374"/>
-      <c r="F18" s="374"/>
-      <c r="G18" s="374"/>
+      <c r="F18" s="374" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="G18" s="374" t="n">
+        <v>7.37</v>
+      </c>
       <c r="H18" s="374"/>
       <c r="I18" s="375"/>
       <c r="J18" s="375"/>
@@ -11856,10 +11958,16 @@
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="21" t="n">
+        <v>5</v>
+      </c>
       <c r="E21" s="378"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="21" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="G21" s="21" t="n">
+        <v>7.16</v>
+      </c>
       <c r="H21" s="91"/>
       <c r="I21" s="91"/>
       <c r="J21" s="91"/>
@@ -11867,7 +11975,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="373"/>
       <c r="B22" s="379" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" s="379"/>
       <c r="D22" s="379"/>
@@ -11896,10 +12004,16 @@
       </c>
       <c r="B24" s="374"/>
       <c r="C24" s="374"/>
-      <c r="D24" s="374"/>
+      <c r="D24" s="374" t="n">
+        <v>5</v>
+      </c>
       <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
-      <c r="G24" s="374"/>
+      <c r="F24" s="374" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="G24" s="374" t="n">
+        <v>6.48</v>
+      </c>
       <c r="H24" s="374"/>
       <c r="I24" s="374"/>
       <c r="J24" s="374"/>
@@ -11907,7 +12021,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="373"/>
       <c r="B25" s="381" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" s="381"/>
       <c r="D25" s="381"/>
@@ -11918,7 +12032,7 @@
       <c r="I25" s="381"/>
       <c r="J25" s="381"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="373"/>
       <c r="B26" s="381"/>
       <c r="C26" s="381"/>
@@ -11936,10 +12050,16 @@
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="21" t="n">
+        <v>4</v>
+      </c>
       <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="21" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="G27" s="21" t="n">
+        <v>6.47</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -11947,7 +12067,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="373"/>
       <c r="B28" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -11958,7 +12078,7 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="373"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -11976,10 +12096,16 @@
       </c>
       <c r="B30" s="383"/>
       <c r="C30" s="383"/>
-      <c r="D30" s="383"/>
+      <c r="D30" s="388" t="n">
+        <v>5</v>
+      </c>
       <c r="E30" s="383"/>
-      <c r="F30" s="383"/>
-      <c r="G30" s="383"/>
+      <c r="F30" s="388" t="n">
+        <v>56</v>
+      </c>
+      <c r="G30" s="388" t="n">
+        <v>7.34</v>
+      </c>
       <c r="H30" s="383"/>
       <c r="I30" s="383"/>
       <c r="J30" s="383"/>
@@ -11987,7 +12113,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="373"/>
       <c r="B31" s="387" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C31" s="387"/>
       <c r="D31" s="387"/>
@@ -12016,10 +12142,16 @@
       </c>
       <c r="B33" s="91"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
+      <c r="D33" s="22" t="n">
+        <v>3</v>
+      </c>
       <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
+      <c r="F33" s="22" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="G33" s="22" t="n">
+        <v>6.41</v>
+      </c>
       <c r="H33" s="91"/>
       <c r="I33" s="91"/>
       <c r="J33" s="91"/>
@@ -12027,7 +12159,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="373"/>
       <c r="B34" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -12056,10 +12188,16 @@
       </c>
       <c r="B36" s="383"/>
       <c r="C36" s="383"/>
-      <c r="D36" s="383"/>
+      <c r="D36" s="388" t="n">
+        <v>4</v>
+      </c>
       <c r="E36" s="383"/>
-      <c r="F36" s="383"/>
-      <c r="G36" s="383"/>
+      <c r="F36" s="388" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="G36" s="388" t="n">
+        <v>7.49</v>
+      </c>
       <c r="H36" s="383"/>
       <c r="I36" s="383"/>
       <c r="J36" s="383"/>
@@ -12067,7 +12205,7 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="373"/>
       <c r="B37" s="387" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C37" s="387"/>
       <c r="D37" s="387"/>
@@ -12138,6 +12276,672 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="332" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="333" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="335" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="335" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="335" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="335" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="336" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="336" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="337" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="338" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="339" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="340" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="341" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="341" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="341" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="341" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="342" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="342" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="343" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="344" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="345" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="346" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="347" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="347" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="347" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="347" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="348" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="348" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="349" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="350" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="351" t="n">
+        <v>102</v>
+      </c>
+      <c r="C4" s="352" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" s="353" t="n">
+        <f aca="false">'понедельный план тр-к '!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="353" t="n">
+        <f aca="false">'понедельный план тр-к '!D24</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="353" t="n">
+        <f aca="false">'понедельный план тр-к '!D27</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="353" t="n">
+        <f aca="false">'понедельный план тр-к '!D30</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="354" t="n">
+        <v>58</v>
+      </c>
+      <c r="I4" s="354" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" s="355" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="356"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="357"/>
+      <c r="G5" s="357"/>
+      <c r="H5" s="357"/>
+      <c r="I5" s="357"/>
+      <c r="J5" s="357"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="358"/>
+      <c r="B6" s="358"/>
+      <c r="C6" s="358"/>
+      <c r="D6" s="358"/>
+      <c r="E6" s="358"/>
+      <c r="F6" s="358"/>
+      <c r="G6" s="358"/>
+      <c r="H6" s="358"/>
+      <c r="I6" s="358"/>
+      <c r="J6" s="358"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="359" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="360" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
+      <c r="I7" s="360"/>
+      <c r="J7" s="360"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="362" t="n">
+        <v>43549</v>
+      </c>
+      <c r="B8" s="363"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="386"/>
+      <c r="E8" s="386"/>
+      <c r="F8" s="386"/>
+      <c r="G8" s="386"/>
+      <c r="H8" s="386"/>
+      <c r="I8" s="386"/>
+      <c r="J8" s="386"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="362" t="n">
+        <v>43550</v>
+      </c>
+      <c r="B9" s="365" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="365"/>
+      <c r="D9" s="386" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="386"/>
+      <c r="F9" s="386"/>
+      <c r="G9" s="386"/>
+      <c r="H9" s="386"/>
+      <c r="I9" s="386"/>
+      <c r="J9" s="386"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="362" t="n">
+        <v>43551</v>
+      </c>
+      <c r="B10" s="365" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="365"/>
+      <c r="D10" s="386"/>
+      <c r="E10" s="386"/>
+      <c r="F10" s="386"/>
+      <c r="G10" s="386"/>
+      <c r="H10" s="386"/>
+      <c r="I10" s="386"/>
+      <c r="J10" s="386"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="362" t="n">
+        <v>43552</v>
+      </c>
+      <c r="B11" s="366"/>
+      <c r="C11" s="366"/>
+      <c r="D11" s="386"/>
+      <c r="E11" s="386"/>
+      <c r="F11" s="386"/>
+      <c r="G11" s="386"/>
+      <c r="H11" s="386"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="386"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="362" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B12" s="365"/>
+      <c r="C12" s="365"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="386"/>
+      <c r="F12" s="386"/>
+      <c r="G12" s="386"/>
+      <c r="H12" s="386"/>
+      <c r="I12" s="386"/>
+      <c r="J12" s="386"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="362" t="n">
+        <v>43554</v>
+      </c>
+      <c r="B13" s="365"/>
+      <c r="C13" s="365"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="386"/>
+      <c r="F13" s="386"/>
+      <c r="G13" s="386"/>
+      <c r="H13" s="386"/>
+      <c r="I13" s="386"/>
+      <c r="J13" s="386"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="362" t="n">
+        <v>43555</v>
+      </c>
+      <c r="B14" s="365"/>
+      <c r="C14" s="365"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="386"/>
+      <c r="F14" s="386"/>
+      <c r="G14" s="386"/>
+      <c r="H14" s="386"/>
+      <c r="I14" s="386"/>
+      <c r="J14" s="386"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="368"/>
+      <c r="B16" s="368"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="368"/>
+      <c r="G16" s="368"/>
+      <c r="H16" s="368"/>
+      <c r="I16" s="368"/>
+      <c r="J16" s="368"/>
+    </row>
+    <row r="17" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="369" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="370" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="370" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="370" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="370" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="370" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="370" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="370" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="371"/>
+      <c r="J17" s="371"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="373" t="n">
+        <v>43549</v>
+      </c>
+      <c r="B18" s="374"/>
+      <c r="C18" s="374"/>
+      <c r="D18" s="374"/>
+      <c r="E18" s="374"/>
+      <c r="F18" s="374" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="G18" s="374" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H18" s="374"/>
+      <c r="I18" s="375"/>
+      <c r="J18" s="375"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="373"/>
+      <c r="B19" s="376"/>
+      <c r="C19" s="376"/>
+      <c r="D19" s="376"/>
+      <c r="E19" s="376"/>
+      <c r="F19" s="376"/>
+      <c r="G19" s="376"/>
+      <c r="H19" s="376"/>
+      <c r="I19" s="376"/>
+      <c r="J19" s="376"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="373"/>
+      <c r="B20" s="376"/>
+      <c r="C20" s="376"/>
+      <c r="D20" s="376"/>
+      <c r="E20" s="376"/>
+      <c r="F20" s="376"/>
+      <c r="G20" s="376"/>
+      <c r="H20" s="376"/>
+      <c r="I20" s="376"/>
+      <c r="J20" s="376"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="373" t="n">
+        <v>43550</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="378"/>
+      <c r="F21" s="21" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="G21" s="21" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="373"/>
+      <c r="B22" s="379" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="379"/>
+      <c r="D22" s="379"/>
+      <c r="E22" s="379"/>
+      <c r="F22" s="379"/>
+      <c r="G22" s="379"/>
+      <c r="H22" s="379"/>
+      <c r="I22" s="379"/>
+      <c r="J22" s="379"/>
+    </row>
+    <row r="23" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="373"/>
+      <c r="B23" s="379"/>
+      <c r="C23" s="379"/>
+      <c r="D23" s="379"/>
+      <c r="E23" s="379"/>
+      <c r="F23" s="379"/>
+      <c r="G23" s="379"/>
+      <c r="H23" s="379"/>
+      <c r="I23" s="379"/>
+      <c r="J23" s="379"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="373" t="n">
+        <v>43551</v>
+      </c>
+      <c r="B24" s="374" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="374"/>
+      <c r="D24" s="374" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" s="374" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="374" t="n">
+        <v>56</v>
+      </c>
+      <c r="G24" s="374" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H24" s="374"/>
+      <c r="I24" s="374"/>
+      <c r="J24" s="374"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="373"/>
+      <c r="B25" s="381" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="381"/>
+      <c r="D25" s="381"/>
+      <c r="E25" s="381"/>
+      <c r="F25" s="381"/>
+      <c r="G25" s="381"/>
+      <c r="H25" s="381"/>
+      <c r="I25" s="381"/>
+      <c r="J25" s="381"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="373"/>
+      <c r="B26" s="381"/>
+      <c r="C26" s="381"/>
+      <c r="D26" s="381"/>
+      <c r="E26" s="381"/>
+      <c r="F26" s="381"/>
+      <c r="G26" s="381"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="381"/>
+      <c r="J26" s="381"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="373" t="n">
+        <v>43552</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="373"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="373"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="373" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B30" s="383"/>
+      <c r="C30" s="383"/>
+      <c r="D30" s="383"/>
+      <c r="E30" s="383"/>
+      <c r="F30" s="383"/>
+      <c r="G30" s="383"/>
+      <c r="H30" s="383"/>
+      <c r="I30" s="383"/>
+      <c r="J30" s="383"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="373"/>
+      <c r="B31" s="387"/>
+      <c r="C31" s="387"/>
+      <c r="D31" s="387"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="387"/>
+      <c r="G31" s="387"/>
+      <c r="H31" s="387"/>
+      <c r="I31" s="387"/>
+      <c r="J31" s="387"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="373"/>
+      <c r="B32" s="387"/>
+      <c r="C32" s="387"/>
+      <c r="D32" s="387"/>
+      <c r="E32" s="387"/>
+      <c r="F32" s="387"/>
+      <c r="G32" s="387"/>
+      <c r="H32" s="387"/>
+      <c r="I32" s="387"/>
+      <c r="J32" s="387"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="373" t="n">
+        <v>43554</v>
+      </c>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="373"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="373"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="373" t="n">
+        <v>43555</v>
+      </c>
+      <c r="B36" s="383"/>
+      <c r="C36" s="383"/>
+      <c r="D36" s="383"/>
+      <c r="E36" s="383"/>
+      <c r="F36" s="383"/>
+      <c r="G36" s="383"/>
+      <c r="H36" s="383"/>
+      <c r="I36" s="383"/>
+      <c r="J36" s="383"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="373"/>
+      <c r="B37" s="387"/>
+      <c r="C37" s="387"/>
+      <c r="D37" s="387"/>
+      <c r="E37" s="387"/>
+      <c r="F37" s="387"/>
+      <c r="G37" s="387"/>
+      <c r="H37" s="387"/>
+      <c r="I37" s="387"/>
+      <c r="J37" s="387"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="373"/>
+      <c r="B38" s="387"/>
+      <c r="C38" s="387"/>
+      <c r="D38" s="387"/>
+      <c r="E38" s="387"/>
+      <c r="F38" s="387"/>
+      <c r="G38" s="387"/>
+      <c r="H38" s="387"/>
+      <c r="I38" s="387"/>
+      <c r="J38" s="387"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B19:J20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B22:J23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B25:J26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B28:J29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B31:J32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B34:J35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B37:J38"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L202"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -12157,23 +12961,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="368"/>
       <c r="B1" s="368" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C1" s="368" t="s">
         <v>127</v>
       </c>
       <c r="D1" s="368" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="388" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="388"/>
+        <v>220</v>
+      </c>
+      <c r="F1" s="389" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="389"/>
       <c r="H1" s="358" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I1" s="358"/>
       <c r="J1" s="358"/>
@@ -12186,182 +12990,182 @@
       <c r="D2" s="368"/>
       <c r="E2" s="368"/>
       <c r="F2" s="368"/>
-      <c r="G2" s="388"/>
+      <c r="G2" s="389"/>
       <c r="H2" s="358"/>
       <c r="I2" s="358"/>
       <c r="J2" s="358"/>
       <c r="K2" s="358"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="389" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="390" t="n">
+      <c r="A3" s="390" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="390"/>
+      <c r="C3" s="391" t="n">
         <f aca="false">(C12+C13+C14+C15+C20+C21+C30+C31+C24+C25+C28+C29+C34)/60</f>
         <v>6.2</v>
       </c>
-      <c r="D3" s="391" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="391" t="n">
+      <c r="D3" s="392" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="392" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="392" t="n">
+      <c r="F3" s="393" t="n">
         <f aca="false">C3*E3</f>
         <v>24.8</v>
       </c>
-      <c r="G3" s="392"/>
-      <c r="H3" s="393" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
-      <c r="K3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="394" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
+      <c r="K3" s="394"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="394" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="395" t="n">
+      <c r="A4" s="395" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="395"/>
+      <c r="C4" s="396" t="n">
         <f aca="false">(C16+C33+C17+C18+C19+C22+C23+C26+C27+C32+C33)/60</f>
         <v>3.86666666666667</v>
       </c>
-      <c r="D4" s="391"/>
-      <c r="E4" s="391"/>
-      <c r="F4" s="396" t="n">
+      <c r="D4" s="392"/>
+      <c r="E4" s="392"/>
+      <c r="F4" s="397" t="n">
         <f aca="false">C4*E3</f>
         <v>15.4666666666667</v>
       </c>
-      <c r="G4" s="396"/>
-      <c r="H4" s="397" t="s">
-        <v>221</v>
-      </c>
-      <c r="I4" s="397"/>
-      <c r="J4" s="397"/>
-      <c r="K4" s="397"/>
+      <c r="G4" s="397"/>
+      <c r="H4" s="398" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="398"/>
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="394" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="398" t="n">
+      <c r="A5" s="395" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="395"/>
+      <c r="C5" s="399" t="n">
         <f aca="false">SUM(C3:C4)</f>
         <v>10.0666666666667</v>
       </c>
-      <c r="D5" s="391"/>
-      <c r="E5" s="391"/>
-      <c r="F5" s="399" t="n">
+      <c r="D5" s="392"/>
+      <c r="E5" s="392"/>
+      <c r="F5" s="400" t="n">
         <f aca="false">C5*E3</f>
         <v>40.2666666666667</v>
       </c>
-      <c r="G5" s="399"/>
-      <c r="H5" s="397" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" s="397"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="397"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="398" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="398"/>
+      <c r="J5" s="398"/>
+      <c r="K5" s="398"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="394" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="394"/>
-      <c r="C6" s="400" t="n">
+      <c r="A6" s="395" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="395"/>
+      <c r="C6" s="401" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="D6" s="400"/>
-      <c r="E6" s="400"/>
-      <c r="F6" s="400"/>
-      <c r="G6" s="400"/>
-      <c r="H6" s="401" t="s">
-        <v>225</v>
-      </c>
-      <c r="I6" s="401"/>
-      <c r="J6" s="401"/>
-      <c r="K6" s="401"/>
+      <c r="D6" s="401"/>
+      <c r="E6" s="401"/>
+      <c r="F6" s="401"/>
+      <c r="G6" s="401"/>
+      <c r="H6" s="402" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="402"/>
+      <c r="J6" s="402"/>
+      <c r="K6" s="402"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="402" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="403"/>
-      <c r="C7" s="404" t="n">
+      <c r="A7" s="403" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="404"/>
+      <c r="C7" s="405" t="n">
         <f aca="false">F5+C6</f>
         <v>49.2666666666667</v>
       </c>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
-      <c r="F7" s="404"/>
-      <c r="G7" s="404"/>
-      <c r="H7" s="397" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="397"/>
-      <c r="J7" s="397"/>
-      <c r="K7" s="397"/>
+      <c r="D7" s="405"/>
+      <c r="E7" s="405"/>
+      <c r="F7" s="405"/>
+      <c r="G7" s="405"/>
+      <c r="H7" s="398" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="398"/>
+      <c r="J7" s="398"/>
+      <c r="K7" s="398"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="394" t="s">
+      <c r="A8" s="395" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="394"/>
-      <c r="C8" s="405" t="n">
+      <c r="B8" s="395"/>
+      <c r="C8" s="406" t="n">
         <v>43532</v>
       </c>
-      <c r="D8" s="405"/>
-      <c r="E8" s="405"/>
-      <c r="F8" s="405"/>
-      <c r="G8" s="405"/>
-      <c r="H8" s="406"/>
-      <c r="I8" s="406"/>
-      <c r="J8" s="406"/>
-      <c r="K8" s="406"/>
+      <c r="D8" s="406"/>
+      <c r="E8" s="406"/>
+      <c r="F8" s="406"/>
+      <c r="G8" s="406"/>
+      <c r="H8" s="407"/>
+      <c r="I8" s="407"/>
+      <c r="J8" s="407"/>
+      <c r="K8" s="407"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="407" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="407"/>
-      <c r="C9" s="408" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="408"/>
-      <c r="E9" s="408"/>
-      <c r="F9" s="408"/>
-      <c r="G9" s="408"/>
-      <c r="H9" s="406"/>
-      <c r="I9" s="406"/>
-      <c r="J9" s="406"/>
-      <c r="K9" s="406"/>
+      <c r="A9" s="408" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="408"/>
+      <c r="C9" s="409" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="409"/>
+      <c r="E9" s="409"/>
+      <c r="F9" s="409"/>
+      <c r="G9" s="409"/>
+      <c r="H9" s="407"/>
+      <c r="I9" s="407"/>
+      <c r="J9" s="407"/>
+      <c r="K9" s="407"/>
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="407"/>
-      <c r="B10" s="407"/>
-      <c r="C10" s="408"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="408"/>
-      <c r="F10" s="408"/>
-      <c r="G10" s="408"/>
-      <c r="H10" s="409"/>
-      <c r="I10" s="409"/>
-      <c r="J10" s="409"/>
-      <c r="K10" s="409"/>
+      <c r="A10" s="408"/>
+      <c r="B10" s="408"/>
+      <c r="C10" s="409"/>
+      <c r="D10" s="409"/>
+      <c r="E10" s="409"/>
+      <c r="F10" s="409"/>
+      <c r="G10" s="409"/>
+      <c r="H10" s="410"/>
+      <c r="I10" s="410"/>
+      <c r="J10" s="410"/>
+      <c r="K10" s="410"/>
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="410"/>
-      <c r="B11" s="411" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="411"/>
-      <c r="D11" s="411"/>
-      <c r="E11" s="411"/>
+      <c r="A11" s="411"/>
+      <c r="B11" s="412" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="412"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="412"/>
       <c r="F11" s="180" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G11" s="180"/>
       <c r="H11" s="180"/>
@@ -12370,621 +13174,621 @@
       <c r="K11" s="180"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="412" t="n">
+      <c r="A12" s="413" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="413" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="414" t="n">
+      <c r="B12" s="414" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D12" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="415" t="s">
+      <c r="D12" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="416" t="n">
+      <c r="F12" s="417" t="n">
         <v>14</v>
       </c>
-      <c r="G12" s="416" t="n">
+      <c r="G12" s="417" t="n">
         <v>16</v>
       </c>
-      <c r="H12" s="416" t="n">
+      <c r="H12" s="417" t="n">
         <v>17</v>
       </c>
-      <c r="I12" s="416" t="n">
+      <c r="I12" s="417" t="n">
         <v>18</v>
       </c>
-      <c r="J12" s="416"/>
-      <c r="K12" s="417"/>
+      <c r="J12" s="417"/>
+      <c r="K12" s="418"/>
     </row>
     <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="412"/>
-      <c r="B13" s="418" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="419" t="n">
+      <c r="A13" s="413"/>
+      <c r="B13" s="419" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="D13" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="415"/>
-      <c r="F13" s="416"/>
-      <c r="G13" s="416"/>
-      <c r="H13" s="416"/>
-      <c r="I13" s="416"/>
-      <c r="J13" s="416"/>
-      <c r="K13" s="417"/>
+      <c r="D13" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="416"/>
+      <c r="F13" s="417"/>
+      <c r="G13" s="417"/>
+      <c r="H13" s="417"/>
+      <c r="I13" s="417"/>
+      <c r="J13" s="417"/>
+      <c r="K13" s="418"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="420" t="n">
+      <c r="A14" s="421" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="414" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="414" t="n">
+      <c r="B14" s="415" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D14" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="421" t="s">
+      <c r="D14" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="422" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="422" t="n">
+      <c r="F14" s="423" t="n">
         <v>36</v>
       </c>
-      <c r="G14" s="422" t="n">
+      <c r="G14" s="423" t="n">
         <v>40</v>
       </c>
-      <c r="H14" s="422" t="n">
+      <c r="H14" s="423" t="n">
         <v>40</v>
       </c>
-      <c r="I14" s="422" t="n">
+      <c r="I14" s="423" t="n">
         <v>45</v>
       </c>
-      <c r="J14" s="423"/>
-      <c r="K14" s="424"/>
+      <c r="J14" s="424"/>
+      <c r="K14" s="425"/>
     </row>
     <row r="15" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="420"/>
-      <c r="B15" s="425" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="425" t="n">
+      <c r="A15" s="421"/>
+      <c r="B15" s="426" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="426" t="n">
         <v>22</v>
       </c>
-      <c r="D15" s="425" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="421"/>
-      <c r="F15" s="422"/>
-      <c r="G15" s="422"/>
-      <c r="H15" s="422"/>
-      <c r="I15" s="422"/>
-      <c r="J15" s="423"/>
-      <c r="K15" s="424"/>
+      <c r="D15" s="426" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="422"/>
+      <c r="F15" s="423"/>
+      <c r="G15" s="423"/>
+      <c r="H15" s="423"/>
+      <c r="I15" s="423"/>
+      <c r="J15" s="424"/>
+      <c r="K15" s="425"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="426" t="n">
+      <c r="A16" s="427" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="414" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="414" t="n">
+      <c r="B16" s="415" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D16" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" s="427" t="s">
+      <c r="D16" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="416" t="n">
+      <c r="F16" s="417" t="n">
         <v>10</v>
       </c>
-      <c r="G16" s="416" t="n">
+      <c r="G16" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="H16" s="416" t="n">
+      <c r="H16" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="I16" s="416" t="n">
+      <c r="I16" s="417" t="n">
         <v>13</v>
       </c>
-      <c r="J16" s="428"/>
-      <c r="K16" s="429"/>
+      <c r="J16" s="429"/>
+      <c r="K16" s="430"/>
     </row>
     <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="426"/>
-      <c r="B17" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="430" t="n">
+      <c r="A17" s="427"/>
+      <c r="B17" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="D17" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="427"/>
-      <c r="F17" s="416"/>
-      <c r="G17" s="416"/>
-      <c r="H17" s="416"/>
-      <c r="I17" s="416"/>
-      <c r="J17" s="428"/>
-      <c r="K17" s="429"/>
+      <c r="D17" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="428"/>
+      <c r="F17" s="417"/>
+      <c r="G17" s="417"/>
+      <c r="H17" s="417"/>
+      <c r="I17" s="417"/>
+      <c r="J17" s="429"/>
+      <c r="K17" s="430"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="426" t="n">
+      <c r="A18" s="427" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="414" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="414" t="n">
+      <c r="B18" s="415" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D18" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="427" t="s">
+      <c r="D18" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="416" t="n">
+      <c r="F18" s="417" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="416" t="n">
+      <c r="G18" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="H18" s="416" t="n">
+      <c r="H18" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="I18" s="416" t="n">
+      <c r="I18" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="J18" s="428"/>
-      <c r="K18" s="429"/>
+      <c r="J18" s="429"/>
+      <c r="K18" s="430"/>
     </row>
     <row r="19" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="426"/>
-      <c r="B19" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="430" t="n">
+      <c r="A19" s="427"/>
+      <c r="B19" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="D19" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="427"/>
-      <c r="F19" s="416"/>
-      <c r="G19" s="416"/>
-      <c r="H19" s="416"/>
-      <c r="I19" s="416"/>
-      <c r="J19" s="428"/>
-      <c r="K19" s="429"/>
+      <c r="D19" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="428"/>
+      <c r="F19" s="417"/>
+      <c r="G19" s="417"/>
+      <c r="H19" s="417"/>
+      <c r="I19" s="417"/>
+      <c r="J19" s="429"/>
+      <c r="K19" s="430"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="426" t="n">
+      <c r="A20" s="427" t="n">
         <v>5</v>
       </c>
-      <c r="B20" s="414" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="414" t="n">
+      <c r="B20" s="415" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D20" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="415" t="s">
+      <c r="D20" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="416" t="n">
+      <c r="F20" s="417" t="n">
         <v>50</v>
       </c>
-      <c r="G20" s="416" t="n">
+      <c r="G20" s="417" t="n">
         <v>55</v>
       </c>
-      <c r="H20" s="416" t="n">
+      <c r="H20" s="417" t="n">
         <v>65</v>
       </c>
-      <c r="I20" s="416" t="n">
+      <c r="I20" s="417" t="n">
         <v>67</v>
       </c>
-      <c r="J20" s="428"/>
-      <c r="K20" s="429"/>
+      <c r="J20" s="429"/>
+      <c r="K20" s="430"/>
     </row>
     <row r="21" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="426"/>
-      <c r="B21" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="419" t="n">
+      <c r="A21" s="427"/>
+      <c r="B21" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="D21" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="415"/>
-      <c r="F21" s="416"/>
-      <c r="G21" s="416"/>
-      <c r="H21" s="416"/>
-      <c r="I21" s="416"/>
-      <c r="J21" s="428"/>
-      <c r="K21" s="429"/>
+      <c r="D21" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="416"/>
+      <c r="F21" s="417"/>
+      <c r="G21" s="417"/>
+      <c r="H21" s="417"/>
+      <c r="I21" s="417"/>
+      <c r="J21" s="429"/>
+      <c r="K21" s="430"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="426" t="n">
+      <c r="A22" s="427" t="n">
         <v>6</v>
       </c>
-      <c r="B22" s="414" t="s">
+      <c r="B22" s="415" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="C22" s="414" t="n">
+      <c r="E22" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="417" t="n">
+        <v>12</v>
+      </c>
+      <c r="G22" s="417" t="n">
+        <v>13</v>
+      </c>
+      <c r="H22" s="417" t="n">
+        <v>12</v>
+      </c>
+      <c r="I22" s="417" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" s="429"/>
+      <c r="K22" s="430"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="427"/>
+      <c r="B23" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="428"/>
+      <c r="F23" s="417"/>
+      <c r="G23" s="417"/>
+      <c r="H23" s="417"/>
+      <c r="I23" s="417"/>
+      <c r="J23" s="429"/>
+      <c r="K23" s="430"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="427" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="415" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D22" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="427" t="s">
+      <c r="D24" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="417" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" s="417" t="n">
+        <v>24</v>
+      </c>
+      <c r="H24" s="417" t="n">
+        <v>17</v>
+      </c>
+      <c r="I24" s="417" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" s="429"/>
+      <c r="K24" s="430"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="427"/>
+      <c r="B25" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="416"/>
+      <c r="F25" s="417"/>
+      <c r="G25" s="417"/>
+      <c r="H25" s="417"/>
+      <c r="I25" s="417"/>
+      <c r="J25" s="429"/>
+      <c r="K25" s="430"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="427" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="415" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="D26" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="416" t="n">
+      <c r="F26" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="I26" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" s="429"/>
+      <c r="K26" s="430"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="427"/>
+      <c r="B27" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="D27" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="428"/>
+      <c r="F27" s="417"/>
+      <c r="G27" s="417"/>
+      <c r="H27" s="417"/>
+      <c r="I27" s="417"/>
+      <c r="J27" s="429"/>
+      <c r="K27" s="430"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="427" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" s="415" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="417" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="417" t="n">
+        <v>11</v>
+      </c>
+      <c r="H28" s="417" t="n">
+        <v>11</v>
+      </c>
+      <c r="I28" s="417" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" s="429"/>
+      <c r="K28" s="430"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="427"/>
+      <c r="B29" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="D29" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="416"/>
+      <c r="F29" s="417"/>
+      <c r="G29" s="417"/>
+      <c r="H29" s="417"/>
+      <c r="I29" s="417"/>
+      <c r="J29" s="429"/>
+      <c r="K29" s="430"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="427" t="n">
+        <v>10</v>
+      </c>
+      <c r="B30" s="415" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="417" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" s="417" t="n">
+        <v>15</v>
+      </c>
+      <c r="H30" s="417" t="n">
+        <v>13</v>
+      </c>
+      <c r="I30" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="J30" s="429"/>
+      <c r="K30" s="430"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="427"/>
+      <c r="B31" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="D31" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="416"/>
+      <c r="F31" s="417"/>
+      <c r="G31" s="417"/>
+      <c r="H31" s="417"/>
+      <c r="I31" s="417"/>
+      <c r="J31" s="429"/>
+      <c r="K31" s="430"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="427" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" s="415" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="D32" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="417" t="n">
+        <v>17</v>
+      </c>
+      <c r="G32" s="417" t="n">
+        <v>20</v>
+      </c>
+      <c r="H32" s="417" t="n">
+        <v>18</v>
+      </c>
+      <c r="I32" s="417" t="n">
+        <v>19</v>
+      </c>
+      <c r="J32" s="429"/>
+      <c r="K32" s="430"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="427"/>
+      <c r="B33" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="D33" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" s="428"/>
+      <c r="F33" s="417"/>
+      <c r="G33" s="417"/>
+      <c r="H33" s="417"/>
+      <c r="I33" s="417"/>
+      <c r="J33" s="429"/>
+      <c r="K33" s="430"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="427" t="n">
         <v>12</v>
       </c>
-      <c r="G22" s="416" t="n">
-        <v>13</v>
-      </c>
-      <c r="H22" s="416" t="n">
-        <v>12</v>
-      </c>
-      <c r="I22" s="416" t="n">
-        <v>13</v>
-      </c>
-      <c r="J22" s="428"/>
-      <c r="K22" s="429"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="426"/>
-      <c r="B23" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="D23" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="427"/>
-      <c r="F23" s="416"/>
-      <c r="G23" s="416"/>
-      <c r="H23" s="416"/>
-      <c r="I23" s="416"/>
-      <c r="J23" s="428"/>
-      <c r="K23" s="429"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="426" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" s="414" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="415" t="s">
+      <c r="B34" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="415" t="n">
+        <v>120</v>
+      </c>
+      <c r="D34" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="416" t="n">
-        <v>20</v>
-      </c>
-      <c r="G24" s="416" t="n">
-        <v>24</v>
-      </c>
-      <c r="H24" s="416" t="n">
-        <v>17</v>
-      </c>
-      <c r="I24" s="416" t="n">
-        <v>25</v>
-      </c>
-      <c r="J24" s="428"/>
-      <c r="K24" s="429"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="426"/>
-      <c r="B25" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="415"/>
-      <c r="F25" s="416"/>
-      <c r="G25" s="416"/>
-      <c r="H25" s="416"/>
-      <c r="I25" s="416"/>
-      <c r="J25" s="428"/>
-      <c r="K25" s="429"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="426" t="n">
-        <v>8</v>
-      </c>
-      <c r="B26" s="414" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="D26" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="416" t="n">
-        <v>7</v>
-      </c>
-      <c r="G26" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="H26" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="I26" s="416" t="n">
-        <v>7</v>
-      </c>
-      <c r="J26" s="428"/>
-      <c r="K26" s="429"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="426"/>
-      <c r="B27" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="D27" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="427"/>
-      <c r="F27" s="416"/>
-      <c r="G27" s="416"/>
-      <c r="H27" s="416"/>
-      <c r="I27" s="416"/>
-      <c r="J27" s="428"/>
-      <c r="K27" s="429"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="426" t="n">
-        <v>9</v>
-      </c>
-      <c r="B28" s="414" t="s">
-        <v>241</v>
-      </c>
-      <c r="C28" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="D28" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="416" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" s="416" t="n">
-        <v>11</v>
-      </c>
-      <c r="H28" s="416" t="n">
-        <v>11</v>
-      </c>
-      <c r="I28" s="416" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" s="428"/>
-      <c r="K28" s="429"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="426"/>
-      <c r="B29" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="D29" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="415"/>
-      <c r="F29" s="416"/>
-      <c r="G29" s="416"/>
-      <c r="H29" s="416"/>
-      <c r="I29" s="416"/>
-      <c r="J29" s="428"/>
-      <c r="K29" s="429"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="426" t="n">
-        <v>10</v>
-      </c>
-      <c r="B30" s="414" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="D30" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" s="416" t="n">
-        <v>15</v>
-      </c>
-      <c r="G30" s="416" t="n">
-        <v>15</v>
-      </c>
-      <c r="H30" s="416" t="n">
-        <v>13</v>
-      </c>
-      <c r="I30" s="416" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" s="428"/>
-      <c r="K30" s="429"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="426"/>
-      <c r="B31" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="D31" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" s="415"/>
-      <c r="F31" s="416"/>
-      <c r="G31" s="416"/>
-      <c r="H31" s="416"/>
-      <c r="I31" s="416"/>
-      <c r="J31" s="428"/>
-      <c r="K31" s="429"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="426" t="n">
-        <v>11</v>
-      </c>
-      <c r="B32" s="414" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="D32" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="416" t="n">
-        <v>17</v>
-      </c>
-      <c r="G32" s="416" t="n">
-        <v>20</v>
-      </c>
-      <c r="H32" s="416" t="n">
-        <v>18</v>
-      </c>
-      <c r="I32" s="416" t="n">
-        <v>19</v>
-      </c>
-      <c r="J32" s="428"/>
-      <c r="K32" s="429"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="426"/>
-      <c r="B33" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="D33" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" s="427"/>
-      <c r="F33" s="416"/>
-      <c r="G33" s="416"/>
-      <c r="H33" s="416"/>
-      <c r="I33" s="416"/>
-      <c r="J33" s="428"/>
-      <c r="K33" s="429"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="426" t="n">
-        <v>12</v>
-      </c>
-      <c r="B34" s="414" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="414" t="n">
-        <v>120</v>
-      </c>
-      <c r="D34" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="416" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" s="416" t="s">
-        <v>245</v>
-      </c>
-      <c r="H34" s="416" t="s">
-        <v>245</v>
-      </c>
-      <c r="I34" s="416" t="s">
-        <v>245</v>
-      </c>
-      <c r="J34" s="428"/>
-      <c r="K34" s="429"/>
+      <c r="F34" s="417" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="417" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="417" t="s">
+        <v>251</v>
+      </c>
+      <c r="I34" s="417" t="s">
+        <v>251</v>
+      </c>
+      <c r="J34" s="429"/>
+      <c r="K34" s="430"/>
     </row>
     <row r="35" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="426"/>
-      <c r="B35" s="431"/>
-      <c r="C35" s="431"/>
-      <c r="D35" s="431"/>
-      <c r="E35" s="415"/>
-      <c r="F35" s="416"/>
-      <c r="G35" s="416"/>
-      <c r="H35" s="416"/>
-      <c r="I35" s="416"/>
-      <c r="J35" s="428"/>
-      <c r="K35" s="429"/>
+      <c r="A35" s="427"/>
+      <c r="B35" s="432"/>
+      <c r="C35" s="432"/>
+      <c r="D35" s="432"/>
+      <c r="E35" s="416"/>
+      <c r="F35" s="417"/>
+      <c r="G35" s="417"/>
+      <c r="H35" s="417"/>
+      <c r="I35" s="417"/>
+      <c r="J35" s="429"/>
+      <c r="K35" s="430"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>214</v>
-      </c>
-      <c r="G40" s="388" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40" s="388"/>
+        <v>220</v>
+      </c>
+      <c r="G40" s="389" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="389"/>
       <c r="I40" s="358" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -12997,186 +13801,186 @@
       <c r="E41" s="368"/>
       <c r="F41" s="368"/>
       <c r="G41" s="368"/>
-      <c r="H41" s="388"/>
+      <c r="H41" s="389"/>
       <c r="I41" s="358"/>
       <c r="J41" s="358"/>
       <c r="K41" s="358"/>
       <c r="L41" s="358"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="389" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="389"/>
-      <c r="D42" s="390" t="n">
+      <c r="B42" s="390" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="390"/>
+      <c r="D42" s="391" t="n">
         <f aca="false">(D51+D52+D53+D54+D59+D60+D67+D68+D63+D64+D71+D72+D75)/60</f>
         <v>6.2</v>
       </c>
-      <c r="E42" s="391" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="391" t="n">
+      <c r="E42" s="392" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="392" t="n">
         <v>4</v>
       </c>
-      <c r="G42" s="392" t="n">
+      <c r="G42" s="393" t="n">
         <f aca="false">D42*F42</f>
         <v>24.8</v>
       </c>
-      <c r="H42" s="392"/>
-      <c r="I42" s="393" t="s">
-        <v>247</v>
-      </c>
-      <c r="J42" s="393"/>
-      <c r="K42" s="393"/>
-      <c r="L42" s="393"/>
+      <c r="H42" s="393"/>
+      <c r="I42" s="394" t="s">
+        <v>253</v>
+      </c>
+      <c r="J42" s="394"/>
+      <c r="K42" s="394"/>
+      <c r="L42" s="394"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="394" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" s="394"/>
-      <c r="D43" s="395" t="n">
+      <c r="B43" s="395" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" s="395"/>
+      <c r="D43" s="396" t="n">
         <f aca="false">(D55+D70+D56+D57+D58+D61+D62+D65+D66+D69+D70+D73+D74)/60</f>
         <v>4.56666666666667</v>
       </c>
-      <c r="E43" s="391"/>
-      <c r="F43" s="391"/>
-      <c r="G43" s="396" t="n">
+      <c r="E43" s="392"/>
+      <c r="F43" s="392"/>
+      <c r="G43" s="397" t="n">
         <f aca="false">D43*F42</f>
         <v>18.2666666666667</v>
       </c>
-      <c r="H43" s="396"/>
-      <c r="I43" s="397" t="s">
-        <v>221</v>
-      </c>
-      <c r="J43" s="397"/>
-      <c r="K43" s="397"/>
-      <c r="L43" s="397"/>
+      <c r="H43" s="397"/>
+      <c r="I43" s="398" t="s">
+        <v>227</v>
+      </c>
+      <c r="J43" s="398"/>
+      <c r="K43" s="398"/>
+      <c r="L43" s="398"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="394" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="394"/>
-      <c r="D44" s="398" t="n">
+      <c r="B44" s="395" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="395"/>
+      <c r="D44" s="399" t="n">
         <f aca="false">SUM(D42:D43)</f>
         <v>10.7666666666667</v>
       </c>
-      <c r="E44" s="391"/>
-      <c r="F44" s="391"/>
-      <c r="G44" s="399" t="n">
+      <c r="E44" s="392"/>
+      <c r="F44" s="392"/>
+      <c r="G44" s="400" t="n">
         <f aca="false">D44*F42</f>
         <v>43.0666666666667</v>
       </c>
-      <c r="H44" s="399"/>
-      <c r="I44" s="397" t="s">
-        <v>223</v>
-      </c>
-      <c r="J44" s="397"/>
-      <c r="K44" s="397"/>
-      <c r="L44" s="397"/>
+      <c r="H44" s="400"/>
+      <c r="I44" s="398" t="s">
+        <v>229</v>
+      </c>
+      <c r="J44" s="398"/>
+      <c r="K44" s="398"/>
+      <c r="L44" s="398"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="394" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="394"/>
-      <c r="D45" s="400" t="n">
+      <c r="B45" s="395" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="395"/>
+      <c r="D45" s="401" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="E45" s="400"/>
-      <c r="F45" s="400"/>
-      <c r="G45" s="400"/>
-      <c r="H45" s="400"/>
-      <c r="I45" s="401" t="s">
-        <v>225</v>
-      </c>
-      <c r="J45" s="401"/>
-      <c r="K45" s="401"/>
-      <c r="L45" s="401"/>
+      <c r="E45" s="401"/>
+      <c r="F45" s="401"/>
+      <c r="G45" s="401"/>
+      <c r="H45" s="401"/>
+      <c r="I45" s="402" t="s">
+        <v>231</v>
+      </c>
+      <c r="J45" s="402"/>
+      <c r="K45" s="402"/>
+      <c r="L45" s="402"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="402" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" s="403"/>
-      <c r="D46" s="404" t="n">
+      <c r="B46" s="403" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="404"/>
+      <c r="D46" s="405" t="n">
         <f aca="false">G44+D45</f>
         <v>52.0666666666667</v>
       </c>
-      <c r="E46" s="404"/>
-      <c r="F46" s="404"/>
-      <c r="G46" s="404"/>
-      <c r="H46" s="404"/>
-      <c r="I46" s="397" t="s">
-        <v>227</v>
-      </c>
-      <c r="J46" s="397"/>
-      <c r="K46" s="397"/>
-      <c r="L46" s="397"/>
+      <c r="E46" s="405"/>
+      <c r="F46" s="405"/>
+      <c r="G46" s="405"/>
+      <c r="H46" s="405"/>
+      <c r="I46" s="398" t="s">
+        <v>233</v>
+      </c>
+      <c r="J46" s="398"/>
+      <c r="K46" s="398"/>
+      <c r="L46" s="398"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="394" t="s">
+      <c r="B47" s="395" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="394"/>
-      <c r="D47" s="432" t="n">
+      <c r="C47" s="395"/>
+      <c r="D47" s="406" t="n">
         <v>43539</v>
       </c>
-      <c r="E47" s="432"/>
-      <c r="F47" s="432"/>
-      <c r="G47" s="432"/>
-      <c r="H47" s="432"/>
-      <c r="I47" s="397" t="s">
-        <v>219</v>
-      </c>
-      <c r="J47" s="397"/>
-      <c r="K47" s="397"/>
-      <c r="L47" s="397"/>
+      <c r="E47" s="406"/>
+      <c r="F47" s="406"/>
+      <c r="G47" s="406"/>
+      <c r="H47" s="406"/>
+      <c r="I47" s="398" t="s">
+        <v>225</v>
+      </c>
+      <c r="J47" s="398"/>
+      <c r="K47" s="398"/>
+      <c r="L47" s="398"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="407" t="s">
-        <v>228</v>
-      </c>
-      <c r="C48" s="407"/>
-      <c r="D48" s="408" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" s="408"/>
-      <c r="F48" s="408"/>
-      <c r="G48" s="408"/>
-      <c r="H48" s="408"/>
-      <c r="I48" s="397" t="s">
-        <v>248</v>
-      </c>
-      <c r="J48" s="397"/>
-      <c r="K48" s="397"/>
-      <c r="L48" s="397"/>
+      <c r="B48" s="408" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="408"/>
+      <c r="D48" s="409" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="409"/>
+      <c r="F48" s="409"/>
+      <c r="G48" s="409"/>
+      <c r="H48" s="409"/>
+      <c r="I48" s="398" t="s">
+        <v>254</v>
+      </c>
+      <c r="J48" s="398"/>
+      <c r="K48" s="398"/>
+      <c r="L48" s="398"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="407"/>
-      <c r="C49" s="407"/>
-      <c r="D49" s="408"/>
-      <c r="E49" s="408"/>
-      <c r="F49" s="408"/>
-      <c r="G49" s="408"/>
-      <c r="H49" s="408"/>
-      <c r="I49" s="409"/>
-      <c r="J49" s="409"/>
-      <c r="K49" s="409"/>
-      <c r="L49" s="409"/>
+      <c r="B49" s="408"/>
+      <c r="C49" s="408"/>
+      <c r="D49" s="409"/>
+      <c r="E49" s="409"/>
+      <c r="F49" s="409"/>
+      <c r="G49" s="409"/>
+      <c r="H49" s="409"/>
+      <c r="I49" s="410"/>
+      <c r="J49" s="410"/>
+      <c r="K49" s="410"/>
+      <c r="L49" s="410"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="410"/>
-      <c r="C50" s="411" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50" s="411"/>
-      <c r="E50" s="411"/>
-      <c r="F50" s="411"/>
+      <c r="B50" s="411"/>
+      <c r="C50" s="412" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="412"/>
+      <c r="E50" s="412"/>
+      <c r="F50" s="412"/>
       <c r="G50" s="180" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -13185,644 +13989,644 @@
       <c r="L50" s="180"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="412" t="n">
+      <c r="B51" s="413" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="413" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="414" t="n">
+      <c r="C51" s="414" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E51" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F51" s="415" t="s">
+      <c r="E51" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G51" s="416" t="n">
+      <c r="G51" s="417" t="n">
         <v>7</v>
       </c>
-      <c r="H51" s="416" t="n">
+      <c r="H51" s="417" t="n">
         <v>6</v>
       </c>
-      <c r="I51" s="416" t="n">
+      <c r="I51" s="417" t="n">
         <v>7</v>
       </c>
-      <c r="J51" s="416" t="n">
+      <c r="J51" s="417" t="n">
         <v>6</v>
       </c>
-      <c r="K51" s="416"/>
-      <c r="L51" s="417"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="418"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="412"/>
-      <c r="C52" s="418" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" s="419" t="n">
+      <c r="B52" s="413"/>
+      <c r="C52" s="419" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E52" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F52" s="415"/>
-      <c r="G52" s="416"/>
-      <c r="H52" s="416"/>
-      <c r="I52" s="416"/>
-      <c r="J52" s="416"/>
-      <c r="K52" s="416"/>
-      <c r="L52" s="417"/>
+      <c r="E52" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="416"/>
+      <c r="G52" s="417"/>
+      <c r="H52" s="417"/>
+      <c r="I52" s="417"/>
+      <c r="J52" s="417"/>
+      <c r="K52" s="417"/>
+      <c r="L52" s="418"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="420" t="n">
+      <c r="B53" s="421" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="414" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" s="414" t="n">
+      <c r="C53" s="415" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E53" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F53" s="421" t="s">
+      <c r="E53" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="422" t="s">
         <v>146</v>
       </c>
-      <c r="G53" s="422" t="n">
+      <c r="G53" s="423" t="n">
         <v>18</v>
       </c>
-      <c r="H53" s="422" t="n">
+      <c r="H53" s="423" t="n">
         <v>18</v>
       </c>
-      <c r="I53" s="422" t="n">
+      <c r="I53" s="423" t="n">
         <v>17</v>
       </c>
-      <c r="J53" s="422" t="n">
+      <c r="J53" s="423" t="n">
         <v>16</v>
       </c>
-      <c r="K53" s="423"/>
-      <c r="L53" s="424"/>
+      <c r="K53" s="424"/>
+      <c r="L53" s="425"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="420"/>
-      <c r="C54" s="425" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="425" t="n">
+      <c r="B54" s="421"/>
+      <c r="C54" s="426" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="426" t="n">
         <v>22</v>
       </c>
-      <c r="E54" s="425" t="s">
-        <v>233</v>
-      </c>
-      <c r="F54" s="421"/>
-      <c r="G54" s="422"/>
-      <c r="H54" s="422"/>
-      <c r="I54" s="422"/>
-      <c r="J54" s="422"/>
-      <c r="K54" s="423"/>
-      <c r="L54" s="424"/>
+      <c r="E54" s="426" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="422"/>
+      <c r="G54" s="423"/>
+      <c r="H54" s="423"/>
+      <c r="I54" s="423"/>
+      <c r="J54" s="423"/>
+      <c r="K54" s="424"/>
+      <c r="L54" s="425"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="412" t="n">
+      <c r="B55" s="413" t="n">
         <v>3</v>
       </c>
-      <c r="C55" s="414" t="s">
-        <v>236</v>
-      </c>
-      <c r="D55" s="414" t="n">
+      <c r="C55" s="415" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E55" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F55" s="427" t="s">
+      <c r="E55" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G55" s="416" t="n">
+      <c r="G55" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="H55" s="416" t="n">
+      <c r="H55" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="I55" s="416" t="n">
+      <c r="I55" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="J55" s="416" t="n">
+      <c r="J55" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="K55" s="428"/>
-      <c r="L55" s="429"/>
+      <c r="K55" s="429"/>
+      <c r="L55" s="430"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="412"/>
-      <c r="C56" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="430" t="n">
+      <c r="B56" s="413"/>
+      <c r="C56" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E56" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F56" s="427"/>
-      <c r="G56" s="416"/>
-      <c r="H56" s="416"/>
-      <c r="I56" s="416"/>
-      <c r="J56" s="416"/>
-      <c r="K56" s="428"/>
-      <c r="L56" s="429"/>
+      <c r="E56" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="428"/>
+      <c r="G56" s="417"/>
+      <c r="H56" s="417"/>
+      <c r="I56" s="417"/>
+      <c r="J56" s="417"/>
+      <c r="K56" s="429"/>
+      <c r="L56" s="430"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="420" t="n">
+      <c r="B57" s="421" t="n">
         <v>4</v>
       </c>
-      <c r="C57" s="414" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" s="414" t="n">
+      <c r="C57" s="415" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E57" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F57" s="427" t="s">
+      <c r="E57" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="416" t="n">
+      <c r="G57" s="417" t="n">
         <v>13</v>
       </c>
-      <c r="H57" s="416" t="n">
+      <c r="H57" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="I57" s="416" t="n">
+      <c r="I57" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="J57" s="416" t="n">
+      <c r="J57" s="417" t="n">
         <v>13</v>
       </c>
-      <c r="K57" s="428"/>
-      <c r="L57" s="429"/>
+      <c r="K57" s="429"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="420"/>
-      <c r="C58" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" s="430" t="n">
+      <c r="B58" s="421"/>
+      <c r="C58" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E58" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F58" s="427"/>
-      <c r="G58" s="416"/>
-      <c r="H58" s="416"/>
-      <c r="I58" s="416"/>
-      <c r="J58" s="416"/>
-      <c r="K58" s="428"/>
-      <c r="L58" s="429"/>
+      <c r="E58" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F58" s="428"/>
+      <c r="G58" s="417"/>
+      <c r="H58" s="417"/>
+      <c r="I58" s="417"/>
+      <c r="J58" s="417"/>
+      <c r="K58" s="429"/>
+      <c r="L58" s="430"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="412" t="n">
+      <c r="B59" s="413" t="n">
         <v>5</v>
       </c>
       <c r="C59" s="433" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D59" s="433" t="n">
         <v>20</v>
       </c>
       <c r="E59" s="433" t="s">
-        <v>233</v>
-      </c>
-      <c r="F59" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="416" t="s">
+      <c r="G59" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="H59" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="I59" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="J59" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="K59" s="429"/>
+      <c r="L59" s="430"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="413"/>
+      <c r="C60" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E60" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" s="416"/>
+      <c r="G60" s="417"/>
+      <c r="H60" s="417"/>
+      <c r="I60" s="417"/>
+      <c r="J60" s="417"/>
+      <c r="K60" s="429"/>
+      <c r="L60" s="430"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="421" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" s="415" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E61" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="H61" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="I61" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="K61" s="429"/>
+      <c r="L61" s="430"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="421"/>
+      <c r="C62" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E62" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F62" s="428"/>
+      <c r="G62" s="417"/>
+      <c r="H62" s="417"/>
+      <c r="I62" s="417"/>
+      <c r="J62" s="417"/>
+      <c r="K62" s="429"/>
+      <c r="L62" s="430"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="413" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" s="415" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" s="417" t="n">
+        <v>21</v>
+      </c>
+      <c r="H63" s="417" t="n">
+        <v>25</v>
+      </c>
+      <c r="I63" s="417" t="n">
+        <v>24</v>
+      </c>
+      <c r="J63" s="417" t="n">
+        <v>26</v>
+      </c>
+      <c r="K63" s="429"/>
+      <c r="L63" s="430"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="413"/>
+      <c r="C64" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E64" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" s="416"/>
+      <c r="G64" s="417"/>
+      <c r="H64" s="417"/>
+      <c r="I64" s="417"/>
+      <c r="J64" s="417"/>
+      <c r="K64" s="429"/>
+      <c r="L64" s="430"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" s="415" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E65" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="H65" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="I65" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" s="429"/>
+      <c r="L65" s="430"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="421"/>
+      <c r="C66" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E66" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" s="428"/>
+      <c r="G66" s="417"/>
+      <c r="H66" s="417"/>
+      <c r="I66" s="417"/>
+      <c r="J66" s="417"/>
+      <c r="K66" s="429"/>
+      <c r="L66" s="430"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="413" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" s="415" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E67" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F67" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="417" t="n">
+        <v>18</v>
+      </c>
+      <c r="H67" s="417" t="n">
+        <v>18</v>
+      </c>
+      <c r="I67" s="417" t="n">
+        <v>17</v>
+      </c>
+      <c r="J67" s="417" t="n">
+        <v>19</v>
+      </c>
+      <c r="K67" s="429"/>
+      <c r="L67" s="430"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="413"/>
+      <c r="C68" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E68" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F68" s="416"/>
+      <c r="G68" s="417"/>
+      <c r="H68" s="417"/>
+      <c r="I68" s="417"/>
+      <c r="J68" s="417"/>
+      <c r="K68" s="429"/>
+      <c r="L68" s="430"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="421" t="n">
+        <v>10</v>
+      </c>
+      <c r="C69" s="415" t="s">
         <v>249</v>
       </c>
-      <c r="H59" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="I59" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="J59" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="K59" s="428"/>
-      <c r="L59" s="429"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="412"/>
-      <c r="C60" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="419" t="n">
+      <c r="D69" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E69" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69" s="417" t="n">
+        <v>19</v>
+      </c>
+      <c r="H69" s="417" t="n">
+        <v>20</v>
+      </c>
+      <c r="I69" s="417" t="n">
+        <v>19</v>
+      </c>
+      <c r="J69" s="417" t="n">
         <v>22</v>
       </c>
-      <c r="E60" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F60" s="415"/>
-      <c r="G60" s="416"/>
-      <c r="H60" s="416"/>
-      <c r="I60" s="416"/>
-      <c r="J60" s="416"/>
-      <c r="K60" s="428"/>
-      <c r="L60" s="429"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="420" t="n">
-        <v>6</v>
-      </c>
-      <c r="C61" s="414" t="s">
+      <c r="K69" s="429"/>
+      <c r="L69" s="430"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="421"/>
+      <c r="C70" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E70" s="431" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="414" t="n">
+      <c r="F70" s="428"/>
+      <c r="G70" s="417"/>
+      <c r="H70" s="417"/>
+      <c r="I70" s="417"/>
+      <c r="J70" s="417"/>
+      <c r="K70" s="429"/>
+      <c r="L70" s="430"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="413" t="n">
+        <v>11</v>
+      </c>
+      <c r="C71" s="415" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E61" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F61" s="427" t="s">
+      <c r="E71" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="417" t="n">
+        <v>42</v>
+      </c>
+      <c r="H71" s="417" t="n">
+        <v>51</v>
+      </c>
+      <c r="I71" s="417" t="n">
+        <v>50</v>
+      </c>
+      <c r="J71" s="417" t="n">
+        <v>58</v>
+      </c>
+      <c r="K71" s="429"/>
+      <c r="L71" s="430"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="413"/>
+      <c r="C72" s="432"/>
+      <c r="D72" s="432" t="n">
+        <v>22</v>
+      </c>
+      <c r="E72" s="432" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="416"/>
+      <c r="G72" s="417"/>
+      <c r="H72" s="417"/>
+      <c r="I72" s="417"/>
+      <c r="J72" s="417"/>
+      <c r="K72" s="429"/>
+      <c r="L72" s="430"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="C73" s="434" t="s">
+        <v>257</v>
+      </c>
+      <c r="D73" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E73" s="435" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G61" s="416" t="n">
-        <v>14</v>
-      </c>
-      <c r="H61" s="416" t="n">
-        <v>14</v>
-      </c>
-      <c r="I61" s="416" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" s="416" t="n">
-        <v>14</v>
-      </c>
-      <c r="K61" s="428"/>
-      <c r="L61" s="429"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="420"/>
-      <c r="C62" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D62" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E62" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62" s="427"/>
-      <c r="G62" s="416"/>
-      <c r="H62" s="416"/>
-      <c r="I62" s="416"/>
-      <c r="J62" s="416"/>
-      <c r="K62" s="428"/>
-      <c r="L62" s="429"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="412" t="n">
-        <v>7</v>
-      </c>
-      <c r="C63" s="414" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" s="414" t="n">
+      <c r="G73" s="417" t="n">
+        <v>25</v>
+      </c>
+      <c r="H73" s="417" t="n">
+        <v>35</v>
+      </c>
+      <c r="I73" s="417" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" s="417" t="n">
+        <v>38</v>
+      </c>
+      <c r="K73" s="429"/>
+      <c r="L73" s="430"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="421"/>
+      <c r="C74" s="432"/>
+      <c r="D74" s="432" t="n">
         <v>20</v>
       </c>
-      <c r="E63" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F63" s="415" t="s">
+      <c r="E74" s="432" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" s="428"/>
+      <c r="G74" s="417"/>
+      <c r="H74" s="417"/>
+      <c r="I74" s="417"/>
+      <c r="J74" s="417"/>
+      <c r="K74" s="429"/>
+      <c r="L74" s="430"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="413" t="n">
+        <v>13</v>
+      </c>
+      <c r="C75" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="D75" s="415" t="n">
+        <v>120</v>
+      </c>
+      <c r="E75" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="416" t="n">
-        <v>21</v>
-      </c>
-      <c r="H63" s="416" t="n">
-        <v>25</v>
-      </c>
-      <c r="I63" s="416" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" s="416" t="n">
-        <v>26</v>
-      </c>
-      <c r="K63" s="428"/>
-      <c r="L63" s="429"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="412"/>
-      <c r="C64" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D64" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E64" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F64" s="415"/>
-      <c r="G64" s="416"/>
-      <c r="H64" s="416"/>
-      <c r="I64" s="416"/>
-      <c r="J64" s="416"/>
-      <c r="K64" s="428"/>
-      <c r="L64" s="429"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="420" t="n">
-        <v>8</v>
-      </c>
-      <c r="C65" s="414" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E65" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F65" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="G65" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="H65" s="416" t="n">
-        <v>7</v>
-      </c>
-      <c r="I65" s="416" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="K65" s="428"/>
-      <c r="L65" s="429"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="420"/>
-      <c r="C66" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D66" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E66" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F66" s="427"/>
-      <c r="G66" s="416"/>
-      <c r="H66" s="416"/>
-      <c r="I66" s="416"/>
-      <c r="J66" s="416"/>
-      <c r="K66" s="428"/>
-      <c r="L66" s="429"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="412" t="n">
-        <v>9</v>
-      </c>
-      <c r="C67" s="414" t="s">
-        <v>242</v>
-      </c>
-      <c r="D67" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E67" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F67" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G67" s="416" t="n">
-        <v>18</v>
-      </c>
-      <c r="H67" s="416" t="n">
-        <v>18</v>
-      </c>
-      <c r="I67" s="416" t="n">
-        <v>17</v>
-      </c>
-      <c r="J67" s="416" t="n">
-        <v>19</v>
-      </c>
-      <c r="K67" s="428"/>
-      <c r="L67" s="429"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="412"/>
-      <c r="C68" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D68" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E68" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F68" s="415"/>
-      <c r="G68" s="416"/>
-      <c r="H68" s="416"/>
-      <c r="I68" s="416"/>
-      <c r="J68" s="416"/>
-      <c r="K68" s="428"/>
-      <c r="L68" s="429"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="420" t="n">
-        <v>10</v>
-      </c>
-      <c r="C69" s="434" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="434" t="n">
-        <v>20</v>
-      </c>
-      <c r="E69" s="434" t="s">
-        <v>233</v>
-      </c>
-      <c r="F69" s="435" t="s">
-        <v>147</v>
-      </c>
-      <c r="G69" s="416" t="n">
-        <v>19</v>
-      </c>
-      <c r="H69" s="416" t="n">
-        <v>20</v>
-      </c>
-      <c r="I69" s="416" t="n">
-        <v>19</v>
-      </c>
-      <c r="J69" s="416" t="n">
-        <v>22</v>
-      </c>
-      <c r="K69" s="428"/>
-      <c r="L69" s="429"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="420"/>
-      <c r="C70" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D70" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E70" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F70" s="435"/>
-      <c r="G70" s="416"/>
-      <c r="H70" s="416"/>
-      <c r="I70" s="416"/>
-      <c r="J70" s="416"/>
-      <c r="K70" s="428"/>
-      <c r="L70" s="429"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="412" t="n">
-        <v>11</v>
-      </c>
-      <c r="C71" s="414" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E71" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F71" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G71" s="416" t="n">
-        <v>42</v>
-      </c>
-      <c r="H71" s="416" t="n">
-        <v>51</v>
-      </c>
-      <c r="I71" s="416" t="n">
-        <v>50</v>
-      </c>
-      <c r="J71" s="416" t="n">
-        <v>58</v>
-      </c>
-      <c r="K71" s="428"/>
-      <c r="L71" s="429"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="412"/>
-      <c r="C72" s="431"/>
-      <c r="D72" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E72" s="431" t="s">
-        <v>233</v>
-      </c>
-      <c r="F72" s="415"/>
-      <c r="G72" s="416"/>
-      <c r="H72" s="416"/>
-      <c r="I72" s="416"/>
-      <c r="J72" s="416"/>
-      <c r="K72" s="428"/>
-      <c r="L72" s="429"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="420" t="n">
-        <v>12</v>
-      </c>
-      <c r="C73" s="436" t="s">
-        <v>251</v>
-      </c>
-      <c r="D73" s="437" t="n">
-        <v>22</v>
-      </c>
-      <c r="E73" s="437" t="s">
-        <v>233</v>
-      </c>
-      <c r="F73" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="G73" s="416" t="n">
-        <v>25</v>
-      </c>
-      <c r="H73" s="416" t="n">
-        <v>35</v>
-      </c>
-      <c r="I73" s="416" t="n">
-        <v>30</v>
-      </c>
-      <c r="J73" s="416" t="n">
-        <v>38</v>
-      </c>
-      <c r="K73" s="428"/>
-      <c r="L73" s="429"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="420"/>
-      <c r="C74" s="431"/>
-      <c r="D74" s="431" t="n">
-        <v>20</v>
-      </c>
-      <c r="E74" s="431" t="s">
-        <v>233</v>
-      </c>
-      <c r="F74" s="427"/>
-      <c r="G74" s="416"/>
-      <c r="H74" s="416"/>
-      <c r="I74" s="416"/>
-      <c r="J74" s="416"/>
-      <c r="K74" s="428"/>
-      <c r="L74" s="429"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="412" t="n">
-        <v>13</v>
-      </c>
-      <c r="C75" s="414" t="s">
-        <v>244</v>
-      </c>
-      <c r="D75" s="414" t="n">
-        <v>120</v>
-      </c>
-      <c r="E75" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F75" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G75" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="H75" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="I75" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="J75" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="K75" s="428"/>
-      <c r="L75" s="429"/>
+      <c r="G75" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="H75" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="I75" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="J75" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="K75" s="429"/>
+      <c r="L75" s="430"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="412"/>
-      <c r="C76" s="431"/>
-      <c r="D76" s="431"/>
-      <c r="E76" s="431"/>
-      <c r="F76" s="415"/>
-      <c r="G76" s="416"/>
-      <c r="H76" s="416"/>
-      <c r="I76" s="416"/>
-      <c r="J76" s="416"/>
-      <c r="K76" s="428"/>
-      <c r="L76" s="429"/>
+      <c r="B76" s="413"/>
+      <c r="C76" s="432"/>
+      <c r="D76" s="432"/>
+      <c r="E76" s="432"/>
+      <c r="F76" s="416"/>
+      <c r="G76" s="417"/>
+      <c r="H76" s="417"/>
+      <c r="I76" s="417"/>
+      <c r="J76" s="417"/>
+      <c r="K76" s="429"/>
+      <c r="L76" s="430"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13830,23 +14634,23 @@
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>214</v>
-      </c>
-      <c r="G80" s="388" t="s">
-        <v>215</v>
-      </c>
-      <c r="H80" s="388"/>
+        <v>220</v>
+      </c>
+      <c r="G80" s="389" t="s">
+        <v>221</v>
+      </c>
+      <c r="H80" s="389"/>
       <c r="I80" s="358" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -13859,186 +14663,186 @@
       <c r="E81" s="368"/>
       <c r="F81" s="368"/>
       <c r="G81" s="368"/>
-      <c r="H81" s="388"/>
+      <c r="H81" s="389"/>
       <c r="I81" s="358"/>
       <c r="J81" s="358"/>
       <c r="K81" s="358"/>
       <c r="L81" s="358"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="389" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" s="389"/>
-      <c r="D82" s="390" t="n">
+      <c r="B82" s="390" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" s="390"/>
+      <c r="D82" s="391" t="n">
         <f aca="false">(D91+D92+D93+D94+D99+D100+D107+D108+D103+D104+D111+D112+D115)/60</f>
         <v>6.2</v>
       </c>
-      <c r="E82" s="391" t="s">
-        <v>218</v>
-      </c>
-      <c r="F82" s="391" t="n">
+      <c r="E82" s="392" t="s">
+        <v>224</v>
+      </c>
+      <c r="F82" s="392" t="n">
         <v>4</v>
       </c>
-      <c r="G82" s="392" t="n">
+      <c r="G82" s="393" t="n">
         <f aca="false">D82*F82</f>
         <v>24.8</v>
       </c>
-      <c r="H82" s="392"/>
-      <c r="I82" s="393" t="s">
-        <v>247</v>
-      </c>
-      <c r="J82" s="393"/>
-      <c r="K82" s="393"/>
-      <c r="L82" s="393"/>
+      <c r="H82" s="393"/>
+      <c r="I82" s="394" t="s">
+        <v>253</v>
+      </c>
+      <c r="J82" s="394"/>
+      <c r="K82" s="394"/>
+      <c r="L82" s="394"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="394" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" s="394"/>
-      <c r="D83" s="395" t="n">
+      <c r="B83" s="395" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" s="395"/>
+      <c r="D83" s="396" t="n">
         <f aca="false">(D95+D110+D96+D97+D98+D101+D102+D105+D106+D109+D110+D113+D114)/60</f>
         <v>4.56666666666667</v>
       </c>
-      <c r="E83" s="391"/>
-      <c r="F83" s="391"/>
-      <c r="G83" s="396" t="n">
+      <c r="E83" s="392"/>
+      <c r="F83" s="392"/>
+      <c r="G83" s="397" t="n">
         <f aca="false">D83*F82</f>
         <v>18.2666666666667</v>
       </c>
-      <c r="H83" s="396"/>
-      <c r="I83" s="397" t="s">
-        <v>221</v>
-      </c>
-      <c r="J83" s="397"/>
-      <c r="K83" s="397"/>
-      <c r="L83" s="397"/>
+      <c r="H83" s="397"/>
+      <c r="I83" s="398" t="s">
+        <v>227</v>
+      </c>
+      <c r="J83" s="398"/>
+      <c r="K83" s="398"/>
+      <c r="L83" s="398"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="394" t="s">
-        <v>222</v>
-      </c>
-      <c r="C84" s="394"/>
-      <c r="D84" s="398" t="n">
+      <c r="B84" s="395" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="395"/>
+      <c r="D84" s="399" t="n">
         <f aca="false">SUM(D82:D83)</f>
         <v>10.7666666666667</v>
       </c>
-      <c r="E84" s="391"/>
-      <c r="F84" s="391"/>
-      <c r="G84" s="399" t="n">
+      <c r="E84" s="392"/>
+      <c r="F84" s="392"/>
+      <c r="G84" s="400" t="n">
         <f aca="false">D84*F82</f>
         <v>43.0666666666667</v>
       </c>
-      <c r="H84" s="399"/>
-      <c r="I84" s="397" t="s">
-        <v>223</v>
-      </c>
-      <c r="J84" s="397"/>
-      <c r="K84" s="397"/>
-      <c r="L84" s="397"/>
+      <c r="H84" s="400"/>
+      <c r="I84" s="398" t="s">
+        <v>229</v>
+      </c>
+      <c r="J84" s="398"/>
+      <c r="K84" s="398"/>
+      <c r="L84" s="398"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="394" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85" s="394"/>
-      <c r="D85" s="400" t="n">
+      <c r="B85" s="395" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="395"/>
+      <c r="D85" s="401" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="E85" s="400"/>
-      <c r="F85" s="400"/>
-      <c r="G85" s="400"/>
-      <c r="H85" s="400"/>
-      <c r="I85" s="401" t="s">
-        <v>225</v>
-      </c>
-      <c r="J85" s="401"/>
-      <c r="K85" s="401"/>
-      <c r="L85" s="401"/>
+      <c r="E85" s="401"/>
+      <c r="F85" s="401"/>
+      <c r="G85" s="401"/>
+      <c r="H85" s="401"/>
+      <c r="I85" s="402" t="s">
+        <v>231</v>
+      </c>
+      <c r="J85" s="402"/>
+      <c r="K85" s="402"/>
+      <c r="L85" s="402"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="402" t="s">
-        <v>226</v>
-      </c>
-      <c r="C86" s="403"/>
-      <c r="D86" s="404" t="n">
+      <c r="B86" s="403" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="404"/>
+      <c r="D86" s="405" t="n">
         <f aca="false">G84+D85</f>
         <v>52.0666666666667</v>
       </c>
-      <c r="E86" s="404"/>
-      <c r="F86" s="404"/>
-      <c r="G86" s="404"/>
-      <c r="H86" s="404"/>
-      <c r="I86" s="397" t="s">
-        <v>227</v>
-      </c>
-      <c r="J86" s="397"/>
-      <c r="K86" s="397"/>
-      <c r="L86" s="397"/>
+      <c r="E86" s="405"/>
+      <c r="F86" s="405"/>
+      <c r="G86" s="405"/>
+      <c r="H86" s="405"/>
+      <c r="I86" s="398" t="s">
+        <v>233</v>
+      </c>
+      <c r="J86" s="398"/>
+      <c r="K86" s="398"/>
+      <c r="L86" s="398"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="394" t="s">
+      <c r="B87" s="395" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="394"/>
-      <c r="D87" s="432" t="n">
+      <c r="C87" s="395"/>
+      <c r="D87" s="406" t="n">
         <v>43544</v>
       </c>
-      <c r="E87" s="432"/>
-      <c r="F87" s="432"/>
-      <c r="G87" s="432"/>
-      <c r="H87" s="432"/>
-      <c r="I87" s="397" t="s">
-        <v>219</v>
-      </c>
-      <c r="J87" s="397"/>
-      <c r="K87" s="397"/>
-      <c r="L87" s="397"/>
+      <c r="E87" s="406"/>
+      <c r="F87" s="406"/>
+      <c r="G87" s="406"/>
+      <c r="H87" s="406"/>
+      <c r="I87" s="398" t="s">
+        <v>225</v>
+      </c>
+      <c r="J87" s="398"/>
+      <c r="K87" s="398"/>
+      <c r="L87" s="398"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="407" t="s">
-        <v>228</v>
-      </c>
-      <c r="C88" s="407"/>
-      <c r="D88" s="408" t="s">
-        <v>229</v>
-      </c>
-      <c r="E88" s="408"/>
-      <c r="F88" s="408"/>
-      <c r="G88" s="408"/>
-      <c r="H88" s="408"/>
-      <c r="I88" s="397" t="s">
-        <v>248</v>
-      </c>
-      <c r="J88" s="397"/>
-      <c r="K88" s="397"/>
-      <c r="L88" s="397"/>
+      <c r="B88" s="408" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="408"/>
+      <c r="D88" s="409" t="s">
+        <v>235</v>
+      </c>
+      <c r="E88" s="409"/>
+      <c r="F88" s="409"/>
+      <c r="G88" s="409"/>
+      <c r="H88" s="409"/>
+      <c r="I88" s="398" t="s">
+        <v>254</v>
+      </c>
+      <c r="J88" s="398"/>
+      <c r="K88" s="398"/>
+      <c r="L88" s="398"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="407"/>
-      <c r="C89" s="407"/>
-      <c r="D89" s="408"/>
-      <c r="E89" s="408"/>
-      <c r="F89" s="408"/>
-      <c r="G89" s="408"/>
-      <c r="H89" s="408"/>
-      <c r="I89" s="409"/>
-      <c r="J89" s="409"/>
-      <c r="K89" s="409"/>
-      <c r="L89" s="409"/>
+      <c r="B89" s="408"/>
+      <c r="C89" s="408"/>
+      <c r="D89" s="409"/>
+      <c r="E89" s="409"/>
+      <c r="F89" s="409"/>
+      <c r="G89" s="409"/>
+      <c r="H89" s="409"/>
+      <c r="I89" s="410"/>
+      <c r="J89" s="410"/>
+      <c r="K89" s="410"/>
+      <c r="L89" s="410"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="410"/>
-      <c r="C90" s="411" t="s">
-        <v>230</v>
-      </c>
-      <c r="D90" s="411"/>
-      <c r="E90" s="411"/>
-      <c r="F90" s="411"/>
+      <c r="B90" s="411"/>
+      <c r="C90" s="412" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="412"/>
+      <c r="E90" s="412"/>
+      <c r="F90" s="412"/>
       <c r="G90" s="180" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -14047,644 +14851,644 @@
       <c r="L90" s="180"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="412" t="n">
+      <c r="B91" s="413" t="n">
         <v>1</v>
       </c>
-      <c r="C91" s="413" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" s="414" t="n">
+      <c r="C91" s="414" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E91" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F91" s="415" t="s">
+      <c r="E91" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F91" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G91" s="416" t="n">
+      <c r="G91" s="417" t="n">
         <v>7</v>
       </c>
-      <c r="H91" s="416" t="n">
+      <c r="H91" s="417" t="n">
         <v>6</v>
       </c>
-      <c r="I91" s="416" t="n">
+      <c r="I91" s="417" t="n">
         <v>7</v>
       </c>
-      <c r="J91" s="416" t="n">
+      <c r="J91" s="417" t="n">
         <v>6</v>
       </c>
-      <c r="K91" s="416"/>
-      <c r="L91" s="417"/>
+      <c r="K91" s="417"/>
+      <c r="L91" s="418"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="412"/>
-      <c r="C92" s="418" t="s">
-        <v>234</v>
-      </c>
-      <c r="D92" s="419" t="n">
+      <c r="B92" s="413"/>
+      <c r="C92" s="419" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E92" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F92" s="415"/>
-      <c r="G92" s="416"/>
-      <c r="H92" s="416"/>
-      <c r="I92" s="416"/>
-      <c r="J92" s="416"/>
-      <c r="K92" s="416"/>
-      <c r="L92" s="417"/>
+      <c r="E92" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F92" s="416"/>
+      <c r="G92" s="417"/>
+      <c r="H92" s="417"/>
+      <c r="I92" s="417"/>
+      <c r="J92" s="417"/>
+      <c r="K92" s="417"/>
+      <c r="L92" s="418"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="420" t="n">
+      <c r="B93" s="421" t="n">
         <v>2</v>
       </c>
-      <c r="C93" s="414" t="s">
-        <v>235</v>
-      </c>
-      <c r="D93" s="414" t="n">
+      <c r="C93" s="415" t="s">
+        <v>241</v>
+      </c>
+      <c r="D93" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E93" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F93" s="421" t="s">
+      <c r="E93" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F93" s="422" t="s">
         <v>146</v>
       </c>
-      <c r="G93" s="422" t="n">
+      <c r="G93" s="423" t="n">
         <v>20</v>
       </c>
-      <c r="H93" s="422" t="n">
+      <c r="H93" s="423" t="n">
         <v>18</v>
       </c>
-      <c r="I93" s="422" t="n">
+      <c r="I93" s="423" t="n">
         <v>17</v>
       </c>
-      <c r="J93" s="422" t="n">
+      <c r="J93" s="423" t="n">
         <v>18</v>
       </c>
-      <c r="K93" s="423"/>
-      <c r="L93" s="424"/>
+      <c r="K93" s="424"/>
+      <c r="L93" s="425"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="420"/>
-      <c r="C94" s="425" t="s">
-        <v>234</v>
-      </c>
-      <c r="D94" s="425" t="n">
+      <c r="B94" s="421"/>
+      <c r="C94" s="426" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" s="426" t="n">
         <v>22</v>
       </c>
-      <c r="E94" s="425" t="s">
-        <v>233</v>
-      </c>
-      <c r="F94" s="421"/>
-      <c r="G94" s="422"/>
-      <c r="H94" s="422"/>
-      <c r="I94" s="422"/>
-      <c r="J94" s="422"/>
-      <c r="K94" s="423"/>
-      <c r="L94" s="424"/>
+      <c r="E94" s="426" t="s">
+        <v>239</v>
+      </c>
+      <c r="F94" s="422"/>
+      <c r="G94" s="423"/>
+      <c r="H94" s="423"/>
+      <c r="I94" s="423"/>
+      <c r="J94" s="423"/>
+      <c r="K94" s="424"/>
+      <c r="L94" s="425"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="412" t="n">
+      <c r="B95" s="413" t="n">
         <v>3</v>
       </c>
-      <c r="C95" s="414" t="s">
-        <v>236</v>
-      </c>
-      <c r="D95" s="414" t="n">
+      <c r="C95" s="415" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E95" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F95" s="427" t="s">
+      <c r="E95" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F95" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G95" s="416" t="n">
+      <c r="G95" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="H95" s="416" t="n">
+      <c r="H95" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="I95" s="416" t="n">
+      <c r="I95" s="417" t="n">
         <v>10</v>
       </c>
-      <c r="J95" s="416" t="n">
+      <c r="J95" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="K95" s="428"/>
-      <c r="L95" s="429"/>
+      <c r="K95" s="429"/>
+      <c r="L95" s="430"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="412"/>
-      <c r="C96" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D96" s="430" t="n">
+      <c r="B96" s="413"/>
+      <c r="C96" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E96" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F96" s="427"/>
-      <c r="G96" s="416"/>
-      <c r="H96" s="416"/>
-      <c r="I96" s="416"/>
-      <c r="J96" s="416"/>
-      <c r="K96" s="428"/>
-      <c r="L96" s="429"/>
+      <c r="E96" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="428"/>
+      <c r="G96" s="417"/>
+      <c r="H96" s="417"/>
+      <c r="I96" s="417"/>
+      <c r="J96" s="417"/>
+      <c r="K96" s="429"/>
+      <c r="L96" s="430"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="420" t="n">
+      <c r="B97" s="421" t="n">
         <v>4</v>
       </c>
-      <c r="C97" s="414" t="s">
-        <v>237</v>
-      </c>
-      <c r="D97" s="414" t="n">
+      <c r="C97" s="415" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E97" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F97" s="427" t="s">
+      <c r="E97" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G97" s="416" t="n">
+      <c r="G97" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="H97" s="416" t="n">
+      <c r="H97" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="I97" s="416" t="n">
+      <c r="I97" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="J97" s="416" t="n">
+      <c r="J97" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="K97" s="428"/>
-      <c r="L97" s="429"/>
+      <c r="K97" s="429"/>
+      <c r="L97" s="430"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="420"/>
-      <c r="C98" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D98" s="430" t="n">
+      <c r="B98" s="421"/>
+      <c r="C98" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E98" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F98" s="427"/>
-      <c r="G98" s="416"/>
-      <c r="H98" s="416"/>
-      <c r="I98" s="416"/>
-      <c r="J98" s="416"/>
-      <c r="K98" s="428"/>
-      <c r="L98" s="429"/>
+      <c r="E98" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F98" s="428"/>
+      <c r="G98" s="417"/>
+      <c r="H98" s="417"/>
+      <c r="I98" s="417"/>
+      <c r="J98" s="417"/>
+      <c r="K98" s="429"/>
+      <c r="L98" s="430"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="412" t="n">
+      <c r="B99" s="413" t="n">
         <v>5</v>
       </c>
       <c r="C99" s="433" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D99" s="433" t="n">
         <v>20</v>
       </c>
       <c r="E99" s="433" t="s">
-        <v>233</v>
-      </c>
-      <c r="F99" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F99" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G99" s="416" t="s">
+      <c r="G99" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="H99" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="I99" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="J99" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="K99" s="429"/>
+      <c r="L99" s="430"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="413"/>
+      <c r="C100" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D100" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E100" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F100" s="416"/>
+      <c r="G100" s="417"/>
+      <c r="H100" s="417"/>
+      <c r="I100" s="417"/>
+      <c r="J100" s="417"/>
+      <c r="K100" s="429"/>
+      <c r="L100" s="430"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="421" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" s="415" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F101" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G101" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="H101" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="I101" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="J101" s="417" t="n">
+        <v>15</v>
+      </c>
+      <c r="K101" s="429"/>
+      <c r="L101" s="430"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="421"/>
+      <c r="C102" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E102" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F102" s="428"/>
+      <c r="G102" s="417"/>
+      <c r="H102" s="417"/>
+      <c r="I102" s="417"/>
+      <c r="J102" s="417"/>
+      <c r="K102" s="429"/>
+      <c r="L102" s="430"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="413" t="n">
+        <v>7</v>
+      </c>
+      <c r="C103" s="415" t="s">
+        <v>231</v>
+      </c>
+      <c r="D103" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E103" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F103" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G103" s="417" t="n">
+        <v>22</v>
+      </c>
+      <c r="H103" s="417" t="n">
+        <v>25</v>
+      </c>
+      <c r="I103" s="417" t="n">
+        <v>28</v>
+      </c>
+      <c r="J103" s="417" t="n">
+        <v>22</v>
+      </c>
+      <c r="K103" s="429"/>
+      <c r="L103" s="430"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="413"/>
+      <c r="C104" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E104" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F104" s="416"/>
+      <c r="G104" s="417"/>
+      <c r="H104" s="417"/>
+      <c r="I104" s="417"/>
+      <c r="J104" s="417"/>
+      <c r="K104" s="429"/>
+      <c r="L104" s="430"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="C105" s="415" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F105" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G105" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="H105" s="417" t="n">
+        <v>9</v>
+      </c>
+      <c r="I105" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="J105" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="K105" s="429"/>
+      <c r="L105" s="430"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="421"/>
+      <c r="C106" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D106" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E106" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" s="428"/>
+      <c r="G106" s="417"/>
+      <c r="H106" s="417"/>
+      <c r="I106" s="417"/>
+      <c r="J106" s="417"/>
+      <c r="K106" s="429"/>
+      <c r="L106" s="430"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="413" t="n">
+        <v>9</v>
+      </c>
+      <c r="C107" s="415" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E107" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F107" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G107" s="417" t="n">
+        <v>18</v>
+      </c>
+      <c r="H107" s="417" t="n">
+        <v>18</v>
+      </c>
+      <c r="I107" s="417" t="n">
+        <v>20</v>
+      </c>
+      <c r="J107" s="417" t="n">
+        <v>18</v>
+      </c>
+      <c r="K107" s="429"/>
+      <c r="L107" s="430"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="413"/>
+      <c r="C108" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D108" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E108" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F108" s="416"/>
+      <c r="G108" s="417"/>
+      <c r="H108" s="417"/>
+      <c r="I108" s="417"/>
+      <c r="J108" s="417"/>
+      <c r="K108" s="429"/>
+      <c r="L108" s="430"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="421" t="n">
+        <v>10</v>
+      </c>
+      <c r="C109" s="415" t="s">
         <v>249</v>
       </c>
-      <c r="H99" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="I99" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="J99" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="K99" s="428"/>
-      <c r="L99" s="429"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="412"/>
-      <c r="C100" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D100" s="419" t="n">
+      <c r="D109" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E109" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F109" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G109" s="417" t="n">
+        <v>21</v>
+      </c>
+      <c r="H109" s="417" t="n">
+        <v>20</v>
+      </c>
+      <c r="I109" s="417" t="n">
         <v>22</v>
       </c>
-      <c r="E100" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F100" s="415"/>
-      <c r="G100" s="416"/>
-      <c r="H100" s="416"/>
-      <c r="I100" s="416"/>
-      <c r="J100" s="416"/>
-      <c r="K100" s="428"/>
-      <c r="L100" s="429"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="420" t="n">
+      <c r="J109" s="417" t="n">
+        <v>19</v>
+      </c>
+      <c r="K109" s="429"/>
+      <c r="L109" s="430"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="421"/>
+      <c r="C110" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E110" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F110" s="428"/>
+      <c r="G110" s="417"/>
+      <c r="H110" s="417"/>
+      <c r="I110" s="417"/>
+      <c r="J110" s="417"/>
+      <c r="K110" s="429"/>
+      <c r="L110" s="430"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="413" t="n">
+        <v>11</v>
+      </c>
+      <c r="C111" s="415" t="s">
+        <v>258</v>
+      </c>
+      <c r="D111" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E111" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F111" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G111" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="H111" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="I111" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="J111" s="417" t="n">
         <v>6</v>
       </c>
-      <c r="C101" s="414" t="s">
+      <c r="K111" s="429"/>
+      <c r="L111" s="430"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="413"/>
+      <c r="C112" s="432"/>
+      <c r="D112" s="432" t="n">
+        <v>22</v>
+      </c>
+      <c r="E112" s="432" t="s">
         <v>239</v>
       </c>
-      <c r="D101" s="414" t="n">
+      <c r="F112" s="416"/>
+      <c r="G112" s="417"/>
+      <c r="H112" s="417"/>
+      <c r="I112" s="417"/>
+      <c r="J112" s="417"/>
+      <c r="K112" s="429"/>
+      <c r="L112" s="430"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="C113" s="434" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E113" s="435" t="s">
+        <v>239</v>
+      </c>
+      <c r="F113" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G113" s="417" t="n">
+        <v>32</v>
+      </c>
+      <c r="H113" s="417" t="n">
+        <v>28</v>
+      </c>
+      <c r="I113" s="417" t="n">
+        <v>30</v>
+      </c>
+      <c r="J113" s="417" t="n">
+        <v>28</v>
+      </c>
+      <c r="K113" s="429"/>
+      <c r="L113" s="430"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="421"/>
+      <c r="C114" s="432"/>
+      <c r="D114" s="432" t="n">
         <v>20</v>
       </c>
-      <c r="E101" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F101" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="G101" s="416" t="n">
-        <v>14</v>
-      </c>
-      <c r="H101" s="416" t="n">
-        <v>14</v>
-      </c>
-      <c r="I101" s="416" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" s="416" t="n">
-        <v>15</v>
-      </c>
-      <c r="K101" s="428"/>
-      <c r="L101" s="429"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="420"/>
-      <c r="C102" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D102" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E102" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F102" s="427"/>
-      <c r="G102" s="416"/>
-      <c r="H102" s="416"/>
-      <c r="I102" s="416"/>
-      <c r="J102" s="416"/>
-      <c r="K102" s="428"/>
-      <c r="L102" s="429"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="412" t="n">
-        <v>7</v>
-      </c>
-      <c r="C103" s="414" t="s">
-        <v>225</v>
-      </c>
-      <c r="D103" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E103" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F103" s="415" t="s">
+      <c r="E114" s="432" t="s">
+        <v>239</v>
+      </c>
+      <c r="F114" s="428"/>
+      <c r="G114" s="417"/>
+      <c r="H114" s="417"/>
+      <c r="I114" s="417"/>
+      <c r="J114" s="417"/>
+      <c r="K114" s="429"/>
+      <c r="L114" s="430"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="413" t="n">
+        <v>13</v>
+      </c>
+      <c r="C115" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" s="415" t="n">
+        <v>120</v>
+      </c>
+      <c r="E115" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F115" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G103" s="416" t="n">
-        <v>22</v>
-      </c>
-      <c r="H103" s="416" t="n">
-        <v>25</v>
-      </c>
-      <c r="I103" s="416" t="n">
-        <v>28</v>
-      </c>
-      <c r="J103" s="416" t="n">
-        <v>22</v>
-      </c>
-      <c r="K103" s="428"/>
-      <c r="L103" s="429"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="412"/>
-      <c r="C104" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D104" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E104" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F104" s="415"/>
-      <c r="G104" s="416"/>
-      <c r="H104" s="416"/>
-      <c r="I104" s="416"/>
-      <c r="J104" s="416"/>
-      <c r="K104" s="428"/>
-      <c r="L104" s="429"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="420" t="n">
-        <v>8</v>
-      </c>
-      <c r="C105" s="414" t="s">
-        <v>240</v>
-      </c>
-      <c r="D105" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E105" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F105" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="G105" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="H105" s="416" t="n">
-        <v>9</v>
-      </c>
-      <c r="I105" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="J105" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="K105" s="428"/>
-      <c r="L105" s="429"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="420"/>
-      <c r="C106" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D106" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E106" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F106" s="427"/>
-      <c r="G106" s="416"/>
-      <c r="H106" s="416"/>
-      <c r="I106" s="416"/>
-      <c r="J106" s="416"/>
-      <c r="K106" s="428"/>
-      <c r="L106" s="429"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="412" t="n">
-        <v>9</v>
-      </c>
-      <c r="C107" s="414" t="s">
-        <v>242</v>
-      </c>
-      <c r="D107" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E107" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F107" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G107" s="416" t="n">
-        <v>18</v>
-      </c>
-      <c r="H107" s="416" t="n">
-        <v>18</v>
-      </c>
-      <c r="I107" s="416" t="n">
-        <v>20</v>
-      </c>
-      <c r="J107" s="416" t="n">
-        <v>18</v>
-      </c>
-      <c r="K107" s="428"/>
-      <c r="L107" s="429"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="412"/>
-      <c r="C108" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D108" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E108" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F108" s="415"/>
-      <c r="G108" s="416"/>
-      <c r="H108" s="416"/>
-      <c r="I108" s="416"/>
-      <c r="J108" s="416"/>
-      <c r="K108" s="428"/>
-      <c r="L108" s="429"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="420" t="n">
-        <v>10</v>
-      </c>
-      <c r="C109" s="434" t="s">
-        <v>243</v>
-      </c>
-      <c r="D109" s="434" t="n">
-        <v>20</v>
-      </c>
-      <c r="E109" s="434" t="s">
-        <v>233</v>
-      </c>
-      <c r="F109" s="435" t="s">
-        <v>147</v>
-      </c>
-      <c r="G109" s="416" t="n">
-        <v>21</v>
-      </c>
-      <c r="H109" s="416" t="n">
-        <v>20</v>
-      </c>
-      <c r="I109" s="416" t="n">
-        <v>22</v>
-      </c>
-      <c r="J109" s="416" t="n">
-        <v>19</v>
-      </c>
-      <c r="K109" s="428"/>
-      <c r="L109" s="429"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="420"/>
-      <c r="C110" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D110" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E110" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F110" s="435"/>
-      <c r="G110" s="416"/>
-      <c r="H110" s="416"/>
-      <c r="I110" s="416"/>
-      <c r="J110" s="416"/>
-      <c r="K110" s="428"/>
-      <c r="L110" s="429"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="412" t="n">
-        <v>11</v>
-      </c>
-      <c r="C111" s="414" t="s">
-        <v>252</v>
-      </c>
-      <c r="D111" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E111" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F111" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G111" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="H111" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="I111" s="416" t="n">
-        <v>7</v>
-      </c>
-      <c r="J111" s="416" t="n">
-        <v>6</v>
-      </c>
-      <c r="K111" s="428"/>
-      <c r="L111" s="429"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="412"/>
-      <c r="C112" s="431"/>
-      <c r="D112" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E112" s="431" t="s">
-        <v>233</v>
-      </c>
-      <c r="F112" s="415"/>
-      <c r="G112" s="416"/>
-      <c r="H112" s="416"/>
-      <c r="I112" s="416"/>
-      <c r="J112" s="416"/>
-      <c r="K112" s="428"/>
-      <c r="L112" s="429"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="420" t="n">
-        <v>12</v>
-      </c>
-      <c r="C113" s="436" t="s">
-        <v>251</v>
-      </c>
-      <c r="D113" s="437" t="n">
-        <v>22</v>
-      </c>
-      <c r="E113" s="437" t="s">
-        <v>233</v>
-      </c>
-      <c r="F113" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="G113" s="416" t="n">
-        <v>32</v>
-      </c>
-      <c r="H113" s="416" t="n">
-        <v>28</v>
-      </c>
-      <c r="I113" s="416" t="n">
-        <v>30</v>
-      </c>
-      <c r="J113" s="416" t="n">
-        <v>28</v>
-      </c>
-      <c r="K113" s="428"/>
-      <c r="L113" s="429"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="420"/>
-      <c r="C114" s="431"/>
-      <c r="D114" s="431" t="n">
-        <v>20</v>
-      </c>
-      <c r="E114" s="431" t="s">
-        <v>233</v>
-      </c>
-      <c r="F114" s="427"/>
-      <c r="G114" s="416"/>
-      <c r="H114" s="416"/>
-      <c r="I114" s="416"/>
-      <c r="J114" s="416"/>
-      <c r="K114" s="428"/>
-      <c r="L114" s="429"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="412" t="n">
-        <v>13</v>
-      </c>
-      <c r="C115" s="414" t="s">
-        <v>244</v>
-      </c>
-      <c r="D115" s="414" t="n">
-        <v>120</v>
-      </c>
-      <c r="E115" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F115" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G115" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="H115" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="I115" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="J115" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="K115" s="428"/>
-      <c r="L115" s="429"/>
+      <c r="G115" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="H115" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="I115" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="J115" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="K115" s="429"/>
+      <c r="L115" s="430"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="412"/>
-      <c r="C116" s="431"/>
-      <c r="D116" s="431"/>
-      <c r="E116" s="431"/>
-      <c r="F116" s="415"/>
-      <c r="G116" s="416"/>
-      <c r="H116" s="416"/>
-      <c r="I116" s="416"/>
-      <c r="J116" s="416"/>
-      <c r="K116" s="428"/>
-      <c r="L116" s="429"/>
+      <c r="B116" s="413"/>
+      <c r="C116" s="432"/>
+      <c r="D116" s="432"/>
+      <c r="E116" s="432"/>
+      <c r="F116" s="416"/>
+      <c r="G116" s="417"/>
+      <c r="H116" s="417"/>
+      <c r="I116" s="417"/>
+      <c r="J116" s="417"/>
+      <c r="K116" s="429"/>
+      <c r="L116" s="430"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14693,23 +15497,23 @@
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>214</v>
-      </c>
-      <c r="G121" s="388" t="s">
-        <v>215</v>
-      </c>
-      <c r="H121" s="388"/>
+        <v>220</v>
+      </c>
+      <c r="G121" s="389" t="s">
+        <v>221</v>
+      </c>
+      <c r="H121" s="389"/>
       <c r="I121" s="358" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -14722,184 +15526,184 @@
       <c r="E122" s="368"/>
       <c r="F122" s="368"/>
       <c r="G122" s="368"/>
-      <c r="H122" s="388"/>
+      <c r="H122" s="389"/>
       <c r="I122" s="358"/>
       <c r="J122" s="358"/>
       <c r="K122" s="358"/>
       <c r="L122" s="358"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="389" t="s">
-        <v>217</v>
-      </c>
-      <c r="C123" s="389"/>
-      <c r="D123" s="390" t="n">
+      <c r="B123" s="390" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" s="390"/>
+      <c r="D123" s="391" t="n">
         <f aca="false">(D132+D133+D134+D135+D140+D141+D148+D149+D144+D145+D152+D153+D156+D157+D158)/60</f>
         <v>7.23333333333333</v>
       </c>
-      <c r="E123" s="391" t="s">
-        <v>218</v>
-      </c>
-      <c r="F123" s="391" t="n">
+      <c r="E123" s="392" t="s">
+        <v>224</v>
+      </c>
+      <c r="F123" s="392" t="n">
         <v>4</v>
       </c>
-      <c r="G123" s="392" t="n">
+      <c r="G123" s="393" t="n">
         <f aca="false">D123*F123</f>
         <v>28.9333333333333</v>
       </c>
-      <c r="H123" s="392"/>
-      <c r="I123" s="393"/>
-      <c r="J123" s="393"/>
-      <c r="K123" s="393"/>
-      <c r="L123" s="393"/>
+      <c r="H123" s="393"/>
+      <c r="I123" s="394"/>
+      <c r="J123" s="394"/>
+      <c r="K123" s="394"/>
+      <c r="L123" s="394"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="394" t="s">
-        <v>220</v>
-      </c>
-      <c r="C124" s="394"/>
-      <c r="D124" s="395" t="n">
+      <c r="B124" s="395" t="s">
+        <v>226</v>
+      </c>
+      <c r="C124" s="395"/>
+      <c r="D124" s="396" t="n">
         <f aca="false">(D136+D151+D137+D138+D139+D142+D143+D146+D147+D150+D151+D154+D155)/60</f>
         <v>4.56666666666667</v>
       </c>
-      <c r="E124" s="391"/>
-      <c r="F124" s="391"/>
-      <c r="G124" s="396" t="n">
+      <c r="E124" s="392"/>
+      <c r="F124" s="392"/>
+      <c r="G124" s="397" t="n">
         <f aca="false">D124*F123</f>
         <v>18.2666666666667</v>
       </c>
-      <c r="H124" s="396"/>
-      <c r="I124" s="397" t="s">
-        <v>254</v>
-      </c>
-      <c r="J124" s="397"/>
-      <c r="K124" s="397"/>
-      <c r="L124" s="397"/>
+      <c r="H124" s="397"/>
+      <c r="I124" s="398" t="s">
+        <v>260</v>
+      </c>
+      <c r="J124" s="398"/>
+      <c r="K124" s="398"/>
+      <c r="L124" s="398"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="394" t="s">
-        <v>222</v>
-      </c>
-      <c r="C125" s="394"/>
-      <c r="D125" s="398" t="n">
+      <c r="B125" s="395" t="s">
+        <v>228</v>
+      </c>
+      <c r="C125" s="395"/>
+      <c r="D125" s="399" t="n">
         <f aca="false">SUM(D123:D124)</f>
         <v>11.8</v>
       </c>
-      <c r="E125" s="391"/>
-      <c r="F125" s="391"/>
-      <c r="G125" s="399" t="n">
+      <c r="E125" s="392"/>
+      <c r="F125" s="392"/>
+      <c r="G125" s="400" t="n">
         <f aca="false">D125*F123</f>
         <v>47.2</v>
       </c>
-      <c r="H125" s="399"/>
-      <c r="I125" s="397" t="s">
-        <v>223</v>
-      </c>
-      <c r="J125" s="397"/>
-      <c r="K125" s="397"/>
-      <c r="L125" s="397"/>
+      <c r="H125" s="400"/>
+      <c r="I125" s="398" t="s">
+        <v>229</v>
+      </c>
+      <c r="J125" s="398"/>
+      <c r="K125" s="398"/>
+      <c r="L125" s="398"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="394" t="s">
-        <v>224</v>
-      </c>
-      <c r="C126" s="394"/>
-      <c r="D126" s="400" t="n">
+      <c r="B126" s="395" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" s="395"/>
+      <c r="D126" s="401" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="E126" s="400"/>
-      <c r="F126" s="400"/>
-      <c r="G126" s="400"/>
-      <c r="H126" s="400"/>
-      <c r="I126" s="401" t="s">
-        <v>225</v>
-      </c>
-      <c r="J126" s="401"/>
-      <c r="K126" s="401"/>
-      <c r="L126" s="401"/>
+      <c r="E126" s="401"/>
+      <c r="F126" s="401"/>
+      <c r="G126" s="401"/>
+      <c r="H126" s="401"/>
+      <c r="I126" s="402" t="s">
+        <v>231</v>
+      </c>
+      <c r="J126" s="402"/>
+      <c r="K126" s="402"/>
+      <c r="L126" s="402"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="402" t="s">
-        <v>226</v>
-      </c>
-      <c r="C127" s="403"/>
-      <c r="D127" s="404" t="n">
+      <c r="B127" s="403" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" s="404"/>
+      <c r="D127" s="405" t="n">
         <f aca="false">G125+D126</f>
         <v>56.2</v>
       </c>
-      <c r="E127" s="404"/>
-      <c r="F127" s="404"/>
-      <c r="G127" s="404"/>
-      <c r="H127" s="404"/>
-      <c r="I127" s="397" t="s">
-        <v>227</v>
-      </c>
-      <c r="J127" s="397"/>
-      <c r="K127" s="397"/>
-      <c r="L127" s="397"/>
+      <c r="E127" s="405"/>
+      <c r="F127" s="405"/>
+      <c r="G127" s="405"/>
+      <c r="H127" s="405"/>
+      <c r="I127" s="398" t="s">
+        <v>233</v>
+      </c>
+      <c r="J127" s="398"/>
+      <c r="K127" s="398"/>
+      <c r="L127" s="398"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="394" t="s">
+      <c r="B128" s="395" t="s">
         <v>32</v>
       </c>
-      <c r="C128" s="394"/>
-      <c r="D128" s="432" t="n">
+      <c r="C128" s="395"/>
+      <c r="D128" s="406" t="n">
         <v>43546</v>
       </c>
-      <c r="E128" s="432"/>
-      <c r="F128" s="432"/>
-      <c r="G128" s="432"/>
-      <c r="H128" s="432"/>
-      <c r="I128" s="397" t="s">
-        <v>219</v>
-      </c>
-      <c r="J128" s="397"/>
-      <c r="K128" s="397"/>
-      <c r="L128" s="397"/>
+      <c r="E128" s="406"/>
+      <c r="F128" s="406"/>
+      <c r="G128" s="406"/>
+      <c r="H128" s="406"/>
+      <c r="I128" s="398" t="s">
+        <v>225</v>
+      </c>
+      <c r="J128" s="398"/>
+      <c r="K128" s="398"/>
+      <c r="L128" s="398"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="407" t="s">
-        <v>228</v>
-      </c>
-      <c r="C129" s="407"/>
-      <c r="D129" s="408" t="s">
-        <v>229</v>
-      </c>
-      <c r="E129" s="408"/>
-      <c r="F129" s="408"/>
-      <c r="G129" s="408"/>
-      <c r="H129" s="408"/>
-      <c r="I129" s="397" t="s">
-        <v>248</v>
-      </c>
-      <c r="J129" s="397"/>
-      <c r="K129" s="397"/>
-      <c r="L129" s="397"/>
+      <c r="B129" s="408" t="s">
+        <v>234</v>
+      </c>
+      <c r="C129" s="408"/>
+      <c r="D129" s="409" t="s">
+        <v>235</v>
+      </c>
+      <c r="E129" s="409"/>
+      <c r="F129" s="409"/>
+      <c r="G129" s="409"/>
+      <c r="H129" s="409"/>
+      <c r="I129" s="398" t="s">
+        <v>254</v>
+      </c>
+      <c r="J129" s="398"/>
+      <c r="K129" s="398"/>
+      <c r="L129" s="398"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="407"/>
-      <c r="C130" s="407"/>
-      <c r="D130" s="408"/>
-      <c r="E130" s="408"/>
-      <c r="F130" s="408"/>
-      <c r="G130" s="408"/>
-      <c r="H130" s="408"/>
-      <c r="I130" s="409"/>
-      <c r="J130" s="409"/>
-      <c r="K130" s="409"/>
-      <c r="L130" s="409"/>
+      <c r="B130" s="408"/>
+      <c r="C130" s="408"/>
+      <c r="D130" s="409"/>
+      <c r="E130" s="409"/>
+      <c r="F130" s="409"/>
+      <c r="G130" s="409"/>
+      <c r="H130" s="409"/>
+      <c r="I130" s="410"/>
+      <c r="J130" s="410"/>
+      <c r="K130" s="410"/>
+      <c r="L130" s="410"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="410"/>
-      <c r="C131" s="411" t="s">
-        <v>230</v>
-      </c>
-      <c r="D131" s="411"/>
-      <c r="E131" s="411"/>
-      <c r="F131" s="411"/>
+      <c r="B131" s="411"/>
+      <c r="C131" s="412" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" s="412"/>
+      <c r="E131" s="412"/>
+      <c r="F131" s="412"/>
       <c r="G131" s="180" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -14908,720 +15712,720 @@
       <c r="L131" s="180"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="412" t="n">
+      <c r="B132" s="413" t="n">
         <v>1</v>
       </c>
-      <c r="C132" s="413" t="s">
-        <v>232</v>
-      </c>
-      <c r="D132" s="414" t="n">
+      <c r="C132" s="414" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E132" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F132" s="415" t="s">
+      <c r="E132" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F132" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G132" s="416" t="n">
+      <c r="G132" s="417" t="n">
         <v>7</v>
       </c>
-      <c r="H132" s="416" t="n">
+      <c r="H132" s="417" t="n">
         <v>7</v>
       </c>
-      <c r="I132" s="416" t="n">
+      <c r="I132" s="417" t="n">
         <v>6</v>
       </c>
-      <c r="J132" s="416" t="n">
+      <c r="J132" s="417" t="n">
         <v>6</v>
       </c>
-      <c r="K132" s="416"/>
-      <c r="L132" s="417"/>
+      <c r="K132" s="417"/>
+      <c r="L132" s="418"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="412"/>
-      <c r="C133" s="418" t="s">
-        <v>234</v>
-      </c>
-      <c r="D133" s="419" t="n">
+      <c r="B133" s="413"/>
+      <c r="C133" s="419" t="s">
+        <v>240</v>
+      </c>
+      <c r="D133" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E133" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F133" s="415"/>
-      <c r="G133" s="416"/>
-      <c r="H133" s="416"/>
-      <c r="I133" s="416"/>
-      <c r="J133" s="416"/>
-      <c r="K133" s="416"/>
-      <c r="L133" s="417"/>
+      <c r="E133" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F133" s="416"/>
+      <c r="G133" s="417"/>
+      <c r="H133" s="417"/>
+      <c r="I133" s="417"/>
+      <c r="J133" s="417"/>
+      <c r="K133" s="417"/>
+      <c r="L133" s="418"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="420" t="n">
+      <c r="B134" s="421" t="n">
         <v>2</v>
       </c>
-      <c r="C134" s="414" t="s">
-        <v>235</v>
-      </c>
-      <c r="D134" s="414" t="n">
+      <c r="C134" s="415" t="s">
+        <v>241</v>
+      </c>
+      <c r="D134" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E134" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F134" s="421" t="s">
+      <c r="E134" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F134" s="422" t="s">
         <v>146</v>
       </c>
-      <c r="G134" s="422" t="n">
+      <c r="G134" s="423" t="n">
         <v>19</v>
       </c>
-      <c r="H134" s="422" t="n">
+      <c r="H134" s="423" t="n">
         <v>17</v>
       </c>
-      <c r="I134" s="422" t="n">
+      <c r="I134" s="423" t="n">
         <v>19</v>
       </c>
-      <c r="J134" s="422" t="n">
+      <c r="J134" s="423" t="n">
         <v>19</v>
       </c>
-      <c r="K134" s="423"/>
-      <c r="L134" s="424"/>
+      <c r="K134" s="424"/>
+      <c r="L134" s="425"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="420"/>
-      <c r="C135" s="425" t="s">
-        <v>234</v>
-      </c>
-      <c r="D135" s="425" t="n">
+      <c r="B135" s="421"/>
+      <c r="C135" s="426" t="s">
+        <v>240</v>
+      </c>
+      <c r="D135" s="426" t="n">
         <v>22</v>
       </c>
-      <c r="E135" s="425" t="s">
-        <v>233</v>
-      </c>
-      <c r="F135" s="421"/>
-      <c r="G135" s="422"/>
-      <c r="H135" s="422"/>
-      <c r="I135" s="422"/>
-      <c r="J135" s="422"/>
-      <c r="K135" s="423"/>
-      <c r="L135" s="424"/>
+      <c r="E135" s="426" t="s">
+        <v>239</v>
+      </c>
+      <c r="F135" s="422"/>
+      <c r="G135" s="423"/>
+      <c r="H135" s="423"/>
+      <c r="I135" s="423"/>
+      <c r="J135" s="423"/>
+      <c r="K135" s="424"/>
+      <c r="L135" s="425"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="412" t="n">
+      <c r="B136" s="413" t="n">
         <v>3</v>
       </c>
-      <c r="C136" s="414" t="s">
-        <v>236</v>
-      </c>
-      <c r="D136" s="414" t="n">
+      <c r="C136" s="415" t="s">
+        <v>242</v>
+      </c>
+      <c r="D136" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E136" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F136" s="427" t="s">
+      <c r="E136" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F136" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G136" s="416" t="n">
+      <c r="G136" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="H136" s="416" t="n">
+      <c r="H136" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="I136" s="416" t="n">
+      <c r="I136" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="J136" s="416" t="n">
+      <c r="J136" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="K136" s="428"/>
-      <c r="L136" s="429"/>
+      <c r="K136" s="429"/>
+      <c r="L136" s="430"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="412"/>
-      <c r="C137" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D137" s="430" t="n">
+      <c r="B137" s="413"/>
+      <c r="C137" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D137" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E137" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F137" s="427"/>
-      <c r="G137" s="416"/>
-      <c r="H137" s="416"/>
-      <c r="I137" s="416"/>
-      <c r="J137" s="416"/>
-      <c r="K137" s="428"/>
-      <c r="L137" s="429"/>
+      <c r="E137" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F137" s="428"/>
+      <c r="G137" s="417"/>
+      <c r="H137" s="417"/>
+      <c r="I137" s="417"/>
+      <c r="J137" s="417"/>
+      <c r="K137" s="429"/>
+      <c r="L137" s="430"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="420" t="n">
+      <c r="B138" s="421" t="n">
         <v>4</v>
       </c>
-      <c r="C138" s="414" t="s">
-        <v>237</v>
-      </c>
-      <c r="D138" s="414" t="n">
+      <c r="C138" s="415" t="s">
+        <v>243</v>
+      </c>
+      <c r="D138" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E138" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F138" s="427" t="s">
+      <c r="E138" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F138" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G138" s="416" t="n">
+      <c r="G138" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="H138" s="416" t="n">
+      <c r="H138" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="I138" s="416" t="n">
+      <c r="I138" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="J138" s="416" t="n">
+      <c r="J138" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="K138" s="428"/>
-      <c r="L138" s="429"/>
+      <c r="K138" s="429"/>
+      <c r="L138" s="430"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="420"/>
-      <c r="C139" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D139" s="430" t="n">
+      <c r="B139" s="421"/>
+      <c r="C139" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D139" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E139" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F139" s="427"/>
-      <c r="G139" s="416"/>
-      <c r="H139" s="416"/>
-      <c r="I139" s="416"/>
-      <c r="J139" s="416"/>
-      <c r="K139" s="428"/>
-      <c r="L139" s="429"/>
+      <c r="E139" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F139" s="428"/>
+      <c r="G139" s="417"/>
+      <c r="H139" s="417"/>
+      <c r="I139" s="417"/>
+      <c r="J139" s="417"/>
+      <c r="K139" s="429"/>
+      <c r="L139" s="430"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="412" t="n">
+      <c r="B140" s="413" t="n">
         <v>5</v>
       </c>
-      <c r="C140" s="438" t="s">
-        <v>241</v>
-      </c>
-      <c r="D140" s="438" t="n">
+      <c r="C140" s="436" t="s">
+        <v>247</v>
+      </c>
+      <c r="D140" s="436" t="n">
         <v>20</v>
       </c>
-      <c r="E140" s="438" t="s">
-        <v>233</v>
-      </c>
-      <c r="F140" s="415" t="s">
+      <c r="E140" s="436" t="s">
+        <v>239</v>
+      </c>
+      <c r="F140" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G140" s="416" t="n">
+      <c r="G140" s="417" t="n">
         <v>7</v>
       </c>
-      <c r="H140" s="416" t="n">
+      <c r="H140" s="417" t="n">
         <v>6</v>
       </c>
-      <c r="I140" s="416" t="n">
+      <c r="I140" s="417" t="n">
         <v>6</v>
       </c>
-      <c r="J140" s="416" t="n">
+      <c r="J140" s="417" t="n">
         <v>5</v>
       </c>
-      <c r="K140" s="428"/>
-      <c r="L140" s="429"/>
+      <c r="K140" s="429"/>
+      <c r="L140" s="430"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="412"/>
-      <c r="C141" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D141" s="419" t="n">
+      <c r="B141" s="413"/>
+      <c r="C141" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D141" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E141" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F141" s="415"/>
-      <c r="G141" s="416"/>
-      <c r="H141" s="416"/>
-      <c r="I141" s="416"/>
-      <c r="J141" s="416"/>
-      <c r="K141" s="428"/>
-      <c r="L141" s="429"/>
+      <c r="E141" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F141" s="416"/>
+      <c r="G141" s="417"/>
+      <c r="H141" s="417"/>
+      <c r="I141" s="417"/>
+      <c r="J141" s="417"/>
+      <c r="K141" s="429"/>
+      <c r="L141" s="430"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="420" t="n">
+      <c r="B142" s="421" t="n">
         <v>6</v>
       </c>
-      <c r="C142" s="414" t="s">
+      <c r="C142" s="415" t="s">
+        <v>245</v>
+      </c>
+      <c r="D142" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E142" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="D142" s="414" t="n">
+      <c r="F142" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G142" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="H142" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="I142" s="417" t="n">
+        <v>13</v>
+      </c>
+      <c r="J142" s="417" t="n">
+        <v>13</v>
+      </c>
+      <c r="K142" s="429"/>
+      <c r="L142" s="430"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="421"/>
+      <c r="C143" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D143" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E143" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F143" s="428"/>
+      <c r="G143" s="417"/>
+      <c r="H143" s="417"/>
+      <c r="I143" s="417"/>
+      <c r="J143" s="417"/>
+      <c r="K143" s="429"/>
+      <c r="L143" s="430"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="413" t="n">
+        <v>7</v>
+      </c>
+      <c r="C144" s="415" t="s">
+        <v>231</v>
+      </c>
+      <c r="D144" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E142" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F142" s="427" t="s">
+      <c r="E144" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F144" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G144" s="417" t="n">
+        <v>25</v>
+      </c>
+      <c r="H144" s="417" t="n">
+        <v>26</v>
+      </c>
+      <c r="I144" s="417" t="n">
+        <v>25</v>
+      </c>
+      <c r="J144" s="417" t="n">
+        <v>21</v>
+      </c>
+      <c r="K144" s="429"/>
+      <c r="L144" s="430"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="413"/>
+      <c r="C145" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D145" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F145" s="416"/>
+      <c r="G145" s="417"/>
+      <c r="H145" s="417"/>
+      <c r="I145" s="417"/>
+      <c r="J145" s="417"/>
+      <c r="K145" s="429"/>
+      <c r="L145" s="430"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="C146" s="415" t="s">
+        <v>246</v>
+      </c>
+      <c r="D146" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E146" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F146" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G142" s="416" t="n">
+      <c r="G146" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="H146" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="I146" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="J146" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="K146" s="429"/>
+      <c r="L146" s="430"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="421"/>
+      <c r="C147" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D147" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E147" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F147" s="428"/>
+      <c r="G147" s="417"/>
+      <c r="H147" s="417"/>
+      <c r="I147" s="417"/>
+      <c r="J147" s="417"/>
+      <c r="K147" s="429"/>
+      <c r="L147" s="430"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="413" t="n">
+        <v>9</v>
+      </c>
+      <c r="C148" s="415" t="s">
+        <v>248</v>
+      </c>
+      <c r="D148" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E148" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F148" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G148" s="417" t="n">
+        <v>12</v>
+      </c>
+      <c r="H148" s="417" t="n">
+        <v>16</v>
+      </c>
+      <c r="I148" s="417" t="n">
+        <v>17</v>
+      </c>
+      <c r="J148" s="417" t="n">
+        <v>12</v>
+      </c>
+      <c r="K148" s="429"/>
+      <c r="L148" s="430"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="413"/>
+      <c r="C149" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D149" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E149" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F149" s="416"/>
+      <c r="G149" s="417"/>
+      <c r="H149" s="417"/>
+      <c r="I149" s="417"/>
+      <c r="J149" s="417"/>
+      <c r="K149" s="429"/>
+      <c r="L149" s="430"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="421" t="n">
+        <v>10</v>
+      </c>
+      <c r="C150" s="415" t="s">
+        <v>249</v>
+      </c>
+      <c r="D150" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E150" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F150" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G150" s="417" t="n">
+        <v>20</v>
+      </c>
+      <c r="H150" s="417" t="n">
+        <v>21</v>
+      </c>
+      <c r="I150" s="417" t="n">
+        <v>20</v>
+      </c>
+      <c r="J150" s="417" t="n">
+        <v>20</v>
+      </c>
+      <c r="K150" s="429"/>
+      <c r="L150" s="430"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="421"/>
+      <c r="C151" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D151" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E151" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F151" s="428"/>
+      <c r="G151" s="417"/>
+      <c r="H151" s="417"/>
+      <c r="I151" s="417"/>
+      <c r="J151" s="417"/>
+      <c r="K151" s="429"/>
+      <c r="L151" s="430"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="413" t="n">
+        <v>11</v>
+      </c>
+      <c r="C152" s="415" t="s">
+        <v>261</v>
+      </c>
+      <c r="D152" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E152" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F152" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G152" s="417" t="n">
+        <v>57</v>
+      </c>
+      <c r="H152" s="417" t="n">
+        <v>55</v>
+      </c>
+      <c r="I152" s="417" t="n">
+        <v>42</v>
+      </c>
+      <c r="J152" s="417" t="n">
+        <v>42</v>
+      </c>
+      <c r="K152" s="429"/>
+      <c r="L152" s="430"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="413"/>
+      <c r="C153" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D153" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E153" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F153" s="416"/>
+      <c r="G153" s="417"/>
+      <c r="H153" s="417"/>
+      <c r="I153" s="417"/>
+      <c r="J153" s="417"/>
+      <c r="K153" s="429"/>
+      <c r="L153" s="430"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="C154" s="434" t="s">
+        <v>257</v>
+      </c>
+      <c r="D154" s="435" t="n">
+        <v>20</v>
+      </c>
+      <c r="E154" s="435" t="s">
+        <v>239</v>
+      </c>
+      <c r="F154" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G154" s="417" t="n">
+        <v>38</v>
+      </c>
+      <c r="H154" s="417" t="n">
+        <v>30</v>
+      </c>
+      <c r="I154" s="417" t="n">
+        <v>40</v>
+      </c>
+      <c r="J154" s="417" t="n">
+        <v>31</v>
+      </c>
+      <c r="K154" s="429"/>
+      <c r="L154" s="430"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="421"/>
+      <c r="C155" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D155" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E155" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F155" s="428"/>
+      <c r="G155" s="417"/>
+      <c r="H155" s="417"/>
+      <c r="I155" s="417"/>
+      <c r="J155" s="417"/>
+      <c r="K155" s="429"/>
+      <c r="L155" s="430"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="413" t="n">
+        <v>13</v>
+      </c>
+      <c r="C156" s="415" t="s">
+        <v>262</v>
+      </c>
+      <c r="D156" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E156" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F156" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G156" s="417" t="n">
+        <v>9</v>
+      </c>
+      <c r="H156" s="417" t="n">
+        <v>10</v>
+      </c>
+      <c r="I156" s="417" t="n">
+        <v>9</v>
+      </c>
+      <c r="J156" s="417" t="n">
+        <v>9</v>
+      </c>
+      <c r="K156" s="429"/>
+      <c r="L156" s="430"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="413"/>
+      <c r="C157" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D157" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E157" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F157" s="416"/>
+      <c r="G157" s="417"/>
+      <c r="H157" s="417"/>
+      <c r="I157" s="417"/>
+      <c r="J157" s="417"/>
+      <c r="K157" s="429"/>
+      <c r="L157" s="430"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="413" t="n">
         <v>14</v>
       </c>
-      <c r="H142" s="416" t="n">
-        <v>14</v>
-      </c>
-      <c r="I142" s="416" t="n">
-        <v>13</v>
-      </c>
-      <c r="J142" s="416" t="n">
-        <v>13</v>
-      </c>
-      <c r="K142" s="428"/>
-      <c r="L142" s="429"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="420"/>
-      <c r="C143" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D143" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E143" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F143" s="427"/>
-      <c r="G143" s="416"/>
-      <c r="H143" s="416"/>
-      <c r="I143" s="416"/>
-      <c r="J143" s="416"/>
-      <c r="K143" s="428"/>
-      <c r="L143" s="429"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="412" t="n">
-        <v>7</v>
-      </c>
-      <c r="C144" s="414" t="s">
-        <v>225</v>
-      </c>
-      <c r="D144" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E144" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F144" s="415" t="s">
+      <c r="C158" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="D158" s="415" t="n">
+        <v>140</v>
+      </c>
+      <c r="E158" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F158" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G144" s="416" t="n">
-        <v>25</v>
-      </c>
-      <c r="H144" s="416" t="n">
-        <v>26</v>
-      </c>
-      <c r="I144" s="416" t="n">
-        <v>25</v>
-      </c>
-      <c r="J144" s="416" t="n">
-        <v>21</v>
-      </c>
-      <c r="K144" s="428"/>
-      <c r="L144" s="429"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="412"/>
-      <c r="C145" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D145" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E145" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F145" s="415"/>
-      <c r="G145" s="416"/>
-      <c r="H145" s="416"/>
-      <c r="I145" s="416"/>
-      <c r="J145" s="416"/>
-      <c r="K145" s="428"/>
-      <c r="L145" s="429"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="420" t="n">
-        <v>8</v>
-      </c>
-      <c r="C146" s="414" t="s">
-        <v>240</v>
-      </c>
-      <c r="D146" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E146" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F146" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="G146" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="H146" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="I146" s="416" t="n">
-        <v>8</v>
-      </c>
-      <c r="J146" s="416" t="n">
-        <v>7</v>
-      </c>
-      <c r="K146" s="428"/>
-      <c r="L146" s="429"/>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="420"/>
-      <c r="C147" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D147" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E147" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F147" s="427"/>
-      <c r="G147" s="416"/>
-      <c r="H147" s="416"/>
-      <c r="I147" s="416"/>
-      <c r="J147" s="416"/>
-      <c r="K147" s="428"/>
-      <c r="L147" s="429"/>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="412" t="n">
-        <v>9</v>
-      </c>
-      <c r="C148" s="414" t="s">
-        <v>242</v>
-      </c>
-      <c r="D148" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E148" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F148" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G148" s="416" t="n">
-        <v>12</v>
-      </c>
-      <c r="H148" s="416" t="n">
-        <v>16</v>
-      </c>
-      <c r="I148" s="416" t="n">
-        <v>17</v>
-      </c>
-      <c r="J148" s="416" t="n">
-        <v>12</v>
-      </c>
-      <c r="K148" s="428"/>
-      <c r="L148" s="429"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="412"/>
-      <c r="C149" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D149" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E149" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F149" s="415"/>
-      <c r="G149" s="416"/>
-      <c r="H149" s="416"/>
-      <c r="I149" s="416"/>
-      <c r="J149" s="416"/>
-      <c r="K149" s="428"/>
-      <c r="L149" s="429"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="420" t="n">
-        <v>10</v>
-      </c>
-      <c r="C150" s="434" t="s">
-        <v>243</v>
-      </c>
-      <c r="D150" s="434" t="n">
-        <v>20</v>
-      </c>
-      <c r="E150" s="434" t="s">
-        <v>233</v>
-      </c>
-      <c r="F150" s="435" t="s">
-        <v>147</v>
-      </c>
-      <c r="G150" s="416" t="n">
-        <v>20</v>
-      </c>
-      <c r="H150" s="416" t="n">
-        <v>21</v>
-      </c>
-      <c r="I150" s="416" t="n">
-        <v>20</v>
-      </c>
-      <c r="J150" s="416" t="n">
-        <v>20</v>
-      </c>
-      <c r="K150" s="428"/>
-      <c r="L150" s="429"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="420"/>
-      <c r="C151" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D151" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E151" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F151" s="435"/>
-      <c r="G151" s="416"/>
-      <c r="H151" s="416"/>
-      <c r="I151" s="416"/>
-      <c r="J151" s="416"/>
-      <c r="K151" s="428"/>
-      <c r="L151" s="429"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="412" t="n">
-        <v>11</v>
-      </c>
-      <c r="C152" s="414" t="s">
+      <c r="G158" s="417" t="s">
         <v>255</v>
       </c>
-      <c r="D152" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E152" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F152" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G152" s="416" t="n">
-        <v>57</v>
-      </c>
-      <c r="H152" s="416" t="n">
-        <v>55</v>
-      </c>
-      <c r="I152" s="416" t="n">
-        <v>42</v>
-      </c>
-      <c r="J152" s="416" t="n">
-        <v>42</v>
-      </c>
-      <c r="K152" s="428"/>
-      <c r="L152" s="429"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="412"/>
-      <c r="C153" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D153" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E153" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F153" s="415"/>
-      <c r="G153" s="416"/>
-      <c r="H153" s="416"/>
-      <c r="I153" s="416"/>
-      <c r="J153" s="416"/>
-      <c r="K153" s="428"/>
-      <c r="L153" s="429"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="420" t="n">
-        <v>12</v>
-      </c>
-      <c r="C154" s="436" t="s">
-        <v>251</v>
-      </c>
-      <c r="D154" s="437" t="n">
-        <v>20</v>
-      </c>
-      <c r="E154" s="437" t="s">
-        <v>233</v>
-      </c>
-      <c r="F154" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="G154" s="416" t="n">
-        <v>38</v>
-      </c>
-      <c r="H154" s="416" t="n">
-        <v>30</v>
-      </c>
-      <c r="I154" s="416" t="n">
-        <v>40</v>
-      </c>
-      <c r="J154" s="416" t="n">
-        <v>31</v>
-      </c>
-      <c r="K154" s="428"/>
-      <c r="L154" s="429"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="420"/>
-      <c r="C155" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D155" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E155" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F155" s="427"/>
-      <c r="G155" s="416"/>
-      <c r="H155" s="416"/>
-      <c r="I155" s="416"/>
-      <c r="J155" s="416"/>
-      <c r="K155" s="428"/>
-      <c r="L155" s="429"/>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="412" t="n">
-        <v>13</v>
-      </c>
-      <c r="C156" s="414" t="s">
-        <v>256</v>
-      </c>
-      <c r="D156" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E156" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F156" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G156" s="416" t="n">
-        <v>9</v>
-      </c>
-      <c r="H156" s="416" t="n">
-        <v>10</v>
-      </c>
-      <c r="I156" s="416" t="n">
-        <v>9</v>
-      </c>
-      <c r="J156" s="416" t="n">
-        <v>9</v>
-      </c>
-      <c r="K156" s="428"/>
-      <c r="L156" s="429"/>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="412"/>
-      <c r="C157" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D157" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E157" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F157" s="415"/>
-      <c r="G157" s="416"/>
-      <c r="H157" s="416"/>
-      <c r="I157" s="416"/>
-      <c r="J157" s="416"/>
-      <c r="K157" s="428"/>
-      <c r="L157" s="429"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="412" t="n">
-        <v>14</v>
-      </c>
-      <c r="C158" s="414" t="s">
-        <v>244</v>
-      </c>
-      <c r="D158" s="414" t="n">
-        <v>140</v>
-      </c>
-      <c r="E158" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F158" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G158" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="H158" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="I158" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="J158" s="416" t="s">
-        <v>249</v>
-      </c>
-      <c r="K158" s="428"/>
-      <c r="L158" s="429"/>
+      <c r="H158" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="I158" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="J158" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="K158" s="429"/>
+      <c r="L158" s="430"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="412"/>
-      <c r="C159" s="431"/>
-      <c r="D159" s="431"/>
-      <c r="E159" s="431"/>
-      <c r="F159" s="415"/>
-      <c r="G159" s="416"/>
-      <c r="H159" s="416"/>
-      <c r="I159" s="416"/>
-      <c r="J159" s="416"/>
-      <c r="K159" s="428"/>
-      <c r="L159" s="429"/>
+      <c r="B159" s="413"/>
+      <c r="C159" s="432"/>
+      <c r="D159" s="432"/>
+      <c r="E159" s="432"/>
+      <c r="F159" s="416"/>
+      <c r="G159" s="417"/>
+      <c r="H159" s="417"/>
+      <c r="I159" s="417"/>
+      <c r="J159" s="417"/>
+      <c r="K159" s="429"/>
+      <c r="L159" s="430"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>214</v>
-      </c>
-      <c r="G164" s="388" t="s">
-        <v>215</v>
-      </c>
-      <c r="H164" s="388"/>
+        <v>220</v>
+      </c>
+      <c r="G164" s="389" t="s">
+        <v>221</v>
+      </c>
+      <c r="H164" s="389"/>
       <c r="I164" s="358" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -15634,184 +16438,184 @@
       <c r="E165" s="368"/>
       <c r="F165" s="368"/>
       <c r="G165" s="368"/>
-      <c r="H165" s="388"/>
+      <c r="H165" s="389"/>
       <c r="I165" s="358"/>
       <c r="J165" s="358"/>
       <c r="K165" s="358"/>
       <c r="L165" s="358"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="389" t="s">
-        <v>217</v>
-      </c>
-      <c r="C166" s="389"/>
-      <c r="D166" s="390" t="n">
+      <c r="B166" s="390" t="s">
+        <v>223</v>
+      </c>
+      <c r="C166" s="390"/>
+      <c r="D166" s="391" t="n">
         <f aca="false">(D175+D176+D177+D178+D183+D184+D191+D192+D187+D188+D195+D196+D199+D200+D201)/60</f>
         <v>7.23333333333333</v>
       </c>
-      <c r="E166" s="391" t="s">
-        <v>218</v>
-      </c>
-      <c r="F166" s="391" t="n">
+      <c r="E166" s="392" t="s">
+        <v>224</v>
+      </c>
+      <c r="F166" s="392" t="n">
         <v>4</v>
       </c>
-      <c r="G166" s="392" t="n">
+      <c r="G166" s="393" t="n">
         <f aca="false">D166*F166</f>
         <v>28.9333333333333</v>
       </c>
-      <c r="H166" s="392"/>
-      <c r="I166" s="393"/>
-      <c r="J166" s="393"/>
-      <c r="K166" s="393"/>
-      <c r="L166" s="393"/>
+      <c r="H166" s="393"/>
+      <c r="I166" s="394"/>
+      <c r="J166" s="394"/>
+      <c r="K166" s="394"/>
+      <c r="L166" s="394"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="394" t="s">
-        <v>220</v>
-      </c>
-      <c r="C167" s="394"/>
-      <c r="D167" s="395" t="n">
+      <c r="B167" s="395" t="s">
+        <v>226</v>
+      </c>
+      <c r="C167" s="395"/>
+      <c r="D167" s="396" t="n">
         <f aca="false">(D179+D194+D180+D181+D182+D185+D186+D189+D190+D193+D194+D197+D198)/60</f>
         <v>4.56666666666667</v>
       </c>
-      <c r="E167" s="391"/>
-      <c r="F167" s="391"/>
-      <c r="G167" s="396" t="n">
+      <c r="E167" s="392"/>
+      <c r="F167" s="392"/>
+      <c r="G167" s="397" t="n">
         <f aca="false">D167*F166</f>
         <v>18.2666666666667</v>
       </c>
-      <c r="H167" s="396"/>
-      <c r="I167" s="397" t="s">
-        <v>254</v>
-      </c>
-      <c r="J167" s="397"/>
-      <c r="K167" s="397"/>
-      <c r="L167" s="397"/>
+      <c r="H167" s="397"/>
+      <c r="I167" s="398" t="s">
+        <v>260</v>
+      </c>
+      <c r="J167" s="398"/>
+      <c r="K167" s="398"/>
+      <c r="L167" s="398"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="394" t="s">
-        <v>222</v>
-      </c>
-      <c r="C168" s="394"/>
-      <c r="D168" s="398" t="n">
+      <c r="B168" s="395" t="s">
+        <v>228</v>
+      </c>
+      <c r="C168" s="395"/>
+      <c r="D168" s="399" t="n">
         <f aca="false">SUM(D166:D167)</f>
         <v>11.8</v>
       </c>
-      <c r="E168" s="391"/>
-      <c r="F168" s="391"/>
-      <c r="G168" s="399" t="n">
+      <c r="E168" s="392"/>
+      <c r="F168" s="392"/>
+      <c r="G168" s="400" t="n">
         <f aca="false">D168*F166</f>
         <v>47.2</v>
       </c>
-      <c r="H168" s="399"/>
-      <c r="I168" s="397" t="s">
-        <v>223</v>
-      </c>
-      <c r="J168" s="397"/>
-      <c r="K168" s="397"/>
-      <c r="L168" s="397"/>
+      <c r="H168" s="400"/>
+      <c r="I168" s="398" t="s">
+        <v>229</v>
+      </c>
+      <c r="J168" s="398"/>
+      <c r="K168" s="398"/>
+      <c r="L168" s="398"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="394" t="s">
-        <v>224</v>
-      </c>
-      <c r="C169" s="394"/>
-      <c r="D169" s="400" t="n">
+      <c r="B169" s="395" t="s">
+        <v>230</v>
+      </c>
+      <c r="C169" s="395"/>
+      <c r="D169" s="401" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="E169" s="400"/>
-      <c r="F169" s="400"/>
-      <c r="G169" s="400"/>
-      <c r="H169" s="400"/>
-      <c r="I169" s="401" t="s">
-        <v>225</v>
-      </c>
-      <c r="J169" s="401"/>
-      <c r="K169" s="401"/>
-      <c r="L169" s="401"/>
+      <c r="E169" s="401"/>
+      <c r="F169" s="401"/>
+      <c r="G169" s="401"/>
+      <c r="H169" s="401"/>
+      <c r="I169" s="402" t="s">
+        <v>231</v>
+      </c>
+      <c r="J169" s="402"/>
+      <c r="K169" s="402"/>
+      <c r="L169" s="402"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="402" t="s">
-        <v>226</v>
-      </c>
-      <c r="C170" s="403"/>
-      <c r="D170" s="404" t="n">
+      <c r="B170" s="403" t="s">
+        <v>232</v>
+      </c>
+      <c r="C170" s="404"/>
+      <c r="D170" s="405" t="n">
         <f aca="false">G168+D169</f>
         <v>56.2</v>
       </c>
-      <c r="E170" s="404"/>
-      <c r="F170" s="404"/>
-      <c r="G170" s="404"/>
-      <c r="H170" s="404"/>
-      <c r="I170" s="397" t="s">
-        <v>227</v>
-      </c>
-      <c r="J170" s="397"/>
-      <c r="K170" s="397"/>
-      <c r="L170" s="397"/>
+      <c r="E170" s="405"/>
+      <c r="F170" s="405"/>
+      <c r="G170" s="405"/>
+      <c r="H170" s="405"/>
+      <c r="I170" s="398" t="s">
+        <v>233</v>
+      </c>
+      <c r="J170" s="398"/>
+      <c r="K170" s="398"/>
+      <c r="L170" s="398"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="394" t="s">
+      <c r="B171" s="395" t="s">
         <v>32</v>
       </c>
-      <c r="C171" s="394"/>
-      <c r="D171" s="432" t="n">
+      <c r="C171" s="395"/>
+      <c r="D171" s="406" t="n">
         <v>43550</v>
       </c>
-      <c r="E171" s="432"/>
-      <c r="F171" s="432"/>
-      <c r="G171" s="432"/>
-      <c r="H171" s="432"/>
-      <c r="I171" s="397" t="s">
-        <v>219</v>
-      </c>
-      <c r="J171" s="397"/>
-      <c r="K171" s="397"/>
-      <c r="L171" s="397"/>
+      <c r="E171" s="406"/>
+      <c r="F171" s="406"/>
+      <c r="G171" s="406"/>
+      <c r="H171" s="406"/>
+      <c r="I171" s="398" t="s">
+        <v>225</v>
+      </c>
+      <c r="J171" s="398"/>
+      <c r="K171" s="398"/>
+      <c r="L171" s="398"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="407" t="s">
-        <v>228</v>
-      </c>
-      <c r="C172" s="407"/>
-      <c r="D172" s="408" t="s">
-        <v>229</v>
-      </c>
-      <c r="E172" s="408"/>
-      <c r="F172" s="408"/>
-      <c r="G172" s="408"/>
-      <c r="H172" s="408"/>
-      <c r="I172" s="397" t="s">
-        <v>248</v>
-      </c>
-      <c r="J172" s="397"/>
-      <c r="K172" s="397"/>
-      <c r="L172" s="397"/>
+      <c r="B172" s="408" t="s">
+        <v>234</v>
+      </c>
+      <c r="C172" s="408"/>
+      <c r="D172" s="409" t="s">
+        <v>235</v>
+      </c>
+      <c r="E172" s="409"/>
+      <c r="F172" s="409"/>
+      <c r="G172" s="409"/>
+      <c r="H172" s="409"/>
+      <c r="I172" s="398" t="s">
+        <v>254</v>
+      </c>
+      <c r="J172" s="398"/>
+      <c r="K172" s="398"/>
+      <c r="L172" s="398"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="407"/>
-      <c r="C173" s="407"/>
-      <c r="D173" s="408"/>
-      <c r="E173" s="408"/>
-      <c r="F173" s="408"/>
-      <c r="G173" s="408"/>
-      <c r="H173" s="408"/>
-      <c r="I173" s="409"/>
-      <c r="J173" s="409"/>
-      <c r="K173" s="409"/>
-      <c r="L173" s="409"/>
+      <c r="B173" s="408"/>
+      <c r="C173" s="408"/>
+      <c r="D173" s="409"/>
+      <c r="E173" s="409"/>
+      <c r="F173" s="409"/>
+      <c r="G173" s="409"/>
+      <c r="H173" s="409"/>
+      <c r="I173" s="410"/>
+      <c r="J173" s="410"/>
+      <c r="K173" s="410"/>
+      <c r="L173" s="410"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="410"/>
-      <c r="C174" s="411" t="s">
-        <v>230</v>
-      </c>
-      <c r="D174" s="411"/>
-      <c r="E174" s="411"/>
-      <c r="F174" s="411"/>
+      <c r="B174" s="411"/>
+      <c r="C174" s="412" t="s">
+        <v>236</v>
+      </c>
+      <c r="D174" s="412"/>
+      <c r="E174" s="412"/>
+      <c r="F174" s="412"/>
       <c r="G174" s="180" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -15820,586 +16624,586 @@
       <c r="L174" s="180"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="412" t="n">
+      <c r="B175" s="413" t="n">
         <v>1</v>
       </c>
-      <c r="C175" s="413" t="s">
-        <v>232</v>
-      </c>
-      <c r="D175" s="414" t="n">
+      <c r="C175" s="414" t="s">
+        <v>238</v>
+      </c>
+      <c r="D175" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E175" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F175" s="415" t="s">
+      <c r="E175" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F175" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G175" s="416"/>
-      <c r="H175" s="416"/>
-      <c r="I175" s="416"/>
-      <c r="J175" s="416"/>
-      <c r="K175" s="416"/>
-      <c r="L175" s="417"/>
+      <c r="G175" s="417"/>
+      <c r="H175" s="417"/>
+      <c r="I175" s="417"/>
+      <c r="J175" s="417"/>
+      <c r="K175" s="417"/>
+      <c r="L175" s="418"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="412"/>
-      <c r="C176" s="418" t="s">
-        <v>234</v>
-      </c>
-      <c r="D176" s="419" t="n">
+      <c r="B176" s="413"/>
+      <c r="C176" s="419" t="s">
+        <v>240</v>
+      </c>
+      <c r="D176" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E176" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F176" s="415"/>
-      <c r="G176" s="416"/>
-      <c r="H176" s="416"/>
-      <c r="I176" s="416"/>
-      <c r="J176" s="416"/>
-      <c r="K176" s="416"/>
-      <c r="L176" s="417"/>
+      <c r="E176" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F176" s="416"/>
+      <c r="G176" s="417"/>
+      <c r="H176" s="417"/>
+      <c r="I176" s="417"/>
+      <c r="J176" s="417"/>
+      <c r="K176" s="417"/>
+      <c r="L176" s="418"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="420" t="n">
+      <c r="B177" s="421" t="n">
         <v>2</v>
       </c>
-      <c r="C177" s="414" t="s">
-        <v>235</v>
-      </c>
-      <c r="D177" s="414" t="n">
+      <c r="C177" s="415" t="s">
+        <v>241</v>
+      </c>
+      <c r="D177" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E177" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F177" s="421" t="s">
+      <c r="E177" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F177" s="422" t="s">
         <v>146</v>
       </c>
-      <c r="G177" s="422"/>
-      <c r="H177" s="422"/>
-      <c r="I177" s="422"/>
-      <c r="J177" s="422"/>
-      <c r="K177" s="423"/>
-      <c r="L177" s="424"/>
+      <c r="G177" s="423"/>
+      <c r="H177" s="423"/>
+      <c r="I177" s="423"/>
+      <c r="J177" s="423"/>
+      <c r="K177" s="424"/>
+      <c r="L177" s="425"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="420"/>
-      <c r="C178" s="425" t="s">
-        <v>234</v>
-      </c>
-      <c r="D178" s="425" t="n">
+      <c r="B178" s="421"/>
+      <c r="C178" s="426" t="s">
+        <v>240</v>
+      </c>
+      <c r="D178" s="426" t="n">
         <v>22</v>
       </c>
-      <c r="E178" s="425" t="s">
-        <v>233</v>
-      </c>
-      <c r="F178" s="421"/>
-      <c r="G178" s="422"/>
-      <c r="H178" s="422"/>
-      <c r="I178" s="422"/>
-      <c r="J178" s="422"/>
-      <c r="K178" s="423"/>
-      <c r="L178" s="424"/>
+      <c r="E178" s="426" t="s">
+        <v>239</v>
+      </c>
+      <c r="F178" s="422"/>
+      <c r="G178" s="423"/>
+      <c r="H178" s="423"/>
+      <c r="I178" s="423"/>
+      <c r="J178" s="423"/>
+      <c r="K178" s="424"/>
+      <c r="L178" s="425"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="412" t="n">
+      <c r="B179" s="413" t="n">
         <v>3</v>
       </c>
-      <c r="C179" s="414" t="s">
-        <v>236</v>
-      </c>
-      <c r="D179" s="414" t="n">
+      <c r="C179" s="415" t="s">
+        <v>242</v>
+      </c>
+      <c r="D179" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E179" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F179" s="427" t="s">
+      <c r="E179" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F179" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G179" s="416"/>
-      <c r="H179" s="416"/>
-      <c r="I179" s="416"/>
-      <c r="J179" s="416"/>
-      <c r="K179" s="428"/>
-      <c r="L179" s="429"/>
+      <c r="G179" s="417"/>
+      <c r="H179" s="417"/>
+      <c r="I179" s="417"/>
+      <c r="J179" s="417"/>
+      <c r="K179" s="429"/>
+      <c r="L179" s="430"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="412"/>
-      <c r="C180" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D180" s="430" t="n">
+      <c r="B180" s="413"/>
+      <c r="C180" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D180" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E180" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F180" s="427"/>
-      <c r="G180" s="416"/>
-      <c r="H180" s="416"/>
-      <c r="I180" s="416"/>
-      <c r="J180" s="416"/>
-      <c r="K180" s="428"/>
-      <c r="L180" s="429"/>
+      <c r="E180" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F180" s="428"/>
+      <c r="G180" s="417"/>
+      <c r="H180" s="417"/>
+      <c r="I180" s="417"/>
+      <c r="J180" s="417"/>
+      <c r="K180" s="429"/>
+      <c r="L180" s="430"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="420" t="n">
+      <c r="B181" s="421" t="n">
         <v>4</v>
       </c>
-      <c r="C181" s="414" t="s">
-        <v>237</v>
-      </c>
-      <c r="D181" s="414" t="n">
+      <c r="C181" s="415" t="s">
+        <v>243</v>
+      </c>
+      <c r="D181" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E181" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F181" s="427" t="s">
+      <c r="E181" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F181" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G181" s="416"/>
-      <c r="H181" s="416"/>
-      <c r="I181" s="416"/>
-      <c r="J181" s="416"/>
-      <c r="K181" s="428"/>
-      <c r="L181" s="429"/>
+      <c r="G181" s="417"/>
+      <c r="H181" s="417"/>
+      <c r="I181" s="417"/>
+      <c r="J181" s="417"/>
+      <c r="K181" s="429"/>
+      <c r="L181" s="430"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="420"/>
-      <c r="C182" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D182" s="430" t="n">
+      <c r="B182" s="421"/>
+      <c r="C182" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D182" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E182" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F182" s="427"/>
-      <c r="G182" s="416"/>
-      <c r="H182" s="416"/>
-      <c r="I182" s="416"/>
-      <c r="J182" s="416"/>
-      <c r="K182" s="428"/>
-      <c r="L182" s="429"/>
+      <c r="E182" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F182" s="428"/>
+      <c r="G182" s="417"/>
+      <c r="H182" s="417"/>
+      <c r="I182" s="417"/>
+      <c r="J182" s="417"/>
+      <c r="K182" s="429"/>
+      <c r="L182" s="430"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="412" t="n">
+      <c r="B183" s="413" t="n">
         <v>5</v>
       </c>
-      <c r="C183" s="438" t="s">
-        <v>241</v>
-      </c>
-      <c r="D183" s="438" t="n">
+      <c r="C183" s="436" t="s">
+        <v>247</v>
+      </c>
+      <c r="D183" s="436" t="n">
         <v>20</v>
       </c>
-      <c r="E183" s="438" t="s">
-        <v>233</v>
-      </c>
-      <c r="F183" s="415" t="s">
+      <c r="E183" s="436" t="s">
+        <v>239</v>
+      </c>
+      <c r="F183" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G183" s="416"/>
-      <c r="H183" s="416"/>
-      <c r="I183" s="416"/>
-      <c r="J183" s="416"/>
-      <c r="K183" s="428"/>
-      <c r="L183" s="429"/>
+      <c r="G183" s="417"/>
+      <c r="H183" s="417"/>
+      <c r="I183" s="417"/>
+      <c r="J183" s="417"/>
+      <c r="K183" s="429"/>
+      <c r="L183" s="430"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="412"/>
-      <c r="C184" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D184" s="419" t="n">
+      <c r="B184" s="413"/>
+      <c r="C184" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D184" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E184" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F184" s="415"/>
-      <c r="G184" s="416"/>
-      <c r="H184" s="416"/>
-      <c r="I184" s="416"/>
-      <c r="J184" s="416"/>
-      <c r="K184" s="428"/>
-      <c r="L184" s="429"/>
+      <c r="E184" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F184" s="416"/>
+      <c r="G184" s="417"/>
+      <c r="H184" s="417"/>
+      <c r="I184" s="417"/>
+      <c r="J184" s="417"/>
+      <c r="K184" s="429"/>
+      <c r="L184" s="430"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="420" t="n">
+      <c r="B185" s="421" t="n">
         <v>6</v>
       </c>
-      <c r="C185" s="414" t="s">
+      <c r="C185" s="415" t="s">
+        <v>245</v>
+      </c>
+      <c r="D185" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E185" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="D185" s="414" t="n">
+      <c r="F185" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G185" s="417"/>
+      <c r="H185" s="417"/>
+      <c r="I185" s="417"/>
+      <c r="J185" s="417"/>
+      <c r="K185" s="429"/>
+      <c r="L185" s="430"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="421"/>
+      <c r="C186" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D186" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E186" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F186" s="428"/>
+      <c r="G186" s="417"/>
+      <c r="H186" s="417"/>
+      <c r="I186" s="417"/>
+      <c r="J186" s="417"/>
+      <c r="K186" s="429"/>
+      <c r="L186" s="430"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="413" t="n">
+        <v>7</v>
+      </c>
+      <c r="C187" s="415" t="s">
+        <v>231</v>
+      </c>
+      <c r="D187" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E185" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F185" s="427" t="s">
+      <c r="E187" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F187" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G187" s="417"/>
+      <c r="H187" s="417"/>
+      <c r="I187" s="417"/>
+      <c r="J187" s="417"/>
+      <c r="K187" s="429"/>
+      <c r="L187" s="430"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="413"/>
+      <c r="C188" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D188" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E188" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F188" s="416"/>
+      <c r="G188" s="417"/>
+      <c r="H188" s="417"/>
+      <c r="I188" s="417"/>
+      <c r="J188" s="417"/>
+      <c r="K188" s="429"/>
+      <c r="L188" s="430"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="C189" s="415" t="s">
+        <v>246</v>
+      </c>
+      <c r="D189" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E189" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F189" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G185" s="416"/>
-      <c r="H185" s="416"/>
-      <c r="I185" s="416"/>
-      <c r="J185" s="416"/>
-      <c r="K185" s="428"/>
-      <c r="L185" s="429"/>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="420"/>
-      <c r="C186" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D186" s="430" t="n">
+      <c r="G189" s="417"/>
+      <c r="H189" s="417"/>
+      <c r="I189" s="417"/>
+      <c r="J189" s="417"/>
+      <c r="K189" s="429"/>
+      <c r="L189" s="430"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="421"/>
+      <c r="C190" s="431" t="s">
+        <v>240</v>
+      </c>
+      <c r="D190" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E186" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F186" s="427"/>
-      <c r="G186" s="416"/>
-      <c r="H186" s="416"/>
-      <c r="I186" s="416"/>
-      <c r="J186" s="416"/>
-      <c r="K186" s="428"/>
-      <c r="L186" s="429"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="412" t="n">
-        <v>7</v>
-      </c>
-      <c r="C187" s="414" t="s">
-        <v>225</v>
-      </c>
-      <c r="D187" s="414" t="n">
+      <c r="E190" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F190" s="428"/>
+      <c r="G190" s="417"/>
+      <c r="H190" s="417"/>
+      <c r="I190" s="417"/>
+      <c r="J190" s="417"/>
+      <c r="K190" s="429"/>
+      <c r="L190" s="430"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="413" t="n">
+        <v>9</v>
+      </c>
+      <c r="C191" s="415" t="s">
+        <v>248</v>
+      </c>
+      <c r="D191" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E187" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F187" s="415" t="s">
+      <c r="E191" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F191" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G187" s="416"/>
-      <c r="H187" s="416"/>
-      <c r="I187" s="416"/>
-      <c r="J187" s="416"/>
-      <c r="K187" s="428"/>
-      <c r="L187" s="429"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="412"/>
-      <c r="C188" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D188" s="419" t="n">
+      <c r="G191" s="417"/>
+      <c r="H191" s="417"/>
+      <c r="I191" s="417"/>
+      <c r="J191" s="417"/>
+      <c r="K191" s="429"/>
+      <c r="L191" s="430"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="413"/>
+      <c r="C192" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D192" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E188" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F188" s="415"/>
-      <c r="G188" s="416"/>
-      <c r="H188" s="416"/>
-      <c r="I188" s="416"/>
-      <c r="J188" s="416"/>
-      <c r="K188" s="428"/>
-      <c r="L188" s="429"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="420" t="n">
-        <v>8</v>
-      </c>
-      <c r="C189" s="414" t="s">
+      <c r="E192" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F192" s="416"/>
+      <c r="G192" s="417"/>
+      <c r="H192" s="417"/>
+      <c r="I192" s="417"/>
+      <c r="J192" s="417"/>
+      <c r="K192" s="429"/>
+      <c r="L192" s="430"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="421" t="n">
+        <v>10</v>
+      </c>
+      <c r="C193" s="415" t="s">
+        <v>249</v>
+      </c>
+      <c r="D193" s="415" t="n">
+        <v>20</v>
+      </c>
+      <c r="E193" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F193" s="428" t="s">
+        <v>147</v>
+      </c>
+      <c r="G193" s="417"/>
+      <c r="H193" s="417"/>
+      <c r="I193" s="417"/>
+      <c r="J193" s="417"/>
+      <c r="K193" s="429"/>
+      <c r="L193" s="430"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="421"/>
+      <c r="C194" s="431" t="s">
         <v>240</v>
       </c>
-      <c r="D189" s="414" t="n">
+      <c r="D194" s="431" t="n">
+        <v>22</v>
+      </c>
+      <c r="E194" s="431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F194" s="428"/>
+      <c r="G194" s="417"/>
+      <c r="H194" s="417"/>
+      <c r="I194" s="417"/>
+      <c r="J194" s="417"/>
+      <c r="K194" s="429"/>
+      <c r="L194" s="430"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="413" t="n">
+        <v>11</v>
+      </c>
+      <c r="C195" s="415" t="s">
+        <v>263</v>
+      </c>
+      <c r="D195" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E189" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F189" s="427" t="s">
+      <c r="E195" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F195" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G195" s="417"/>
+      <c r="H195" s="417"/>
+      <c r="I195" s="417"/>
+      <c r="J195" s="417"/>
+      <c r="K195" s="429"/>
+      <c r="L195" s="430"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="413"/>
+      <c r="C196" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D196" s="420" t="n">
+        <v>22</v>
+      </c>
+      <c r="E196" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F196" s="416"/>
+      <c r="G196" s="417"/>
+      <c r="H196" s="417"/>
+      <c r="I196" s="417"/>
+      <c r="J196" s="417"/>
+      <c r="K196" s="429"/>
+      <c r="L196" s="430"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="C197" s="434" t="s">
+        <v>257</v>
+      </c>
+      <c r="D197" s="435" t="n">
+        <v>20</v>
+      </c>
+      <c r="E197" s="435" t="s">
+        <v>239</v>
+      </c>
+      <c r="F197" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G189" s="416"/>
-      <c r="H189" s="416"/>
-      <c r="I189" s="416"/>
-      <c r="J189" s="416"/>
-      <c r="K189" s="428"/>
-      <c r="L189" s="429"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="420"/>
-      <c r="C190" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D190" s="430" t="n">
+      <c r="G197" s="417"/>
+      <c r="H197" s="417"/>
+      <c r="I197" s="417"/>
+      <c r="J197" s="417"/>
+      <c r="K197" s="429"/>
+      <c r="L197" s="430"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="421"/>
+      <c r="C198" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D198" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E190" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F190" s="427"/>
-      <c r="G190" s="416"/>
-      <c r="H190" s="416"/>
-      <c r="I190" s="416"/>
-      <c r="J190" s="416"/>
-      <c r="K190" s="428"/>
-      <c r="L190" s="429"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="412" t="n">
-        <v>9</v>
-      </c>
-      <c r="C191" s="414" t="s">
-        <v>242</v>
-      </c>
-      <c r="D191" s="414" t="n">
+      <c r="E198" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F198" s="428"/>
+      <c r="G198" s="417"/>
+      <c r="H198" s="417"/>
+      <c r="I198" s="417"/>
+      <c r="J198" s="417"/>
+      <c r="K198" s="429"/>
+      <c r="L198" s="430"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="413" t="n">
+        <v>13</v>
+      </c>
+      <c r="C199" s="415" t="s">
+        <v>262</v>
+      </c>
+      <c r="D199" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E191" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F191" s="415" t="s">
+      <c r="E199" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F199" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G191" s="416"/>
-      <c r="H191" s="416"/>
-      <c r="I191" s="416"/>
-      <c r="J191" s="416"/>
-      <c r="K191" s="428"/>
-      <c r="L191" s="429"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="412"/>
-      <c r="C192" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D192" s="419" t="n">
+      <c r="G199" s="417"/>
+      <c r="H199" s="417"/>
+      <c r="I199" s="417"/>
+      <c r="J199" s="417"/>
+      <c r="K199" s="429"/>
+      <c r="L199" s="430"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="413"/>
+      <c r="C200" s="420" t="s">
+        <v>240</v>
+      </c>
+      <c r="D200" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E192" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F192" s="415"/>
-      <c r="G192" s="416"/>
-      <c r="H192" s="416"/>
-      <c r="I192" s="416"/>
-      <c r="J192" s="416"/>
-      <c r="K192" s="428"/>
-      <c r="L192" s="429"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="420" t="n">
-        <v>10</v>
-      </c>
-      <c r="C193" s="434" t="s">
-        <v>243</v>
-      </c>
-      <c r="D193" s="434" t="n">
-        <v>20</v>
-      </c>
-      <c r="E193" s="434" t="s">
-        <v>233</v>
-      </c>
-      <c r="F193" s="435" t="s">
-        <v>147</v>
-      </c>
-      <c r="G193" s="416"/>
-      <c r="H193" s="416"/>
-      <c r="I193" s="416"/>
-      <c r="J193" s="416"/>
-      <c r="K193" s="428"/>
-      <c r="L193" s="429"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="420"/>
-      <c r="C194" s="430" t="s">
-        <v>234</v>
-      </c>
-      <c r="D194" s="430" t="n">
-        <v>22</v>
-      </c>
-      <c r="E194" s="430" t="s">
-        <v>233</v>
-      </c>
-      <c r="F194" s="435"/>
-      <c r="G194" s="416"/>
-      <c r="H194" s="416"/>
-      <c r="I194" s="416"/>
-      <c r="J194" s="416"/>
-      <c r="K194" s="428"/>
-      <c r="L194" s="429"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="412" t="n">
-        <v>11</v>
-      </c>
-      <c r="C195" s="414" t="s">
-        <v>257</v>
-      </c>
-      <c r="D195" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E195" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F195" s="415" t="s">
+      <c r="E200" s="420" t="s">
+        <v>239</v>
+      </c>
+      <c r="F200" s="416"/>
+      <c r="G200" s="417"/>
+      <c r="H200" s="417"/>
+      <c r="I200" s="417"/>
+      <c r="J200" s="417"/>
+      <c r="K200" s="429"/>
+      <c r="L200" s="430"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="413" t="n">
+        <v>14</v>
+      </c>
+      <c r="C201" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="D201" s="415" t="n">
+        <v>140</v>
+      </c>
+      <c r="E201" s="415" t="s">
+        <v>239</v>
+      </c>
+      <c r="F201" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G195" s="416"/>
-      <c r="H195" s="416"/>
-      <c r="I195" s="416"/>
-      <c r="J195" s="416"/>
-      <c r="K195" s="428"/>
-      <c r="L195" s="429"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="412"/>
-      <c r="C196" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D196" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E196" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F196" s="415"/>
-      <c r="G196" s="416"/>
-      <c r="H196" s="416"/>
-      <c r="I196" s="416"/>
-      <c r="J196" s="416"/>
-      <c r="K196" s="428"/>
-      <c r="L196" s="429"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="420" t="n">
-        <v>12</v>
-      </c>
-      <c r="C197" s="436" t="s">
-        <v>251</v>
-      </c>
-      <c r="D197" s="437" t="n">
-        <v>20</v>
-      </c>
-      <c r="E197" s="437" t="s">
-        <v>233</v>
-      </c>
-      <c r="F197" s="427" t="s">
-        <v>147</v>
-      </c>
-      <c r="G197" s="416"/>
-      <c r="H197" s="416"/>
-      <c r="I197" s="416"/>
-      <c r="J197" s="416"/>
-      <c r="K197" s="428"/>
-      <c r="L197" s="429"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="420"/>
-      <c r="C198" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D198" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E198" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F198" s="427"/>
-      <c r="G198" s="416"/>
-      <c r="H198" s="416"/>
-      <c r="I198" s="416"/>
-      <c r="J198" s="416"/>
-      <c r="K198" s="428"/>
-      <c r="L198" s="429"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="412" t="n">
-        <v>13</v>
-      </c>
-      <c r="C199" s="414" t="s">
-        <v>256</v>
-      </c>
-      <c r="D199" s="414" t="n">
-        <v>20</v>
-      </c>
-      <c r="E199" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F199" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G199" s="416"/>
-      <c r="H199" s="416"/>
-      <c r="I199" s="416"/>
-      <c r="J199" s="416"/>
-      <c r="K199" s="428"/>
-      <c r="L199" s="429"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="412"/>
-      <c r="C200" s="419" t="s">
-        <v>234</v>
-      </c>
-      <c r="D200" s="419" t="n">
-        <v>22</v>
-      </c>
-      <c r="E200" s="419" t="s">
-        <v>233</v>
-      </c>
-      <c r="F200" s="415"/>
-      <c r="G200" s="416"/>
-      <c r="H200" s="416"/>
-      <c r="I200" s="416"/>
-      <c r="J200" s="416"/>
-      <c r="K200" s="428"/>
-      <c r="L200" s="429"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="412" t="n">
-        <v>14</v>
-      </c>
-      <c r="C201" s="414" t="s">
-        <v>244</v>
-      </c>
-      <c r="D201" s="414" t="n">
-        <v>140</v>
-      </c>
-      <c r="E201" s="414" t="s">
-        <v>233</v>
-      </c>
-      <c r="F201" s="415" t="s">
-        <v>146</v>
-      </c>
-      <c r="G201" s="416"/>
-      <c r="H201" s="416"/>
-      <c r="I201" s="416"/>
-      <c r="J201" s="416"/>
-      <c r="K201" s="428"/>
-      <c r="L201" s="429"/>
+      <c r="G201" s="417"/>
+      <c r="H201" s="417"/>
+      <c r="I201" s="417"/>
+      <c r="J201" s="417"/>
+      <c r="K201" s="429"/>
+      <c r="L201" s="430"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="412"/>
-      <c r="C202" s="431"/>
-      <c r="D202" s="431"/>
-      <c r="E202" s="431"/>
-      <c r="F202" s="415"/>
-      <c r="G202" s="416"/>
-      <c r="H202" s="416"/>
-      <c r="I202" s="416"/>
-      <c r="J202" s="416"/>
-      <c r="K202" s="428"/>
-      <c r="L202" s="429"/>
+      <c r="B202" s="413"/>
+      <c r="C202" s="432"/>
+      <c r="D202" s="432"/>
+      <c r="E202" s="432"/>
+      <c r="F202" s="416"/>
+      <c r="G202" s="417"/>
+      <c r="H202" s="417"/>
+      <c r="I202" s="417"/>
+      <c r="J202" s="417"/>
+      <c r="K202" s="429"/>
+      <c r="L202" s="430"/>
     </row>
   </sheetData>
   <mergeCells count="688">
@@ -17099,61 +17903,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="97.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="20.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="439" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="440" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="440" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://www.youtube.com/watch?v=qGSlehRBBMM"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://marathonec.ru/10-strength-exercises-for-runners/"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="цели на сезон" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,46 +28,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C59" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C99" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="271">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -738,13 +700,13 @@
     <t xml:space="preserve">+ бассейн</t>
   </si>
   <si>
-    <t xml:space="preserve">СВД 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">До начала бега была разминка, 20 минут. Растяжка, качала пресс, наклоны. Затем бег ДИС + ГРИ (примерно час). Горка понравилась. Пульс скачками, забавно смотреть. Вроде успевает успокоиться, пока добегаю до начала горки. Чувствовала себя легко. Потом бассейн. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Утром пробежалась, недолго, 33 минуты – 5,5 км. Пульс до 140. Светило солнце)</t>
+    <t xml:space="preserve">СВД 30 + ССИ/ОСИ (27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">До начала бега была разминка, 20 минут. Растяжка, качала пресс, наклоны. Затем бег ДИС + ГРИ (примерно час). Горка понравилась. Пульс скачками, забавно смотреть. Вроде успевает успокоиться, пока добегаю до начала горки. Чувствовала себя легко. Потом бассейн. В Бассейне 20 гребков на 25 метров.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Утром пробежалась, недолго, 33 минуты – 5,5 км. Пульс до 140. Светило солнце) Вечером ССИ+ОСИ, 23 мк, 2 круга. </t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -883,7 +845,10 @@
     <t xml:space="preserve">отжимание на руках вниз головой</t>
   </si>
   <si>
-    <t xml:space="preserve">отджимания</t>
+    <t xml:space="preserve">№5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отдых между кругами 2+3(мин)</t>
   </si>
   <si>
     <t xml:space="preserve">Приседания в выпаде с поднятыми руками и грузом</t>
@@ -908,7 +873,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="H:MM"/>
@@ -919,6 +884,7 @@
     <numFmt numFmtId="171" formatCode="@"/>
     <numFmt numFmtId="172" formatCode="0"/>
     <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1723,7 +1689,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="439">
+  <cellXfs count="442">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3470,6 +3436,18 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3553,7 +3531,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3779,12 +3757,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="19872135"/>
-        <c:axId val="64743657"/>
+        <c:axId val="1871240"/>
+        <c:axId val="18751084"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="19872135"/>
+        <c:axId val="1871240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3817,14 +3795,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64743657"/>
+        <c:crossAx val="18751084"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64743657"/>
+        <c:axId val="18751084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,7 +3883,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19872135"/>
+        <c:crossAx val="1871240"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3948,9 +3926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3959,7 +3937,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6243120"/>
-        <a:ext cx="4390560" cy="2637000"/>
+        <a:ext cx="4390200" cy="2636640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4393,25 +4371,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="437" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="438" t="s">
+      <c r="A1" s="440" t="s">
         <v>265</v>
       </c>
+      <c r="B1" s="441" t="s">
+        <v>266</v>
+      </c>
       <c r="C1" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" s="438" t="s">
         <v>268</v>
       </c>
+      <c r="B2" s="441" t="s">
+        <v>269</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -10020,7 +9998,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -11585,7 +11563,7 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -11594,7 +11572,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="41.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="41.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -12278,11 +12256,15 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="332" t="s">
@@ -12750,8 +12732,12 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="21" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="G27" s="21" t="n">
+        <v>7.16</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -12942,10 +12928,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L202"/>
+  <dimension ref="B1:L198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A164" activeCellId="0" sqref="A164"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A161" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L202" activeCellId="0" sqref="L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12959,788 +12945,785 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="368"/>
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="368"/>
+      <c r="C1" s="368" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="368" t="s">
+      <c r="D1" s="368" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="368" t="s">
+      <c r="E1" s="368" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="368" t="s">
+      <c r="F1" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="389" t="s">
+      <c r="G1" s="389" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="389"/>
-      <c r="H1" s="358" t="s">
+      <c r="H1" s="389"/>
+      <c r="I1" s="358" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="358"/>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="368"/>
+      <c r="L1" s="358"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="368"/>
       <c r="C2" s="368"/>
       <c r="D2" s="368"/>
       <c r="E2" s="368"/>
       <c r="F2" s="368"/>
-      <c r="G2" s="389"/>
-      <c r="H2" s="358"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="389"/>
       <c r="I2" s="358"/>
       <c r="J2" s="358"/>
       <c r="K2" s="358"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="390" t="s">
+      <c r="L2" s="358"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="390" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="390"/>
-      <c r="C3" s="391" t="n">
-        <f aca="false">(C12+C13+C14+C15+C20+C21+C30+C31+C24+C25+C28+C29+C34)/60</f>
+      <c r="C3" s="390"/>
+      <c r="D3" s="391" t="n">
+        <f aca="false">(D12+D13+D14+D15+D20+D21+D30+D31+D24+D25+D28+D29+D34)/60</f>
         <v>6.2</v>
       </c>
-      <c r="D3" s="392" t="s">
+      <c r="E3" s="392" t="s">
         <v>224</v>
       </c>
-      <c r="E3" s="392" t="n">
+      <c r="F3" s="392" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="393" t="n">
-        <f aca="false">C3*E3</f>
+      <c r="G3" s="393" t="n">
+        <f aca="false">D3*F3</f>
         <v>24.8</v>
       </c>
-      <c r="G3" s="393"/>
-      <c r="H3" s="394" t="s">
+      <c r="H3" s="393"/>
+      <c r="I3" s="394" t="s">
         <v>225</v>
       </c>
-      <c r="I3" s="394"/>
       <c r="J3" s="394"/>
       <c r="K3" s="394"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="395" t="s">
+      <c r="L3" s="394"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="395" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="395"/>
-      <c r="C4" s="396" t="n">
-        <f aca="false">(C16+C33+C17+C18+C19+C22+C23+C26+C27+C32+C33)/60</f>
+      <c r="C4" s="395"/>
+      <c r="D4" s="396" t="n">
+        <f aca="false">(D16+D33+D17+D18+D19+D22+D23+D26+D27+D32+D33)/60</f>
         <v>3.86666666666667</v>
       </c>
-      <c r="D4" s="392"/>
       <c r="E4" s="392"/>
-      <c r="F4" s="397" t="n">
-        <f aca="false">C4*E3</f>
+      <c r="F4" s="392"/>
+      <c r="G4" s="397" t="n">
+        <f aca="false">D4*F3</f>
         <v>15.4666666666667</v>
       </c>
-      <c r="G4" s="397"/>
-      <c r="H4" s="398" t="s">
+      <c r="H4" s="397"/>
+      <c r="I4" s="398" t="s">
         <v>227</v>
       </c>
-      <c r="I4" s="398"/>
       <c r="J4" s="398"/>
       <c r="K4" s="398"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="395" t="s">
+      <c r="L4" s="398"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="395" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="395"/>
-      <c r="C5" s="399" t="n">
-        <f aca="false">SUM(C3:C4)</f>
+      <c r="C5" s="395"/>
+      <c r="D5" s="399" t="n">
+        <f aca="false">SUM(D3:D4)</f>
         <v>10.0666666666667</v>
       </c>
-      <c r="D5" s="392"/>
       <c r="E5" s="392"/>
-      <c r="F5" s="400" t="n">
-        <f aca="false">C5*E3</f>
+      <c r="F5" s="392"/>
+      <c r="G5" s="400" t="n">
+        <f aca="false">D5*F3</f>
         <v>40.2666666666667</v>
       </c>
-      <c r="G5" s="400"/>
-      <c r="H5" s="398" t="s">
+      <c r="H5" s="400"/>
+      <c r="I5" s="398" t="s">
         <v>229</v>
       </c>
-      <c r="I5" s="398"/>
       <c r="J5" s="398"/>
       <c r="K5" s="398"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="395" t="s">
+      <c r="L5" s="398"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="395" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="395"/>
-      <c r="C6" s="401" t="n">
+      <c r="C6" s="395"/>
+      <c r="D6" s="401" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="D6" s="401"/>
       <c r="E6" s="401"/>
       <c r="F6" s="401"/>
       <c r="G6" s="401"/>
-      <c r="H6" s="402" t="s">
+      <c r="H6" s="401"/>
+      <c r="I6" s="402" t="s">
         <v>231</v>
       </c>
-      <c r="I6" s="402"/>
       <c r="J6" s="402"/>
       <c r="K6" s="402"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="403" t="s">
+      <c r="L6" s="402"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="403" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="404"/>
-      <c r="C7" s="405" t="n">
-        <f aca="false">F5+C6</f>
+      <c r="C7" s="404"/>
+      <c r="D7" s="405" t="n">
+        <f aca="false">G5+D6</f>
         <v>49.2666666666667</v>
       </c>
-      <c r="D7" s="405"/>
       <c r="E7" s="405"/>
       <c r="F7" s="405"/>
       <c r="G7" s="405"/>
-      <c r="H7" s="398" t="s">
+      <c r="H7" s="405"/>
+      <c r="I7" s="398" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="398"/>
       <c r="J7" s="398"/>
       <c r="K7" s="398"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="395" t="s">
+      <c r="L7" s="398"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="395" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="395"/>
-      <c r="C8" s="406" t="n">
+      <c r="C8" s="395"/>
+      <c r="D8" s="406" t="n">
         <v>43532</v>
       </c>
-      <c r="D8" s="406"/>
       <c r="E8" s="406"/>
       <c r="F8" s="406"/>
       <c r="G8" s="406"/>
-      <c r="H8" s="407"/>
+      <c r="H8" s="406"/>
       <c r="I8" s="407"/>
       <c r="J8" s="407"/>
       <c r="K8" s="407"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="408" t="s">
+      <c r="L8" s="407"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="408" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="408"/>
-      <c r="C9" s="409" t="s">
+      <c r="C9" s="408"/>
+      <c r="D9" s="409" t="s">
         <v>235</v>
       </c>
-      <c r="D9" s="409"/>
       <c r="E9" s="409"/>
       <c r="F9" s="409"/>
       <c r="G9" s="409"/>
-      <c r="H9" s="407"/>
+      <c r="H9" s="409"/>
       <c r="I9" s="407"/>
       <c r="J9" s="407"/>
       <c r="K9" s="407"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="408"/>
+      <c r="L9" s="407"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="408"/>
-      <c r="C10" s="409"/>
+      <c r="C10" s="408"/>
       <c r="D10" s="409"/>
       <c r="E10" s="409"/>
       <c r="F10" s="409"/>
       <c r="G10" s="409"/>
-      <c r="H10" s="410"/>
+      <c r="H10" s="409"/>
       <c r="I10" s="410"/>
       <c r="J10" s="410"/>
       <c r="K10" s="410"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="411"/>
-      <c r="B11" s="412" t="s">
+      <c r="L10" s="410"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="411"/>
+      <c r="C11" s="412" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="412"/>
       <c r="D11" s="412"/>
       <c r="E11" s="412"/>
-      <c r="F11" s="180" t="s">
+      <c r="F11" s="412"/>
+      <c r="G11" s="180" t="s">
         <v>237</v>
       </c>
-      <c r="G11" s="180"/>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
       <c r="J11" s="180"/>
       <c r="K11" s="180"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="413" t="n">
+      <c r="L11" s="180"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="413" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="414" t="s">
+      <c r="C12" s="414" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="415" t="n">
+      <c r="D12" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D12" s="415" t="s">
+      <c r="E12" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="416" t="s">
+      <c r="F12" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="417" t="n">
+      <c r="G12" s="417" t="n">
         <v>14</v>
       </c>
-      <c r="G12" s="417" t="n">
+      <c r="H12" s="417" t="n">
         <v>16</v>
       </c>
-      <c r="H12" s="417" t="n">
+      <c r="I12" s="417" t="n">
         <v>17</v>
       </c>
-      <c r="I12" s="417" t="n">
+      <c r="J12" s="417" t="n">
         <v>18</v>
       </c>
-      <c r="J12" s="417"/>
-      <c r="K12" s="418"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="413"/>
-      <c r="B13" s="419" t="s">
+      <c r="K12" s="417"/>
+      <c r="L12" s="418"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="413"/>
+      <c r="C13" s="419" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="420" t="n">
+      <c r="D13" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="D13" s="420" t="s">
+      <c r="E13" s="420" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="416"/>
-      <c r="F13" s="417"/>
+      <c r="F13" s="416"/>
       <c r="G13" s="417"/>
       <c r="H13" s="417"/>
       <c r="I13" s="417"/>
       <c r="J13" s="417"/>
-      <c r="K13" s="418"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="421" t="n">
+      <c r="K13" s="417"/>
+      <c r="L13" s="418"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="421" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="415" t="s">
+      <c r="C14" s="415" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="415" t="n">
+      <c r="D14" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D14" s="415" t="s">
+      <c r="E14" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="422" t="s">
+      <c r="F14" s="422" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="423" t="n">
+      <c r="G14" s="423" t="n">
         <v>36</v>
-      </c>
-      <c r="G14" s="423" t="n">
-        <v>40</v>
       </c>
       <c r="H14" s="423" t="n">
         <v>40</v>
       </c>
       <c r="I14" s="423" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" s="423" t="n">
         <v>45</v>
       </c>
-      <c r="J14" s="424"/>
-      <c r="K14" s="425"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="421"/>
-      <c r="B15" s="426" t="s">
+      <c r="K14" s="424"/>
+      <c r="L14" s="425"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="421"/>
+      <c r="C15" s="426" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="426" t="n">
+      <c r="D15" s="426" t="n">
         <v>22</v>
       </c>
-      <c r="D15" s="426" t="s">
+      <c r="E15" s="426" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="422"/>
-      <c r="F15" s="423"/>
+      <c r="F15" s="422"/>
       <c r="G15" s="423"/>
       <c r="H15" s="423"/>
       <c r="I15" s="423"/>
-      <c r="J15" s="424"/>
-      <c r="K15" s="425"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="427" t="n">
+      <c r="J15" s="423"/>
+      <c r="K15" s="424"/>
+      <c r="L15" s="425"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="427" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="415" t="s">
+      <c r="C16" s="415" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="415" t="n">
+      <c r="D16" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D16" s="415" t="s">
+      <c r="E16" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="428" t="s">
+      <c r="F16" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="417" t="n">
+      <c r="G16" s="417" t="n">
         <v>10</v>
-      </c>
-      <c r="G16" s="417" t="n">
-        <v>11</v>
       </c>
       <c r="H16" s="417" t="n">
         <v>11</v>
       </c>
       <c r="I16" s="417" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" s="417" t="n">
         <v>13</v>
       </c>
-      <c r="J16" s="429"/>
-      <c r="K16" s="430"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="427"/>
-      <c r="B17" s="431" t="s">
+      <c r="K16" s="429"/>
+      <c r="L16" s="430"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="427"/>
+      <c r="C17" s="431" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="431" t="n">
+      <c r="D17" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="D17" s="431" t="s">
+      <c r="E17" s="431" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="428"/>
-      <c r="F17" s="417"/>
+      <c r="F17" s="428"/>
       <c r="G17" s="417"/>
       <c r="H17" s="417"/>
       <c r="I17" s="417"/>
-      <c r="J17" s="429"/>
-      <c r="K17" s="430"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="427" t="n">
+      <c r="J17" s="417"/>
+      <c r="K17" s="429"/>
+      <c r="L17" s="430"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="427" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="415" t="s">
+      <c r="C18" s="415" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="415" t="n">
+      <c r="D18" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D18" s="415" t="s">
+      <c r="E18" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="428" t="s">
+      <c r="F18" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="417" t="n">
+      <c r="G18" s="417" t="n">
         <v>8</v>
-      </c>
-      <c r="G18" s="417" t="n">
-        <v>11</v>
       </c>
       <c r="H18" s="417" t="n">
         <v>11</v>
       </c>
       <c r="I18" s="417" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="J18" s="429"/>
-      <c r="K18" s="430"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="427"/>
-      <c r="B19" s="431" t="s">
+      <c r="K18" s="429"/>
+      <c r="L18" s="430"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="427"/>
+      <c r="C19" s="431" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="431" t="n">
+      <c r="D19" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="D19" s="431" t="s">
+      <c r="E19" s="431" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="428"/>
-      <c r="F19" s="417"/>
+      <c r="F19" s="428"/>
       <c r="G19" s="417"/>
       <c r="H19" s="417"/>
       <c r="I19" s="417"/>
-      <c r="J19" s="429"/>
-      <c r="K19" s="430"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="427" t="n">
+      <c r="J19" s="417"/>
+      <c r="K19" s="429"/>
+      <c r="L19" s="430"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="427" t="n">
         <v>5</v>
       </c>
-      <c r="B20" s="415" t="s">
+      <c r="C20" s="415" t="s">
         <v>244</v>
       </c>
-      <c r="C20" s="415" t="n">
+      <c r="D20" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D20" s="415" t="s">
+      <c r="E20" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E20" s="416" t="s">
+      <c r="F20" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="417" t="n">
+      <c r="G20" s="417" t="n">
         <v>50</v>
       </c>
-      <c r="G20" s="417" t="n">
+      <c r="H20" s="417" t="n">
         <v>55</v>
       </c>
-      <c r="H20" s="417" t="n">
+      <c r="I20" s="417" t="n">
         <v>65</v>
       </c>
-      <c r="I20" s="417" t="n">
+      <c r="J20" s="417" t="n">
         <v>67</v>
       </c>
-      <c r="J20" s="429"/>
-      <c r="K20" s="430"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="427"/>
-      <c r="B21" s="420" t="s">
+      <c r="K20" s="429"/>
+      <c r="L20" s="430"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="427"/>
+      <c r="C21" s="420" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="420" t="n">
+      <c r="D21" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="D21" s="420" t="s">
+      <c r="E21" s="420" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="416"/>
-      <c r="F21" s="417"/>
+      <c r="F21" s="416"/>
       <c r="G21" s="417"/>
       <c r="H21" s="417"/>
       <c r="I21" s="417"/>
-      <c r="J21" s="429"/>
-      <c r="K21" s="430"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="427" t="n">
+      <c r="J21" s="417"/>
+      <c r="K21" s="429"/>
+      <c r="L21" s="430"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="427" t="n">
         <v>6</v>
       </c>
-      <c r="B22" s="415" t="s">
+      <c r="C22" s="415" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="415" t="n">
+      <c r="D22" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D22" s="415" t="s">
+      <c r="E22" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="428" t="s">
+      <c r="F22" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="417" t="n">
+      <c r="G22" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="G22" s="417" t="n">
+      <c r="H22" s="417" t="n">
         <v>13</v>
       </c>
-      <c r="H22" s="417" t="n">
+      <c r="I22" s="417" t="n">
         <v>12</v>
       </c>
-      <c r="I22" s="417" t="n">
+      <c r="J22" s="417" t="n">
         <v>13</v>
       </c>
-      <c r="J22" s="429"/>
-      <c r="K22" s="430"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="427"/>
-      <c r="B23" s="431" t="s">
+      <c r="K22" s="429"/>
+      <c r="L22" s="430"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="427"/>
+      <c r="C23" s="431" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="431" t="n">
+      <c r="D23" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="431" t="s">
+      <c r="E23" s="431" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="428"/>
-      <c r="F23" s="417"/>
+      <c r="F23" s="428"/>
       <c r="G23" s="417"/>
       <c r="H23" s="417"/>
       <c r="I23" s="417"/>
-      <c r="J23" s="429"/>
-      <c r="K23" s="430"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="427" t="n">
+      <c r="J23" s="417"/>
+      <c r="K23" s="429"/>
+      <c r="L23" s="430"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="427" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="415" t="s">
+      <c r="C24" s="415" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="415" t="n">
+      <c r="D24" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D24" s="415" t="s">
+      <c r="E24" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="416" t="s">
+      <c r="F24" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="417" t="n">
+      <c r="G24" s="417" t="n">
         <v>20</v>
       </c>
-      <c r="G24" s="417" t="n">
+      <c r="H24" s="417" t="n">
         <v>24</v>
       </c>
-      <c r="H24" s="417" t="n">
+      <c r="I24" s="417" t="n">
         <v>17</v>
       </c>
-      <c r="I24" s="417" t="n">
+      <c r="J24" s="417" t="n">
         <v>25</v>
       </c>
-      <c r="J24" s="429"/>
-      <c r="K24" s="430"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="427"/>
-      <c r="B25" s="420" t="s">
+      <c r="K24" s="429"/>
+      <c r="L24" s="430"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="427"/>
+      <c r="C25" s="420" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="420" t="n">
+      <c r="D25" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="D25" s="420" t="s">
+      <c r="E25" s="420" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="416"/>
-      <c r="F25" s="417"/>
+      <c r="F25" s="416"/>
       <c r="G25" s="417"/>
       <c r="H25" s="417"/>
       <c r="I25" s="417"/>
-      <c r="J25" s="429"/>
-      <c r="K25" s="430"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="427" t="n">
+      <c r="J25" s="417"/>
+      <c r="K25" s="429"/>
+      <c r="L25" s="430"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="427" t="n">
         <v>8</v>
       </c>
-      <c r="B26" s="415" t="s">
+      <c r="C26" s="415" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="415" t="n">
+      <c r="D26" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D26" s="415" t="s">
+      <c r="E26" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E26" s="428" t="s">
+      <c r="F26" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="417" t="n">
+      <c r="G26" s="417" t="n">
         <v>7</v>
-      </c>
-      <c r="G26" s="417" t="n">
-        <v>8</v>
       </c>
       <c r="H26" s="417" t="n">
         <v>8</v>
       </c>
       <c r="I26" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" s="417" t="n">
         <v>7</v>
       </c>
-      <c r="J26" s="429"/>
-      <c r="K26" s="430"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="427"/>
-      <c r="B27" s="431" t="s">
+      <c r="K26" s="429"/>
+      <c r="L26" s="430"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="427"/>
+      <c r="C27" s="431" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="431" t="n">
+      <c r="D27" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="D27" s="431" t="s">
+      <c r="E27" s="431" t="s">
         <v>239</v>
       </c>
-      <c r="E27" s="428"/>
-      <c r="F27" s="417"/>
+      <c r="F27" s="428"/>
       <c r="G27" s="417"/>
       <c r="H27" s="417"/>
       <c r="I27" s="417"/>
-      <c r="J27" s="429"/>
-      <c r="K27" s="430"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="427" t="n">
+      <c r="J27" s="417"/>
+      <c r="K27" s="429"/>
+      <c r="L27" s="430"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="427" t="n">
         <v>9</v>
       </c>
-      <c r="B28" s="415" t="s">
+      <c r="C28" s="415" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="415" t="n">
+      <c r="D28" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D28" s="415" t="s">
+      <c r="E28" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="416" t="s">
+      <c r="F28" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="417" t="n">
+      <c r="G28" s="417" t="n">
         <v>10</v>
-      </c>
-      <c r="G28" s="417" t="n">
-        <v>11</v>
       </c>
       <c r="H28" s="417" t="n">
         <v>11</v>
       </c>
       <c r="I28" s="417" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" s="417" t="n">
         <v>13</v>
       </c>
-      <c r="J28" s="429"/>
-      <c r="K28" s="430"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="427"/>
-      <c r="B29" s="420" t="s">
+      <c r="K28" s="429"/>
+      <c r="L28" s="430"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="427"/>
+      <c r="C29" s="420" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="420" t="n">
+      <c r="D29" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="D29" s="420" t="s">
+      <c r="E29" s="420" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="416"/>
-      <c r="F29" s="417"/>
+      <c r="F29" s="416"/>
       <c r="G29" s="417"/>
       <c r="H29" s="417"/>
       <c r="I29" s="417"/>
-      <c r="J29" s="429"/>
-      <c r="K29" s="430"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="427" t="n">
+      <c r="J29" s="417"/>
+      <c r="K29" s="429"/>
+      <c r="L29" s="430"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="427" t="n">
         <v>10</v>
       </c>
-      <c r="B30" s="415" t="s">
+      <c r="C30" s="415" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="415" t="n">
+      <c r="D30" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D30" s="415" t="s">
+      <c r="E30" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E30" s="416" t="s">
+      <c r="F30" s="416" t="s">
         <v>146</v>
-      </c>
-      <c r="F30" s="417" t="n">
-        <v>15</v>
       </c>
       <c r="G30" s="417" t="n">
         <v>15</v>
       </c>
       <c r="H30" s="417" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" s="417" t="n">
         <v>13</v>
       </c>
-      <c r="I30" s="417" t="n">
+      <c r="J30" s="417" t="n">
         <v>14</v>
       </c>
-      <c r="J30" s="429"/>
-      <c r="K30" s="430"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="427"/>
-      <c r="B31" s="420" t="s">
+      <c r="K30" s="429"/>
+      <c r="L30" s="430"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="427"/>
+      <c r="C31" s="420" t="s">
         <v>240</v>
       </c>
-      <c r="C31" s="420" t="n">
+      <c r="D31" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="D31" s="420" t="s">
+      <c r="E31" s="420" t="s">
         <v>239</v>
       </c>
-      <c r="E31" s="416"/>
-      <c r="F31" s="417"/>
+      <c r="F31" s="416"/>
       <c r="G31" s="417"/>
       <c r="H31" s="417"/>
       <c r="I31" s="417"/>
-      <c r="J31" s="429"/>
-      <c r="K31" s="430"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="427" t="n">
+      <c r="J31" s="417"/>
+      <c r="K31" s="429"/>
+      <c r="L31" s="430"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="427" t="n">
         <v>11</v>
       </c>
-      <c r="B32" s="415" t="s">
+      <c r="C32" s="415" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="415" t="n">
+      <c r="D32" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="D32" s="415" t="s">
+      <c r="E32" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E32" s="428" t="s">
+      <c r="F32" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="417" t="n">
+      <c r="G32" s="417" t="n">
         <v>17</v>
       </c>
-      <c r="G32" s="417" t="n">
+      <c r="H32" s="417" t="n">
         <v>20</v>
       </c>
-      <c r="H32" s="417" t="n">
+      <c r="I32" s="417" t="n">
         <v>18</v>
       </c>
-      <c r="I32" s="417" t="n">
+      <c r="J32" s="417" t="n">
         <v>19</v>
       </c>
-      <c r="J32" s="429"/>
-      <c r="K32" s="430"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="427"/>
-      <c r="B33" s="431" t="s">
+      <c r="K32" s="429"/>
+      <c r="L32" s="430"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="427"/>
+      <c r="C33" s="431" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="431" t="n">
+      <c r="D33" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="D33" s="431" t="s">
+      <c r="E33" s="431" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="428"/>
-      <c r="F33" s="417"/>
+      <c r="F33" s="428"/>
       <c r="G33" s="417"/>
       <c r="H33" s="417"/>
       <c r="I33" s="417"/>
-      <c r="J33" s="429"/>
-      <c r="K33" s="430"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="427" t="n">
+      <c r="J33" s="417"/>
+      <c r="K33" s="429"/>
+      <c r="L33" s="430"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="427" t="n">
         <v>12</v>
       </c>
-      <c r="B34" s="415" t="s">
+      <c r="C34" s="415" t="s">
         <v>250</v>
       </c>
-      <c r="C34" s="415" t="n">
+      <c r="D34" s="415" t="n">
         <v>120</v>
       </c>
-      <c r="D34" s="415" t="s">
+      <c r="E34" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="416" t="s">
+      <c r="F34" s="416" t="s">
         <v>146</v>
-      </c>
-      <c r="F34" s="417" t="s">
-        <v>251</v>
       </c>
       <c r="G34" s="417" t="s">
         <v>251</v>
@@ -13751,22 +13734,26 @@
       <c r="I34" s="417" t="s">
         <v>251</v>
       </c>
-      <c r="J34" s="429"/>
-      <c r="K34" s="430"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="427"/>
-      <c r="B35" s="432"/>
+      <c r="J34" s="417" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" s="429"/>
+      <c r="L34" s="430"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="427"/>
       <c r="C35" s="432"/>
       <c r="D35" s="432"/>
-      <c r="E35" s="416"/>
-      <c r="F35" s="417"/>
+      <c r="E35" s="432"/>
+      <c r="F35" s="416"/>
       <c r="G35" s="417"/>
       <c r="H35" s="417"/>
       <c r="I35" s="417"/>
-      <c r="J35" s="429"/>
-      <c r="K35" s="430"/>
-    </row>
+      <c r="J35" s="417"/>
+      <c r="K35" s="429"/>
+      <c r="L35" s="430"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16406,10 +16393,11 @@
       <c r="L159" s="430"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>127</v>
@@ -16450,21 +16438,23 @@
       </c>
       <c r="C166" s="390"/>
       <c r="D166" s="391" t="n">
-        <f aca="false">(D175+D176+D177+D178+D183+D184+D191+D192+D187+D188+D195+D196+D199+D200+D201)/60</f>
-        <v>7.23333333333333</v>
+        <f aca="false">(D175+D176+D177+D178+D183+D184+D193+D194+D187+D188+D191+D192+D197)/60</f>
+        <v>7.2</v>
       </c>
       <c r="E166" s="392" t="s">
         <v>224</v>
       </c>
       <c r="F166" s="392" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G166" s="393" t="n">
         <f aca="false">D166*F166</f>
-        <v>28.9333333333333</v>
+        <v>14.4</v>
       </c>
       <c r="H166" s="393"/>
-      <c r="I166" s="394"/>
+      <c r="I166" s="394" t="s">
+        <v>225</v>
+      </c>
       <c r="J166" s="394"/>
       <c r="K166" s="394"/>
       <c r="L166" s="394"/>
@@ -16475,18 +16465,18 @@
       </c>
       <c r="C167" s="395"/>
       <c r="D167" s="396" t="n">
-        <f aca="false">(D179+D194+D180+D181+D182+D185+D186+D189+D190+D193+D194+D197+D198)/60</f>
-        <v>4.56666666666667</v>
+        <f aca="false">(D179+D196+D180+D181+D182+D185+D186+D189+D190+D195+D196)/60</f>
+        <v>3.86666666666667</v>
       </c>
       <c r="E167" s="392"/>
       <c r="F167" s="392"/>
       <c r="G167" s="397" t="n">
         <f aca="false">D167*F166</f>
-        <v>18.2666666666667</v>
+        <v>7.73333333333333</v>
       </c>
       <c r="H167" s="397"/>
       <c r="I167" s="398" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="J167" s="398"/>
       <c r="K167" s="398"/>
@@ -16499,13 +16489,13 @@
       <c r="C168" s="395"/>
       <c r="D168" s="399" t="n">
         <f aca="false">SUM(D166:D167)</f>
-        <v>11.8</v>
+        <v>11.0666666666667</v>
       </c>
       <c r="E168" s="392"/>
       <c r="F168" s="392"/>
       <c r="G168" s="400" t="n">
         <f aca="false">D168*F166</f>
-        <v>47.2</v>
+        <v>22.1333333333333</v>
       </c>
       <c r="H168" s="400"/>
       <c r="I168" s="398" t="s">
@@ -16517,12 +16507,12 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="395" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C169" s="395"/>
       <c r="D169" s="401" t="n">
-        <f aca="false">2+3+4</f>
-        <v>9</v>
+        <f aca="false">2+3</f>
+        <v>5</v>
       </c>
       <c r="E169" s="401"/>
       <c r="F169" s="401"/>
@@ -16542,7 +16532,7 @@
       <c r="C170" s="404"/>
       <c r="D170" s="405" t="n">
         <f aca="false">G168+D169</f>
-        <v>56.2</v>
+        <v>27.1333333333333</v>
       </c>
       <c r="E170" s="405"/>
       <c r="F170" s="405"/>
@@ -16560,19 +16550,17 @@
         <v>32</v>
       </c>
       <c r="C171" s="395"/>
-      <c r="D171" s="406" t="n">
-        <v>43550</v>
-      </c>
-      <c r="E171" s="406"/>
-      <c r="F171" s="406"/>
-      <c r="G171" s="406"/>
-      <c r="H171" s="406"/>
-      <c r="I171" s="398" t="s">
-        <v>225</v>
-      </c>
-      <c r="J171" s="398"/>
-      <c r="K171" s="398"/>
-      <c r="L171" s="398"/>
+      <c r="D171" s="437" t="n">
+        <v>43551</v>
+      </c>
+      <c r="E171" s="437"/>
+      <c r="F171" s="437"/>
+      <c r="G171" s="437"/>
+      <c r="H171" s="437"/>
+      <c r="I171" s="407"/>
+      <c r="J171" s="407"/>
+      <c r="K171" s="407"/>
+      <c r="L171" s="407"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="408" t="s">
@@ -16586,12 +16574,10 @@
       <c r="F172" s="409"/>
       <c r="G172" s="409"/>
       <c r="H172" s="409"/>
-      <c r="I172" s="398" t="s">
-        <v>254</v>
-      </c>
-      <c r="J172" s="398"/>
-      <c r="K172" s="398"/>
-      <c r="L172" s="398"/>
+      <c r="I172" s="407"/>
+      <c r="J172" s="407"/>
+      <c r="K172" s="407"/>
+      <c r="L172" s="407"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="408"/>
@@ -16639,8 +16625,12 @@
       <c r="F175" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G175" s="417"/>
-      <c r="H175" s="417"/>
+      <c r="G175" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="H175" s="417" t="n">
+        <v>7</v>
+      </c>
       <c r="I175" s="417"/>
       <c r="J175" s="417"/>
       <c r="K175" s="417"/>
@@ -16681,8 +16671,12 @@
       <c r="F177" s="422" t="s">
         <v>146</v>
       </c>
-      <c r="G177" s="423"/>
-      <c r="H177" s="423"/>
+      <c r="G177" s="423" t="n">
+        <v>16</v>
+      </c>
+      <c r="H177" s="423" t="n">
+        <v>17</v>
+      </c>
       <c r="I177" s="423"/>
       <c r="J177" s="423"/>
       <c r="K177" s="424"/>
@@ -16708,7 +16702,7 @@
       <c r="L178" s="425"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="413" t="n">
+      <c r="B179" s="427" t="n">
         <v>3</v>
       </c>
       <c r="C179" s="415" t="s">
@@ -16723,15 +16717,19 @@
       <c r="F179" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G179" s="417"/>
-      <c r="H179" s="417"/>
+      <c r="G179" s="417" t="n">
+        <v>11</v>
+      </c>
+      <c r="H179" s="417" t="n">
+        <v>12</v>
+      </c>
       <c r="I179" s="417"/>
       <c r="J179" s="417"/>
       <c r="K179" s="429"/>
       <c r="L179" s="430"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="413"/>
+      <c r="B180" s="427"/>
       <c r="C180" s="431" t="s">
         <v>240</v>
       </c>
@@ -16750,7 +16748,7 @@
       <c r="L180" s="430"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="421" t="n">
+      <c r="B181" s="427" t="n">
         <v>4</v>
       </c>
       <c r="C181" s="415" t="s">
@@ -16765,15 +16763,19 @@
       <c r="F181" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G181" s="417"/>
-      <c r="H181" s="417"/>
+      <c r="G181" s="417" t="n">
+        <v>19</v>
+      </c>
+      <c r="H181" s="417" t="n">
+        <v>17</v>
+      </c>
       <c r="I181" s="417"/>
       <c r="J181" s="417"/>
       <c r="K181" s="429"/>
       <c r="L181" s="430"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="421"/>
+      <c r="B182" s="427"/>
       <c r="C182" s="431" t="s">
         <v>240</v>
       </c>
@@ -16792,30 +16794,34 @@
       <c r="L182" s="430"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="413" t="n">
+      <c r="B183" s="427" t="n">
         <v>5</v>
       </c>
-      <c r="C183" s="436" t="s">
-        <v>247</v>
-      </c>
-      <c r="D183" s="436" t="n">
+      <c r="C183" s="415" t="s">
+        <v>244</v>
+      </c>
+      <c r="D183" s="415" t="n">
         <v>20</v>
       </c>
-      <c r="E183" s="436" t="s">
+      <c r="E183" s="415" t="s">
         <v>239</v>
       </c>
       <c r="F183" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G183" s="417"/>
-      <c r="H183" s="417"/>
+      <c r="G183" s="417" t="n">
+        <v>63</v>
+      </c>
+      <c r="H183" s="417" t="n">
+        <v>55</v>
+      </c>
       <c r="I183" s="417"/>
       <c r="J183" s="417"/>
       <c r="K183" s="429"/>
       <c r="L183" s="430"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="413"/>
+      <c r="B184" s="427"/>
       <c r="C184" s="420" t="s">
         <v>240</v>
       </c>
@@ -16834,7 +16840,7 @@
       <c r="L184" s="430"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="421" t="n">
+      <c r="B185" s="427" t="n">
         <v>6</v>
       </c>
       <c r="C185" s="415" t="s">
@@ -16849,15 +16855,19 @@
       <c r="F185" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G185" s="417"/>
-      <c r="H185" s="417"/>
+      <c r="G185" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="H185" s="417" t="n">
+        <v>14</v>
+      </c>
       <c r="I185" s="417"/>
       <c r="J185" s="417"/>
       <c r="K185" s="429"/>
       <c r="L185" s="430"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="421"/>
+      <c r="B186" s="427"/>
       <c r="C186" s="431" t="s">
         <v>240</v>
       </c>
@@ -16876,7 +16886,7 @@
       <c r="L186" s="430"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="413" t="n">
+      <c r="B187" s="427" t="n">
         <v>7</v>
       </c>
       <c r="C187" s="415" t="s">
@@ -16891,15 +16901,19 @@
       <c r="F187" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G187" s="417"/>
-      <c r="H187" s="417"/>
+      <c r="G187" s="417" t="n">
+        <v>23</v>
+      </c>
+      <c r="H187" s="417" t="n">
+        <v>22</v>
+      </c>
       <c r="I187" s="417"/>
       <c r="J187" s="417"/>
       <c r="K187" s="429"/>
       <c r="L187" s="430"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="413"/>
+      <c r="B188" s="427"/>
       <c r="C188" s="420" t="s">
         <v>240</v>
       </c>
@@ -16918,7 +16932,7 @@
       <c r="L188" s="430"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="421" t="n">
+      <c r="B189" s="427" t="n">
         <v>8</v>
       </c>
       <c r="C189" s="415" t="s">
@@ -16933,15 +16947,19 @@
       <c r="F189" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="G189" s="417"/>
-      <c r="H189" s="417"/>
+      <c r="G189" s="417" t="n">
+        <v>8</v>
+      </c>
+      <c r="H189" s="417" t="n">
+        <v>7</v>
+      </c>
       <c r="I189" s="417"/>
       <c r="J189" s="417"/>
       <c r="K189" s="429"/>
       <c r="L189" s="430"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="421"/>
+      <c r="B190" s="427"/>
       <c r="C190" s="431" t="s">
         <v>240</v>
       </c>
@@ -16960,11 +16978,11 @@
       <c r="L190" s="430"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="413" t="n">
+      <c r="B191" s="427" t="n">
         <v>9</v>
       </c>
       <c r="C191" s="415" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D191" s="415" t="n">
         <v>20</v>
@@ -16975,15 +16993,19 @@
       <c r="F191" s="416" t="s">
         <v>146</v>
       </c>
-      <c r="G191" s="417"/>
-      <c r="H191" s="417"/>
+      <c r="G191" s="417" t="n">
+        <v>5</v>
+      </c>
+      <c r="H191" s="417" t="n">
+        <v>6</v>
+      </c>
       <c r="I191" s="417"/>
       <c r="J191" s="417"/>
       <c r="K191" s="429"/>
       <c r="L191" s="430"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="413"/>
+      <c r="B192" s="427"/>
       <c r="C192" s="420" t="s">
         <v>240</v>
       </c>
@@ -17002,11 +17024,11 @@
       <c r="L192" s="430"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="421" t="n">
+      <c r="B193" s="427" t="n">
         <v>10</v>
       </c>
       <c r="C193" s="415" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D193" s="415" t="n">
         <v>20</v>
@@ -17014,28 +17036,32 @@
       <c r="E193" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="F193" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G193" s="417"/>
-      <c r="H193" s="417"/>
+      <c r="F193" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G193" s="417" t="n">
+        <v>63</v>
+      </c>
+      <c r="H193" s="417" t="n">
+        <v>55</v>
+      </c>
       <c r="I193" s="417"/>
       <c r="J193" s="417"/>
       <c r="K193" s="429"/>
       <c r="L193" s="430"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="421"/>
-      <c r="C194" s="431" t="s">
+      <c r="B194" s="427"/>
+      <c r="C194" s="420" t="s">
         <v>240</v>
       </c>
-      <c r="D194" s="431" t="n">
+      <c r="D194" s="420" t="n">
         <v>22</v>
       </c>
-      <c r="E194" s="431" t="s">
+      <c r="E194" s="420" t="s">
         <v>239</v>
       </c>
-      <c r="F194" s="428"/>
+      <c r="F194" s="416"/>
       <c r="G194" s="417"/>
       <c r="H194" s="417"/>
       <c r="I194" s="417"/>
@@ -17044,40 +17070,44 @@
       <c r="L194" s="430"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="413" t="n">
+      <c r="B195" s="427" t="n">
         <v>11</v>
       </c>
-      <c r="C195" s="415" t="s">
-        <v>263</v>
-      </c>
-      <c r="D195" s="415" t="n">
+      <c r="C195" s="438" t="s">
+        <v>249</v>
+      </c>
+      <c r="D195" s="438" t="n">
         <v>20</v>
       </c>
-      <c r="E195" s="415" t="s">
+      <c r="E195" s="438" t="s">
         <v>239</v>
       </c>
-      <c r="F195" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G195" s="417"/>
-      <c r="H195" s="417"/>
+      <c r="F195" s="439" t="s">
+        <v>147</v>
+      </c>
+      <c r="G195" s="417" t="n">
+        <v>21</v>
+      </c>
+      <c r="H195" s="417" t="n">
+        <v>22</v>
+      </c>
       <c r="I195" s="417"/>
       <c r="J195" s="417"/>
       <c r="K195" s="429"/>
       <c r="L195" s="430"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="413"/>
-      <c r="C196" s="420" t="s">
+      <c r="B196" s="427"/>
+      <c r="C196" s="431" t="s">
         <v>240</v>
       </c>
-      <c r="D196" s="420" t="n">
+      <c r="D196" s="431" t="n">
         <v>22</v>
       </c>
-      <c r="E196" s="420" t="s">
+      <c r="E196" s="431" t="s">
         <v>239</v>
       </c>
-      <c r="F196" s="416"/>
+      <c r="F196" s="439"/>
       <c r="G196" s="417"/>
       <c r="H196" s="417"/>
       <c r="I196" s="417"/>
@@ -17086,40 +17116,38 @@
       <c r="L196" s="430"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="421" t="n">
+      <c r="B197" s="427" t="n">
         <v>12</v>
       </c>
-      <c r="C197" s="434" t="s">
-        <v>257</v>
-      </c>
-      <c r="D197" s="435" t="n">
-        <v>20</v>
-      </c>
-      <c r="E197" s="435" t="s">
+      <c r="C197" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="D197" s="415" t="n">
+        <v>180</v>
+      </c>
+      <c r="E197" s="415" t="s">
         <v>239</v>
       </c>
-      <c r="F197" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G197" s="417"/>
-      <c r="H197" s="417"/>
+      <c r="F197" s="416" t="s">
+        <v>146</v>
+      </c>
+      <c r="G197" s="417" t="s">
+        <v>255</v>
+      </c>
+      <c r="H197" s="417" t="s">
+        <v>255</v>
+      </c>
       <c r="I197" s="417"/>
       <c r="J197" s="417"/>
       <c r="K197" s="429"/>
       <c r="L197" s="430"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="421"/>
-      <c r="C198" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D198" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E198" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F198" s="428"/>
+      <c r="B198" s="427"/>
+      <c r="C198" s="432"/>
+      <c r="D198" s="432"/>
+      <c r="E198" s="432"/>
+      <c r="F198" s="416"/>
       <c r="G198" s="417"/>
       <c r="H198" s="417"/>
       <c r="I198" s="417"/>
@@ -17127,214 +17155,136 @@
       <c r="K198" s="429"/>
       <c r="L198" s="430"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="413" t="n">
-        <v>13</v>
-      </c>
-      <c r="C199" s="415" t="s">
-        <v>262</v>
-      </c>
-      <c r="D199" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E199" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F199" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G199" s="417"/>
-      <c r="H199" s="417"/>
-      <c r="I199" s="417"/>
-      <c r="J199" s="417"/>
-      <c r="K199" s="429"/>
-      <c r="L199" s="430"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="413"/>
-      <c r="C200" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D200" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E200" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F200" s="416"/>
-      <c r="G200" s="417"/>
-      <c r="H200" s="417"/>
-      <c r="I200" s="417"/>
-      <c r="J200" s="417"/>
-      <c r="K200" s="429"/>
-      <c r="L200" s="430"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="413" t="n">
-        <v>14</v>
-      </c>
-      <c r="C201" s="415" t="s">
-        <v>250</v>
-      </c>
-      <c r="D201" s="415" t="n">
-        <v>140</v>
-      </c>
-      <c r="E201" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F201" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G201" s="417"/>
-      <c r="H201" s="417"/>
-      <c r="I201" s="417"/>
-      <c r="J201" s="417"/>
-      <c r="K201" s="429"/>
-      <c r="L201" s="430"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="413"/>
-      <c r="C202" s="432"/>
-      <c r="D202" s="432"/>
-      <c r="E202" s="432"/>
-      <c r="F202" s="416"/>
-      <c r="G202" s="417"/>
-      <c r="H202" s="417"/>
-      <c r="I202" s="417"/>
-      <c r="J202" s="417"/>
-      <c r="K202" s="429"/>
-      <c r="L202" s="430"/>
-    </row>
   </sheetData>
-  <mergeCells count="688">
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="672">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:H10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:D41"/>
@@ -17879,22 +17829,6 @@
     <mergeCell ref="J197:J198"/>
     <mergeCell ref="K197:K198"/>
     <mergeCell ref="L197:L198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="I199:I200"/>
-    <mergeCell ref="J199:J200"/>
-    <mergeCell ref="K199:K200"/>
-    <mergeCell ref="L199:L200"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="I201:I202"/>
-    <mergeCell ref="J201:J202"/>
-    <mergeCell ref="K201:K202"/>
-    <mergeCell ref="L201:L202"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17903,6 +17837,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="цели на сезон" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="282">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -676,7 +676,22 @@
     <t xml:space="preserve">Бегала в лесу за домом, час – ДИС. Вечером съездила в бассейн. Мышцы не болят. </t>
   </si>
   <si>
-    <t xml:space="preserve">Бег в лесу за работой. Огромная луна. Бежать было легка. Пробежала 12 км.</t>
+    <t xml:space="preserve">ССИ/ОСИ(20) + ДИС (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСИ/ССИ(80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДИС(67) + ОСИ/ССИ(15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВД(160)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВД(20)+ДИС(50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бег в лесу за работой. Огромная луна. Бежать было легко. Пробежала 12 км.</t>
   </si>
   <si>
     <t xml:space="preserve">Была на площадке в 23 мкр, занималась около часа. Далось легко. Делала стандартную программу, только гриф заменила на отжимания.</t>
@@ -691,7 +706,7 @@
     <t xml:space="preserve">Бегала в лесу 2 часа и 50 минут, пробежала около 22 км. Было не сложно. Только доставлял неудобства живот, который скручивало.</t>
   </si>
   <si>
-    <t xml:space="preserve">Пробежала первые 20 минут – очень легким темпом, разогрелась, затем бежала ускорения 30/60 сек. Около 30 минут, и затем просто 10 минут ДИС, поняла что нужно 30/90. А то после 20 минуты уже бежать становится тяжело.</t>
+    <t xml:space="preserve">Пробежала первые 20 минут – очень легким темпом, разогрелась, затем бежала ускорения 30/60 сек. Около 30 минут, и затем просто 10 минут ДИС, поняла что нужно 30/90. А то после 20 минуты бежать становится тяжело.</t>
   </si>
   <si>
     <t xml:space="preserve">ГРИ 15 + ДИС 35</t>
@@ -703,10 +718,25 @@
     <t xml:space="preserve">СВД 30 + ССИ/ОСИ (27)</t>
   </si>
   <si>
+    <t xml:space="preserve">ДИС + ССИ/ОСИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бассейн</t>
+  </si>
+  <si>
     <t xml:space="preserve">До начала бега была разминка, 20 минут. Растяжка, качала пресс, наклоны. Затем бег ДИС + ГРИ (примерно час). Горка понравилась. Пульс скачками, забавно смотреть. Вроде успевает успокоиться, пока добегаю до начала горки. Чувствовала себя легко. Потом бассейн. В Бассейне 20 гребков на 25 метров.</t>
   </si>
   <si>
     <t xml:space="preserve">Утром пробежалась, недолго, 33 минуты – 5,5 км. Пульс до 140. Светило солнце) Вечером ССИ+ОСИ, 23 мк, 2 круга. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пробежка на 9,2 км. Скорость 5 минут на километр. Бежала в 23 мк. По асфальту приятно, но дым от машин – фууууу, гадость какая. Перебарывать себя не приходилось, бежалось довольно легко. На 6 км вспомнила про работу ног и частоту шагов, после чего бежать стало легче, пульс перестал зашкаливать. Потом 3 круга ССИ+ОСИ и работа на пресс. Довольна собой, подтягивалась лучше обычного.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">бассейн, следила за гребками, 18 гребков на 15 метров, правда при усиленной работе ног</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пробежка -  свд, бежала под ритм 180. Ноги привыкли к такой частоте шагов на 3-5 км. Потом просто сами двигались. Бежалось легко. Почувствовала усталость только на 18 км. Голода не чувствовала, хотя ничего не ела с утра.</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -849,6 +879,9 @@
   </si>
   <si>
     <t xml:space="preserve">отдых между кругами 2+3(мин)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+3</t>
   </si>
   <si>
     <t xml:space="preserve">Приседания в выпаде с поднятыми руками и грузом</t>
@@ -873,7 +906,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="H:MM"/>
@@ -884,7 +917,6 @@
     <numFmt numFmtId="171" formatCode="@"/>
     <numFmt numFmtId="172" formatCode="0"/>
     <numFmt numFmtId="173" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1689,7 +1721,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="442">
+  <cellXfs count="444">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3242,10 +3274,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3438,15 +3486,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3531,7 +3571,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3757,12 +3797,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="1871240"/>
-        <c:axId val="18751084"/>
+        <c:axId val="55476845"/>
+        <c:axId val="19871700"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1871240"/>
+        <c:axId val="55476845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,14 +3835,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18751084"/>
+        <c:crossAx val="19871700"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18751084"/>
+        <c:axId val="19871700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,7 +3923,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1871240"/>
+        <c:crossAx val="55476845"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3926,9 +3966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3937,7 +3977,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6243120"/>
-        <a:ext cx="4390200" cy="2636640"/>
+        <a:ext cx="4389120" cy="2635560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4371,25 +4411,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="440" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="441" t="s">
-        <v>266</v>
+      <c r="A1" s="442" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="443" t="s">
+        <v>277</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="441" t="s">
-        <v>269</v>
+        <v>279</v>
+      </c>
+      <c r="B2" s="443" t="s">
+        <v>280</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -9998,7 +10038,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -11563,8 +11603,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11752,7 +11792,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="362" t="n">
-        <v>43535</v>
+        <v>43542</v>
       </c>
       <c r="B8" s="363"/>
       <c r="C8" s="363"/>
@@ -11766,9 +11806,11 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="362" t="n">
-        <v>43536</v>
-      </c>
-      <c r="B9" s="365"/>
+        <v>43543</v>
+      </c>
+      <c r="B9" s="365" t="s">
+        <v>207</v>
+      </c>
       <c r="C9" s="365"/>
       <c r="D9" s="386"/>
       <c r="E9" s="386"/>
@@ -11780,9 +11822,11 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="362" t="n">
-        <v>43537</v>
-      </c>
-      <c r="B10" s="365"/>
+        <v>43544</v>
+      </c>
+      <c r="B10" s="365" t="s">
+        <v>208</v>
+      </c>
       <c r="C10" s="365"/>
       <c r="D10" s="386"/>
       <c r="E10" s="386"/>
@@ -11794,10 +11838,12 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="362" t="n">
-        <v>43538</v>
-      </c>
-      <c r="B11" s="366"/>
-      <c r="C11" s="366"/>
+        <v>43545</v>
+      </c>
+      <c r="B11" s="388" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="388"/>
       <c r="D11" s="386"/>
       <c r="E11" s="386"/>
       <c r="F11" s="386"/>
@@ -11808,11 +11854,15 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="362" t="n">
-        <v>43539</v>
-      </c>
-      <c r="B12" s="365"/>
+        <v>43546</v>
+      </c>
+      <c r="B12" s="365" t="s">
+        <v>208</v>
+      </c>
       <c r="C12" s="365"/>
-      <c r="D12" s="386"/>
+      <c r="D12" s="386" t="s">
+        <v>197</v>
+      </c>
       <c r="E12" s="386"/>
       <c r="F12" s="386"/>
       <c r="G12" s="386"/>
@@ -11822,9 +11872,11 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="362" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B13" s="365"/>
+        <v>43547</v>
+      </c>
+      <c r="B13" s="365" t="s">
+        <v>210</v>
+      </c>
       <c r="C13" s="365"/>
       <c r="D13" s="386"/>
       <c r="E13" s="386"/>
@@ -11836,9 +11888,11 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="362" t="n">
-        <v>43541</v>
-      </c>
-      <c r="B14" s="365"/>
+        <v>43548</v>
+      </c>
+      <c r="B14" s="365" t="s">
+        <v>211</v>
+      </c>
       <c r="C14" s="365"/>
       <c r="D14" s="386"/>
       <c r="E14" s="386"/>
@@ -11953,7 +12007,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="373"/>
       <c r="B22" s="379" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C22" s="379"/>
       <c r="D22" s="379"/>
@@ -11999,7 +12053,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="373"/>
       <c r="B25" s="381" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C25" s="381"/>
       <c r="D25" s="381"/>
@@ -12042,31 +12096,31 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="373"/>
-      <c r="B28" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="B28" s="389" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="389"/>
+      <c r="D28" s="389"/>
+      <c r="E28" s="389"/>
+      <c r="F28" s="389"/>
+      <c r="G28" s="389"/>
+      <c r="H28" s="389"/>
+      <c r="I28" s="389"/>
+      <c r="J28" s="389"/>
     </row>
     <row r="29" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="373"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="B29" s="389"/>
+      <c r="C29" s="389"/>
+      <c r="D29" s="389"/>
+      <c r="E29" s="389"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="389"/>
+      <c r="H29" s="389"/>
+      <c r="I29" s="389"/>
+      <c r="J29" s="389"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="373" t="n">
@@ -12074,14 +12128,14 @@
       </c>
       <c r="B30" s="383"/>
       <c r="C30" s="383"/>
-      <c r="D30" s="388" t="n">
+      <c r="D30" s="390" t="n">
         <v>5</v>
       </c>
       <c r="E30" s="383"/>
-      <c r="F30" s="388" t="n">
+      <c r="F30" s="390" t="n">
         <v>56</v>
       </c>
-      <c r="G30" s="388" t="n">
+      <c r="G30" s="390" t="n">
         <v>7.34</v>
       </c>
       <c r="H30" s="383"/>
@@ -12091,7 +12145,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="373"/>
       <c r="B31" s="387" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C31" s="387"/>
       <c r="D31" s="387"/>
@@ -12134,31 +12188,31 @@
       <c r="I33" s="91"/>
       <c r="J33" s="91"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="373"/>
-      <c r="B34" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
+      <c r="B34" s="389" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="389"/>
+      <c r="D34" s="389"/>
+      <c r="E34" s="389"/>
+      <c r="F34" s="389"/>
+      <c r="G34" s="389"/>
+      <c r="H34" s="389"/>
+      <c r="I34" s="389"/>
+      <c r="J34" s="389"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="373"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="389"/>
+      <c r="C35" s="389"/>
+      <c r="D35" s="389"/>
+      <c r="E35" s="389"/>
+      <c r="F35" s="389"/>
+      <c r="G35" s="389"/>
+      <c r="H35" s="389"/>
+      <c r="I35" s="389"/>
+      <c r="J35" s="389"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="373" t="n">
@@ -12166,45 +12220,45 @@
       </c>
       <c r="B36" s="383"/>
       <c r="C36" s="383"/>
-      <c r="D36" s="388" t="n">
+      <c r="D36" s="390" t="n">
         <v>4</v>
       </c>
       <c r="E36" s="383"/>
-      <c r="F36" s="388" t="n">
+      <c r="F36" s="390" t="n">
         <v>55.6</v>
       </c>
-      <c r="G36" s="388" t="n">
+      <c r="G36" s="390" t="n">
         <v>7.49</v>
       </c>
       <c r="H36" s="383"/>
       <c r="I36" s="383"/>
       <c r="J36" s="383"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="373"/>
-      <c r="B37" s="387" t="s">
-        <v>212</v>
-      </c>
-      <c r="C37" s="387"/>
-      <c r="D37" s="387"/>
-      <c r="E37" s="387"/>
-      <c r="F37" s="387"/>
-      <c r="G37" s="387"/>
-      <c r="H37" s="387"/>
-      <c r="I37" s="387"/>
-      <c r="J37" s="387"/>
+      <c r="B37" s="391" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="391"/>
+      <c r="D37" s="391"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="391"/>
+      <c r="G37" s="391"/>
+      <c r="H37" s="391"/>
+      <c r="I37" s="391"/>
+      <c r="J37" s="391"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="373"/>
-      <c r="B38" s="387"/>
-      <c r="C38" s="387"/>
-      <c r="D38" s="387"/>
-      <c r="E38" s="387"/>
-      <c r="F38" s="387"/>
-      <c r="G38" s="387"/>
-      <c r="H38" s="387"/>
-      <c r="I38" s="387"/>
-      <c r="J38" s="387"/>
+      <c r="B38" s="391"/>
+      <c r="C38" s="391"/>
+      <c r="D38" s="391"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="391"/>
+      <c r="G38" s="391"/>
+      <c r="H38" s="391"/>
+      <c r="I38" s="391"/>
+      <c r="J38" s="391"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -12256,8 +12310,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12459,11 +12513,11 @@
         <v>43550</v>
       </c>
       <c r="B9" s="365" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C9" s="365"/>
       <c r="D9" s="386" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E9" s="386"/>
       <c r="F9" s="386"/>
@@ -12477,7 +12531,7 @@
         <v>43551</v>
       </c>
       <c r="B10" s="365" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C10" s="365"/>
       <c r="D10" s="386"/>
@@ -12492,8 +12546,8 @@
       <c r="A11" s="362" t="n">
         <v>43552</v>
       </c>
-      <c r="B11" s="366"/>
-      <c r="C11" s="366"/>
+      <c r="B11" s="388"/>
+      <c r="C11" s="388"/>
       <c r="D11" s="386"/>
       <c r="E11" s="386"/>
       <c r="F11" s="386"/>
@@ -12506,7 +12560,9 @@
       <c r="A12" s="362" t="n">
         <v>43553</v>
       </c>
-      <c r="B12" s="365"/>
+      <c r="B12" s="365" t="s">
+        <v>221</v>
+      </c>
       <c r="C12" s="365"/>
       <c r="D12" s="386"/>
       <c r="E12" s="386"/>
@@ -12522,7 +12578,9 @@
       </c>
       <c r="B13" s="365"/>
       <c r="C13" s="365"/>
-      <c r="D13" s="386"/>
+      <c r="D13" s="386" t="s">
+        <v>222</v>
+      </c>
       <c r="E13" s="386"/>
       <c r="F13" s="386"/>
       <c r="G13" s="386"/>
@@ -12534,7 +12592,9 @@
       <c r="A14" s="362" t="n">
         <v>43555</v>
       </c>
-      <c r="B14" s="365"/>
+      <c r="B14" s="365" t="s">
+        <v>140</v>
+      </c>
       <c r="C14" s="365"/>
       <c r="D14" s="386"/>
       <c r="E14" s="386"/>
@@ -12651,7 +12711,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="373"/>
       <c r="B22" s="379" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C22" s="379"/>
       <c r="D22" s="379"/>
@@ -12701,7 +12761,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="373"/>
       <c r="B25" s="381" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C25" s="381"/>
       <c r="D25" s="381"/>
@@ -12774,35 +12834,41 @@
       <c r="C30" s="383"/>
       <c r="D30" s="383"/>
       <c r="E30" s="383"/>
-      <c r="F30" s="383"/>
-      <c r="G30" s="383"/>
+      <c r="F30" s="390" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="G30" s="390" t="n">
+        <v>7.28</v>
+      </c>
       <c r="H30" s="383"/>
       <c r="I30" s="383"/>
       <c r="J30" s="383"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="373"/>
-      <c r="B31" s="387"/>
-      <c r="C31" s="387"/>
-      <c r="D31" s="387"/>
-      <c r="E31" s="387"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="387"/>
-      <c r="H31" s="387"/>
-      <c r="I31" s="387"/>
-      <c r="J31" s="387"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="392" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="392"/>
+      <c r="D31" s="392"/>
+      <c r="E31" s="392"/>
+      <c r="F31" s="392"/>
+      <c r="G31" s="392"/>
+      <c r="H31" s="392"/>
+      <c r="I31" s="392"/>
+      <c r="J31" s="392"/>
+    </row>
+    <row r="32" customFormat="false" ht="48.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="373"/>
-      <c r="B32" s="387"/>
-      <c r="C32" s="387"/>
-      <c r="D32" s="387"/>
-      <c r="E32" s="387"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="387"/>
-      <c r="H32" s="387"/>
-      <c r="I32" s="387"/>
-      <c r="J32" s="387"/>
+      <c r="B32" s="392"/>
+      <c r="C32" s="392"/>
+      <c r="D32" s="392"/>
+      <c r="E32" s="392"/>
+      <c r="F32" s="392"/>
+      <c r="G32" s="392"/>
+      <c r="H32" s="392"/>
+      <c r="I32" s="392"/>
+      <c r="J32" s="392"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="373" t="n">
@@ -12812,35 +12878,41 @@
       <c r="C33" s="91"/>
       <c r="D33" s="91"/>
       <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
+      <c r="F33" s="22" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="G33" s="22" t="n">
+        <v>8.53</v>
+      </c>
       <c r="H33" s="91"/>
       <c r="I33" s="91"/>
       <c r="J33" s="91"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="373"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="389" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="389"/>
+      <c r="D34" s="389"/>
+      <c r="E34" s="389"/>
+      <c r="F34" s="389"/>
+      <c r="G34" s="389"/>
+      <c r="H34" s="389"/>
+      <c r="I34" s="389"/>
+      <c r="J34" s="389"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="373"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="389"/>
+      <c r="C35" s="389"/>
+      <c r="D35" s="389"/>
+      <c r="E35" s="389"/>
+      <c r="F35" s="389"/>
+      <c r="G35" s="389"/>
+      <c r="H35" s="389"/>
+      <c r="I35" s="389"/>
+      <c r="J35" s="389"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="373" t="n">
@@ -12850,35 +12922,41 @@
       <c r="C36" s="383"/>
       <c r="D36" s="383"/>
       <c r="E36" s="383"/>
-      <c r="F36" s="383"/>
-      <c r="G36" s="383"/>
+      <c r="F36" s="390" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="G36" s="390" t="n">
+        <v>6.45</v>
+      </c>
       <c r="H36" s="383"/>
       <c r="I36" s="383"/>
       <c r="J36" s="383"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="373"/>
-      <c r="B37" s="387"/>
-      <c r="C37" s="387"/>
-      <c r="D37" s="387"/>
-      <c r="E37" s="387"/>
-      <c r="F37" s="387"/>
-      <c r="G37" s="387"/>
-      <c r="H37" s="387"/>
-      <c r="I37" s="387"/>
-      <c r="J37" s="387"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="391" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="391"/>
+      <c r="D37" s="391"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="391"/>
+      <c r="G37" s="391"/>
+      <c r="H37" s="391"/>
+      <c r="I37" s="391"/>
+      <c r="J37" s="391"/>
+    </row>
+    <row r="38" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="373"/>
-      <c r="B38" s="387"/>
-      <c r="C38" s="387"/>
-      <c r="D38" s="387"/>
-      <c r="E38" s="387"/>
-      <c r="F38" s="387"/>
-      <c r="G38" s="387"/>
-      <c r="H38" s="387"/>
-      <c r="I38" s="387"/>
-      <c r="J38" s="387"/>
+      <c r="B38" s="391"/>
+      <c r="C38" s="391"/>
+      <c r="D38" s="391"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="391"/>
+      <c r="G38" s="391"/>
+      <c r="H38" s="391"/>
+      <c r="I38" s="391"/>
+      <c r="J38" s="391"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -12928,13 +13006,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:L198"/>
+  <dimension ref="B1:L238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A161" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L202" activeCellId="0" sqref="L202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A173" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q241" activeCellId="0" sqref="Q241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.84"/>
@@ -12947,23 +13025,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="389" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="389"/>
+        <v>230</v>
+      </c>
+      <c r="G1" s="393" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="393"/>
       <c r="I1" s="358" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -12976,182 +13054,182 @@
       <c r="E2" s="368"/>
       <c r="F2" s="368"/>
       <c r="G2" s="368"/>
-      <c r="H2" s="389"/>
+      <c r="H2" s="393"/>
       <c r="I2" s="358"/>
       <c r="J2" s="358"/>
       <c r="K2" s="358"/>
       <c r="L2" s="358"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="390" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="390"/>
-      <c r="D3" s="391" t="n">
+      <c r="B3" s="394" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="394"/>
+      <c r="D3" s="395" t="n">
         <f aca="false">(D12+D13+D14+D15+D20+D21+D30+D31+D24+D25+D28+D29+D34)/60</f>
         <v>6.2</v>
       </c>
-      <c r="E3" s="392" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="392" t="n">
+      <c r="E3" s="396" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="396" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="393" t="n">
+      <c r="G3" s="397" t="n">
         <f aca="false">D3*F3</f>
         <v>24.8</v>
       </c>
-      <c r="H3" s="393"/>
-      <c r="I3" s="394" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394"/>
-      <c r="L3" s="394"/>
+      <c r="H3" s="397"/>
+      <c r="I3" s="398" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
+      <c r="L3" s="398"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="395" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="395"/>
-      <c r="D4" s="396" t="n">
+      <c r="B4" s="399" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="399"/>
+      <c r="D4" s="400" t="n">
         <f aca="false">(D16+D33+D17+D18+D19+D22+D23+D26+D27+D32+D33)/60</f>
         <v>3.86666666666667</v>
       </c>
-      <c r="E4" s="392"/>
-      <c r="F4" s="392"/>
-      <c r="G4" s="397" t="n">
+      <c r="E4" s="396"/>
+      <c r="F4" s="396"/>
+      <c r="G4" s="401" t="n">
         <f aca="false">D4*F3</f>
         <v>15.4666666666667</v>
       </c>
-      <c r="H4" s="397"/>
-      <c r="I4" s="398" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="398"/>
-      <c r="K4" s="398"/>
-      <c r="L4" s="398"/>
+      <c r="H4" s="401"/>
+      <c r="I4" s="402" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="402"/>
+      <c r="K4" s="402"/>
+      <c r="L4" s="402"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="395" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="395"/>
-      <c r="D5" s="399" t="n">
+      <c r="B5" s="399" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="399"/>
+      <c r="D5" s="403" t="n">
         <f aca="false">SUM(D3:D4)</f>
         <v>10.0666666666667</v>
       </c>
-      <c r="E5" s="392"/>
-      <c r="F5" s="392"/>
-      <c r="G5" s="400" t="n">
+      <c r="E5" s="396"/>
+      <c r="F5" s="396"/>
+      <c r="G5" s="404" t="n">
         <f aca="false">D5*F3</f>
         <v>40.2666666666667</v>
       </c>
-      <c r="H5" s="400"/>
-      <c r="I5" s="398" t="s">
-        <v>229</v>
-      </c>
-      <c r="J5" s="398"/>
-      <c r="K5" s="398"/>
-      <c r="L5" s="398"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="402" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" s="402"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="402"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="395" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="395"/>
-      <c r="D6" s="401" t="n">
+      <c r="B6" s="399" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="399"/>
+      <c r="D6" s="405" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="E6" s="401"/>
-      <c r="F6" s="401"/>
-      <c r="G6" s="401"/>
-      <c r="H6" s="401"/>
-      <c r="I6" s="402" t="s">
-        <v>231</v>
-      </c>
-      <c r="J6" s="402"/>
-      <c r="K6" s="402"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="405"/>
+      <c r="F6" s="405"/>
+      <c r="G6" s="405"/>
+      <c r="H6" s="405"/>
+      <c r="I6" s="406" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="406"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="406"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="403" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="405" t="n">
+      <c r="B7" s="407" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="408"/>
+      <c r="D7" s="409" t="n">
         <f aca="false">G5+D6</f>
         <v>49.2666666666667</v>
       </c>
-      <c r="E7" s="405"/>
-      <c r="F7" s="405"/>
-      <c r="G7" s="405"/>
-      <c r="H7" s="405"/>
-      <c r="I7" s="398" t="s">
-        <v>233</v>
-      </c>
-      <c r="J7" s="398"/>
-      <c r="K7" s="398"/>
-      <c r="L7" s="398"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="409"/>
+      <c r="G7" s="409"/>
+      <c r="H7" s="409"/>
+      <c r="I7" s="402" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="402"/>
+      <c r="K7" s="402"/>
+      <c r="L7" s="402"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="395" t="s">
+      <c r="B8" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="395"/>
-      <c r="D8" s="406" t="n">
+      <c r="C8" s="399"/>
+      <c r="D8" s="410" t="n">
         <v>43532</v>
       </c>
-      <c r="E8" s="406"/>
-      <c r="F8" s="406"/>
-      <c r="G8" s="406"/>
-      <c r="H8" s="406"/>
-      <c r="I8" s="407"/>
-      <c r="J8" s="407"/>
-      <c r="K8" s="407"/>
-      <c r="L8" s="407"/>
+      <c r="E8" s="410"/>
+      <c r="F8" s="410"/>
+      <c r="G8" s="410"/>
+      <c r="H8" s="410"/>
+      <c r="I8" s="411"/>
+      <c r="J8" s="411"/>
+      <c r="K8" s="411"/>
+      <c r="L8" s="411"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="408" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="408"/>
-      <c r="D9" s="409" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="409"/>
-      <c r="F9" s="409"/>
-      <c r="G9" s="409"/>
-      <c r="H9" s="409"/>
-      <c r="I9" s="407"/>
-      <c r="J9" s="407"/>
-      <c r="K9" s="407"/>
-      <c r="L9" s="407"/>
+      <c r="B9" s="412" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="412"/>
+      <c r="D9" s="413" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="413"/>
+      <c r="F9" s="413"/>
+      <c r="G9" s="413"/>
+      <c r="H9" s="413"/>
+      <c r="I9" s="411"/>
+      <c r="J9" s="411"/>
+      <c r="K9" s="411"/>
+      <c r="L9" s="411"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="408"/>
-      <c r="C10" s="408"/>
-      <c r="D10" s="409"/>
-      <c r="E10" s="409"/>
-      <c r="F10" s="409"/>
-      <c r="G10" s="409"/>
-      <c r="H10" s="409"/>
-      <c r="I10" s="410"/>
-      <c r="J10" s="410"/>
-      <c r="K10" s="410"/>
-      <c r="L10" s="410"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="412"/>
+      <c r="D10" s="413"/>
+      <c r="E10" s="413"/>
+      <c r="F10" s="413"/>
+      <c r="G10" s="413"/>
+      <c r="H10" s="413"/>
+      <c r="I10" s="414"/>
+      <c r="J10" s="414"/>
+      <c r="K10" s="414"/>
+      <c r="L10" s="414"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="411"/>
-      <c r="C11" s="412" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="412"/>
-      <c r="E11" s="412"/>
-      <c r="F11" s="412"/>
+      <c r="B11" s="415"/>
+      <c r="C11" s="416" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="416"/>
+      <c r="E11" s="416"/>
+      <c r="F11" s="416"/>
       <c r="G11" s="180" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -13160,622 +13238,620 @@
       <c r="L11" s="180"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="413" t="n">
+      <c r="B12" s="417" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="414" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="415" t="n">
+      <c r="C12" s="418" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E12" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="416" t="s">
+      <c r="E12" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="417" t="n">
+      <c r="G12" s="421" t="n">
         <v>14</v>
       </c>
-      <c r="H12" s="417" t="n">
+      <c r="H12" s="421" t="n">
         <v>16</v>
       </c>
-      <c r="I12" s="417" t="n">
+      <c r="I12" s="421" t="n">
         <v>17</v>
       </c>
-      <c r="J12" s="417" t="n">
+      <c r="J12" s="421" t="n">
         <v>18</v>
       </c>
-      <c r="K12" s="417"/>
-      <c r="L12" s="418"/>
+      <c r="K12" s="421"/>
+      <c r="L12" s="422"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="413"/>
-      <c r="C13" s="419" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="420" t="n">
+      <c r="B13" s="417"/>
+      <c r="C13" s="423" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E13" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="416"/>
-      <c r="G13" s="417"/>
-      <c r="H13" s="417"/>
-      <c r="I13" s="417"/>
-      <c r="J13" s="417"/>
-      <c r="K13" s="417"/>
-      <c r="L13" s="418"/>
+      <c r="E13" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="420"/>
+      <c r="G13" s="421"/>
+      <c r="H13" s="421"/>
+      <c r="I13" s="421"/>
+      <c r="J13" s="421"/>
+      <c r="K13" s="421"/>
+      <c r="L13" s="422"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="421" t="n">
+      <c r="B14" s="425" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="415" t="s">
+      <c r="C14" s="419" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="426" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="427" t="n">
+        <v>36</v>
+      </c>
+      <c r="H14" s="427" t="n">
+        <v>40</v>
+      </c>
+      <c r="I14" s="427" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" s="427" t="n">
+        <v>45</v>
+      </c>
+      <c r="K14" s="428"/>
+      <c r="L14" s="429"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="425"/>
+      <c r="C15" s="430" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="430" t="n">
+        <v>22</v>
+      </c>
+      <c r="E15" s="430" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="426"/>
+      <c r="G15" s="427"/>
+      <c r="H15" s="427"/>
+      <c r="I15" s="427"/>
+      <c r="J15" s="427"/>
+      <c r="K15" s="428"/>
+      <c r="L15" s="429"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="431" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="419" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="421" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="K16" s="433"/>
+      <c r="L16" s="434"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="431"/>
+      <c r="C17" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E17" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="432"/>
+      <c r="G17" s="421"/>
+      <c r="H17" s="421"/>
+      <c r="I17" s="421"/>
+      <c r="J17" s="421"/>
+      <c r="K17" s="433"/>
+      <c r="L17" s="434"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="431" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="419" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="I18" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="K18" s="433"/>
+      <c r="L18" s="434"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="431"/>
+      <c r="C19" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="432"/>
+      <c r="G19" s="421"/>
+      <c r="H19" s="421"/>
+      <c r="I19" s="421"/>
+      <c r="J19" s="421"/>
+      <c r="K19" s="433"/>
+      <c r="L19" s="434"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="431" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="419" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="421" t="n">
+        <v>50</v>
+      </c>
+      <c r="H20" s="421" t="n">
+        <v>55</v>
+      </c>
+      <c r="I20" s="421" t="n">
+        <v>65</v>
+      </c>
+      <c r="J20" s="421" t="n">
+        <v>67</v>
+      </c>
+      <c r="K20" s="433"/>
+      <c r="L20" s="434"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="431"/>
+      <c r="C21" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E21" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="420"/>
+      <c r="G21" s="421"/>
+      <c r="H21" s="421"/>
+      <c r="I21" s="421"/>
+      <c r="J21" s="421"/>
+      <c r="K21" s="433"/>
+      <c r="L21" s="434"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" s="419" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="H22" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="I22" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="K22" s="433"/>
+      <c r="L22" s="434"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="431"/>
+      <c r="C23" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="432"/>
+      <c r="G23" s="421"/>
+      <c r="H23" s="421"/>
+      <c r="I23" s="421"/>
+      <c r="J23" s="421"/>
+      <c r="K23" s="433"/>
+      <c r="L23" s="434"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="431" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" s="419" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="415" t="n">
+      <c r="D24" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E14" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="422" t="s">
+      <c r="E24" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="423" t="n">
-        <v>36</v>
-      </c>
-      <c r="H14" s="423" t="n">
-        <v>40</v>
-      </c>
-      <c r="I14" s="423" t="n">
-        <v>40</v>
-      </c>
-      <c r="J14" s="423" t="n">
-        <v>45</v>
-      </c>
-      <c r="K14" s="424"/>
-      <c r="L14" s="425"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="421"/>
-      <c r="C15" s="426" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="426" t="n">
+      <c r="G24" s="421" t="n">
+        <v>20</v>
+      </c>
+      <c r="H24" s="421" t="n">
+        <v>24</v>
+      </c>
+      <c r="I24" s="421" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" s="421" t="n">
+        <v>25</v>
+      </c>
+      <c r="K24" s="433"/>
+      <c r="L24" s="434"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="431"/>
+      <c r="C25" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E15" s="426" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="422"/>
-      <c r="G15" s="423"/>
-      <c r="H15" s="423"/>
-      <c r="I15" s="423"/>
-      <c r="J15" s="423"/>
-      <c r="K15" s="424"/>
-      <c r="L15" s="425"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="427" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="415" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="415" t="n">
+      <c r="E25" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="420"/>
+      <c r="G25" s="421"/>
+      <c r="H25" s="421"/>
+      <c r="I25" s="421"/>
+      <c r="J25" s="421"/>
+      <c r="K25" s="433"/>
+      <c r="L25" s="434"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="431" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" s="419" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E16" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="428" t="s">
+      <c r="E26" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="432" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="417" t="n">
+      <c r="G26" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="I26" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" s="433"/>
+      <c r="L26" s="434"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="431"/>
+      <c r="C27" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E27" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" s="432"/>
+      <c r="G27" s="421"/>
+      <c r="H27" s="421"/>
+      <c r="I27" s="421"/>
+      <c r="J27" s="421"/>
+      <c r="K27" s="433"/>
+      <c r="L27" s="434"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="431" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="419" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="421" t="n">
         <v>10</v>
       </c>
-      <c r="H16" s="417" t="n">
+      <c r="H28" s="421" t="n">
         <v>11</v>
       </c>
-      <c r="I16" s="417" t="n">
+      <c r="I28" s="421" t="n">
         <v>11</v>
       </c>
-      <c r="J16" s="417" t="n">
+      <c r="J28" s="421" t="n">
         <v>13</v>
       </c>
-      <c r="K16" s="429"/>
-      <c r="L16" s="430"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="427"/>
-      <c r="C17" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="431" t="n">
+      <c r="K28" s="433"/>
+      <c r="L28" s="434"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="431"/>
+      <c r="C29" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E17" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="428"/>
-      <c r="G17" s="417"/>
-      <c r="H17" s="417"/>
-      <c r="I17" s="417"/>
-      <c r="J17" s="417"/>
-      <c r="K17" s="429"/>
-      <c r="L17" s="430"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="427" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" s="415" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="415" t="n">
+      <c r="E29" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="420"/>
+      <c r="G29" s="421"/>
+      <c r="H29" s="421"/>
+      <c r="I29" s="421"/>
+      <c r="J29" s="421"/>
+      <c r="K29" s="433"/>
+      <c r="L29" s="434"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="431" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="419" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E18" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="428" t="s">
+      <c r="E30" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="421" t="n">
+        <v>15</v>
+      </c>
+      <c r="H30" s="421" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="K30" s="433"/>
+      <c r="L30" s="434"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="431"/>
+      <c r="C31" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E31" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="420"/>
+      <c r="G31" s="421"/>
+      <c r="H31" s="421"/>
+      <c r="I31" s="421"/>
+      <c r="J31" s="421"/>
+      <c r="K31" s="433"/>
+      <c r="L31" s="434"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="431" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" s="419" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="432" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="H18" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="I18" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" s="417" t="n">
+      <c r="G32" s="421" t="n">
+        <v>17</v>
+      </c>
+      <c r="H32" s="421" t="n">
+        <v>20</v>
+      </c>
+      <c r="I32" s="421" t="n">
+        <v>18</v>
+      </c>
+      <c r="J32" s="421" t="n">
+        <v>19</v>
+      </c>
+      <c r="K32" s="433"/>
+      <c r="L32" s="434"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="431"/>
+      <c r="C33" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E33" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" s="432"/>
+      <c r="G33" s="421"/>
+      <c r="H33" s="421"/>
+      <c r="I33" s="421"/>
+      <c r="J33" s="421"/>
+      <c r="K33" s="433"/>
+      <c r="L33" s="434"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="431" t="n">
         <v>12</v>
       </c>
-      <c r="K18" s="429"/>
-      <c r="L18" s="430"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="427"/>
-      <c r="C19" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E19" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F19" s="428"/>
-      <c r="G19" s="417"/>
-      <c r="H19" s="417"/>
-      <c r="I19" s="417"/>
-      <c r="J19" s="417"/>
-      <c r="K19" s="429"/>
-      <c r="L19" s="430"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="427" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" s="415" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="416" t="s">
+      <c r="C34" s="419" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="419" t="n">
+        <v>120</v>
+      </c>
+      <c r="E34" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F34" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="417" t="n">
-        <v>50</v>
-      </c>
-      <c r="H20" s="417" t="n">
-        <v>55</v>
-      </c>
-      <c r="I20" s="417" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" s="417" t="n">
-        <v>67</v>
-      </c>
-      <c r="K20" s="429"/>
-      <c r="L20" s="430"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="427"/>
-      <c r="C21" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E21" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="416"/>
-      <c r="G21" s="417"/>
-      <c r="H21" s="417"/>
-      <c r="I21" s="417"/>
-      <c r="J21" s="417"/>
-      <c r="K21" s="429"/>
-      <c r="L21" s="430"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="427" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" s="415" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="H22" s="417" t="n">
-        <v>13</v>
-      </c>
-      <c r="I22" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" s="417" t="n">
-        <v>13</v>
-      </c>
-      <c r="K22" s="429"/>
-      <c r="L22" s="430"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="427"/>
-      <c r="C23" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E23" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F23" s="428"/>
-      <c r="G23" s="417"/>
-      <c r="H23" s="417"/>
-      <c r="I23" s="417"/>
-      <c r="J23" s="417"/>
-      <c r="K23" s="429"/>
-      <c r="L23" s="430"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="427" t="n">
-        <v>7</v>
-      </c>
-      <c r="C24" s="415" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E24" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F24" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="417" t="n">
-        <v>20</v>
-      </c>
-      <c r="H24" s="417" t="n">
-        <v>24</v>
-      </c>
-      <c r="I24" s="417" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" s="417" t="n">
-        <v>25</v>
-      </c>
-      <c r="K24" s="429"/>
-      <c r="L24" s="430"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="427"/>
-      <c r="C25" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E25" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F25" s="416"/>
-      <c r="G25" s="417"/>
-      <c r="H25" s="417"/>
-      <c r="I25" s="417"/>
-      <c r="J25" s="417"/>
-      <c r="K25" s="429"/>
-      <c r="L25" s="430"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="427" t="n">
-        <v>8</v>
-      </c>
-      <c r="C26" s="415" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E26" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F26" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="417" t="n">
-        <v>7</v>
-      </c>
-      <c r="H26" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="I26" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" s="417" t="n">
-        <v>7</v>
-      </c>
-      <c r="K26" s="429"/>
-      <c r="L26" s="430"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="427"/>
-      <c r="C27" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E27" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F27" s="428"/>
-      <c r="G27" s="417"/>
-      <c r="H27" s="417"/>
-      <c r="I27" s="417"/>
-      <c r="J27" s="417"/>
-      <c r="K27" s="429"/>
-      <c r="L27" s="430"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="427" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="415" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E28" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="417" t="n">
-        <v>10</v>
-      </c>
-      <c r="H28" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="I28" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" s="417" t="n">
-        <v>13</v>
-      </c>
-      <c r="K28" s="429"/>
-      <c r="L28" s="430"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="427"/>
-      <c r="C29" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E29" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="416"/>
-      <c r="G29" s="417"/>
-      <c r="H29" s="417"/>
-      <c r="I29" s="417"/>
-      <c r="J29" s="417"/>
-      <c r="K29" s="429"/>
-      <c r="L29" s="430"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="427" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="415" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E30" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="417" t="n">
-        <v>15</v>
-      </c>
-      <c r="H30" s="417" t="n">
-        <v>15</v>
-      </c>
-      <c r="I30" s="417" t="n">
-        <v>13</v>
-      </c>
-      <c r="J30" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="K30" s="429"/>
-      <c r="L30" s="430"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="427"/>
-      <c r="C31" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E31" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="416"/>
-      <c r="G31" s="417"/>
-      <c r="H31" s="417"/>
-      <c r="I31" s="417"/>
-      <c r="J31" s="417"/>
-      <c r="K31" s="429"/>
-      <c r="L31" s="430"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="427" t="n">
-        <v>11</v>
-      </c>
-      <c r="C32" s="415" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E32" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="417" t="n">
-        <v>17</v>
-      </c>
-      <c r="H32" s="417" t="n">
-        <v>20</v>
-      </c>
-      <c r="I32" s="417" t="n">
-        <v>18</v>
-      </c>
-      <c r="J32" s="417" t="n">
-        <v>19</v>
-      </c>
-      <c r="K32" s="429"/>
-      <c r="L32" s="430"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="427"/>
-      <c r="C33" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E33" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F33" s="428"/>
-      <c r="G33" s="417"/>
-      <c r="H33" s="417"/>
-      <c r="I33" s="417"/>
-      <c r="J33" s="417"/>
-      <c r="K33" s="429"/>
-      <c r="L33" s="430"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="427" t="n">
-        <v>12</v>
-      </c>
-      <c r="C34" s="415" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="415" t="n">
-        <v>120</v>
-      </c>
-      <c r="E34" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" s="417" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" s="417" t="s">
-        <v>251</v>
-      </c>
-      <c r="I34" s="417" t="s">
-        <v>251</v>
-      </c>
-      <c r="J34" s="417" t="s">
-        <v>251</v>
-      </c>
-      <c r="K34" s="429"/>
-      <c r="L34" s="430"/>
+      <c r="G34" s="421" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="421" t="s">
+        <v>261</v>
+      </c>
+      <c r="I34" s="421" t="s">
+        <v>261</v>
+      </c>
+      <c r="J34" s="421" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" s="433"/>
+      <c r="L34" s="434"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="427"/>
-      <c r="C35" s="432"/>
-      <c r="D35" s="432"/>
-      <c r="E35" s="432"/>
-      <c r="F35" s="416"/>
-      <c r="G35" s="417"/>
-      <c r="H35" s="417"/>
-      <c r="I35" s="417"/>
-      <c r="J35" s="417"/>
-      <c r="K35" s="429"/>
-      <c r="L35" s="430"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B35" s="431"/>
+      <c r="C35" s="436"/>
+      <c r="D35" s="436"/>
+      <c r="E35" s="436"/>
+      <c r="F35" s="420"/>
+      <c r="G35" s="421"/>
+      <c r="H35" s="421"/>
+      <c r="I35" s="421"/>
+      <c r="J35" s="421"/>
+      <c r="K35" s="433"/>
+      <c r="L35" s="434"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="389" t="s">
-        <v>221</v>
-      </c>
-      <c r="H40" s="389"/>
+        <v>230</v>
+      </c>
+      <c r="G40" s="393" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="393"/>
       <c r="I40" s="358" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -13788,186 +13864,186 @@
       <c r="E41" s="368"/>
       <c r="F41" s="368"/>
       <c r="G41" s="368"/>
-      <c r="H41" s="389"/>
+      <c r="H41" s="393"/>
       <c r="I41" s="358"/>
       <c r="J41" s="358"/>
       <c r="K41" s="358"/>
       <c r="L41" s="358"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="390" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="390"/>
-      <c r="D42" s="391" t="n">
+      <c r="B42" s="394" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="394"/>
+      <c r="D42" s="395" t="n">
         <f aca="false">(D51+D52+D53+D54+D59+D60+D67+D68+D63+D64+D71+D72+D75)/60</f>
         <v>6.2</v>
       </c>
-      <c r="E42" s="392" t="s">
-        <v>224</v>
-      </c>
-      <c r="F42" s="392" t="n">
+      <c r="E42" s="396" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="396" t="n">
         <v>4</v>
       </c>
-      <c r="G42" s="393" t="n">
+      <c r="G42" s="397" t="n">
         <f aca="false">D42*F42</f>
         <v>24.8</v>
       </c>
-      <c r="H42" s="393"/>
-      <c r="I42" s="394" t="s">
-        <v>253</v>
-      </c>
-      <c r="J42" s="394"/>
-      <c r="K42" s="394"/>
-      <c r="L42" s="394"/>
+      <c r="H42" s="397"/>
+      <c r="I42" s="398" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" s="398"/>
+      <c r="K42" s="398"/>
+      <c r="L42" s="398"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="395" t="s">
-        <v>226</v>
-      </c>
-      <c r="C43" s="395"/>
-      <c r="D43" s="396" t="n">
+      <c r="B43" s="399" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="399"/>
+      <c r="D43" s="400" t="n">
         <f aca="false">(D55+D70+D56+D57+D58+D61+D62+D65+D66+D69+D70+D73+D74)/60</f>
         <v>4.56666666666667</v>
       </c>
-      <c r="E43" s="392"/>
-      <c r="F43" s="392"/>
-      <c r="G43" s="397" t="n">
+      <c r="E43" s="396"/>
+      <c r="F43" s="396"/>
+      <c r="G43" s="401" t="n">
         <f aca="false">D43*F42</f>
         <v>18.2666666666667</v>
       </c>
-      <c r="H43" s="397"/>
-      <c r="I43" s="398" t="s">
-        <v>227</v>
-      </c>
-      <c r="J43" s="398"/>
-      <c r="K43" s="398"/>
-      <c r="L43" s="398"/>
+      <c r="H43" s="401"/>
+      <c r="I43" s="402" t="s">
+        <v>237</v>
+      </c>
+      <c r="J43" s="402"/>
+      <c r="K43" s="402"/>
+      <c r="L43" s="402"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="395" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="395"/>
-      <c r="D44" s="399" t="n">
+      <c r="B44" s="399" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="399"/>
+      <c r="D44" s="403" t="n">
         <f aca="false">SUM(D42:D43)</f>
         <v>10.7666666666667</v>
       </c>
-      <c r="E44" s="392"/>
-      <c r="F44" s="392"/>
-      <c r="G44" s="400" t="n">
+      <c r="E44" s="396"/>
+      <c r="F44" s="396"/>
+      <c r="G44" s="404" t="n">
         <f aca="false">D44*F42</f>
         <v>43.0666666666667</v>
       </c>
-      <c r="H44" s="400"/>
-      <c r="I44" s="398" t="s">
-        <v>229</v>
-      </c>
-      <c r="J44" s="398"/>
-      <c r="K44" s="398"/>
-      <c r="L44" s="398"/>
+      <c r="H44" s="404"/>
+      <c r="I44" s="402" t="s">
+        <v>239</v>
+      </c>
+      <c r="J44" s="402"/>
+      <c r="K44" s="402"/>
+      <c r="L44" s="402"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="395" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="395"/>
-      <c r="D45" s="401" t="n">
+      <c r="B45" s="399" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="399"/>
+      <c r="D45" s="405" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="E45" s="401"/>
-      <c r="F45" s="401"/>
-      <c r="G45" s="401"/>
-      <c r="H45" s="401"/>
-      <c r="I45" s="402" t="s">
-        <v>231</v>
-      </c>
-      <c r="J45" s="402"/>
-      <c r="K45" s="402"/>
-      <c r="L45" s="402"/>
+      <c r="E45" s="405"/>
+      <c r="F45" s="405"/>
+      <c r="G45" s="405"/>
+      <c r="H45" s="405"/>
+      <c r="I45" s="406" t="s">
+        <v>241</v>
+      </c>
+      <c r="J45" s="406"/>
+      <c r="K45" s="406"/>
+      <c r="L45" s="406"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="403" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="404"/>
-      <c r="D46" s="405" t="n">
+      <c r="B46" s="407" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="408"/>
+      <c r="D46" s="409" t="n">
         <f aca="false">G44+D45</f>
         <v>52.0666666666667</v>
       </c>
-      <c r="E46" s="405"/>
-      <c r="F46" s="405"/>
-      <c r="G46" s="405"/>
-      <c r="H46" s="405"/>
-      <c r="I46" s="398" t="s">
-        <v>233</v>
-      </c>
-      <c r="J46" s="398"/>
-      <c r="K46" s="398"/>
-      <c r="L46" s="398"/>
+      <c r="E46" s="409"/>
+      <c r="F46" s="409"/>
+      <c r="G46" s="409"/>
+      <c r="H46" s="409"/>
+      <c r="I46" s="402" t="s">
+        <v>243</v>
+      </c>
+      <c r="J46" s="402"/>
+      <c r="K46" s="402"/>
+      <c r="L46" s="402"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="395" t="s">
+      <c r="B47" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="395"/>
-      <c r="D47" s="406" t="n">
+      <c r="C47" s="399"/>
+      <c r="D47" s="410" t="n">
         <v>43539</v>
       </c>
-      <c r="E47" s="406"/>
-      <c r="F47" s="406"/>
-      <c r="G47" s="406"/>
-      <c r="H47" s="406"/>
-      <c r="I47" s="398" t="s">
-        <v>225</v>
-      </c>
-      <c r="J47" s="398"/>
-      <c r="K47" s="398"/>
-      <c r="L47" s="398"/>
+      <c r="E47" s="410"/>
+      <c r="F47" s="410"/>
+      <c r="G47" s="410"/>
+      <c r="H47" s="410"/>
+      <c r="I47" s="402" t="s">
+        <v>235</v>
+      </c>
+      <c r="J47" s="402"/>
+      <c r="K47" s="402"/>
+      <c r="L47" s="402"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="408" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="408"/>
-      <c r="D48" s="409" t="s">
-        <v>235</v>
-      </c>
-      <c r="E48" s="409"/>
-      <c r="F48" s="409"/>
-      <c r="G48" s="409"/>
-      <c r="H48" s="409"/>
-      <c r="I48" s="398" t="s">
-        <v>254</v>
-      </c>
-      <c r="J48" s="398"/>
-      <c r="K48" s="398"/>
-      <c r="L48" s="398"/>
+      <c r="B48" s="412" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="412"/>
+      <c r="D48" s="413" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="413"/>
+      <c r="F48" s="413"/>
+      <c r="G48" s="413"/>
+      <c r="H48" s="413"/>
+      <c r="I48" s="402" t="s">
+        <v>264</v>
+      </c>
+      <c r="J48" s="402"/>
+      <c r="K48" s="402"/>
+      <c r="L48" s="402"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="408"/>
-      <c r="C49" s="408"/>
-      <c r="D49" s="409"/>
-      <c r="E49" s="409"/>
-      <c r="F49" s="409"/>
-      <c r="G49" s="409"/>
-      <c r="H49" s="409"/>
-      <c r="I49" s="410"/>
-      <c r="J49" s="410"/>
-      <c r="K49" s="410"/>
-      <c r="L49" s="410"/>
+      <c r="B49" s="412"/>
+      <c r="C49" s="412"/>
+      <c r="D49" s="413"/>
+      <c r="E49" s="413"/>
+      <c r="F49" s="413"/>
+      <c r="G49" s="413"/>
+      <c r="H49" s="413"/>
+      <c r="I49" s="414"/>
+      <c r="J49" s="414"/>
+      <c r="K49" s="414"/>
+      <c r="L49" s="414"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="411"/>
-      <c r="C50" s="412" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="412"/>
-      <c r="E50" s="412"/>
-      <c r="F50" s="412"/>
+      <c r="B50" s="415"/>
+      <c r="C50" s="416" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="416"/>
+      <c r="E50" s="416"/>
+      <c r="F50" s="416"/>
       <c r="G50" s="180" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -13976,668 +14052,665 @@
       <c r="L50" s="180"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="413" t="n">
+      <c r="B51" s="417" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="414" t="s">
-        <v>238</v>
-      </c>
-      <c r="D51" s="415" t="n">
+      <c r="C51" s="418" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E51" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F51" s="416" t="s">
+      <c r="E51" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G51" s="417" t="n">
+      <c r="G51" s="421" t="n">
         <v>7</v>
       </c>
-      <c r="H51" s="417" t="n">
+      <c r="H51" s="421" t="n">
         <v>6</v>
       </c>
-      <c r="I51" s="417" t="n">
+      <c r="I51" s="421" t="n">
         <v>7</v>
       </c>
-      <c r="J51" s="417" t="n">
+      <c r="J51" s="421" t="n">
         <v>6</v>
       </c>
-      <c r="K51" s="417"/>
-      <c r="L51" s="418"/>
+      <c r="K51" s="421"/>
+      <c r="L51" s="422"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="413"/>
-      <c r="C52" s="419" t="s">
-        <v>240</v>
-      </c>
-      <c r="D52" s="420" t="n">
+      <c r="B52" s="417"/>
+      <c r="C52" s="423" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E52" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F52" s="416"/>
-      <c r="G52" s="417"/>
-      <c r="H52" s="417"/>
-      <c r="I52" s="417"/>
-      <c r="J52" s="417"/>
-      <c r="K52" s="417"/>
-      <c r="L52" s="418"/>
+      <c r="E52" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" s="420"/>
+      <c r="G52" s="421"/>
+      <c r="H52" s="421"/>
+      <c r="I52" s="421"/>
+      <c r="J52" s="421"/>
+      <c r="K52" s="421"/>
+      <c r="L52" s="422"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="421" t="n">
+      <c r="B53" s="425" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="415" t="s">
+      <c r="C53" s="419" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" s="426" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="427" t="n">
+        <v>18</v>
+      </c>
+      <c r="H53" s="427" t="n">
+        <v>18</v>
+      </c>
+      <c r="I53" s="427" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" s="427" t="n">
+        <v>16</v>
+      </c>
+      <c r="K53" s="428"/>
+      <c r="L53" s="429"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="425"/>
+      <c r="C54" s="430" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="430" t="n">
+        <v>22</v>
+      </c>
+      <c r="E54" s="430" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="426"/>
+      <c r="G54" s="427"/>
+      <c r="H54" s="427"/>
+      <c r="I54" s="427"/>
+      <c r="J54" s="427"/>
+      <c r="K54" s="428"/>
+      <c r="L54" s="429"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="417" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" s="419" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="H55" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="I55" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="J55" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" s="433"/>
+      <c r="L55" s="434"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="417"/>
+      <c r="C56" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E56" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" s="432"/>
+      <c r="G56" s="421"/>
+      <c r="H56" s="421"/>
+      <c r="I56" s="421"/>
+      <c r="J56" s="421"/>
+      <c r="K56" s="433"/>
+      <c r="L56" s="434"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="425" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" s="419" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="H57" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="I57" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="J57" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="K57" s="433"/>
+      <c r="L57" s="434"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="425"/>
+      <c r="C58" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E58" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F58" s="432"/>
+      <c r="G58" s="421"/>
+      <c r="H58" s="421"/>
+      <c r="I58" s="421"/>
+      <c r="J58" s="421"/>
+      <c r="K58" s="433"/>
+      <c r="L58" s="434"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="417" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" s="437" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" s="437" t="n">
+        <v>20</v>
+      </c>
+      <c r="E59" s="437" t="s">
+        <v>249</v>
+      </c>
+      <c r="F59" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="I59" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="K59" s="433"/>
+      <c r="L59" s="434"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="417"/>
+      <c r="C60" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E60" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" s="420"/>
+      <c r="G60" s="421"/>
+      <c r="H60" s="421"/>
+      <c r="I60" s="421"/>
+      <c r="J60" s="421"/>
+      <c r="K60" s="433"/>
+      <c r="L60" s="434"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="425" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" s="419" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E61" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="H61" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="I61" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="K61" s="433"/>
+      <c r="L61" s="434"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="425"/>
+      <c r="C62" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E62" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" s="432"/>
+      <c r="G62" s="421"/>
+      <c r="H62" s="421"/>
+      <c r="I62" s="421"/>
+      <c r="J62" s="421"/>
+      <c r="K62" s="433"/>
+      <c r="L62" s="434"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" s="419" t="s">
         <v>241</v>
       </c>
-      <c r="D53" s="415" t="n">
+      <c r="D63" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E53" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F53" s="422" t="s">
+      <c r="E63" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G53" s="423" t="n">
+      <c r="G63" s="421" t="n">
+        <v>21</v>
+      </c>
+      <c r="H63" s="421" t="n">
+        <v>25</v>
+      </c>
+      <c r="I63" s="421" t="n">
+        <v>24</v>
+      </c>
+      <c r="J63" s="421" t="n">
+        <v>26</v>
+      </c>
+      <c r="K63" s="433"/>
+      <c r="L63" s="434"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="417"/>
+      <c r="C64" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E64" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F64" s="420"/>
+      <c r="G64" s="421"/>
+      <c r="H64" s="421"/>
+      <c r="I64" s="421"/>
+      <c r="J64" s="421"/>
+      <c r="K64" s="433"/>
+      <c r="L64" s="434"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="425" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" s="419" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E65" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="H65" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="I65" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" s="433"/>
+      <c r="L65" s="434"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="425"/>
+      <c r="C66" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E66" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F66" s="432"/>
+      <c r="G66" s="421"/>
+      <c r="H66" s="421"/>
+      <c r="I66" s="421"/>
+      <c r="J66" s="421"/>
+      <c r="K66" s="433"/>
+      <c r="L66" s="434"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="417" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" s="419" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E67" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F67" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="421" t="n">
         <v>18</v>
       </c>
-      <c r="H53" s="423" t="n">
+      <c r="H67" s="421" t="n">
         <v>18</v>
       </c>
-      <c r="I53" s="423" t="n">
+      <c r="I67" s="421" t="n">
         <v>17</v>
       </c>
-      <c r="J53" s="423" t="n">
-        <v>16</v>
-      </c>
-      <c r="K53" s="424"/>
-      <c r="L53" s="425"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="421"/>
-      <c r="C54" s="426" t="s">
-        <v>240</v>
-      </c>
-      <c r="D54" s="426" t="n">
+      <c r="J67" s="421" t="n">
+        <v>19</v>
+      </c>
+      <c r="K67" s="433"/>
+      <c r="L67" s="434"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="417"/>
+      <c r="C68" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E54" s="426" t="s">
-        <v>239</v>
-      </c>
-      <c r="F54" s="422"/>
-      <c r="G54" s="423"/>
-      <c r="H54" s="423"/>
-      <c r="I54" s="423"/>
-      <c r="J54" s="423"/>
-      <c r="K54" s="424"/>
-      <c r="L54" s="425"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="413" t="n">
-        <v>3</v>
-      </c>
-      <c r="C55" s="415" t="s">
-        <v>242</v>
-      </c>
-      <c r="D55" s="415" t="n">
+      <c r="E68" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F68" s="420"/>
+      <c r="G68" s="421"/>
+      <c r="H68" s="421"/>
+      <c r="I68" s="421"/>
+      <c r="J68" s="421"/>
+      <c r="K68" s="433"/>
+      <c r="L68" s="434"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="425" t="n">
+        <v>10</v>
+      </c>
+      <c r="C69" s="419" t="s">
+        <v>259</v>
+      </c>
+      <c r="D69" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E55" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="428" t="s">
+      <c r="E69" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" s="432" t="s">
         <v>147</v>
       </c>
-      <c r="G55" s="417" t="n">
+      <c r="G69" s="421" t="n">
+        <v>19</v>
+      </c>
+      <c r="H69" s="421" t="n">
+        <v>20</v>
+      </c>
+      <c r="I69" s="421" t="n">
+        <v>19</v>
+      </c>
+      <c r="J69" s="421" t="n">
+        <v>22</v>
+      </c>
+      <c r="K69" s="433"/>
+      <c r="L69" s="434"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="425"/>
+      <c r="C70" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D70" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E70" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F70" s="432"/>
+      <c r="G70" s="421"/>
+      <c r="H70" s="421"/>
+      <c r="I70" s="421"/>
+      <c r="J70" s="421"/>
+      <c r="K70" s="433"/>
+      <c r="L70" s="434"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="H55" s="417" t="n">
+      <c r="C71" s="419" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E71" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F71" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="421" t="n">
+        <v>42</v>
+      </c>
+      <c r="H71" s="421" t="n">
+        <v>51</v>
+      </c>
+      <c r="I71" s="421" t="n">
+        <v>50</v>
+      </c>
+      <c r="J71" s="421" t="n">
+        <v>58</v>
+      </c>
+      <c r="K71" s="433"/>
+      <c r="L71" s="434"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="417"/>
+      <c r="C72" s="436"/>
+      <c r="D72" s="436" t="n">
+        <v>22</v>
+      </c>
+      <c r="E72" s="436" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72" s="420"/>
+      <c r="G72" s="421"/>
+      <c r="H72" s="421"/>
+      <c r="I72" s="421"/>
+      <c r="J72" s="421"/>
+      <c r="K72" s="433"/>
+      <c r="L72" s="434"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="425" t="n">
         <v>12</v>
       </c>
-      <c r="I55" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="J55" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="K55" s="429"/>
-      <c r="L55" s="430"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="413"/>
-      <c r="C56" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" s="431" t="n">
+      <c r="C73" s="438" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="439" t="n">
         <v>22</v>
       </c>
-      <c r="E56" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="428"/>
-      <c r="G56" s="417"/>
-      <c r="H56" s="417"/>
-      <c r="I56" s="417"/>
-      <c r="J56" s="417"/>
-      <c r="K56" s="429"/>
-      <c r="L56" s="430"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="421" t="n">
-        <v>4</v>
-      </c>
-      <c r="C57" s="415" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="415" t="n">
+      <c r="E73" s="439" t="s">
+        <v>249</v>
+      </c>
+      <c r="F73" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="421" t="n">
+        <v>25</v>
+      </c>
+      <c r="H73" s="421" t="n">
+        <v>35</v>
+      </c>
+      <c r="I73" s="421" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" s="421" t="n">
+        <v>38</v>
+      </c>
+      <c r="K73" s="433"/>
+      <c r="L73" s="434"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="425"/>
+      <c r="C74" s="436"/>
+      <c r="D74" s="436" t="n">
         <v>20</v>
       </c>
-      <c r="E57" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F57" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G57" s="417" t="n">
+      <c r="E74" s="436" t="s">
+        <v>249</v>
+      </c>
+      <c r="F74" s="432"/>
+      <c r="G74" s="421"/>
+      <c r="H74" s="421"/>
+      <c r="I74" s="421"/>
+      <c r="J74" s="421"/>
+      <c r="K74" s="433"/>
+      <c r="L74" s="434"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="417" t="n">
         <v>13</v>
       </c>
-      <c r="H57" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="I57" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="J57" s="417" t="n">
-        <v>13</v>
-      </c>
-      <c r="K57" s="429"/>
-      <c r="L57" s="430"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="421"/>
-      <c r="C58" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D58" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E58" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F58" s="428"/>
-      <c r="G58" s="417"/>
-      <c r="H58" s="417"/>
-      <c r="I58" s="417"/>
-      <c r="J58" s="417"/>
-      <c r="K58" s="429"/>
-      <c r="L58" s="430"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="413" t="n">
-        <v>5</v>
-      </c>
-      <c r="C59" s="433" t="s">
-        <v>253</v>
-      </c>
-      <c r="D59" s="433" t="n">
-        <v>20</v>
-      </c>
-      <c r="E59" s="433" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="416" t="s">
+      <c r="C75" s="419" t="s">
+        <v>260</v>
+      </c>
+      <c r="D75" s="419" t="n">
+        <v>120</v>
+      </c>
+      <c r="E75" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F75" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="H59" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="I59" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="J59" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="K59" s="429"/>
-      <c r="L59" s="430"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="413"/>
-      <c r="C60" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E60" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="416"/>
-      <c r="G60" s="417"/>
-      <c r="H60" s="417"/>
-      <c r="I60" s="417"/>
-      <c r="J60" s="417"/>
-      <c r="K60" s="429"/>
-      <c r="L60" s="430"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="421" t="n">
-        <v>6</v>
-      </c>
-      <c r="C61" s="415" t="s">
-        <v>245</v>
-      </c>
-      <c r="D61" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E61" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F61" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="H61" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="I61" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="K61" s="429"/>
-      <c r="L61" s="430"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="421"/>
-      <c r="C62" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E62" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F62" s="428"/>
-      <c r="G62" s="417"/>
-      <c r="H62" s="417"/>
-      <c r="I62" s="417"/>
-      <c r="J62" s="417"/>
-      <c r="K62" s="429"/>
-      <c r="L62" s="430"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="413" t="n">
-        <v>7</v>
-      </c>
-      <c r="C63" s="415" t="s">
-        <v>231</v>
-      </c>
-      <c r="D63" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E63" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F63" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G63" s="417" t="n">
-        <v>21</v>
-      </c>
-      <c r="H63" s="417" t="n">
-        <v>25</v>
-      </c>
-      <c r="I63" s="417" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" s="417" t="n">
-        <v>26</v>
-      </c>
-      <c r="K63" s="429"/>
-      <c r="L63" s="430"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="413"/>
-      <c r="C64" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D64" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E64" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F64" s="416"/>
-      <c r="G64" s="417"/>
-      <c r="H64" s="417"/>
-      <c r="I64" s="417"/>
-      <c r="J64" s="417"/>
-      <c r="K64" s="429"/>
-      <c r="L64" s="430"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="421" t="n">
-        <v>8</v>
-      </c>
-      <c r="C65" s="415" t="s">
-        <v>246</v>
-      </c>
-      <c r="D65" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E65" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F65" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G65" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="H65" s="417" t="n">
-        <v>7</v>
-      </c>
-      <c r="I65" s="417" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="K65" s="429"/>
-      <c r="L65" s="430"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="421"/>
-      <c r="C66" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E66" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" s="428"/>
-      <c r="G66" s="417"/>
-      <c r="H66" s="417"/>
-      <c r="I66" s="417"/>
-      <c r="J66" s="417"/>
-      <c r="K66" s="429"/>
-      <c r="L66" s="430"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="413" t="n">
-        <v>9</v>
-      </c>
-      <c r="C67" s="415" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E67" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F67" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G67" s="417" t="n">
-        <v>18</v>
-      </c>
-      <c r="H67" s="417" t="n">
-        <v>18</v>
-      </c>
-      <c r="I67" s="417" t="n">
-        <v>17</v>
-      </c>
-      <c r="J67" s="417" t="n">
-        <v>19</v>
-      </c>
-      <c r="K67" s="429"/>
-      <c r="L67" s="430"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="413"/>
-      <c r="C68" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E68" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F68" s="416"/>
-      <c r="G68" s="417"/>
-      <c r="H68" s="417"/>
-      <c r="I68" s="417"/>
-      <c r="J68" s="417"/>
-      <c r="K68" s="429"/>
-      <c r="L68" s="430"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="421" t="n">
-        <v>10</v>
-      </c>
-      <c r="C69" s="415" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E69" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F69" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G69" s="417" t="n">
-        <v>19</v>
-      </c>
-      <c r="H69" s="417" t="n">
-        <v>20</v>
-      </c>
-      <c r="I69" s="417" t="n">
-        <v>19</v>
-      </c>
-      <c r="J69" s="417" t="n">
-        <v>22</v>
-      </c>
-      <c r="K69" s="429"/>
-      <c r="L69" s="430"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="421"/>
-      <c r="C70" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D70" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E70" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F70" s="428"/>
-      <c r="G70" s="417"/>
-      <c r="H70" s="417"/>
-      <c r="I70" s="417"/>
-      <c r="J70" s="417"/>
-      <c r="K70" s="429"/>
-      <c r="L70" s="430"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="413" t="n">
-        <v>11</v>
-      </c>
-      <c r="C71" s="415" t="s">
-        <v>256</v>
-      </c>
-      <c r="D71" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E71" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F71" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G71" s="417" t="n">
-        <v>42</v>
-      </c>
-      <c r="H71" s="417" t="n">
-        <v>51</v>
-      </c>
-      <c r="I71" s="417" t="n">
-        <v>50</v>
-      </c>
-      <c r="J71" s="417" t="n">
-        <v>58</v>
-      </c>
-      <c r="K71" s="429"/>
-      <c r="L71" s="430"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="413"/>
-      <c r="C72" s="432"/>
-      <c r="D72" s="432" t="n">
-        <v>22</v>
-      </c>
-      <c r="E72" s="432" t="s">
-        <v>239</v>
-      </c>
-      <c r="F72" s="416"/>
-      <c r="G72" s="417"/>
-      <c r="H72" s="417"/>
-      <c r="I72" s="417"/>
-      <c r="J72" s="417"/>
-      <c r="K72" s="429"/>
-      <c r="L72" s="430"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="421" t="n">
-        <v>12</v>
-      </c>
-      <c r="C73" s="434" t="s">
-        <v>257</v>
-      </c>
-      <c r="D73" s="435" t="n">
-        <v>22</v>
-      </c>
-      <c r="E73" s="435" t="s">
-        <v>239</v>
-      </c>
-      <c r="F73" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G73" s="417" t="n">
-        <v>25</v>
-      </c>
-      <c r="H73" s="417" t="n">
-        <v>35</v>
-      </c>
-      <c r="I73" s="417" t="n">
-        <v>30</v>
-      </c>
-      <c r="J73" s="417" t="n">
-        <v>38</v>
-      </c>
-      <c r="K73" s="429"/>
-      <c r="L73" s="430"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="421"/>
-      <c r="C74" s="432"/>
-      <c r="D74" s="432" t="n">
-        <v>20</v>
-      </c>
-      <c r="E74" s="432" t="s">
-        <v>239</v>
-      </c>
-      <c r="F74" s="428"/>
-      <c r="G74" s="417"/>
-      <c r="H74" s="417"/>
-      <c r="I74" s="417"/>
-      <c r="J74" s="417"/>
-      <c r="K74" s="429"/>
-      <c r="L74" s="430"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="413" t="n">
-        <v>13</v>
-      </c>
-      <c r="C75" s="415" t="s">
-        <v>250</v>
-      </c>
-      <c r="D75" s="415" t="n">
-        <v>120</v>
-      </c>
-      <c r="E75" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F75" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G75" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="H75" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="I75" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="J75" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="K75" s="429"/>
-      <c r="L75" s="430"/>
+      <c r="G75" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="H75" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="I75" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="J75" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="K75" s="433"/>
+      <c r="L75" s="434"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="413"/>
-      <c r="C76" s="432"/>
-      <c r="D76" s="432"/>
-      <c r="E76" s="432"/>
-      <c r="F76" s="416"/>
-      <c r="G76" s="417"/>
-      <c r="H76" s="417"/>
-      <c r="I76" s="417"/>
-      <c r="J76" s="417"/>
-      <c r="K76" s="429"/>
-      <c r="L76" s="430"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B76" s="417"/>
+      <c r="C76" s="436"/>
+      <c r="D76" s="436"/>
+      <c r="E76" s="436"/>
+      <c r="F76" s="420"/>
+      <c r="G76" s="421"/>
+      <c r="H76" s="421"/>
+      <c r="I76" s="421"/>
+      <c r="J76" s="421"/>
+      <c r="K76" s="433"/>
+      <c r="L76" s="434"/>
+    </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>220</v>
-      </c>
-      <c r="G80" s="389" t="s">
-        <v>221</v>
-      </c>
-      <c r="H80" s="389"/>
+        <v>230</v>
+      </c>
+      <c r="G80" s="393" t="s">
+        <v>231</v>
+      </c>
+      <c r="H80" s="393"/>
       <c r="I80" s="358" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -14650,186 +14723,186 @@
       <c r="E81" s="368"/>
       <c r="F81" s="368"/>
       <c r="G81" s="368"/>
-      <c r="H81" s="389"/>
+      <c r="H81" s="393"/>
       <c r="I81" s="358"/>
       <c r="J81" s="358"/>
       <c r="K81" s="358"/>
       <c r="L81" s="358"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="390" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" s="390"/>
-      <c r="D82" s="391" t="n">
+      <c r="B82" s="394" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="394"/>
+      <c r="D82" s="395" t="n">
         <f aca="false">(D91+D92+D93+D94+D99+D100+D107+D108+D103+D104+D111+D112+D115)/60</f>
         <v>6.2</v>
       </c>
-      <c r="E82" s="392" t="s">
-        <v>224</v>
-      </c>
-      <c r="F82" s="392" t="n">
+      <c r="E82" s="396" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" s="396" t="n">
         <v>4</v>
       </c>
-      <c r="G82" s="393" t="n">
+      <c r="G82" s="397" t="n">
         <f aca="false">D82*F82</f>
         <v>24.8</v>
       </c>
-      <c r="H82" s="393"/>
-      <c r="I82" s="394" t="s">
-        <v>253</v>
-      </c>
-      <c r="J82" s="394"/>
-      <c r="K82" s="394"/>
-      <c r="L82" s="394"/>
+      <c r="H82" s="397"/>
+      <c r="I82" s="398" t="s">
+        <v>263</v>
+      </c>
+      <c r="J82" s="398"/>
+      <c r="K82" s="398"/>
+      <c r="L82" s="398"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="395" t="s">
-        <v>226</v>
-      </c>
-      <c r="C83" s="395"/>
-      <c r="D83" s="396" t="n">
+      <c r="B83" s="399" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="399"/>
+      <c r="D83" s="400" t="n">
         <f aca="false">(D95+D110+D96+D97+D98+D101+D102+D105+D106+D109+D110+D113+D114)/60</f>
         <v>4.56666666666667</v>
       </c>
-      <c r="E83" s="392"/>
-      <c r="F83" s="392"/>
-      <c r="G83" s="397" t="n">
+      <c r="E83" s="396"/>
+      <c r="F83" s="396"/>
+      <c r="G83" s="401" t="n">
         <f aca="false">D83*F82</f>
         <v>18.2666666666667</v>
       </c>
-      <c r="H83" s="397"/>
-      <c r="I83" s="398" t="s">
-        <v>227</v>
-      </c>
-      <c r="J83" s="398"/>
-      <c r="K83" s="398"/>
-      <c r="L83" s="398"/>
+      <c r="H83" s="401"/>
+      <c r="I83" s="402" t="s">
+        <v>237</v>
+      </c>
+      <c r="J83" s="402"/>
+      <c r="K83" s="402"/>
+      <c r="L83" s="402"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="395" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="395"/>
-      <c r="D84" s="399" t="n">
+      <c r="B84" s="399" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="399"/>
+      <c r="D84" s="403" t="n">
         <f aca="false">SUM(D82:D83)</f>
         <v>10.7666666666667</v>
       </c>
-      <c r="E84" s="392"/>
-      <c r="F84" s="392"/>
-      <c r="G84" s="400" t="n">
+      <c r="E84" s="396"/>
+      <c r="F84" s="396"/>
+      <c r="G84" s="404" t="n">
         <f aca="false">D84*F82</f>
         <v>43.0666666666667</v>
       </c>
-      <c r="H84" s="400"/>
-      <c r="I84" s="398" t="s">
-        <v>229</v>
-      </c>
-      <c r="J84" s="398"/>
-      <c r="K84" s="398"/>
-      <c r="L84" s="398"/>
+      <c r="H84" s="404"/>
+      <c r="I84" s="402" t="s">
+        <v>239</v>
+      </c>
+      <c r="J84" s="402"/>
+      <c r="K84" s="402"/>
+      <c r="L84" s="402"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="395" t="s">
-        <v>230</v>
-      </c>
-      <c r="C85" s="395"/>
-      <c r="D85" s="401" t="n">
+      <c r="B85" s="399" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="399"/>
+      <c r="D85" s="405" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="E85" s="401"/>
-      <c r="F85" s="401"/>
-      <c r="G85" s="401"/>
-      <c r="H85" s="401"/>
-      <c r="I85" s="402" t="s">
-        <v>231</v>
-      </c>
-      <c r="J85" s="402"/>
-      <c r="K85" s="402"/>
-      <c r="L85" s="402"/>
+      <c r="E85" s="405"/>
+      <c r="F85" s="405"/>
+      <c r="G85" s="405"/>
+      <c r="H85" s="405"/>
+      <c r="I85" s="406" t="s">
+        <v>241</v>
+      </c>
+      <c r="J85" s="406"/>
+      <c r="K85" s="406"/>
+      <c r="L85" s="406"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="403" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="404"/>
-      <c r="D86" s="405" t="n">
+      <c r="B86" s="407" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="408"/>
+      <c r="D86" s="409" t="n">
         <f aca="false">G84+D85</f>
         <v>52.0666666666667</v>
       </c>
-      <c r="E86" s="405"/>
-      <c r="F86" s="405"/>
-      <c r="G86" s="405"/>
-      <c r="H86" s="405"/>
-      <c r="I86" s="398" t="s">
-        <v>233</v>
-      </c>
-      <c r="J86" s="398"/>
-      <c r="K86" s="398"/>
-      <c r="L86" s="398"/>
+      <c r="E86" s="409"/>
+      <c r="F86" s="409"/>
+      <c r="G86" s="409"/>
+      <c r="H86" s="409"/>
+      <c r="I86" s="402" t="s">
+        <v>243</v>
+      </c>
+      <c r="J86" s="402"/>
+      <c r="K86" s="402"/>
+      <c r="L86" s="402"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="395" t="s">
+      <c r="B87" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="395"/>
-      <c r="D87" s="406" t="n">
+      <c r="C87" s="399"/>
+      <c r="D87" s="410" t="n">
         <v>43544</v>
       </c>
-      <c r="E87" s="406"/>
-      <c r="F87" s="406"/>
-      <c r="G87" s="406"/>
-      <c r="H87" s="406"/>
-      <c r="I87" s="398" t="s">
-        <v>225</v>
-      </c>
-      <c r="J87" s="398"/>
-      <c r="K87" s="398"/>
-      <c r="L87" s="398"/>
+      <c r="E87" s="410"/>
+      <c r="F87" s="410"/>
+      <c r="G87" s="410"/>
+      <c r="H87" s="410"/>
+      <c r="I87" s="402" t="s">
+        <v>235</v>
+      </c>
+      <c r="J87" s="402"/>
+      <c r="K87" s="402"/>
+      <c r="L87" s="402"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="408" t="s">
-        <v>234</v>
-      </c>
-      <c r="C88" s="408"/>
-      <c r="D88" s="409" t="s">
-        <v>235</v>
-      </c>
-      <c r="E88" s="409"/>
-      <c r="F88" s="409"/>
-      <c r="G88" s="409"/>
-      <c r="H88" s="409"/>
-      <c r="I88" s="398" t="s">
-        <v>254</v>
-      </c>
-      <c r="J88" s="398"/>
-      <c r="K88" s="398"/>
-      <c r="L88" s="398"/>
+      <c r="B88" s="412" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="412"/>
+      <c r="D88" s="413" t="s">
+        <v>245</v>
+      </c>
+      <c r="E88" s="413"/>
+      <c r="F88" s="413"/>
+      <c r="G88" s="413"/>
+      <c r="H88" s="413"/>
+      <c r="I88" s="402" t="s">
+        <v>264</v>
+      </c>
+      <c r="J88" s="402"/>
+      <c r="K88" s="402"/>
+      <c r="L88" s="402"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="408"/>
-      <c r="C89" s="408"/>
-      <c r="D89" s="409"/>
-      <c r="E89" s="409"/>
-      <c r="F89" s="409"/>
-      <c r="G89" s="409"/>
-      <c r="H89" s="409"/>
-      <c r="I89" s="410"/>
-      <c r="J89" s="410"/>
-      <c r="K89" s="410"/>
-      <c r="L89" s="410"/>
+      <c r="B89" s="412"/>
+      <c r="C89" s="412"/>
+      <c r="D89" s="413"/>
+      <c r="E89" s="413"/>
+      <c r="F89" s="413"/>
+      <c r="G89" s="413"/>
+      <c r="H89" s="413"/>
+      <c r="I89" s="414"/>
+      <c r="J89" s="414"/>
+      <c r="K89" s="414"/>
+      <c r="L89" s="414"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="411"/>
-      <c r="C90" s="412" t="s">
-        <v>236</v>
-      </c>
-      <c r="D90" s="412"/>
-      <c r="E90" s="412"/>
-      <c r="F90" s="412"/>
+      <c r="B90" s="415"/>
+      <c r="C90" s="416" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" s="416"/>
+      <c r="E90" s="416"/>
+      <c r="F90" s="416"/>
       <c r="G90" s="180" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -14838,669 +14911,665 @@
       <c r="L90" s="180"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="413" t="n">
+      <c r="B91" s="417" t="n">
         <v>1</v>
       </c>
-      <c r="C91" s="414" t="s">
-        <v>238</v>
-      </c>
-      <c r="D91" s="415" t="n">
+      <c r="C91" s="418" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E91" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F91" s="416" t="s">
+      <c r="E91" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F91" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G91" s="417" t="n">
+      <c r="G91" s="421" t="n">
         <v>7</v>
       </c>
-      <c r="H91" s="417" t="n">
+      <c r="H91" s="421" t="n">
         <v>6</v>
       </c>
-      <c r="I91" s="417" t="n">
+      <c r="I91" s="421" t="n">
         <v>7</v>
       </c>
-      <c r="J91" s="417" t="n">
+      <c r="J91" s="421" t="n">
         <v>6</v>
       </c>
-      <c r="K91" s="417"/>
-      <c r="L91" s="418"/>
+      <c r="K91" s="421"/>
+      <c r="L91" s="422"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="413"/>
-      <c r="C92" s="419" t="s">
-        <v>240</v>
-      </c>
-      <c r="D92" s="420" t="n">
+      <c r="B92" s="417"/>
+      <c r="C92" s="423" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E92" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F92" s="416"/>
-      <c r="G92" s="417"/>
-      <c r="H92" s="417"/>
-      <c r="I92" s="417"/>
-      <c r="J92" s="417"/>
-      <c r="K92" s="417"/>
-      <c r="L92" s="418"/>
+      <c r="E92" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F92" s="420"/>
+      <c r="G92" s="421"/>
+      <c r="H92" s="421"/>
+      <c r="I92" s="421"/>
+      <c r="J92" s="421"/>
+      <c r="K92" s="421"/>
+      <c r="L92" s="422"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="421" t="n">
+      <c r="B93" s="425" t="n">
         <v>2</v>
       </c>
-      <c r="C93" s="415" t="s">
+      <c r="C93" s="419" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E93" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F93" s="426" t="s">
+        <v>146</v>
+      </c>
+      <c r="G93" s="427" t="n">
+        <v>20</v>
+      </c>
+      <c r="H93" s="427" t="n">
+        <v>18</v>
+      </c>
+      <c r="I93" s="427" t="n">
+        <v>17</v>
+      </c>
+      <c r="J93" s="427" t="n">
+        <v>18</v>
+      </c>
+      <c r="K93" s="428"/>
+      <c r="L93" s="429"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="425"/>
+      <c r="C94" s="430" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" s="430" t="n">
+        <v>22</v>
+      </c>
+      <c r="E94" s="430" t="s">
+        <v>249</v>
+      </c>
+      <c r="F94" s="426"/>
+      <c r="G94" s="427"/>
+      <c r="H94" s="427"/>
+      <c r="I94" s="427"/>
+      <c r="J94" s="427"/>
+      <c r="K94" s="428"/>
+      <c r="L94" s="429"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="417" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" s="419" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E95" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F95" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G95" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="H95" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="I95" s="421" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="K95" s="433"/>
+      <c r="L95" s="434"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="417"/>
+      <c r="C96" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E96" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F96" s="432"/>
+      <c r="G96" s="421"/>
+      <c r="H96" s="421"/>
+      <c r="I96" s="421"/>
+      <c r="J96" s="421"/>
+      <c r="K96" s="433"/>
+      <c r="L96" s="434"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="425" t="n">
+        <v>4</v>
+      </c>
+      <c r="C97" s="419" t="s">
+        <v>253</v>
+      </c>
+      <c r="D97" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E97" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F97" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G97" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="H97" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="I97" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="J97" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="K97" s="433"/>
+      <c r="L97" s="434"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="425"/>
+      <c r="C98" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D98" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E98" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F98" s="432"/>
+      <c r="G98" s="421"/>
+      <c r="H98" s="421"/>
+      <c r="I98" s="421"/>
+      <c r="J98" s="421"/>
+      <c r="K98" s="433"/>
+      <c r="L98" s="434"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="417" t="n">
+        <v>5</v>
+      </c>
+      <c r="C99" s="437" t="s">
+        <v>263</v>
+      </c>
+      <c r="D99" s="437" t="n">
+        <v>20</v>
+      </c>
+      <c r="E99" s="437" t="s">
+        <v>249</v>
+      </c>
+      <c r="F99" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G99" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="H99" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="I99" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="J99" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="K99" s="433"/>
+      <c r="L99" s="434"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="417"/>
+      <c r="C100" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D100" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E100" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F100" s="420"/>
+      <c r="G100" s="421"/>
+      <c r="H100" s="421"/>
+      <c r="I100" s="421"/>
+      <c r="J100" s="421"/>
+      <c r="K100" s="433"/>
+      <c r="L100" s="434"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="425" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" s="419" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F101" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G101" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="H101" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="I101" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="J101" s="421" t="n">
+        <v>15</v>
+      </c>
+      <c r="K101" s="433"/>
+      <c r="L101" s="434"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="425"/>
+      <c r="C102" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D102" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E102" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F102" s="432"/>
+      <c r="G102" s="421"/>
+      <c r="H102" s="421"/>
+      <c r="I102" s="421"/>
+      <c r="J102" s="421"/>
+      <c r="K102" s="433"/>
+      <c r="L102" s="434"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="C103" s="419" t="s">
         <v>241</v>
       </c>
-      <c r="D93" s="415" t="n">
+      <c r="D103" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E93" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F93" s="422" t="s">
+      <c r="E103" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F103" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G93" s="423" t="n">
+      <c r="G103" s="421" t="n">
+        <v>22</v>
+      </c>
+      <c r="H103" s="421" t="n">
+        <v>25</v>
+      </c>
+      <c r="I103" s="421" t="n">
+        <v>28</v>
+      </c>
+      <c r="J103" s="421" t="n">
+        <v>22</v>
+      </c>
+      <c r="K103" s="433"/>
+      <c r="L103" s="434"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="417"/>
+      <c r="C104" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D104" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E104" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F104" s="420"/>
+      <c r="G104" s="421"/>
+      <c r="H104" s="421"/>
+      <c r="I104" s="421"/>
+      <c r="J104" s="421"/>
+      <c r="K104" s="433"/>
+      <c r="L104" s="434"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="425" t="n">
+        <v>8</v>
+      </c>
+      <c r="C105" s="419" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="H93" s="423" t="n">
+      <c r="E105" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F105" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G105" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="H105" s="421" t="n">
+        <v>9</v>
+      </c>
+      <c r="I105" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="J105" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="K105" s="433"/>
+      <c r="L105" s="434"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="425"/>
+      <c r="C106" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D106" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E106" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F106" s="432"/>
+      <c r="G106" s="421"/>
+      <c r="H106" s="421"/>
+      <c r="I106" s="421"/>
+      <c r="J106" s="421"/>
+      <c r="K106" s="433"/>
+      <c r="L106" s="434"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="417" t="n">
+        <v>9</v>
+      </c>
+      <c r="C107" s="419" t="s">
+        <v>258</v>
+      </c>
+      <c r="D107" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E107" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F107" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G107" s="421" t="n">
         <v>18</v>
       </c>
-      <c r="I93" s="423" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" s="423" t="n">
+      <c r="H107" s="421" t="n">
         <v>18</v>
       </c>
-      <c r="K93" s="424"/>
-      <c r="L93" s="425"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="421"/>
-      <c r="C94" s="426" t="s">
-        <v>240</v>
-      </c>
-      <c r="D94" s="426" t="n">
+      <c r="I107" s="421" t="n">
+        <v>20</v>
+      </c>
+      <c r="J107" s="421" t="n">
+        <v>18</v>
+      </c>
+      <c r="K107" s="433"/>
+      <c r="L107" s="434"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="417"/>
+      <c r="C108" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D108" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E94" s="426" t="s">
-        <v>239</v>
-      </c>
-      <c r="F94" s="422"/>
-      <c r="G94" s="423"/>
-      <c r="H94" s="423"/>
-      <c r="I94" s="423"/>
-      <c r="J94" s="423"/>
-      <c r="K94" s="424"/>
-      <c r="L94" s="425"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="413" t="n">
-        <v>3</v>
-      </c>
-      <c r="C95" s="415" t="s">
-        <v>242</v>
-      </c>
-      <c r="D95" s="415" t="n">
+      <c r="E108" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F108" s="420"/>
+      <c r="G108" s="421"/>
+      <c r="H108" s="421"/>
+      <c r="I108" s="421"/>
+      <c r="J108" s="421"/>
+      <c r="K108" s="433"/>
+      <c r="L108" s="434"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="425" t="n">
+        <v>10</v>
+      </c>
+      <c r="C109" s="419" t="s">
+        <v>259</v>
+      </c>
+      <c r="D109" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E95" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F95" s="428" t="s">
+      <c r="E109" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F109" s="432" t="s">
         <v>147</v>
       </c>
-      <c r="G95" s="417" t="n">
+      <c r="G109" s="421" t="n">
+        <v>21</v>
+      </c>
+      <c r="H109" s="421" t="n">
+        <v>20</v>
+      </c>
+      <c r="I109" s="421" t="n">
+        <v>22</v>
+      </c>
+      <c r="J109" s="421" t="n">
+        <v>19</v>
+      </c>
+      <c r="K109" s="433"/>
+      <c r="L109" s="434"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="425"/>
+      <c r="C110" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D110" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E110" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F110" s="432"/>
+      <c r="G110" s="421"/>
+      <c r="H110" s="421"/>
+      <c r="I110" s="421"/>
+      <c r="J110" s="421"/>
+      <c r="K110" s="433"/>
+      <c r="L110" s="434"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="417" t="n">
+        <v>11</v>
+      </c>
+      <c r="C111" s="419" t="s">
+        <v>268</v>
+      </c>
+      <c r="D111" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E111" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F111" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G111" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="H111" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="I111" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="J111" s="421" t="n">
+        <v>6</v>
+      </c>
+      <c r="K111" s="433"/>
+      <c r="L111" s="434"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="417"/>
+      <c r="C112" s="436"/>
+      <c r="D112" s="436" t="n">
+        <v>22</v>
+      </c>
+      <c r="E112" s="436" t="s">
+        <v>249</v>
+      </c>
+      <c r="F112" s="420"/>
+      <c r="G112" s="421"/>
+      <c r="H112" s="421"/>
+      <c r="I112" s="421"/>
+      <c r="J112" s="421"/>
+      <c r="K112" s="433"/>
+      <c r="L112" s="434"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="425" t="n">
         <v>12</v>
       </c>
-      <c r="H95" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="I95" s="417" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="K95" s="429"/>
-      <c r="L95" s="430"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="413"/>
-      <c r="C96" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D96" s="431" t="n">
+      <c r="C113" s="438" t="s">
+        <v>267</v>
+      </c>
+      <c r="D113" s="439" t="n">
         <v>22</v>
       </c>
-      <c r="E96" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F96" s="428"/>
-      <c r="G96" s="417"/>
-      <c r="H96" s="417"/>
-      <c r="I96" s="417"/>
-      <c r="J96" s="417"/>
-      <c r="K96" s="429"/>
-      <c r="L96" s="430"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="421" t="n">
-        <v>4</v>
-      </c>
-      <c r="C97" s="415" t="s">
-        <v>243</v>
-      </c>
-      <c r="D97" s="415" t="n">
+      <c r="E113" s="439" t="s">
+        <v>249</v>
+      </c>
+      <c r="F113" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G113" s="421" t="n">
+        <v>32</v>
+      </c>
+      <c r="H113" s="421" t="n">
+        <v>28</v>
+      </c>
+      <c r="I113" s="421" t="n">
+        <v>30</v>
+      </c>
+      <c r="J113" s="421" t="n">
+        <v>28</v>
+      </c>
+      <c r="K113" s="433"/>
+      <c r="L113" s="434"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="425"/>
+      <c r="C114" s="436"/>
+      <c r="D114" s="436" t="n">
         <v>20</v>
       </c>
-      <c r="E97" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F97" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G97" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="H97" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="I97" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="K97" s="429"/>
-      <c r="L97" s="430"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="421"/>
-      <c r="C98" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D98" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E98" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F98" s="428"/>
-      <c r="G98" s="417"/>
-      <c r="H98" s="417"/>
-      <c r="I98" s="417"/>
-      <c r="J98" s="417"/>
-      <c r="K98" s="429"/>
-      <c r="L98" s="430"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="413" t="n">
-        <v>5</v>
-      </c>
-      <c r="C99" s="433" t="s">
-        <v>253</v>
-      </c>
-      <c r="D99" s="433" t="n">
-        <v>20</v>
-      </c>
-      <c r="E99" s="433" t="s">
-        <v>239</v>
-      </c>
-      <c r="F99" s="416" t="s">
+      <c r="E114" s="436" t="s">
+        <v>249</v>
+      </c>
+      <c r="F114" s="432"/>
+      <c r="G114" s="421"/>
+      <c r="H114" s="421"/>
+      <c r="I114" s="421"/>
+      <c r="J114" s="421"/>
+      <c r="K114" s="433"/>
+      <c r="L114" s="434"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="417" t="n">
+        <v>13</v>
+      </c>
+      <c r="C115" s="419" t="s">
+        <v>260</v>
+      </c>
+      <c r="D115" s="419" t="n">
+        <v>120</v>
+      </c>
+      <c r="E115" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F115" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G99" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="H99" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="I99" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="J99" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="K99" s="429"/>
-      <c r="L99" s="430"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="413"/>
-      <c r="C100" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D100" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E100" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F100" s="416"/>
-      <c r="G100" s="417"/>
-      <c r="H100" s="417"/>
-      <c r="I100" s="417"/>
-      <c r="J100" s="417"/>
-      <c r="K100" s="429"/>
-      <c r="L100" s="430"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="421" t="n">
-        <v>6</v>
-      </c>
-      <c r="C101" s="415" t="s">
-        <v>245</v>
-      </c>
-      <c r="D101" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E101" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F101" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G101" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="H101" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="I101" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" s="417" t="n">
-        <v>15</v>
-      </c>
-      <c r="K101" s="429"/>
-      <c r="L101" s="430"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="421"/>
-      <c r="C102" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D102" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E102" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F102" s="428"/>
-      <c r="G102" s="417"/>
-      <c r="H102" s="417"/>
-      <c r="I102" s="417"/>
-      <c r="J102" s="417"/>
-      <c r="K102" s="429"/>
-      <c r="L102" s="430"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="413" t="n">
-        <v>7</v>
-      </c>
-      <c r="C103" s="415" t="s">
-        <v>231</v>
-      </c>
-      <c r="D103" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E103" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F103" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G103" s="417" t="n">
-        <v>22</v>
-      </c>
-      <c r="H103" s="417" t="n">
-        <v>25</v>
-      </c>
-      <c r="I103" s="417" t="n">
-        <v>28</v>
-      </c>
-      <c r="J103" s="417" t="n">
-        <v>22</v>
-      </c>
-      <c r="K103" s="429"/>
-      <c r="L103" s="430"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="413"/>
-      <c r="C104" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D104" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E104" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F104" s="416"/>
-      <c r="G104" s="417"/>
-      <c r="H104" s="417"/>
-      <c r="I104" s="417"/>
-      <c r="J104" s="417"/>
-      <c r="K104" s="429"/>
-      <c r="L104" s="430"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="421" t="n">
-        <v>8</v>
-      </c>
-      <c r="C105" s="415" t="s">
-        <v>246</v>
-      </c>
-      <c r="D105" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E105" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F105" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G105" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="H105" s="417" t="n">
-        <v>9</v>
-      </c>
-      <c r="I105" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="J105" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="K105" s="429"/>
-      <c r="L105" s="430"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="421"/>
-      <c r="C106" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D106" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E106" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F106" s="428"/>
-      <c r="G106" s="417"/>
-      <c r="H106" s="417"/>
-      <c r="I106" s="417"/>
-      <c r="J106" s="417"/>
-      <c r="K106" s="429"/>
-      <c r="L106" s="430"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="413" t="n">
-        <v>9</v>
-      </c>
-      <c r="C107" s="415" t="s">
-        <v>248</v>
-      </c>
-      <c r="D107" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E107" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F107" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G107" s="417" t="n">
-        <v>18</v>
-      </c>
-      <c r="H107" s="417" t="n">
-        <v>18</v>
-      </c>
-      <c r="I107" s="417" t="n">
-        <v>20</v>
-      </c>
-      <c r="J107" s="417" t="n">
-        <v>18</v>
-      </c>
-      <c r="K107" s="429"/>
-      <c r="L107" s="430"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="413"/>
-      <c r="C108" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D108" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E108" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F108" s="416"/>
-      <c r="G108" s="417"/>
-      <c r="H108" s="417"/>
-      <c r="I108" s="417"/>
-      <c r="J108" s="417"/>
-      <c r="K108" s="429"/>
-      <c r="L108" s="430"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="421" t="n">
-        <v>10</v>
-      </c>
-      <c r="C109" s="415" t="s">
-        <v>249</v>
-      </c>
-      <c r="D109" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E109" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F109" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G109" s="417" t="n">
-        <v>21</v>
-      </c>
-      <c r="H109" s="417" t="n">
-        <v>20</v>
-      </c>
-      <c r="I109" s="417" t="n">
-        <v>22</v>
-      </c>
-      <c r="J109" s="417" t="n">
-        <v>19</v>
-      </c>
-      <c r="K109" s="429"/>
-      <c r="L109" s="430"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="421"/>
-      <c r="C110" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D110" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E110" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F110" s="428"/>
-      <c r="G110" s="417"/>
-      <c r="H110" s="417"/>
-      <c r="I110" s="417"/>
-      <c r="J110" s="417"/>
-      <c r="K110" s="429"/>
-      <c r="L110" s="430"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="413" t="n">
-        <v>11</v>
-      </c>
-      <c r="C111" s="415" t="s">
-        <v>258</v>
-      </c>
-      <c r="D111" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E111" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F111" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G111" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="H111" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="I111" s="417" t="n">
-        <v>7</v>
-      </c>
-      <c r="J111" s="417" t="n">
-        <v>6</v>
-      </c>
-      <c r="K111" s="429"/>
-      <c r="L111" s="430"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="413"/>
-      <c r="C112" s="432"/>
-      <c r="D112" s="432" t="n">
-        <v>22</v>
-      </c>
-      <c r="E112" s="432" t="s">
-        <v>239</v>
-      </c>
-      <c r="F112" s="416"/>
-      <c r="G112" s="417"/>
-      <c r="H112" s="417"/>
-      <c r="I112" s="417"/>
-      <c r="J112" s="417"/>
-      <c r="K112" s="429"/>
-      <c r="L112" s="430"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="421" t="n">
-        <v>12</v>
-      </c>
-      <c r="C113" s="434" t="s">
-        <v>257</v>
-      </c>
-      <c r="D113" s="435" t="n">
-        <v>22</v>
-      </c>
-      <c r="E113" s="435" t="s">
-        <v>239</v>
-      </c>
-      <c r="F113" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G113" s="417" t="n">
-        <v>32</v>
-      </c>
-      <c r="H113" s="417" t="n">
-        <v>28</v>
-      </c>
-      <c r="I113" s="417" t="n">
-        <v>30</v>
-      </c>
-      <c r="J113" s="417" t="n">
-        <v>28</v>
-      </c>
-      <c r="K113" s="429"/>
-      <c r="L113" s="430"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="421"/>
-      <c r="C114" s="432"/>
-      <c r="D114" s="432" t="n">
-        <v>20</v>
-      </c>
-      <c r="E114" s="432" t="s">
-        <v>239</v>
-      </c>
-      <c r="F114" s="428"/>
-      <c r="G114" s="417"/>
-      <c r="H114" s="417"/>
-      <c r="I114" s="417"/>
-      <c r="J114" s="417"/>
-      <c r="K114" s="429"/>
-      <c r="L114" s="430"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="413" t="n">
-        <v>13</v>
-      </c>
-      <c r="C115" s="415" t="s">
-        <v>250</v>
-      </c>
-      <c r="D115" s="415" t="n">
-        <v>120</v>
-      </c>
-      <c r="E115" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F115" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G115" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="H115" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="I115" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="J115" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="K115" s="429"/>
-      <c r="L115" s="430"/>
+      <c r="G115" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="H115" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="I115" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="J115" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="K115" s="433"/>
+      <c r="L115" s="434"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="413"/>
-      <c r="C116" s="432"/>
-      <c r="D116" s="432"/>
-      <c r="E116" s="432"/>
-      <c r="F116" s="416"/>
-      <c r="G116" s="417"/>
-      <c r="H116" s="417"/>
-      <c r="I116" s="417"/>
-      <c r="J116" s="417"/>
-      <c r="K116" s="429"/>
-      <c r="L116" s="430"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B116" s="417"/>
+      <c r="C116" s="436"/>
+      <c r="D116" s="436"/>
+      <c r="E116" s="436"/>
+      <c r="F116" s="420"/>
+      <c r="G116" s="421"/>
+      <c r="H116" s="421"/>
+      <c r="I116" s="421"/>
+      <c r="J116" s="421"/>
+      <c r="K116" s="433"/>
+      <c r="L116" s="434"/>
+    </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>220</v>
-      </c>
-      <c r="G121" s="389" t="s">
-        <v>221</v>
-      </c>
-      <c r="H121" s="389"/>
+        <v>230</v>
+      </c>
+      <c r="G121" s="393" t="s">
+        <v>231</v>
+      </c>
+      <c r="H121" s="393"/>
       <c r="I121" s="358" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -15513,184 +15582,184 @@
       <c r="E122" s="368"/>
       <c r="F122" s="368"/>
       <c r="G122" s="368"/>
-      <c r="H122" s="389"/>
+      <c r="H122" s="393"/>
       <c r="I122" s="358"/>
       <c r="J122" s="358"/>
       <c r="K122" s="358"/>
       <c r="L122" s="358"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="390" t="s">
-        <v>223</v>
-      </c>
-      <c r="C123" s="390"/>
-      <c r="D123" s="391" t="n">
+      <c r="B123" s="394" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" s="394"/>
+      <c r="D123" s="395" t="n">
         <f aca="false">(D132+D133+D134+D135+D140+D141+D148+D149+D144+D145+D152+D153+D156+D157+D158)/60</f>
         <v>7.23333333333333</v>
       </c>
-      <c r="E123" s="392" t="s">
-        <v>224</v>
-      </c>
-      <c r="F123" s="392" t="n">
+      <c r="E123" s="396" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" s="396" t="n">
         <v>4</v>
       </c>
-      <c r="G123" s="393" t="n">
+      <c r="G123" s="397" t="n">
         <f aca="false">D123*F123</f>
         <v>28.9333333333333</v>
       </c>
-      <c r="H123" s="393"/>
-      <c r="I123" s="394"/>
-      <c r="J123" s="394"/>
-      <c r="K123" s="394"/>
-      <c r="L123" s="394"/>
+      <c r="H123" s="397"/>
+      <c r="I123" s="398"/>
+      <c r="J123" s="398"/>
+      <c r="K123" s="398"/>
+      <c r="L123" s="398"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="395" t="s">
-        <v>226</v>
-      </c>
-      <c r="C124" s="395"/>
-      <c r="D124" s="396" t="n">
+      <c r="B124" s="399" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" s="399"/>
+      <c r="D124" s="400" t="n">
         <f aca="false">(D136+D151+D137+D138+D139+D142+D143+D146+D147+D150+D151+D154+D155)/60</f>
         <v>4.56666666666667</v>
       </c>
-      <c r="E124" s="392"/>
-      <c r="F124" s="392"/>
-      <c r="G124" s="397" t="n">
+      <c r="E124" s="396"/>
+      <c r="F124" s="396"/>
+      <c r="G124" s="401" t="n">
         <f aca="false">D124*F123</f>
         <v>18.2666666666667</v>
       </c>
-      <c r="H124" s="397"/>
-      <c r="I124" s="398" t="s">
-        <v>260</v>
-      </c>
-      <c r="J124" s="398"/>
-      <c r="K124" s="398"/>
-      <c r="L124" s="398"/>
+      <c r="H124" s="401"/>
+      <c r="I124" s="402" t="s">
+        <v>270</v>
+      </c>
+      <c r="J124" s="402"/>
+      <c r="K124" s="402"/>
+      <c r="L124" s="402"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="395" t="s">
-        <v>228</v>
-      </c>
-      <c r="C125" s="395"/>
-      <c r="D125" s="399" t="n">
+      <c r="B125" s="399" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" s="399"/>
+      <c r="D125" s="403" t="n">
         <f aca="false">SUM(D123:D124)</f>
         <v>11.8</v>
       </c>
-      <c r="E125" s="392"/>
-      <c r="F125" s="392"/>
-      <c r="G125" s="400" t="n">
+      <c r="E125" s="396"/>
+      <c r="F125" s="396"/>
+      <c r="G125" s="404" t="n">
         <f aca="false">D125*F123</f>
         <v>47.2</v>
       </c>
-      <c r="H125" s="400"/>
-      <c r="I125" s="398" t="s">
-        <v>229</v>
-      </c>
-      <c r="J125" s="398"/>
-      <c r="K125" s="398"/>
-      <c r="L125" s="398"/>
+      <c r="H125" s="404"/>
+      <c r="I125" s="402" t="s">
+        <v>239</v>
+      </c>
+      <c r="J125" s="402"/>
+      <c r="K125" s="402"/>
+      <c r="L125" s="402"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="395" t="s">
-        <v>230</v>
-      </c>
-      <c r="C126" s="395"/>
-      <c r="D126" s="401" t="n">
+      <c r="B126" s="399" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" s="399"/>
+      <c r="D126" s="405" t="n">
         <f aca="false">2+3+4</f>
         <v>9</v>
       </c>
-      <c r="E126" s="401"/>
-      <c r="F126" s="401"/>
-      <c r="G126" s="401"/>
-      <c r="H126" s="401"/>
-      <c r="I126" s="402" t="s">
-        <v>231</v>
-      </c>
-      <c r="J126" s="402"/>
-      <c r="K126" s="402"/>
-      <c r="L126" s="402"/>
+      <c r="E126" s="405"/>
+      <c r="F126" s="405"/>
+      <c r="G126" s="405"/>
+      <c r="H126" s="405"/>
+      <c r="I126" s="406" t="s">
+        <v>241</v>
+      </c>
+      <c r="J126" s="406"/>
+      <c r="K126" s="406"/>
+      <c r="L126" s="406"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="403" t="s">
-        <v>232</v>
-      </c>
-      <c r="C127" s="404"/>
-      <c r="D127" s="405" t="n">
+      <c r="B127" s="407" t="s">
+        <v>242</v>
+      </c>
+      <c r="C127" s="408"/>
+      <c r="D127" s="409" t="n">
         <f aca="false">G125+D126</f>
         <v>56.2</v>
       </c>
-      <c r="E127" s="405"/>
-      <c r="F127" s="405"/>
-      <c r="G127" s="405"/>
-      <c r="H127" s="405"/>
-      <c r="I127" s="398" t="s">
-        <v>233</v>
-      </c>
-      <c r="J127" s="398"/>
-      <c r="K127" s="398"/>
-      <c r="L127" s="398"/>
+      <c r="E127" s="409"/>
+      <c r="F127" s="409"/>
+      <c r="G127" s="409"/>
+      <c r="H127" s="409"/>
+      <c r="I127" s="402" t="s">
+        <v>243</v>
+      </c>
+      <c r="J127" s="402"/>
+      <c r="K127" s="402"/>
+      <c r="L127" s="402"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="395" t="s">
+      <c r="B128" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="C128" s="395"/>
-      <c r="D128" s="406" t="n">
+      <c r="C128" s="399"/>
+      <c r="D128" s="410" t="n">
         <v>43546</v>
       </c>
-      <c r="E128" s="406"/>
-      <c r="F128" s="406"/>
-      <c r="G128" s="406"/>
-      <c r="H128" s="406"/>
-      <c r="I128" s="398" t="s">
-        <v>225</v>
-      </c>
-      <c r="J128" s="398"/>
-      <c r="K128" s="398"/>
-      <c r="L128" s="398"/>
+      <c r="E128" s="410"/>
+      <c r="F128" s="410"/>
+      <c r="G128" s="410"/>
+      <c r="H128" s="410"/>
+      <c r="I128" s="402" t="s">
+        <v>235</v>
+      </c>
+      <c r="J128" s="402"/>
+      <c r="K128" s="402"/>
+      <c r="L128" s="402"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="408" t="s">
-        <v>234</v>
-      </c>
-      <c r="C129" s="408"/>
-      <c r="D129" s="409" t="s">
-        <v>235</v>
-      </c>
-      <c r="E129" s="409"/>
-      <c r="F129" s="409"/>
-      <c r="G129" s="409"/>
-      <c r="H129" s="409"/>
-      <c r="I129" s="398" t="s">
-        <v>254</v>
-      </c>
-      <c r="J129" s="398"/>
-      <c r="K129" s="398"/>
-      <c r="L129" s="398"/>
+      <c r="B129" s="412" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" s="412"/>
+      <c r="D129" s="413" t="s">
+        <v>245</v>
+      </c>
+      <c r="E129" s="413"/>
+      <c r="F129" s="413"/>
+      <c r="G129" s="413"/>
+      <c r="H129" s="413"/>
+      <c r="I129" s="402" t="s">
+        <v>264</v>
+      </c>
+      <c r="J129" s="402"/>
+      <c r="K129" s="402"/>
+      <c r="L129" s="402"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="408"/>
-      <c r="C130" s="408"/>
-      <c r="D130" s="409"/>
-      <c r="E130" s="409"/>
-      <c r="F130" s="409"/>
-      <c r="G130" s="409"/>
-      <c r="H130" s="409"/>
-      <c r="I130" s="410"/>
-      <c r="J130" s="410"/>
-      <c r="K130" s="410"/>
-      <c r="L130" s="410"/>
+      <c r="B130" s="412"/>
+      <c r="C130" s="412"/>
+      <c r="D130" s="413"/>
+      <c r="E130" s="413"/>
+      <c r="F130" s="413"/>
+      <c r="G130" s="413"/>
+      <c r="H130" s="413"/>
+      <c r="I130" s="414"/>
+      <c r="J130" s="414"/>
+      <c r="K130" s="414"/>
+      <c r="L130" s="414"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="411"/>
-      <c r="C131" s="412" t="s">
-        <v>236</v>
-      </c>
-      <c r="D131" s="412"/>
-      <c r="E131" s="412"/>
-      <c r="F131" s="412"/>
+      <c r="B131" s="415"/>
+      <c r="C131" s="416" t="s">
+        <v>246</v>
+      </c>
+      <c r="D131" s="416"/>
+      <c r="E131" s="416"/>
+      <c r="F131" s="416"/>
       <c r="G131" s="180" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -15699,721 +15768,721 @@
       <c r="L131" s="180"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="413" t="n">
+      <c r="B132" s="417" t="n">
         <v>1</v>
       </c>
-      <c r="C132" s="414" t="s">
-        <v>238</v>
-      </c>
-      <c r="D132" s="415" t="n">
+      <c r="C132" s="418" t="s">
+        <v>248</v>
+      </c>
+      <c r="D132" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E132" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F132" s="416" t="s">
+      <c r="E132" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F132" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G132" s="417" t="n">
+      <c r="G132" s="421" t="n">
         <v>7</v>
       </c>
-      <c r="H132" s="417" t="n">
+      <c r="H132" s="421" t="n">
         <v>7</v>
       </c>
-      <c r="I132" s="417" t="n">
+      <c r="I132" s="421" t="n">
         <v>6</v>
       </c>
-      <c r="J132" s="417" t="n">
+      <c r="J132" s="421" t="n">
         <v>6</v>
       </c>
-      <c r="K132" s="417"/>
-      <c r="L132" s="418"/>
+      <c r="K132" s="421"/>
+      <c r="L132" s="422"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="413"/>
-      <c r="C133" s="419" t="s">
-        <v>240</v>
-      </c>
-      <c r="D133" s="420" t="n">
+      <c r="B133" s="417"/>
+      <c r="C133" s="423" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E133" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F133" s="416"/>
-      <c r="G133" s="417"/>
-      <c r="H133" s="417"/>
-      <c r="I133" s="417"/>
-      <c r="J133" s="417"/>
-      <c r="K133" s="417"/>
-      <c r="L133" s="418"/>
+      <c r="E133" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F133" s="420"/>
+      <c r="G133" s="421"/>
+      <c r="H133" s="421"/>
+      <c r="I133" s="421"/>
+      <c r="J133" s="421"/>
+      <c r="K133" s="421"/>
+      <c r="L133" s="422"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="421" t="n">
+      <c r="B134" s="425" t="n">
         <v>2</v>
       </c>
-      <c r="C134" s="415" t="s">
+      <c r="C134" s="419" t="s">
+        <v>251</v>
+      </c>
+      <c r="D134" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E134" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F134" s="426" t="s">
+        <v>146</v>
+      </c>
+      <c r="G134" s="427" t="n">
+        <v>19</v>
+      </c>
+      <c r="H134" s="427" t="n">
+        <v>17</v>
+      </c>
+      <c r="I134" s="427" t="n">
+        <v>19</v>
+      </c>
+      <c r="J134" s="427" t="n">
+        <v>19</v>
+      </c>
+      <c r="K134" s="428"/>
+      <c r="L134" s="429"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="425"/>
+      <c r="C135" s="430" t="s">
+        <v>250</v>
+      </c>
+      <c r="D135" s="430" t="n">
+        <v>22</v>
+      </c>
+      <c r="E135" s="430" t="s">
+        <v>249</v>
+      </c>
+      <c r="F135" s="426"/>
+      <c r="G135" s="427"/>
+      <c r="H135" s="427"/>
+      <c r="I135" s="427"/>
+      <c r="J135" s="427"/>
+      <c r="K135" s="428"/>
+      <c r="L135" s="429"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="417" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" s="419" t="s">
+        <v>252</v>
+      </c>
+      <c r="D136" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E136" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F136" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G136" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="H136" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="I136" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="J136" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="K136" s="433"/>
+      <c r="L136" s="434"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="417"/>
+      <c r="C137" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D137" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E137" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F137" s="432"/>
+      <c r="G137" s="421"/>
+      <c r="H137" s="421"/>
+      <c r="I137" s="421"/>
+      <c r="J137" s="421"/>
+      <c r="K137" s="433"/>
+      <c r="L137" s="434"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="425" t="n">
+        <v>4</v>
+      </c>
+      <c r="C138" s="419" t="s">
+        <v>253</v>
+      </c>
+      <c r="D138" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E138" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F138" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G138" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="H138" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="I138" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="J138" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="K138" s="433"/>
+      <c r="L138" s="434"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="425"/>
+      <c r="C139" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D139" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E139" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F139" s="432"/>
+      <c r="G139" s="421"/>
+      <c r="H139" s="421"/>
+      <c r="I139" s="421"/>
+      <c r="J139" s="421"/>
+      <c r="K139" s="433"/>
+      <c r="L139" s="434"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="417" t="n">
+        <v>5</v>
+      </c>
+      <c r="C140" s="440" t="s">
+        <v>257</v>
+      </c>
+      <c r="D140" s="440" t="n">
+        <v>20</v>
+      </c>
+      <c r="E140" s="440" t="s">
+        <v>249</v>
+      </c>
+      <c r="F140" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G140" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="H140" s="421" t="n">
+        <v>6</v>
+      </c>
+      <c r="I140" s="421" t="n">
+        <v>6</v>
+      </c>
+      <c r="J140" s="421" t="n">
+        <v>5</v>
+      </c>
+      <c r="K140" s="433"/>
+      <c r="L140" s="434"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="417"/>
+      <c r="C141" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E141" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F141" s="420"/>
+      <c r="G141" s="421"/>
+      <c r="H141" s="421"/>
+      <c r="I141" s="421"/>
+      <c r="J141" s="421"/>
+      <c r="K141" s="433"/>
+      <c r="L141" s="434"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="425" t="n">
+        <v>6</v>
+      </c>
+      <c r="C142" s="419" t="s">
+        <v>255</v>
+      </c>
+      <c r="D142" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E142" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F142" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G142" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="H142" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="I142" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="J142" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="K142" s="433"/>
+      <c r="L142" s="434"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="425"/>
+      <c r="C143" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D143" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E143" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F143" s="432"/>
+      <c r="G143" s="421"/>
+      <c r="H143" s="421"/>
+      <c r="I143" s="421"/>
+      <c r="J143" s="421"/>
+      <c r="K143" s="433"/>
+      <c r="L143" s="434"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="C144" s="419" t="s">
         <v>241</v>
       </c>
-      <c r="D134" s="415" t="n">
+      <c r="D144" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E134" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F134" s="422" t="s">
+      <c r="E144" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F144" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G134" s="423" t="n">
-        <v>19</v>
-      </c>
-      <c r="H134" s="423" t="n">
+      <c r="G144" s="421" t="n">
+        <v>25</v>
+      </c>
+      <c r="H144" s="421" t="n">
+        <v>26</v>
+      </c>
+      <c r="I144" s="421" t="n">
+        <v>25</v>
+      </c>
+      <c r="J144" s="421" t="n">
+        <v>21</v>
+      </c>
+      <c r="K144" s="433"/>
+      <c r="L144" s="434"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="417"/>
+      <c r="C145" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D145" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F145" s="420"/>
+      <c r="G145" s="421"/>
+      <c r="H145" s="421"/>
+      <c r="I145" s="421"/>
+      <c r="J145" s="421"/>
+      <c r="K145" s="433"/>
+      <c r="L145" s="434"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="425" t="n">
+        <v>8</v>
+      </c>
+      <c r="C146" s="419" t="s">
+        <v>256</v>
+      </c>
+      <c r="D146" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E146" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F146" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G146" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="H146" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="I146" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="J146" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="K146" s="433"/>
+      <c r="L146" s="434"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="425"/>
+      <c r="C147" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E147" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F147" s="432"/>
+      <c r="G147" s="421"/>
+      <c r="H147" s="421"/>
+      <c r="I147" s="421"/>
+      <c r="J147" s="421"/>
+      <c r="K147" s="433"/>
+      <c r="L147" s="434"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="417" t="n">
+        <v>9</v>
+      </c>
+      <c r="C148" s="419" t="s">
+        <v>258</v>
+      </c>
+      <c r="D148" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E148" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F148" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G148" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="H148" s="421" t="n">
+        <v>16</v>
+      </c>
+      <c r="I148" s="421" t="n">
         <v>17</v>
       </c>
-      <c r="I134" s="423" t="n">
-        <v>19</v>
-      </c>
-      <c r="J134" s="423" t="n">
-        <v>19</v>
-      </c>
-      <c r="K134" s="424"/>
-      <c r="L134" s="425"/>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="421"/>
-      <c r="C135" s="426" t="s">
-        <v>240</v>
-      </c>
-      <c r="D135" s="426" t="n">
+      <c r="J148" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="K148" s="433"/>
+      <c r="L148" s="434"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="417"/>
+      <c r="C149" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D149" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E135" s="426" t="s">
-        <v>239</v>
-      </c>
-      <c r="F135" s="422"/>
-      <c r="G135" s="423"/>
-      <c r="H135" s="423"/>
-      <c r="I135" s="423"/>
-      <c r="J135" s="423"/>
-      <c r="K135" s="424"/>
-      <c r="L135" s="425"/>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="413" t="n">
-        <v>3</v>
-      </c>
-      <c r="C136" s="415" t="s">
-        <v>242</v>
-      </c>
-      <c r="D136" s="415" t="n">
+      <c r="E149" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F149" s="420"/>
+      <c r="G149" s="421"/>
+      <c r="H149" s="421"/>
+      <c r="I149" s="421"/>
+      <c r="J149" s="421"/>
+      <c r="K149" s="433"/>
+      <c r="L149" s="434"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="425" t="n">
+        <v>10</v>
+      </c>
+      <c r="C150" s="419" t="s">
+        <v>259</v>
+      </c>
+      <c r="D150" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E136" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F136" s="428" t="s">
+      <c r="E150" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F150" s="432" t="s">
         <v>147</v>
       </c>
-      <c r="G136" s="417" t="n">
+      <c r="G150" s="421" t="n">
+        <v>20</v>
+      </c>
+      <c r="H150" s="421" t="n">
+        <v>21</v>
+      </c>
+      <c r="I150" s="421" t="n">
+        <v>20</v>
+      </c>
+      <c r="J150" s="421" t="n">
+        <v>20</v>
+      </c>
+      <c r="K150" s="433"/>
+      <c r="L150" s="434"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="425"/>
+      <c r="C151" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D151" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E151" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F151" s="432"/>
+      <c r="G151" s="421"/>
+      <c r="H151" s="421"/>
+      <c r="I151" s="421"/>
+      <c r="J151" s="421"/>
+      <c r="K151" s="433"/>
+      <c r="L151" s="434"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="417" t="n">
+        <v>11</v>
+      </c>
+      <c r="C152" s="419" t="s">
+        <v>271</v>
+      </c>
+      <c r="D152" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E152" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F152" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G152" s="421" t="n">
+        <v>57</v>
+      </c>
+      <c r="H152" s="421" t="n">
+        <v>55</v>
+      </c>
+      <c r="I152" s="421" t="n">
+        <v>42</v>
+      </c>
+      <c r="J152" s="421" t="n">
+        <v>42</v>
+      </c>
+      <c r="K152" s="433"/>
+      <c r="L152" s="434"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="417"/>
+      <c r="C153" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D153" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E153" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F153" s="420"/>
+      <c r="G153" s="421"/>
+      <c r="H153" s="421"/>
+      <c r="I153" s="421"/>
+      <c r="J153" s="421"/>
+      <c r="K153" s="433"/>
+      <c r="L153" s="434"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="425" t="n">
         <v>12</v>
       </c>
-      <c r="H136" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="I136" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="J136" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="K136" s="429"/>
-      <c r="L136" s="430"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="413"/>
-      <c r="C137" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D137" s="431" t="n">
+      <c r="C154" s="438" t="s">
+        <v>267</v>
+      </c>
+      <c r="D154" s="439" t="n">
+        <v>20</v>
+      </c>
+      <c r="E154" s="439" t="s">
+        <v>249</v>
+      </c>
+      <c r="F154" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G154" s="421" t="n">
+        <v>38</v>
+      </c>
+      <c r="H154" s="421" t="n">
+        <v>30</v>
+      </c>
+      <c r="I154" s="421" t="n">
+        <v>40</v>
+      </c>
+      <c r="J154" s="421" t="n">
+        <v>31</v>
+      </c>
+      <c r="K154" s="433"/>
+      <c r="L154" s="434"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="425"/>
+      <c r="C155" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D155" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E137" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F137" s="428"/>
-      <c r="G137" s="417"/>
-      <c r="H137" s="417"/>
-      <c r="I137" s="417"/>
-      <c r="J137" s="417"/>
-      <c r="K137" s="429"/>
-      <c r="L137" s="430"/>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="421" t="n">
-        <v>4</v>
-      </c>
-      <c r="C138" s="415" t="s">
-        <v>243</v>
-      </c>
-      <c r="D138" s="415" t="n">
+      <c r="E155" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F155" s="432"/>
+      <c r="G155" s="421"/>
+      <c r="H155" s="421"/>
+      <c r="I155" s="421"/>
+      <c r="J155" s="421"/>
+      <c r="K155" s="433"/>
+      <c r="L155" s="434"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="417" t="n">
+        <v>13</v>
+      </c>
+      <c r="C156" s="419" t="s">
+        <v>272</v>
+      </c>
+      <c r="D156" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E138" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F138" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G138" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="H138" s="417" t="n">
-        <v>11</v>
-      </c>
-      <c r="I138" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="J138" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="K138" s="429"/>
-      <c r="L138" s="430"/>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="421"/>
-      <c r="C139" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D139" s="431" t="n">
+      <c r="E156" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F156" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G156" s="421" t="n">
+        <v>9</v>
+      </c>
+      <c r="H156" s="421" t="n">
+        <v>10</v>
+      </c>
+      <c r="I156" s="421" t="n">
+        <v>9</v>
+      </c>
+      <c r="J156" s="421" t="n">
+        <v>9</v>
+      </c>
+      <c r="K156" s="433"/>
+      <c r="L156" s="434"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="417"/>
+      <c r="C157" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D157" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E139" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F139" s="428"/>
-      <c r="G139" s="417"/>
-      <c r="H139" s="417"/>
-      <c r="I139" s="417"/>
-      <c r="J139" s="417"/>
-      <c r="K139" s="429"/>
-      <c r="L139" s="430"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="413" t="n">
-        <v>5</v>
-      </c>
-      <c r="C140" s="436" t="s">
-        <v>247</v>
-      </c>
-      <c r="D140" s="436" t="n">
-        <v>20</v>
-      </c>
-      <c r="E140" s="436" t="s">
-        <v>239</v>
-      </c>
-      <c r="F140" s="416" t="s">
+      <c r="E157" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F157" s="420"/>
+      <c r="G157" s="421"/>
+      <c r="H157" s="421"/>
+      <c r="I157" s="421"/>
+      <c r="J157" s="421"/>
+      <c r="K157" s="433"/>
+      <c r="L157" s="434"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="417" t="n">
+        <v>14</v>
+      </c>
+      <c r="C158" s="419" t="s">
+        <v>260</v>
+      </c>
+      <c r="D158" s="419" t="n">
+        <v>140</v>
+      </c>
+      <c r="E158" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F158" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G140" s="417" t="n">
-        <v>7</v>
-      </c>
-      <c r="H140" s="417" t="n">
-        <v>6</v>
-      </c>
-      <c r="I140" s="417" t="n">
-        <v>6</v>
-      </c>
-      <c r="J140" s="417" t="n">
-        <v>5</v>
-      </c>
-      <c r="K140" s="429"/>
-      <c r="L140" s="430"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="413"/>
-      <c r="C141" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D141" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E141" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F141" s="416"/>
-      <c r="G141" s="417"/>
-      <c r="H141" s="417"/>
-      <c r="I141" s="417"/>
-      <c r="J141" s="417"/>
-      <c r="K141" s="429"/>
-      <c r="L141" s="430"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="421" t="n">
-        <v>6</v>
-      </c>
-      <c r="C142" s="415" t="s">
-        <v>245</v>
-      </c>
-      <c r="D142" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E142" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F142" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G142" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="H142" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="I142" s="417" t="n">
-        <v>13</v>
-      </c>
-      <c r="J142" s="417" t="n">
-        <v>13</v>
-      </c>
-      <c r="K142" s="429"/>
-      <c r="L142" s="430"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="421"/>
-      <c r="C143" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D143" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E143" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F143" s="428"/>
-      <c r="G143" s="417"/>
-      <c r="H143" s="417"/>
-      <c r="I143" s="417"/>
-      <c r="J143" s="417"/>
-      <c r="K143" s="429"/>
-      <c r="L143" s="430"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="413" t="n">
-        <v>7</v>
-      </c>
-      <c r="C144" s="415" t="s">
-        <v>231</v>
-      </c>
-      <c r="D144" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E144" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F144" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G144" s="417" t="n">
-        <v>25</v>
-      </c>
-      <c r="H144" s="417" t="n">
-        <v>26</v>
-      </c>
-      <c r="I144" s="417" t="n">
-        <v>25</v>
-      </c>
-      <c r="J144" s="417" t="n">
-        <v>21</v>
-      </c>
-      <c r="K144" s="429"/>
-      <c r="L144" s="430"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="413"/>
-      <c r="C145" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D145" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E145" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F145" s="416"/>
-      <c r="G145" s="417"/>
-      <c r="H145" s="417"/>
-      <c r="I145" s="417"/>
-      <c r="J145" s="417"/>
-      <c r="K145" s="429"/>
-      <c r="L145" s="430"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="421" t="n">
-        <v>8</v>
-      </c>
-      <c r="C146" s="415" t="s">
-        <v>246</v>
-      </c>
-      <c r="D146" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E146" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F146" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G146" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="H146" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="I146" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="J146" s="417" t="n">
-        <v>7</v>
-      </c>
-      <c r="K146" s="429"/>
-      <c r="L146" s="430"/>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="421"/>
-      <c r="C147" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D147" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E147" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F147" s="428"/>
-      <c r="G147" s="417"/>
-      <c r="H147" s="417"/>
-      <c r="I147" s="417"/>
-      <c r="J147" s="417"/>
-      <c r="K147" s="429"/>
-      <c r="L147" s="430"/>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="413" t="n">
-        <v>9</v>
-      </c>
-      <c r="C148" s="415" t="s">
-        <v>248</v>
-      </c>
-      <c r="D148" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E148" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F148" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G148" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="H148" s="417" t="n">
-        <v>16</v>
-      </c>
-      <c r="I148" s="417" t="n">
-        <v>17</v>
-      </c>
-      <c r="J148" s="417" t="n">
-        <v>12</v>
-      </c>
-      <c r="K148" s="429"/>
-      <c r="L148" s="430"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="413"/>
-      <c r="C149" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D149" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E149" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F149" s="416"/>
-      <c r="G149" s="417"/>
-      <c r="H149" s="417"/>
-      <c r="I149" s="417"/>
-      <c r="J149" s="417"/>
-      <c r="K149" s="429"/>
-      <c r="L149" s="430"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="421" t="n">
-        <v>10</v>
-      </c>
-      <c r="C150" s="415" t="s">
-        <v>249</v>
-      </c>
-      <c r="D150" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E150" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F150" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G150" s="417" t="n">
-        <v>20</v>
-      </c>
-      <c r="H150" s="417" t="n">
-        <v>21</v>
-      </c>
-      <c r="I150" s="417" t="n">
-        <v>20</v>
-      </c>
-      <c r="J150" s="417" t="n">
-        <v>20</v>
-      </c>
-      <c r="K150" s="429"/>
-      <c r="L150" s="430"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="421"/>
-      <c r="C151" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D151" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E151" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F151" s="428"/>
-      <c r="G151" s="417"/>
-      <c r="H151" s="417"/>
-      <c r="I151" s="417"/>
-      <c r="J151" s="417"/>
-      <c r="K151" s="429"/>
-      <c r="L151" s="430"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="413" t="n">
-        <v>11</v>
-      </c>
-      <c r="C152" s="415" t="s">
-        <v>261</v>
-      </c>
-      <c r="D152" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E152" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F152" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G152" s="417" t="n">
-        <v>57</v>
-      </c>
-      <c r="H152" s="417" t="n">
-        <v>55</v>
-      </c>
-      <c r="I152" s="417" t="n">
-        <v>42</v>
-      </c>
-      <c r="J152" s="417" t="n">
-        <v>42</v>
-      </c>
-      <c r="K152" s="429"/>
-      <c r="L152" s="430"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="413"/>
-      <c r="C153" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D153" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E153" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F153" s="416"/>
-      <c r="G153" s="417"/>
-      <c r="H153" s="417"/>
-      <c r="I153" s="417"/>
-      <c r="J153" s="417"/>
-      <c r="K153" s="429"/>
-      <c r="L153" s="430"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="421" t="n">
-        <v>12</v>
-      </c>
-      <c r="C154" s="434" t="s">
-        <v>257</v>
-      </c>
-      <c r="D154" s="435" t="n">
-        <v>20</v>
-      </c>
-      <c r="E154" s="435" t="s">
-        <v>239</v>
-      </c>
-      <c r="F154" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G154" s="417" t="n">
-        <v>38</v>
-      </c>
-      <c r="H154" s="417" t="n">
-        <v>30</v>
-      </c>
-      <c r="I154" s="417" t="n">
-        <v>40</v>
-      </c>
-      <c r="J154" s="417" t="n">
-        <v>31</v>
-      </c>
-      <c r="K154" s="429"/>
-      <c r="L154" s="430"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="421"/>
-      <c r="C155" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D155" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E155" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F155" s="428"/>
-      <c r="G155" s="417"/>
-      <c r="H155" s="417"/>
-      <c r="I155" s="417"/>
-      <c r="J155" s="417"/>
-      <c r="K155" s="429"/>
-      <c r="L155" s="430"/>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="413" t="n">
-        <v>13</v>
-      </c>
-      <c r="C156" s="415" t="s">
-        <v>262</v>
-      </c>
-      <c r="D156" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E156" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F156" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G156" s="417" t="n">
-        <v>9</v>
-      </c>
-      <c r="H156" s="417" t="n">
-        <v>10</v>
-      </c>
-      <c r="I156" s="417" t="n">
-        <v>9</v>
-      </c>
-      <c r="J156" s="417" t="n">
-        <v>9</v>
-      </c>
-      <c r="K156" s="429"/>
-      <c r="L156" s="430"/>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="413"/>
-      <c r="C157" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D157" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E157" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F157" s="416"/>
-      <c r="G157" s="417"/>
-      <c r="H157" s="417"/>
-      <c r="I157" s="417"/>
-      <c r="J157" s="417"/>
-      <c r="K157" s="429"/>
-      <c r="L157" s="430"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="413" t="n">
-        <v>14</v>
-      </c>
-      <c r="C158" s="415" t="s">
-        <v>250</v>
-      </c>
-      <c r="D158" s="415" t="n">
-        <v>140</v>
-      </c>
-      <c r="E158" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F158" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G158" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="H158" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="I158" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="J158" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="K158" s="429"/>
-      <c r="L158" s="430"/>
+      <c r="G158" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="H158" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="I158" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="J158" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="K158" s="433"/>
+      <c r="L158" s="434"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="413"/>
-      <c r="C159" s="432"/>
-      <c r="D159" s="432"/>
-      <c r="E159" s="432"/>
-      <c r="F159" s="416"/>
-      <c r="G159" s="417"/>
-      <c r="H159" s="417"/>
-      <c r="I159" s="417"/>
-      <c r="J159" s="417"/>
-      <c r="K159" s="429"/>
-      <c r="L159" s="430"/>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B159" s="417"/>
+      <c r="C159" s="436"/>
+      <c r="D159" s="436"/>
+      <c r="E159" s="436"/>
+      <c r="F159" s="420"/>
+      <c r="G159" s="421"/>
+      <c r="H159" s="421"/>
+      <c r="I159" s="421"/>
+      <c r="J159" s="421"/>
+      <c r="K159" s="433"/>
+      <c r="L159" s="434"/>
+    </row>
+    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>220</v>
-      </c>
-      <c r="G164" s="389" t="s">
-        <v>221</v>
-      </c>
-      <c r="H164" s="389"/>
+        <v>230</v>
+      </c>
+      <c r="G164" s="393" t="s">
+        <v>231</v>
+      </c>
+      <c r="H164" s="393"/>
       <c r="I164" s="358" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -16426,182 +16495,182 @@
       <c r="E165" s="368"/>
       <c r="F165" s="368"/>
       <c r="G165" s="368"/>
-      <c r="H165" s="389"/>
+      <c r="H165" s="393"/>
       <c r="I165" s="358"/>
       <c r="J165" s="358"/>
       <c r="K165" s="358"/>
       <c r="L165" s="358"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="390" t="s">
-        <v>223</v>
-      </c>
-      <c r="C166" s="390"/>
-      <c r="D166" s="391" t="n">
+      <c r="B166" s="394" t="s">
+        <v>233</v>
+      </c>
+      <c r="C166" s="394"/>
+      <c r="D166" s="395" t="n">
         <f aca="false">(D175+D176+D177+D178+D183+D184+D193+D194+D187+D188+D191+D192+D197)/60</f>
         <v>7.2</v>
       </c>
-      <c r="E166" s="392" t="s">
-        <v>224</v>
-      </c>
-      <c r="F166" s="392" t="n">
+      <c r="E166" s="396" t="s">
+        <v>234</v>
+      </c>
+      <c r="F166" s="396" t="n">
         <v>2</v>
       </c>
-      <c r="G166" s="393" t="n">
+      <c r="G166" s="397" t="n">
         <f aca="false">D166*F166</f>
         <v>14.4</v>
       </c>
-      <c r="H166" s="393"/>
-      <c r="I166" s="394" t="s">
-        <v>225</v>
-      </c>
-      <c r="J166" s="394"/>
-      <c r="K166" s="394"/>
-      <c r="L166" s="394"/>
+      <c r="H166" s="397"/>
+      <c r="I166" s="398" t="s">
+        <v>235</v>
+      </c>
+      <c r="J166" s="398"/>
+      <c r="K166" s="398"/>
+      <c r="L166" s="398"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="395" t="s">
-        <v>226</v>
-      </c>
-      <c r="C167" s="395"/>
-      <c r="D167" s="396" t="n">
+      <c r="B167" s="399" t="s">
+        <v>236</v>
+      </c>
+      <c r="C167" s="399"/>
+      <c r="D167" s="400" t="n">
         <f aca="false">(D179+D196+D180+D181+D182+D185+D186+D189+D190+D195+D196)/60</f>
         <v>3.86666666666667</v>
       </c>
-      <c r="E167" s="392"/>
-      <c r="F167" s="392"/>
-      <c r="G167" s="397" t="n">
+      <c r="E167" s="396"/>
+      <c r="F167" s="396"/>
+      <c r="G167" s="401" t="n">
         <f aca="false">D167*F166</f>
         <v>7.73333333333333</v>
       </c>
-      <c r="H167" s="397"/>
-      <c r="I167" s="398" t="s">
-        <v>227</v>
-      </c>
-      <c r="J167" s="398"/>
-      <c r="K167" s="398"/>
-      <c r="L167" s="398"/>
+      <c r="H167" s="401"/>
+      <c r="I167" s="402" t="s">
+        <v>237</v>
+      </c>
+      <c r="J167" s="402"/>
+      <c r="K167" s="402"/>
+      <c r="L167" s="402"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="395" t="s">
-        <v>228</v>
-      </c>
-      <c r="C168" s="395"/>
-      <c r="D168" s="399" t="n">
+      <c r="B168" s="399" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" s="399"/>
+      <c r="D168" s="403" t="n">
         <f aca="false">SUM(D166:D167)</f>
         <v>11.0666666666667</v>
       </c>
-      <c r="E168" s="392"/>
-      <c r="F168" s="392"/>
-      <c r="G168" s="400" t="n">
+      <c r="E168" s="396"/>
+      <c r="F168" s="396"/>
+      <c r="G168" s="404" t="n">
         <f aca="false">D168*F166</f>
         <v>22.1333333333333</v>
       </c>
-      <c r="H168" s="400"/>
-      <c r="I168" s="398" t="s">
-        <v>229</v>
-      </c>
-      <c r="J168" s="398"/>
-      <c r="K168" s="398"/>
-      <c r="L168" s="398"/>
+      <c r="H168" s="404"/>
+      <c r="I168" s="402" t="s">
+        <v>239</v>
+      </c>
+      <c r="J168" s="402"/>
+      <c r="K168" s="402"/>
+      <c r="L168" s="402"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="395" t="s">
-        <v>264</v>
-      </c>
-      <c r="C169" s="395"/>
-      <c r="D169" s="401" t="n">
+      <c r="B169" s="399" t="s">
+        <v>274</v>
+      </c>
+      <c r="C169" s="399"/>
+      <c r="D169" s="405" t="n">
         <f aca="false">2+3</f>
         <v>5</v>
       </c>
-      <c r="E169" s="401"/>
-      <c r="F169" s="401"/>
-      <c r="G169" s="401"/>
-      <c r="H169" s="401"/>
-      <c r="I169" s="402" t="s">
-        <v>231</v>
-      </c>
-      <c r="J169" s="402"/>
-      <c r="K169" s="402"/>
-      <c r="L169" s="402"/>
+      <c r="E169" s="405"/>
+      <c r="F169" s="405"/>
+      <c r="G169" s="405"/>
+      <c r="H169" s="405"/>
+      <c r="I169" s="406" t="s">
+        <v>241</v>
+      </c>
+      <c r="J169" s="406"/>
+      <c r="K169" s="406"/>
+      <c r="L169" s="406"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="403" t="s">
-        <v>232</v>
-      </c>
-      <c r="C170" s="404"/>
-      <c r="D170" s="405" t="n">
+      <c r="B170" s="407" t="s">
+        <v>242</v>
+      </c>
+      <c r="C170" s="408"/>
+      <c r="D170" s="409" t="n">
         <f aca="false">G168+D169</f>
         <v>27.1333333333333</v>
       </c>
-      <c r="E170" s="405"/>
-      <c r="F170" s="405"/>
-      <c r="G170" s="405"/>
-      <c r="H170" s="405"/>
-      <c r="I170" s="398" t="s">
-        <v>233</v>
-      </c>
-      <c r="J170" s="398"/>
-      <c r="K170" s="398"/>
-      <c r="L170" s="398"/>
+      <c r="E170" s="409"/>
+      <c r="F170" s="409"/>
+      <c r="G170" s="409"/>
+      <c r="H170" s="409"/>
+      <c r="I170" s="402" t="s">
+        <v>243</v>
+      </c>
+      <c r="J170" s="402"/>
+      <c r="K170" s="402"/>
+      <c r="L170" s="402"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="395" t="s">
+      <c r="B171" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="C171" s="395"/>
-      <c r="D171" s="437" t="n">
+      <c r="C171" s="399"/>
+      <c r="D171" s="410" t="n">
         <v>43551</v>
       </c>
-      <c r="E171" s="437"/>
-      <c r="F171" s="437"/>
-      <c r="G171" s="437"/>
-      <c r="H171" s="437"/>
-      <c r="I171" s="407"/>
-      <c r="J171" s="407"/>
-      <c r="K171" s="407"/>
-      <c r="L171" s="407"/>
+      <c r="E171" s="410"/>
+      <c r="F171" s="410"/>
+      <c r="G171" s="410"/>
+      <c r="H171" s="410"/>
+      <c r="I171" s="411"/>
+      <c r="J171" s="411"/>
+      <c r="K171" s="411"/>
+      <c r="L171" s="411"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="408" t="s">
-        <v>234</v>
-      </c>
-      <c r="C172" s="408"/>
-      <c r="D172" s="409" t="s">
-        <v>235</v>
-      </c>
-      <c r="E172" s="409"/>
-      <c r="F172" s="409"/>
-      <c r="G172" s="409"/>
-      <c r="H172" s="409"/>
-      <c r="I172" s="407"/>
-      <c r="J172" s="407"/>
-      <c r="K172" s="407"/>
-      <c r="L172" s="407"/>
+      <c r="B172" s="412" t="s">
+        <v>244</v>
+      </c>
+      <c r="C172" s="412"/>
+      <c r="D172" s="413" t="s">
+        <v>245</v>
+      </c>
+      <c r="E172" s="413"/>
+      <c r="F172" s="413"/>
+      <c r="G172" s="413"/>
+      <c r="H172" s="413"/>
+      <c r="I172" s="411"/>
+      <c r="J172" s="411"/>
+      <c r="K172" s="411"/>
+      <c r="L172" s="411"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="408"/>
-      <c r="C173" s="408"/>
-      <c r="D173" s="409"/>
-      <c r="E173" s="409"/>
-      <c r="F173" s="409"/>
-      <c r="G173" s="409"/>
-      <c r="H173" s="409"/>
-      <c r="I173" s="410"/>
-      <c r="J173" s="410"/>
-      <c r="K173" s="410"/>
-      <c r="L173" s="410"/>
+      <c r="B173" s="412"/>
+      <c r="C173" s="412"/>
+      <c r="D173" s="413"/>
+      <c r="E173" s="413"/>
+      <c r="F173" s="413"/>
+      <c r="G173" s="413"/>
+      <c r="H173" s="413"/>
+      <c r="I173" s="414"/>
+      <c r="J173" s="414"/>
+      <c r="K173" s="414"/>
+      <c r="L173" s="414"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="411"/>
-      <c r="C174" s="412" t="s">
-        <v>236</v>
-      </c>
-      <c r="D174" s="412"/>
-      <c r="E174" s="412"/>
-      <c r="F174" s="412"/>
+      <c r="B174" s="415"/>
+      <c r="C174" s="416" t="s">
+        <v>246</v>
+      </c>
+      <c r="D174" s="416"/>
+      <c r="E174" s="416"/>
+      <c r="F174" s="416"/>
       <c r="G174" s="180" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -16610,553 +16679,1389 @@
       <c r="L174" s="180"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="413" t="n">
+      <c r="B175" s="417" t="n">
         <v>1</v>
       </c>
-      <c r="C175" s="414" t="s">
+      <c r="C175" s="418" t="s">
+        <v>248</v>
+      </c>
+      <c r="D175" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E175" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F175" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G175" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="H175" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="I175" s="421"/>
+      <c r="J175" s="421"/>
+      <c r="K175" s="421"/>
+      <c r="L175" s="422"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="417"/>
+      <c r="C176" s="423" t="s">
+        <v>250</v>
+      </c>
+      <c r="D176" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E176" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F176" s="420"/>
+      <c r="G176" s="421"/>
+      <c r="H176" s="421"/>
+      <c r="I176" s="421"/>
+      <c r="J176" s="421"/>
+      <c r="K176" s="421"/>
+      <c r="L176" s="422"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="425" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" s="419" t="s">
+        <v>251</v>
+      </c>
+      <c r="D177" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E177" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F177" s="426" t="s">
+        <v>146</v>
+      </c>
+      <c r="G177" s="427" t="n">
+        <v>16</v>
+      </c>
+      <c r="H177" s="427" t="n">
+        <v>17</v>
+      </c>
+      <c r="I177" s="427"/>
+      <c r="J177" s="427"/>
+      <c r="K177" s="428"/>
+      <c r="L177" s="429"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="425"/>
+      <c r="C178" s="430" t="s">
+        <v>250</v>
+      </c>
+      <c r="D178" s="430" t="n">
+        <v>22</v>
+      </c>
+      <c r="E178" s="430" t="s">
+        <v>249</v>
+      </c>
+      <c r="F178" s="426"/>
+      <c r="G178" s="427"/>
+      <c r="H178" s="427"/>
+      <c r="I178" s="427"/>
+      <c r="J178" s="427"/>
+      <c r="K178" s="428"/>
+      <c r="L178" s="429"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="431" t="n">
+        <v>3</v>
+      </c>
+      <c r="C179" s="419" t="s">
+        <v>252</v>
+      </c>
+      <c r="D179" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E179" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F179" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G179" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="H179" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="I179" s="421"/>
+      <c r="J179" s="421"/>
+      <c r="K179" s="433"/>
+      <c r="L179" s="434"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="431"/>
+      <c r="C180" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D180" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E180" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F180" s="432"/>
+      <c r="G180" s="421"/>
+      <c r="H180" s="421"/>
+      <c r="I180" s="421"/>
+      <c r="J180" s="421"/>
+      <c r="K180" s="433"/>
+      <c r="L180" s="434"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="431" t="n">
+        <v>4</v>
+      </c>
+      <c r="C181" s="419" t="s">
+        <v>253</v>
+      </c>
+      <c r="D181" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E181" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F181" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G181" s="421" t="n">
+        <v>19</v>
+      </c>
+      <c r="H181" s="421" t="n">
+        <v>17</v>
+      </c>
+      <c r="I181" s="421"/>
+      <c r="J181" s="421"/>
+      <c r="K181" s="433"/>
+      <c r="L181" s="434"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="431"/>
+      <c r="C182" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D182" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E182" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F182" s="432"/>
+      <c r="G182" s="421"/>
+      <c r="H182" s="421"/>
+      <c r="I182" s="421"/>
+      <c r="J182" s="421"/>
+      <c r="K182" s="433"/>
+      <c r="L182" s="434"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="431" t="n">
+        <v>5</v>
+      </c>
+      <c r="C183" s="419" t="s">
+        <v>254</v>
+      </c>
+      <c r="D183" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E183" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F183" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G183" s="421" t="n">
+        <v>63</v>
+      </c>
+      <c r="H183" s="421" t="n">
+        <v>55</v>
+      </c>
+      <c r="I183" s="421"/>
+      <c r="J183" s="421"/>
+      <c r="K183" s="433"/>
+      <c r="L183" s="434"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="431"/>
+      <c r="C184" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D184" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E184" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F184" s="420"/>
+      <c r="G184" s="421"/>
+      <c r="H184" s="421"/>
+      <c r="I184" s="421"/>
+      <c r="J184" s="421"/>
+      <c r="K184" s="433"/>
+      <c r="L184" s="434"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="C185" s="419" t="s">
+        <v>255</v>
+      </c>
+      <c r="D185" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E185" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F185" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G185" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="H185" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="I185" s="421"/>
+      <c r="J185" s="421"/>
+      <c r="K185" s="433"/>
+      <c r="L185" s="434"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="431"/>
+      <c r="C186" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D186" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E186" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F186" s="432"/>
+      <c r="G186" s="421"/>
+      <c r="H186" s="421"/>
+      <c r="I186" s="421"/>
+      <c r="J186" s="421"/>
+      <c r="K186" s="433"/>
+      <c r="L186" s="434"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="431" t="n">
+        <v>7</v>
+      </c>
+      <c r="C187" s="419" t="s">
+        <v>241</v>
+      </c>
+      <c r="D187" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E187" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F187" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G187" s="421" t="n">
+        <v>23</v>
+      </c>
+      <c r="H187" s="421" t="n">
+        <v>22</v>
+      </c>
+      <c r="I187" s="421"/>
+      <c r="J187" s="421"/>
+      <c r="K187" s="433"/>
+      <c r="L187" s="434"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="431"/>
+      <c r="C188" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D188" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E188" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F188" s="420"/>
+      <c r="G188" s="421"/>
+      <c r="H188" s="421"/>
+      <c r="I188" s="421"/>
+      <c r="J188" s="421"/>
+      <c r="K188" s="433"/>
+      <c r="L188" s="434"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="431" t="n">
+        <v>8</v>
+      </c>
+      <c r="C189" s="419" t="s">
+        <v>256</v>
+      </c>
+      <c r="D189" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E189" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F189" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G189" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="H189" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="I189" s="421"/>
+      <c r="J189" s="421"/>
+      <c r="K189" s="433"/>
+      <c r="L189" s="434"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="431"/>
+      <c r="C190" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D190" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E190" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F190" s="432"/>
+      <c r="G190" s="421"/>
+      <c r="H190" s="421"/>
+      <c r="I190" s="421"/>
+      <c r="J190" s="421"/>
+      <c r="K190" s="433"/>
+      <c r="L190" s="434"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="431" t="n">
+        <v>9</v>
+      </c>
+      <c r="C191" s="419" t="s">
+        <v>257</v>
+      </c>
+      <c r="D191" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E191" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F191" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G191" s="421" t="n">
+        <v>5</v>
+      </c>
+      <c r="H191" s="421" t="n">
+        <v>6</v>
+      </c>
+      <c r="I191" s="421"/>
+      <c r="J191" s="421"/>
+      <c r="K191" s="433"/>
+      <c r="L191" s="434"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="431"/>
+      <c r="C192" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D192" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E192" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F192" s="420"/>
+      <c r="G192" s="421"/>
+      <c r="H192" s="421"/>
+      <c r="I192" s="421"/>
+      <c r="J192" s="421"/>
+      <c r="K192" s="433"/>
+      <c r="L192" s="434"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="431" t="n">
+        <v>10</v>
+      </c>
+      <c r="C193" s="419" t="s">
+        <v>258</v>
+      </c>
+      <c r="D193" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E193" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F193" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G193" s="421" t="n">
+        <v>63</v>
+      </c>
+      <c r="H193" s="421" t="n">
+        <v>55</v>
+      </c>
+      <c r="I193" s="421"/>
+      <c r="J193" s="421"/>
+      <c r="K193" s="433"/>
+      <c r="L193" s="434"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="431"/>
+      <c r="C194" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D194" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E194" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F194" s="420"/>
+      <c r="G194" s="421"/>
+      <c r="H194" s="421"/>
+      <c r="I194" s="421"/>
+      <c r="J194" s="421"/>
+      <c r="K194" s="433"/>
+      <c r="L194" s="434"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="431" t="n">
+        <v>11</v>
+      </c>
+      <c r="C195" s="419" t="s">
+        <v>259</v>
+      </c>
+      <c r="D195" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E195" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F195" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G195" s="421" t="n">
+        <v>21</v>
+      </c>
+      <c r="H195" s="421" t="n">
+        <v>22</v>
+      </c>
+      <c r="I195" s="421"/>
+      <c r="J195" s="421"/>
+      <c r="K195" s="433"/>
+      <c r="L195" s="434"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="431"/>
+      <c r="C196" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D196" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E196" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F196" s="432"/>
+      <c r="G196" s="421"/>
+      <c r="H196" s="421"/>
+      <c r="I196" s="421"/>
+      <c r="J196" s="421"/>
+      <c r="K196" s="433"/>
+      <c r="L196" s="434"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="431" t="n">
+        <v>12</v>
+      </c>
+      <c r="C197" s="419" t="s">
+        <v>260</v>
+      </c>
+      <c r="D197" s="419" t="n">
+        <v>180</v>
+      </c>
+      <c r="E197" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F197" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G197" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="H197" s="421" t="s">
+        <v>265</v>
+      </c>
+      <c r="I197" s="421"/>
+      <c r="J197" s="421"/>
+      <c r="K197" s="433"/>
+      <c r="L197" s="434"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="431"/>
+      <c r="C198" s="436"/>
+      <c r="D198" s="436"/>
+      <c r="E198" s="436"/>
+      <c r="F198" s="420"/>
+      <c r="G198" s="421"/>
+      <c r="H198" s="421"/>
+      <c r="I198" s="421"/>
+      <c r="J198" s="421"/>
+      <c r="K198" s="433"/>
+      <c r="L198" s="434"/>
+    </row>
+    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B202" s="368"/>
+      <c r="C202" s="368" t="s">
+        <v>269</v>
+      </c>
+      <c r="D202" s="368" t="s">
+        <v>127</v>
+      </c>
+      <c r="E202" s="368" t="s">
+        <v>229</v>
+      </c>
+      <c r="F202" s="368" t="s">
+        <v>230</v>
+      </c>
+      <c r="G202" s="393" t="s">
+        <v>231</v>
+      </c>
+      <c r="H202" s="393"/>
+      <c r="I202" s="358" t="s">
+        <v>232</v>
+      </c>
+      <c r="J202" s="358"/>
+      <c r="K202" s="358"/>
+      <c r="L202" s="358"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="368"/>
+      <c r="C203" s="368"/>
+      <c r="D203" s="368"/>
+      <c r="E203" s="368"/>
+      <c r="F203" s="368"/>
+      <c r="G203" s="368"/>
+      <c r="H203" s="393"/>
+      <c r="I203" s="358"/>
+      <c r="J203" s="358"/>
+      <c r="K203" s="358"/>
+      <c r="L203" s="358"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="394" t="s">
+        <v>233</v>
+      </c>
+      <c r="C204" s="394"/>
+      <c r="D204" s="395" t="e">
+        <f aca="false">(d213j240+D214+D215+D216+D221+D222+D229+D230+D225+D226+D233+D234+#REF!+#REF!+D237)/60</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E204" s="396" t="s">
+        <v>234</v>
+      </c>
+      <c r="F204" s="396" t="n">
+        <v>4</v>
+      </c>
+      <c r="G204" s="397" t="e">
+        <f aca="false">D204*F204</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H204" s="397"/>
+      <c r="I204" s="398"/>
+      <c r="J204" s="398"/>
+      <c r="K204" s="398"/>
+      <c r="L204" s="398"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="399" t="s">
+        <v>236</v>
+      </c>
+      <c r="C205" s="399"/>
+      <c r="D205" s="400" t="n">
+        <f aca="false">(D217+D232+D218+D219+D220+D223+D224+D227+D228+D231+D232+D235+D236)/60</f>
+        <v>4.56666666666667</v>
+      </c>
+      <c r="E205" s="396"/>
+      <c r="F205" s="396"/>
+      <c r="G205" s="401" t="n">
+        <f aca="false">D205*F204</f>
+        <v>18.2666666666667</v>
+      </c>
+      <c r="H205" s="401"/>
+      <c r="I205" s="402" t="s">
+        <v>270</v>
+      </c>
+      <c r="J205" s="402"/>
+      <c r="K205" s="402"/>
+      <c r="L205" s="402"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="399" t="s">
         <v>238</v>
       </c>
-      <c r="D175" s="415" t="n">
+      <c r="C206" s="399"/>
+      <c r="D206" s="403" t="e">
+        <f aca="false">SUM(D204:D205)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E206" s="396"/>
+      <c r="F206" s="396"/>
+      <c r="G206" s="404" t="e">
+        <f aca="false">D206*3a200:amj200f204</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H206" s="404"/>
+      <c r="I206" s="402" t="s">
+        <v>239</v>
+      </c>
+      <c r="J206" s="402"/>
+      <c r="K206" s="402"/>
+      <c r="L206" s="402"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="399" t="s">
+        <v>240</v>
+      </c>
+      <c r="C207" s="399"/>
+      <c r="D207" s="405" t="s">
+        <v>275</v>
+      </c>
+      <c r="E207" s="405"/>
+      <c r="F207" s="405"/>
+      <c r="G207" s="405"/>
+      <c r="H207" s="405"/>
+      <c r="I207" s="406" t="s">
+        <v>241</v>
+      </c>
+      <c r="J207" s="406"/>
+      <c r="K207" s="406"/>
+      <c r="L207" s="406"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="407" t="s">
+        <v>242</v>
+      </c>
+      <c r="C208" s="408"/>
+      <c r="D208" s="409" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E208" s="409"/>
+      <c r="F208" s="409"/>
+      <c r="G208" s="409"/>
+      <c r="H208" s="409"/>
+      <c r="I208" s="402" t="s">
+        <v>243</v>
+      </c>
+      <c r="J208" s="402"/>
+      <c r="K208" s="402"/>
+      <c r="L208" s="402"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="399" t="s">
+        <v>32</v>
+      </c>
+      <c r="C209" s="399"/>
+      <c r="D209" s="410" t="n">
+        <v>43553</v>
+      </c>
+      <c r="E209" s="410"/>
+      <c r="F209" s="410"/>
+      <c r="G209" s="410"/>
+      <c r="H209" s="410"/>
+      <c r="I209" s="402" t="s">
+        <v>235</v>
+      </c>
+      <c r="J209" s="402"/>
+      <c r="K209" s="402"/>
+      <c r="L209" s="402"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="412" t="s">
+        <v>244</v>
+      </c>
+      <c r="C210" s="412"/>
+      <c r="D210" s="413" t="s">
+        <v>245</v>
+      </c>
+      <c r="E210" s="413"/>
+      <c r="F210" s="413"/>
+      <c r="G210" s="413"/>
+      <c r="H210" s="413"/>
+      <c r="I210" s="402" t="s">
+        <v>264</v>
+      </c>
+      <c r="J210" s="402"/>
+      <c r="K210" s="402"/>
+      <c r="L210" s="402"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="412"/>
+      <c r="C211" s="412"/>
+      <c r="D211" s="413"/>
+      <c r="E211" s="413"/>
+      <c r="F211" s="413"/>
+      <c r="G211" s="413"/>
+      <c r="H211" s="413"/>
+      <c r="I211" s="414"/>
+      <c r="J211" s="414"/>
+      <c r="K211" s="414"/>
+      <c r="L211" s="414"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="415"/>
+      <c r="C212" s="416" t="s">
+        <v>246</v>
+      </c>
+      <c r="D212" s="416"/>
+      <c r="E212" s="416"/>
+      <c r="F212" s="416"/>
+      <c r="G212" s="180" t="s">
+        <v>247</v>
+      </c>
+      <c r="H212" s="180"/>
+      <c r="I212" s="180"/>
+      <c r="J212" s="180"/>
+      <c r="K212" s="180"/>
+      <c r="L212" s="180"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="417" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" s="418" t="s">
+        <v>248</v>
+      </c>
+      <c r="D213" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E175" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F175" s="416" t="s">
+      <c r="E213" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F213" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G175" s="417" t="n">
+      <c r="G213" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="H213" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="I213" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="J213" s="421"/>
+      <c r="K213" s="421"/>
+      <c r="L213" s="422"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="417"/>
+      <c r="C214" s="423" t="s">
+        <v>250</v>
+      </c>
+      <c r="D214" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E214" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F214" s="420"/>
+      <c r="G214" s="421"/>
+      <c r="H214" s="421"/>
+      <c r="I214" s="421"/>
+      <c r="J214" s="421"/>
+      <c r="K214" s="421"/>
+      <c r="L214" s="422"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="425" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" s="419" t="s">
+        <v>251</v>
+      </c>
+      <c r="D215" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E215" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F215" s="426" t="s">
+        <v>146</v>
+      </c>
+      <c r="G215" s="427" t="n">
+        <v>16</v>
+      </c>
+      <c r="H215" s="427" t="n">
+        <v>18</v>
+      </c>
+      <c r="I215" s="427" t="n">
+        <v>16</v>
+      </c>
+      <c r="J215" s="427"/>
+      <c r="K215" s="428"/>
+      <c r="L215" s="429"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="425"/>
+      <c r="C216" s="430" t="s">
+        <v>250</v>
+      </c>
+      <c r="D216" s="430" t="n">
+        <v>22</v>
+      </c>
+      <c r="E216" s="430" t="s">
+        <v>249</v>
+      </c>
+      <c r="F216" s="426"/>
+      <c r="G216" s="427"/>
+      <c r="H216" s="427"/>
+      <c r="I216" s="427"/>
+      <c r="J216" s="427"/>
+      <c r="K216" s="428"/>
+      <c r="L216" s="429"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="417" t="n">
+        <v>3</v>
+      </c>
+      <c r="C217" s="419" t="s">
+        <v>252</v>
+      </c>
+      <c r="D217" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E217" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F217" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G217" s="421" t="n">
+        <v>11</v>
+      </c>
+      <c r="H217" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="I217" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="J217" s="421"/>
+      <c r="K217" s="433"/>
+      <c r="L217" s="434"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="417"/>
+      <c r="C218" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D218" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E218" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F218" s="432"/>
+      <c r="G218" s="421"/>
+      <c r="H218" s="421"/>
+      <c r="I218" s="421"/>
+      <c r="J218" s="421"/>
+      <c r="K218" s="433"/>
+      <c r="L218" s="434"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="425" t="n">
+        <v>4</v>
+      </c>
+      <c r="C219" s="419" t="s">
+        <v>253</v>
+      </c>
+      <c r="D219" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E219" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F219" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G219" s="421" t="n">
+        <v>12</v>
+      </c>
+      <c r="H219" s="421" t="n">
+        <v>14</v>
+      </c>
+      <c r="I219" s="421" t="n">
+        <v>13</v>
+      </c>
+      <c r="J219" s="421"/>
+      <c r="K219" s="433"/>
+      <c r="L219" s="434"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="425"/>
+      <c r="C220" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D220" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E220" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F220" s="432"/>
+      <c r="G220" s="421"/>
+      <c r="H220" s="421"/>
+      <c r="I220" s="421"/>
+      <c r="J220" s="421"/>
+      <c r="K220" s="433"/>
+      <c r="L220" s="434"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="417" t="n">
+        <v>5</v>
+      </c>
+      <c r="C221" s="440" t="s">
+        <v>257</v>
+      </c>
+      <c r="D221" s="440" t="n">
+        <v>20</v>
+      </c>
+      <c r="E221" s="440" t="s">
+        <v>249</v>
+      </c>
+      <c r="F221" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G221" s="421" t="n">
+        <v>6</v>
+      </c>
+      <c r="H221" s="421" t="n">
+        <v>6</v>
+      </c>
+      <c r="I221" s="421" t="n">
+        <v>6</v>
+      </c>
+      <c r="J221" s="421"/>
+      <c r="K221" s="433"/>
+      <c r="L221" s="434"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="417"/>
+      <c r="C222" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D222" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E222" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F222" s="420"/>
+      <c r="G222" s="421"/>
+      <c r="H222" s="421"/>
+      <c r="I222" s="421"/>
+      <c r="J222" s="421"/>
+      <c r="K222" s="433"/>
+      <c r="L222" s="434"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="425" t="n">
+        <v>6</v>
+      </c>
+      <c r="C223" s="419" t="s">
+        <v>255</v>
+      </c>
+      <c r="D223" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E223" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F223" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G223" s="421" t="n">
+        <v>15</v>
+      </c>
+      <c r="H223" s="421" t="n">
+        <v>16</v>
+      </c>
+      <c r="I223" s="421" t="n">
+        <v>15</v>
+      </c>
+      <c r="J223" s="421"/>
+      <c r="K223" s="433"/>
+      <c r="L223" s="434"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="425"/>
+      <c r="C224" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D224" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E224" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F224" s="432"/>
+      <c r="G224" s="421"/>
+      <c r="H224" s="421"/>
+      <c r="I224" s="421"/>
+      <c r="J224" s="421"/>
+      <c r="K224" s="433"/>
+      <c r="L224" s="434"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="417" t="n">
+        <v>7</v>
+      </c>
+      <c r="C225" s="419" t="s">
+        <v>241</v>
+      </c>
+      <c r="D225" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E225" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F225" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G225" s="421" t="n">
+        <v>23</v>
+      </c>
+      <c r="H225" s="421" t="n">
+        <v>27</v>
+      </c>
+      <c r="I225" s="421" t="n">
+        <v>27</v>
+      </c>
+      <c r="J225" s="421"/>
+      <c r="K225" s="433"/>
+      <c r="L225" s="434"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="417"/>
+      <c r="C226" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D226" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E226" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F226" s="420"/>
+      <c r="G226" s="421"/>
+      <c r="H226" s="421"/>
+      <c r="I226" s="421"/>
+      <c r="J226" s="421"/>
+      <c r="K226" s="433"/>
+      <c r="L226" s="434"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="425" t="n">
         <v>8</v>
       </c>
-      <c r="H175" s="417" t="n">
+      <c r="C227" s="419" t="s">
+        <v>256</v>
+      </c>
+      <c r="D227" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E227" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F227" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G227" s="421" t="n">
         <v>7</v>
       </c>
-      <c r="I175" s="417"/>
-      <c r="J175" s="417"/>
-      <c r="K175" s="417"/>
-      <c r="L175" s="418"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="413"/>
-      <c r="C176" s="419" t="s">
-        <v>240</v>
-      </c>
-      <c r="D176" s="420" t="n">
+      <c r="H227" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="I227" s="421" t="n">
+        <v>8</v>
+      </c>
+      <c r="J227" s="421"/>
+      <c r="K227" s="433"/>
+      <c r="L227" s="434"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="425"/>
+      <c r="C228" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D228" s="435" t="n">
         <v>22</v>
       </c>
-      <c r="E176" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F176" s="416"/>
-      <c r="G176" s="417"/>
-      <c r="H176" s="417"/>
-      <c r="I176" s="417"/>
-      <c r="J176" s="417"/>
-      <c r="K176" s="417"/>
-      <c r="L176" s="418"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="421" t="n">
-        <v>2</v>
-      </c>
-      <c r="C177" s="415" t="s">
-        <v>241</v>
-      </c>
-      <c r="D177" s="415" t="n">
+      <c r="E228" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F228" s="432"/>
+      <c r="G228" s="421"/>
+      <c r="H228" s="421"/>
+      <c r="I228" s="421"/>
+      <c r="J228" s="421"/>
+      <c r="K228" s="433"/>
+      <c r="L228" s="434"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="417" t="n">
+        <v>9</v>
+      </c>
+      <c r="C229" s="419" t="s">
+        <v>258</v>
+      </c>
+      <c r="D229" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E177" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F177" s="422" t="s">
+      <c r="E229" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F229" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G177" s="423" t="n">
+      <c r="G229" s="421" t="n">
         <v>16</v>
       </c>
-      <c r="H177" s="423" t="n">
+      <c r="H229" s="421" t="n">
         <v>17</v>
       </c>
-      <c r="I177" s="423"/>
-      <c r="J177" s="423"/>
-      <c r="K177" s="424"/>
-      <c r="L177" s="425"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="421"/>
-      <c r="C178" s="426" t="s">
-        <v>240</v>
-      </c>
-      <c r="D178" s="426" t="n">
+      <c r="I229" s="421" t="n">
+        <v>16</v>
+      </c>
+      <c r="J229" s="421"/>
+      <c r="K229" s="433"/>
+      <c r="L229" s="434"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="417"/>
+      <c r="C230" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D230" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E178" s="426" t="s">
-        <v>239</v>
-      </c>
-      <c r="F178" s="422"/>
-      <c r="G178" s="423"/>
-      <c r="H178" s="423"/>
-      <c r="I178" s="423"/>
-      <c r="J178" s="423"/>
-      <c r="K178" s="424"/>
-      <c r="L178" s="425"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="427" t="n">
-        <v>3</v>
-      </c>
-      <c r="C179" s="415" t="s">
-        <v>242</v>
-      </c>
-      <c r="D179" s="415" t="n">
+      <c r="E230" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F230" s="420"/>
+      <c r="G230" s="421"/>
+      <c r="H230" s="421"/>
+      <c r="I230" s="421"/>
+      <c r="J230" s="421"/>
+      <c r="K230" s="433"/>
+      <c r="L230" s="434"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="425" t="n">
+        <v>10</v>
+      </c>
+      <c r="C231" s="419" t="s">
+        <v>259</v>
+      </c>
+      <c r="D231" s="419" t="n">
         <v>20</v>
       </c>
-      <c r="E179" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F179" s="428" t="s">
+      <c r="E231" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F231" s="432" t="s">
         <v>147</v>
       </c>
-      <c r="G179" s="417" t="n">
+      <c r="G231" s="421" t="n">
+        <v>23</v>
+      </c>
+      <c r="H231" s="421" t="n">
+        <v>28</v>
+      </c>
+      <c r="I231" s="421" t="n">
+        <v>24</v>
+      </c>
+      <c r="J231" s="421"/>
+      <c r="K231" s="433"/>
+      <c r="L231" s="434"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="425"/>
+      <c r="C232" s="435" t="s">
+        <v>250</v>
+      </c>
+      <c r="D232" s="435" t="n">
+        <v>22</v>
+      </c>
+      <c r="E232" s="435" t="s">
+        <v>249</v>
+      </c>
+      <c r="F232" s="432"/>
+      <c r="G232" s="421"/>
+      <c r="H232" s="421"/>
+      <c r="I232" s="421"/>
+      <c r="J232" s="421"/>
+      <c r="K232" s="433"/>
+      <c r="L232" s="434"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="417" t="n">
         <v>11</v>
       </c>
-      <c r="H179" s="417" t="n">
+      <c r="C233" s="419" t="s">
+        <v>271</v>
+      </c>
+      <c r="D233" s="419" t="n">
+        <v>20</v>
+      </c>
+      <c r="E233" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F233" s="420" t="s">
+        <v>146</v>
+      </c>
+      <c r="G233" s="421" t="n">
+        <v>64</v>
+      </c>
+      <c r="H233" s="421" t="n">
+        <v>64</v>
+      </c>
+      <c r="I233" s="421" t="n">
+        <v>66</v>
+      </c>
+      <c r="J233" s="421"/>
+      <c r="K233" s="433"/>
+      <c r="L233" s="434"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="417"/>
+      <c r="C234" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D234" s="424" t="n">
+        <v>22</v>
+      </c>
+      <c r="E234" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F234" s="420"/>
+      <c r="G234" s="421"/>
+      <c r="H234" s="421"/>
+      <c r="I234" s="421"/>
+      <c r="J234" s="421"/>
+      <c r="K234" s="433"/>
+      <c r="L234" s="434"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="425" t="n">
         <v>12</v>
       </c>
-      <c r="I179" s="417"/>
-      <c r="J179" s="417"/>
-      <c r="K179" s="429"/>
-      <c r="L179" s="430"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="427"/>
-      <c r="C180" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D180" s="431" t="n">
+      <c r="C235" s="438" t="s">
+        <v>267</v>
+      </c>
+      <c r="D235" s="439" t="n">
+        <v>20</v>
+      </c>
+      <c r="E235" s="439" t="s">
+        <v>249</v>
+      </c>
+      <c r="F235" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="G235" s="421" t="n">
+        <v>40</v>
+      </c>
+      <c r="H235" s="421" t="n">
+        <v>36</v>
+      </c>
+      <c r="I235" s="421" t="n">
+        <v>41</v>
+      </c>
+      <c r="J235" s="421"/>
+      <c r="K235" s="433"/>
+      <c r="L235" s="434"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="425"/>
+      <c r="C236" s="424" t="s">
+        <v>250</v>
+      </c>
+      <c r="D236" s="424" t="n">
         <v>22</v>
       </c>
-      <c r="E180" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F180" s="428"/>
-      <c r="G180" s="417"/>
-      <c r="H180" s="417"/>
-      <c r="I180" s="417"/>
-      <c r="J180" s="417"/>
-      <c r="K180" s="429"/>
-      <c r="L180" s="430"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="427" t="n">
-        <v>4</v>
-      </c>
-      <c r="C181" s="415" t="s">
-        <v>243</v>
-      </c>
-      <c r="D181" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E181" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F181" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G181" s="417" t="n">
-        <v>19</v>
-      </c>
-      <c r="H181" s="417" t="n">
-        <v>17</v>
-      </c>
-      <c r="I181" s="417"/>
-      <c r="J181" s="417"/>
-      <c r="K181" s="429"/>
-      <c r="L181" s="430"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="427"/>
-      <c r="C182" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D182" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E182" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F182" s="428"/>
-      <c r="G182" s="417"/>
-      <c r="H182" s="417"/>
-      <c r="I182" s="417"/>
-      <c r="J182" s="417"/>
-      <c r="K182" s="429"/>
-      <c r="L182" s="430"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="427" t="n">
-        <v>5</v>
-      </c>
-      <c r="C183" s="415" t="s">
-        <v>244</v>
-      </c>
-      <c r="D183" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E183" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F183" s="416" t="s">
+      <c r="E236" s="424" t="s">
+        <v>249</v>
+      </c>
+      <c r="F236" s="432"/>
+      <c r="G236" s="421"/>
+      <c r="H236" s="421"/>
+      <c r="I236" s="421"/>
+      <c r="J236" s="421"/>
+      <c r="K236" s="433"/>
+      <c r="L236" s="434"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="417" t="n">
+        <v>13</v>
+      </c>
+      <c r="C237" s="419" t="s">
+        <v>260</v>
+      </c>
+      <c r="D237" s="419" t="n">
+        <v>120</v>
+      </c>
+      <c r="E237" s="419" t="s">
+        <v>249</v>
+      </c>
+      <c r="F237" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="G183" s="417" t="n">
-        <v>63</v>
-      </c>
-      <c r="H183" s="417" t="n">
-        <v>55</v>
-      </c>
-      <c r="I183" s="417"/>
-      <c r="J183" s="417"/>
-      <c r="K183" s="429"/>
-      <c r="L183" s="430"/>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="427"/>
-      <c r="C184" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D184" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E184" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F184" s="416"/>
-      <c r="G184" s="417"/>
-      <c r="H184" s="417"/>
-      <c r="I184" s="417"/>
-      <c r="J184" s="417"/>
-      <c r="K184" s="429"/>
-      <c r="L184" s="430"/>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="427" t="n">
-        <v>6</v>
-      </c>
-      <c r="C185" s="415" t="s">
-        <v>245</v>
-      </c>
-      <c r="D185" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E185" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F185" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G185" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="H185" s="417" t="n">
-        <v>14</v>
-      </c>
-      <c r="I185" s="417"/>
-      <c r="J185" s="417"/>
-      <c r="K185" s="429"/>
-      <c r="L185" s="430"/>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="427"/>
-      <c r="C186" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D186" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E186" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F186" s="428"/>
-      <c r="G186" s="417"/>
-      <c r="H186" s="417"/>
-      <c r="I186" s="417"/>
-      <c r="J186" s="417"/>
-      <c r="K186" s="429"/>
-      <c r="L186" s="430"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="427" t="n">
-        <v>7</v>
-      </c>
-      <c r="C187" s="415" t="s">
-        <v>231</v>
-      </c>
-      <c r="D187" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E187" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F187" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G187" s="417" t="n">
-        <v>23</v>
-      </c>
-      <c r="H187" s="417" t="n">
-        <v>22</v>
-      </c>
-      <c r="I187" s="417"/>
-      <c r="J187" s="417"/>
-      <c r="K187" s="429"/>
-      <c r="L187" s="430"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="427"/>
-      <c r="C188" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D188" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E188" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F188" s="416"/>
-      <c r="G188" s="417"/>
-      <c r="H188" s="417"/>
-      <c r="I188" s="417"/>
-      <c r="J188" s="417"/>
-      <c r="K188" s="429"/>
-      <c r="L188" s="430"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="427" t="n">
-        <v>8</v>
-      </c>
-      <c r="C189" s="415" t="s">
-        <v>246</v>
-      </c>
-      <c r="D189" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E189" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F189" s="428" t="s">
-        <v>147</v>
-      </c>
-      <c r="G189" s="417" t="n">
-        <v>8</v>
-      </c>
-      <c r="H189" s="417" t="n">
-        <v>7</v>
-      </c>
-      <c r="I189" s="417"/>
-      <c r="J189" s="417"/>
-      <c r="K189" s="429"/>
-      <c r="L189" s="430"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="427"/>
-      <c r="C190" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D190" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E190" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F190" s="428"/>
-      <c r="G190" s="417"/>
-      <c r="H190" s="417"/>
-      <c r="I190" s="417"/>
-      <c r="J190" s="417"/>
-      <c r="K190" s="429"/>
-      <c r="L190" s="430"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="427" t="n">
-        <v>9</v>
-      </c>
-      <c r="C191" s="415" t="s">
-        <v>247</v>
-      </c>
-      <c r="D191" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E191" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F191" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G191" s="417" t="n">
-        <v>5</v>
-      </c>
-      <c r="H191" s="417" t="n">
-        <v>6</v>
-      </c>
-      <c r="I191" s="417"/>
-      <c r="J191" s="417"/>
-      <c r="K191" s="429"/>
-      <c r="L191" s="430"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="427"/>
-      <c r="C192" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D192" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E192" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F192" s="416"/>
-      <c r="G192" s="417"/>
-      <c r="H192" s="417"/>
-      <c r="I192" s="417"/>
-      <c r="J192" s="417"/>
-      <c r="K192" s="429"/>
-      <c r="L192" s="430"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="427" t="n">
-        <v>10</v>
-      </c>
-      <c r="C193" s="415" t="s">
-        <v>248</v>
-      </c>
-      <c r="D193" s="415" t="n">
-        <v>20</v>
-      </c>
-      <c r="E193" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F193" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G193" s="417" t="n">
-        <v>63</v>
-      </c>
-      <c r="H193" s="417" t="n">
-        <v>55</v>
-      </c>
-      <c r="I193" s="417"/>
-      <c r="J193" s="417"/>
-      <c r="K193" s="429"/>
-      <c r="L193" s="430"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="427"/>
-      <c r="C194" s="420" t="s">
-        <v>240</v>
-      </c>
-      <c r="D194" s="420" t="n">
-        <v>22</v>
-      </c>
-      <c r="E194" s="420" t="s">
-        <v>239</v>
-      </c>
-      <c r="F194" s="416"/>
-      <c r="G194" s="417"/>
-      <c r="H194" s="417"/>
-      <c r="I194" s="417"/>
-      <c r="J194" s="417"/>
-      <c r="K194" s="429"/>
-      <c r="L194" s="430"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="427" t="n">
-        <v>11</v>
-      </c>
-      <c r="C195" s="438" t="s">
-        <v>249</v>
-      </c>
-      <c r="D195" s="438" t="n">
-        <v>20</v>
-      </c>
-      <c r="E195" s="438" t="s">
-        <v>239</v>
-      </c>
-      <c r="F195" s="439" t="s">
-        <v>147</v>
-      </c>
-      <c r="G195" s="417" t="n">
-        <v>21</v>
-      </c>
-      <c r="H195" s="417" t="n">
-        <v>22</v>
-      </c>
-      <c r="I195" s="417"/>
-      <c r="J195" s="417"/>
-      <c r="K195" s="429"/>
-      <c r="L195" s="430"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="427"/>
-      <c r="C196" s="431" t="s">
-        <v>240</v>
-      </c>
-      <c r="D196" s="431" t="n">
-        <v>22</v>
-      </c>
-      <c r="E196" s="431" t="s">
-        <v>239</v>
-      </c>
-      <c r="F196" s="439"/>
-      <c r="G196" s="417"/>
-      <c r="H196" s="417"/>
-      <c r="I196" s="417"/>
-      <c r="J196" s="417"/>
-      <c r="K196" s="429"/>
-      <c r="L196" s="430"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="427" t="n">
-        <v>12</v>
-      </c>
-      <c r="C197" s="415" t="s">
-        <v>250</v>
-      </c>
-      <c r="D197" s="415" t="n">
-        <v>180</v>
-      </c>
-      <c r="E197" s="415" t="s">
-        <v>239</v>
-      </c>
-      <c r="F197" s="416" t="s">
-        <v>146</v>
-      </c>
-      <c r="G197" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="H197" s="417" t="s">
-        <v>255</v>
-      </c>
-      <c r="I197" s="417"/>
-      <c r="J197" s="417"/>
-      <c r="K197" s="429"/>
-      <c r="L197" s="430"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="427"/>
-      <c r="C198" s="432"/>
-      <c r="D198" s="432"/>
-      <c r="E198" s="432"/>
-      <c r="F198" s="416"/>
-      <c r="G198" s="417"/>
-      <c r="H198" s="417"/>
-      <c r="I198" s="417"/>
-      <c r="J198" s="417"/>
-      <c r="K198" s="429"/>
-      <c r="L198" s="430"/>
+      <c r="G237" s="441" t="s">
+        <v>265</v>
+      </c>
+      <c r="H237" s="441" t="s">
+        <v>265</v>
+      </c>
+      <c r="I237" s="441" t="s">
+        <v>265</v>
+      </c>
+      <c r="J237" s="441"/>
+      <c r="K237" s="433"/>
+      <c r="L237" s="434"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="417"/>
+      <c r="C238" s="436"/>
+      <c r="D238" s="436"/>
+      <c r="E238" s="436"/>
+      <c r="F238" s="420"/>
+      <c r="G238" s="441"/>
+      <c r="H238" s="441"/>
+      <c r="I238" s="441"/>
+      <c r="J238" s="441"/>
+      <c r="K238" s="433"/>
+      <c r="L238" s="434"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="808">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -17829,6 +18734,142 @@
     <mergeCell ref="J197:J198"/>
     <mergeCell ref="K197:K198"/>
     <mergeCell ref="L197:L198"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:H203"/>
+    <mergeCell ref="I202:L203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="E204:E206"/>
+    <mergeCell ref="F204:F206"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="I204:L204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="I205:L205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="I206:L206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:H207"/>
+    <mergeCell ref="I207:L207"/>
+    <mergeCell ref="D208:H208"/>
+    <mergeCell ref="I208:L208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:L209"/>
+    <mergeCell ref="B210:C211"/>
+    <mergeCell ref="D210:H211"/>
+    <mergeCell ref="I210:L210"/>
+    <mergeCell ref="I211:L211"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="G212:L212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="I215:I216"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="K215:K216"/>
+    <mergeCell ref="L215:L216"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="I217:I218"/>
+    <mergeCell ref="J217:J218"/>
+    <mergeCell ref="K217:K218"/>
+    <mergeCell ref="L217:L218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="J221:J222"/>
+    <mergeCell ref="K221:K222"/>
+    <mergeCell ref="L221:L222"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="I223:I224"/>
+    <mergeCell ref="J223:J224"/>
+    <mergeCell ref="K223:K224"/>
+    <mergeCell ref="L223:L224"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="H225:H226"/>
+    <mergeCell ref="I225:I226"/>
+    <mergeCell ref="J225:J226"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="L225:L226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="I227:I228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="G229:G230"/>
+    <mergeCell ref="H229:H230"/>
+    <mergeCell ref="I229:I230"/>
+    <mergeCell ref="J229:J230"/>
+    <mergeCell ref="K229:K230"/>
+    <mergeCell ref="L229:L230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="F231:F232"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="I231:I232"/>
+    <mergeCell ref="J231:J232"/>
+    <mergeCell ref="K231:K232"/>
+    <mergeCell ref="L231:L232"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="F233:F234"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="H233:H234"/>
+    <mergeCell ref="I233:I234"/>
+    <mergeCell ref="J233:J234"/>
+    <mergeCell ref="K233:K234"/>
+    <mergeCell ref="L233:L234"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="F235:F236"/>
+    <mergeCell ref="G235:G236"/>
+    <mergeCell ref="H235:H236"/>
+    <mergeCell ref="I235:I236"/>
+    <mergeCell ref="J235:J236"/>
+    <mergeCell ref="K235:K236"/>
+    <mergeCell ref="L235:L236"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="F237:F238"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="I237:I238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="L237:L238"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -17,11 +17,12 @@
     <sheet name="Ц1Н3" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Ц1Н4" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Ц2Н1" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="СИ комплексы" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Лист2" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Ц2Н2" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="СИ комплексы" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Лист2" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="318">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -768,6 +769,21 @@
   </si>
   <si>
     <t xml:space="preserve">Утром силовая 20 минут, затем пробежка 20 км в лесу за работой. Бежать было тяжело. Долго, нудно. Не знаю в чем причина, не бежалось. После пробежки проехала в 23 мкр, и сделала новую программу. 3 круга + пресс, руки, подтягивания и т.д. Все вместе – час с лишним. Кушать пересталось хотеть после 3 часов тренировок. Аппетит вернулся только ночью, хотя была без обеда. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДИС(50)+ГРИ(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДИС(45)+ГРИ(15)+ОСИ/ССИ (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДИС(45) +ССИ/ОСИ (60)+СОРЕВ(14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВД(166)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ССИ/ОСИ (30)</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -1015,7 +1031,7 @@
     <numFmt numFmtId="172" formatCode="0"/>
     <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1144,8 +1160,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1159,11 +1174,6 @@
       <sz val="9"/>
       <color rgb="FFD9D9D9"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -2553,23 +2563,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2585,11 +2595,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="24" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2613,11 +2623,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3157,23 +3167,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="21" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="21" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="21" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="21" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="8" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="22" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="22" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3193,7 +3203,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3205,23 +3215,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="21" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="21" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="21" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="21" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="8" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="22" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="22" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3229,23 +3239,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="30" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="29" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="30" fillId="21" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="29" fillId="21" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="30" fillId="8" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="29" fillId="8" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="30" fillId="2" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="29" fillId="2" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="30" fillId="22" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="29" fillId="22" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3253,7 +3263,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3390,11 +3400,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3525,70 +3535,70 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3597,11 +3607,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3609,7 +3619,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3690,7 +3700,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3916,12 +3926,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="71883845"/>
-        <c:axId val="56463068"/>
+        <c:axId val="18562768"/>
+        <c:axId val="65386299"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71883845"/>
+        <c:axId val="18562768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,14 +3964,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56463068"/>
+        <c:crossAx val="65386299"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56463068"/>
+        <c:axId val="65386299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4042,7 +4052,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71883845"/>
+        <c:crossAx val="18562768"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4085,9 +4095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4096,7 +4106,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4390560" cy="2649600"/>
+        <a:ext cx="4390920" cy="2649240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4555,6 +4565,750 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="331" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="332" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="333" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="335" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="335" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="335" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="335" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="336" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="336" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="337" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="331"/>
+      <c r="B2" s="338" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="339" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="341" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="341" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="341" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="341" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="342" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="342" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="343" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="331"/>
+      <c r="B3" s="344" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="345" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="346" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="347" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="347" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="347" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="347" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="348" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="348" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="349" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="331"/>
+      <c r="B4" s="350" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="351" t="n">
+        <v>166</v>
+      </c>
+      <c r="D4" s="352" t="n">
+        <v>142</v>
+      </c>
+      <c r="E4" s="353" t="n">
+        <f aca="false">'[1]понедельный план тр-к '!H21</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="353" t="n">
+        <f aca="false">'[1]понедельный план тр-к '!H24</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="353" t="n">
+        <f aca="false">'[1]понедельный план тр-к '!H27</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="353" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="354" t="n">
+        <v>71</v>
+      </c>
+      <c r="J4" s="354" t="n">
+        <v>47</v>
+      </c>
+      <c r="K4" s="355" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="356"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="357"/>
+      <c r="G5" s="357"/>
+      <c r="H5" s="357"/>
+      <c r="I5" s="357"/>
+      <c r="J5" s="357"/>
+      <c r="K5" s="357"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="358" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="358"/>
+      <c r="C6" s="358"/>
+      <c r="D6" s="358"/>
+      <c r="E6" s="358"/>
+      <c r="F6" s="358"/>
+      <c r="G6" s="358"/>
+      <c r="H6" s="358"/>
+      <c r="I6" s="358"/>
+      <c r="J6" s="358"/>
+      <c r="K6" s="358"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="359" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="359" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="360" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
+      <c r="I7" s="360"/>
+      <c r="J7" s="360"/>
+      <c r="K7" s="360"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="361" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="362" t="n">
+        <v>43556</v>
+      </c>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
+      <c r="G8" s="363"/>
+      <c r="H8" s="363"/>
+      <c r="I8" s="363"/>
+      <c r="J8" s="363"/>
+      <c r="K8" s="363"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="361" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="362" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C9" s="365" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="365"/>
+      <c r="E9" s="367" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="367"/>
+      <c r="G9" s="367"/>
+      <c r="H9" s="367"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="367"/>
+      <c r="K9" s="367"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="361" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="362" t="n">
+        <v>43558</v>
+      </c>
+      <c r="C10" s="365" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="365"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
+      <c r="G10" s="367"/>
+      <c r="H10" s="367"/>
+      <c r="I10" s="367"/>
+      <c r="J10" s="367"/>
+      <c r="K10" s="367"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="361" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="362" t="n">
+        <v>43559</v>
+      </c>
+      <c r="C11" s="365"/>
+      <c r="D11" s="365"/>
+      <c r="E11" s="366"/>
+      <c r="F11" s="366"/>
+      <c r="G11" s="366"/>
+      <c r="H11" s="366"/>
+      <c r="I11" s="366"/>
+      <c r="J11" s="366"/>
+      <c r="K11" s="366"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="361" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="362" t="n">
+        <v>43560</v>
+      </c>
+      <c r="C12" s="365" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="365"/>
+      <c r="E12" s="367"/>
+      <c r="F12" s="367"/>
+      <c r="G12" s="367"/>
+      <c r="H12" s="367"/>
+      <c r="I12" s="367"/>
+      <c r="J12" s="367"/>
+      <c r="K12" s="367"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="361" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="362" t="n">
+        <v>43561</v>
+      </c>
+      <c r="C13" s="393" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="393"/>
+      <c r="E13" s="367"/>
+      <c r="F13" s="367"/>
+      <c r="G13" s="367"/>
+      <c r="H13" s="367"/>
+      <c r="I13" s="367"/>
+      <c r="J13" s="367"/>
+      <c r="K13" s="367"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="361" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="362" t="n">
+        <v>43562</v>
+      </c>
+      <c r="C14" s="365" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="365"/>
+      <c r="E14" s="367"/>
+      <c r="F14" s="367"/>
+      <c r="G14" s="367"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="367"/>
+      <c r="K14" s="367"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="368" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="368"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="368"/>
+      <c r="G16" s="368"/>
+      <c r="H16" s="368"/>
+      <c r="I16" s="368"/>
+      <c r="J16" s="368"/>
+      <c r="K16" s="368"/>
+    </row>
+    <row r="17" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="369" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="369" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="370" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="370" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="370" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="370" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="370" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="370" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="370" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="371"/>
+      <c r="K17" s="371"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="372" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="373" t="n">
+        <v>43563</v>
+      </c>
+      <c r="C18" s="374"/>
+      <c r="D18" s="374"/>
+      <c r="E18" s="374"/>
+      <c r="F18" s="374"/>
+      <c r="G18" s="374" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="H18" s="374" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="I18" s="374"/>
+      <c r="J18" s="375"/>
+      <c r="K18" s="375"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="372"/>
+      <c r="B19" s="372"/>
+      <c r="C19" s="376"/>
+      <c r="D19" s="376"/>
+      <c r="E19" s="376"/>
+      <c r="F19" s="376"/>
+      <c r="G19" s="376"/>
+      <c r="H19" s="376"/>
+      <c r="I19" s="376"/>
+      <c r="J19" s="376"/>
+      <c r="K19" s="376"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="372"/>
+      <c r="B20" s="372"/>
+      <c r="C20" s="376"/>
+      <c r="D20" s="376"/>
+      <c r="E20" s="376"/>
+      <c r="F20" s="376"/>
+      <c r="G20" s="376"/>
+      <c r="H20" s="376"/>
+      <c r="I20" s="376"/>
+      <c r="J20" s="376"/>
+      <c r="K20" s="376"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="377" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="373" t="n">
+        <v>43564</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="378"/>
+      <c r="G21" s="21" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="I21" s="394"/>
+      <c r="J21" s="394"/>
+      <c r="K21" s="394"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="377"/>
+      <c r="B22" s="373"/>
+      <c r="C22" s="379"/>
+      <c r="D22" s="379"/>
+      <c r="E22" s="379"/>
+      <c r="F22" s="379"/>
+      <c r="G22" s="379"/>
+      <c r="H22" s="379"/>
+      <c r="I22" s="379"/>
+      <c r="J22" s="379"/>
+      <c r="K22" s="379"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="377"/>
+      <c r="B23" s="373"/>
+      <c r="C23" s="379"/>
+      <c r="D23" s="379"/>
+      <c r="E23" s="379"/>
+      <c r="F23" s="379"/>
+      <c r="G23" s="379"/>
+      <c r="H23" s="379"/>
+      <c r="I23" s="379"/>
+      <c r="J23" s="379"/>
+      <c r="K23" s="379"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="372" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="373" t="n">
+        <v>43565</v>
+      </c>
+      <c r="C24" s="374"/>
+      <c r="D24" s="374"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="395"/>
+      <c r="G24" s="374"/>
+      <c r="H24" s="374"/>
+      <c r="I24" s="374"/>
+      <c r="J24" s="374"/>
+      <c r="K24" s="374"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="372"/>
+      <c r="B25" s="372"/>
+      <c r="C25" s="381"/>
+      <c r="D25" s="381"/>
+      <c r="E25" s="381"/>
+      <c r="F25" s="381"/>
+      <c r="G25" s="381"/>
+      <c r="H25" s="381"/>
+      <c r="I25" s="381"/>
+      <c r="J25" s="381"/>
+      <c r="K25" s="381"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="372"/>
+      <c r="B26" s="372"/>
+      <c r="C26" s="381"/>
+      <c r="D26" s="381"/>
+      <c r="E26" s="381"/>
+      <c r="F26" s="381"/>
+      <c r="G26" s="381"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="381"/>
+      <c r="J26" s="381"/>
+      <c r="K26" s="381"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="377" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="373" t="n">
+        <v>43566</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="377"/>
+      <c r="B28" s="373"/>
+      <c r="C28" s="389"/>
+      <c r="D28" s="389"/>
+      <c r="E28" s="389"/>
+      <c r="F28" s="389"/>
+      <c r="G28" s="389"/>
+      <c r="H28" s="389"/>
+      <c r="I28" s="389"/>
+      <c r="J28" s="389"/>
+      <c r="K28" s="389"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="377"/>
+      <c r="B29" s="373"/>
+      <c r="C29" s="389"/>
+      <c r="D29" s="389"/>
+      <c r="E29" s="389"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="389"/>
+      <c r="H29" s="389"/>
+      <c r="I29" s="389"/>
+      <c r="J29" s="389"/>
+      <c r="K29" s="389"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="372" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="373" t="n">
+        <v>43567</v>
+      </c>
+      <c r="C30" s="374"/>
+      <c r="D30" s="374"/>
+      <c r="E30" s="374"/>
+      <c r="F30" s="395"/>
+      <c r="G30" s="374"/>
+      <c r="H30" s="374"/>
+      <c r="I30" s="383"/>
+      <c r="J30" s="383"/>
+      <c r="K30" s="383"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="372"/>
+      <c r="B31" s="372"/>
+      <c r="C31" s="381"/>
+      <c r="D31" s="381"/>
+      <c r="E31" s="381"/>
+      <c r="F31" s="381"/>
+      <c r="G31" s="381"/>
+      <c r="H31" s="381"/>
+      <c r="I31" s="381"/>
+      <c r="J31" s="381"/>
+      <c r="K31" s="381"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="372"/>
+      <c r="B32" s="372"/>
+      <c r="C32" s="381"/>
+      <c r="D32" s="381"/>
+      <c r="E32" s="381"/>
+      <c r="F32" s="381"/>
+      <c r="G32" s="381"/>
+      <c r="H32" s="381"/>
+      <c r="I32" s="381"/>
+      <c r="J32" s="381"/>
+      <c r="K32" s="381"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="377" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="373" t="n">
+        <v>43568</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="378"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="377"/>
+      <c r="B34" s="373"/>
+      <c r="C34" s="396"/>
+      <c r="D34" s="396"/>
+      <c r="E34" s="396"/>
+      <c r="F34" s="396"/>
+      <c r="G34" s="396"/>
+      <c r="H34" s="396"/>
+      <c r="I34" s="396"/>
+      <c r="J34" s="396"/>
+      <c r="K34" s="396"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="377"/>
+      <c r="B35" s="373"/>
+      <c r="C35" s="396"/>
+      <c r="D35" s="396"/>
+      <c r="E35" s="396"/>
+      <c r="F35" s="396"/>
+      <c r="G35" s="396"/>
+      <c r="H35" s="396"/>
+      <c r="I35" s="396"/>
+      <c r="J35" s="396"/>
+      <c r="K35" s="396"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="372" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="373" t="n">
+        <v>43569</v>
+      </c>
+      <c r="C36" s="374"/>
+      <c r="D36" s="374"/>
+      <c r="E36" s="374"/>
+      <c r="F36" s="395"/>
+      <c r="G36" s="374"/>
+      <c r="H36" s="374"/>
+      <c r="I36" s="374"/>
+      <c r="J36" s="374"/>
+      <c r="K36" s="374"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="372"/>
+      <c r="B37" s="372"/>
+      <c r="C37" s="397"/>
+      <c r="D37" s="397"/>
+      <c r="E37" s="397"/>
+      <c r="F37" s="397"/>
+      <c r="G37" s="397"/>
+      <c r="H37" s="397"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="397"/>
+      <c r="K37" s="397"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="372"/>
+      <c r="B38" s="372"/>
+      <c r="C38" s="397"/>
+      <c r="D38" s="397"/>
+      <c r="E38" s="397"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="397"/>
+      <c r="H38" s="397"/>
+      <c r="I38" s="397"/>
+      <c r="J38" s="397"/>
+      <c r="K38" s="397"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C19:K20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C22:K23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C25:K26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C28:K29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C31:K32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C34:K35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C37:K38"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:L320"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -4575,23 +5329,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G1" s="398" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H1" s="398"/>
       <c r="I1" s="358" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -4612,7 +5366,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="399" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C3" s="399"/>
       <c r="D3" s="400" t="n">
@@ -4620,7 +5374,7 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="401" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F3" s="401" t="n">
         <v>4</v>
@@ -4631,7 +5385,7 @@
       </c>
       <c r="H3" s="402"/>
       <c r="I3" s="403" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J3" s="403"/>
       <c r="K3" s="403"/>
@@ -4639,7 +5393,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="404" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C4" s="404"/>
       <c r="D4" s="405" t="n">
@@ -4654,7 +5408,7 @@
       </c>
       <c r="H4" s="406"/>
       <c r="I4" s="407" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J4" s="407"/>
       <c r="K4" s="407"/>
@@ -4662,7 +5416,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="404" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C5" s="404"/>
       <c r="D5" s="408" t="n">
@@ -4677,7 +5431,7 @@
       </c>
       <c r="H5" s="409"/>
       <c r="I5" s="407" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J5" s="407"/>
       <c r="K5" s="407"/>
@@ -4685,7 +5439,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="404" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C6" s="404"/>
       <c r="D6" s="410" t="n">
@@ -4697,7 +5451,7 @@
       <c r="G6" s="410"/>
       <c r="H6" s="410"/>
       <c r="I6" s="411" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J6" s="411"/>
       <c r="K6" s="411"/>
@@ -4705,7 +5459,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="412" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C7" s="413"/>
       <c r="D7" s="414" t="n">
@@ -4717,7 +5471,7 @@
       <c r="G7" s="414"/>
       <c r="H7" s="414"/>
       <c r="I7" s="407" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J7" s="407"/>
       <c r="K7" s="407"/>
@@ -4742,11 +5496,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="417" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C9" s="417"/>
       <c r="D9" s="418" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E9" s="418"/>
       <c r="F9" s="418"/>
@@ -4773,13 +5527,13 @@
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="420"/>
       <c r="C11" s="421" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D11" s="421"/>
       <c r="E11" s="421"/>
       <c r="F11" s="421"/>
       <c r="G11" s="180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -4792,13 +5546,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="423" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D12" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F12" s="425" t="s">
         <v>146</v>
@@ -4821,13 +5575,13 @@
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="422"/>
       <c r="C13" s="428" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D13" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E13" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F13" s="425"/>
       <c r="G13" s="426"/>
@@ -4842,13 +5596,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="424" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D14" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E14" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F14" s="431" t="s">
         <v>146</v>
@@ -4871,13 +5625,13 @@
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="430"/>
       <c r="C15" s="435" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D15" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E15" s="435" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F15" s="431"/>
       <c r="G15" s="432"/>
@@ -4892,13 +5646,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="424" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D16" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F16" s="437" t="s">
         <v>147</v>
@@ -4921,13 +5675,13 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="436"/>
       <c r="C17" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D17" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F17" s="437"/>
       <c r="G17" s="426"/>
@@ -4942,13 +5696,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="424" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D18" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F18" s="437" t="s">
         <v>147</v>
@@ -4971,13 +5725,13 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="436"/>
       <c r="C19" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D19" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F19" s="437"/>
       <c r="G19" s="426"/>
@@ -4992,13 +5746,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="424" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D20" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F20" s="425" t="s">
         <v>146</v>
@@ -5021,13 +5775,13 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="436"/>
       <c r="C21" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D21" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E21" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F21" s="425"/>
       <c r="G21" s="426"/>
@@ -5042,13 +5796,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="424" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D22" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F22" s="437" t="s">
         <v>147</v>
@@ -5071,13 +5825,13 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="436"/>
       <c r="C23" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D23" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E23" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F23" s="437"/>
       <c r="G23" s="426"/>
@@ -5092,13 +5846,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="424" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D24" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F24" s="425" t="s">
         <v>146</v>
@@ -5121,13 +5875,13 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="436"/>
       <c r="C25" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D25" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E25" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F25" s="425"/>
       <c r="G25" s="426"/>
@@ -5142,13 +5896,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="424" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D26" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F26" s="437" t="s">
         <v>147</v>
@@ -5171,13 +5925,13 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="436"/>
       <c r="C27" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D27" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E27" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F27" s="437"/>
       <c r="G27" s="426"/>
@@ -5192,13 +5946,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="424" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D28" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E28" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F28" s="425" t="s">
         <v>146</v>
@@ -5221,13 +5975,13 @@
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="436"/>
       <c r="C29" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D29" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E29" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F29" s="425"/>
       <c r="G29" s="426"/>
@@ -5242,13 +5996,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="424" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D30" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E30" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F30" s="425" t="s">
         <v>146</v>
@@ -5271,13 +6025,13 @@
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="436"/>
       <c r="C31" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D31" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E31" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F31" s="425"/>
       <c r="G31" s="426"/>
@@ -5292,13 +6046,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="424" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D32" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E32" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F32" s="437" t="s">
         <v>147</v>
@@ -5321,13 +6075,13 @@
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="436"/>
       <c r="C33" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D33" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E33" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F33" s="437"/>
       <c r="G33" s="426"/>
@@ -5342,28 +6096,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="424" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D34" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E34" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F34" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G34" s="426" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H34" s="426" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I34" s="426" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J34" s="426" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K34" s="438"/>
       <c r="L34" s="439"/>
@@ -5384,23 +6138,23 @@
     <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G40" s="398" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H40" s="398"/>
       <c r="I40" s="358" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -5421,7 +6175,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="399" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C42" s="399"/>
       <c r="D42" s="400" t="n">
@@ -5429,7 +6183,7 @@
         <v>6.2</v>
       </c>
       <c r="E42" s="401" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F42" s="401" t="n">
         <v>4</v>
@@ -5440,7 +6194,7 @@
       </c>
       <c r="H42" s="402"/>
       <c r="I42" s="403" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J42" s="403"/>
       <c r="K42" s="403"/>
@@ -5448,7 +6202,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="404" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C43" s="404"/>
       <c r="D43" s="405" t="n">
@@ -5463,7 +6217,7 @@
       </c>
       <c r="H43" s="406"/>
       <c r="I43" s="407" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J43" s="407"/>
       <c r="K43" s="407"/>
@@ -5471,7 +6225,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="404" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C44" s="404"/>
       <c r="D44" s="408" t="n">
@@ -5486,7 +6240,7 @@
       </c>
       <c r="H44" s="409"/>
       <c r="I44" s="407" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J44" s="407"/>
       <c r="K44" s="407"/>
@@ -5494,7 +6248,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="404" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C45" s="404"/>
       <c r="D45" s="410" t="n">
@@ -5506,7 +6260,7 @@
       <c r="G45" s="410"/>
       <c r="H45" s="410"/>
       <c r="I45" s="411" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J45" s="411"/>
       <c r="K45" s="411"/>
@@ -5514,7 +6268,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="412" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C46" s="413"/>
       <c r="D46" s="414" t="n">
@@ -5526,7 +6280,7 @@
       <c r="G46" s="414"/>
       <c r="H46" s="414"/>
       <c r="I46" s="407" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J46" s="407"/>
       <c r="K46" s="407"/>
@@ -5545,7 +6299,7 @@
       <c r="G47" s="415"/>
       <c r="H47" s="415"/>
       <c r="I47" s="407" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J47" s="407"/>
       <c r="K47" s="407"/>
@@ -5553,18 +6307,18 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="417" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C48" s="417"/>
       <c r="D48" s="418" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E48" s="418"/>
       <c r="F48" s="418"/>
       <c r="G48" s="418"/>
       <c r="H48" s="418"/>
       <c r="I48" s="407" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J48" s="407"/>
       <c r="K48" s="407"/>
@@ -5586,13 +6340,13 @@
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="420"/>
       <c r="C50" s="421" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D50" s="421"/>
       <c r="E50" s="421"/>
       <c r="F50" s="421"/>
       <c r="G50" s="180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -5605,13 +6359,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="423" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D51" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E51" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F51" s="425" t="s">
         <v>146</v>
@@ -5634,13 +6388,13 @@
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="422"/>
       <c r="C52" s="428" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D52" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E52" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F52" s="425"/>
       <c r="G52" s="426"/>
@@ -5655,13 +6409,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="424" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D53" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E53" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F53" s="431" t="s">
         <v>146</v>
@@ -5684,13 +6438,13 @@
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="430"/>
       <c r="C54" s="435" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D54" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E54" s="435" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F54" s="431"/>
       <c r="G54" s="432"/>
@@ -5705,13 +6459,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="424" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D55" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E55" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F55" s="437" t="s">
         <v>147</v>
@@ -5734,13 +6488,13 @@
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="422"/>
       <c r="C56" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D56" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E56" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F56" s="437"/>
       <c r="G56" s="426"/>
@@ -5755,13 +6509,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="424" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D57" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E57" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F57" s="437" t="s">
         <v>147</v>
@@ -5784,13 +6538,13 @@
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="430"/>
       <c r="C58" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D58" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E58" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F58" s="437"/>
       <c r="G58" s="426"/>
@@ -5805,28 +6559,28 @@
         <v>5</v>
       </c>
       <c r="C59" s="442" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D59" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E59" s="442" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F59" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G59" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H59" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I59" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J59" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K59" s="438"/>
       <c r="L59" s="439"/>
@@ -5834,13 +6588,13 @@
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="422"/>
       <c r="C60" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D60" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E60" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F60" s="425"/>
       <c r="G60" s="426"/>
@@ -5855,13 +6609,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="424" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D61" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E61" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F61" s="437" t="s">
         <v>147</v>
@@ -5884,13 +6638,13 @@
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="430"/>
       <c r="C62" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D62" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E62" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F62" s="437"/>
       <c r="G62" s="426"/>
@@ -5905,13 +6659,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="424" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D63" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E63" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F63" s="425" t="s">
         <v>146</v>
@@ -5934,13 +6688,13 @@
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="422"/>
       <c r="C64" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D64" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E64" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F64" s="425"/>
       <c r="G64" s="426"/>
@@ -5955,13 +6709,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="424" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D65" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E65" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F65" s="437" t="s">
         <v>147</v>
@@ -5984,13 +6738,13 @@
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="430"/>
       <c r="C66" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D66" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E66" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F66" s="437"/>
       <c r="G66" s="426"/>
@@ -6005,13 +6759,13 @@
         <v>9</v>
       </c>
       <c r="C67" s="424" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D67" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F67" s="425" t="s">
         <v>146</v>
@@ -6034,13 +6788,13 @@
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="422"/>
       <c r="C68" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D68" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E68" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F68" s="425"/>
       <c r="G68" s="426"/>
@@ -6055,13 +6809,13 @@
         <v>10</v>
       </c>
       <c r="C69" s="424" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D69" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E69" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F69" s="437" t="s">
         <v>147</v>
@@ -6084,13 +6838,13 @@
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="430"/>
       <c r="C70" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D70" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E70" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F70" s="437"/>
       <c r="G70" s="426"/>
@@ -6105,13 +6859,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="424" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D71" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F71" s="425" t="s">
         <v>146</v>
@@ -6138,7 +6892,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="441" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F72" s="425"/>
       <c r="G72" s="426"/>
@@ -6153,13 +6907,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="443" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D73" s="444" t="n">
         <v>22</v>
       </c>
       <c r="E73" s="444" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F73" s="437" t="s">
         <v>147</v>
@@ -6186,7 +6940,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="441" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F74" s="437"/>
       <c r="G74" s="426"/>
@@ -6201,28 +6955,28 @@
         <v>13</v>
       </c>
       <c r="C75" s="424" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D75" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E75" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F75" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G75" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H75" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I75" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J75" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K75" s="438"/>
       <c r="L75" s="439"/>
@@ -6243,23 +6997,23 @@
     <row r="80" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G80" s="398" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H80" s="398"/>
       <c r="I80" s="358" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -6280,7 +7034,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="399" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C82" s="399"/>
       <c r="D82" s="400" t="n">
@@ -6288,7 +7042,7 @@
         <v>6.2</v>
       </c>
       <c r="E82" s="401" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F82" s="401" t="n">
         <v>4</v>
@@ -6299,7 +7053,7 @@
       </c>
       <c r="H82" s="402"/>
       <c r="I82" s="403" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J82" s="403"/>
       <c r="K82" s="403"/>
@@ -6307,7 +7061,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="404" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C83" s="404"/>
       <c r="D83" s="405" t="n">
@@ -6322,7 +7076,7 @@
       </c>
       <c r="H83" s="406"/>
       <c r="I83" s="407" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J83" s="407"/>
       <c r="K83" s="407"/>
@@ -6330,7 +7084,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="404" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C84" s="404"/>
       <c r="D84" s="408" t="n">
@@ -6345,7 +7099,7 @@
       </c>
       <c r="H84" s="409"/>
       <c r="I84" s="407" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J84" s="407"/>
       <c r="K84" s="407"/>
@@ -6353,7 +7107,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="404" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C85" s="404"/>
       <c r="D85" s="410" t="n">
@@ -6365,7 +7119,7 @@
       <c r="G85" s="410"/>
       <c r="H85" s="410"/>
       <c r="I85" s="411" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J85" s="411"/>
       <c r="K85" s="411"/>
@@ -6373,7 +7127,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="412" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C86" s="413"/>
       <c r="D86" s="414" t="n">
@@ -6385,7 +7139,7 @@
       <c r="G86" s="414"/>
       <c r="H86" s="414"/>
       <c r="I86" s="407" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J86" s="407"/>
       <c r="K86" s="407"/>
@@ -6404,7 +7158,7 @@
       <c r="G87" s="415"/>
       <c r="H87" s="415"/>
       <c r="I87" s="407" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J87" s="407"/>
       <c r="K87" s="407"/>
@@ -6412,18 +7166,18 @@
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="417" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C88" s="417"/>
       <c r="D88" s="418" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E88" s="418"/>
       <c r="F88" s="418"/>
       <c r="G88" s="418"/>
       <c r="H88" s="418"/>
       <c r="I88" s="407" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J88" s="407"/>
       <c r="K88" s="407"/>
@@ -6445,13 +7199,13 @@
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="420"/>
       <c r="C90" s="421" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D90" s="421"/>
       <c r="E90" s="421"/>
       <c r="F90" s="421"/>
       <c r="G90" s="180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -6464,13 +7218,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="423" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D91" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E91" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F91" s="425" t="s">
         <v>146</v>
@@ -6493,13 +7247,13 @@
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="422"/>
       <c r="C92" s="428" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D92" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E92" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F92" s="425"/>
       <c r="G92" s="426"/>
@@ -6514,13 +7268,13 @@
         <v>2</v>
       </c>
       <c r="C93" s="424" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D93" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E93" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F93" s="431" t="s">
         <v>146</v>
@@ -6543,13 +7297,13 @@
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="430"/>
       <c r="C94" s="435" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D94" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E94" s="435" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F94" s="431"/>
       <c r="G94" s="432"/>
@@ -6564,13 +7318,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="424" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D95" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E95" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F95" s="437" t="s">
         <v>147</v>
@@ -6593,13 +7347,13 @@
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="422"/>
       <c r="C96" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D96" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E96" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F96" s="437"/>
       <c r="G96" s="426"/>
@@ -6614,13 +7368,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="424" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D97" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E97" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F97" s="437" t="s">
         <v>147</v>
@@ -6643,13 +7397,13 @@
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="430"/>
       <c r="C98" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D98" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E98" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F98" s="437"/>
       <c r="G98" s="426"/>
@@ -6664,28 +7418,28 @@
         <v>5</v>
       </c>
       <c r="C99" s="442" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D99" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E99" s="442" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F99" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G99" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H99" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I99" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J99" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K99" s="438"/>
       <c r="L99" s="439"/>
@@ -6693,13 +7447,13 @@
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="422"/>
       <c r="C100" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D100" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E100" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F100" s="425"/>
       <c r="G100" s="426"/>
@@ -6714,13 +7468,13 @@
         <v>6</v>
       </c>
       <c r="C101" s="424" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D101" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E101" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F101" s="437" t="s">
         <v>147</v>
@@ -6743,13 +7497,13 @@
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="430"/>
       <c r="C102" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D102" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E102" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F102" s="437"/>
       <c r="G102" s="426"/>
@@ -6764,13 +7518,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="424" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D103" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E103" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F103" s="425" t="s">
         <v>146</v>
@@ -6793,13 +7547,13 @@
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="422"/>
       <c r="C104" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D104" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E104" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F104" s="425"/>
       <c r="G104" s="426"/>
@@ -6814,13 +7568,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="424" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D105" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E105" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F105" s="437" t="s">
         <v>147</v>
@@ -6843,13 +7597,13 @@
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="430"/>
       <c r="C106" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D106" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E106" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F106" s="437"/>
       <c r="G106" s="426"/>
@@ -6864,13 +7618,13 @@
         <v>9</v>
       </c>
       <c r="C107" s="424" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D107" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E107" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F107" s="425" t="s">
         <v>146</v>
@@ -6893,13 +7647,13 @@
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="422"/>
       <c r="C108" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D108" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E108" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F108" s="425"/>
       <c r="G108" s="426"/>
@@ -6914,13 +7668,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="424" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D109" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E109" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F109" s="437" t="s">
         <v>147</v>
@@ -6943,13 +7697,13 @@
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="430"/>
       <c r="C110" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D110" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E110" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F110" s="437"/>
       <c r="G110" s="426"/>
@@ -6964,13 +7718,13 @@
         <v>11</v>
       </c>
       <c r="C111" s="424" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D111" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E111" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F111" s="425" t="s">
         <v>146</v>
@@ -6997,7 +7751,7 @@
         <v>22</v>
       </c>
       <c r="E112" s="441" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F112" s="425"/>
       <c r="G112" s="426"/>
@@ -7012,13 +7766,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="443" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D113" s="444" t="n">
         <v>22</v>
       </c>
       <c r="E113" s="444" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F113" s="437" t="s">
         <v>147</v>
@@ -7045,7 +7799,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="441" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F114" s="437"/>
       <c r="G114" s="426"/>
@@ -7060,28 +7814,28 @@
         <v>13</v>
       </c>
       <c r="C115" s="424" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D115" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E115" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F115" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G115" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H115" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I115" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J115" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K115" s="438"/>
       <c r="L115" s="439"/>
@@ -7102,23 +7856,23 @@
     <row r="121" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G121" s="398" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H121" s="398"/>
       <c r="I121" s="358" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -7139,7 +7893,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="399" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C123" s="399"/>
       <c r="D123" s="400" t="n">
@@ -7147,7 +7901,7 @@
         <v>7.23333333333333</v>
       </c>
       <c r="E123" s="401" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F123" s="401" t="n">
         <v>4</v>
@@ -7164,7 +7918,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="404" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C124" s="404"/>
       <c r="D124" s="405" t="n">
@@ -7179,7 +7933,7 @@
       </c>
       <c r="H124" s="406"/>
       <c r="I124" s="407" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J124" s="407"/>
       <c r="K124" s="407"/>
@@ -7187,7 +7941,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="404" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C125" s="404"/>
       <c r="D125" s="408" t="n">
@@ -7202,7 +7956,7 @@
       </c>
       <c r="H125" s="409"/>
       <c r="I125" s="407" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J125" s="407"/>
       <c r="K125" s="407"/>
@@ -7210,7 +7964,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="404" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C126" s="404"/>
       <c r="D126" s="410" t="n">
@@ -7222,7 +7976,7 @@
       <c r="G126" s="410"/>
       <c r="H126" s="410"/>
       <c r="I126" s="411" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J126" s="411"/>
       <c r="K126" s="411"/>
@@ -7230,7 +7984,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="412" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C127" s="413"/>
       <c r="D127" s="414" t="n">
@@ -7242,7 +7996,7 @@
       <c r="G127" s="414"/>
       <c r="H127" s="414"/>
       <c r="I127" s="407" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J127" s="407"/>
       <c r="K127" s="407"/>
@@ -7261,7 +8015,7 @@
       <c r="G128" s="415"/>
       <c r="H128" s="415"/>
       <c r="I128" s="407" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J128" s="407"/>
       <c r="K128" s="407"/>
@@ -7269,18 +8023,18 @@
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="417" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C129" s="417"/>
       <c r="D129" s="418" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E129" s="418"/>
       <c r="F129" s="418"/>
       <c r="G129" s="418"/>
       <c r="H129" s="418"/>
       <c r="I129" s="407" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J129" s="407"/>
       <c r="K129" s="407"/>
@@ -7302,13 +8056,13 @@
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="420"/>
       <c r="C131" s="421" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D131" s="421"/>
       <c r="E131" s="421"/>
       <c r="F131" s="421"/>
       <c r="G131" s="180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -7321,13 +8075,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="423" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D132" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E132" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F132" s="425" t="s">
         <v>146</v>
@@ -7350,13 +8104,13 @@
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="422"/>
       <c r="C133" s="428" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D133" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E133" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F133" s="425"/>
       <c r="G133" s="426"/>
@@ -7371,13 +8125,13 @@
         <v>2</v>
       </c>
       <c r="C134" s="424" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D134" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E134" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F134" s="431" t="s">
         <v>146</v>
@@ -7400,13 +8154,13 @@
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="430"/>
       <c r="C135" s="435" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D135" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E135" s="435" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F135" s="431"/>
       <c r="G135" s="432"/>
@@ -7421,13 +8175,13 @@
         <v>3</v>
       </c>
       <c r="C136" s="424" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D136" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E136" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F136" s="437" t="s">
         <v>147</v>
@@ -7450,13 +8204,13 @@
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="422"/>
       <c r="C137" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D137" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E137" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F137" s="437"/>
       <c r="G137" s="426"/>
@@ -7471,13 +8225,13 @@
         <v>4</v>
       </c>
       <c r="C138" s="424" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D138" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E138" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F138" s="437" t="s">
         <v>147</v>
@@ -7500,13 +8254,13 @@
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="430"/>
       <c r="C139" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D139" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E139" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F139" s="437"/>
       <c r="G139" s="426"/>
@@ -7521,13 +8275,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="442" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D140" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E140" s="442" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F140" s="425" t="s">
         <v>146</v>
@@ -7550,13 +8304,13 @@
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="422"/>
       <c r="C141" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D141" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E141" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F141" s="425"/>
       <c r="G141" s="426"/>
@@ -7571,13 +8325,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="424" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D142" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E142" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F142" s="437" t="s">
         <v>147</v>
@@ -7600,13 +8354,13 @@
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="430"/>
       <c r="C143" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D143" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E143" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F143" s="437"/>
       <c r="G143" s="426"/>
@@ -7621,13 +8375,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="424" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D144" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E144" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F144" s="425" t="s">
         <v>146</v>
@@ -7650,13 +8404,13 @@
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="422"/>
       <c r="C145" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D145" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E145" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F145" s="425"/>
       <c r="G145" s="426"/>
@@ -7671,13 +8425,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="424" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D146" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E146" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F146" s="437" t="s">
         <v>147</v>
@@ -7700,13 +8454,13 @@
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="430"/>
       <c r="C147" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D147" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E147" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F147" s="437"/>
       <c r="G147" s="426"/>
@@ -7721,13 +8475,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="424" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D148" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E148" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F148" s="425" t="s">
         <v>146</v>
@@ -7750,13 +8504,13 @@
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="422"/>
       <c r="C149" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D149" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E149" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F149" s="425"/>
       <c r="G149" s="426"/>
@@ -7771,13 +8525,13 @@
         <v>10</v>
       </c>
       <c r="C150" s="424" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D150" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E150" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F150" s="437" t="s">
         <v>147</v>
@@ -7800,13 +8554,13 @@
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="430"/>
       <c r="C151" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D151" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E151" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F151" s="437"/>
       <c r="G151" s="426"/>
@@ -7821,13 +8575,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="424" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D152" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E152" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F152" s="425" t="s">
         <v>146</v>
@@ -7850,13 +8604,13 @@
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="422"/>
       <c r="C153" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D153" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E153" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F153" s="425"/>
       <c r="G153" s="426"/>
@@ -7871,13 +8625,13 @@
         <v>12</v>
       </c>
       <c r="C154" s="443" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D154" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E154" s="444" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F154" s="437" t="s">
         <v>147</v>
@@ -7900,13 +8654,13 @@
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="430"/>
       <c r="C155" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D155" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E155" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F155" s="437"/>
       <c r="G155" s="426"/>
@@ -7921,13 +8675,13 @@
         <v>13</v>
       </c>
       <c r="C156" s="424" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D156" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E156" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F156" s="425" t="s">
         <v>146</v>
@@ -7950,13 +8704,13 @@
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="422"/>
       <c r="C157" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D157" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E157" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F157" s="425"/>
       <c r="G157" s="426"/>
@@ -7971,28 +8725,28 @@
         <v>14</v>
       </c>
       <c r="C158" s="424" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D158" s="424" t="n">
         <v>140</v>
       </c>
       <c r="E158" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F158" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G158" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H158" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I158" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J158" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K158" s="438"/>
       <c r="L158" s="439"/>
@@ -8013,23 +8767,23 @@
     <row r="164" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G164" s="398" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H164" s="398"/>
       <c r="I164" s="358" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -8050,7 +8804,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="399" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C166" s="399"/>
       <c r="D166" s="400" t="n">
@@ -8058,7 +8812,7 @@
         <v>7.2</v>
       </c>
       <c r="E166" s="401" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F166" s="401" t="n">
         <v>2</v>
@@ -8069,7 +8823,7 @@
       </c>
       <c r="H166" s="402"/>
       <c r="I166" s="403" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J166" s="403"/>
       <c r="K166" s="403"/>
@@ -8077,7 +8831,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="404" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C167" s="404"/>
       <c r="D167" s="405" t="n">
@@ -8092,7 +8846,7 @@
       </c>
       <c r="H167" s="406"/>
       <c r="I167" s="407" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J167" s="407"/>
       <c r="K167" s="407"/>
@@ -8100,7 +8854,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="404" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C168" s="404"/>
       <c r="D168" s="408" t="n">
@@ -8115,7 +8869,7 @@
       </c>
       <c r="H168" s="409"/>
       <c r="I168" s="407" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J168" s="407"/>
       <c r="K168" s="407"/>
@@ -8123,7 +8877,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="404" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C169" s="404"/>
       <c r="D169" s="410" t="n">
@@ -8135,7 +8889,7 @@
       <c r="G169" s="410"/>
       <c r="H169" s="410"/>
       <c r="I169" s="411" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J169" s="411"/>
       <c r="K169" s="411"/>
@@ -8143,7 +8897,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="412" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C170" s="413"/>
       <c r="D170" s="414" t="n">
@@ -8155,7 +8909,7 @@
       <c r="G170" s="414"/>
       <c r="H170" s="414"/>
       <c r="I170" s="407" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J170" s="407"/>
       <c r="K170" s="407"/>
@@ -8180,11 +8934,11 @@
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="417" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C172" s="417"/>
       <c r="D172" s="418" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E172" s="418"/>
       <c r="F172" s="418"/>
@@ -8211,13 +8965,13 @@
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="420"/>
       <c r="C174" s="421" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D174" s="421"/>
       <c r="E174" s="421"/>
       <c r="F174" s="421"/>
       <c r="G174" s="180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -8230,13 +8984,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="423" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D175" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E175" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F175" s="425" t="s">
         <v>146</v>
@@ -8255,13 +9009,13 @@
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="422"/>
       <c r="C176" s="428" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D176" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E176" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F176" s="425"/>
       <c r="G176" s="426"/>
@@ -8276,13 +9030,13 @@
         <v>2</v>
       </c>
       <c r="C177" s="424" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D177" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E177" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F177" s="431" t="s">
         <v>146</v>
@@ -8301,13 +9055,13 @@
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="430"/>
       <c r="C178" s="435" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D178" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E178" s="435" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F178" s="431"/>
       <c r="G178" s="432"/>
@@ -8322,13 +9076,13 @@
         <v>3</v>
       </c>
       <c r="C179" s="424" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D179" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E179" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F179" s="437" t="s">
         <v>147</v>
@@ -8347,13 +9101,13 @@
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="436"/>
       <c r="C180" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D180" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E180" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F180" s="437"/>
       <c r="G180" s="426"/>
@@ -8368,13 +9122,13 @@
         <v>4</v>
       </c>
       <c r="C181" s="424" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D181" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E181" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F181" s="437" t="s">
         <v>147</v>
@@ -8393,13 +9147,13 @@
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="436"/>
       <c r="C182" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D182" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E182" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F182" s="437"/>
       <c r="G182" s="426"/>
@@ -8414,13 +9168,13 @@
         <v>5</v>
       </c>
       <c r="C183" s="424" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D183" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E183" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F183" s="425" t="s">
         <v>146</v>
@@ -8439,13 +9193,13 @@
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="436"/>
       <c r="C184" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D184" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E184" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F184" s="425"/>
       <c r="G184" s="426"/>
@@ -8460,13 +9214,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="424" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D185" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E185" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F185" s="437" t="s">
         <v>147</v>
@@ -8485,13 +9239,13 @@
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="436"/>
       <c r="C186" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D186" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E186" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F186" s="437"/>
       <c r="G186" s="426"/>
@@ -8506,13 +9260,13 @@
         <v>7</v>
       </c>
       <c r="C187" s="424" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D187" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E187" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F187" s="425" t="s">
         <v>146</v>
@@ -8531,13 +9285,13 @@
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="436"/>
       <c r="C188" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D188" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E188" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F188" s="425"/>
       <c r="G188" s="426"/>
@@ -8552,13 +9306,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="424" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D189" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E189" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F189" s="437" t="s">
         <v>147</v>
@@ -8577,13 +9331,13 @@
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="436"/>
       <c r="C190" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D190" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E190" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F190" s="437"/>
       <c r="G190" s="426"/>
@@ -8598,13 +9352,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="424" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D191" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E191" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F191" s="425" t="s">
         <v>146</v>
@@ -8623,13 +9377,13 @@
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="436"/>
       <c r="C192" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D192" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E192" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F192" s="425"/>
       <c r="G192" s="426"/>
@@ -8644,13 +9398,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="424" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D193" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E193" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F193" s="425" t="s">
         <v>146</v>
@@ -8669,13 +9423,13 @@
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="436"/>
       <c r="C194" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D194" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E194" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F194" s="425"/>
       <c r="G194" s="426"/>
@@ -8690,13 +9444,13 @@
         <v>11</v>
       </c>
       <c r="C195" s="424" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D195" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E195" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F195" s="437" t="s">
         <v>147</v>
@@ -8715,13 +9469,13 @@
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="436"/>
       <c r="C196" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D196" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E196" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F196" s="437"/>
       <c r="G196" s="426"/>
@@ -8736,22 +9490,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="424" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D197" s="424" t="n">
         <v>180</v>
       </c>
       <c r="E197" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F197" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G197" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H197" s="426" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I197" s="426"/>
       <c r="J197" s="426"/>
@@ -8774,23 +9528,23 @@
     <row r="202" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="368"/>
       <c r="C202" s="368" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D202" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E202" s="368" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F202" s="368" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G202" s="398" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H202" s="398"/>
       <c r="I202" s="358" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J202" s="358"/>
       <c r="K202" s="358"/>
@@ -8811,7 +9565,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="399" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C204" s="399"/>
       <c r="D204" s="400" t="e">
@@ -8819,7 +9573,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E204" s="401" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F204" s="401" t="n">
         <v>4</v>
@@ -8836,7 +9590,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="404" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C205" s="404"/>
       <c r="D205" s="405" t="n">
@@ -8851,7 +9605,7 @@
       </c>
       <c r="H205" s="406"/>
       <c r="I205" s="407" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J205" s="407"/>
       <c r="K205" s="407"/>
@@ -8859,7 +9613,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="404" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C206" s="404"/>
       <c r="D206" s="408" t="e">
@@ -8874,7 +9628,7 @@
       </c>
       <c r="H206" s="409"/>
       <c r="I206" s="407" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J206" s="407"/>
       <c r="K206" s="407"/>
@@ -8882,18 +9636,18 @@
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="404" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C207" s="404"/>
       <c r="D207" s="410" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E207" s="410"/>
       <c r="F207" s="410"/>
       <c r="G207" s="410"/>
       <c r="H207" s="410"/>
       <c r="I207" s="411" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J207" s="411"/>
       <c r="K207" s="411"/>
@@ -8901,7 +9655,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="412" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C208" s="413"/>
       <c r="D208" s="414" t="n">
@@ -8912,7 +9666,7 @@
       <c r="G208" s="414"/>
       <c r="H208" s="414"/>
       <c r="I208" s="407" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J208" s="407"/>
       <c r="K208" s="407"/>
@@ -8931,7 +9685,7 @@
       <c r="G209" s="415"/>
       <c r="H209" s="415"/>
       <c r="I209" s="407" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J209" s="407"/>
       <c r="K209" s="407"/>
@@ -8939,18 +9693,18 @@
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="417" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C210" s="417"/>
       <c r="D210" s="418" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E210" s="418"/>
       <c r="F210" s="418"/>
       <c r="G210" s="418"/>
       <c r="H210" s="418"/>
       <c r="I210" s="407" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J210" s="407"/>
       <c r="K210" s="407"/>
@@ -8972,13 +9726,13 @@
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="420"/>
       <c r="C212" s="421" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D212" s="421"/>
       <c r="E212" s="421"/>
       <c r="F212" s="421"/>
       <c r="G212" s="180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H212" s="180"/>
       <c r="I212" s="180"/>
@@ -8991,13 +9745,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="423" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D213" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E213" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F213" s="425" t="s">
         <v>146</v>
@@ -9018,13 +9772,13 @@
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="422"/>
       <c r="C214" s="428" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D214" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E214" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F214" s="425"/>
       <c r="G214" s="426"/>
@@ -9039,13 +9793,13 @@
         <v>2</v>
       </c>
       <c r="C215" s="424" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D215" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E215" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F215" s="431" t="s">
         <v>146</v>
@@ -9066,13 +9820,13 @@
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="430"/>
       <c r="C216" s="435" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D216" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E216" s="435" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F216" s="431"/>
       <c r="G216" s="432"/>
@@ -9087,13 +9841,13 @@
         <v>3</v>
       </c>
       <c r="C217" s="424" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D217" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E217" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F217" s="437" t="s">
         <v>147</v>
@@ -9114,13 +9868,13 @@
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="422"/>
       <c r="C218" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D218" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E218" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F218" s="437"/>
       <c r="G218" s="426"/>
@@ -9135,13 +9889,13 @@
         <v>4</v>
       </c>
       <c r="C219" s="424" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D219" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E219" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F219" s="437" t="s">
         <v>147</v>
@@ -9162,13 +9916,13 @@
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="430"/>
       <c r="C220" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D220" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E220" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F220" s="437"/>
       <c r="G220" s="426"/>
@@ -9183,13 +9937,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="442" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D221" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E221" s="442" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F221" s="425" t="s">
         <v>146</v>
@@ -9210,13 +9964,13 @@
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="422"/>
       <c r="C222" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D222" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E222" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F222" s="425"/>
       <c r="G222" s="426"/>
@@ -9231,13 +9985,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="424" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D223" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E223" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F223" s="437" t="s">
         <v>147</v>
@@ -9258,13 +10012,13 @@
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="430"/>
       <c r="C224" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D224" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E224" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F224" s="437"/>
       <c r="G224" s="426"/>
@@ -9279,13 +10033,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="424" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D225" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E225" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F225" s="425" t="s">
         <v>146</v>
@@ -9306,13 +10060,13 @@
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="422"/>
       <c r="C226" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D226" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E226" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F226" s="425"/>
       <c r="G226" s="426"/>
@@ -9327,13 +10081,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="424" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D227" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E227" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F227" s="437" t="s">
         <v>147</v>
@@ -9354,13 +10108,13 @@
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="430"/>
       <c r="C228" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D228" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E228" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F228" s="437"/>
       <c r="G228" s="426"/>
@@ -9375,13 +10129,13 @@
         <v>9</v>
       </c>
       <c r="C229" s="424" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D229" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E229" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F229" s="425" t="s">
         <v>146</v>
@@ -9402,13 +10156,13 @@
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="422"/>
       <c r="C230" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D230" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E230" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F230" s="425"/>
       <c r="G230" s="426"/>
@@ -9423,13 +10177,13 @@
         <v>10</v>
       </c>
       <c r="C231" s="424" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D231" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E231" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F231" s="437" t="s">
         <v>147</v>
@@ -9450,13 +10204,13 @@
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="430"/>
       <c r="C232" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D232" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E232" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F232" s="437"/>
       <c r="G232" s="426"/>
@@ -9471,13 +10225,13 @@
         <v>11</v>
       </c>
       <c r="C233" s="424" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D233" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E233" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F233" s="425" t="s">
         <v>146</v>
@@ -9498,13 +10252,13 @@
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="422"/>
       <c r="C234" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D234" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E234" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F234" s="425"/>
       <c r="G234" s="426"/>
@@ -9519,13 +10273,13 @@
         <v>12</v>
       </c>
       <c r="C235" s="443" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D235" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E235" s="444" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F235" s="437" t="s">
         <v>147</v>
@@ -9546,13 +10300,13 @@
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="430"/>
       <c r="C236" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D236" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E236" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F236" s="437"/>
       <c r="G236" s="426"/>
@@ -9567,25 +10321,25 @@
         <v>13</v>
       </c>
       <c r="C237" s="424" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D237" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E237" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F237" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G237" s="445" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H237" s="445" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I237" s="445" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J237" s="445"/>
       <c r="K237" s="438"/>
@@ -9607,23 +10361,23 @@
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="368"/>
       <c r="C242" s="368" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D242" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E242" s="368" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F242" s="368" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G242" s="398" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H242" s="398"/>
       <c r="I242" s="358" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J242" s="358"/>
       <c r="K242" s="358"/>
@@ -9644,7 +10398,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="399" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C244" s="399"/>
       <c r="D244" s="400" t="e">
@@ -9652,7 +10406,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E244" s="401" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F244" s="401" t="n">
         <v>4</v>
@@ -9669,7 +10423,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="404" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C245" s="404"/>
       <c r="D245" s="405" t="n">
@@ -9684,7 +10438,7 @@
       </c>
       <c r="H245" s="406"/>
       <c r="I245" s="407" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J245" s="407"/>
       <c r="K245" s="407"/>
@@ -9692,7 +10446,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="404" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C246" s="404"/>
       <c r="D246" s="408" t="e">
@@ -9707,7 +10461,7 @@
       </c>
       <c r="H246" s="409"/>
       <c r="I246" s="407" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J246" s="407"/>
       <c r="K246" s="407"/>
@@ -9715,18 +10469,18 @@
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="404" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C247" s="404"/>
       <c r="D247" s="410" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E247" s="410"/>
       <c r="F247" s="410"/>
       <c r="G247" s="410"/>
       <c r="H247" s="410"/>
       <c r="I247" s="411" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J247" s="411"/>
       <c r="K247" s="411"/>
@@ -9734,7 +10488,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="412" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C248" s="413"/>
       <c r="D248" s="414" t="n">
@@ -9745,7 +10499,7 @@
       <c r="G248" s="414"/>
       <c r="H248" s="414"/>
       <c r="I248" s="407" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J248" s="407"/>
       <c r="K248" s="407"/>
@@ -9764,7 +10518,7 @@
       <c r="G249" s="415"/>
       <c r="H249" s="415"/>
       <c r="I249" s="407" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J249" s="407"/>
       <c r="K249" s="407"/>
@@ -9772,18 +10526,18 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="417" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C250" s="417"/>
       <c r="D250" s="418" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E250" s="418"/>
       <c r="F250" s="418"/>
       <c r="G250" s="418"/>
       <c r="H250" s="418"/>
       <c r="I250" s="407" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J250" s="407"/>
       <c r="K250" s="407"/>
@@ -9805,13 +10559,13 @@
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="420"/>
       <c r="C252" s="421" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D252" s="421"/>
       <c r="E252" s="421"/>
       <c r="F252" s="421"/>
       <c r="G252" s="180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H252" s="180"/>
       <c r="I252" s="180"/>
@@ -9824,13 +10578,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="423" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D253" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E253" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F253" s="425" t="s">
         <v>146</v>
@@ -9851,13 +10605,13 @@
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="422"/>
       <c r="C254" s="428" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D254" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E254" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F254" s="425"/>
       <c r="G254" s="426"/>
@@ -9872,13 +10626,13 @@
         <v>2</v>
       </c>
       <c r="C255" s="424" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D255" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E255" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F255" s="431" t="s">
         <v>146</v>
@@ -9899,13 +10653,13 @@
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="430"/>
       <c r="C256" s="435" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D256" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E256" s="435" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F256" s="431"/>
       <c r="G256" s="432"/>
@@ -9920,13 +10674,13 @@
         <v>3</v>
       </c>
       <c r="C257" s="424" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D257" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E257" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F257" s="437" t="s">
         <v>147</v>
@@ -9947,13 +10701,13 @@
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="422"/>
       <c r="C258" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D258" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E258" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F258" s="437"/>
       <c r="G258" s="426"/>
@@ -9968,13 +10722,13 @@
         <v>4</v>
       </c>
       <c r="C259" s="424" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D259" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E259" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F259" s="437" t="s">
         <v>147</v>
@@ -9995,13 +10749,13 @@
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="430"/>
       <c r="C260" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D260" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E260" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F260" s="437"/>
       <c r="G260" s="426"/>
@@ -10016,13 +10770,13 @@
         <v>5</v>
       </c>
       <c r="C261" s="442" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D261" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E261" s="442" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F261" s="425" t="s">
         <v>146</v>
@@ -10043,13 +10797,13 @@
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="422"/>
       <c r="C262" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D262" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E262" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F262" s="425"/>
       <c r="G262" s="426"/>
@@ -10064,13 +10818,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="424" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D263" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E263" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F263" s="437" t="s">
         <v>147</v>
@@ -10091,13 +10845,13 @@
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="430"/>
       <c r="C264" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D264" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E264" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F264" s="437"/>
       <c r="G264" s="426"/>
@@ -10112,13 +10866,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="424" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D265" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E265" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F265" s="425" t="s">
         <v>146</v>
@@ -10139,13 +10893,13 @@
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="422"/>
       <c r="C266" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D266" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E266" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F266" s="425"/>
       <c r="G266" s="426"/>
@@ -10160,13 +10914,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="424" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D267" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E267" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F267" s="437" t="s">
         <v>147</v>
@@ -10187,13 +10941,13 @@
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="430"/>
       <c r="C268" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D268" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E268" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F268" s="437"/>
       <c r="G268" s="426"/>
@@ -10208,13 +10962,13 @@
         <v>9</v>
       </c>
       <c r="C269" s="424" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D269" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E269" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F269" s="425" t="s">
         <v>146</v>
@@ -10235,13 +10989,13 @@
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="422"/>
       <c r="C270" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D270" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E270" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F270" s="425"/>
       <c r="G270" s="426"/>
@@ -10256,13 +11010,13 @@
         <v>10</v>
       </c>
       <c r="C271" s="424" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D271" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E271" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F271" s="437" t="s">
         <v>147</v>
@@ -10283,13 +11037,13 @@
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="430"/>
       <c r="C272" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D272" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E272" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F272" s="437"/>
       <c r="G272" s="426"/>
@@ -10304,13 +11058,13 @@
         <v>11</v>
       </c>
       <c r="C273" s="424" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D273" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E273" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F273" s="425" t="s">
         <v>146</v>
@@ -10331,13 +11085,13 @@
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="422"/>
       <c r="C274" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D274" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E274" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F274" s="425"/>
       <c r="G274" s="426"/>
@@ -10352,13 +11106,13 @@
         <v>12</v>
       </c>
       <c r="C275" s="443" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D275" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E275" s="444" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F275" s="437" t="s">
         <v>147</v>
@@ -10379,13 +11133,13 @@
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="430"/>
       <c r="C276" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D276" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E276" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F276" s="437"/>
       <c r="G276" s="426"/>
@@ -10400,25 +11154,25 @@
         <v>13</v>
       </c>
       <c r="C277" s="424" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D277" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E277" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F277" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G277" s="445" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H277" s="445" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I277" s="445" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J277" s="445"/>
       <c r="K277" s="438"/>
@@ -10440,23 +11194,23 @@
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="368"/>
       <c r="C282" s="368" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D282" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E282" s="368" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F282" s="368" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G282" s="398" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H282" s="398"/>
       <c r="I282" s="358" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J282" s="358"/>
       <c r="K282" s="358"/>
@@ -10477,14 +11231,14 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="399" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C284" s="399"/>
       <c r="D284" s="400" t="n">
         <v>8.12</v>
       </c>
       <c r="E284" s="401" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F284" s="401" t="n">
         <v>3</v>
@@ -10501,7 +11255,7 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="404" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C285" s="404"/>
       <c r="D285" s="405" t="n">
@@ -10515,7 +11269,7 @@
       </c>
       <c r="H285" s="406"/>
       <c r="I285" s="407" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J285" s="407"/>
       <c r="K285" s="407"/>
@@ -10523,7 +11277,7 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="404" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C286" s="404"/>
       <c r="D286" s="408" t="n">
@@ -10537,7 +11291,7 @@
       </c>
       <c r="H286" s="409"/>
       <c r="I286" s="407" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J286" s="407"/>
       <c r="K286" s="407"/>
@@ -10545,18 +11299,18 @@
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="404" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C287" s="404"/>
       <c r="D287" s="410" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E287" s="410"/>
       <c r="F287" s="410"/>
       <c r="G287" s="410"/>
       <c r="H287" s="410"/>
       <c r="I287" s="411" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J287" s="411"/>
       <c r="K287" s="411"/>
@@ -10564,7 +11318,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="412" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C288" s="413"/>
       <c r="D288" s="414" t="n">
@@ -10575,7 +11329,7 @@
       <c r="G288" s="414"/>
       <c r="H288" s="414"/>
       <c r="I288" s="407" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J288" s="407"/>
       <c r="K288" s="407"/>
@@ -10600,11 +11354,11 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="417" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C290" s="417"/>
       <c r="D290" s="418" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E290" s="418"/>
       <c r="F290" s="418"/>
@@ -10631,13 +11385,13 @@
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="420"/>
       <c r="C292" s="421" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D292" s="421"/>
       <c r="E292" s="421"/>
       <c r="F292" s="421"/>
       <c r="G292" s="180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H292" s="180"/>
       <c r="I292" s="180"/>
@@ -10650,13 +11404,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="423" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D293" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E293" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F293" s="425" t="s">
         <v>146</v>
@@ -10677,13 +11431,13 @@
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="422"/>
       <c r="C294" s="428" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D294" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E294" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F294" s="425"/>
       <c r="G294" s="426"/>
@@ -10698,13 +11452,13 @@
         <v>2</v>
       </c>
       <c r="C295" s="424" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D295" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E295" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F295" s="431" t="s">
         <v>146</v>
@@ -10725,13 +11479,13 @@
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="430"/>
       <c r="C296" s="435" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D296" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E296" s="435" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F296" s="431"/>
       <c r="G296" s="432"/>
@@ -10746,13 +11500,13 @@
         <v>3</v>
       </c>
       <c r="C297" s="424" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D297" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E297" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F297" s="437" t="s">
         <v>147</v>
@@ -10773,13 +11527,13 @@
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="422"/>
       <c r="C298" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D298" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E298" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F298" s="437"/>
       <c r="G298" s="426"/>
@@ -10794,13 +11548,13 @@
         <v>4</v>
       </c>
       <c r="C299" s="424" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D299" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E299" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F299" s="437" t="s">
         <v>147</v>
@@ -10821,13 +11575,13 @@
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="430"/>
       <c r="C300" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D300" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E300" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F300" s="437"/>
       <c r="G300" s="426"/>
@@ -10842,13 +11596,13 @@
         <v>5</v>
       </c>
       <c r="C301" s="442" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D301" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E301" s="442" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F301" s="425" t="s">
         <v>146</v>
@@ -10869,13 +11623,13 @@
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="422"/>
       <c r="C302" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D302" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E302" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F302" s="425"/>
       <c r="G302" s="426"/>
@@ -10890,13 +11644,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="424" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D303" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E303" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F303" s="437" t="s">
         <v>147</v>
@@ -10917,13 +11671,13 @@
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="430"/>
       <c r="C304" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D304" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E304" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F304" s="437"/>
       <c r="G304" s="426"/>
@@ -10938,13 +11692,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="424" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D305" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E305" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F305" s="425" t="s">
         <v>146</v>
@@ -10965,13 +11719,13 @@
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="422"/>
       <c r="C306" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D306" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E306" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F306" s="425"/>
       <c r="G306" s="426"/>
@@ -10986,13 +11740,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="424" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D307" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E307" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F307" s="437" t="s">
         <v>147</v>
@@ -11013,13 +11767,13 @@
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="430"/>
       <c r="C308" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D308" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E308" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F308" s="437"/>
       <c r="G308" s="426"/>
@@ -11034,13 +11788,13 @@
         <v>9</v>
       </c>
       <c r="C309" s="424" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D309" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E309" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F309" s="425" t="s">
         <v>146</v>
@@ -11061,13 +11815,13 @@
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="422"/>
       <c r="C310" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D310" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E310" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F310" s="425"/>
       <c r="G310" s="426"/>
@@ -11082,13 +11836,13 @@
         <v>10</v>
       </c>
       <c r="C311" s="424" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D311" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E311" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F311" s="437" t="s">
         <v>147</v>
@@ -11109,13 +11863,13 @@
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="430"/>
       <c r="C312" s="440" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D312" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E312" s="440" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F312" s="437"/>
       <c r="G312" s="426"/>
@@ -11130,13 +11884,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="424" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D313" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E313" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F313" s="425" t="s">
         <v>146</v>
@@ -11157,13 +11911,13 @@
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="422"/>
       <c r="C314" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D314" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E314" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F314" s="425"/>
       <c r="G314" s="426"/>
@@ -11178,25 +11932,25 @@
         <v>12</v>
       </c>
       <c r="C315" s="443" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D315" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E315" s="444" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F315" s="437" t="s">
         <v>147</v>
       </c>
       <c r="G315" s="426" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H315" s="426" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I315" s="426" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J315" s="426"/>
       <c r="K315" s="438"/>
@@ -11205,13 +11959,13 @@
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="430"/>
       <c r="C316" s="429" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D316" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E316" s="429" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F316" s="437"/>
       <c r="G316" s="426"/>
@@ -11226,25 +11980,25 @@
         <v>13</v>
       </c>
       <c r="C317" s="424" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D317" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E317" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F317" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G317" s="445" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H317" s="445" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I317" s="445" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J317" s="445"/>
       <c r="K317" s="438"/>
@@ -11253,13 +12007,13 @@
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="422"/>
       <c r="C318" s="441" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D318" s="441" t="n">
         <v>22</v>
       </c>
       <c r="E318" s="441" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F318" s="425"/>
       <c r="G318" s="445"/>
@@ -11274,25 +12028,25 @@
         <v>13</v>
       </c>
       <c r="C319" s="424" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D319" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E319" s="424" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F319" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G319" s="445" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H319" s="445" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I319" s="445" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J319" s="445"/>
       <c r="K319" s="438"/>
@@ -12412,7 +13166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12427,30 +13181,30 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="97.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="97.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="446" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B1" s="447" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B2" s="447" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -14724,8 +15478,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="4" style="0" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="4" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="8.63"/>
   </cols>
   <sheetData>
@@ -18057,8 +18811,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18066,7 +18820,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.81"/>
@@ -18861,7 +19615,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -18874,8 +19628,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.63"/>
@@ -19623,7 +20377,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20161,31 +20915,31 @@
       <c r="I30" s="383"/>
       <c r="J30" s="383"/>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="373"/>
-      <c r="B31" s="387" t="s">
+      <c r="B31" s="391" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="387"/>
-      <c r="D31" s="387"/>
-      <c r="E31" s="387"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="387"/>
-      <c r="H31" s="387"/>
-      <c r="I31" s="387"/>
-      <c r="J31" s="387"/>
+      <c r="C31" s="391"/>
+      <c r="D31" s="391"/>
+      <c r="E31" s="391"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="391"/>
+      <c r="H31" s="391"/>
+      <c r="I31" s="391"/>
+      <c r="J31" s="391"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="373"/>
-      <c r="B32" s="387"/>
-      <c r="C32" s="387"/>
-      <c r="D32" s="387"/>
-      <c r="E32" s="387"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="387"/>
-      <c r="H32" s="387"/>
-      <c r="I32" s="387"/>
-      <c r="J32" s="387"/>
+      <c r="B32" s="391"/>
+      <c r="C32" s="391"/>
+      <c r="D32" s="391"/>
+      <c r="E32" s="391"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="391"/>
+      <c r="H32" s="391"/>
+      <c r="I32" s="391"/>
+      <c r="J32" s="391"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="373" t="n">
@@ -20255,29 +21009,29 @@
     </row>
     <row r="37" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="373"/>
-      <c r="B37" s="391" t="s">
+      <c r="B37" s="392" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="391"/>
-      <c r="D37" s="391"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="391"/>
-      <c r="G37" s="391"/>
-      <c r="H37" s="391"/>
-      <c r="I37" s="391"/>
-      <c r="J37" s="391"/>
+      <c r="C37" s="392"/>
+      <c r="D37" s="392"/>
+      <c r="E37" s="392"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="392"/>
+      <c r="H37" s="392"/>
+      <c r="I37" s="392"/>
+      <c r="J37" s="392"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="373"/>
-      <c r="B38" s="391"/>
-      <c r="C38" s="391"/>
-      <c r="D38" s="391"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="391"/>
-      <c r="G38" s="391"/>
-      <c r="H38" s="391"/>
-      <c r="I38" s="391"/>
-      <c r="J38" s="391"/>
+      <c r="B38" s="392"/>
+      <c r="C38" s="392"/>
+      <c r="D38" s="392"/>
+      <c r="E38" s="392"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="392"/>
+      <c r="H38" s="392"/>
+      <c r="I38" s="392"/>
+      <c r="J38" s="392"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -20329,15 +21083,15 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.63"/>
   </cols>
   <sheetData>
@@ -20867,29 +21621,29 @@
     </row>
     <row r="31" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="373"/>
-      <c r="B31" s="392" t="s">
+      <c r="B31" s="391" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="392"/>
-      <c r="D31" s="392"/>
-      <c r="E31" s="392"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="392"/>
-      <c r="H31" s="392"/>
-      <c r="I31" s="392"/>
-      <c r="J31" s="392"/>
+      <c r="C31" s="391"/>
+      <c r="D31" s="391"/>
+      <c r="E31" s="391"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="391"/>
+      <c r="H31" s="391"/>
+      <c r="I31" s="391"/>
+      <c r="J31" s="391"/>
     </row>
     <row r="32" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="373"/>
-      <c r="B32" s="392"/>
-      <c r="C32" s="392"/>
-      <c r="D32" s="392"/>
-      <c r="E32" s="392"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="392"/>
-      <c r="H32" s="392"/>
-      <c r="I32" s="392"/>
-      <c r="J32" s="392"/>
+      <c r="B32" s="391"/>
+      <c r="C32" s="391"/>
+      <c r="D32" s="391"/>
+      <c r="E32" s="391"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="391"/>
+      <c r="H32" s="391"/>
+      <c r="I32" s="391"/>
+      <c r="J32" s="391"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="373" t="n">
@@ -20955,29 +21709,29 @@
     </row>
     <row r="37" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="373"/>
-      <c r="B37" s="391" t="s">
+      <c r="B37" s="392" t="s">
         <v>227</v>
       </c>
-      <c r="C37" s="391"/>
-      <c r="D37" s="391"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="391"/>
-      <c r="G37" s="391"/>
-      <c r="H37" s="391"/>
-      <c r="I37" s="391"/>
-      <c r="J37" s="391"/>
+      <c r="C37" s="392"/>
+      <c r="D37" s="392"/>
+      <c r="E37" s="392"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="392"/>
+      <c r="H37" s="392"/>
+      <c r="I37" s="392"/>
+      <c r="J37" s="392"/>
     </row>
     <row r="38" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="373"/>
-      <c r="B38" s="391"/>
-      <c r="C38" s="391"/>
-      <c r="D38" s="391"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="391"/>
-      <c r="G38" s="391"/>
-      <c r="H38" s="391"/>
-      <c r="I38" s="391"/>
-      <c r="J38" s="391"/>
+      <c r="B38" s="392"/>
+      <c r="C38" s="392"/>
+      <c r="D38" s="392"/>
+      <c r="E38" s="392"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="392"/>
+      <c r="H38" s="392"/>
+      <c r="I38" s="392"/>
+      <c r="J38" s="392"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -21030,16 +21784,19 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="N45" activeCellId="0" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.63"/>
   </cols>
@@ -21615,8 +22372,12 @@
       <c r="D30" s="374"/>
       <c r="E30" s="374"/>
       <c r="F30" s="395"/>
-      <c r="G30" s="374"/>
-      <c r="H30" s="374"/>
+      <c r="G30" s="374" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="H30" s="374" t="n">
+        <v>8.15</v>
+      </c>
       <c r="I30" s="383"/>
       <c r="J30" s="383"/>
       <c r="K30" s="383"/>
@@ -21636,7 +22397,7 @@
       <c r="J31" s="381"/>
       <c r="K31" s="381"/>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="372"/>
       <c r="B32" s="372"/>
       <c r="C32" s="381"/>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="цели на сезон" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="319">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t xml:space="preserve">ССИ/ОСИ (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Местами гололед, но бежать  можно. ГРИ были особенно веселыми, проскальзывают ноги. Пульсом в принципе довольна. Ни разу не перевалил за 190, максим 183. В среднем 159. Бежать при таком пульсе вполне комфортно. Потом бассейн, как-то было тяжеловато. Нужно чаще туда ходить.</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -3700,7 +3703,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3926,12 +3929,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="18562768"/>
-        <c:axId val="65386299"/>
+        <c:axId val="22799845"/>
+        <c:axId val="20025864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="18562768"/>
+        <c:axId val="22799845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,14 +3967,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65386299"/>
+        <c:crossAx val="20025864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65386299"/>
+        <c:axId val="20025864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4052,7 +4055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18562768"/>
+        <c:crossAx val="22799845"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4095,9 +4098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4106,7 +4109,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4390920" cy="2649240"/>
+        <a:ext cx="4390560" cy="2648880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4567,16 +4570,19 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5010,10 +5016,12 @@
       <c r="J21" s="394"/>
       <c r="K21" s="394"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="377"/>
       <c r="B22" s="373"/>
-      <c r="C22" s="379"/>
+      <c r="C22" s="379" t="s">
+        <v>242</v>
+      </c>
       <c r="D22" s="379"/>
       <c r="E22" s="379"/>
       <c r="F22" s="379"/>
@@ -5047,8 +5055,12 @@
       <c r="D24" s="374"/>
       <c r="E24" s="374"/>
       <c r="F24" s="395"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="374"/>
+      <c r="G24" s="374" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="H24" s="374" t="n">
+        <v>6.29</v>
+      </c>
       <c r="I24" s="374"/>
       <c r="J24" s="374"/>
       <c r="K24" s="374"/>
@@ -5329,23 +5341,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G1" s="398" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H1" s="398"/>
       <c r="I1" s="358" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -5366,7 +5378,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="399" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C3" s="399"/>
       <c r="D3" s="400" t="n">
@@ -5374,7 +5386,7 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="401" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F3" s="401" t="n">
         <v>4</v>
@@ -5385,7 +5397,7 @@
       </c>
       <c r="H3" s="402"/>
       <c r="I3" s="403" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J3" s="403"/>
       <c r="K3" s="403"/>
@@ -5393,7 +5405,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C4" s="404"/>
       <c r="D4" s="405" t="n">
@@ -5408,7 +5420,7 @@
       </c>
       <c r="H4" s="406"/>
       <c r="I4" s="407" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J4" s="407"/>
       <c r="K4" s="407"/>
@@ -5416,7 +5428,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="404" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C5" s="404"/>
       <c r="D5" s="408" t="n">
@@ -5431,7 +5443,7 @@
       </c>
       <c r="H5" s="409"/>
       <c r="I5" s="407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J5" s="407"/>
       <c r="K5" s="407"/>
@@ -5439,7 +5451,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="404" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C6" s="404"/>
       <c r="D6" s="410" t="n">
@@ -5451,7 +5463,7 @@
       <c r="G6" s="410"/>
       <c r="H6" s="410"/>
       <c r="I6" s="411" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J6" s="411"/>
       <c r="K6" s="411"/>
@@ -5459,7 +5471,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C7" s="413"/>
       <c r="D7" s="414" t="n">
@@ -5471,7 +5483,7 @@
       <c r="G7" s="414"/>
       <c r="H7" s="414"/>
       <c r="I7" s="407" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J7" s="407"/>
       <c r="K7" s="407"/>
@@ -5496,11 +5508,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="417" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="417"/>
       <c r="D9" s="418" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E9" s="418"/>
       <c r="F9" s="418"/>
@@ -5527,13 +5539,13 @@
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="420"/>
       <c r="C11" s="421" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D11" s="421"/>
       <c r="E11" s="421"/>
       <c r="F11" s="421"/>
       <c r="G11" s="180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -5546,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="423" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D12" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F12" s="425" t="s">
         <v>146</v>
@@ -5575,13 +5587,13 @@
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="422"/>
       <c r="C13" s="428" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D13" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E13" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F13" s="425"/>
       <c r="G13" s="426"/>
@@ -5596,13 +5608,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="424" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D14" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E14" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F14" s="431" t="s">
         <v>146</v>
@@ -5625,13 +5637,13 @@
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="430"/>
       <c r="C15" s="435" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D15" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E15" s="435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F15" s="431"/>
       <c r="G15" s="432"/>
@@ -5646,13 +5658,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="424" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D16" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F16" s="437" t="s">
         <v>147</v>
@@ -5675,13 +5687,13 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="436"/>
       <c r="C17" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D17" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F17" s="437"/>
       <c r="G17" s="426"/>
@@ -5696,13 +5708,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="424" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F18" s="437" t="s">
         <v>147</v>
@@ -5725,13 +5737,13 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="436"/>
       <c r="C19" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F19" s="437"/>
       <c r="G19" s="426"/>
@@ -5746,13 +5758,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="424" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F20" s="425" t="s">
         <v>146</v>
@@ -5775,13 +5787,13 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="436"/>
       <c r="C21" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D21" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E21" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F21" s="425"/>
       <c r="G21" s="426"/>
@@ -5796,13 +5808,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="424" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F22" s="437" t="s">
         <v>147</v>
@@ -5825,13 +5837,13 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="436"/>
       <c r="C23" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D23" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E23" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F23" s="437"/>
       <c r="G23" s="426"/>
@@ -5846,13 +5858,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="424" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D24" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F24" s="425" t="s">
         <v>146</v>
@@ -5875,13 +5887,13 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="436"/>
       <c r="C25" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D25" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E25" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F25" s="425"/>
       <c r="G25" s="426"/>
@@ -5896,13 +5908,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="424" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D26" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F26" s="437" t="s">
         <v>147</v>
@@ -5925,13 +5937,13 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="436"/>
       <c r="C27" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D27" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E27" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F27" s="437"/>
       <c r="G27" s="426"/>
@@ -5946,13 +5958,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="424" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D28" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E28" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F28" s="425" t="s">
         <v>146</v>
@@ -5975,13 +5987,13 @@
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="436"/>
       <c r="C29" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D29" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E29" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F29" s="425"/>
       <c r="G29" s="426"/>
@@ -5996,13 +6008,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D30" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E30" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F30" s="425" t="s">
         <v>146</v>
@@ -6025,13 +6037,13 @@
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="436"/>
       <c r="C31" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D31" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E31" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F31" s="425"/>
       <c r="G31" s="426"/>
@@ -6046,13 +6058,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="424" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D32" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E32" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F32" s="437" t="s">
         <v>147</v>
@@ -6075,13 +6087,13 @@
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="436"/>
       <c r="C33" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D33" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E33" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F33" s="437"/>
       <c r="G33" s="426"/>
@@ -6096,28 +6108,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="424" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D34" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E34" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F34" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G34" s="426" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H34" s="426" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I34" s="426" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J34" s="426" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K34" s="438"/>
       <c r="L34" s="439"/>
@@ -6138,23 +6150,23 @@
     <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G40" s="398" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H40" s="398"/>
       <c r="I40" s="358" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -6175,7 +6187,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="399" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" s="399"/>
       <c r="D42" s="400" t="n">
@@ -6183,7 +6195,7 @@
         <v>6.2</v>
       </c>
       <c r="E42" s="401" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F42" s="401" t="n">
         <v>4</v>
@@ -6194,7 +6206,7 @@
       </c>
       <c r="H42" s="402"/>
       <c r="I42" s="403" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J42" s="403"/>
       <c r="K42" s="403"/>
@@ -6202,7 +6214,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C43" s="404"/>
       <c r="D43" s="405" t="n">
@@ -6217,7 +6229,7 @@
       </c>
       <c r="H43" s="406"/>
       <c r="I43" s="407" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J43" s="407"/>
       <c r="K43" s="407"/>
@@ -6225,7 +6237,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="404" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C44" s="404"/>
       <c r="D44" s="408" t="n">
@@ -6240,7 +6252,7 @@
       </c>
       <c r="H44" s="409"/>
       <c r="I44" s="407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J44" s="407"/>
       <c r="K44" s="407"/>
@@ -6248,7 +6260,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="404" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C45" s="404"/>
       <c r="D45" s="410" t="n">
@@ -6260,7 +6272,7 @@
       <c r="G45" s="410"/>
       <c r="H45" s="410"/>
       <c r="I45" s="411" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J45" s="411"/>
       <c r="K45" s="411"/>
@@ -6268,7 +6280,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C46" s="413"/>
       <c r="D46" s="414" t="n">
@@ -6280,7 +6292,7 @@
       <c r="G46" s="414"/>
       <c r="H46" s="414"/>
       <c r="I46" s="407" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J46" s="407"/>
       <c r="K46" s="407"/>
@@ -6299,7 +6311,7 @@
       <c r="G47" s="415"/>
       <c r="H47" s="415"/>
       <c r="I47" s="407" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J47" s="407"/>
       <c r="K47" s="407"/>
@@ -6307,18 +6319,18 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="417" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C48" s="417"/>
       <c r="D48" s="418" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E48" s="418"/>
       <c r="F48" s="418"/>
       <c r="G48" s="418"/>
       <c r="H48" s="418"/>
       <c r="I48" s="407" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J48" s="407"/>
       <c r="K48" s="407"/>
@@ -6340,13 +6352,13 @@
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="420"/>
       <c r="C50" s="421" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D50" s="421"/>
       <c r="E50" s="421"/>
       <c r="F50" s="421"/>
       <c r="G50" s="180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -6359,13 +6371,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="423" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D51" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E51" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F51" s="425" t="s">
         <v>146</v>
@@ -6388,13 +6400,13 @@
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="422"/>
       <c r="C52" s="428" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D52" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E52" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F52" s="425"/>
       <c r="G52" s="426"/>
@@ -6409,13 +6421,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="424" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D53" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E53" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F53" s="431" t="s">
         <v>146</v>
@@ -6438,13 +6450,13 @@
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="430"/>
       <c r="C54" s="435" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D54" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E54" s="435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F54" s="431"/>
       <c r="G54" s="432"/>
@@ -6459,13 +6471,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="424" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D55" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E55" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F55" s="437" t="s">
         <v>147</v>
@@ -6488,13 +6500,13 @@
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="422"/>
       <c r="C56" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D56" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E56" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F56" s="437"/>
       <c r="G56" s="426"/>
@@ -6509,13 +6521,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="424" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D57" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E57" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F57" s="437" t="s">
         <v>147</v>
@@ -6538,13 +6550,13 @@
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="430"/>
       <c r="C58" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D58" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E58" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F58" s="437"/>
       <c r="G58" s="426"/>
@@ -6559,28 +6571,28 @@
         <v>5</v>
       </c>
       <c r="C59" s="442" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D59" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E59" s="442" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F59" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G59" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H59" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I59" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J59" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K59" s="438"/>
       <c r="L59" s="439"/>
@@ -6588,13 +6600,13 @@
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="422"/>
       <c r="C60" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D60" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E60" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F60" s="425"/>
       <c r="G60" s="426"/>
@@ -6609,13 +6621,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="424" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D61" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E61" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F61" s="437" t="s">
         <v>147</v>
@@ -6638,13 +6650,13 @@
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="430"/>
       <c r="C62" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D62" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E62" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F62" s="437"/>
       <c r="G62" s="426"/>
@@ -6659,13 +6671,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="424" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D63" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E63" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F63" s="425" t="s">
         <v>146</v>
@@ -6688,13 +6700,13 @@
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="422"/>
       <c r="C64" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D64" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E64" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F64" s="425"/>
       <c r="G64" s="426"/>
@@ -6709,13 +6721,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="424" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D65" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E65" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F65" s="437" t="s">
         <v>147</v>
@@ -6738,13 +6750,13 @@
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="430"/>
       <c r="C66" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D66" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E66" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F66" s="437"/>
       <c r="G66" s="426"/>
@@ -6759,13 +6771,13 @@
         <v>9</v>
       </c>
       <c r="C67" s="424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F67" s="425" t="s">
         <v>146</v>
@@ -6788,13 +6800,13 @@
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="422"/>
       <c r="C68" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D68" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E68" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F68" s="425"/>
       <c r="G68" s="426"/>
@@ -6809,13 +6821,13 @@
         <v>10</v>
       </c>
       <c r="C69" s="424" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D69" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E69" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F69" s="437" t="s">
         <v>147</v>
@@ -6838,13 +6850,13 @@
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="430"/>
       <c r="C70" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D70" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E70" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F70" s="437"/>
       <c r="G70" s="426"/>
@@ -6859,13 +6871,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="424" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D71" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F71" s="425" t="s">
         <v>146</v>
@@ -6892,7 +6904,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="441" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F72" s="425"/>
       <c r="G72" s="426"/>
@@ -6907,13 +6919,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="443" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D73" s="444" t="n">
         <v>22</v>
       </c>
       <c r="E73" s="444" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F73" s="437" t="s">
         <v>147</v>
@@ -6940,7 +6952,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="441" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F74" s="437"/>
       <c r="G74" s="426"/>
@@ -6955,28 +6967,28 @@
         <v>13</v>
       </c>
       <c r="C75" s="424" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D75" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E75" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F75" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G75" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H75" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I75" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J75" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K75" s="438"/>
       <c r="L75" s="439"/>
@@ -6997,23 +7009,23 @@
     <row r="80" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G80" s="398" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H80" s="398"/>
       <c r="I80" s="358" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -7034,7 +7046,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="399" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C82" s="399"/>
       <c r="D82" s="400" t="n">
@@ -7042,7 +7054,7 @@
         <v>6.2</v>
       </c>
       <c r="E82" s="401" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F82" s="401" t="n">
         <v>4</v>
@@ -7053,7 +7065,7 @@
       </c>
       <c r="H82" s="402"/>
       <c r="I82" s="403" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J82" s="403"/>
       <c r="K82" s="403"/>
@@ -7061,7 +7073,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C83" s="404"/>
       <c r="D83" s="405" t="n">
@@ -7076,7 +7088,7 @@
       </c>
       <c r="H83" s="406"/>
       <c r="I83" s="407" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J83" s="407"/>
       <c r="K83" s="407"/>
@@ -7084,7 +7096,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="404" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C84" s="404"/>
       <c r="D84" s="408" t="n">
@@ -7099,7 +7111,7 @@
       </c>
       <c r="H84" s="409"/>
       <c r="I84" s="407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J84" s="407"/>
       <c r="K84" s="407"/>
@@ -7107,7 +7119,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="404" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C85" s="404"/>
       <c r="D85" s="410" t="n">
@@ -7119,7 +7131,7 @@
       <c r="G85" s="410"/>
       <c r="H85" s="410"/>
       <c r="I85" s="411" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J85" s="411"/>
       <c r="K85" s="411"/>
@@ -7127,7 +7139,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C86" s="413"/>
       <c r="D86" s="414" t="n">
@@ -7139,7 +7151,7 @@
       <c r="G86" s="414"/>
       <c r="H86" s="414"/>
       <c r="I86" s="407" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J86" s="407"/>
       <c r="K86" s="407"/>
@@ -7158,7 +7170,7 @@
       <c r="G87" s="415"/>
       <c r="H87" s="415"/>
       <c r="I87" s="407" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J87" s="407"/>
       <c r="K87" s="407"/>
@@ -7166,18 +7178,18 @@
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="417" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C88" s="417"/>
       <c r="D88" s="418" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E88" s="418"/>
       <c r="F88" s="418"/>
       <c r="G88" s="418"/>
       <c r="H88" s="418"/>
       <c r="I88" s="407" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J88" s="407"/>
       <c r="K88" s="407"/>
@@ -7199,13 +7211,13 @@
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="420"/>
       <c r="C90" s="421" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="421"/>
       <c r="E90" s="421"/>
       <c r="F90" s="421"/>
       <c r="G90" s="180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -7218,13 +7230,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="423" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E91" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F91" s="425" t="s">
         <v>146</v>
@@ -7247,13 +7259,13 @@
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="422"/>
       <c r="C92" s="428" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E92" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F92" s="425"/>
       <c r="G92" s="426"/>
@@ -7268,13 +7280,13 @@
         <v>2</v>
       </c>
       <c r="C93" s="424" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E93" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F93" s="431" t="s">
         <v>146</v>
@@ -7297,13 +7309,13 @@
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="430"/>
       <c r="C94" s="435" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E94" s="435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F94" s="431"/>
       <c r="G94" s="432"/>
@@ -7318,13 +7330,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="424" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E95" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F95" s="437" t="s">
         <v>147</v>
@@ -7347,13 +7359,13 @@
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="422"/>
       <c r="C96" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E96" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F96" s="437"/>
       <c r="G96" s="426"/>
@@ -7368,13 +7380,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="424" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E97" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F97" s="437" t="s">
         <v>147</v>
@@ -7397,13 +7409,13 @@
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="430"/>
       <c r="C98" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D98" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E98" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F98" s="437"/>
       <c r="G98" s="426"/>
@@ -7418,28 +7430,28 @@
         <v>5</v>
       </c>
       <c r="C99" s="442" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E99" s="442" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F99" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G99" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H99" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I99" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J99" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K99" s="438"/>
       <c r="L99" s="439"/>
@@ -7447,13 +7459,13 @@
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="422"/>
       <c r="C100" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D100" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E100" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F100" s="425"/>
       <c r="G100" s="426"/>
@@ -7468,13 +7480,13 @@
         <v>6</v>
       </c>
       <c r="C101" s="424" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E101" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F101" s="437" t="s">
         <v>147</v>
@@ -7497,13 +7509,13 @@
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="430"/>
       <c r="C102" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D102" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E102" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F102" s="437"/>
       <c r="G102" s="426"/>
@@ -7518,13 +7530,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="424" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D103" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E103" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F103" s="425" t="s">
         <v>146</v>
@@ -7547,13 +7559,13 @@
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="422"/>
       <c r="C104" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D104" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E104" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F104" s="425"/>
       <c r="G104" s="426"/>
@@ -7568,13 +7580,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="424" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D105" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E105" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F105" s="437" t="s">
         <v>147</v>
@@ -7597,13 +7609,13 @@
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="430"/>
       <c r="C106" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D106" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E106" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F106" s="437"/>
       <c r="G106" s="426"/>
@@ -7618,13 +7630,13 @@
         <v>9</v>
       </c>
       <c r="C107" s="424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D107" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E107" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F107" s="425" t="s">
         <v>146</v>
@@ -7647,13 +7659,13 @@
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="422"/>
       <c r="C108" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D108" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E108" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F108" s="425"/>
       <c r="G108" s="426"/>
@@ -7668,13 +7680,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="424" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D109" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E109" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F109" s="437" t="s">
         <v>147</v>
@@ -7697,13 +7709,13 @@
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="430"/>
       <c r="C110" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D110" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E110" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F110" s="437"/>
       <c r="G110" s="426"/>
@@ -7718,13 +7730,13 @@
         <v>11</v>
       </c>
       <c r="C111" s="424" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D111" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E111" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F111" s="425" t="s">
         <v>146</v>
@@ -7751,7 +7763,7 @@
         <v>22</v>
       </c>
       <c r="E112" s="441" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F112" s="425"/>
       <c r="G112" s="426"/>
@@ -7766,13 +7778,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="443" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D113" s="444" t="n">
         <v>22</v>
       </c>
       <c r="E113" s="444" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F113" s="437" t="s">
         <v>147</v>
@@ -7799,7 +7811,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="441" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F114" s="437"/>
       <c r="G114" s="426"/>
@@ -7814,28 +7826,28 @@
         <v>13</v>
       </c>
       <c r="C115" s="424" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D115" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E115" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F115" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G115" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H115" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I115" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J115" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K115" s="438"/>
       <c r="L115" s="439"/>
@@ -7856,23 +7868,23 @@
     <row r="121" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G121" s="398" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H121" s="398"/>
       <c r="I121" s="358" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -7893,7 +7905,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="399" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C123" s="399"/>
       <c r="D123" s="400" t="n">
@@ -7901,7 +7913,7 @@
         <v>7.23333333333333</v>
       </c>
       <c r="E123" s="401" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F123" s="401" t="n">
         <v>4</v>
@@ -7918,7 +7930,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C124" s="404"/>
       <c r="D124" s="405" t="n">
@@ -7933,7 +7945,7 @@
       </c>
       <c r="H124" s="406"/>
       <c r="I124" s="407" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J124" s="407"/>
       <c r="K124" s="407"/>
@@ -7941,7 +7953,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="404" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C125" s="404"/>
       <c r="D125" s="408" t="n">
@@ -7956,7 +7968,7 @@
       </c>
       <c r="H125" s="409"/>
       <c r="I125" s="407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J125" s="407"/>
       <c r="K125" s="407"/>
@@ -7964,7 +7976,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="404" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C126" s="404"/>
       <c r="D126" s="410" t="n">
@@ -7976,7 +7988,7 @@
       <c r="G126" s="410"/>
       <c r="H126" s="410"/>
       <c r="I126" s="411" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J126" s="411"/>
       <c r="K126" s="411"/>
@@ -7984,7 +7996,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C127" s="413"/>
       <c r="D127" s="414" t="n">
@@ -7996,7 +8008,7 @@
       <c r="G127" s="414"/>
       <c r="H127" s="414"/>
       <c r="I127" s="407" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J127" s="407"/>
       <c r="K127" s="407"/>
@@ -8015,7 +8027,7 @@
       <c r="G128" s="415"/>
       <c r="H128" s="415"/>
       <c r="I128" s="407" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J128" s="407"/>
       <c r="K128" s="407"/>
@@ -8023,18 +8035,18 @@
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="417" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C129" s="417"/>
       <c r="D129" s="418" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E129" s="418"/>
       <c r="F129" s="418"/>
       <c r="G129" s="418"/>
       <c r="H129" s="418"/>
       <c r="I129" s="407" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J129" s="407"/>
       <c r="K129" s="407"/>
@@ -8056,13 +8068,13 @@
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="420"/>
       <c r="C131" s="421" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D131" s="421"/>
       <c r="E131" s="421"/>
       <c r="F131" s="421"/>
       <c r="G131" s="180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -8075,13 +8087,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="423" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D132" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E132" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F132" s="425" t="s">
         <v>146</v>
@@ -8104,13 +8116,13 @@
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="422"/>
       <c r="C133" s="428" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D133" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E133" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F133" s="425"/>
       <c r="G133" s="426"/>
@@ -8125,13 +8137,13 @@
         <v>2</v>
       </c>
       <c r="C134" s="424" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D134" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E134" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F134" s="431" t="s">
         <v>146</v>
@@ -8154,13 +8166,13 @@
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="430"/>
       <c r="C135" s="435" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D135" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E135" s="435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F135" s="431"/>
       <c r="G135" s="432"/>
@@ -8175,13 +8187,13 @@
         <v>3</v>
       </c>
       <c r="C136" s="424" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D136" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E136" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F136" s="437" t="s">
         <v>147</v>
@@ -8204,13 +8216,13 @@
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="422"/>
       <c r="C137" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D137" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E137" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F137" s="437"/>
       <c r="G137" s="426"/>
@@ -8225,13 +8237,13 @@
         <v>4</v>
       </c>
       <c r="C138" s="424" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D138" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E138" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F138" s="437" t="s">
         <v>147</v>
@@ -8254,13 +8266,13 @@
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="430"/>
       <c r="C139" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D139" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E139" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F139" s="437"/>
       <c r="G139" s="426"/>
@@ -8275,13 +8287,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="442" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D140" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E140" s="442" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F140" s="425" t="s">
         <v>146</v>
@@ -8304,13 +8316,13 @@
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="422"/>
       <c r="C141" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D141" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E141" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F141" s="425"/>
       <c r="G141" s="426"/>
@@ -8325,13 +8337,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="424" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D142" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E142" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F142" s="437" t="s">
         <v>147</v>
@@ -8354,13 +8366,13 @@
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="430"/>
       <c r="C143" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D143" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E143" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F143" s="437"/>
       <c r="G143" s="426"/>
@@ -8375,13 +8387,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="424" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D144" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E144" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F144" s="425" t="s">
         <v>146</v>
@@ -8404,13 +8416,13 @@
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="422"/>
       <c r="C145" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D145" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E145" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F145" s="425"/>
       <c r="G145" s="426"/>
@@ -8425,13 +8437,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="424" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D146" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E146" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F146" s="437" t="s">
         <v>147</v>
@@ -8454,13 +8466,13 @@
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="430"/>
       <c r="C147" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D147" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E147" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F147" s="437"/>
       <c r="G147" s="426"/>
@@ -8475,13 +8487,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D148" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E148" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F148" s="425" t="s">
         <v>146</v>
@@ -8504,13 +8516,13 @@
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="422"/>
       <c r="C149" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D149" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E149" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F149" s="425"/>
       <c r="G149" s="426"/>
@@ -8525,13 +8537,13 @@
         <v>10</v>
       </c>
       <c r="C150" s="424" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D150" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E150" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F150" s="437" t="s">
         <v>147</v>
@@ -8554,13 +8566,13 @@
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="430"/>
       <c r="C151" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D151" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E151" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F151" s="437"/>
       <c r="G151" s="426"/>
@@ -8575,13 +8587,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="424" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D152" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E152" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F152" s="425" t="s">
         <v>146</v>
@@ -8604,13 +8616,13 @@
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="422"/>
       <c r="C153" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D153" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E153" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F153" s="425"/>
       <c r="G153" s="426"/>
@@ -8625,13 +8637,13 @@
         <v>12</v>
       </c>
       <c r="C154" s="443" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D154" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E154" s="444" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F154" s="437" t="s">
         <v>147</v>
@@ -8654,13 +8666,13 @@
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="430"/>
       <c r="C155" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D155" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E155" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F155" s="437"/>
       <c r="G155" s="426"/>
@@ -8675,13 +8687,13 @@
         <v>13</v>
       </c>
       <c r="C156" s="424" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D156" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E156" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F156" s="425" t="s">
         <v>146</v>
@@ -8704,13 +8716,13 @@
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="422"/>
       <c r="C157" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D157" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E157" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F157" s="425"/>
       <c r="G157" s="426"/>
@@ -8725,28 +8737,28 @@
         <v>14</v>
       </c>
       <c r="C158" s="424" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D158" s="424" t="n">
         <v>140</v>
       </c>
       <c r="E158" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F158" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G158" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H158" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I158" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J158" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K158" s="438"/>
       <c r="L158" s="439"/>
@@ -8767,23 +8779,23 @@
     <row r="164" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G164" s="398" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H164" s="398"/>
       <c r="I164" s="358" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -8804,7 +8816,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="399" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C166" s="399"/>
       <c r="D166" s="400" t="n">
@@ -8812,7 +8824,7 @@
         <v>7.2</v>
       </c>
       <c r="E166" s="401" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F166" s="401" t="n">
         <v>2</v>
@@ -8823,7 +8835,7 @@
       </c>
       <c r="H166" s="402"/>
       <c r="I166" s="403" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J166" s="403"/>
       <c r="K166" s="403"/>
@@ -8831,7 +8843,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C167" s="404"/>
       <c r="D167" s="405" t="n">
@@ -8846,7 +8858,7 @@
       </c>
       <c r="H167" s="406"/>
       <c r="I167" s="407" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J167" s="407"/>
       <c r="K167" s="407"/>
@@ -8854,7 +8866,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="404" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C168" s="404"/>
       <c r="D168" s="408" t="n">
@@ -8869,7 +8881,7 @@
       </c>
       <c r="H168" s="409"/>
       <c r="I168" s="407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J168" s="407"/>
       <c r="K168" s="407"/>
@@ -8877,7 +8889,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="404" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C169" s="404"/>
       <c r="D169" s="410" t="n">
@@ -8889,7 +8901,7 @@
       <c r="G169" s="410"/>
       <c r="H169" s="410"/>
       <c r="I169" s="411" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J169" s="411"/>
       <c r="K169" s="411"/>
@@ -8897,7 +8909,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C170" s="413"/>
       <c r="D170" s="414" t="n">
@@ -8909,7 +8921,7 @@
       <c r="G170" s="414"/>
       <c r="H170" s="414"/>
       <c r="I170" s="407" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J170" s="407"/>
       <c r="K170" s="407"/>
@@ -8934,11 +8946,11 @@
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="417" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C172" s="417"/>
       <c r="D172" s="418" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E172" s="418"/>
       <c r="F172" s="418"/>
@@ -8965,13 +8977,13 @@
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="420"/>
       <c r="C174" s="421" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D174" s="421"/>
       <c r="E174" s="421"/>
       <c r="F174" s="421"/>
       <c r="G174" s="180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -8984,13 +8996,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="423" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D175" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E175" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F175" s="425" t="s">
         <v>146</v>
@@ -9009,13 +9021,13 @@
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="422"/>
       <c r="C176" s="428" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D176" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E176" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F176" s="425"/>
       <c r="G176" s="426"/>
@@ -9030,13 +9042,13 @@
         <v>2</v>
       </c>
       <c r="C177" s="424" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D177" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E177" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F177" s="431" t="s">
         <v>146</v>
@@ -9055,13 +9067,13 @@
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="430"/>
       <c r="C178" s="435" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D178" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E178" s="435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F178" s="431"/>
       <c r="G178" s="432"/>
@@ -9076,13 +9088,13 @@
         <v>3</v>
       </c>
       <c r="C179" s="424" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D179" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E179" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F179" s="437" t="s">
         <v>147</v>
@@ -9101,13 +9113,13 @@
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="436"/>
       <c r="C180" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D180" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E180" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F180" s="437"/>
       <c r="G180" s="426"/>
@@ -9122,13 +9134,13 @@
         <v>4</v>
       </c>
       <c r="C181" s="424" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D181" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E181" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F181" s="437" t="s">
         <v>147</v>
@@ -9147,13 +9159,13 @@
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="436"/>
       <c r="C182" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D182" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E182" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F182" s="437"/>
       <c r="G182" s="426"/>
@@ -9168,13 +9180,13 @@
         <v>5</v>
       </c>
       <c r="C183" s="424" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D183" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E183" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F183" s="425" t="s">
         <v>146</v>
@@ -9193,13 +9205,13 @@
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="436"/>
       <c r="C184" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D184" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E184" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F184" s="425"/>
       <c r="G184" s="426"/>
@@ -9214,13 +9226,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="424" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D185" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E185" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F185" s="437" t="s">
         <v>147</v>
@@ -9239,13 +9251,13 @@
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="436"/>
       <c r="C186" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D186" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E186" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F186" s="437"/>
       <c r="G186" s="426"/>
@@ -9260,13 +9272,13 @@
         <v>7</v>
       </c>
       <c r="C187" s="424" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D187" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E187" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F187" s="425" t="s">
         <v>146</v>
@@ -9285,13 +9297,13 @@
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="436"/>
       <c r="C188" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D188" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E188" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F188" s="425"/>
       <c r="G188" s="426"/>
@@ -9306,13 +9318,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="424" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D189" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E189" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F189" s="437" t="s">
         <v>147</v>
@@ -9331,13 +9343,13 @@
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="436"/>
       <c r="C190" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D190" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E190" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F190" s="437"/>
       <c r="G190" s="426"/>
@@ -9352,13 +9364,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="424" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D191" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E191" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F191" s="425" t="s">
         <v>146</v>
@@ -9377,13 +9389,13 @@
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="436"/>
       <c r="C192" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D192" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E192" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F192" s="425"/>
       <c r="G192" s="426"/>
@@ -9398,13 +9410,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D193" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E193" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F193" s="425" t="s">
         <v>146</v>
@@ -9423,13 +9435,13 @@
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="436"/>
       <c r="C194" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D194" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E194" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F194" s="425"/>
       <c r="G194" s="426"/>
@@ -9444,13 +9456,13 @@
         <v>11</v>
       </c>
       <c r="C195" s="424" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D195" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E195" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F195" s="437" t="s">
         <v>147</v>
@@ -9469,13 +9481,13 @@
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="436"/>
       <c r="C196" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D196" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E196" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F196" s="437"/>
       <c r="G196" s="426"/>
@@ -9490,22 +9502,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="424" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D197" s="424" t="n">
         <v>180</v>
       </c>
       <c r="E197" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F197" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G197" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H197" s="426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I197" s="426"/>
       <c r="J197" s="426"/>
@@ -9528,23 +9540,23 @@
     <row r="202" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="368"/>
       <c r="C202" s="368" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D202" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E202" s="368" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F202" s="368" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G202" s="398" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H202" s="398"/>
       <c r="I202" s="358" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J202" s="358"/>
       <c r="K202" s="358"/>
@@ -9565,7 +9577,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="399" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C204" s="399"/>
       <c r="D204" s="400" t="e">
@@ -9573,7 +9585,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E204" s="401" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F204" s="401" t="n">
         <v>4</v>
@@ -9590,7 +9602,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C205" s="404"/>
       <c r="D205" s="405" t="n">
@@ -9605,7 +9617,7 @@
       </c>
       <c r="H205" s="406"/>
       <c r="I205" s="407" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J205" s="407"/>
       <c r="K205" s="407"/>
@@ -9613,7 +9625,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="404" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C206" s="404"/>
       <c r="D206" s="408" t="e">
@@ -9628,7 +9640,7 @@
       </c>
       <c r="H206" s="409"/>
       <c r="I206" s="407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J206" s="407"/>
       <c r="K206" s="407"/>
@@ -9636,18 +9648,18 @@
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="404" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C207" s="404"/>
       <c r="D207" s="410" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E207" s="410"/>
       <c r="F207" s="410"/>
       <c r="G207" s="410"/>
       <c r="H207" s="410"/>
       <c r="I207" s="411" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J207" s="411"/>
       <c r="K207" s="411"/>
@@ -9655,7 +9667,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C208" s="413"/>
       <c r="D208" s="414" t="n">
@@ -9666,7 +9678,7 @@
       <c r="G208" s="414"/>
       <c r="H208" s="414"/>
       <c r="I208" s="407" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J208" s="407"/>
       <c r="K208" s="407"/>
@@ -9685,7 +9697,7 @@
       <c r="G209" s="415"/>
       <c r="H209" s="415"/>
       <c r="I209" s="407" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J209" s="407"/>
       <c r="K209" s="407"/>
@@ -9693,18 +9705,18 @@
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="417" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C210" s="417"/>
       <c r="D210" s="418" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E210" s="418"/>
       <c r="F210" s="418"/>
       <c r="G210" s="418"/>
       <c r="H210" s="418"/>
       <c r="I210" s="407" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J210" s="407"/>
       <c r="K210" s="407"/>
@@ -9726,13 +9738,13 @@
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="420"/>
       <c r="C212" s="421" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D212" s="421"/>
       <c r="E212" s="421"/>
       <c r="F212" s="421"/>
       <c r="G212" s="180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H212" s="180"/>
       <c r="I212" s="180"/>
@@ -9745,13 +9757,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="423" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D213" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E213" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F213" s="425" t="s">
         <v>146</v>
@@ -9772,13 +9784,13 @@
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="422"/>
       <c r="C214" s="428" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D214" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E214" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F214" s="425"/>
       <c r="G214" s="426"/>
@@ -9793,13 +9805,13 @@
         <v>2</v>
       </c>
       <c r="C215" s="424" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D215" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E215" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F215" s="431" t="s">
         <v>146</v>
@@ -9820,13 +9832,13 @@
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="430"/>
       <c r="C216" s="435" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D216" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E216" s="435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F216" s="431"/>
       <c r="G216" s="432"/>
@@ -9841,13 +9853,13 @@
         <v>3</v>
       </c>
       <c r="C217" s="424" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D217" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E217" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F217" s="437" t="s">
         <v>147</v>
@@ -9868,13 +9880,13 @@
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="422"/>
       <c r="C218" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D218" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E218" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F218" s="437"/>
       <c r="G218" s="426"/>
@@ -9889,13 +9901,13 @@
         <v>4</v>
       </c>
       <c r="C219" s="424" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D219" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E219" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F219" s="437" t="s">
         <v>147</v>
@@ -9916,13 +9928,13 @@
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="430"/>
       <c r="C220" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D220" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E220" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F220" s="437"/>
       <c r="G220" s="426"/>
@@ -9937,13 +9949,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="442" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D221" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E221" s="442" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F221" s="425" t="s">
         <v>146</v>
@@ -9964,13 +9976,13 @@
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="422"/>
       <c r="C222" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D222" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E222" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F222" s="425"/>
       <c r="G222" s="426"/>
@@ -9985,13 +9997,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="424" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D223" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E223" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F223" s="437" t="s">
         <v>147</v>
@@ -10012,13 +10024,13 @@
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="430"/>
       <c r="C224" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D224" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E224" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F224" s="437"/>
       <c r="G224" s="426"/>
@@ -10033,13 +10045,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="424" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D225" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E225" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F225" s="425" t="s">
         <v>146</v>
@@ -10060,13 +10072,13 @@
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="422"/>
       <c r="C226" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D226" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E226" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F226" s="425"/>
       <c r="G226" s="426"/>
@@ -10081,13 +10093,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="424" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D227" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E227" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F227" s="437" t="s">
         <v>147</v>
@@ -10108,13 +10120,13 @@
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="430"/>
       <c r="C228" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D228" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E228" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F228" s="437"/>
       <c r="G228" s="426"/>
@@ -10129,13 +10141,13 @@
         <v>9</v>
       </c>
       <c r="C229" s="424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D229" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E229" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F229" s="425" t="s">
         <v>146</v>
@@ -10156,13 +10168,13 @@
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="422"/>
       <c r="C230" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D230" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E230" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F230" s="425"/>
       <c r="G230" s="426"/>
@@ -10177,13 +10189,13 @@
         <v>10</v>
       </c>
       <c r="C231" s="424" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D231" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E231" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F231" s="437" t="s">
         <v>147</v>
@@ -10204,13 +10216,13 @@
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="430"/>
       <c r="C232" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D232" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E232" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F232" s="437"/>
       <c r="G232" s="426"/>
@@ -10225,13 +10237,13 @@
         <v>11</v>
       </c>
       <c r="C233" s="424" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D233" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E233" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F233" s="425" t="s">
         <v>146</v>
@@ -10252,13 +10264,13 @@
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="422"/>
       <c r="C234" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D234" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E234" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F234" s="425"/>
       <c r="G234" s="426"/>
@@ -10273,13 +10285,13 @@
         <v>12</v>
       </c>
       <c r="C235" s="443" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D235" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E235" s="444" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F235" s="437" t="s">
         <v>147</v>
@@ -10300,13 +10312,13 @@
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="430"/>
       <c r="C236" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D236" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E236" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F236" s="437"/>
       <c r="G236" s="426"/>
@@ -10321,25 +10333,25 @@
         <v>13</v>
       </c>
       <c r="C237" s="424" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D237" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E237" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F237" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G237" s="445" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H237" s="445" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I237" s="445" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J237" s="445"/>
       <c r="K237" s="438"/>
@@ -10361,23 +10373,23 @@
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="368"/>
       <c r="C242" s="368" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D242" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E242" s="368" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F242" s="368" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G242" s="398" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H242" s="398"/>
       <c r="I242" s="358" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J242" s="358"/>
       <c r="K242" s="358"/>
@@ -10398,7 +10410,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="399" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C244" s="399"/>
       <c r="D244" s="400" t="e">
@@ -10406,7 +10418,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E244" s="401" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F244" s="401" t="n">
         <v>4</v>
@@ -10423,7 +10435,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C245" s="404"/>
       <c r="D245" s="405" t="n">
@@ -10438,7 +10450,7 @@
       </c>
       <c r="H245" s="406"/>
       <c r="I245" s="407" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J245" s="407"/>
       <c r="K245" s="407"/>
@@ -10446,7 +10458,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="404" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C246" s="404"/>
       <c r="D246" s="408" t="e">
@@ -10461,7 +10473,7 @@
       </c>
       <c r="H246" s="409"/>
       <c r="I246" s="407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J246" s="407"/>
       <c r="K246" s="407"/>
@@ -10469,18 +10481,18 @@
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="404" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C247" s="404"/>
       <c r="D247" s="410" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E247" s="410"/>
       <c r="F247" s="410"/>
       <c r="G247" s="410"/>
       <c r="H247" s="410"/>
       <c r="I247" s="411" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J247" s="411"/>
       <c r="K247" s="411"/>
@@ -10488,7 +10500,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C248" s="413"/>
       <c r="D248" s="414" t="n">
@@ -10499,7 +10511,7 @@
       <c r="G248" s="414"/>
       <c r="H248" s="414"/>
       <c r="I248" s="407" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J248" s="407"/>
       <c r="K248" s="407"/>
@@ -10518,7 +10530,7 @@
       <c r="G249" s="415"/>
       <c r="H249" s="415"/>
       <c r="I249" s="407" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J249" s="407"/>
       <c r="K249" s="407"/>
@@ -10526,18 +10538,18 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="417" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C250" s="417"/>
       <c r="D250" s="418" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E250" s="418"/>
       <c r="F250" s="418"/>
       <c r="G250" s="418"/>
       <c r="H250" s="418"/>
       <c r="I250" s="407" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J250" s="407"/>
       <c r="K250" s="407"/>
@@ -10559,13 +10571,13 @@
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="420"/>
       <c r="C252" s="421" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D252" s="421"/>
       <c r="E252" s="421"/>
       <c r="F252" s="421"/>
       <c r="G252" s="180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H252" s="180"/>
       <c r="I252" s="180"/>
@@ -10578,13 +10590,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="423" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D253" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E253" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F253" s="425" t="s">
         <v>146</v>
@@ -10605,13 +10617,13 @@
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="422"/>
       <c r="C254" s="428" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D254" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E254" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F254" s="425"/>
       <c r="G254" s="426"/>
@@ -10626,13 +10638,13 @@
         <v>2</v>
       </c>
       <c r="C255" s="424" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D255" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E255" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F255" s="431" t="s">
         <v>146</v>
@@ -10653,13 +10665,13 @@
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="430"/>
       <c r="C256" s="435" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D256" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E256" s="435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F256" s="431"/>
       <c r="G256" s="432"/>
@@ -10674,13 +10686,13 @@
         <v>3</v>
       </c>
       <c r="C257" s="424" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D257" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E257" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F257" s="437" t="s">
         <v>147</v>
@@ -10701,13 +10713,13 @@
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="422"/>
       <c r="C258" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D258" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E258" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F258" s="437"/>
       <c r="G258" s="426"/>
@@ -10722,13 +10734,13 @@
         <v>4</v>
       </c>
       <c r="C259" s="424" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D259" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E259" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F259" s="437" t="s">
         <v>147</v>
@@ -10749,13 +10761,13 @@
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="430"/>
       <c r="C260" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D260" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E260" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F260" s="437"/>
       <c r="G260" s="426"/>
@@ -10770,13 +10782,13 @@
         <v>5</v>
       </c>
       <c r="C261" s="442" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D261" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E261" s="442" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F261" s="425" t="s">
         <v>146</v>
@@ -10797,13 +10809,13 @@
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="422"/>
       <c r="C262" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D262" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E262" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F262" s="425"/>
       <c r="G262" s="426"/>
@@ -10818,13 +10830,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="424" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D263" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E263" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F263" s="437" t="s">
         <v>147</v>
@@ -10845,13 +10857,13 @@
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="430"/>
       <c r="C264" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D264" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E264" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F264" s="437"/>
       <c r="G264" s="426"/>
@@ -10866,13 +10878,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D265" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E265" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F265" s="425" t="s">
         <v>146</v>
@@ -10893,13 +10905,13 @@
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="422"/>
       <c r="C266" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D266" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E266" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F266" s="425"/>
       <c r="G266" s="426"/>
@@ -10914,13 +10926,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="424" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D267" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E267" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F267" s="437" t="s">
         <v>147</v>
@@ -10941,13 +10953,13 @@
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="430"/>
       <c r="C268" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D268" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E268" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F268" s="437"/>
       <c r="G268" s="426"/>
@@ -10962,13 +10974,13 @@
         <v>9</v>
       </c>
       <c r="C269" s="424" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D269" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E269" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F269" s="425" t="s">
         <v>146</v>
@@ -10989,13 +11001,13 @@
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="422"/>
       <c r="C270" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D270" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E270" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F270" s="425"/>
       <c r="G270" s="426"/>
@@ -11010,13 +11022,13 @@
         <v>10</v>
       </c>
       <c r="C271" s="424" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D271" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E271" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F271" s="437" t="s">
         <v>147</v>
@@ -11037,13 +11049,13 @@
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="430"/>
       <c r="C272" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D272" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E272" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F272" s="437"/>
       <c r="G272" s="426"/>
@@ -11058,13 +11070,13 @@
         <v>11</v>
       </c>
       <c r="C273" s="424" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D273" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E273" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F273" s="425" t="s">
         <v>146</v>
@@ -11085,13 +11097,13 @@
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="422"/>
       <c r="C274" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D274" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E274" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F274" s="425"/>
       <c r="G274" s="426"/>
@@ -11106,13 +11118,13 @@
         <v>12</v>
       </c>
       <c r="C275" s="443" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D275" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E275" s="444" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F275" s="437" t="s">
         <v>147</v>
@@ -11133,13 +11145,13 @@
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="430"/>
       <c r="C276" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D276" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E276" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F276" s="437"/>
       <c r="G276" s="426"/>
@@ -11154,25 +11166,25 @@
         <v>13</v>
       </c>
       <c r="C277" s="424" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D277" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E277" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F277" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G277" s="445" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H277" s="445" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I277" s="445" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J277" s="445"/>
       <c r="K277" s="438"/>
@@ -11194,23 +11206,23 @@
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="368"/>
       <c r="C282" s="368" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D282" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E282" s="368" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F282" s="368" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G282" s="398" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H282" s="398"/>
       <c r="I282" s="358" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J282" s="358"/>
       <c r="K282" s="358"/>
@@ -11231,14 +11243,14 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="399" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C284" s="399"/>
       <c r="D284" s="400" t="n">
         <v>8.12</v>
       </c>
       <c r="E284" s="401" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F284" s="401" t="n">
         <v>3</v>
@@ -11255,7 +11267,7 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C285" s="404"/>
       <c r="D285" s="405" t="n">
@@ -11269,7 +11281,7 @@
       </c>
       <c r="H285" s="406"/>
       <c r="I285" s="407" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J285" s="407"/>
       <c r="K285" s="407"/>
@@ -11277,7 +11289,7 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="404" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C286" s="404"/>
       <c r="D286" s="408" t="n">
@@ -11291,7 +11303,7 @@
       </c>
       <c r="H286" s="409"/>
       <c r="I286" s="407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J286" s="407"/>
       <c r="K286" s="407"/>
@@ -11299,18 +11311,18 @@
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="404" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C287" s="404"/>
       <c r="D287" s="410" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E287" s="410"/>
       <c r="F287" s="410"/>
       <c r="G287" s="410"/>
       <c r="H287" s="410"/>
       <c r="I287" s="411" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J287" s="411"/>
       <c r="K287" s="411"/>
@@ -11318,7 +11330,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C288" s="413"/>
       <c r="D288" s="414" t="n">
@@ -11329,7 +11341,7 @@
       <c r="G288" s="414"/>
       <c r="H288" s="414"/>
       <c r="I288" s="407" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J288" s="407"/>
       <c r="K288" s="407"/>
@@ -11354,11 +11366,11 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="417" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C290" s="417"/>
       <c r="D290" s="418" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E290" s="418"/>
       <c r="F290" s="418"/>
@@ -11385,13 +11397,13 @@
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="420"/>
       <c r="C292" s="421" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D292" s="421"/>
       <c r="E292" s="421"/>
       <c r="F292" s="421"/>
       <c r="G292" s="180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H292" s="180"/>
       <c r="I292" s="180"/>
@@ -11404,13 +11416,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="423" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D293" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E293" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F293" s="425" t="s">
         <v>146</v>
@@ -11431,13 +11443,13 @@
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="422"/>
       <c r="C294" s="428" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D294" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E294" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F294" s="425"/>
       <c r="G294" s="426"/>
@@ -11452,13 +11464,13 @@
         <v>2</v>
       </c>
       <c r="C295" s="424" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D295" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E295" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F295" s="431" t="s">
         <v>146</v>
@@ -11479,13 +11491,13 @@
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="430"/>
       <c r="C296" s="435" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D296" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E296" s="435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F296" s="431"/>
       <c r="G296" s="432"/>
@@ -11500,13 +11512,13 @@
         <v>3</v>
       </c>
       <c r="C297" s="424" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D297" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E297" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F297" s="437" t="s">
         <v>147</v>
@@ -11527,13 +11539,13 @@
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="422"/>
       <c r="C298" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D298" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E298" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F298" s="437"/>
       <c r="G298" s="426"/>
@@ -11548,13 +11560,13 @@
         <v>4</v>
       </c>
       <c r="C299" s="424" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D299" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E299" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F299" s="437" t="s">
         <v>147</v>
@@ -11575,13 +11587,13 @@
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="430"/>
       <c r="C300" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D300" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E300" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F300" s="437"/>
       <c r="G300" s="426"/>
@@ -11596,13 +11608,13 @@
         <v>5</v>
       </c>
       <c r="C301" s="442" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D301" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E301" s="442" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F301" s="425" t="s">
         <v>146</v>
@@ -11623,13 +11635,13 @@
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="422"/>
       <c r="C302" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D302" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E302" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F302" s="425"/>
       <c r="G302" s="426"/>
@@ -11644,13 +11656,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="424" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D303" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E303" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F303" s="437" t="s">
         <v>147</v>
@@ -11671,13 +11683,13 @@
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="430"/>
       <c r="C304" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D304" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E304" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F304" s="437"/>
       <c r="G304" s="426"/>
@@ -11692,13 +11704,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="424" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D305" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E305" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F305" s="425" t="s">
         <v>146</v>
@@ -11719,13 +11731,13 @@
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="422"/>
       <c r="C306" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D306" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E306" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F306" s="425"/>
       <c r="G306" s="426"/>
@@ -11740,13 +11752,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="424" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D307" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E307" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F307" s="437" t="s">
         <v>147</v>
@@ -11767,13 +11779,13 @@
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="430"/>
       <c r="C308" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D308" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E308" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F308" s="437"/>
       <c r="G308" s="426"/>
@@ -11788,13 +11800,13 @@
         <v>9</v>
       </c>
       <c r="C309" s="424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D309" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E309" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F309" s="425" t="s">
         <v>146</v>
@@ -11815,13 +11827,13 @@
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="422"/>
       <c r="C310" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D310" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E310" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F310" s="425"/>
       <c r="G310" s="426"/>
@@ -11836,13 +11848,13 @@
         <v>10</v>
       </c>
       <c r="C311" s="424" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D311" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E311" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F311" s="437" t="s">
         <v>147</v>
@@ -11863,13 +11875,13 @@
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="430"/>
       <c r="C312" s="440" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D312" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E312" s="440" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F312" s="437"/>
       <c r="G312" s="426"/>
@@ -11884,13 +11896,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="424" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D313" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E313" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F313" s="425" t="s">
         <v>146</v>
@@ -11911,13 +11923,13 @@
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="422"/>
       <c r="C314" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D314" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E314" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F314" s="425"/>
       <c r="G314" s="426"/>
@@ -11932,25 +11944,25 @@
         <v>12</v>
       </c>
       <c r="C315" s="443" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D315" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E315" s="444" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F315" s="437" t="s">
         <v>147</v>
       </c>
       <c r="G315" s="426" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H315" s="426" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I315" s="426" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J315" s="426"/>
       <c r="K315" s="438"/>
@@ -11959,13 +11971,13 @@
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="430"/>
       <c r="C316" s="429" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D316" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E316" s="429" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F316" s="437"/>
       <c r="G316" s="426"/>
@@ -11980,25 +11992,25 @@
         <v>13</v>
       </c>
       <c r="C317" s="424" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D317" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E317" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F317" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G317" s="445" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H317" s="445" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I317" s="445" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J317" s="445"/>
       <c r="K317" s="438"/>
@@ -12007,13 +12019,13 @@
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="422"/>
       <c r="C318" s="441" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D318" s="441" t="n">
         <v>22</v>
       </c>
       <c r="E318" s="441" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F318" s="425"/>
       <c r="G318" s="445"/>
@@ -12028,25 +12040,25 @@
         <v>13</v>
       </c>
       <c r="C319" s="424" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D319" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E319" s="424" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F319" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G319" s="445" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H319" s="445" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I319" s="445" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J319" s="445"/>
       <c r="K319" s="438"/>
@@ -13187,24 +13199,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="446" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B1" s="447" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B2" s="447" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -18811,7 +18823,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -19615,7 +19627,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -21783,7 +21795,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N45" activeCellId="0" sqref="N45"/>
     </sheetView>
   </sheetViews>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="321">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -774,19 +774,25 @@
     <t xml:space="preserve">ДИС(50)+ГРИ(20)</t>
   </si>
   <si>
-    <t xml:space="preserve">ДИС(45)+ГРИ(15)+ОСИ/ССИ (30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДИС(45) +ССИ/ОСИ (60)+СОРЕВ(14)</t>
+    <t xml:space="preserve">ДИС(40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДИС(50)+ОСИ/ССИ (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> СОРЕВ(14)+ССИ/ОСИ (60)</t>
   </si>
   <si>
     <t xml:space="preserve">СВД(166)</t>
   </si>
   <si>
-    <t xml:space="preserve">ССИ/ОСИ (30)</t>
+    <t xml:space="preserve">ССИ/ОСИ (30)+ГРИ(15)</t>
   </si>
   <si>
     <t xml:space="preserve">Местами гололед, но бежать  можно. ГРИ были особенно веселыми, проскальзывают ноги. Пульсом в принципе довольна. Ни разу не перевалил за 190, максим 183. В среднем 159. Бежать при таком пульсе вполне комфортно. Потом бассейн, как-то было тяжеловато. Нужно чаще туда ходить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пробежка ДИС 40 минут на стадионе. Бег 2 км легкой трусцой, затем 20 минут по времени – 15 сек ускорение, 45 сек легко. И заминка, 1 км. Суммарно вышло 40 минут – 8,5 км, средний темп на все время 4,39. Бежать вполне комфортно 15/45, но буду испытывать дальнейшие варианты.</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -3703,7 +3709,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3929,12 +3935,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="22799845"/>
-        <c:axId val="20025864"/>
+        <c:axId val="31820549"/>
+        <c:axId val="28111936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="22799845"/>
+        <c:axId val="31820549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,14 +3973,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20025864"/>
+        <c:crossAx val="28111936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20025864"/>
+        <c:axId val="28111936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4055,7 +4061,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22799845"/>
+        <c:crossAx val="31820549"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4098,9 +4104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4109,7 +4115,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4390560" cy="2648880"/>
+        <a:ext cx="4389840" cy="2648160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4570,8 +4576,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4834,7 +4840,9 @@
       <c r="B11" s="362" t="n">
         <v>43559</v>
       </c>
-      <c r="C11" s="365"/>
+      <c r="C11" s="365" t="s">
+        <v>239</v>
+      </c>
       <c r="D11" s="365"/>
       <c r="E11" s="366"/>
       <c r="F11" s="366"/>
@@ -4852,7 +4860,7 @@
         <v>43560</v>
       </c>
       <c r="C12" s="365" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D12" s="365"/>
       <c r="E12" s="367"/>
@@ -4871,7 +4879,7 @@
         <v>43561</v>
       </c>
       <c r="C13" s="393" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D13" s="393"/>
       <c r="E13" s="367"/>
@@ -4890,7 +4898,7 @@
         <v>43562</v>
       </c>
       <c r="C14" s="365" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D14" s="365"/>
       <c r="E14" s="367"/>
@@ -5020,7 +5028,7 @@
       <c r="A22" s="377"/>
       <c r="B22" s="373"/>
       <c r="C22" s="379" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D22" s="379"/>
       <c r="E22" s="379"/>
@@ -5031,7 +5039,7 @@
       <c r="J22" s="379"/>
       <c r="K22" s="379"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="377"/>
       <c r="B23" s="373"/>
       <c r="C23" s="379"/>
@@ -5065,10 +5073,12 @@
       <c r="J24" s="374"/>
       <c r="K24" s="374"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="372"/>
       <c r="B25" s="372"/>
-      <c r="C25" s="381"/>
+      <c r="C25" s="381" t="s">
+        <v>244</v>
+      </c>
       <c r="D25" s="381"/>
       <c r="E25" s="381"/>
       <c r="F25" s="381"/>
@@ -5078,7 +5088,7 @@
       <c r="J25" s="381"/>
       <c r="K25" s="381"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="372"/>
       <c r="B26" s="372"/>
       <c r="C26" s="381"/>
@@ -5102,8 +5112,12 @@
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="G27" s="21" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>8.22</v>
+      </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -5341,23 +5355,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G1" s="398" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H1" s="398"/>
       <c r="I1" s="358" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -5378,7 +5392,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="399" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C3" s="399"/>
       <c r="D3" s="400" t="n">
@@ -5386,7 +5400,7 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="401" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F3" s="401" t="n">
         <v>4</v>
@@ -5397,7 +5411,7 @@
       </c>
       <c r="H3" s="402"/>
       <c r="I3" s="403" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J3" s="403"/>
       <c r="K3" s="403"/>
@@ -5405,7 +5419,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="404" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C4" s="404"/>
       <c r="D4" s="405" t="n">
@@ -5420,7 +5434,7 @@
       </c>
       <c r="H4" s="406"/>
       <c r="I4" s="407" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J4" s="407"/>
       <c r="K4" s="407"/>
@@ -5428,7 +5442,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="404" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C5" s="404"/>
       <c r="D5" s="408" t="n">
@@ -5443,7 +5457,7 @@
       </c>
       <c r="H5" s="409"/>
       <c r="I5" s="407" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J5" s="407"/>
       <c r="K5" s="407"/>
@@ -5451,7 +5465,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="404" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C6" s="404"/>
       <c r="D6" s="410" t="n">
@@ -5463,7 +5477,7 @@
       <c r="G6" s="410"/>
       <c r="H6" s="410"/>
       <c r="I6" s="411" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J6" s="411"/>
       <c r="K6" s="411"/>
@@ -5471,7 +5485,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="412" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C7" s="413"/>
       <c r="D7" s="414" t="n">
@@ -5483,7 +5497,7 @@
       <c r="G7" s="414"/>
       <c r="H7" s="414"/>
       <c r="I7" s="407" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J7" s="407"/>
       <c r="K7" s="407"/>
@@ -5508,11 +5522,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="417" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C9" s="417"/>
       <c r="D9" s="418" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E9" s="418"/>
       <c r="F9" s="418"/>
@@ -5539,13 +5553,13 @@
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="420"/>
       <c r="C11" s="421" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D11" s="421"/>
       <c r="E11" s="421"/>
       <c r="F11" s="421"/>
       <c r="G11" s="180" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -5558,13 +5572,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="423" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D12" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F12" s="425" t="s">
         <v>146</v>
@@ -5587,13 +5601,13 @@
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="422"/>
       <c r="C13" s="428" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D13" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E13" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F13" s="425"/>
       <c r="G13" s="426"/>
@@ -5608,13 +5622,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="424" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D14" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E14" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F14" s="431" t="s">
         <v>146</v>
@@ -5637,13 +5651,13 @@
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="430"/>
       <c r="C15" s="435" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D15" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E15" s="435" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F15" s="431"/>
       <c r="G15" s="432"/>
@@ -5658,13 +5672,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="424" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D16" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F16" s="437" t="s">
         <v>147</v>
@@ -5687,13 +5701,13 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="436"/>
       <c r="C17" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D17" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F17" s="437"/>
       <c r="G17" s="426"/>
@@ -5708,13 +5722,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="424" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D18" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F18" s="437" t="s">
         <v>147</v>
@@ -5737,13 +5751,13 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="436"/>
       <c r="C19" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F19" s="437"/>
       <c r="G19" s="426"/>
@@ -5758,13 +5772,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="424" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D20" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F20" s="425" t="s">
         <v>146</v>
@@ -5787,13 +5801,13 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="436"/>
       <c r="C21" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D21" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E21" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F21" s="425"/>
       <c r="G21" s="426"/>
@@ -5808,13 +5822,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="424" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D22" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F22" s="437" t="s">
         <v>147</v>
@@ -5837,13 +5851,13 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="436"/>
       <c r="C23" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D23" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E23" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F23" s="437"/>
       <c r="G23" s="426"/>
@@ -5858,13 +5872,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="424" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D24" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F24" s="425" t="s">
         <v>146</v>
@@ -5887,13 +5901,13 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="436"/>
       <c r="C25" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D25" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E25" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F25" s="425"/>
       <c r="G25" s="426"/>
@@ -5908,13 +5922,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="424" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D26" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F26" s="437" t="s">
         <v>147</v>
@@ -5937,13 +5951,13 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="436"/>
       <c r="C27" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D27" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E27" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F27" s="437"/>
       <c r="G27" s="426"/>
@@ -5958,13 +5972,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="424" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D28" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E28" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F28" s="425" t="s">
         <v>146</v>
@@ -5987,13 +6001,13 @@
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="436"/>
       <c r="C29" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D29" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E29" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F29" s="425"/>
       <c r="G29" s="426"/>
@@ -6008,13 +6022,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="424" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D30" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E30" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F30" s="425" t="s">
         <v>146</v>
@@ -6037,13 +6051,13 @@
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="436"/>
       <c r="C31" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D31" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E31" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F31" s="425"/>
       <c r="G31" s="426"/>
@@ -6058,13 +6072,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="424" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D32" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E32" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F32" s="437" t="s">
         <v>147</v>
@@ -6087,13 +6101,13 @@
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="436"/>
       <c r="C33" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D33" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E33" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F33" s="437"/>
       <c r="G33" s="426"/>
@@ -6108,28 +6122,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="424" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D34" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E34" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F34" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G34" s="426" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H34" s="426" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I34" s="426" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J34" s="426" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K34" s="438"/>
       <c r="L34" s="439"/>
@@ -6150,23 +6164,23 @@
     <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G40" s="398" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H40" s="398"/>
       <c r="I40" s="358" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -6187,7 +6201,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="399" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C42" s="399"/>
       <c r="D42" s="400" t="n">
@@ -6195,7 +6209,7 @@
         <v>6.2</v>
       </c>
       <c r="E42" s="401" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F42" s="401" t="n">
         <v>4</v>
@@ -6206,7 +6220,7 @@
       </c>
       <c r="H42" s="402"/>
       <c r="I42" s="403" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J42" s="403"/>
       <c r="K42" s="403"/>
@@ -6214,7 +6228,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="404" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C43" s="404"/>
       <c r="D43" s="405" t="n">
@@ -6229,7 +6243,7 @@
       </c>
       <c r="H43" s="406"/>
       <c r="I43" s="407" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J43" s="407"/>
       <c r="K43" s="407"/>
@@ -6237,7 +6251,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="404" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C44" s="404"/>
       <c r="D44" s="408" t="n">
@@ -6252,7 +6266,7 @@
       </c>
       <c r="H44" s="409"/>
       <c r="I44" s="407" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J44" s="407"/>
       <c r="K44" s="407"/>
@@ -6260,7 +6274,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="404" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C45" s="404"/>
       <c r="D45" s="410" t="n">
@@ -6272,7 +6286,7 @@
       <c r="G45" s="410"/>
       <c r="H45" s="410"/>
       <c r="I45" s="411" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J45" s="411"/>
       <c r="K45" s="411"/>
@@ -6280,7 +6294,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="412" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C46" s="413"/>
       <c r="D46" s="414" t="n">
@@ -6292,7 +6306,7 @@
       <c r="G46" s="414"/>
       <c r="H46" s="414"/>
       <c r="I46" s="407" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J46" s="407"/>
       <c r="K46" s="407"/>
@@ -6311,7 +6325,7 @@
       <c r="G47" s="415"/>
       <c r="H47" s="415"/>
       <c r="I47" s="407" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J47" s="407"/>
       <c r="K47" s="407"/>
@@ -6319,18 +6333,18 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="417" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C48" s="417"/>
       <c r="D48" s="418" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E48" s="418"/>
       <c r="F48" s="418"/>
       <c r="G48" s="418"/>
       <c r="H48" s="418"/>
       <c r="I48" s="407" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J48" s="407"/>
       <c r="K48" s="407"/>
@@ -6352,13 +6366,13 @@
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="420"/>
       <c r="C50" s="421" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D50" s="421"/>
       <c r="E50" s="421"/>
       <c r="F50" s="421"/>
       <c r="G50" s="180" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -6371,13 +6385,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="423" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D51" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E51" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F51" s="425" t="s">
         <v>146</v>
@@ -6400,13 +6414,13 @@
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="422"/>
       <c r="C52" s="428" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D52" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E52" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F52" s="425"/>
       <c r="G52" s="426"/>
@@ -6421,13 +6435,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="424" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D53" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E53" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F53" s="431" t="s">
         <v>146</v>
@@ -6450,13 +6464,13 @@
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="430"/>
       <c r="C54" s="435" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D54" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E54" s="435" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F54" s="431"/>
       <c r="G54" s="432"/>
@@ -6471,13 +6485,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="424" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D55" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E55" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F55" s="437" t="s">
         <v>147</v>
@@ -6500,13 +6514,13 @@
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="422"/>
       <c r="C56" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D56" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E56" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F56" s="437"/>
       <c r="G56" s="426"/>
@@ -6521,13 +6535,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="424" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D57" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E57" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F57" s="437" t="s">
         <v>147</v>
@@ -6550,13 +6564,13 @@
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="430"/>
       <c r="C58" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D58" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E58" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F58" s="437"/>
       <c r="G58" s="426"/>
@@ -6571,28 +6585,28 @@
         <v>5</v>
       </c>
       <c r="C59" s="442" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D59" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E59" s="442" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F59" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G59" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H59" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I59" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J59" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K59" s="438"/>
       <c r="L59" s="439"/>
@@ -6600,13 +6614,13 @@
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="422"/>
       <c r="C60" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D60" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E60" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F60" s="425"/>
       <c r="G60" s="426"/>
@@ -6621,13 +6635,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="424" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D61" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E61" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F61" s="437" t="s">
         <v>147</v>
@@ -6650,13 +6664,13 @@
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="430"/>
       <c r="C62" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D62" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E62" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F62" s="437"/>
       <c r="G62" s="426"/>
@@ -6671,13 +6685,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="424" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D63" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E63" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F63" s="425" t="s">
         <v>146</v>
@@ -6700,13 +6714,13 @@
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="422"/>
       <c r="C64" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D64" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E64" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F64" s="425"/>
       <c r="G64" s="426"/>
@@ -6721,13 +6735,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="424" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D65" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E65" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F65" s="437" t="s">
         <v>147</v>
@@ -6750,13 +6764,13 @@
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="430"/>
       <c r="C66" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D66" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E66" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F66" s="437"/>
       <c r="G66" s="426"/>
@@ -6771,13 +6785,13 @@
         <v>9</v>
       </c>
       <c r="C67" s="424" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D67" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F67" s="425" t="s">
         <v>146</v>
@@ -6800,13 +6814,13 @@
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="422"/>
       <c r="C68" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D68" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E68" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F68" s="425"/>
       <c r="G68" s="426"/>
@@ -6821,13 +6835,13 @@
         <v>10</v>
       </c>
       <c r="C69" s="424" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D69" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E69" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F69" s="437" t="s">
         <v>147</v>
@@ -6850,13 +6864,13 @@
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="430"/>
       <c r="C70" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D70" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E70" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F70" s="437"/>
       <c r="G70" s="426"/>
@@ -6871,13 +6885,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="424" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D71" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F71" s="425" t="s">
         <v>146</v>
@@ -6904,7 +6918,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="441" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F72" s="425"/>
       <c r="G72" s="426"/>
@@ -6919,13 +6933,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="443" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D73" s="444" t="n">
         <v>22</v>
       </c>
       <c r="E73" s="444" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F73" s="437" t="s">
         <v>147</v>
@@ -6952,7 +6966,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="441" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F74" s="437"/>
       <c r="G74" s="426"/>
@@ -6967,28 +6981,28 @@
         <v>13</v>
       </c>
       <c r="C75" s="424" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D75" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E75" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F75" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G75" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H75" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I75" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J75" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K75" s="438"/>
       <c r="L75" s="439"/>
@@ -7009,23 +7023,23 @@
     <row r="80" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G80" s="398" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H80" s="398"/>
       <c r="I80" s="358" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -7046,7 +7060,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="399" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C82" s="399"/>
       <c r="D82" s="400" t="n">
@@ -7054,7 +7068,7 @@
         <v>6.2</v>
       </c>
       <c r="E82" s="401" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F82" s="401" t="n">
         <v>4</v>
@@ -7065,7 +7079,7 @@
       </c>
       <c r="H82" s="402"/>
       <c r="I82" s="403" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J82" s="403"/>
       <c r="K82" s="403"/>
@@ -7073,7 +7087,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="404" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C83" s="404"/>
       <c r="D83" s="405" t="n">
@@ -7088,7 +7102,7 @@
       </c>
       <c r="H83" s="406"/>
       <c r="I83" s="407" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J83" s="407"/>
       <c r="K83" s="407"/>
@@ -7096,7 +7110,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="404" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C84" s="404"/>
       <c r="D84" s="408" t="n">
@@ -7111,7 +7125,7 @@
       </c>
       <c r="H84" s="409"/>
       <c r="I84" s="407" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J84" s="407"/>
       <c r="K84" s="407"/>
@@ -7119,7 +7133,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="404" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C85" s="404"/>
       <c r="D85" s="410" t="n">
@@ -7131,7 +7145,7 @@
       <c r="G85" s="410"/>
       <c r="H85" s="410"/>
       <c r="I85" s="411" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J85" s="411"/>
       <c r="K85" s="411"/>
@@ -7139,7 +7153,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="412" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C86" s="413"/>
       <c r="D86" s="414" t="n">
@@ -7151,7 +7165,7 @@
       <c r="G86" s="414"/>
       <c r="H86" s="414"/>
       <c r="I86" s="407" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J86" s="407"/>
       <c r="K86" s="407"/>
@@ -7170,7 +7184,7 @@
       <c r="G87" s="415"/>
       <c r="H87" s="415"/>
       <c r="I87" s="407" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J87" s="407"/>
       <c r="K87" s="407"/>
@@ -7178,18 +7192,18 @@
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="417" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C88" s="417"/>
       <c r="D88" s="418" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E88" s="418"/>
       <c r="F88" s="418"/>
       <c r="G88" s="418"/>
       <c r="H88" s="418"/>
       <c r="I88" s="407" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J88" s="407"/>
       <c r="K88" s="407"/>
@@ -7211,13 +7225,13 @@
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="420"/>
       <c r="C90" s="421" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D90" s="421"/>
       <c r="E90" s="421"/>
       <c r="F90" s="421"/>
       <c r="G90" s="180" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -7230,13 +7244,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="423" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E91" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F91" s="425" t="s">
         <v>146</v>
@@ -7259,13 +7273,13 @@
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="422"/>
       <c r="C92" s="428" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D92" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E92" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F92" s="425"/>
       <c r="G92" s="426"/>
@@ -7280,13 +7294,13 @@
         <v>2</v>
       </c>
       <c r="C93" s="424" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E93" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F93" s="431" t="s">
         <v>146</v>
@@ -7309,13 +7323,13 @@
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="430"/>
       <c r="C94" s="435" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E94" s="435" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F94" s="431"/>
       <c r="G94" s="432"/>
@@ -7330,13 +7344,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="424" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E95" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F95" s="437" t="s">
         <v>147</v>
@@ -7359,13 +7373,13 @@
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="422"/>
       <c r="C96" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E96" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F96" s="437"/>
       <c r="G96" s="426"/>
@@ -7380,13 +7394,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="424" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E97" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F97" s="437" t="s">
         <v>147</v>
@@ -7409,13 +7423,13 @@
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="430"/>
       <c r="C98" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D98" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E98" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F98" s="437"/>
       <c r="G98" s="426"/>
@@ -7430,28 +7444,28 @@
         <v>5</v>
       </c>
       <c r="C99" s="442" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E99" s="442" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F99" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G99" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H99" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I99" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J99" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K99" s="438"/>
       <c r="L99" s="439"/>
@@ -7459,13 +7473,13 @@
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="422"/>
       <c r="C100" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D100" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E100" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F100" s="425"/>
       <c r="G100" s="426"/>
@@ -7480,13 +7494,13 @@
         <v>6</v>
       </c>
       <c r="C101" s="424" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D101" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E101" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F101" s="437" t="s">
         <v>147</v>
@@ -7509,13 +7523,13 @@
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="430"/>
       <c r="C102" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D102" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E102" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F102" s="437"/>
       <c r="G102" s="426"/>
@@ -7530,13 +7544,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="424" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D103" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E103" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F103" s="425" t="s">
         <v>146</v>
@@ -7559,13 +7573,13 @@
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="422"/>
       <c r="C104" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D104" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E104" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F104" s="425"/>
       <c r="G104" s="426"/>
@@ -7580,13 +7594,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="424" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D105" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E105" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F105" s="437" t="s">
         <v>147</v>
@@ -7609,13 +7623,13 @@
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="430"/>
       <c r="C106" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D106" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E106" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F106" s="437"/>
       <c r="G106" s="426"/>
@@ -7630,13 +7644,13 @@
         <v>9</v>
       </c>
       <c r="C107" s="424" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D107" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E107" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F107" s="425" t="s">
         <v>146</v>
@@ -7659,13 +7673,13 @@
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="422"/>
       <c r="C108" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D108" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E108" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F108" s="425"/>
       <c r="G108" s="426"/>
@@ -7680,13 +7694,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="424" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D109" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E109" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F109" s="437" t="s">
         <v>147</v>
@@ -7709,13 +7723,13 @@
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="430"/>
       <c r="C110" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D110" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E110" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F110" s="437"/>
       <c r="G110" s="426"/>
@@ -7730,13 +7744,13 @@
         <v>11</v>
       </c>
       <c r="C111" s="424" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D111" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E111" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F111" s="425" t="s">
         <v>146</v>
@@ -7763,7 +7777,7 @@
         <v>22</v>
       </c>
       <c r="E112" s="441" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F112" s="425"/>
       <c r="G112" s="426"/>
@@ -7778,13 +7792,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="443" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D113" s="444" t="n">
         <v>22</v>
       </c>
       <c r="E113" s="444" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F113" s="437" t="s">
         <v>147</v>
@@ -7811,7 +7825,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="441" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F114" s="437"/>
       <c r="G114" s="426"/>
@@ -7826,28 +7840,28 @@
         <v>13</v>
       </c>
       <c r="C115" s="424" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D115" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E115" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F115" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G115" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H115" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I115" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J115" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K115" s="438"/>
       <c r="L115" s="439"/>
@@ -7868,23 +7882,23 @@
     <row r="121" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G121" s="398" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H121" s="398"/>
       <c r="I121" s="358" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -7905,7 +7919,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="399" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C123" s="399"/>
       <c r="D123" s="400" t="n">
@@ -7913,7 +7927,7 @@
         <v>7.23333333333333</v>
       </c>
       <c r="E123" s="401" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F123" s="401" t="n">
         <v>4</v>
@@ -7930,7 +7944,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="404" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C124" s="404"/>
       <c r="D124" s="405" t="n">
@@ -7945,7 +7959,7 @@
       </c>
       <c r="H124" s="406"/>
       <c r="I124" s="407" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J124" s="407"/>
       <c r="K124" s="407"/>
@@ -7953,7 +7967,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="404" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C125" s="404"/>
       <c r="D125" s="408" t="n">
@@ -7968,7 +7982,7 @@
       </c>
       <c r="H125" s="409"/>
       <c r="I125" s="407" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J125" s="407"/>
       <c r="K125" s="407"/>
@@ -7976,7 +7990,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="404" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C126" s="404"/>
       <c r="D126" s="410" t="n">
@@ -7988,7 +8002,7 @@
       <c r="G126" s="410"/>
       <c r="H126" s="410"/>
       <c r="I126" s="411" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J126" s="411"/>
       <c r="K126" s="411"/>
@@ -7996,7 +8010,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="412" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C127" s="413"/>
       <c r="D127" s="414" t="n">
@@ -8008,7 +8022,7 @@
       <c r="G127" s="414"/>
       <c r="H127" s="414"/>
       <c r="I127" s="407" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J127" s="407"/>
       <c r="K127" s="407"/>
@@ -8027,7 +8041,7 @@
       <c r="G128" s="415"/>
       <c r="H128" s="415"/>
       <c r="I128" s="407" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J128" s="407"/>
       <c r="K128" s="407"/>
@@ -8035,18 +8049,18 @@
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="417" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C129" s="417"/>
       <c r="D129" s="418" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E129" s="418"/>
       <c r="F129" s="418"/>
       <c r="G129" s="418"/>
       <c r="H129" s="418"/>
       <c r="I129" s="407" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J129" s="407"/>
       <c r="K129" s="407"/>
@@ -8068,13 +8082,13 @@
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="420"/>
       <c r="C131" s="421" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D131" s="421"/>
       <c r="E131" s="421"/>
       <c r="F131" s="421"/>
       <c r="G131" s="180" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -8087,13 +8101,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="423" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D132" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E132" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F132" s="425" t="s">
         <v>146</v>
@@ -8116,13 +8130,13 @@
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="422"/>
       <c r="C133" s="428" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D133" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E133" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F133" s="425"/>
       <c r="G133" s="426"/>
@@ -8137,13 +8151,13 @@
         <v>2</v>
       </c>
       <c r="C134" s="424" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D134" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E134" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F134" s="431" t="s">
         <v>146</v>
@@ -8166,13 +8180,13 @@
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="430"/>
       <c r="C135" s="435" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D135" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E135" s="435" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F135" s="431"/>
       <c r="G135" s="432"/>
@@ -8187,13 +8201,13 @@
         <v>3</v>
       </c>
       <c r="C136" s="424" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D136" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E136" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F136" s="437" t="s">
         <v>147</v>
@@ -8216,13 +8230,13 @@
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="422"/>
       <c r="C137" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D137" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E137" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F137" s="437"/>
       <c r="G137" s="426"/>
@@ -8237,13 +8251,13 @@
         <v>4</v>
       </c>
       <c r="C138" s="424" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D138" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E138" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F138" s="437" t="s">
         <v>147</v>
@@ -8266,13 +8280,13 @@
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="430"/>
       <c r="C139" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D139" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E139" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F139" s="437"/>
       <c r="G139" s="426"/>
@@ -8287,13 +8301,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="442" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D140" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E140" s="442" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F140" s="425" t="s">
         <v>146</v>
@@ -8316,13 +8330,13 @@
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="422"/>
       <c r="C141" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D141" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E141" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F141" s="425"/>
       <c r="G141" s="426"/>
@@ -8337,13 +8351,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="424" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D142" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E142" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F142" s="437" t="s">
         <v>147</v>
@@ -8366,13 +8380,13 @@
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="430"/>
       <c r="C143" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D143" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E143" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F143" s="437"/>
       <c r="G143" s="426"/>
@@ -8387,13 +8401,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="424" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D144" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E144" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F144" s="425" t="s">
         <v>146</v>
@@ -8416,13 +8430,13 @@
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="422"/>
       <c r="C145" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D145" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E145" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F145" s="425"/>
       <c r="G145" s="426"/>
@@ -8437,13 +8451,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="424" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D146" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E146" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F146" s="437" t="s">
         <v>147</v>
@@ -8466,13 +8480,13 @@
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="430"/>
       <c r="C147" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D147" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E147" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F147" s="437"/>
       <c r="G147" s="426"/>
@@ -8487,13 +8501,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="424" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D148" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E148" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F148" s="425" t="s">
         <v>146</v>
@@ -8516,13 +8530,13 @@
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="422"/>
       <c r="C149" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D149" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E149" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F149" s="425"/>
       <c r="G149" s="426"/>
@@ -8537,13 +8551,13 @@
         <v>10</v>
       </c>
       <c r="C150" s="424" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D150" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E150" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F150" s="437" t="s">
         <v>147</v>
@@ -8566,13 +8580,13 @@
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="430"/>
       <c r="C151" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D151" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E151" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F151" s="437"/>
       <c r="G151" s="426"/>
@@ -8587,13 +8601,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="424" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D152" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E152" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F152" s="425" t="s">
         <v>146</v>
@@ -8616,13 +8630,13 @@
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="422"/>
       <c r="C153" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D153" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E153" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F153" s="425"/>
       <c r="G153" s="426"/>
@@ -8637,13 +8651,13 @@
         <v>12</v>
       </c>
       <c r="C154" s="443" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D154" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E154" s="444" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F154" s="437" t="s">
         <v>147</v>
@@ -8666,13 +8680,13 @@
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="430"/>
       <c r="C155" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D155" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E155" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F155" s="437"/>
       <c r="G155" s="426"/>
@@ -8687,13 +8701,13 @@
         <v>13</v>
       </c>
       <c r="C156" s="424" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D156" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E156" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F156" s="425" t="s">
         <v>146</v>
@@ -8716,13 +8730,13 @@
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="422"/>
       <c r="C157" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D157" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E157" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F157" s="425"/>
       <c r="G157" s="426"/>
@@ -8737,28 +8751,28 @@
         <v>14</v>
       </c>
       <c r="C158" s="424" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D158" s="424" t="n">
         <v>140</v>
       </c>
       <c r="E158" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F158" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G158" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H158" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I158" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J158" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K158" s="438"/>
       <c r="L158" s="439"/>
@@ -8779,23 +8793,23 @@
     <row r="164" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G164" s="398" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H164" s="398"/>
       <c r="I164" s="358" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -8816,7 +8830,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="399" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C166" s="399"/>
       <c r="D166" s="400" t="n">
@@ -8824,7 +8838,7 @@
         <v>7.2</v>
       </c>
       <c r="E166" s="401" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F166" s="401" t="n">
         <v>2</v>
@@ -8835,7 +8849,7 @@
       </c>
       <c r="H166" s="402"/>
       <c r="I166" s="403" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J166" s="403"/>
       <c r="K166" s="403"/>
@@ -8843,7 +8857,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="404" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C167" s="404"/>
       <c r="D167" s="405" t="n">
@@ -8858,7 +8872,7 @@
       </c>
       <c r="H167" s="406"/>
       <c r="I167" s="407" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J167" s="407"/>
       <c r="K167" s="407"/>
@@ -8866,7 +8880,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="404" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C168" s="404"/>
       <c r="D168" s="408" t="n">
@@ -8881,7 +8895,7 @@
       </c>
       <c r="H168" s="409"/>
       <c r="I168" s="407" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J168" s="407"/>
       <c r="K168" s="407"/>
@@ -8889,7 +8903,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="404" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C169" s="404"/>
       <c r="D169" s="410" t="n">
@@ -8901,7 +8915,7 @@
       <c r="G169" s="410"/>
       <c r="H169" s="410"/>
       <c r="I169" s="411" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J169" s="411"/>
       <c r="K169" s="411"/>
@@ -8909,7 +8923,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="412" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C170" s="413"/>
       <c r="D170" s="414" t="n">
@@ -8921,7 +8935,7 @@
       <c r="G170" s="414"/>
       <c r="H170" s="414"/>
       <c r="I170" s="407" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J170" s="407"/>
       <c r="K170" s="407"/>
@@ -8946,11 +8960,11 @@
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="417" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C172" s="417"/>
       <c r="D172" s="418" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E172" s="418"/>
       <c r="F172" s="418"/>
@@ -8977,13 +8991,13 @@
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="420"/>
       <c r="C174" s="421" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D174" s="421"/>
       <c r="E174" s="421"/>
       <c r="F174" s="421"/>
       <c r="G174" s="180" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -8996,13 +9010,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="423" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D175" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E175" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F175" s="425" t="s">
         <v>146</v>
@@ -9021,13 +9035,13 @@
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="422"/>
       <c r="C176" s="428" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D176" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E176" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F176" s="425"/>
       <c r="G176" s="426"/>
@@ -9042,13 +9056,13 @@
         <v>2</v>
       </c>
       <c r="C177" s="424" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D177" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E177" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F177" s="431" t="s">
         <v>146</v>
@@ -9067,13 +9081,13 @@
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="430"/>
       <c r="C178" s="435" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D178" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E178" s="435" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F178" s="431"/>
       <c r="G178" s="432"/>
@@ -9088,13 +9102,13 @@
         <v>3</v>
       </c>
       <c r="C179" s="424" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D179" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E179" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F179" s="437" t="s">
         <v>147</v>
@@ -9113,13 +9127,13 @@
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="436"/>
       <c r="C180" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D180" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E180" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F180" s="437"/>
       <c r="G180" s="426"/>
@@ -9134,13 +9148,13 @@
         <v>4</v>
       </c>
       <c r="C181" s="424" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D181" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E181" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F181" s="437" t="s">
         <v>147</v>
@@ -9159,13 +9173,13 @@
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="436"/>
       <c r="C182" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D182" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E182" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F182" s="437"/>
       <c r="G182" s="426"/>
@@ -9180,13 +9194,13 @@
         <v>5</v>
       </c>
       <c r="C183" s="424" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D183" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E183" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F183" s="425" t="s">
         <v>146</v>
@@ -9205,13 +9219,13 @@
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="436"/>
       <c r="C184" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D184" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E184" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F184" s="425"/>
       <c r="G184" s="426"/>
@@ -9226,13 +9240,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="424" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D185" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E185" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F185" s="437" t="s">
         <v>147</v>
@@ -9251,13 +9265,13 @@
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="436"/>
       <c r="C186" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D186" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E186" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F186" s="437"/>
       <c r="G186" s="426"/>
@@ -9272,13 +9286,13 @@
         <v>7</v>
       </c>
       <c r="C187" s="424" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D187" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E187" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F187" s="425" t="s">
         <v>146</v>
@@ -9297,13 +9311,13 @@
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="436"/>
       <c r="C188" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D188" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E188" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F188" s="425"/>
       <c r="G188" s="426"/>
@@ -9318,13 +9332,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="424" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D189" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E189" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F189" s="437" t="s">
         <v>147</v>
@@ -9343,13 +9357,13 @@
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="436"/>
       <c r="C190" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D190" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E190" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F190" s="437"/>
       <c r="G190" s="426"/>
@@ -9364,13 +9378,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="424" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D191" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E191" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F191" s="425" t="s">
         <v>146</v>
@@ -9389,13 +9403,13 @@
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="436"/>
       <c r="C192" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D192" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E192" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F192" s="425"/>
       <c r="G192" s="426"/>
@@ -9410,13 +9424,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="424" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D193" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E193" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F193" s="425" t="s">
         <v>146</v>
@@ -9435,13 +9449,13 @@
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="436"/>
       <c r="C194" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D194" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E194" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F194" s="425"/>
       <c r="G194" s="426"/>
@@ -9456,13 +9470,13 @@
         <v>11</v>
       </c>
       <c r="C195" s="424" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D195" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E195" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F195" s="437" t="s">
         <v>147</v>
@@ -9481,13 +9495,13 @@
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="436"/>
       <c r="C196" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D196" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E196" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F196" s="437"/>
       <c r="G196" s="426"/>
@@ -9502,22 +9516,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="424" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D197" s="424" t="n">
         <v>180</v>
       </c>
       <c r="E197" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F197" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G197" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H197" s="426" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I197" s="426"/>
       <c r="J197" s="426"/>
@@ -9540,23 +9554,23 @@
     <row r="202" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="368"/>
       <c r="C202" s="368" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D202" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E202" s="368" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F202" s="368" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G202" s="398" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H202" s="398"/>
       <c r="I202" s="358" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J202" s="358"/>
       <c r="K202" s="358"/>
@@ -9577,7 +9591,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="399" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C204" s="399"/>
       <c r="D204" s="400" t="e">
@@ -9585,7 +9599,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E204" s="401" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F204" s="401" t="n">
         <v>4</v>
@@ -9602,7 +9616,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="404" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C205" s="404"/>
       <c r="D205" s="405" t="n">
@@ -9617,7 +9631,7 @@
       </c>
       <c r="H205" s="406"/>
       <c r="I205" s="407" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J205" s="407"/>
       <c r="K205" s="407"/>
@@ -9625,7 +9639,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="404" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C206" s="404"/>
       <c r="D206" s="408" t="e">
@@ -9640,7 +9654,7 @@
       </c>
       <c r="H206" s="409"/>
       <c r="I206" s="407" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J206" s="407"/>
       <c r="K206" s="407"/>
@@ -9648,18 +9662,18 @@
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="404" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C207" s="404"/>
       <c r="D207" s="410" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E207" s="410"/>
       <c r="F207" s="410"/>
       <c r="G207" s="410"/>
       <c r="H207" s="410"/>
       <c r="I207" s="411" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J207" s="411"/>
       <c r="K207" s="411"/>
@@ -9667,7 +9681,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="412" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C208" s="413"/>
       <c r="D208" s="414" t="n">
@@ -9678,7 +9692,7 @@
       <c r="G208" s="414"/>
       <c r="H208" s="414"/>
       <c r="I208" s="407" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J208" s="407"/>
       <c r="K208" s="407"/>
@@ -9697,7 +9711,7 @@
       <c r="G209" s="415"/>
       <c r="H209" s="415"/>
       <c r="I209" s="407" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J209" s="407"/>
       <c r="K209" s="407"/>
@@ -9705,18 +9719,18 @@
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="417" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C210" s="417"/>
       <c r="D210" s="418" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E210" s="418"/>
       <c r="F210" s="418"/>
       <c r="G210" s="418"/>
       <c r="H210" s="418"/>
       <c r="I210" s="407" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J210" s="407"/>
       <c r="K210" s="407"/>
@@ -9738,13 +9752,13 @@
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="420"/>
       <c r="C212" s="421" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D212" s="421"/>
       <c r="E212" s="421"/>
       <c r="F212" s="421"/>
       <c r="G212" s="180" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H212" s="180"/>
       <c r="I212" s="180"/>
@@ -9757,13 +9771,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="423" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D213" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E213" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F213" s="425" t="s">
         <v>146</v>
@@ -9784,13 +9798,13 @@
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="422"/>
       <c r="C214" s="428" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D214" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E214" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F214" s="425"/>
       <c r="G214" s="426"/>
@@ -9805,13 +9819,13 @@
         <v>2</v>
       </c>
       <c r="C215" s="424" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D215" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E215" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F215" s="431" t="s">
         <v>146</v>
@@ -9832,13 +9846,13 @@
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="430"/>
       <c r="C216" s="435" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D216" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E216" s="435" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F216" s="431"/>
       <c r="G216" s="432"/>
@@ -9853,13 +9867,13 @@
         <v>3</v>
       </c>
       <c r="C217" s="424" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D217" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E217" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F217" s="437" t="s">
         <v>147</v>
@@ -9880,13 +9894,13 @@
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="422"/>
       <c r="C218" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D218" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E218" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F218" s="437"/>
       <c r="G218" s="426"/>
@@ -9901,13 +9915,13 @@
         <v>4</v>
       </c>
       <c r="C219" s="424" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D219" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E219" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F219" s="437" t="s">
         <v>147</v>
@@ -9928,13 +9942,13 @@
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="430"/>
       <c r="C220" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D220" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E220" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F220" s="437"/>
       <c r="G220" s="426"/>
@@ -9949,13 +9963,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="442" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D221" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E221" s="442" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F221" s="425" t="s">
         <v>146</v>
@@ -9976,13 +9990,13 @@
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="422"/>
       <c r="C222" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D222" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E222" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F222" s="425"/>
       <c r="G222" s="426"/>
@@ -9997,13 +10011,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="424" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D223" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E223" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F223" s="437" t="s">
         <v>147</v>
@@ -10024,13 +10038,13 @@
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="430"/>
       <c r="C224" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D224" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E224" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F224" s="437"/>
       <c r="G224" s="426"/>
@@ -10045,13 +10059,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="424" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D225" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E225" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F225" s="425" t="s">
         <v>146</v>
@@ -10072,13 +10086,13 @@
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="422"/>
       <c r="C226" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D226" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E226" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F226" s="425"/>
       <c r="G226" s="426"/>
@@ -10093,13 +10107,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="424" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D227" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E227" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F227" s="437" t="s">
         <v>147</v>
@@ -10120,13 +10134,13 @@
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="430"/>
       <c r="C228" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D228" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E228" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F228" s="437"/>
       <c r="G228" s="426"/>
@@ -10141,13 +10155,13 @@
         <v>9</v>
       </c>
       <c r="C229" s="424" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D229" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E229" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F229" s="425" t="s">
         <v>146</v>
@@ -10168,13 +10182,13 @@
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="422"/>
       <c r="C230" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D230" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E230" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F230" s="425"/>
       <c r="G230" s="426"/>
@@ -10189,13 +10203,13 @@
         <v>10</v>
       </c>
       <c r="C231" s="424" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D231" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E231" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F231" s="437" t="s">
         <v>147</v>
@@ -10216,13 +10230,13 @@
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="430"/>
       <c r="C232" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D232" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E232" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F232" s="437"/>
       <c r="G232" s="426"/>
@@ -10237,13 +10251,13 @@
         <v>11</v>
       </c>
       <c r="C233" s="424" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D233" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E233" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F233" s="425" t="s">
         <v>146</v>
@@ -10264,13 +10278,13 @@
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="422"/>
       <c r="C234" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D234" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E234" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F234" s="425"/>
       <c r="G234" s="426"/>
@@ -10285,13 +10299,13 @@
         <v>12</v>
       </c>
       <c r="C235" s="443" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D235" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E235" s="444" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F235" s="437" t="s">
         <v>147</v>
@@ -10312,13 +10326,13 @@
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="430"/>
       <c r="C236" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D236" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E236" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F236" s="437"/>
       <c r="G236" s="426"/>
@@ -10333,25 +10347,25 @@
         <v>13</v>
       </c>
       <c r="C237" s="424" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D237" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E237" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F237" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G237" s="445" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H237" s="445" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I237" s="445" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J237" s="445"/>
       <c r="K237" s="438"/>
@@ -10373,23 +10387,23 @@
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="368"/>
       <c r="C242" s="368" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D242" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E242" s="368" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F242" s="368" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G242" s="398" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H242" s="398"/>
       <c r="I242" s="358" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J242" s="358"/>
       <c r="K242" s="358"/>
@@ -10410,7 +10424,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="399" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C244" s="399"/>
       <c r="D244" s="400" t="e">
@@ -10418,7 +10432,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E244" s="401" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F244" s="401" t="n">
         <v>4</v>
@@ -10435,7 +10449,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="404" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C245" s="404"/>
       <c r="D245" s="405" t="n">
@@ -10450,7 +10464,7 @@
       </c>
       <c r="H245" s="406"/>
       <c r="I245" s="407" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J245" s="407"/>
       <c r="K245" s="407"/>
@@ -10458,7 +10472,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="404" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C246" s="404"/>
       <c r="D246" s="408" t="e">
@@ -10473,7 +10487,7 @@
       </c>
       <c r="H246" s="409"/>
       <c r="I246" s="407" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J246" s="407"/>
       <c r="K246" s="407"/>
@@ -10481,18 +10495,18 @@
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="404" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C247" s="404"/>
       <c r="D247" s="410" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E247" s="410"/>
       <c r="F247" s="410"/>
       <c r="G247" s="410"/>
       <c r="H247" s="410"/>
       <c r="I247" s="411" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J247" s="411"/>
       <c r="K247" s="411"/>
@@ -10500,7 +10514,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="412" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C248" s="413"/>
       <c r="D248" s="414" t="n">
@@ -10511,7 +10525,7 @@
       <c r="G248" s="414"/>
       <c r="H248" s="414"/>
       <c r="I248" s="407" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J248" s="407"/>
       <c r="K248" s="407"/>
@@ -10530,7 +10544,7 @@
       <c r="G249" s="415"/>
       <c r="H249" s="415"/>
       <c r="I249" s="407" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J249" s="407"/>
       <c r="K249" s="407"/>
@@ -10538,18 +10552,18 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="417" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C250" s="417"/>
       <c r="D250" s="418" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E250" s="418"/>
       <c r="F250" s="418"/>
       <c r="G250" s="418"/>
       <c r="H250" s="418"/>
       <c r="I250" s="407" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J250" s="407"/>
       <c r="K250" s="407"/>
@@ -10571,13 +10585,13 @@
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="420"/>
       <c r="C252" s="421" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D252" s="421"/>
       <c r="E252" s="421"/>
       <c r="F252" s="421"/>
       <c r="G252" s="180" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H252" s="180"/>
       <c r="I252" s="180"/>
@@ -10590,13 +10604,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="423" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D253" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E253" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F253" s="425" t="s">
         <v>146</v>
@@ -10617,13 +10631,13 @@
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="422"/>
       <c r="C254" s="428" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D254" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E254" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F254" s="425"/>
       <c r="G254" s="426"/>
@@ -10638,13 +10652,13 @@
         <v>2</v>
       </c>
       <c r="C255" s="424" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D255" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E255" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F255" s="431" t="s">
         <v>146</v>
@@ -10665,13 +10679,13 @@
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="430"/>
       <c r="C256" s="435" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D256" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E256" s="435" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F256" s="431"/>
       <c r="G256" s="432"/>
@@ -10686,13 +10700,13 @@
         <v>3</v>
       </c>
       <c r="C257" s="424" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D257" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E257" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F257" s="437" t="s">
         <v>147</v>
@@ -10713,13 +10727,13 @@
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="422"/>
       <c r="C258" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D258" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E258" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F258" s="437"/>
       <c r="G258" s="426"/>
@@ -10734,13 +10748,13 @@
         <v>4</v>
       </c>
       <c r="C259" s="424" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D259" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E259" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F259" s="437" t="s">
         <v>147</v>
@@ -10761,13 +10775,13 @@
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="430"/>
       <c r="C260" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D260" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E260" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F260" s="437"/>
       <c r="G260" s="426"/>
@@ -10782,13 +10796,13 @@
         <v>5</v>
       </c>
       <c r="C261" s="442" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D261" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E261" s="442" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F261" s="425" t="s">
         <v>146</v>
@@ -10809,13 +10823,13 @@
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="422"/>
       <c r="C262" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D262" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E262" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F262" s="425"/>
       <c r="G262" s="426"/>
@@ -10830,13 +10844,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="424" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D263" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E263" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F263" s="437" t="s">
         <v>147</v>
@@ -10857,13 +10871,13 @@
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="430"/>
       <c r="C264" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D264" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E264" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F264" s="437"/>
       <c r="G264" s="426"/>
@@ -10878,13 +10892,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="424" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D265" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E265" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F265" s="425" t="s">
         <v>146</v>
@@ -10905,13 +10919,13 @@
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="422"/>
       <c r="C266" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D266" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E266" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F266" s="425"/>
       <c r="G266" s="426"/>
@@ -10926,13 +10940,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="424" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D267" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E267" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F267" s="437" t="s">
         <v>147</v>
@@ -10953,13 +10967,13 @@
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="430"/>
       <c r="C268" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D268" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E268" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F268" s="437"/>
       <c r="G268" s="426"/>
@@ -10974,13 +10988,13 @@
         <v>9</v>
       </c>
       <c r="C269" s="424" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D269" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E269" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F269" s="425" t="s">
         <v>146</v>
@@ -11001,13 +11015,13 @@
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="422"/>
       <c r="C270" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D270" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E270" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F270" s="425"/>
       <c r="G270" s="426"/>
@@ -11022,13 +11036,13 @@
         <v>10</v>
       </c>
       <c r="C271" s="424" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D271" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E271" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F271" s="437" t="s">
         <v>147</v>
@@ -11049,13 +11063,13 @@
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="430"/>
       <c r="C272" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D272" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E272" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F272" s="437"/>
       <c r="G272" s="426"/>
@@ -11070,13 +11084,13 @@
         <v>11</v>
       </c>
       <c r="C273" s="424" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D273" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E273" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F273" s="425" t="s">
         <v>146</v>
@@ -11097,13 +11111,13 @@
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="422"/>
       <c r="C274" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D274" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E274" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F274" s="425"/>
       <c r="G274" s="426"/>
@@ -11118,13 +11132,13 @@
         <v>12</v>
       </c>
       <c r="C275" s="443" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D275" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E275" s="444" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F275" s="437" t="s">
         <v>147</v>
@@ -11145,13 +11159,13 @@
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="430"/>
       <c r="C276" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D276" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E276" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F276" s="437"/>
       <c r="G276" s="426"/>
@@ -11166,25 +11180,25 @@
         <v>13</v>
       </c>
       <c r="C277" s="424" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D277" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E277" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F277" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G277" s="445" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H277" s="445" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I277" s="445" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J277" s="445"/>
       <c r="K277" s="438"/>
@@ -11206,23 +11220,23 @@
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="368"/>
       <c r="C282" s="368" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D282" s="368" t="s">
         <v>127</v>
       </c>
       <c r="E282" s="368" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F282" s="368" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G282" s="398" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H282" s="398"/>
       <c r="I282" s="358" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J282" s="358"/>
       <c r="K282" s="358"/>
@@ -11243,14 +11257,14 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="399" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C284" s="399"/>
       <c r="D284" s="400" t="n">
         <v>8.12</v>
       </c>
       <c r="E284" s="401" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F284" s="401" t="n">
         <v>3</v>
@@ -11267,7 +11281,7 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="404" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C285" s="404"/>
       <c r="D285" s="405" t="n">
@@ -11281,7 +11295,7 @@
       </c>
       <c r="H285" s="406"/>
       <c r="I285" s="407" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J285" s="407"/>
       <c r="K285" s="407"/>
@@ -11289,7 +11303,7 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="404" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C286" s="404"/>
       <c r="D286" s="408" t="n">
@@ -11303,7 +11317,7 @@
       </c>
       <c r="H286" s="409"/>
       <c r="I286" s="407" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J286" s="407"/>
       <c r="K286" s="407"/>
@@ -11311,18 +11325,18 @@
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="404" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C287" s="404"/>
       <c r="D287" s="410" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E287" s="410"/>
       <c r="F287" s="410"/>
       <c r="G287" s="410"/>
       <c r="H287" s="410"/>
       <c r="I287" s="411" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J287" s="411"/>
       <c r="K287" s="411"/>
@@ -11330,7 +11344,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="412" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C288" s="413"/>
       <c r="D288" s="414" t="n">
@@ -11341,7 +11355,7 @@
       <c r="G288" s="414"/>
       <c r="H288" s="414"/>
       <c r="I288" s="407" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J288" s="407"/>
       <c r="K288" s="407"/>
@@ -11366,11 +11380,11 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="417" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C290" s="417"/>
       <c r="D290" s="418" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E290" s="418"/>
       <c r="F290" s="418"/>
@@ -11397,13 +11411,13 @@
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="420"/>
       <c r="C292" s="421" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D292" s="421"/>
       <c r="E292" s="421"/>
       <c r="F292" s="421"/>
       <c r="G292" s="180" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H292" s="180"/>
       <c r="I292" s="180"/>
@@ -11416,13 +11430,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="423" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D293" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E293" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F293" s="425" t="s">
         <v>146</v>
@@ -11443,13 +11457,13 @@
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="422"/>
       <c r="C294" s="428" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D294" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E294" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F294" s="425"/>
       <c r="G294" s="426"/>
@@ -11464,13 +11478,13 @@
         <v>2</v>
       </c>
       <c r="C295" s="424" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D295" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E295" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F295" s="431" t="s">
         <v>146</v>
@@ -11491,13 +11505,13 @@
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="430"/>
       <c r="C296" s="435" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D296" s="435" t="n">
         <v>22</v>
       </c>
       <c r="E296" s="435" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F296" s="431"/>
       <c r="G296" s="432"/>
@@ -11512,13 +11526,13 @@
         <v>3</v>
       </c>
       <c r="C297" s="424" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D297" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E297" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F297" s="437" t="s">
         <v>147</v>
@@ -11539,13 +11553,13 @@
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="422"/>
       <c r="C298" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D298" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E298" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F298" s="437"/>
       <c r="G298" s="426"/>
@@ -11560,13 +11574,13 @@
         <v>4</v>
       </c>
       <c r="C299" s="424" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D299" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E299" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F299" s="437" t="s">
         <v>147</v>
@@ -11587,13 +11601,13 @@
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="430"/>
       <c r="C300" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D300" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E300" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F300" s="437"/>
       <c r="G300" s="426"/>
@@ -11608,13 +11622,13 @@
         <v>5</v>
       </c>
       <c r="C301" s="442" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D301" s="442" t="n">
         <v>20</v>
       </c>
       <c r="E301" s="442" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F301" s="425" t="s">
         <v>146</v>
@@ -11635,13 +11649,13 @@
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="422"/>
       <c r="C302" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D302" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E302" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F302" s="425"/>
       <c r="G302" s="426"/>
@@ -11656,13 +11670,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="424" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D303" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E303" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F303" s="437" t="s">
         <v>147</v>
@@ -11683,13 +11697,13 @@
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="430"/>
       <c r="C304" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D304" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E304" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F304" s="437"/>
       <c r="G304" s="426"/>
@@ -11704,13 +11718,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="424" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D305" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E305" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F305" s="425" t="s">
         <v>146</v>
@@ -11731,13 +11745,13 @@
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="422"/>
       <c r="C306" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D306" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E306" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F306" s="425"/>
       <c r="G306" s="426"/>
@@ -11752,13 +11766,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="424" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D307" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E307" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F307" s="437" t="s">
         <v>147</v>
@@ -11779,13 +11793,13 @@
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="430"/>
       <c r="C308" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D308" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E308" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F308" s="437"/>
       <c r="G308" s="426"/>
@@ -11800,13 +11814,13 @@
         <v>9</v>
       </c>
       <c r="C309" s="424" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D309" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E309" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F309" s="425" t="s">
         <v>146</v>
@@ -11827,13 +11841,13 @@
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="422"/>
       <c r="C310" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D310" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E310" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F310" s="425"/>
       <c r="G310" s="426"/>
@@ -11848,13 +11862,13 @@
         <v>10</v>
       </c>
       <c r="C311" s="424" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D311" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E311" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F311" s="437" t="s">
         <v>147</v>
@@ -11875,13 +11889,13 @@
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="430"/>
       <c r="C312" s="440" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D312" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E312" s="440" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F312" s="437"/>
       <c r="G312" s="426"/>
@@ -11896,13 +11910,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="424" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D313" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E313" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F313" s="425" t="s">
         <v>146</v>
@@ -11923,13 +11937,13 @@
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="422"/>
       <c r="C314" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D314" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E314" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F314" s="425"/>
       <c r="G314" s="426"/>
@@ -11944,25 +11958,25 @@
         <v>12</v>
       </c>
       <c r="C315" s="443" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D315" s="444" t="n">
         <v>20</v>
       </c>
       <c r="E315" s="444" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F315" s="437" t="s">
         <v>147</v>
       </c>
       <c r="G315" s="426" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H315" s="426" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I315" s="426" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J315" s="426"/>
       <c r="K315" s="438"/>
@@ -11971,13 +11985,13 @@
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="430"/>
       <c r="C316" s="429" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D316" s="429" t="n">
         <v>22</v>
       </c>
       <c r="E316" s="429" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F316" s="437"/>
       <c r="G316" s="426"/>
@@ -11992,25 +12006,25 @@
         <v>13</v>
       </c>
       <c r="C317" s="424" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D317" s="424" t="n">
         <v>20</v>
       </c>
       <c r="E317" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F317" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G317" s="445" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H317" s="445" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I317" s="445" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J317" s="445"/>
       <c r="K317" s="438"/>
@@ -12019,13 +12033,13 @@
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="422"/>
       <c r="C318" s="441" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D318" s="441" t="n">
         <v>22</v>
       </c>
       <c r="E318" s="441" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F318" s="425"/>
       <c r="G318" s="445"/>
@@ -12040,25 +12054,25 @@
         <v>13</v>
       </c>
       <c r="C319" s="424" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D319" s="424" t="n">
         <v>120</v>
       </c>
       <c r="E319" s="424" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F319" s="425" t="s">
         <v>146</v>
       </c>
       <c r="G319" s="445" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H319" s="445" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I319" s="445" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J319" s="445"/>
       <c r="K319" s="438"/>
@@ -13199,24 +13213,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="446" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B1" s="447" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B2" s="447" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="цели на сезон" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="321">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -774,7 +774,7 @@
     <t xml:space="preserve">ДИС(20)+СКИ(20)</t>
   </si>
   <si>
-    <t xml:space="preserve">ДИС(48)+СКИ (4)+ССИ/ОСИ (20)</t>
+    <t xml:space="preserve">ДИС(46)+СКИ (4)+ССИ/ОСИ (25)</t>
   </si>
   <si>
     <t xml:space="preserve"> СОРЕВ(14)+ССИ/ОСИ (60)</t>
@@ -783,13 +783,16 @@
     <t xml:space="preserve">СВД(166)</t>
   </si>
   <si>
-    <t xml:space="preserve">ССИ/ОСИ (40)+ГРИ(15)</t>
+    <t xml:space="preserve">ССИ/ОСИ (35)+ГРИ(15)</t>
   </si>
   <si>
     <t xml:space="preserve">Местами гололед, но бежать  можно. ГРИ были особенно веселыми, проскальзывают ноги. Пульсом в принципе довольна. Ни разу не перевалил за 190, максим 183. В среднем 159. Бежать при таком пульсе вполне комфортно. Потом бассейн, как-то было тяжеловато. Нужно чаще туда ходить.</t>
   </si>
   <si>
     <t xml:space="preserve">Пробежка ДИС 40 минут на стадионе. Бег 2 км легкой трусцой, затем 20 минут по времени – 15 сек ускорение, 45 сек легко. И заминка, 1 км. Суммарно вышло 40 минут – 8,5 км, средний темп на все время 4,39. Бежать вполне комфортно 15/45, но буду пробовать дальнейшие варианты.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дис 50 минут. Темп 5.00 минут на км, пульс не выше 160. Очень комфортно бежать, из 3 зоны не выходила. Так 9 км. На последнем км ускорилась, итого 4,12 мин/км – с пульсом 180. Затем ССИ и ОСИ – 25 минут. Прыжки на шины, толкание шин, много работы с голеностопом обеих ног, всевозможные упражнения на суставы ног. Заминка – 400 метров, прыжки с опорой на одну ногу, на другую, бег задом наперед.</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -3702,7 +3705,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3928,12 +3931,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="27560967"/>
-        <c:axId val="27830127"/>
+        <c:axId val="71635078"/>
+        <c:axId val="22214117"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="27560967"/>
+        <c:axId val="71635078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,14 +3969,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27830127"/>
+        <c:crossAx val="22214117"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27830127"/>
+        <c:axId val="22214117"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,7 +4057,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27560967"/>
+        <c:crossAx val="71635078"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4097,9 +4100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4108,7 +4111,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4389120" cy="2647440"/>
+        <a:ext cx="4388760" cy="2647080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4562,8 +4565,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4572,7 +4575,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.55"/>
@@ -5109,10 +5112,12 @@
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="377"/>
       <c r="B28" s="373"/>
-      <c r="C28" s="389"/>
+      <c r="C28" s="389" t="s">
+        <v>244</v>
+      </c>
       <c r="D28" s="389"/>
       <c r="E28" s="389"/>
       <c r="F28" s="389"/>
@@ -5122,7 +5127,7 @@
       <c r="J28" s="389"/>
       <c r="K28" s="389"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="377"/>
       <c r="B29" s="373"/>
       <c r="C29" s="389"/>
@@ -5146,8 +5151,12 @@
       <c r="D30" s="374"/>
       <c r="E30" s="374"/>
       <c r="F30" s="395"/>
-      <c r="G30" s="374"/>
-      <c r="H30" s="374"/>
+      <c r="G30" s="374" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H30" s="374" t="n">
+        <v>6.54</v>
+      </c>
       <c r="I30" s="383"/>
       <c r="J30" s="383"/>
       <c r="K30" s="383"/>
@@ -5342,23 +5351,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G1" s="397" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H1" s="397"/>
       <c r="I1" s="358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -5379,7 +5388,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="398" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C3" s="398"/>
       <c r="D3" s="399" t="n">
@@ -5387,7 +5396,7 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="400" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F3" s="400" t="n">
         <v>4</v>
@@ -5398,7 +5407,7 @@
       </c>
       <c r="H3" s="401"/>
       <c r="I3" s="402" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J3" s="402"/>
       <c r="K3" s="402"/>
@@ -5406,7 +5415,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="403" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C4" s="403"/>
       <c r="D4" s="404" t="n">
@@ -5421,7 +5430,7 @@
       </c>
       <c r="H4" s="405"/>
       <c r="I4" s="406" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J4" s="406"/>
       <c r="K4" s="406"/>
@@ -5429,7 +5438,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="403" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C5" s="403"/>
       <c r="D5" s="407" t="n">
@@ -5444,7 +5453,7 @@
       </c>
       <c r="H5" s="408"/>
       <c r="I5" s="406" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J5" s="406"/>
       <c r="K5" s="406"/>
@@ -5452,7 +5461,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="403" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C6" s="403"/>
       <c r="D6" s="409" t="n">
@@ -5464,7 +5473,7 @@
       <c r="G6" s="409"/>
       <c r="H6" s="409"/>
       <c r="I6" s="410" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J6" s="410"/>
       <c r="K6" s="410"/>
@@ -5472,7 +5481,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="411" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="412"/>
       <c r="D7" s="413" t="n">
@@ -5484,7 +5493,7 @@
       <c r="G7" s="413"/>
       <c r="H7" s="413"/>
       <c r="I7" s="406" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J7" s="406"/>
       <c r="K7" s="406"/>
@@ -5509,11 +5518,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C9" s="416"/>
       <c r="D9" s="417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E9" s="417"/>
       <c r="F9" s="417"/>
@@ -5540,13 +5549,13 @@
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="419"/>
       <c r="C11" s="420" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D11" s="420"/>
       <c r="E11" s="420"/>
       <c r="F11" s="420"/>
       <c r="G11" s="180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -5559,13 +5568,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="422" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D12" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F12" s="424" t="s">
         <v>145</v>
@@ -5588,13 +5597,13 @@
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="421"/>
       <c r="C13" s="427" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D13" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E13" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="424"/>
       <c r="G13" s="425"/>
@@ -5609,13 +5618,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="423" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D14" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E14" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F14" s="430" t="s">
         <v>145</v>
@@ -5638,13 +5647,13 @@
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="429"/>
       <c r="C15" s="434" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D15" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E15" s="434" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F15" s="430"/>
       <c r="G15" s="431"/>
@@ -5659,13 +5668,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="423" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D16" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F16" s="436" t="s">
         <v>146</v>
@@ -5688,13 +5697,13 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="435"/>
       <c r="C17" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F17" s="436"/>
       <c r="G17" s="425"/>
@@ -5709,13 +5718,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F18" s="436" t="s">
         <v>146</v>
@@ -5738,13 +5747,13 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="435"/>
       <c r="C19" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D19" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F19" s="436"/>
       <c r="G19" s="425"/>
@@ -5759,13 +5768,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="423" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D20" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F20" s="424" t="s">
         <v>145</v>
@@ -5788,13 +5797,13 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="435"/>
       <c r="C21" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E21" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F21" s="424"/>
       <c r="G21" s="425"/>
@@ -5809,13 +5818,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="423" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F22" s="436" t="s">
         <v>146</v>
@@ -5838,13 +5847,13 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="435"/>
       <c r="C23" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D23" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E23" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F23" s="436"/>
       <c r="G23" s="425"/>
@@ -5859,13 +5868,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="423" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D24" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F24" s="424" t="s">
         <v>145</v>
@@ -5888,13 +5897,13 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="435"/>
       <c r="C25" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D25" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E25" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F25" s="424"/>
       <c r="G25" s="425"/>
@@ -5909,13 +5918,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="423" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D26" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F26" s="436" t="s">
         <v>146</v>
@@ -5938,13 +5947,13 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="435"/>
       <c r="C27" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D27" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E27" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F27" s="436"/>
       <c r="G27" s="425"/>
@@ -5959,13 +5968,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="423" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D28" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E28" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F28" s="424" t="s">
         <v>145</v>
@@ -5988,13 +5997,13 @@
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="435"/>
       <c r="C29" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D29" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E29" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F29" s="424"/>
       <c r="G29" s="425"/>
@@ -6009,13 +6018,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D30" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E30" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F30" s="424" t="s">
         <v>145</v>
@@ -6038,13 +6047,13 @@
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="435"/>
       <c r="C31" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D31" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E31" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F31" s="424"/>
       <c r="G31" s="425"/>
@@ -6059,13 +6068,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="423" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D32" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E32" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F32" s="436" t="s">
         <v>146</v>
@@ -6088,13 +6097,13 @@
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="435"/>
       <c r="C33" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D33" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E33" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F33" s="436"/>
       <c r="G33" s="425"/>
@@ -6109,28 +6118,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D34" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E34" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F34" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G34" s="425" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H34" s="425" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I34" s="425" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J34" s="425" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K34" s="437"/>
       <c r="L34" s="438"/>
@@ -6151,23 +6160,23 @@
     <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G40" s="397" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H40" s="397"/>
       <c r="I40" s="358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -6188,7 +6197,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="398" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C42" s="398"/>
       <c r="D42" s="399" t="n">
@@ -6196,7 +6205,7 @@
         <v>6.2</v>
       </c>
       <c r="E42" s="400" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F42" s="400" t="n">
         <v>4</v>
@@ -6207,7 +6216,7 @@
       </c>
       <c r="H42" s="401"/>
       <c r="I42" s="402" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J42" s="402"/>
       <c r="K42" s="402"/>
@@ -6215,7 +6224,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="403" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C43" s="403"/>
       <c r="D43" s="404" t="n">
@@ -6230,7 +6239,7 @@
       </c>
       <c r="H43" s="405"/>
       <c r="I43" s="406" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J43" s="406"/>
       <c r="K43" s="406"/>
@@ -6238,7 +6247,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="403" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C44" s="403"/>
       <c r="D44" s="407" t="n">
@@ -6253,7 +6262,7 @@
       </c>
       <c r="H44" s="408"/>
       <c r="I44" s="406" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J44" s="406"/>
       <c r="K44" s="406"/>
@@ -6261,7 +6270,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="403" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C45" s="403"/>
       <c r="D45" s="409" t="n">
@@ -6273,7 +6282,7 @@
       <c r="G45" s="409"/>
       <c r="H45" s="409"/>
       <c r="I45" s="410" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J45" s="410"/>
       <c r="K45" s="410"/>
@@ -6281,7 +6290,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="411" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C46" s="412"/>
       <c r="D46" s="413" t="n">
@@ -6293,7 +6302,7 @@
       <c r="G46" s="413"/>
       <c r="H46" s="413"/>
       <c r="I46" s="406" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J46" s="406"/>
       <c r="K46" s="406"/>
@@ -6312,7 +6321,7 @@
       <c r="G47" s="414"/>
       <c r="H47" s="414"/>
       <c r="I47" s="406" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J47" s="406"/>
       <c r="K47" s="406"/>
@@ -6320,18 +6329,18 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C48" s="416"/>
       <c r="D48" s="417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E48" s="417"/>
       <c r="F48" s="417"/>
       <c r="G48" s="417"/>
       <c r="H48" s="417"/>
       <c r="I48" s="406" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J48" s="406"/>
       <c r="K48" s="406"/>
@@ -6353,13 +6362,13 @@
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="419"/>
       <c r="C50" s="420" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D50" s="420"/>
       <c r="E50" s="420"/>
       <c r="F50" s="420"/>
       <c r="G50" s="180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -6372,13 +6381,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="422" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D51" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E51" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F51" s="424" t="s">
         <v>145</v>
@@ -6401,13 +6410,13 @@
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="421"/>
       <c r="C52" s="427" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D52" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E52" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F52" s="424"/>
       <c r="G52" s="425"/>
@@ -6422,13 +6431,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="423" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D53" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E53" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F53" s="430" t="s">
         <v>145</v>
@@ -6451,13 +6460,13 @@
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="429"/>
       <c r="C54" s="434" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D54" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E54" s="434" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F54" s="430"/>
       <c r="G54" s="431"/>
@@ -6472,13 +6481,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="423" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D55" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E55" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F55" s="436" t="s">
         <v>146</v>
@@ -6501,13 +6510,13 @@
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="421"/>
       <c r="C56" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D56" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E56" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F56" s="436"/>
       <c r="G56" s="425"/>
@@ -6522,13 +6531,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D57" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E57" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F57" s="436" t="s">
         <v>146</v>
@@ -6551,13 +6560,13 @@
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="429"/>
       <c r="C58" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D58" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E58" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F58" s="436"/>
       <c r="G58" s="425"/>
@@ -6572,28 +6581,28 @@
         <v>5</v>
       </c>
       <c r="C59" s="441" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D59" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E59" s="441" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F59" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G59" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H59" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I59" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J59" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K59" s="437"/>
       <c r="L59" s="438"/>
@@ -6601,13 +6610,13 @@
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="421"/>
       <c r="C60" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D60" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E60" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F60" s="424"/>
       <c r="G60" s="425"/>
@@ -6622,13 +6631,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="423" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D61" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E61" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F61" s="436" t="s">
         <v>146</v>
@@ -6651,13 +6660,13 @@
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="429"/>
       <c r="C62" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D62" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E62" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F62" s="436"/>
       <c r="G62" s="425"/>
@@ -6672,13 +6681,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="423" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D63" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E63" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F63" s="424" t="s">
         <v>145</v>
@@ -6701,13 +6710,13 @@
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="421"/>
       <c r="C64" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D64" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E64" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F64" s="424"/>
       <c r="G64" s="425"/>
@@ -6722,13 +6731,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="423" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D65" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E65" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F65" s="436" t="s">
         <v>146</v>
@@ -6751,13 +6760,13 @@
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="429"/>
       <c r="C66" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D66" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E66" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F66" s="436"/>
       <c r="G66" s="425"/>
@@ -6772,13 +6781,13 @@
         <v>9</v>
       </c>
       <c r="C67" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D67" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F67" s="424" t="s">
         <v>145</v>
@@ -6801,13 +6810,13 @@
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="421"/>
       <c r="C68" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D68" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E68" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F68" s="424"/>
       <c r="G68" s="425"/>
@@ -6822,13 +6831,13 @@
         <v>10</v>
       </c>
       <c r="C69" s="423" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D69" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E69" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F69" s="436" t="s">
         <v>146</v>
@@ -6851,13 +6860,13 @@
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="429"/>
       <c r="C70" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D70" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E70" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F70" s="436"/>
       <c r="G70" s="425"/>
@@ -6872,13 +6881,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="423" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D71" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F71" s="424" t="s">
         <v>145</v>
@@ -6905,7 +6914,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="440" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F72" s="424"/>
       <c r="G72" s="425"/>
@@ -6920,13 +6929,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="442" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D73" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E73" s="443" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F73" s="436" t="s">
         <v>146</v>
@@ -6953,7 +6962,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="440" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F74" s="436"/>
       <c r="G74" s="425"/>
@@ -6968,28 +6977,28 @@
         <v>13</v>
       </c>
       <c r="C75" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D75" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E75" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F75" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G75" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H75" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I75" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J75" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K75" s="437"/>
       <c r="L75" s="438"/>
@@ -7010,23 +7019,23 @@
     <row r="80" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G80" s="397" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H80" s="397"/>
       <c r="I80" s="358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -7047,7 +7056,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="398" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C82" s="398"/>
       <c r="D82" s="399" t="n">
@@ -7055,7 +7064,7 @@
         <v>6.2</v>
       </c>
       <c r="E82" s="400" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F82" s="400" t="n">
         <v>4</v>
@@ -7066,7 +7075,7 @@
       </c>
       <c r="H82" s="401"/>
       <c r="I82" s="402" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J82" s="402"/>
       <c r="K82" s="402"/>
@@ -7074,7 +7083,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="403" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C83" s="403"/>
       <c r="D83" s="404" t="n">
@@ -7089,7 +7098,7 @@
       </c>
       <c r="H83" s="405"/>
       <c r="I83" s="406" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J83" s="406"/>
       <c r="K83" s="406"/>
@@ -7097,7 +7106,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="403" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C84" s="403"/>
       <c r="D84" s="407" t="n">
@@ -7112,7 +7121,7 @@
       </c>
       <c r="H84" s="408"/>
       <c r="I84" s="406" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J84" s="406"/>
       <c r="K84" s="406"/>
@@ -7120,7 +7129,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="403" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C85" s="403"/>
       <c r="D85" s="409" t="n">
@@ -7132,7 +7141,7 @@
       <c r="G85" s="409"/>
       <c r="H85" s="409"/>
       <c r="I85" s="410" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J85" s="410"/>
       <c r="K85" s="410"/>
@@ -7140,7 +7149,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="411" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C86" s="412"/>
       <c r="D86" s="413" t="n">
@@ -7152,7 +7161,7 @@
       <c r="G86" s="413"/>
       <c r="H86" s="413"/>
       <c r="I86" s="406" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J86" s="406"/>
       <c r="K86" s="406"/>
@@ -7171,7 +7180,7 @@
       <c r="G87" s="414"/>
       <c r="H87" s="414"/>
       <c r="I87" s="406" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J87" s="406"/>
       <c r="K87" s="406"/>
@@ -7179,18 +7188,18 @@
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C88" s="416"/>
       <c r="D88" s="417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E88" s="417"/>
       <c r="F88" s="417"/>
       <c r="G88" s="417"/>
       <c r="H88" s="417"/>
       <c r="I88" s="406" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J88" s="406"/>
       <c r="K88" s="406"/>
@@ -7212,13 +7221,13 @@
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="419"/>
       <c r="C90" s="420" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="420"/>
       <c r="E90" s="420"/>
       <c r="F90" s="420"/>
       <c r="G90" s="180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -7231,13 +7240,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="422" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E91" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F91" s="424" t="s">
         <v>145</v>
@@ -7260,13 +7269,13 @@
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="421"/>
       <c r="C92" s="427" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E92" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F92" s="424"/>
       <c r="G92" s="425"/>
@@ -7281,13 +7290,13 @@
         <v>2</v>
       </c>
       <c r="C93" s="423" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E93" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F93" s="430" t="s">
         <v>145</v>
@@ -7310,13 +7319,13 @@
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="429"/>
       <c r="C94" s="434" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E94" s="434" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F94" s="430"/>
       <c r="G94" s="431"/>
@@ -7331,13 +7340,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="423" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E95" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F95" s="436" t="s">
         <v>146</v>
@@ -7360,13 +7369,13 @@
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="421"/>
       <c r="C96" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E96" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F96" s="436"/>
       <c r="G96" s="425"/>
@@ -7381,13 +7390,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E97" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F97" s="436" t="s">
         <v>146</v>
@@ -7410,13 +7419,13 @@
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="429"/>
       <c r="C98" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D98" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E98" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F98" s="436"/>
       <c r="G98" s="425"/>
@@ -7431,28 +7440,28 @@
         <v>5</v>
       </c>
       <c r="C99" s="441" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E99" s="441" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F99" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G99" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H99" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I99" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J99" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K99" s="437"/>
       <c r="L99" s="438"/>
@@ -7460,13 +7469,13 @@
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="421"/>
       <c r="C100" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D100" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E100" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F100" s="424"/>
       <c r="G100" s="425"/>
@@ -7481,13 +7490,13 @@
         <v>6</v>
       </c>
       <c r="C101" s="423" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E101" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F101" s="436" t="s">
         <v>146</v>
@@ -7510,13 +7519,13 @@
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="429"/>
       <c r="C102" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D102" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E102" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F102" s="436"/>
       <c r="G102" s="425"/>
@@ -7531,13 +7540,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="423" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D103" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E103" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F103" s="424" t="s">
         <v>145</v>
@@ -7560,13 +7569,13 @@
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="421"/>
       <c r="C104" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D104" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E104" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F104" s="424"/>
       <c r="G104" s="425"/>
@@ -7581,13 +7590,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="423" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D105" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E105" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F105" s="436" t="s">
         <v>146</v>
@@ -7610,13 +7619,13 @@
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="429"/>
       <c r="C106" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D106" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E106" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F106" s="436"/>
       <c r="G106" s="425"/>
@@ -7631,13 +7640,13 @@
         <v>9</v>
       </c>
       <c r="C107" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D107" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E107" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F107" s="424" t="s">
         <v>145</v>
@@ -7660,13 +7669,13 @@
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="421"/>
       <c r="C108" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D108" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E108" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F108" s="424"/>
       <c r="G108" s="425"/>
@@ -7681,13 +7690,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="423" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D109" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E109" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F109" s="436" t="s">
         <v>146</v>
@@ -7710,13 +7719,13 @@
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="429"/>
       <c r="C110" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D110" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E110" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F110" s="436"/>
       <c r="G110" s="425"/>
@@ -7731,13 +7740,13 @@
         <v>11</v>
       </c>
       <c r="C111" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D111" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E111" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F111" s="424" t="s">
         <v>145</v>
@@ -7764,7 +7773,7 @@
         <v>22</v>
       </c>
       <c r="E112" s="440" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F112" s="424"/>
       <c r="G112" s="425"/>
@@ -7779,13 +7788,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="442" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D113" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E113" s="443" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F113" s="436" t="s">
         <v>146</v>
@@ -7812,7 +7821,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="440" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F114" s="436"/>
       <c r="G114" s="425"/>
@@ -7827,28 +7836,28 @@
         <v>13</v>
       </c>
       <c r="C115" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D115" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E115" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F115" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G115" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H115" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I115" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J115" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K115" s="437"/>
       <c r="L115" s="438"/>
@@ -7869,23 +7878,23 @@
     <row r="121" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G121" s="397" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H121" s="397"/>
       <c r="I121" s="358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -7906,7 +7915,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="398" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C123" s="398"/>
       <c r="D123" s="399" t="n">
@@ -7914,7 +7923,7 @@
         <v>7.23333333333333</v>
       </c>
       <c r="E123" s="400" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F123" s="400" t="n">
         <v>4</v>
@@ -7931,7 +7940,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="403" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C124" s="403"/>
       <c r="D124" s="404" t="n">
@@ -7946,7 +7955,7 @@
       </c>
       <c r="H124" s="405"/>
       <c r="I124" s="406" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J124" s="406"/>
       <c r="K124" s="406"/>
@@ -7954,7 +7963,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="403" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C125" s="403"/>
       <c r="D125" s="407" t="n">
@@ -7969,7 +7978,7 @@
       </c>
       <c r="H125" s="408"/>
       <c r="I125" s="406" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J125" s="406"/>
       <c r="K125" s="406"/>
@@ -7977,7 +7986,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="403" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C126" s="403"/>
       <c r="D126" s="409" t="n">
@@ -7989,7 +7998,7 @@
       <c r="G126" s="409"/>
       <c r="H126" s="409"/>
       <c r="I126" s="410" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J126" s="410"/>
       <c r="K126" s="410"/>
@@ -7997,7 +8006,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="411" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C127" s="412"/>
       <c r="D127" s="413" t="n">
@@ -8009,7 +8018,7 @@
       <c r="G127" s="413"/>
       <c r="H127" s="413"/>
       <c r="I127" s="406" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J127" s="406"/>
       <c r="K127" s="406"/>
@@ -8028,7 +8037,7 @@
       <c r="G128" s="414"/>
       <c r="H128" s="414"/>
       <c r="I128" s="406" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J128" s="406"/>
       <c r="K128" s="406"/>
@@ -8036,18 +8045,18 @@
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C129" s="416"/>
       <c r="D129" s="417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
       <c r="G129" s="417"/>
       <c r="H129" s="417"/>
       <c r="I129" s="406" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J129" s="406"/>
       <c r="K129" s="406"/>
@@ -8069,13 +8078,13 @@
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="419"/>
       <c r="C131" s="420" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D131" s="420"/>
       <c r="E131" s="420"/>
       <c r="F131" s="420"/>
       <c r="G131" s="180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -8088,13 +8097,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="422" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D132" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E132" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F132" s="424" t="s">
         <v>145</v>
@@ -8117,13 +8126,13 @@
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="421"/>
       <c r="C133" s="427" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D133" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E133" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F133" s="424"/>
       <c r="G133" s="425"/>
@@ -8138,13 +8147,13 @@
         <v>2</v>
       </c>
       <c r="C134" s="423" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D134" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E134" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F134" s="430" t="s">
         <v>145</v>
@@ -8167,13 +8176,13 @@
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="429"/>
       <c r="C135" s="434" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D135" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E135" s="434" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F135" s="430"/>
       <c r="G135" s="431"/>
@@ -8188,13 +8197,13 @@
         <v>3</v>
       </c>
       <c r="C136" s="423" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D136" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E136" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F136" s="436" t="s">
         <v>146</v>
@@ -8217,13 +8226,13 @@
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="421"/>
       <c r="C137" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D137" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E137" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F137" s="436"/>
       <c r="G137" s="425"/>
@@ -8238,13 +8247,13 @@
         <v>4</v>
       </c>
       <c r="C138" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D138" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E138" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F138" s="436" t="s">
         <v>146</v>
@@ -8267,13 +8276,13 @@
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="429"/>
       <c r="C139" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D139" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E139" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F139" s="436"/>
       <c r="G139" s="425"/>
@@ -8288,13 +8297,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="441" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D140" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E140" s="441" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F140" s="424" t="s">
         <v>145</v>
@@ -8317,13 +8326,13 @@
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="421"/>
       <c r="C141" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D141" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E141" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F141" s="424"/>
       <c r="G141" s="425"/>
@@ -8338,13 +8347,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="423" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D142" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E142" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F142" s="436" t="s">
         <v>146</v>
@@ -8367,13 +8376,13 @@
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="429"/>
       <c r="C143" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D143" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E143" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F143" s="436"/>
       <c r="G143" s="425"/>
@@ -8388,13 +8397,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="423" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D144" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E144" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F144" s="424" t="s">
         <v>145</v>
@@ -8417,13 +8426,13 @@
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="421"/>
       <c r="C145" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D145" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E145" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F145" s="424"/>
       <c r="G145" s="425"/>
@@ -8438,13 +8447,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="423" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D146" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E146" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F146" s="436" t="s">
         <v>146</v>
@@ -8467,13 +8476,13 @@
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="429"/>
       <c r="C147" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D147" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E147" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F147" s="436"/>
       <c r="G147" s="425"/>
@@ -8488,13 +8497,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D148" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E148" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F148" s="424" t="s">
         <v>145</v>
@@ -8517,13 +8526,13 @@
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="421"/>
       <c r="C149" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D149" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E149" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F149" s="424"/>
       <c r="G149" s="425"/>
@@ -8538,13 +8547,13 @@
         <v>10</v>
       </c>
       <c r="C150" s="423" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D150" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E150" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F150" s="436" t="s">
         <v>146</v>
@@ -8567,13 +8576,13 @@
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="429"/>
       <c r="C151" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D151" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E151" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F151" s="436"/>
       <c r="G151" s="425"/>
@@ -8588,13 +8597,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D152" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E152" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F152" s="424" t="s">
         <v>145</v>
@@ -8617,13 +8626,13 @@
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="421"/>
       <c r="C153" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D153" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E153" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F153" s="424"/>
       <c r="G153" s="425"/>
@@ -8638,13 +8647,13 @@
         <v>12</v>
       </c>
       <c r="C154" s="442" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D154" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E154" s="443" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F154" s="436" t="s">
         <v>146</v>
@@ -8667,13 +8676,13 @@
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="429"/>
       <c r="C155" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D155" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E155" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F155" s="436"/>
       <c r="G155" s="425"/>
@@ -8688,13 +8697,13 @@
         <v>13</v>
       </c>
       <c r="C156" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D156" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E156" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F156" s="424" t="s">
         <v>145</v>
@@ -8717,13 +8726,13 @@
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="421"/>
       <c r="C157" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D157" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E157" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F157" s="424"/>
       <c r="G157" s="425"/>
@@ -8738,28 +8747,28 @@
         <v>14</v>
       </c>
       <c r="C158" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D158" s="423" t="n">
         <v>140</v>
       </c>
       <c r="E158" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F158" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G158" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H158" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I158" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J158" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K158" s="437"/>
       <c r="L158" s="438"/>
@@ -8780,23 +8789,23 @@
     <row r="164" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G164" s="397" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H164" s="397"/>
       <c r="I164" s="358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -8817,7 +8826,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="398" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C166" s="398"/>
       <c r="D166" s="399" t="n">
@@ -8825,7 +8834,7 @@
         <v>7.2</v>
       </c>
       <c r="E166" s="400" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F166" s="400" t="n">
         <v>2</v>
@@ -8836,7 +8845,7 @@
       </c>
       <c r="H166" s="401"/>
       <c r="I166" s="402" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J166" s="402"/>
       <c r="K166" s="402"/>
@@ -8844,7 +8853,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="403" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C167" s="403"/>
       <c r="D167" s="404" t="n">
@@ -8859,7 +8868,7 @@
       </c>
       <c r="H167" s="405"/>
       <c r="I167" s="406" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J167" s="406"/>
       <c r="K167" s="406"/>
@@ -8867,7 +8876,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="403" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C168" s="403"/>
       <c r="D168" s="407" t="n">
@@ -8882,7 +8891,7 @@
       </c>
       <c r="H168" s="408"/>
       <c r="I168" s="406" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J168" s="406"/>
       <c r="K168" s="406"/>
@@ -8890,7 +8899,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="403" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C169" s="403"/>
       <c r="D169" s="409" t="n">
@@ -8902,7 +8911,7 @@
       <c r="G169" s="409"/>
       <c r="H169" s="409"/>
       <c r="I169" s="410" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J169" s="410"/>
       <c r="K169" s="410"/>
@@ -8910,7 +8919,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="411" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C170" s="412"/>
       <c r="D170" s="413" t="n">
@@ -8922,7 +8931,7 @@
       <c r="G170" s="413"/>
       <c r="H170" s="413"/>
       <c r="I170" s="406" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J170" s="406"/>
       <c r="K170" s="406"/>
@@ -8947,11 +8956,11 @@
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C172" s="416"/>
       <c r="D172" s="417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E172" s="417"/>
       <c r="F172" s="417"/>
@@ -8978,13 +8987,13 @@
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="419"/>
       <c r="C174" s="420" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D174" s="420"/>
       <c r="E174" s="420"/>
       <c r="F174" s="420"/>
       <c r="G174" s="180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -8997,13 +9006,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="422" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D175" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E175" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F175" s="424" t="s">
         <v>145</v>
@@ -9022,13 +9031,13 @@
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="421"/>
       <c r="C176" s="427" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D176" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E176" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F176" s="424"/>
       <c r="G176" s="425"/>
@@ -9043,13 +9052,13 @@
         <v>2</v>
       </c>
       <c r="C177" s="423" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D177" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E177" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F177" s="430" t="s">
         <v>145</v>
@@ -9068,13 +9077,13 @@
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="429"/>
       <c r="C178" s="434" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D178" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E178" s="434" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F178" s="430"/>
       <c r="G178" s="431"/>
@@ -9089,13 +9098,13 @@
         <v>3</v>
       </c>
       <c r="C179" s="423" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D179" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E179" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F179" s="436" t="s">
         <v>146</v>
@@ -9114,13 +9123,13 @@
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="435"/>
       <c r="C180" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D180" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E180" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F180" s="436"/>
       <c r="G180" s="425"/>
@@ -9135,13 +9144,13 @@
         <v>4</v>
       </c>
       <c r="C181" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D181" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E181" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F181" s="436" t="s">
         <v>146</v>
@@ -9160,13 +9169,13 @@
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="435"/>
       <c r="C182" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D182" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E182" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F182" s="436"/>
       <c r="G182" s="425"/>
@@ -9181,13 +9190,13 @@
         <v>5</v>
       </c>
       <c r="C183" s="423" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D183" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E183" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F183" s="424" t="s">
         <v>145</v>
@@ -9206,13 +9215,13 @@
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="435"/>
       <c r="C184" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D184" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E184" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F184" s="424"/>
       <c r="G184" s="425"/>
@@ -9227,13 +9236,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="423" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D185" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E185" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F185" s="436" t="s">
         <v>146</v>
@@ -9252,13 +9261,13 @@
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="435"/>
       <c r="C186" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D186" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E186" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F186" s="436"/>
       <c r="G186" s="425"/>
@@ -9273,13 +9282,13 @@
         <v>7</v>
       </c>
       <c r="C187" s="423" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D187" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E187" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F187" s="424" t="s">
         <v>145</v>
@@ -9298,13 +9307,13 @@
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="435"/>
       <c r="C188" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D188" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E188" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F188" s="424"/>
       <c r="G188" s="425"/>
@@ -9319,13 +9328,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="423" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D189" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E189" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F189" s="436" t="s">
         <v>146</v>
@@ -9344,13 +9353,13 @@
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="435"/>
       <c r="C190" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D190" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E190" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F190" s="436"/>
       <c r="G190" s="425"/>
@@ -9365,13 +9374,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="423" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D191" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E191" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F191" s="424" t="s">
         <v>145</v>
@@ -9390,13 +9399,13 @@
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="435"/>
       <c r="C192" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D192" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E192" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F192" s="424"/>
       <c r="G192" s="425"/>
@@ -9411,13 +9420,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D193" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E193" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F193" s="424" t="s">
         <v>145</v>
@@ -9436,13 +9445,13 @@
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="435"/>
       <c r="C194" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D194" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E194" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F194" s="424"/>
       <c r="G194" s="425"/>
@@ -9457,13 +9466,13 @@
         <v>11</v>
       </c>
       <c r="C195" s="423" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D195" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E195" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F195" s="436" t="s">
         <v>146</v>
@@ -9482,13 +9491,13 @@
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="435"/>
       <c r="C196" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D196" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E196" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F196" s="436"/>
       <c r="G196" s="425"/>
@@ -9503,22 +9512,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D197" s="423" t="n">
         <v>180</v>
       </c>
       <c r="E197" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F197" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G197" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H197" s="425" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I197" s="425"/>
       <c r="J197" s="425"/>
@@ -9541,23 +9550,23 @@
     <row r="202" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="368"/>
       <c r="C202" s="368" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D202" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E202" s="368" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F202" s="368" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G202" s="397" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H202" s="397"/>
       <c r="I202" s="358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J202" s="358"/>
       <c r="K202" s="358"/>
@@ -9578,7 +9587,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="398" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C204" s="398"/>
       <c r="D204" s="399" t="e">
@@ -9586,7 +9595,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E204" s="400" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F204" s="400" t="n">
         <v>4</v>
@@ -9603,7 +9612,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="403" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C205" s="403"/>
       <c r="D205" s="404" t="n">
@@ -9618,7 +9627,7 @@
       </c>
       <c r="H205" s="405"/>
       <c r="I205" s="406" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J205" s="406"/>
       <c r="K205" s="406"/>
@@ -9626,7 +9635,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="403" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C206" s="403"/>
       <c r="D206" s="407" t="e">
@@ -9641,7 +9650,7 @@
       </c>
       <c r="H206" s="408"/>
       <c r="I206" s="406" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J206" s="406"/>
       <c r="K206" s="406"/>
@@ -9649,18 +9658,18 @@
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="403" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C207" s="403"/>
       <c r="D207" s="409" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E207" s="409"/>
       <c r="F207" s="409"/>
       <c r="G207" s="409"/>
       <c r="H207" s="409"/>
       <c r="I207" s="410" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J207" s="410"/>
       <c r="K207" s="410"/>
@@ -9668,7 +9677,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="411" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C208" s="412"/>
       <c r="D208" s="413" t="n">
@@ -9679,7 +9688,7 @@
       <c r="G208" s="413"/>
       <c r="H208" s="413"/>
       <c r="I208" s="406" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J208" s="406"/>
       <c r="K208" s="406"/>
@@ -9698,7 +9707,7 @@
       <c r="G209" s="414"/>
       <c r="H209" s="414"/>
       <c r="I209" s="406" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J209" s="406"/>
       <c r="K209" s="406"/>
@@ -9706,18 +9715,18 @@
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C210" s="416"/>
       <c r="D210" s="417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E210" s="417"/>
       <c r="F210" s="417"/>
       <c r="G210" s="417"/>
       <c r="H210" s="417"/>
       <c r="I210" s="406" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J210" s="406"/>
       <c r="K210" s="406"/>
@@ -9739,13 +9748,13 @@
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="419"/>
       <c r="C212" s="420" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D212" s="420"/>
       <c r="E212" s="420"/>
       <c r="F212" s="420"/>
       <c r="G212" s="180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H212" s="180"/>
       <c r="I212" s="180"/>
@@ -9758,13 +9767,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="422" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D213" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E213" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F213" s="424" t="s">
         <v>145</v>
@@ -9785,13 +9794,13 @@
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="421"/>
       <c r="C214" s="427" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D214" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E214" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F214" s="424"/>
       <c r="G214" s="425"/>
@@ -9806,13 +9815,13 @@
         <v>2</v>
       </c>
       <c r="C215" s="423" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D215" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E215" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F215" s="430" t="s">
         <v>145</v>
@@ -9833,13 +9842,13 @@
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="429"/>
       <c r="C216" s="434" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D216" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E216" s="434" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F216" s="430"/>
       <c r="G216" s="431"/>
@@ -9854,13 +9863,13 @@
         <v>3</v>
       </c>
       <c r="C217" s="423" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D217" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E217" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F217" s="436" t="s">
         <v>146</v>
@@ -9881,13 +9890,13 @@
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="421"/>
       <c r="C218" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D218" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E218" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F218" s="436"/>
       <c r="G218" s="425"/>
@@ -9902,13 +9911,13 @@
         <v>4</v>
       </c>
       <c r="C219" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D219" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E219" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F219" s="436" t="s">
         <v>146</v>
@@ -9929,13 +9938,13 @@
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="429"/>
       <c r="C220" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D220" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E220" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F220" s="436"/>
       <c r="G220" s="425"/>
@@ -9950,13 +9959,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="441" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D221" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E221" s="441" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F221" s="424" t="s">
         <v>145</v>
@@ -9977,13 +9986,13 @@
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="421"/>
       <c r="C222" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D222" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E222" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F222" s="424"/>
       <c r="G222" s="425"/>
@@ -9998,13 +10007,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="423" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D223" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E223" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F223" s="436" t="s">
         <v>146</v>
@@ -10025,13 +10034,13 @@
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="429"/>
       <c r="C224" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D224" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E224" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F224" s="436"/>
       <c r="G224" s="425"/>
@@ -10046,13 +10055,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="423" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D225" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E225" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F225" s="424" t="s">
         <v>145</v>
@@ -10073,13 +10082,13 @@
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="421"/>
       <c r="C226" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D226" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E226" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F226" s="424"/>
       <c r="G226" s="425"/>
@@ -10094,13 +10103,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="423" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D227" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E227" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F227" s="436" t="s">
         <v>146</v>
@@ -10121,13 +10130,13 @@
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="429"/>
       <c r="C228" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D228" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E228" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F228" s="436"/>
       <c r="G228" s="425"/>
@@ -10142,13 +10151,13 @@
         <v>9</v>
       </c>
       <c r="C229" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D229" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E229" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F229" s="424" t="s">
         <v>145</v>
@@ -10169,13 +10178,13 @@
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="421"/>
       <c r="C230" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D230" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E230" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F230" s="424"/>
       <c r="G230" s="425"/>
@@ -10190,13 +10199,13 @@
         <v>10</v>
       </c>
       <c r="C231" s="423" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D231" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E231" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F231" s="436" t="s">
         <v>146</v>
@@ -10217,13 +10226,13 @@
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="429"/>
       <c r="C232" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D232" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E232" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F232" s="436"/>
       <c r="G232" s="425"/>
@@ -10238,13 +10247,13 @@
         <v>11</v>
       </c>
       <c r="C233" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D233" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E233" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F233" s="424" t="s">
         <v>145</v>
@@ -10265,13 +10274,13 @@
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="421"/>
       <c r="C234" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D234" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E234" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F234" s="424"/>
       <c r="G234" s="425"/>
@@ -10286,13 +10295,13 @@
         <v>12</v>
       </c>
       <c r="C235" s="442" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D235" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E235" s="443" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F235" s="436" t="s">
         <v>146</v>
@@ -10313,13 +10322,13 @@
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="429"/>
       <c r="C236" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D236" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E236" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F236" s="436"/>
       <c r="G236" s="425"/>
@@ -10334,25 +10343,25 @@
         <v>13</v>
       </c>
       <c r="C237" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D237" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E237" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F237" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G237" s="444" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H237" s="444" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I237" s="444" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J237" s="444"/>
       <c r="K237" s="437"/>
@@ -10374,23 +10383,23 @@
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="368"/>
       <c r="C242" s="368" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D242" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E242" s="368" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F242" s="368" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G242" s="397" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H242" s="397"/>
       <c r="I242" s="358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J242" s="358"/>
       <c r="K242" s="358"/>
@@ -10411,7 +10420,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="398" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C244" s="398"/>
       <c r="D244" s="399" t="e">
@@ -10419,7 +10428,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E244" s="400" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F244" s="400" t="n">
         <v>4</v>
@@ -10436,7 +10445,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="403" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C245" s="403"/>
       <c r="D245" s="404" t="n">
@@ -10451,7 +10460,7 @@
       </c>
       <c r="H245" s="405"/>
       <c r="I245" s="406" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J245" s="406"/>
       <c r="K245" s="406"/>
@@ -10459,7 +10468,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="403" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C246" s="403"/>
       <c r="D246" s="407" t="e">
@@ -10474,7 +10483,7 @@
       </c>
       <c r="H246" s="408"/>
       <c r="I246" s="406" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J246" s="406"/>
       <c r="K246" s="406"/>
@@ -10482,18 +10491,18 @@
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="403" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C247" s="403"/>
       <c r="D247" s="409" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E247" s="409"/>
       <c r="F247" s="409"/>
       <c r="G247" s="409"/>
       <c r="H247" s="409"/>
       <c r="I247" s="410" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J247" s="410"/>
       <c r="K247" s="410"/>
@@ -10501,7 +10510,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="411" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C248" s="412"/>
       <c r="D248" s="413" t="n">
@@ -10512,7 +10521,7 @@
       <c r="G248" s="413"/>
       <c r="H248" s="413"/>
       <c r="I248" s="406" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J248" s="406"/>
       <c r="K248" s="406"/>
@@ -10531,7 +10540,7 @@
       <c r="G249" s="414"/>
       <c r="H249" s="414"/>
       <c r="I249" s="406" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J249" s="406"/>
       <c r="K249" s="406"/>
@@ -10539,18 +10548,18 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C250" s="416"/>
       <c r="D250" s="417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E250" s="417"/>
       <c r="F250" s="417"/>
       <c r="G250" s="417"/>
       <c r="H250" s="417"/>
       <c r="I250" s="406" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J250" s="406"/>
       <c r="K250" s="406"/>
@@ -10572,13 +10581,13 @@
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="419"/>
       <c r="C252" s="420" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D252" s="420"/>
       <c r="E252" s="420"/>
       <c r="F252" s="420"/>
       <c r="G252" s="180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H252" s="180"/>
       <c r="I252" s="180"/>
@@ -10591,13 +10600,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="422" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D253" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E253" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F253" s="424" t="s">
         <v>145</v>
@@ -10618,13 +10627,13 @@
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="421"/>
       <c r="C254" s="427" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D254" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E254" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F254" s="424"/>
       <c r="G254" s="425"/>
@@ -10639,13 +10648,13 @@
         <v>2</v>
       </c>
       <c r="C255" s="423" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D255" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E255" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F255" s="430" t="s">
         <v>145</v>
@@ -10666,13 +10675,13 @@
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="429"/>
       <c r="C256" s="434" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D256" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E256" s="434" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F256" s="430"/>
       <c r="G256" s="431"/>
@@ -10687,13 +10696,13 @@
         <v>3</v>
       </c>
       <c r="C257" s="423" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D257" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E257" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F257" s="436" t="s">
         <v>146</v>
@@ -10714,13 +10723,13 @@
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="421"/>
       <c r="C258" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D258" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E258" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F258" s="436"/>
       <c r="G258" s="425"/>
@@ -10735,13 +10744,13 @@
         <v>4</v>
       </c>
       <c r="C259" s="423" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D259" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E259" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F259" s="436" t="s">
         <v>146</v>
@@ -10762,13 +10771,13 @@
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="429"/>
       <c r="C260" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D260" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E260" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F260" s="436"/>
       <c r="G260" s="425"/>
@@ -10783,13 +10792,13 @@
         <v>5</v>
       </c>
       <c r="C261" s="441" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D261" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E261" s="441" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F261" s="424" t="s">
         <v>145</v>
@@ -10810,13 +10819,13 @@
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="421"/>
       <c r="C262" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D262" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E262" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F262" s="424"/>
       <c r="G262" s="425"/>
@@ -10831,13 +10840,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="423" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D263" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E263" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F263" s="436" t="s">
         <v>146</v>
@@ -10858,13 +10867,13 @@
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="429"/>
       <c r="C264" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D264" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E264" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F264" s="436"/>
       <c r="G264" s="425"/>
@@ -10879,13 +10888,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D265" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E265" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F265" s="424" t="s">
         <v>145</v>
@@ -10906,13 +10915,13 @@
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="421"/>
       <c r="C266" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D266" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E266" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F266" s="424"/>
       <c r="G266" s="425"/>
@@ -10927,13 +10936,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="423" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D267" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E267" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F267" s="436" t="s">
         <v>146</v>
@@ -10954,13 +10963,13 @@
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="429"/>
       <c r="C268" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D268" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E268" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F268" s="436"/>
       <c r="G268" s="425"/>
@@ -10975,13 +10984,13 @@
         <v>9</v>
       </c>
       <c r="C269" s="423" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D269" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E269" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F269" s="424" t="s">
         <v>145</v>
@@ -11002,13 +11011,13 @@
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="421"/>
       <c r="C270" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D270" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E270" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F270" s="424"/>
       <c r="G270" s="425"/>
@@ -11023,13 +11032,13 @@
         <v>10</v>
       </c>
       <c r="C271" s="423" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D271" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E271" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F271" s="436" t="s">
         <v>146</v>
@@ -11050,13 +11059,13 @@
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="429"/>
       <c r="C272" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D272" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E272" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F272" s="436"/>
       <c r="G272" s="425"/>
@@ -11071,13 +11080,13 @@
         <v>11</v>
       </c>
       <c r="C273" s="423" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D273" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E273" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F273" s="424" t="s">
         <v>145</v>
@@ -11098,13 +11107,13 @@
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="421"/>
       <c r="C274" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D274" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E274" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F274" s="424"/>
       <c r="G274" s="425"/>
@@ -11119,13 +11128,13 @@
         <v>12</v>
       </c>
       <c r="C275" s="442" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D275" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E275" s="443" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F275" s="436" t="s">
         <v>146</v>
@@ -11146,13 +11155,13 @@
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="429"/>
       <c r="C276" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D276" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E276" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F276" s="436"/>
       <c r="G276" s="425"/>
@@ -11167,25 +11176,25 @@
         <v>13</v>
       </c>
       <c r="C277" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D277" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E277" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F277" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G277" s="444" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H277" s="444" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I277" s="444" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J277" s="444"/>
       <c r="K277" s="437"/>
@@ -11207,23 +11216,23 @@
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="368"/>
       <c r="C282" s="368" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D282" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E282" s="368" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F282" s="368" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G282" s="397" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H282" s="397"/>
       <c r="I282" s="358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J282" s="358"/>
       <c r="K282" s="358"/>
@@ -11244,14 +11253,14 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="398" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C284" s="398"/>
       <c r="D284" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E284" s="400" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F284" s="400" t="n">
         <v>3</v>
@@ -11268,7 +11277,7 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="403" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C285" s="403"/>
       <c r="D285" s="404" t="n">
@@ -11282,7 +11291,7 @@
       </c>
       <c r="H285" s="405"/>
       <c r="I285" s="406" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J285" s="406"/>
       <c r="K285" s="406"/>
@@ -11290,7 +11299,7 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="403" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C286" s="403"/>
       <c r="D286" s="407" t="n">
@@ -11304,7 +11313,7 @@
       </c>
       <c r="H286" s="408"/>
       <c r="I286" s="406" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J286" s="406"/>
       <c r="K286" s="406"/>
@@ -11312,18 +11321,18 @@
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="403" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C287" s="403"/>
       <c r="D287" s="409" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E287" s="409"/>
       <c r="F287" s="409"/>
       <c r="G287" s="409"/>
       <c r="H287" s="409"/>
       <c r="I287" s="410" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J287" s="410"/>
       <c r="K287" s="410"/>
@@ -11331,7 +11340,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="411" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C288" s="412"/>
       <c r="D288" s="413" t="n">
@@ -11342,7 +11351,7 @@
       <c r="G288" s="413"/>
       <c r="H288" s="413"/>
       <c r="I288" s="406" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J288" s="406"/>
       <c r="K288" s="406"/>
@@ -11367,11 +11376,11 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C290" s="416"/>
       <c r="D290" s="417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E290" s="417"/>
       <c r="F290" s="417"/>
@@ -11398,13 +11407,13 @@
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="419"/>
       <c r="C292" s="420" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D292" s="420"/>
       <c r="E292" s="420"/>
       <c r="F292" s="420"/>
       <c r="G292" s="180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H292" s="180"/>
       <c r="I292" s="180"/>
@@ -11417,13 +11426,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="422" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D293" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E293" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F293" s="424" t="s">
         <v>145</v>
@@ -11444,13 +11453,13 @@
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="421"/>
       <c r="C294" s="427" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D294" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E294" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F294" s="424"/>
       <c r="G294" s="425"/>
@@ -11465,13 +11474,13 @@
         <v>2</v>
       </c>
       <c r="C295" s="423" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D295" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E295" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F295" s="430" t="s">
         <v>145</v>
@@ -11492,13 +11501,13 @@
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="429"/>
       <c r="C296" s="434" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D296" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E296" s="434" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F296" s="430"/>
       <c r="G296" s="431"/>
@@ -11513,13 +11522,13 @@
         <v>3</v>
       </c>
       <c r="C297" s="423" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D297" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E297" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F297" s="436" t="s">
         <v>146</v>
@@ -11540,13 +11549,13 @@
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="421"/>
       <c r="C298" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D298" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E298" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F298" s="436"/>
       <c r="G298" s="425"/>
@@ -11561,13 +11570,13 @@
         <v>4</v>
       </c>
       <c r="C299" s="423" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D299" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E299" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F299" s="436" t="s">
         <v>146</v>
@@ -11588,13 +11597,13 @@
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="429"/>
       <c r="C300" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D300" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E300" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F300" s="436"/>
       <c r="G300" s="425"/>
@@ -11609,13 +11618,13 @@
         <v>5</v>
       </c>
       <c r="C301" s="441" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D301" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E301" s="441" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F301" s="424" t="s">
         <v>145</v>
@@ -11636,13 +11645,13 @@
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="421"/>
       <c r="C302" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D302" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E302" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F302" s="424"/>
       <c r="G302" s="425"/>
@@ -11657,13 +11666,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="423" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D303" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E303" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F303" s="436" t="s">
         <v>146</v>
@@ -11684,13 +11693,13 @@
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="429"/>
       <c r="C304" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D304" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E304" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F304" s="436"/>
       <c r="G304" s="425"/>
@@ -11705,13 +11714,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="423" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D305" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E305" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F305" s="424" t="s">
         <v>145</v>
@@ -11732,13 +11741,13 @@
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="421"/>
       <c r="C306" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D306" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E306" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F306" s="424"/>
       <c r="G306" s="425"/>
@@ -11753,13 +11762,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="423" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D307" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E307" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F307" s="436" t="s">
         <v>146</v>
@@ -11780,13 +11789,13 @@
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="429"/>
       <c r="C308" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D308" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E308" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F308" s="436"/>
       <c r="G308" s="425"/>
@@ -11801,13 +11810,13 @@
         <v>9</v>
       </c>
       <c r="C309" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D309" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E309" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F309" s="424" t="s">
         <v>145</v>
@@ -11828,13 +11837,13 @@
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="421"/>
       <c r="C310" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D310" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E310" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F310" s="424"/>
       <c r="G310" s="425"/>
@@ -11849,13 +11858,13 @@
         <v>10</v>
       </c>
       <c r="C311" s="423" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D311" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E311" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F311" s="436" t="s">
         <v>146</v>
@@ -11876,13 +11885,13 @@
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="429"/>
       <c r="C312" s="439" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D312" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E312" s="439" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F312" s="436"/>
       <c r="G312" s="425"/>
@@ -11897,13 +11906,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="423" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D313" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E313" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F313" s="424" t="s">
         <v>145</v>
@@ -11924,13 +11933,13 @@
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="421"/>
       <c r="C314" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D314" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E314" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F314" s="424"/>
       <c r="G314" s="425"/>
@@ -11945,25 +11954,25 @@
         <v>12</v>
       </c>
       <c r="C315" s="442" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D315" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E315" s="443" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F315" s="436" t="s">
         <v>146</v>
       </c>
       <c r="G315" s="425" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H315" s="425" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I315" s="425" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J315" s="425"/>
       <c r="K315" s="437"/>
@@ -11972,13 +11981,13 @@
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="429"/>
       <c r="C316" s="428" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D316" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E316" s="428" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F316" s="436"/>
       <c r="G316" s="425"/>
@@ -11993,25 +12002,25 @@
         <v>13</v>
       </c>
       <c r="C317" s="423" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D317" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E317" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F317" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G317" s="444" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H317" s="444" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I317" s="444" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J317" s="444"/>
       <c r="K317" s="437"/>
@@ -12020,13 +12029,13 @@
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="421"/>
       <c r="C318" s="440" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D318" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E318" s="440" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F318" s="424"/>
       <c r="G318" s="444"/>
@@ -12041,25 +12050,25 @@
         <v>13</v>
       </c>
       <c r="C319" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D319" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E319" s="423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F319" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G319" s="444" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H319" s="444" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I319" s="444" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J319" s="444"/>
       <c r="K319" s="437"/>
@@ -13200,24 +13209,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="445" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B1" s="446" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B2" s="446" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -15483,7 +15492,7 @@
   </sheetPr>
   <dimension ref="B3:AI40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="цели на сезон" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="336">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -805,10 +805,10 @@
     <t xml:space="preserve">Утренняя пробежка в лесу за работой. 1 км разминка, легкий бег, затем по таймеру 14 минут соревнований - пробежала 3 км с пульсом до 170. Затем по таймеру 15 минут ГРИ. Льда уже нет, бежать легче. Люблю ГРИ))) Потом несколько легких кругов для заминки. Итого вышел час тренировки, 10 км.</t>
   </si>
   <si>
-    <t xml:space="preserve">ДИС(50)+ГРИ(21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДИС(30)+СКИ(25)</t>
+    <t xml:space="preserve">ДИС(40)+ГРИ(27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДИС(40)+СКИ(25)</t>
   </si>
   <si>
     <t xml:space="preserve">ДИС(47)+ССИ/ОСИ (32)</t>
@@ -817,7 +817,10 @@
     <t xml:space="preserve">СВД(177)</t>
   </si>
   <si>
-    <t xml:space="preserve">ССИ/ОСИ (35)+ГРИ(15)+СОР(15)</t>
+    <t xml:space="preserve">ССИ/ОСИ (35)+ГРИ(9)+СОР(15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бег в лесу, разминка, затем 40 минут ДИС и ГРИ 27 минут. Итого отбегала 16 км, чувствовала себя хорошо. Луна светила как фонарь, моя тень бежала со мной)) В бассейн не успела. Ну и ладно. Очень много народу, не тянет туда в последнее время.</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -3783,7 +3786,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4009,12 +4012,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="62726534"/>
-        <c:axId val="71417714"/>
+        <c:axId val="86155927"/>
+        <c:axId val="46217088"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62726534"/>
+        <c:axId val="86155927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4047,14 +4050,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71417714"/>
+        <c:crossAx val="46217088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71417714"/>
+        <c:axId val="46217088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,7 +4138,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62726534"/>
+        <c:crossAx val="86155927"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4177,10 +4180,10 @@
       <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609480</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4189,7 +4192,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4388040" cy="2646360"/>
+        <a:ext cx="4387680" cy="2646000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4216,6 +4219,8 @@
       <sheetName val="Ц1Н3"/>
       <sheetName val="Ц1Н4"/>
       <sheetName val="Ц2Н5"/>
+      <sheetName val="Ц2Н6"/>
+      <sheetName val="Ц2Н7"/>
       <sheetName val="ссылки"/>
     </sheetNames>
     <sheetDataSet>
@@ -4246,6 +4251,8 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4643,7 +4650,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -5425,7 +5432,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5649,9 +5656,7 @@
         <v>248</v>
       </c>
       <c r="D9" s="365"/>
-      <c r="E9" s="367" t="s">
-        <v>218</v>
-      </c>
+      <c r="E9" s="367"/>
       <c r="F9" s="367"/>
       <c r="G9" s="367"/>
       <c r="H9" s="367"/>
@@ -5858,16 +5863,22 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="378"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="G21" s="21" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>7.57</v>
+      </c>
       <c r="I21" s="394"/>
       <c r="J21" s="394"/>
       <c r="K21" s="394"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="377"/>
       <c r="B22" s="373"/>
-      <c r="C22" s="379"/>
+      <c r="C22" s="379" t="s">
+        <v>253</v>
+      </c>
       <c r="D22" s="379"/>
       <c r="E22" s="379"/>
       <c r="F22" s="379"/>
@@ -5877,7 +5888,7 @@
       <c r="J22" s="379"/>
       <c r="K22" s="379"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="377"/>
       <c r="B23" s="373"/>
       <c r="C23" s="379"/>
@@ -5901,8 +5912,12 @@
       <c r="D24" s="374"/>
       <c r="E24" s="374"/>
       <c r="F24" s="395"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="374"/>
+      <c r="G24" s="374" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="H24" s="374" t="n">
+        <v>7.33</v>
+      </c>
       <c r="I24" s="374"/>
       <c r="J24" s="374"/>
       <c r="K24" s="374"/>
@@ -6165,15 +6180,15 @@
   </sheetPr>
   <dimension ref="B1:L405"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK375" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M404" activeCellId="0" sqref="M404"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A288" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D372" activeCellId="0" sqref="D372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="5.01"/>
@@ -6183,23 +6198,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G1" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H1" s="397"/>
       <c r="I1" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -6220,7 +6235,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="398"/>
       <c r="D3" s="399" t="n">
@@ -6228,7 +6243,7 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F3" s="400" t="n">
         <v>4</v>
@@ -6239,7 +6254,7 @@
       </c>
       <c r="H3" s="401"/>
       <c r="I3" s="402" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J3" s="402"/>
       <c r="K3" s="402"/>
@@ -6247,7 +6262,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C4" s="403"/>
       <c r="D4" s="404" t="n">
@@ -6262,7 +6277,7 @@
       </c>
       <c r="H4" s="405"/>
       <c r="I4" s="406" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J4" s="406"/>
       <c r="K4" s="406"/>
@@ -6270,7 +6285,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5" s="403"/>
       <c r="D5" s="407" t="n">
@@ -6285,7 +6300,7 @@
       </c>
       <c r="H5" s="408"/>
       <c r="I5" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J5" s="406"/>
       <c r="K5" s="406"/>
@@ -6293,7 +6308,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="403" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C6" s="403"/>
       <c r="D6" s="409" t="n">
@@ -6305,7 +6320,7 @@
       <c r="G6" s="409"/>
       <c r="H6" s="409"/>
       <c r="I6" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J6" s="410"/>
       <c r="K6" s="410"/>
@@ -6313,7 +6328,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C7" s="412"/>
       <c r="D7" s="413" t="n">
@@ -6325,7 +6340,7 @@
       <c r="G7" s="413"/>
       <c r="H7" s="413"/>
       <c r="I7" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J7" s="406"/>
       <c r="K7" s="406"/>
@@ -6350,11 +6365,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C9" s="416"/>
       <c r="D9" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E9" s="417"/>
       <c r="F9" s="417"/>
@@ -6381,13 +6396,13 @@
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="419"/>
       <c r="C11" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D11" s="420"/>
       <c r="E11" s="420"/>
       <c r="F11" s="420"/>
       <c r="G11" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -6400,13 +6415,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="422" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D12" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F12" s="424" t="s">
         <v>145</v>
@@ -6429,13 +6444,13 @@
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="421"/>
       <c r="C13" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D13" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E13" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F13" s="424"/>
       <c r="G13" s="425"/>
@@ -6450,13 +6465,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D14" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E14" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F14" s="430" t="s">
         <v>145</v>
@@ -6479,13 +6494,13 @@
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="429"/>
       <c r="C15" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D15" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E15" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F15" s="430"/>
       <c r="G15" s="431"/>
@@ -6500,13 +6515,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D16" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F16" s="436" t="s">
         <v>146</v>
@@ -6529,13 +6544,13 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="435"/>
       <c r="C17" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D17" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F17" s="436"/>
       <c r="G17" s="425"/>
@@ -6550,13 +6565,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="423" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D18" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F18" s="436" t="s">
         <v>146</v>
@@ -6579,13 +6594,13 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="435"/>
       <c r="C19" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D19" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F19" s="436"/>
       <c r="G19" s="425"/>
@@ -6600,13 +6615,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D20" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F20" s="424" t="s">
         <v>145</v>
@@ -6629,13 +6644,13 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="435"/>
       <c r="C21" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D21" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E21" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F21" s="424"/>
       <c r="G21" s="425"/>
@@ -6650,13 +6665,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D22" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F22" s="436" t="s">
         <v>146</v>
@@ -6679,13 +6694,13 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="435"/>
       <c r="C23" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D23" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E23" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F23" s="436"/>
       <c r="G23" s="425"/>
@@ -6700,13 +6715,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="423" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D24" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F24" s="424" t="s">
         <v>145</v>
@@ -6729,13 +6744,13 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="435"/>
       <c r="C25" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D25" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E25" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F25" s="424"/>
       <c r="G25" s="425"/>
@@ -6750,13 +6765,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D26" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F26" s="436" t="s">
         <v>146</v>
@@ -6779,13 +6794,13 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="435"/>
       <c r="C27" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D27" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E27" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F27" s="436"/>
       <c r="G27" s="425"/>
@@ -6800,13 +6815,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="423" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D28" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E28" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F28" s="424" t="s">
         <v>145</v>
@@ -6829,13 +6844,13 @@
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="435"/>
       <c r="C29" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D29" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E29" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F29" s="424"/>
       <c r="G29" s="425"/>
@@ -6850,13 +6865,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D30" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E30" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F30" s="424" t="s">
         <v>145</v>
@@ -6879,13 +6894,13 @@
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="435"/>
       <c r="C31" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D31" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E31" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F31" s="424"/>
       <c r="G31" s="425"/>
@@ -6900,13 +6915,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D32" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E32" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F32" s="436" t="s">
         <v>146</v>
@@ -6929,13 +6944,13 @@
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="435"/>
       <c r="C33" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D33" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E33" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F33" s="436"/>
       <c r="G33" s="425"/>
@@ -6950,28 +6965,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D34" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E34" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F34" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G34" s="425" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H34" s="425" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I34" s="425" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J34" s="425" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K34" s="437"/>
       <c r="L34" s="438"/>
@@ -6992,23 +7007,23 @@
     <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G40" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H40" s="397"/>
       <c r="I40" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -7029,7 +7044,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C42" s="398"/>
       <c r="D42" s="399" t="n">
@@ -7037,7 +7052,7 @@
         <v>6.2</v>
       </c>
       <c r="E42" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F42" s="400" t="n">
         <v>4</v>
@@ -7048,7 +7063,7 @@
       </c>
       <c r="H42" s="401"/>
       <c r="I42" s="402" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J42" s="402"/>
       <c r="K42" s="402"/>
@@ -7056,7 +7071,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C43" s="403"/>
       <c r="D43" s="404" t="n">
@@ -7071,7 +7086,7 @@
       </c>
       <c r="H43" s="405"/>
       <c r="I43" s="406" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J43" s="406"/>
       <c r="K43" s="406"/>
@@ -7079,7 +7094,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C44" s="403"/>
       <c r="D44" s="407" t="n">
@@ -7094,7 +7109,7 @@
       </c>
       <c r="H44" s="408"/>
       <c r="I44" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J44" s="406"/>
       <c r="K44" s="406"/>
@@ -7102,7 +7117,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="403" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C45" s="403"/>
       <c r="D45" s="409" t="n">
@@ -7114,7 +7129,7 @@
       <c r="G45" s="409"/>
       <c r="H45" s="409"/>
       <c r="I45" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J45" s="410"/>
       <c r="K45" s="410"/>
@@ -7122,7 +7137,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C46" s="412"/>
       <c r="D46" s="413" t="n">
@@ -7134,7 +7149,7 @@
       <c r="G46" s="413"/>
       <c r="H46" s="413"/>
       <c r="I46" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J46" s="406"/>
       <c r="K46" s="406"/>
@@ -7153,7 +7168,7 @@
       <c r="G47" s="414"/>
       <c r="H47" s="414"/>
       <c r="I47" s="406" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J47" s="406"/>
       <c r="K47" s="406"/>
@@ -7161,18 +7176,18 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C48" s="416"/>
       <c r="D48" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E48" s="417"/>
       <c r="F48" s="417"/>
       <c r="G48" s="417"/>
       <c r="H48" s="417"/>
       <c r="I48" s="406" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J48" s="406"/>
       <c r="K48" s="406"/>
@@ -7194,13 +7209,13 @@
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="419"/>
       <c r="C50" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D50" s="420"/>
       <c r="E50" s="420"/>
       <c r="F50" s="420"/>
       <c r="G50" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -7213,13 +7228,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="422" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D51" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E51" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F51" s="424" t="s">
         <v>145</v>
@@ -7242,13 +7257,13 @@
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="421"/>
       <c r="C52" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D52" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E52" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F52" s="424"/>
       <c r="G52" s="425"/>
@@ -7263,13 +7278,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D53" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E53" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F53" s="430" t="s">
         <v>145</v>
@@ -7292,13 +7307,13 @@
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="429"/>
       <c r="C54" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D54" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E54" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F54" s="430"/>
       <c r="G54" s="431"/>
@@ -7313,13 +7328,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D55" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E55" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F55" s="436" t="s">
         <v>146</v>
@@ -7342,13 +7357,13 @@
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="421"/>
       <c r="C56" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D56" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E56" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F56" s="436"/>
       <c r="G56" s="425"/>
@@ -7363,13 +7378,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="423" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D57" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E57" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F57" s="436" t="s">
         <v>146</v>
@@ -7392,13 +7407,13 @@
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="429"/>
       <c r="C58" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D58" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E58" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F58" s="436"/>
       <c r="G58" s="425"/>
@@ -7413,28 +7428,28 @@
         <v>5</v>
       </c>
       <c r="C59" s="441" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D59" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E59" s="441" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F59" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G59" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H59" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I59" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J59" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K59" s="437"/>
       <c r="L59" s="438"/>
@@ -7442,13 +7457,13 @@
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="421"/>
       <c r="C60" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D60" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E60" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F60" s="424"/>
       <c r="G60" s="425"/>
@@ -7463,13 +7478,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D61" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E61" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F61" s="436" t="s">
         <v>146</v>
@@ -7492,13 +7507,13 @@
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="429"/>
       <c r="C62" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D62" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E62" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F62" s="436"/>
       <c r="G62" s="425"/>
@@ -7513,13 +7528,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="423" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D63" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E63" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F63" s="424" t="s">
         <v>145</v>
@@ -7542,13 +7557,13 @@
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="421"/>
       <c r="C64" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D64" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E64" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F64" s="424"/>
       <c r="G64" s="425"/>
@@ -7563,13 +7578,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D65" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E65" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F65" s="436" t="s">
         <v>146</v>
@@ -7592,13 +7607,13 @@
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="429"/>
       <c r="C66" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D66" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E66" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F66" s="436"/>
       <c r="G66" s="425"/>
@@ -7613,13 +7628,13 @@
         <v>9</v>
       </c>
       <c r="C67" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D67" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F67" s="424" t="s">
         <v>145</v>
@@ -7642,13 +7657,13 @@
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="421"/>
       <c r="C68" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D68" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E68" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F68" s="424"/>
       <c r="G68" s="425"/>
@@ -7663,13 +7678,13 @@
         <v>10</v>
       </c>
       <c r="C69" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D69" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E69" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F69" s="436" t="s">
         <v>146</v>
@@ -7692,13 +7707,13 @@
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="429"/>
       <c r="C70" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D70" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E70" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F70" s="436"/>
       <c r="G70" s="425"/>
@@ -7713,13 +7728,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="423" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D71" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F71" s="424" t="s">
         <v>145</v>
@@ -7746,7 +7761,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="440" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F72" s="424"/>
       <c r="G72" s="425"/>
@@ -7761,13 +7776,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="442" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D73" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E73" s="443" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F73" s="436" t="s">
         <v>146</v>
@@ -7794,7 +7809,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="440" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F74" s="436"/>
       <c r="G74" s="425"/>
@@ -7809,28 +7824,28 @@
         <v>13</v>
       </c>
       <c r="C75" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D75" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E75" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F75" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G75" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H75" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I75" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J75" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K75" s="437"/>
       <c r="L75" s="438"/>
@@ -7851,23 +7866,23 @@
     <row r="80" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G80" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H80" s="397"/>
       <c r="I80" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -7888,7 +7903,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C82" s="398"/>
       <c r="D82" s="399" t="n">
@@ -7896,7 +7911,7 @@
         <v>6.2</v>
       </c>
       <c r="E82" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F82" s="400" t="n">
         <v>4</v>
@@ -7907,7 +7922,7 @@
       </c>
       <c r="H82" s="401"/>
       <c r="I82" s="402" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J82" s="402"/>
       <c r="K82" s="402"/>
@@ -7915,7 +7930,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C83" s="403"/>
       <c r="D83" s="404" t="n">
@@ -7930,7 +7945,7 @@
       </c>
       <c r="H83" s="405"/>
       <c r="I83" s="406" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J83" s="406"/>
       <c r="K83" s="406"/>
@@ -7938,7 +7953,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C84" s="403"/>
       <c r="D84" s="407" t="n">
@@ -7953,7 +7968,7 @@
       </c>
       <c r="H84" s="408"/>
       <c r="I84" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J84" s="406"/>
       <c r="K84" s="406"/>
@@ -7961,7 +7976,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="403" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C85" s="403"/>
       <c r="D85" s="409" t="n">
@@ -7973,7 +7988,7 @@
       <c r="G85" s="409"/>
       <c r="H85" s="409"/>
       <c r="I85" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J85" s="410"/>
       <c r="K85" s="410"/>
@@ -7981,7 +7996,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C86" s="412"/>
       <c r="D86" s="413" t="n">
@@ -7993,7 +8008,7 @@
       <c r="G86" s="413"/>
       <c r="H86" s="413"/>
       <c r="I86" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J86" s="406"/>
       <c r="K86" s="406"/>
@@ -8012,7 +8027,7 @@
       <c r="G87" s="414"/>
       <c r="H87" s="414"/>
       <c r="I87" s="406" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J87" s="406"/>
       <c r="K87" s="406"/>
@@ -8020,18 +8035,18 @@
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C88" s="416"/>
       <c r="D88" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E88" s="417"/>
       <c r="F88" s="417"/>
       <c r="G88" s="417"/>
       <c r="H88" s="417"/>
       <c r="I88" s="406" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J88" s="406"/>
       <c r="K88" s="406"/>
@@ -8053,13 +8068,13 @@
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="419"/>
       <c r="C90" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D90" s="420"/>
       <c r="E90" s="420"/>
       <c r="F90" s="420"/>
       <c r="G90" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -8072,13 +8087,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="422" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D91" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E91" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F91" s="424" t="s">
         <v>145</v>
@@ -8101,13 +8116,13 @@
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="421"/>
       <c r="C92" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D92" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E92" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F92" s="424"/>
       <c r="G92" s="425"/>
@@ -8122,13 +8137,13 @@
         <v>2</v>
       </c>
       <c r="C93" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D93" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E93" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F93" s="430" t="s">
         <v>145</v>
@@ -8151,13 +8166,13 @@
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="429"/>
       <c r="C94" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D94" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E94" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F94" s="430"/>
       <c r="G94" s="431"/>
@@ -8172,13 +8187,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D95" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E95" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F95" s="436" t="s">
         <v>146</v>
@@ -8201,13 +8216,13 @@
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="421"/>
       <c r="C96" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E96" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F96" s="436"/>
       <c r="G96" s="425"/>
@@ -8222,13 +8237,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="423" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D97" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E97" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F97" s="436" t="s">
         <v>146</v>
@@ -8251,13 +8266,13 @@
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="429"/>
       <c r="C98" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E98" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F98" s="436"/>
       <c r="G98" s="425"/>
@@ -8272,28 +8287,28 @@
         <v>5</v>
       </c>
       <c r="C99" s="441" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D99" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E99" s="441" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F99" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G99" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H99" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I99" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J99" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K99" s="437"/>
       <c r="L99" s="438"/>
@@ -8301,13 +8316,13 @@
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="421"/>
       <c r="C100" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E100" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F100" s="424"/>
       <c r="G100" s="425"/>
@@ -8322,13 +8337,13 @@
         <v>6</v>
       </c>
       <c r="C101" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E101" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F101" s="436" t="s">
         <v>146</v>
@@ -8351,13 +8366,13 @@
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="429"/>
       <c r="C102" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E102" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F102" s="436"/>
       <c r="G102" s="425"/>
@@ -8372,13 +8387,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="423" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D103" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E103" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F103" s="424" t="s">
         <v>145</v>
@@ -8401,13 +8416,13 @@
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="421"/>
       <c r="C104" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D104" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E104" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F104" s="424"/>
       <c r="G104" s="425"/>
@@ -8422,13 +8437,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D105" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E105" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F105" s="436" t="s">
         <v>146</v>
@@ -8451,13 +8466,13 @@
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="429"/>
       <c r="C106" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D106" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E106" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F106" s="436"/>
       <c r="G106" s="425"/>
@@ -8472,13 +8487,13 @@
         <v>9</v>
       </c>
       <c r="C107" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D107" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E107" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F107" s="424" t="s">
         <v>145</v>
@@ -8501,13 +8516,13 @@
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="421"/>
       <c r="C108" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D108" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E108" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F108" s="424"/>
       <c r="G108" s="425"/>
@@ -8522,13 +8537,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D109" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E109" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F109" s="436" t="s">
         <v>146</v>
@@ -8551,13 +8566,13 @@
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="429"/>
       <c r="C110" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D110" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E110" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F110" s="436"/>
       <c r="G110" s="425"/>
@@ -8572,13 +8587,13 @@
         <v>11</v>
       </c>
       <c r="C111" s="423" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D111" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E111" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F111" s="424" t="s">
         <v>145</v>
@@ -8605,7 +8620,7 @@
         <v>22</v>
       </c>
       <c r="E112" s="440" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F112" s="424"/>
       <c r="G112" s="425"/>
@@ -8620,13 +8635,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="442" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D113" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E113" s="443" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F113" s="436" t="s">
         <v>146</v>
@@ -8653,7 +8668,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="440" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F114" s="436"/>
       <c r="G114" s="425"/>
@@ -8668,28 +8683,28 @@
         <v>13</v>
       </c>
       <c r="C115" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D115" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E115" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F115" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G115" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H115" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I115" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J115" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K115" s="437"/>
       <c r="L115" s="438"/>
@@ -8710,23 +8725,23 @@
     <row r="121" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G121" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H121" s="397"/>
       <c r="I121" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -8747,7 +8762,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C123" s="398"/>
       <c r="D123" s="399" t="n">
@@ -8755,7 +8770,7 @@
         <v>7.23333333333333</v>
       </c>
       <c r="E123" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F123" s="400" t="n">
         <v>4</v>
@@ -8772,7 +8787,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C124" s="403"/>
       <c r="D124" s="404" t="n">
@@ -8787,7 +8802,7 @@
       </c>
       <c r="H124" s="405"/>
       <c r="I124" s="406" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J124" s="406"/>
       <c r="K124" s="406"/>
@@ -8795,7 +8810,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C125" s="403"/>
       <c r="D125" s="407" t="n">
@@ -8810,7 +8825,7 @@
       </c>
       <c r="H125" s="408"/>
       <c r="I125" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J125" s="406"/>
       <c r="K125" s="406"/>
@@ -8818,7 +8833,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="403" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C126" s="403"/>
       <c r="D126" s="409" t="n">
@@ -8830,7 +8845,7 @@
       <c r="G126" s="409"/>
       <c r="H126" s="409"/>
       <c r="I126" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J126" s="410"/>
       <c r="K126" s="410"/>
@@ -8838,7 +8853,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C127" s="412"/>
       <c r="D127" s="413" t="n">
@@ -8850,7 +8865,7 @@
       <c r="G127" s="413"/>
       <c r="H127" s="413"/>
       <c r="I127" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J127" s="406"/>
       <c r="K127" s="406"/>
@@ -8869,7 +8884,7 @@
       <c r="G128" s="414"/>
       <c r="H128" s="414"/>
       <c r="I128" s="406" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J128" s="406"/>
       <c r="K128" s="406"/>
@@ -8877,18 +8892,18 @@
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C129" s="416"/>
       <c r="D129" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
       <c r="G129" s="417"/>
       <c r="H129" s="417"/>
       <c r="I129" s="406" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J129" s="406"/>
       <c r="K129" s="406"/>
@@ -8910,13 +8925,13 @@
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="419"/>
       <c r="C131" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D131" s="420"/>
       <c r="E131" s="420"/>
       <c r="F131" s="420"/>
       <c r="G131" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -8929,13 +8944,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="422" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D132" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E132" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F132" s="424" t="s">
         <v>145</v>
@@ -8958,13 +8973,13 @@
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="421"/>
       <c r="C133" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D133" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E133" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F133" s="424"/>
       <c r="G133" s="425"/>
@@ -8979,13 +8994,13 @@
         <v>2</v>
       </c>
       <c r="C134" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D134" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E134" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F134" s="430" t="s">
         <v>145</v>
@@ -9008,13 +9023,13 @@
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="429"/>
       <c r="C135" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D135" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E135" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F135" s="430"/>
       <c r="G135" s="431"/>
@@ -9029,13 +9044,13 @@
         <v>3</v>
       </c>
       <c r="C136" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D136" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E136" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F136" s="436" t="s">
         <v>146</v>
@@ -9058,13 +9073,13 @@
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="421"/>
       <c r="C137" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D137" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E137" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F137" s="436"/>
       <c r="G137" s="425"/>
@@ -9079,13 +9094,13 @@
         <v>4</v>
       </c>
       <c r="C138" s="423" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D138" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E138" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F138" s="436" t="s">
         <v>146</v>
@@ -9108,13 +9123,13 @@
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="429"/>
       <c r="C139" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D139" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E139" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F139" s="436"/>
       <c r="G139" s="425"/>
@@ -9129,13 +9144,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="441" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D140" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E140" s="441" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F140" s="424" t="s">
         <v>145</v>
@@ -9158,13 +9173,13 @@
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="421"/>
       <c r="C141" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D141" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E141" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F141" s="424"/>
       <c r="G141" s="425"/>
@@ -9179,13 +9194,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D142" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E142" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F142" s="436" t="s">
         <v>146</v>
@@ -9208,13 +9223,13 @@
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="429"/>
       <c r="C143" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D143" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E143" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F143" s="436"/>
       <c r="G143" s="425"/>
@@ -9229,13 +9244,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="423" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D144" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E144" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F144" s="424" t="s">
         <v>145</v>
@@ -9258,13 +9273,13 @@
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="421"/>
       <c r="C145" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D145" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E145" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F145" s="424"/>
       <c r="G145" s="425"/>
@@ -9279,13 +9294,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D146" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E146" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F146" s="436" t="s">
         <v>146</v>
@@ -9308,13 +9323,13 @@
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="429"/>
       <c r="C147" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D147" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E147" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F147" s="436"/>
       <c r="G147" s="425"/>
@@ -9329,13 +9344,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D148" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E148" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F148" s="424" t="s">
         <v>145</v>
@@ -9358,13 +9373,13 @@
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="421"/>
       <c r="C149" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D149" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E149" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F149" s="424"/>
       <c r="G149" s="425"/>
@@ -9379,13 +9394,13 @@
         <v>10</v>
       </c>
       <c r="C150" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D150" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E150" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F150" s="436" t="s">
         <v>146</v>
@@ -9408,13 +9423,13 @@
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="429"/>
       <c r="C151" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D151" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E151" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F151" s="436"/>
       <c r="G151" s="425"/>
@@ -9429,13 +9444,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="423" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D152" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E152" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F152" s="424" t="s">
         <v>145</v>
@@ -9458,13 +9473,13 @@
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="421"/>
       <c r="C153" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D153" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E153" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F153" s="424"/>
       <c r="G153" s="425"/>
@@ -9479,13 +9494,13 @@
         <v>12</v>
       </c>
       <c r="C154" s="442" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D154" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E154" s="443" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F154" s="436" t="s">
         <v>146</v>
@@ -9508,13 +9523,13 @@
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="429"/>
       <c r="C155" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D155" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E155" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F155" s="436"/>
       <c r="G155" s="425"/>
@@ -9529,13 +9544,13 @@
         <v>13</v>
       </c>
       <c r="C156" s="423" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D156" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E156" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F156" s="424" t="s">
         <v>145</v>
@@ -9558,13 +9573,13 @@
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="421"/>
       <c r="C157" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D157" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E157" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F157" s="424"/>
       <c r="G157" s="425"/>
@@ -9579,28 +9594,28 @@
         <v>14</v>
       </c>
       <c r="C158" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D158" s="423" t="n">
         <v>140</v>
       </c>
       <c r="E158" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F158" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G158" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H158" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I158" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J158" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K158" s="437"/>
       <c r="L158" s="438"/>
@@ -9621,23 +9636,23 @@
     <row r="164" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G164" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H164" s="397"/>
       <c r="I164" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -9658,7 +9673,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C166" s="398"/>
       <c r="D166" s="399" t="n">
@@ -9666,7 +9681,7 @@
         <v>7.2</v>
       </c>
       <c r="E166" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F166" s="400" t="n">
         <v>2</v>
@@ -9677,7 +9692,7 @@
       </c>
       <c r="H166" s="401"/>
       <c r="I166" s="402" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J166" s="402"/>
       <c r="K166" s="402"/>
@@ -9685,7 +9700,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C167" s="403"/>
       <c r="D167" s="404" t="n">
@@ -9700,7 +9715,7 @@
       </c>
       <c r="H167" s="405"/>
       <c r="I167" s="406" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J167" s="406"/>
       <c r="K167" s="406"/>
@@ -9708,7 +9723,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C168" s="403"/>
       <c r="D168" s="407" t="n">
@@ -9723,7 +9738,7 @@
       </c>
       <c r="H168" s="408"/>
       <c r="I168" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J168" s="406"/>
       <c r="K168" s="406"/>
@@ -9731,7 +9746,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="403" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C169" s="403"/>
       <c r="D169" s="409" t="n">
@@ -9743,7 +9758,7 @@
       <c r="G169" s="409"/>
       <c r="H169" s="409"/>
       <c r="I169" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J169" s="410"/>
       <c r="K169" s="410"/>
@@ -9751,7 +9766,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C170" s="412"/>
       <c r="D170" s="413" t="n">
@@ -9763,7 +9778,7 @@
       <c r="G170" s="413"/>
       <c r="H170" s="413"/>
       <c r="I170" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J170" s="406"/>
       <c r="K170" s="406"/>
@@ -9788,11 +9803,11 @@
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C172" s="416"/>
       <c r="D172" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E172" s="417"/>
       <c r="F172" s="417"/>
@@ -9819,13 +9834,13 @@
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="419"/>
       <c r="C174" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D174" s="420"/>
       <c r="E174" s="420"/>
       <c r="F174" s="420"/>
       <c r="G174" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -9838,13 +9853,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="422" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D175" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E175" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F175" s="424" t="s">
         <v>145</v>
@@ -9863,13 +9878,13 @@
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="421"/>
       <c r="C176" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D176" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E176" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F176" s="424"/>
       <c r="G176" s="425"/>
@@ -9884,13 +9899,13 @@
         <v>2</v>
       </c>
       <c r="C177" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D177" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E177" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F177" s="430" t="s">
         <v>145</v>
@@ -9909,13 +9924,13 @@
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="429"/>
       <c r="C178" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D178" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E178" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F178" s="430"/>
       <c r="G178" s="431"/>
@@ -9930,13 +9945,13 @@
         <v>3</v>
       </c>
       <c r="C179" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D179" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E179" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F179" s="436" t="s">
         <v>146</v>
@@ -9955,13 +9970,13 @@
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="435"/>
       <c r="C180" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D180" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E180" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F180" s="436"/>
       <c r="G180" s="425"/>
@@ -9976,13 +9991,13 @@
         <v>4</v>
       </c>
       <c r="C181" s="423" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D181" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E181" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F181" s="436" t="s">
         <v>146</v>
@@ -10001,13 +10016,13 @@
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="435"/>
       <c r="C182" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D182" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E182" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F182" s="436"/>
       <c r="G182" s="425"/>
@@ -10022,13 +10037,13 @@
         <v>5</v>
       </c>
       <c r="C183" s="423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D183" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E183" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F183" s="424" t="s">
         <v>145</v>
@@ -10047,13 +10062,13 @@
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="435"/>
       <c r="C184" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D184" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E184" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F184" s="424"/>
       <c r="G184" s="425"/>
@@ -10068,13 +10083,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D185" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E185" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F185" s="436" t="s">
         <v>146</v>
@@ -10093,13 +10108,13 @@
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="435"/>
       <c r="C186" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D186" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E186" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F186" s="436"/>
       <c r="G186" s="425"/>
@@ -10114,13 +10129,13 @@
         <v>7</v>
       </c>
       <c r="C187" s="423" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D187" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E187" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F187" s="424" t="s">
         <v>145</v>
@@ -10139,13 +10154,13 @@
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="435"/>
       <c r="C188" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D188" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E188" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F188" s="424"/>
       <c r="G188" s="425"/>
@@ -10160,13 +10175,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D189" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E189" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F189" s="436" t="s">
         <v>146</v>
@@ -10185,13 +10200,13 @@
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="435"/>
       <c r="C190" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D190" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E190" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F190" s="436"/>
       <c r="G190" s="425"/>
@@ -10206,13 +10221,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="423" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D191" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E191" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F191" s="424" t="s">
         <v>145</v>
@@ -10231,13 +10246,13 @@
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="435"/>
       <c r="C192" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D192" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E192" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F192" s="424"/>
       <c r="G192" s="425"/>
@@ -10252,13 +10267,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D193" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E193" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F193" s="424" t="s">
         <v>145</v>
@@ -10277,13 +10292,13 @@
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="435"/>
       <c r="C194" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D194" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E194" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F194" s="424"/>
       <c r="G194" s="425"/>
@@ -10298,13 +10313,13 @@
         <v>11</v>
       </c>
       <c r="C195" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D195" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E195" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F195" s="436" t="s">
         <v>146</v>
@@ -10323,13 +10338,13 @@
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="435"/>
       <c r="C196" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D196" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E196" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F196" s="436"/>
       <c r="G196" s="425"/>
@@ -10344,22 +10359,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D197" s="423" t="n">
         <v>180</v>
       </c>
       <c r="E197" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F197" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G197" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H197" s="425" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I197" s="425"/>
       <c r="J197" s="425"/>
@@ -10382,23 +10397,23 @@
     <row r="202" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="368"/>
       <c r="C202" s="368" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D202" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E202" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F202" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G202" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H202" s="397"/>
       <c r="I202" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J202" s="358"/>
       <c r="K202" s="358"/>
@@ -10419,7 +10434,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C204" s="398"/>
       <c r="D204" s="399" t="e">
@@ -10427,7 +10442,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E204" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F204" s="400" t="n">
         <v>4</v>
@@ -10444,7 +10459,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C205" s="403"/>
       <c r="D205" s="404" t="n">
@@ -10459,7 +10474,7 @@
       </c>
       <c r="H205" s="405"/>
       <c r="I205" s="406" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J205" s="406"/>
       <c r="K205" s="406"/>
@@ -10467,7 +10482,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C206" s="403"/>
       <c r="D206" s="407" t="e">
@@ -10482,7 +10497,7 @@
       </c>
       <c r="H206" s="408"/>
       <c r="I206" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J206" s="406"/>
       <c r="K206" s="406"/>
@@ -10490,18 +10505,18 @@
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="403" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C207" s="403"/>
       <c r="D207" s="409" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E207" s="409"/>
       <c r="F207" s="409"/>
       <c r="G207" s="409"/>
       <c r="H207" s="409"/>
       <c r="I207" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J207" s="410"/>
       <c r="K207" s="410"/>
@@ -10509,7 +10524,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C208" s="412"/>
       <c r="D208" s="413" t="n">
@@ -10520,7 +10535,7 @@
       <c r="G208" s="413"/>
       <c r="H208" s="413"/>
       <c r="I208" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J208" s="406"/>
       <c r="K208" s="406"/>
@@ -10539,7 +10554,7 @@
       <c r="G209" s="414"/>
       <c r="H209" s="414"/>
       <c r="I209" s="406" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J209" s="406"/>
       <c r="K209" s="406"/>
@@ -10547,18 +10562,18 @@
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C210" s="416"/>
       <c r="D210" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E210" s="417"/>
       <c r="F210" s="417"/>
       <c r="G210" s="417"/>
       <c r="H210" s="417"/>
       <c r="I210" s="406" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J210" s="406"/>
       <c r="K210" s="406"/>
@@ -10580,13 +10595,13 @@
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="419"/>
       <c r="C212" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D212" s="420"/>
       <c r="E212" s="420"/>
       <c r="F212" s="420"/>
       <c r="G212" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H212" s="180"/>
       <c r="I212" s="180"/>
@@ -10599,13 +10614,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="422" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D213" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E213" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F213" s="424" t="s">
         <v>145</v>
@@ -10626,13 +10641,13 @@
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="421"/>
       <c r="C214" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D214" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E214" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F214" s="424"/>
       <c r="G214" s="425"/>
@@ -10647,13 +10662,13 @@
         <v>2</v>
       </c>
       <c r="C215" s="423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D215" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E215" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F215" s="430" t="s">
         <v>145</v>
@@ -10674,13 +10689,13 @@
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="429"/>
       <c r="C216" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D216" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E216" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F216" s="430"/>
       <c r="G216" s="431"/>
@@ -10695,13 +10710,13 @@
         <v>3</v>
       </c>
       <c r="C217" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D217" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E217" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F217" s="436" t="s">
         <v>146</v>
@@ -10722,13 +10737,13 @@
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="421"/>
       <c r="C218" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D218" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E218" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F218" s="436"/>
       <c r="G218" s="425"/>
@@ -10743,13 +10758,13 @@
         <v>4</v>
       </c>
       <c r="C219" s="423" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D219" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E219" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F219" s="436" t="s">
         <v>146</v>
@@ -10770,13 +10785,13 @@
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="429"/>
       <c r="C220" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D220" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E220" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F220" s="436"/>
       <c r="G220" s="425"/>
@@ -10791,13 +10806,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="441" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D221" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E221" s="441" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F221" s="424" t="s">
         <v>145</v>
@@ -10818,13 +10833,13 @@
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="421"/>
       <c r="C222" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D222" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E222" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F222" s="424"/>
       <c r="G222" s="425"/>
@@ -10839,13 +10854,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D223" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E223" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F223" s="436" t="s">
         <v>146</v>
@@ -10866,13 +10881,13 @@
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="429"/>
       <c r="C224" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D224" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E224" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F224" s="436"/>
       <c r="G224" s="425"/>
@@ -10887,13 +10902,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="423" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D225" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E225" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F225" s="424" t="s">
         <v>145</v>
@@ -10914,13 +10929,13 @@
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="421"/>
       <c r="C226" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D226" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E226" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F226" s="424"/>
       <c r="G226" s="425"/>
@@ -10935,13 +10950,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D227" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E227" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F227" s="436" t="s">
         <v>146</v>
@@ -10962,13 +10977,13 @@
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="429"/>
       <c r="C228" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D228" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E228" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F228" s="436"/>
       <c r="G228" s="425"/>
@@ -10983,13 +10998,13 @@
         <v>9</v>
       </c>
       <c r="C229" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D229" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E229" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F229" s="424" t="s">
         <v>145</v>
@@ -11010,13 +11025,13 @@
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="421"/>
       <c r="C230" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D230" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E230" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F230" s="424"/>
       <c r="G230" s="425"/>
@@ -11031,13 +11046,13 @@
         <v>10</v>
       </c>
       <c r="C231" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D231" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E231" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F231" s="436" t="s">
         <v>146</v>
@@ -11058,13 +11073,13 @@
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="429"/>
       <c r="C232" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D232" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E232" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F232" s="436"/>
       <c r="G232" s="425"/>
@@ -11079,13 +11094,13 @@
         <v>11</v>
       </c>
       <c r="C233" s="423" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D233" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E233" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F233" s="424" t="s">
         <v>145</v>
@@ -11106,13 +11121,13 @@
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="421"/>
       <c r="C234" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D234" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E234" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F234" s="424"/>
       <c r="G234" s="425"/>
@@ -11127,13 +11142,13 @@
         <v>12</v>
       </c>
       <c r="C235" s="442" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D235" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E235" s="443" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F235" s="436" t="s">
         <v>146</v>
@@ -11154,13 +11169,13 @@
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="429"/>
       <c r="C236" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D236" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E236" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F236" s="436"/>
       <c r="G236" s="425"/>
@@ -11175,25 +11190,25 @@
         <v>13</v>
       </c>
       <c r="C237" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D237" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E237" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F237" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G237" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H237" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I237" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J237" s="444"/>
       <c r="K237" s="437"/>
@@ -11215,23 +11230,23 @@
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="368"/>
       <c r="C242" s="368" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D242" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E242" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F242" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G242" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H242" s="397"/>
       <c r="I242" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J242" s="358"/>
       <c r="K242" s="358"/>
@@ -11252,7 +11267,7 @@
     </row>
     <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C244" s="398"/>
       <c r="D244" s="399" t="e">
@@ -11260,7 +11275,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E244" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F244" s="400" t="n">
         <v>4</v>
@@ -11277,7 +11292,7 @@
     </row>
     <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C245" s="403"/>
       <c r="D245" s="404" t="n">
@@ -11292,7 +11307,7 @@
       </c>
       <c r="H245" s="405"/>
       <c r="I245" s="406" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J245" s="406"/>
       <c r="K245" s="406"/>
@@ -11300,7 +11315,7 @@
     </row>
     <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C246" s="403"/>
       <c r="D246" s="407" t="e">
@@ -11315,7 +11330,7 @@
       </c>
       <c r="H246" s="408"/>
       <c r="I246" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J246" s="406"/>
       <c r="K246" s="406"/>
@@ -11323,18 +11338,18 @@
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="403" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C247" s="403"/>
       <c r="D247" s="409" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E247" s="409"/>
       <c r="F247" s="409"/>
       <c r="G247" s="409"/>
       <c r="H247" s="409"/>
       <c r="I247" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J247" s="410"/>
       <c r="K247" s="410"/>
@@ -11342,7 +11357,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C248" s="412"/>
       <c r="D248" s="413" t="n">
@@ -11353,7 +11368,7 @@
       <c r="G248" s="413"/>
       <c r="H248" s="413"/>
       <c r="I248" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J248" s="406"/>
       <c r="K248" s="406"/>
@@ -11372,7 +11387,7 @@
       <c r="G249" s="414"/>
       <c r="H249" s="414"/>
       <c r="I249" s="406" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J249" s="406"/>
       <c r="K249" s="406"/>
@@ -11380,18 +11395,18 @@
     </row>
     <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C250" s="416"/>
       <c r="D250" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E250" s="417"/>
       <c r="F250" s="417"/>
       <c r="G250" s="417"/>
       <c r="H250" s="417"/>
       <c r="I250" s="406" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J250" s="406"/>
       <c r="K250" s="406"/>
@@ -11413,13 +11428,13 @@
     <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="419"/>
       <c r="C252" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D252" s="420"/>
       <c r="E252" s="420"/>
       <c r="F252" s="420"/>
       <c r="G252" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H252" s="180"/>
       <c r="I252" s="180"/>
@@ -11432,13 +11447,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="422" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D253" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E253" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F253" s="424" t="s">
         <v>145</v>
@@ -11459,13 +11474,13 @@
     <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="421"/>
       <c r="C254" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D254" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E254" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F254" s="424"/>
       <c r="G254" s="425"/>
@@ -11480,13 +11495,13 @@
         <v>2</v>
       </c>
       <c r="C255" s="423" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D255" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E255" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F255" s="430" t="s">
         <v>145</v>
@@ -11507,13 +11522,13 @@
     <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="429"/>
       <c r="C256" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D256" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E256" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F256" s="430"/>
       <c r="G256" s="431"/>
@@ -11528,13 +11543,13 @@
         <v>3</v>
       </c>
       <c r="C257" s="423" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D257" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E257" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F257" s="436" t="s">
         <v>146</v>
@@ -11555,13 +11570,13 @@
     <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="421"/>
       <c r="C258" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D258" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E258" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F258" s="436"/>
       <c r="G258" s="425"/>
@@ -11576,13 +11591,13 @@
         <v>4</v>
       </c>
       <c r="C259" s="423" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D259" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E259" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F259" s="436" t="s">
         <v>146</v>
@@ -11603,13 +11618,13 @@
     <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="429"/>
       <c r="C260" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D260" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E260" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F260" s="436"/>
       <c r="G260" s="425"/>
@@ -11624,13 +11639,13 @@
         <v>5</v>
       </c>
       <c r="C261" s="441" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D261" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E261" s="441" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F261" s="424" t="s">
         <v>145</v>
@@ -11651,13 +11666,13 @@
     <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="421"/>
       <c r="C262" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D262" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E262" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F262" s="424"/>
       <c r="G262" s="425"/>
@@ -11672,13 +11687,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="423" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D263" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E263" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F263" s="436" t="s">
         <v>146</v>
@@ -11699,13 +11714,13 @@
     <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="429"/>
       <c r="C264" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D264" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E264" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F264" s="436"/>
       <c r="G264" s="425"/>
@@ -11720,13 +11735,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D265" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E265" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F265" s="424" t="s">
         <v>145</v>
@@ -11747,13 +11762,13 @@
     <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="421"/>
       <c r="C266" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D266" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E266" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F266" s="424"/>
       <c r="G266" s="425"/>
@@ -11768,13 +11783,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D267" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E267" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F267" s="436" t="s">
         <v>146</v>
@@ -11795,13 +11810,13 @@
     <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="429"/>
       <c r="C268" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D268" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E268" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F268" s="436"/>
       <c r="G268" s="425"/>
@@ -11816,13 +11831,13 @@
         <v>9</v>
       </c>
       <c r="C269" s="423" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D269" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E269" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F269" s="424" t="s">
         <v>145</v>
@@ -11843,13 +11858,13 @@
     <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="421"/>
       <c r="C270" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D270" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E270" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F270" s="424"/>
       <c r="G270" s="425"/>
@@ -11864,13 +11879,13 @@
         <v>10</v>
       </c>
       <c r="C271" s="423" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D271" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E271" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F271" s="436" t="s">
         <v>146</v>
@@ -11891,13 +11906,13 @@
     <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="429"/>
       <c r="C272" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D272" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E272" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F272" s="436"/>
       <c r="G272" s="425"/>
@@ -11912,13 +11927,13 @@
         <v>11</v>
       </c>
       <c r="C273" s="423" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D273" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E273" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F273" s="424" t="s">
         <v>145</v>
@@ -11939,13 +11954,13 @@
     <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="421"/>
       <c r="C274" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D274" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E274" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F274" s="424"/>
       <c r="G274" s="425"/>
@@ -11960,13 +11975,13 @@
         <v>12</v>
       </c>
       <c r="C275" s="442" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D275" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E275" s="443" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F275" s="436" t="s">
         <v>146</v>
@@ -11987,13 +12002,13 @@
     <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="429"/>
       <c r="C276" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D276" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E276" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F276" s="436"/>
       <c r="G276" s="425"/>
@@ -12008,25 +12023,25 @@
         <v>13</v>
       </c>
       <c r="C277" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D277" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E277" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F277" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G277" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H277" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I277" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J277" s="444"/>
       <c r="K277" s="437"/>
@@ -12048,23 +12063,23 @@
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="368"/>
       <c r="C282" s="368" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D282" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E282" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F282" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G282" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H282" s="397"/>
       <c r="I282" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J282" s="358"/>
       <c r="K282" s="358"/>
@@ -12085,14 +12100,14 @@
     </row>
     <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C284" s="398"/>
       <c r="D284" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E284" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F284" s="400" t="n">
         <v>3</v>
@@ -12109,7 +12124,7 @@
     </row>
     <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C285" s="403"/>
       <c r="D285" s="404" t="n">
@@ -12123,7 +12138,7 @@
       </c>
       <c r="H285" s="405"/>
       <c r="I285" s="406" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J285" s="406"/>
       <c r="K285" s="406"/>
@@ -12131,7 +12146,7 @@
     </row>
     <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C286" s="403"/>
       <c r="D286" s="407" t="n">
@@ -12145,7 +12160,7 @@
       </c>
       <c r="H286" s="408"/>
       <c r="I286" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J286" s="406"/>
       <c r="K286" s="406"/>
@@ -12153,18 +12168,18 @@
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="403" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C287" s="403"/>
       <c r="D287" s="409" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E287" s="409"/>
       <c r="F287" s="409"/>
       <c r="G287" s="409"/>
       <c r="H287" s="409"/>
       <c r="I287" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J287" s="410"/>
       <c r="K287" s="410"/>
@@ -12172,7 +12187,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C288" s="412"/>
       <c r="D288" s="413" t="n">
@@ -12183,7 +12198,7 @@
       <c r="G288" s="413"/>
       <c r="H288" s="413"/>
       <c r="I288" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J288" s="406"/>
       <c r="K288" s="406"/>
@@ -12208,11 +12223,11 @@
     </row>
     <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C290" s="416"/>
       <c r="D290" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E290" s="417"/>
       <c r="F290" s="417"/>
@@ -12239,13 +12254,13 @@
     <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="419"/>
       <c r="C292" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D292" s="420"/>
       <c r="E292" s="420"/>
       <c r="F292" s="420"/>
       <c r="G292" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H292" s="180"/>
       <c r="I292" s="180"/>
@@ -12258,13 +12273,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="422" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D293" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E293" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F293" s="424" t="s">
         <v>145</v>
@@ -12285,13 +12300,13 @@
     <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="421"/>
       <c r="C294" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D294" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E294" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F294" s="424"/>
       <c r="G294" s="425"/>
@@ -12306,13 +12321,13 @@
         <v>2</v>
       </c>
       <c r="C295" s="423" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D295" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E295" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F295" s="430" t="s">
         <v>145</v>
@@ -12333,13 +12348,13 @@
     <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="429"/>
       <c r="C296" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D296" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E296" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F296" s="430"/>
       <c r="G296" s="431"/>
@@ -12354,13 +12369,13 @@
         <v>3</v>
       </c>
       <c r="C297" s="423" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D297" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E297" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F297" s="436" t="s">
         <v>146</v>
@@ -12381,13 +12396,13 @@
     <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="421"/>
       <c r="C298" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D298" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E298" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F298" s="436"/>
       <c r="G298" s="425"/>
@@ -12402,13 +12417,13 @@
         <v>4</v>
       </c>
       <c r="C299" s="423" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D299" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E299" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F299" s="436" t="s">
         <v>146</v>
@@ -12429,13 +12444,13 @@
     <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="429"/>
       <c r="C300" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D300" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E300" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F300" s="436"/>
       <c r="G300" s="425"/>
@@ -12450,13 +12465,13 @@
         <v>5</v>
       </c>
       <c r="C301" s="441" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D301" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E301" s="441" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F301" s="424" t="s">
         <v>145</v>
@@ -12477,13 +12492,13 @@
     <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="421"/>
       <c r="C302" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D302" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E302" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F302" s="424"/>
       <c r="G302" s="425"/>
@@ -12498,13 +12513,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="423" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D303" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E303" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F303" s="436" t="s">
         <v>146</v>
@@ -12525,13 +12540,13 @@
     <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="429"/>
       <c r="C304" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D304" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E304" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F304" s="436"/>
       <c r="G304" s="425"/>
@@ -12546,13 +12561,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="423" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D305" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E305" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F305" s="424" t="s">
         <v>145</v>
@@ -12573,13 +12588,13 @@
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="421"/>
       <c r="C306" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D306" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E306" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F306" s="424"/>
       <c r="G306" s="425"/>
@@ -12594,13 +12609,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="423" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D307" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E307" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F307" s="436" t="s">
         <v>146</v>
@@ -12621,13 +12636,13 @@
     <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="429"/>
       <c r="C308" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D308" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E308" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F308" s="436"/>
       <c r="G308" s="425"/>
@@ -12642,13 +12657,13 @@
         <v>9</v>
       </c>
       <c r="C309" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D309" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E309" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F309" s="424" t="s">
         <v>145</v>
@@ -12669,13 +12684,13 @@
     <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="421"/>
       <c r="C310" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D310" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E310" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F310" s="424"/>
       <c r="G310" s="425"/>
@@ -12690,13 +12705,13 @@
         <v>10</v>
       </c>
       <c r="C311" s="423" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D311" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E311" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F311" s="436" t="s">
         <v>146</v>
@@ -12717,13 +12732,13 @@
     <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="429"/>
       <c r="C312" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D312" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E312" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F312" s="436"/>
       <c r="G312" s="425"/>
@@ -12738,13 +12753,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="423" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D313" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E313" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F313" s="424" t="s">
         <v>145</v>
@@ -12765,13 +12780,13 @@
     <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="421"/>
       <c r="C314" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D314" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E314" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F314" s="424"/>
       <c r="G314" s="425"/>
@@ -12786,25 +12801,25 @@
         <v>12</v>
       </c>
       <c r="C315" s="442" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D315" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E315" s="443" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F315" s="436" t="s">
         <v>146</v>
       </c>
       <c r="G315" s="425" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H315" s="425" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I315" s="425" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J315" s="425"/>
       <c r="K315" s="437"/>
@@ -12813,13 +12828,13 @@
     <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="429"/>
       <c r="C316" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D316" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E316" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F316" s="436"/>
       <c r="G316" s="425"/>
@@ -12834,25 +12849,25 @@
         <v>13</v>
       </c>
       <c r="C317" s="423" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D317" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E317" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F317" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G317" s="444" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H317" s="444" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I317" s="444" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J317" s="444"/>
       <c r="K317" s="437"/>
@@ -12861,13 +12876,13 @@
     <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="421"/>
       <c r="C318" s="440" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D318" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E318" s="440" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F318" s="424"/>
       <c r="G318" s="444"/>
@@ -12882,25 +12897,25 @@
         <v>13</v>
       </c>
       <c r="C319" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D319" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E319" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F319" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G319" s="444" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H319" s="444" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I319" s="444" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J319" s="444"/>
       <c r="K319" s="437"/>
@@ -12922,23 +12937,23 @@
     <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="368"/>
       <c r="C324" s="368" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D324" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E324" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F324" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G324" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H324" s="397"/>
       <c r="I324" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J324" s="358"/>
       <c r="K324" s="358"/>
@@ -12959,7 +12974,7 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C326" s="398"/>
       <c r="D326" s="399" t="e">
@@ -12967,7 +12982,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E326" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F326" s="400" t="n">
         <v>4</v>
@@ -12984,7 +12999,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C327" s="403"/>
       <c r="D327" s="404" t="n">
@@ -12999,7 +13014,7 @@
       </c>
       <c r="H327" s="405"/>
       <c r="I327" s="406" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J327" s="406"/>
       <c r="K327" s="406"/>
@@ -13007,7 +13022,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C328" s="403"/>
       <c r="D328" s="407" t="e">
@@ -13022,7 +13037,7 @@
       </c>
       <c r="H328" s="408"/>
       <c r="I328" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J328" s="406"/>
       <c r="K328" s="406"/>
@@ -13030,18 +13045,18 @@
     </row>
     <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="403" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C329" s="403"/>
       <c r="D329" s="409" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E329" s="409"/>
       <c r="F329" s="409"/>
       <c r="G329" s="409"/>
       <c r="H329" s="409"/>
       <c r="I329" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J329" s="410"/>
       <c r="K329" s="410"/>
@@ -13049,7 +13064,7 @@
     </row>
     <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C330" s="412"/>
       <c r="D330" s="413" t="n">
@@ -13060,7 +13075,7 @@
       <c r="G330" s="413"/>
       <c r="H330" s="413"/>
       <c r="I330" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J330" s="406"/>
       <c r="K330" s="406"/>
@@ -13079,7 +13094,7 @@
       <c r="G331" s="414"/>
       <c r="H331" s="414"/>
       <c r="I331" s="406" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J331" s="406"/>
       <c r="K331" s="406"/>
@@ -13087,18 +13102,18 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C332" s="416"/>
       <c r="D332" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E332" s="417"/>
       <c r="F332" s="417"/>
       <c r="G332" s="417"/>
       <c r="H332" s="417"/>
       <c r="I332" s="406" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J332" s="406"/>
       <c r="K332" s="406"/>
@@ -13120,13 +13135,13 @@
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="419"/>
       <c r="C334" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D334" s="420"/>
       <c r="E334" s="420"/>
       <c r="F334" s="420"/>
       <c r="G334" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H334" s="180"/>
       <c r="I334" s="180"/>
@@ -13139,13 +13154,13 @@
         <v>1</v>
       </c>
       <c r="C335" s="422" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D335" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E335" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F335" s="424" t="s">
         <v>145</v>
@@ -13168,13 +13183,13 @@
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="421"/>
       <c r="C336" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D336" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E336" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F336" s="424"/>
       <c r="G336" s="425"/>
@@ -13189,13 +13204,13 @@
         <v>2</v>
       </c>
       <c r="C337" s="423" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D337" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E337" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F337" s="430" t="s">
         <v>145</v>
@@ -13218,13 +13233,13 @@
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="429"/>
       <c r="C338" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D338" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E338" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F338" s="430"/>
       <c r="G338" s="431"/>
@@ -13239,13 +13254,13 @@
         <v>3</v>
       </c>
       <c r="C339" s="423" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D339" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E339" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F339" s="436" t="s">
         <v>146</v>
@@ -13268,13 +13283,13 @@
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="421"/>
       <c r="C340" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D340" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E340" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F340" s="436"/>
       <c r="G340" s="425"/>
@@ -13289,13 +13304,13 @@
         <v>4</v>
       </c>
       <c r="C341" s="423" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D341" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E341" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F341" s="436" t="s">
         <v>146</v>
@@ -13318,13 +13333,13 @@
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="429"/>
       <c r="C342" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D342" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E342" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F342" s="436"/>
       <c r="G342" s="425"/>
@@ -13339,13 +13354,13 @@
         <v>5</v>
       </c>
       <c r="C343" s="441" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D343" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E343" s="441" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F343" s="424" t="s">
         <v>145</v>
@@ -13368,13 +13383,13 @@
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="421"/>
       <c r="C344" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D344" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E344" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F344" s="424"/>
       <c r="G344" s="425"/>
@@ -13389,13 +13404,13 @@
         <v>6</v>
       </c>
       <c r="C345" s="423" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D345" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E345" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F345" s="436" t="s">
         <v>146</v>
@@ -13418,13 +13433,13 @@
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="429"/>
       <c r="C346" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D346" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E346" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F346" s="436"/>
       <c r="G346" s="425"/>
@@ -13439,13 +13454,13 @@
         <v>7</v>
       </c>
       <c r="C347" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D347" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E347" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F347" s="424" t="s">
         <v>145</v>
@@ -13468,13 +13483,13 @@
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="421"/>
       <c r="C348" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D348" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E348" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F348" s="424"/>
       <c r="G348" s="425"/>
@@ -13489,13 +13504,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D349" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E349" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F349" s="436" t="s">
         <v>146</v>
@@ -13518,13 +13533,13 @@
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="429"/>
       <c r="C350" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D350" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E350" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F350" s="436"/>
       <c r="G350" s="425"/>
@@ -13539,13 +13554,13 @@
         <v>9</v>
       </c>
       <c r="C351" s="423" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D351" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E351" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F351" s="424" t="s">
         <v>145</v>
@@ -13568,13 +13583,13 @@
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="421"/>
       <c r="C352" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D352" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E352" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F352" s="424"/>
       <c r="G352" s="425"/>
@@ -13589,13 +13604,13 @@
         <v>10</v>
       </c>
       <c r="C353" s="423" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D353" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E353" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F353" s="436" t="s">
         <v>146</v>
@@ -13618,13 +13633,13 @@
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="429"/>
       <c r="C354" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D354" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E354" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F354" s="436"/>
       <c r="G354" s="425"/>
@@ -13639,13 +13654,13 @@
         <v>11</v>
       </c>
       <c r="C355" s="423" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D355" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E355" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F355" s="424" t="s">
         <v>145</v>
@@ -13668,13 +13683,13 @@
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="421"/>
       <c r="C356" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D356" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E356" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F356" s="424"/>
       <c r="G356" s="425"/>
@@ -13689,13 +13704,13 @@
         <v>12</v>
       </c>
       <c r="C357" s="442" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D357" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E357" s="443" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F357" s="436" t="s">
         <v>146</v>
@@ -13718,13 +13733,13 @@
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="429"/>
       <c r="C358" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D358" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E358" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F358" s="436"/>
       <c r="G358" s="425"/>
@@ -13739,28 +13754,28 @@
         <v>13</v>
       </c>
       <c r="C359" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D359" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E359" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F359" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G359" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H359" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I359" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J359" s="444" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K359" s="437"/>
       <c r="L359" s="438"/>
@@ -13781,23 +13796,23 @@
     <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="368"/>
       <c r="C365" s="368" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D365" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E365" s="368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F365" s="368" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G365" s="397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H365" s="397"/>
       <c r="I365" s="358" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J365" s="358"/>
       <c r="K365" s="358"/>
@@ -13818,14 +13833,14 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="398" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C367" s="398"/>
       <c r="D367" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E367" s="400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F367" s="400" t="n">
         <v>3</v>
@@ -13842,7 +13857,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C368" s="403"/>
       <c r="D368" s="404" t="n">
@@ -13856,7 +13871,7 @@
       </c>
       <c r="H368" s="405"/>
       <c r="I368" s="406" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J368" s="406"/>
       <c r="K368" s="406"/>
@@ -13864,7 +13879,7 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="403" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C369" s="403"/>
       <c r="D369" s="407" t="n">
@@ -13877,7 +13892,7 @@
       </c>
       <c r="H369" s="408"/>
       <c r="I369" s="406" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J369" s="406"/>
       <c r="K369" s="406"/>
@@ -13885,18 +13900,18 @@
     </row>
     <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="403" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C370" s="403"/>
       <c r="D370" s="409" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E370" s="409"/>
       <c r="F370" s="409"/>
       <c r="G370" s="409"/>
       <c r="H370" s="409"/>
       <c r="I370" s="410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J370" s="410"/>
       <c r="K370" s="410"/>
@@ -13904,7 +13919,7 @@
     </row>
     <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C371" s="412"/>
       <c r="D371" s="413" t="n">
@@ -13915,7 +13930,7 @@
       <c r="G371" s="413"/>
       <c r="H371" s="413"/>
       <c r="I371" s="406" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J371" s="406"/>
       <c r="K371" s="406"/>
@@ -13940,11 +13955,11 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="416" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C373" s="416"/>
       <c r="D373" s="417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E373" s="417"/>
       <c r="F373" s="417"/>
@@ -13971,13 +13986,13 @@
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="419"/>
       <c r="C375" s="420" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D375" s="420"/>
       <c r="E375" s="420"/>
       <c r="F375" s="420"/>
       <c r="G375" s="180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H375" s="180"/>
       <c r="I375" s="180"/>
@@ -13990,13 +14005,13 @@
         <v>1</v>
       </c>
       <c r="C376" s="422" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D376" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E376" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F376" s="424" t="s">
         <v>145</v>
@@ -14011,13 +14026,13 @@
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="421"/>
       <c r="C377" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D377" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E377" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F377" s="424"/>
       <c r="G377" s="425"/>
@@ -14032,13 +14047,13 @@
         <v>2</v>
       </c>
       <c r="C378" s="422" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D378" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E378" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F378" s="424" t="s">
         <v>145</v>
@@ -14053,13 +14068,13 @@
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="435"/>
       <c r="C379" s="427" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D379" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E379" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F379" s="424"/>
       <c r="G379" s="425"/>
@@ -14074,13 +14089,13 @@
         <v>3</v>
       </c>
       <c r="C380" s="423" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D380" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E380" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F380" s="430" t="s">
         <v>145</v>
@@ -14095,13 +14110,13 @@
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="435"/>
       <c r="C381" s="434" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D381" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E381" s="434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F381" s="445"/>
       <c r="G381" s="446"/>
@@ -14116,13 +14131,13 @@
         <v>4</v>
       </c>
       <c r="C382" s="423" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D382" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E382" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F382" s="448" t="s">
         <v>146</v>
@@ -14137,13 +14152,13 @@
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="435"/>
       <c r="C383" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D383" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E383" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F383" s="449"/>
       <c r="G383" s="446"/>
@@ -14158,13 +14173,13 @@
         <v>5</v>
       </c>
       <c r="C384" s="423" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D384" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E384" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F384" s="448" t="s">
         <v>146</v>
@@ -14179,13 +14194,13 @@
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="435"/>
       <c r="C385" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D385" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E385" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F385" s="449"/>
       <c r="G385" s="446"/>
@@ -14200,13 +14215,13 @@
         <v>6</v>
       </c>
       <c r="C386" s="441" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D386" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E386" s="441" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F386" s="430" t="s">
         <v>145</v>
@@ -14221,13 +14236,13 @@
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="435"/>
       <c r="C387" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D387" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E387" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F387" s="445"/>
       <c r="G387" s="446"/>
@@ -14242,13 +14257,13 @@
         <v>7</v>
       </c>
       <c r="C388" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D388" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E388" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F388" s="448" t="s">
         <v>146</v>
@@ -14263,13 +14278,13 @@
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="435"/>
       <c r="C389" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D389" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E389" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F389" s="449"/>
       <c r="G389" s="446"/>
@@ -14284,13 +14299,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="423" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D390" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E390" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F390" s="430" t="s">
         <v>145</v>
@@ -14305,13 +14320,13 @@
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="435"/>
       <c r="C391" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D391" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E391" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F391" s="445"/>
       <c r="G391" s="446"/>
@@ -14326,13 +14341,13 @@
         <v>9</v>
       </c>
       <c r="C392" s="423" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D392" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E392" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F392" s="448" t="s">
         <v>146</v>
@@ -14347,13 +14362,13 @@
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="435"/>
       <c r="C393" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D393" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E393" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F393" s="449"/>
       <c r="G393" s="446"/>
@@ -14368,13 +14383,13 @@
         <v>10</v>
       </c>
       <c r="C394" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D394" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E394" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F394" s="430" t="s">
         <v>145</v>
@@ -14389,13 +14404,13 @@
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="435"/>
       <c r="C395" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D395" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E395" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F395" s="445"/>
       <c r="G395" s="446"/>
@@ -14410,13 +14425,13 @@
         <v>11</v>
       </c>
       <c r="C396" s="423" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D396" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E396" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F396" s="448" t="s">
         <v>146</v>
@@ -14431,13 +14446,13 @@
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="435"/>
       <c r="C397" s="439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D397" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E397" s="439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F397" s="449"/>
       <c r="G397" s="446"/>
@@ -14452,13 +14467,13 @@
         <v>12</v>
       </c>
       <c r="C398" s="423" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D398" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E398" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F398" s="430" t="s">
         <v>145</v>
@@ -14473,13 +14488,13 @@
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="435"/>
       <c r="C399" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D399" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E399" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F399" s="445"/>
       <c r="G399" s="446"/>
@@ -14494,13 +14509,13 @@
         <v>13</v>
       </c>
       <c r="C400" s="442" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D400" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E400" s="443" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F400" s="448" t="s">
         <v>146</v>
@@ -14515,13 +14530,13 @@
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="435"/>
       <c r="C401" s="428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D401" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E401" s="428" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F401" s="449"/>
       <c r="G401" s="446"/>
@@ -14536,13 +14551,13 @@
         <v>14</v>
       </c>
       <c r="C402" s="423" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D402" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E402" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F402" s="430" t="s">
         <v>145</v>
@@ -14557,13 +14572,13 @@
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="435"/>
       <c r="C403" s="440" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D403" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E403" s="440" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F403" s="445"/>
       <c r="G403" s="451"/>
@@ -14578,13 +14593,13 @@
         <v>15</v>
       </c>
       <c r="C404" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D404" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E404" s="423" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F404" s="430" t="s">
         <v>145</v>
@@ -15941,24 +15956,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="452" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B1" s="453" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B2" s="453" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="цели на сезон" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="338">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -808,10 +808,13 @@
     <t xml:space="preserve">ДИС(40)+ГРИ(27)</t>
   </si>
   <si>
-    <t xml:space="preserve">ДИС(40)+СКИ(25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДИС(47)+ССИ/ОСИ (32)</t>
+    <t xml:space="preserve">ДИС(25)+СКИ(15)+ССИ/ОСИ(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДИС(52)+ССИ/ОСИ (12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ССИ/ОСИ (60)+СКИ(10)</t>
   </si>
   <si>
     <t xml:space="preserve">СВД(177)</t>
@@ -821,6 +824,9 @@
   </si>
   <si>
     <t xml:space="preserve">Бег в лесу, разминка, затем 40 минут ДИС и ГРИ 27 минут. Итого отбегала 16 км, чувствовала себя хорошо. Луна светила как фонарь, моя тень бежала со мной)) В бассейн не успела. Ну и ладно. Очень много народу, не тянет туда в последнее время.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разминка, СКИ 15 минут – хотела 25, но не хватило сил. После вторника напряжно, мышцы расстраиваются. Затем просто ДИС. И все равно, как бы тяжеловато не было, ГРИ и СКИ мои любимые. ССИ/ОСИ 20 минут.</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -3786,7 +3792,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4012,12 +4018,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="86155927"/>
-        <c:axId val="46217088"/>
+        <c:axId val="47032178"/>
+        <c:axId val="21440307"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86155927"/>
+        <c:axId val="47032178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4050,14 +4056,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46217088"/>
+        <c:crossAx val="21440307"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46217088"/>
+        <c:axId val="21440307"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4138,7 +4144,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86155927"/>
+        <c:crossAx val="47032178"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4181,9 +4187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4192,7 +4198,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4387680" cy="2646000"/>
+        <a:ext cx="4386960" cy="2645280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5431,8 +5437,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5710,7 +5716,7 @@
         <v>43560</v>
       </c>
       <c r="C12" s="365" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D12" s="365"/>
       <c r="E12" s="367"/>
@@ -5729,7 +5735,7 @@
         <v>43561</v>
       </c>
       <c r="C13" s="393" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D13" s="393"/>
       <c r="E13" s="367"/>
@@ -5748,7 +5754,7 @@
         <v>43562</v>
       </c>
       <c r="C14" s="365" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D14" s="365"/>
       <c r="E14" s="367"/>
@@ -5877,7 +5883,7 @@
       <c r="A22" s="377"/>
       <c r="B22" s="373"/>
       <c r="C22" s="379" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D22" s="379"/>
       <c r="E22" s="379"/>
@@ -5922,10 +5928,12 @@
       <c r="J24" s="374"/>
       <c r="K24" s="374"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="372"/>
       <c r="B25" s="372"/>
-      <c r="C25" s="381"/>
+      <c r="C25" s="381" t="s">
+        <v>255</v>
+      </c>
       <c r="D25" s="381"/>
       <c r="E25" s="381"/>
       <c r="F25" s="381"/>
@@ -5935,7 +5943,7 @@
       <c r="J25" s="381"/>
       <c r="K25" s="381"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="372"/>
       <c r="B26" s="372"/>
       <c r="C26" s="381"/>
@@ -5959,8 +5967,12 @@
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="G27" s="21" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>7.26</v>
+      </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -6180,7 +6192,7 @@
   </sheetPr>
   <dimension ref="B1:L405"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A288" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D372" activeCellId="0" sqref="D372"/>
     </sheetView>
   </sheetViews>
@@ -6188,7 +6200,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="5.01"/>
@@ -6198,23 +6210,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G1" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H1" s="397"/>
       <c r="I1" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -6235,7 +6247,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C3" s="398"/>
       <c r="D3" s="399" t="n">
@@ -6243,7 +6255,7 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F3" s="400" t="n">
         <v>4</v>
@@ -6254,7 +6266,7 @@
       </c>
       <c r="H3" s="401"/>
       <c r="I3" s="402" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J3" s="402"/>
       <c r="K3" s="402"/>
@@ -6262,7 +6274,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C4" s="403"/>
       <c r="D4" s="404" t="n">
@@ -6277,7 +6289,7 @@
       </c>
       <c r="H4" s="405"/>
       <c r="I4" s="406" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J4" s="406"/>
       <c r="K4" s="406"/>
@@ -6285,7 +6297,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C5" s="403"/>
       <c r="D5" s="407" t="n">
@@ -6300,7 +6312,7 @@
       </c>
       <c r="H5" s="408"/>
       <c r="I5" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J5" s="406"/>
       <c r="K5" s="406"/>
@@ -6308,7 +6320,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="403" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C6" s="403"/>
       <c r="D6" s="409" t="n">
@@ -6320,7 +6332,7 @@
       <c r="G6" s="409"/>
       <c r="H6" s="409"/>
       <c r="I6" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J6" s="410"/>
       <c r="K6" s="410"/>
@@ -6328,7 +6340,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C7" s="412"/>
       <c r="D7" s="413" t="n">
@@ -6340,7 +6352,7 @@
       <c r="G7" s="413"/>
       <c r="H7" s="413"/>
       <c r="I7" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J7" s="406"/>
       <c r="K7" s="406"/>
@@ -6365,11 +6377,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C9" s="416"/>
       <c r="D9" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E9" s="417"/>
       <c r="F9" s="417"/>
@@ -6396,13 +6408,13 @@
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="419"/>
       <c r="C11" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D11" s="420"/>
       <c r="E11" s="420"/>
       <c r="F11" s="420"/>
       <c r="G11" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -6415,13 +6427,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="422" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D12" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F12" s="424" t="s">
         <v>145</v>
@@ -6444,13 +6456,13 @@
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="421"/>
       <c r="C13" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D13" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E13" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F13" s="424"/>
       <c r="G13" s="425"/>
@@ -6465,13 +6477,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="423" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D14" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E14" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F14" s="430" t="s">
         <v>145</v>
@@ -6494,13 +6506,13 @@
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="429"/>
       <c r="C15" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D15" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E15" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F15" s="430"/>
       <c r="G15" s="431"/>
@@ -6515,13 +6527,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D16" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F16" s="436" t="s">
         <v>146</v>
@@ -6544,13 +6556,13 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="435"/>
       <c r="C17" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D17" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F17" s="436"/>
       <c r="G17" s="425"/>
@@ -6565,13 +6577,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="423" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D18" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F18" s="436" t="s">
         <v>146</v>
@@ -6594,13 +6606,13 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="435"/>
       <c r="C19" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D19" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F19" s="436"/>
       <c r="G19" s="425"/>
@@ -6615,13 +6627,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="423" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D20" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F20" s="424" t="s">
         <v>145</v>
@@ -6644,13 +6656,13 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="435"/>
       <c r="C21" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D21" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E21" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F21" s="424"/>
       <c r="G21" s="425"/>
@@ -6665,13 +6677,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="423" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D22" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F22" s="436" t="s">
         <v>146</v>
@@ -6694,13 +6706,13 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="435"/>
       <c r="C23" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D23" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E23" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F23" s="436"/>
       <c r="G23" s="425"/>
@@ -6715,13 +6727,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="423" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D24" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F24" s="424" t="s">
         <v>145</v>
@@ -6744,13 +6756,13 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="435"/>
       <c r="C25" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D25" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E25" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F25" s="424"/>
       <c r="G25" s="425"/>
@@ -6765,13 +6777,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="423" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D26" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F26" s="436" t="s">
         <v>146</v>
@@ -6794,13 +6806,13 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="435"/>
       <c r="C27" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D27" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E27" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F27" s="436"/>
       <c r="G27" s="425"/>
@@ -6815,13 +6827,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="423" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D28" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E28" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F28" s="424" t="s">
         <v>145</v>
@@ -6844,13 +6856,13 @@
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="435"/>
       <c r="C29" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D29" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E29" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F29" s="424"/>
       <c r="G29" s="425"/>
@@ -6865,13 +6877,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D30" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E30" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F30" s="424" t="s">
         <v>145</v>
@@ -6894,13 +6906,13 @@
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="435"/>
       <c r="C31" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D31" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E31" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F31" s="424"/>
       <c r="G31" s="425"/>
@@ -6915,13 +6927,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="423" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D32" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E32" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F32" s="436" t="s">
         <v>146</v>
@@ -6944,13 +6956,13 @@
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="435"/>
       <c r="C33" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D33" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E33" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F33" s="436"/>
       <c r="G33" s="425"/>
@@ -6965,28 +6977,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D34" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E34" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F34" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G34" s="425" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H34" s="425" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I34" s="425" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J34" s="425" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K34" s="437"/>
       <c r="L34" s="438"/>
@@ -7007,23 +7019,23 @@
     <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G40" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H40" s="397"/>
       <c r="I40" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -7044,7 +7056,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C42" s="398"/>
       <c r="D42" s="399" t="n">
@@ -7052,7 +7064,7 @@
         <v>6.2</v>
       </c>
       <c r="E42" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F42" s="400" t="n">
         <v>4</v>
@@ -7063,7 +7075,7 @@
       </c>
       <c r="H42" s="401"/>
       <c r="I42" s="402" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J42" s="402"/>
       <c r="K42" s="402"/>
@@ -7071,7 +7083,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C43" s="403"/>
       <c r="D43" s="404" t="n">
@@ -7086,7 +7098,7 @@
       </c>
       <c r="H43" s="405"/>
       <c r="I43" s="406" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J43" s="406"/>
       <c r="K43" s="406"/>
@@ -7094,7 +7106,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C44" s="403"/>
       <c r="D44" s="407" t="n">
@@ -7109,7 +7121,7 @@
       </c>
       <c r="H44" s="408"/>
       <c r="I44" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J44" s="406"/>
       <c r="K44" s="406"/>
@@ -7117,7 +7129,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="403" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C45" s="403"/>
       <c r="D45" s="409" t="n">
@@ -7129,7 +7141,7 @@
       <c r="G45" s="409"/>
       <c r="H45" s="409"/>
       <c r="I45" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J45" s="410"/>
       <c r="K45" s="410"/>
@@ -7137,7 +7149,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C46" s="412"/>
       <c r="D46" s="413" t="n">
@@ -7149,7 +7161,7 @@
       <c r="G46" s="413"/>
       <c r="H46" s="413"/>
       <c r="I46" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J46" s="406"/>
       <c r="K46" s="406"/>
@@ -7168,7 +7180,7 @@
       <c r="G47" s="414"/>
       <c r="H47" s="414"/>
       <c r="I47" s="406" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J47" s="406"/>
       <c r="K47" s="406"/>
@@ -7176,18 +7188,18 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C48" s="416"/>
       <c r="D48" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E48" s="417"/>
       <c r="F48" s="417"/>
       <c r="G48" s="417"/>
       <c r="H48" s="417"/>
       <c r="I48" s="406" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J48" s="406"/>
       <c r="K48" s="406"/>
@@ -7209,13 +7221,13 @@
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="419"/>
       <c r="C50" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D50" s="420"/>
       <c r="E50" s="420"/>
       <c r="F50" s="420"/>
       <c r="G50" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -7228,13 +7240,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="422" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D51" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E51" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F51" s="424" t="s">
         <v>145</v>
@@ -7257,13 +7269,13 @@
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="421"/>
       <c r="C52" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D52" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E52" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F52" s="424"/>
       <c r="G52" s="425"/>
@@ -7278,13 +7290,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="423" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D53" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E53" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F53" s="430" t="s">
         <v>145</v>
@@ -7307,13 +7319,13 @@
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="429"/>
       <c r="C54" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D54" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E54" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F54" s="430"/>
       <c r="G54" s="431"/>
@@ -7328,13 +7340,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D55" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E55" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F55" s="436" t="s">
         <v>146</v>
@@ -7357,13 +7369,13 @@
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="421"/>
       <c r="C56" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D56" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E56" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F56" s="436"/>
       <c r="G56" s="425"/>
@@ -7378,13 +7390,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="423" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D57" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E57" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F57" s="436" t="s">
         <v>146</v>
@@ -7407,13 +7419,13 @@
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="429"/>
       <c r="C58" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D58" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E58" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F58" s="436"/>
       <c r="G58" s="425"/>
@@ -7428,28 +7440,28 @@
         <v>5</v>
       </c>
       <c r="C59" s="441" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D59" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E59" s="441" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F59" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G59" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H59" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I59" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J59" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K59" s="437"/>
       <c r="L59" s="438"/>
@@ -7457,13 +7469,13 @@
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="421"/>
       <c r="C60" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D60" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E60" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F60" s="424"/>
       <c r="G60" s="425"/>
@@ -7478,13 +7490,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="423" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D61" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E61" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F61" s="436" t="s">
         <v>146</v>
@@ -7507,13 +7519,13 @@
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="429"/>
       <c r="C62" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D62" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E62" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F62" s="436"/>
       <c r="G62" s="425"/>
@@ -7528,13 +7540,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="423" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D63" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E63" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F63" s="424" t="s">
         <v>145</v>
@@ -7557,13 +7569,13 @@
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="421"/>
       <c r="C64" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D64" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E64" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F64" s="424"/>
       <c r="G64" s="425"/>
@@ -7578,13 +7590,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="423" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D65" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E65" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F65" s="436" t="s">
         <v>146</v>
@@ -7607,13 +7619,13 @@
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="429"/>
       <c r="C66" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D66" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E66" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F66" s="436"/>
       <c r="G66" s="425"/>
@@ -7628,13 +7640,13 @@
         <v>9</v>
       </c>
       <c r="C67" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D67" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F67" s="424" t="s">
         <v>145</v>
@@ -7657,13 +7669,13 @@
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="421"/>
       <c r="C68" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D68" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E68" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F68" s="424"/>
       <c r="G68" s="425"/>
@@ -7678,13 +7690,13 @@
         <v>10</v>
       </c>
       <c r="C69" s="423" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D69" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E69" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F69" s="436" t="s">
         <v>146</v>
@@ -7707,13 +7719,13 @@
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="429"/>
       <c r="C70" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D70" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E70" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F70" s="436"/>
       <c r="G70" s="425"/>
@@ -7728,13 +7740,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="423" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D71" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F71" s="424" t="s">
         <v>145</v>
@@ -7761,7 +7773,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="440" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F72" s="424"/>
       <c r="G72" s="425"/>
@@ -7776,13 +7788,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="442" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D73" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E73" s="443" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F73" s="436" t="s">
         <v>146</v>
@@ -7809,7 +7821,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="440" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F74" s="436"/>
       <c r="G74" s="425"/>
@@ -7824,28 +7836,28 @@
         <v>13</v>
       </c>
       <c r="C75" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D75" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E75" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F75" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G75" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H75" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I75" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J75" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K75" s="437"/>
       <c r="L75" s="438"/>
@@ -7866,23 +7878,23 @@
     <row r="80" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G80" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H80" s="397"/>
       <c r="I80" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -7903,7 +7915,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C82" s="398"/>
       <c r="D82" s="399" t="n">
@@ -7911,7 +7923,7 @@
         <v>6.2</v>
       </c>
       <c r="E82" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F82" s="400" t="n">
         <v>4</v>
@@ -7922,7 +7934,7 @@
       </c>
       <c r="H82" s="401"/>
       <c r="I82" s="402" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J82" s="402"/>
       <c r="K82" s="402"/>
@@ -7930,7 +7942,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C83" s="403"/>
       <c r="D83" s="404" t="n">
@@ -7945,7 +7957,7 @@
       </c>
       <c r="H83" s="405"/>
       <c r="I83" s="406" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J83" s="406"/>
       <c r="K83" s="406"/>
@@ -7953,7 +7965,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C84" s="403"/>
       <c r="D84" s="407" t="n">
@@ -7968,7 +7980,7 @@
       </c>
       <c r="H84" s="408"/>
       <c r="I84" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J84" s="406"/>
       <c r="K84" s="406"/>
@@ -7976,7 +7988,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="403" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C85" s="403"/>
       <c r="D85" s="409" t="n">
@@ -7988,7 +8000,7 @@
       <c r="G85" s="409"/>
       <c r="H85" s="409"/>
       <c r="I85" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J85" s="410"/>
       <c r="K85" s="410"/>
@@ -7996,7 +8008,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C86" s="412"/>
       <c r="D86" s="413" t="n">
@@ -8008,7 +8020,7 @@
       <c r="G86" s="413"/>
       <c r="H86" s="413"/>
       <c r="I86" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J86" s="406"/>
       <c r="K86" s="406"/>
@@ -8027,7 +8039,7 @@
       <c r="G87" s="414"/>
       <c r="H87" s="414"/>
       <c r="I87" s="406" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J87" s="406"/>
       <c r="K87" s="406"/>
@@ -8035,18 +8047,18 @@
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C88" s="416"/>
       <c r="D88" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E88" s="417"/>
       <c r="F88" s="417"/>
       <c r="G88" s="417"/>
       <c r="H88" s="417"/>
       <c r="I88" s="406" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J88" s="406"/>
       <c r="K88" s="406"/>
@@ -8068,13 +8080,13 @@
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="419"/>
       <c r="C90" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D90" s="420"/>
       <c r="E90" s="420"/>
       <c r="F90" s="420"/>
       <c r="G90" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -8087,13 +8099,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="422" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D91" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E91" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F91" s="424" t="s">
         <v>145</v>
@@ -8116,13 +8128,13 @@
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="421"/>
       <c r="C92" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D92" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E92" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F92" s="424"/>
       <c r="G92" s="425"/>
@@ -8137,13 +8149,13 @@
         <v>2</v>
       </c>
       <c r="C93" s="423" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D93" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E93" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F93" s="430" t="s">
         <v>145</v>
@@ -8166,13 +8178,13 @@
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="429"/>
       <c r="C94" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D94" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E94" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F94" s="430"/>
       <c r="G94" s="431"/>
@@ -8187,13 +8199,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D95" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E95" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F95" s="436" t="s">
         <v>146</v>
@@ -8216,13 +8228,13 @@
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="421"/>
       <c r="C96" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D96" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E96" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F96" s="436"/>
       <c r="G96" s="425"/>
@@ -8237,13 +8249,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="423" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D97" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E97" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F97" s="436" t="s">
         <v>146</v>
@@ -8266,13 +8278,13 @@
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="429"/>
       <c r="C98" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E98" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F98" s="436"/>
       <c r="G98" s="425"/>
@@ -8287,28 +8299,28 @@
         <v>5</v>
       </c>
       <c r="C99" s="441" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D99" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E99" s="441" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F99" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G99" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H99" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I99" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J99" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K99" s="437"/>
       <c r="L99" s="438"/>
@@ -8316,13 +8328,13 @@
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="421"/>
       <c r="C100" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E100" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F100" s="424"/>
       <c r="G100" s="425"/>
@@ -8337,13 +8349,13 @@
         <v>6</v>
       </c>
       <c r="C101" s="423" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E101" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F101" s="436" t="s">
         <v>146</v>
@@ -8366,13 +8378,13 @@
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="429"/>
       <c r="C102" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E102" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F102" s="436"/>
       <c r="G102" s="425"/>
@@ -8387,13 +8399,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="423" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D103" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E103" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F103" s="424" t="s">
         <v>145</v>
@@ -8416,13 +8428,13 @@
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="421"/>
       <c r="C104" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D104" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E104" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F104" s="424"/>
       <c r="G104" s="425"/>
@@ -8437,13 +8449,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="423" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E105" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F105" s="436" t="s">
         <v>146</v>
@@ -8466,13 +8478,13 @@
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="429"/>
       <c r="C106" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D106" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E106" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F106" s="436"/>
       <c r="G106" s="425"/>
@@ -8487,13 +8499,13 @@
         <v>9</v>
       </c>
       <c r="C107" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D107" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E107" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F107" s="424" t="s">
         <v>145</v>
@@ -8516,13 +8528,13 @@
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="421"/>
       <c r="C108" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D108" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E108" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F108" s="424"/>
       <c r="G108" s="425"/>
@@ -8537,13 +8549,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="423" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D109" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E109" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F109" s="436" t="s">
         <v>146</v>
@@ -8566,13 +8578,13 @@
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="429"/>
       <c r="C110" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D110" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E110" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F110" s="436"/>
       <c r="G110" s="425"/>
@@ -8587,13 +8599,13 @@
         <v>11</v>
       </c>
       <c r="C111" s="423" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D111" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E111" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F111" s="424" t="s">
         <v>145</v>
@@ -8620,7 +8632,7 @@
         <v>22</v>
       </c>
       <c r="E112" s="440" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F112" s="424"/>
       <c r="G112" s="425"/>
@@ -8635,13 +8647,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="442" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D113" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E113" s="443" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F113" s="436" t="s">
         <v>146</v>
@@ -8668,7 +8680,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="440" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F114" s="436"/>
       <c r="G114" s="425"/>
@@ -8683,28 +8695,28 @@
         <v>13</v>
       </c>
       <c r="C115" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D115" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E115" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F115" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G115" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H115" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I115" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J115" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K115" s="437"/>
       <c r="L115" s="438"/>
@@ -8725,23 +8737,23 @@
     <row r="121" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G121" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H121" s="397"/>
       <c r="I121" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -8762,7 +8774,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C123" s="398"/>
       <c r="D123" s="399" t="n">
@@ -8770,7 +8782,7 @@
         <v>7.23333333333333</v>
       </c>
       <c r="E123" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F123" s="400" t="n">
         <v>4</v>
@@ -8787,7 +8799,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C124" s="403"/>
       <c r="D124" s="404" t="n">
@@ -8802,7 +8814,7 @@
       </c>
       <c r="H124" s="405"/>
       <c r="I124" s="406" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J124" s="406"/>
       <c r="K124" s="406"/>
@@ -8810,7 +8822,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C125" s="403"/>
       <c r="D125" s="407" t="n">
@@ -8825,7 +8837,7 @@
       </c>
       <c r="H125" s="408"/>
       <c r="I125" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J125" s="406"/>
       <c r="K125" s="406"/>
@@ -8833,7 +8845,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="403" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C126" s="403"/>
       <c r="D126" s="409" t="n">
@@ -8845,7 +8857,7 @@
       <c r="G126" s="409"/>
       <c r="H126" s="409"/>
       <c r="I126" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J126" s="410"/>
       <c r="K126" s="410"/>
@@ -8853,7 +8865,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C127" s="412"/>
       <c r="D127" s="413" t="n">
@@ -8865,7 +8877,7 @@
       <c r="G127" s="413"/>
       <c r="H127" s="413"/>
       <c r="I127" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J127" s="406"/>
       <c r="K127" s="406"/>
@@ -8884,7 +8896,7 @@
       <c r="G128" s="414"/>
       <c r="H128" s="414"/>
       <c r="I128" s="406" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J128" s="406"/>
       <c r="K128" s="406"/>
@@ -8892,18 +8904,18 @@
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C129" s="416"/>
       <c r="D129" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
       <c r="G129" s="417"/>
       <c r="H129" s="417"/>
       <c r="I129" s="406" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J129" s="406"/>
       <c r="K129" s="406"/>
@@ -8925,13 +8937,13 @@
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="419"/>
       <c r="C131" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D131" s="420"/>
       <c r="E131" s="420"/>
       <c r="F131" s="420"/>
       <c r="G131" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -8944,13 +8956,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="422" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D132" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E132" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F132" s="424" t="s">
         <v>145</v>
@@ -8973,13 +8985,13 @@
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="421"/>
       <c r="C133" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D133" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E133" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F133" s="424"/>
       <c r="G133" s="425"/>
@@ -8994,13 +9006,13 @@
         <v>2</v>
       </c>
       <c r="C134" s="423" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D134" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E134" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F134" s="430" t="s">
         <v>145</v>
@@ -9023,13 +9035,13 @@
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="429"/>
       <c r="C135" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D135" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E135" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F135" s="430"/>
       <c r="G135" s="431"/>
@@ -9044,13 +9056,13 @@
         <v>3</v>
       </c>
       <c r="C136" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D136" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E136" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F136" s="436" t="s">
         <v>146</v>
@@ -9073,13 +9085,13 @@
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="421"/>
       <c r="C137" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D137" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E137" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F137" s="436"/>
       <c r="G137" s="425"/>
@@ -9094,13 +9106,13 @@
         <v>4</v>
       </c>
       <c r="C138" s="423" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D138" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E138" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F138" s="436" t="s">
         <v>146</v>
@@ -9123,13 +9135,13 @@
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="429"/>
       <c r="C139" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D139" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E139" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F139" s="436"/>
       <c r="G139" s="425"/>
@@ -9144,13 +9156,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="441" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D140" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E140" s="441" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F140" s="424" t="s">
         <v>145</v>
@@ -9173,13 +9185,13 @@
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="421"/>
       <c r="C141" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D141" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E141" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F141" s="424"/>
       <c r="G141" s="425"/>
@@ -9194,13 +9206,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="423" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D142" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E142" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F142" s="436" t="s">
         <v>146</v>
@@ -9223,13 +9235,13 @@
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="429"/>
       <c r="C143" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D143" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E143" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F143" s="436"/>
       <c r="G143" s="425"/>
@@ -9244,13 +9256,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="423" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D144" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E144" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F144" s="424" t="s">
         <v>145</v>
@@ -9273,13 +9285,13 @@
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="421"/>
       <c r="C145" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D145" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E145" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F145" s="424"/>
       <c r="G145" s="425"/>
@@ -9294,13 +9306,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="423" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D146" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E146" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F146" s="436" t="s">
         <v>146</v>
@@ -9323,13 +9335,13 @@
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="429"/>
       <c r="C147" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D147" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E147" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F147" s="436"/>
       <c r="G147" s="425"/>
@@ -9344,13 +9356,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D148" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E148" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F148" s="424" t="s">
         <v>145</v>
@@ -9373,13 +9385,13 @@
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="421"/>
       <c r="C149" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D149" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E149" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F149" s="424"/>
       <c r="G149" s="425"/>
@@ -9394,13 +9406,13 @@
         <v>10</v>
       </c>
       <c r="C150" s="423" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D150" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E150" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F150" s="436" t="s">
         <v>146</v>
@@ -9423,13 +9435,13 @@
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="429"/>
       <c r="C151" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D151" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E151" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F151" s="436"/>
       <c r="G151" s="425"/>
@@ -9444,13 +9456,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D152" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E152" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F152" s="424" t="s">
         <v>145</v>
@@ -9473,13 +9485,13 @@
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="421"/>
       <c r="C153" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D153" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E153" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F153" s="424"/>
       <c r="G153" s="425"/>
@@ -9494,13 +9506,13 @@
         <v>12</v>
       </c>
       <c r="C154" s="442" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D154" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E154" s="443" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F154" s="436" t="s">
         <v>146</v>
@@ -9523,13 +9535,13 @@
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="429"/>
       <c r="C155" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D155" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E155" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F155" s="436"/>
       <c r="G155" s="425"/>
@@ -9544,13 +9556,13 @@
         <v>13</v>
       </c>
       <c r="C156" s="423" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D156" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E156" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F156" s="424" t="s">
         <v>145</v>
@@ -9573,13 +9585,13 @@
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="421"/>
       <c r="C157" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D157" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E157" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F157" s="424"/>
       <c r="G157" s="425"/>
@@ -9594,28 +9606,28 @@
         <v>14</v>
       </c>
       <c r="C158" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D158" s="423" t="n">
         <v>140</v>
       </c>
       <c r="E158" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F158" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G158" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H158" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I158" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J158" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K158" s="437"/>
       <c r="L158" s="438"/>
@@ -9636,23 +9648,23 @@
     <row r="164" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G164" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H164" s="397"/>
       <c r="I164" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -9673,7 +9685,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C166" s="398"/>
       <c r="D166" s="399" t="n">
@@ -9681,7 +9693,7 @@
         <v>7.2</v>
       </c>
       <c r="E166" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F166" s="400" t="n">
         <v>2</v>
@@ -9692,7 +9704,7 @@
       </c>
       <c r="H166" s="401"/>
       <c r="I166" s="402" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J166" s="402"/>
       <c r="K166" s="402"/>
@@ -9700,7 +9712,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C167" s="403"/>
       <c r="D167" s="404" t="n">
@@ -9715,7 +9727,7 @@
       </c>
       <c r="H167" s="405"/>
       <c r="I167" s="406" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J167" s="406"/>
       <c r="K167" s="406"/>
@@ -9723,7 +9735,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C168" s="403"/>
       <c r="D168" s="407" t="n">
@@ -9738,7 +9750,7 @@
       </c>
       <c r="H168" s="408"/>
       <c r="I168" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J168" s="406"/>
       <c r="K168" s="406"/>
@@ -9746,7 +9758,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="403" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C169" s="403"/>
       <c r="D169" s="409" t="n">
@@ -9758,7 +9770,7 @@
       <c r="G169" s="409"/>
       <c r="H169" s="409"/>
       <c r="I169" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J169" s="410"/>
       <c r="K169" s="410"/>
@@ -9766,7 +9778,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C170" s="412"/>
       <c r="D170" s="413" t="n">
@@ -9778,7 +9790,7 @@
       <c r="G170" s="413"/>
       <c r="H170" s="413"/>
       <c r="I170" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J170" s="406"/>
       <c r="K170" s="406"/>
@@ -9803,11 +9815,11 @@
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C172" s="416"/>
       <c r="D172" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E172" s="417"/>
       <c r="F172" s="417"/>
@@ -9834,13 +9846,13 @@
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="419"/>
       <c r="C174" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D174" s="420"/>
       <c r="E174" s="420"/>
       <c r="F174" s="420"/>
       <c r="G174" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -9853,13 +9865,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="422" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D175" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E175" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F175" s="424" t="s">
         <v>145</v>
@@ -9878,13 +9890,13 @@
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="421"/>
       <c r="C176" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D176" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E176" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F176" s="424"/>
       <c r="G176" s="425"/>
@@ -9899,13 +9911,13 @@
         <v>2</v>
       </c>
       <c r="C177" s="423" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D177" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E177" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F177" s="430" t="s">
         <v>145</v>
@@ -9924,13 +9936,13 @@
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="429"/>
       <c r="C178" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D178" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E178" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F178" s="430"/>
       <c r="G178" s="431"/>
@@ -9945,13 +9957,13 @@
         <v>3</v>
       </c>
       <c r="C179" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D179" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E179" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F179" s="436" t="s">
         <v>146</v>
@@ -9970,13 +9982,13 @@
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="435"/>
       <c r="C180" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D180" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E180" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F180" s="436"/>
       <c r="G180" s="425"/>
@@ -9991,13 +10003,13 @@
         <v>4</v>
       </c>
       <c r="C181" s="423" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D181" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E181" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F181" s="436" t="s">
         <v>146</v>
@@ -10016,13 +10028,13 @@
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="435"/>
       <c r="C182" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D182" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E182" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F182" s="436"/>
       <c r="G182" s="425"/>
@@ -10037,13 +10049,13 @@
         <v>5</v>
       </c>
       <c r="C183" s="423" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D183" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E183" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F183" s="424" t="s">
         <v>145</v>
@@ -10062,13 +10074,13 @@
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="435"/>
       <c r="C184" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D184" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E184" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F184" s="424"/>
       <c r="G184" s="425"/>
@@ -10083,13 +10095,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="423" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D185" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E185" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F185" s="436" t="s">
         <v>146</v>
@@ -10108,13 +10120,13 @@
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="435"/>
       <c r="C186" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D186" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E186" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F186" s="436"/>
       <c r="G186" s="425"/>
@@ -10129,13 +10141,13 @@
         <v>7</v>
       </c>
       <c r="C187" s="423" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D187" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E187" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F187" s="424" t="s">
         <v>145</v>
@@ -10154,13 +10166,13 @@
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="435"/>
       <c r="C188" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D188" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E188" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F188" s="424"/>
       <c r="G188" s="425"/>
@@ -10175,13 +10187,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="423" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D189" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E189" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F189" s="436" t="s">
         <v>146</v>
@@ -10200,13 +10212,13 @@
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="435"/>
       <c r="C190" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D190" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E190" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F190" s="436"/>
       <c r="G190" s="425"/>
@@ -10221,13 +10233,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="423" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D191" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E191" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F191" s="424" t="s">
         <v>145</v>
@@ -10246,13 +10258,13 @@
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="435"/>
       <c r="C192" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D192" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E192" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F192" s="424"/>
       <c r="G192" s="425"/>
@@ -10267,13 +10279,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D193" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E193" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F193" s="424" t="s">
         <v>145</v>
@@ -10292,13 +10304,13 @@
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="435"/>
       <c r="C194" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D194" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E194" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F194" s="424"/>
       <c r="G194" s="425"/>
@@ -10313,13 +10325,13 @@
         <v>11</v>
       </c>
       <c r="C195" s="423" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D195" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E195" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F195" s="436" t="s">
         <v>146</v>
@@ -10338,13 +10350,13 @@
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="435"/>
       <c r="C196" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D196" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E196" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F196" s="436"/>
       <c r="G196" s="425"/>
@@ -10359,22 +10371,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D197" s="423" t="n">
         <v>180</v>
       </c>
       <c r="E197" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F197" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G197" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H197" s="425" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I197" s="425"/>
       <c r="J197" s="425"/>
@@ -10397,23 +10409,23 @@
     <row r="202" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="368"/>
       <c r="C202" s="368" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D202" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E202" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F202" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G202" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H202" s="397"/>
       <c r="I202" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J202" s="358"/>
       <c r="K202" s="358"/>
@@ -10434,7 +10446,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C204" s="398"/>
       <c r="D204" s="399" t="e">
@@ -10442,7 +10454,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E204" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F204" s="400" t="n">
         <v>4</v>
@@ -10459,7 +10471,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C205" s="403"/>
       <c r="D205" s="404" t="n">
@@ -10474,7 +10486,7 @@
       </c>
       <c r="H205" s="405"/>
       <c r="I205" s="406" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J205" s="406"/>
       <c r="K205" s="406"/>
@@ -10482,7 +10494,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C206" s="403"/>
       <c r="D206" s="407" t="e">
@@ -10497,7 +10509,7 @@
       </c>
       <c r="H206" s="408"/>
       <c r="I206" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J206" s="406"/>
       <c r="K206" s="406"/>
@@ -10505,18 +10517,18 @@
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="403" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C207" s="403"/>
       <c r="D207" s="409" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E207" s="409"/>
       <c r="F207" s="409"/>
       <c r="G207" s="409"/>
       <c r="H207" s="409"/>
       <c r="I207" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J207" s="410"/>
       <c r="K207" s="410"/>
@@ -10524,7 +10536,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C208" s="412"/>
       <c r="D208" s="413" t="n">
@@ -10535,7 +10547,7 @@
       <c r="G208" s="413"/>
       <c r="H208" s="413"/>
       <c r="I208" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J208" s="406"/>
       <c r="K208" s="406"/>
@@ -10554,7 +10566,7 @@
       <c r="G209" s="414"/>
       <c r="H209" s="414"/>
       <c r="I209" s="406" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J209" s="406"/>
       <c r="K209" s="406"/>
@@ -10562,18 +10574,18 @@
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C210" s="416"/>
       <c r="D210" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E210" s="417"/>
       <c r="F210" s="417"/>
       <c r="G210" s="417"/>
       <c r="H210" s="417"/>
       <c r="I210" s="406" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J210" s="406"/>
       <c r="K210" s="406"/>
@@ -10595,13 +10607,13 @@
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="419"/>
       <c r="C212" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D212" s="420"/>
       <c r="E212" s="420"/>
       <c r="F212" s="420"/>
       <c r="G212" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H212" s="180"/>
       <c r="I212" s="180"/>
@@ -10614,13 +10626,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="422" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D213" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E213" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F213" s="424" t="s">
         <v>145</v>
@@ -10641,13 +10653,13 @@
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="421"/>
       <c r="C214" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D214" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E214" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F214" s="424"/>
       <c r="G214" s="425"/>
@@ -10662,13 +10674,13 @@
         <v>2</v>
       </c>
       <c r="C215" s="423" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D215" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E215" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F215" s="430" t="s">
         <v>145</v>
@@ -10689,13 +10701,13 @@
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="429"/>
       <c r="C216" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D216" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E216" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F216" s="430"/>
       <c r="G216" s="431"/>
@@ -10710,13 +10722,13 @@
         <v>3</v>
       </c>
       <c r="C217" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D217" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E217" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F217" s="436" t="s">
         <v>146</v>
@@ -10737,13 +10749,13 @@
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="421"/>
       <c r="C218" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D218" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E218" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F218" s="436"/>
       <c r="G218" s="425"/>
@@ -10758,13 +10770,13 @@
         <v>4</v>
       </c>
       <c r="C219" s="423" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D219" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E219" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F219" s="436" t="s">
         <v>146</v>
@@ -10785,13 +10797,13 @@
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="429"/>
       <c r="C220" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D220" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E220" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F220" s="436"/>
       <c r="G220" s="425"/>
@@ -10806,13 +10818,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="441" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D221" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E221" s="441" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F221" s="424" t="s">
         <v>145</v>
@@ -10833,13 +10845,13 @@
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="421"/>
       <c r="C222" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D222" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E222" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F222" s="424"/>
       <c r="G222" s="425"/>
@@ -10854,13 +10866,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="423" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D223" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E223" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F223" s="436" t="s">
         <v>146</v>
@@ -10881,13 +10893,13 @@
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="429"/>
       <c r="C224" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D224" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E224" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F224" s="436"/>
       <c r="G224" s="425"/>
@@ -10902,13 +10914,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="423" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D225" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E225" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F225" s="424" t="s">
         <v>145</v>
@@ -10929,13 +10941,13 @@
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="421"/>
       <c r="C226" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D226" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E226" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F226" s="424"/>
       <c r="G226" s="425"/>
@@ -10950,13 +10962,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="423" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D227" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E227" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F227" s="436" t="s">
         <v>146</v>
@@ -10977,13 +10989,13 @@
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="429"/>
       <c r="C228" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D228" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E228" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F228" s="436"/>
       <c r="G228" s="425"/>
@@ -10998,13 +11010,13 @@
         <v>9</v>
       </c>
       <c r="C229" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D229" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E229" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F229" s="424" t="s">
         <v>145</v>
@@ -11025,13 +11037,13 @@
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="421"/>
       <c r="C230" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D230" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E230" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F230" s="424"/>
       <c r="G230" s="425"/>
@@ -11046,13 +11058,13 @@
         <v>10</v>
       </c>
       <c r="C231" s="423" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D231" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E231" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F231" s="436" t="s">
         <v>146</v>
@@ -11073,13 +11085,13 @@
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="429"/>
       <c r="C232" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D232" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E232" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F232" s="436"/>
       <c r="G232" s="425"/>
@@ -11094,13 +11106,13 @@
         <v>11</v>
       </c>
       <c r="C233" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D233" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E233" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F233" s="424" t="s">
         <v>145</v>
@@ -11121,13 +11133,13 @@
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="421"/>
       <c r="C234" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D234" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E234" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F234" s="424"/>
       <c r="G234" s="425"/>
@@ -11142,13 +11154,13 @@
         <v>12</v>
       </c>
       <c r="C235" s="442" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D235" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E235" s="443" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F235" s="436" t="s">
         <v>146</v>
@@ -11169,13 +11181,13 @@
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="429"/>
       <c r="C236" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D236" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E236" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F236" s="436"/>
       <c r="G236" s="425"/>
@@ -11190,25 +11202,25 @@
         <v>13</v>
       </c>
       <c r="C237" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D237" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E237" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F237" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G237" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H237" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I237" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J237" s="444"/>
       <c r="K237" s="437"/>
@@ -11230,23 +11242,23 @@
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="368"/>
       <c r="C242" s="368" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D242" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E242" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F242" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G242" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H242" s="397"/>
       <c r="I242" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J242" s="358"/>
       <c r="K242" s="358"/>
@@ -11267,7 +11279,7 @@
     </row>
     <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C244" s="398"/>
       <c r="D244" s="399" t="e">
@@ -11275,7 +11287,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E244" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F244" s="400" t="n">
         <v>4</v>
@@ -11292,7 +11304,7 @@
     </row>
     <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C245" s="403"/>
       <c r="D245" s="404" t="n">
@@ -11307,7 +11319,7 @@
       </c>
       <c r="H245" s="405"/>
       <c r="I245" s="406" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J245" s="406"/>
       <c r="K245" s="406"/>
@@ -11315,7 +11327,7 @@
     </row>
     <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C246" s="403"/>
       <c r="D246" s="407" t="e">
@@ -11330,7 +11342,7 @@
       </c>
       <c r="H246" s="408"/>
       <c r="I246" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J246" s="406"/>
       <c r="K246" s="406"/>
@@ -11338,18 +11350,18 @@
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="403" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C247" s="403"/>
       <c r="D247" s="409" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E247" s="409"/>
       <c r="F247" s="409"/>
       <c r="G247" s="409"/>
       <c r="H247" s="409"/>
       <c r="I247" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J247" s="410"/>
       <c r="K247" s="410"/>
@@ -11357,7 +11369,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C248" s="412"/>
       <c r="D248" s="413" t="n">
@@ -11368,7 +11380,7 @@
       <c r="G248" s="413"/>
       <c r="H248" s="413"/>
       <c r="I248" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J248" s="406"/>
       <c r="K248" s="406"/>
@@ -11387,7 +11399,7 @@
       <c r="G249" s="414"/>
       <c r="H249" s="414"/>
       <c r="I249" s="406" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J249" s="406"/>
       <c r="K249" s="406"/>
@@ -11395,18 +11407,18 @@
     </row>
     <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C250" s="416"/>
       <c r="D250" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E250" s="417"/>
       <c r="F250" s="417"/>
       <c r="G250" s="417"/>
       <c r="H250" s="417"/>
       <c r="I250" s="406" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J250" s="406"/>
       <c r="K250" s="406"/>
@@ -11428,13 +11440,13 @@
     <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="419"/>
       <c r="C252" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D252" s="420"/>
       <c r="E252" s="420"/>
       <c r="F252" s="420"/>
       <c r="G252" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H252" s="180"/>
       <c r="I252" s="180"/>
@@ -11447,13 +11459,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="422" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D253" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E253" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F253" s="424" t="s">
         <v>145</v>
@@ -11474,13 +11486,13 @@
     <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="421"/>
       <c r="C254" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D254" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E254" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F254" s="424"/>
       <c r="G254" s="425"/>
@@ -11495,13 +11507,13 @@
         <v>2</v>
       </c>
       <c r="C255" s="423" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D255" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E255" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F255" s="430" t="s">
         <v>145</v>
@@ -11522,13 +11534,13 @@
     <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="429"/>
       <c r="C256" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D256" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E256" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F256" s="430"/>
       <c r="G256" s="431"/>
@@ -11543,13 +11555,13 @@
         <v>3</v>
       </c>
       <c r="C257" s="423" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D257" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E257" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F257" s="436" t="s">
         <v>146</v>
@@ -11570,13 +11582,13 @@
     <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="421"/>
       <c r="C258" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D258" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E258" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F258" s="436"/>
       <c r="G258" s="425"/>
@@ -11591,13 +11603,13 @@
         <v>4</v>
       </c>
       <c r="C259" s="423" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D259" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E259" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F259" s="436" t="s">
         <v>146</v>
@@ -11618,13 +11630,13 @@
     <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="429"/>
       <c r="C260" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D260" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E260" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F260" s="436"/>
       <c r="G260" s="425"/>
@@ -11639,13 +11651,13 @@
         <v>5</v>
       </c>
       <c r="C261" s="441" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D261" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E261" s="441" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F261" s="424" t="s">
         <v>145</v>
@@ -11666,13 +11678,13 @@
     <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="421"/>
       <c r="C262" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D262" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E262" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F262" s="424"/>
       <c r="G262" s="425"/>
@@ -11687,13 +11699,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="423" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D263" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E263" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F263" s="436" t="s">
         <v>146</v>
@@ -11714,13 +11726,13 @@
     <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="429"/>
       <c r="C264" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D264" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E264" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F264" s="436"/>
       <c r="G264" s="425"/>
@@ -11735,13 +11747,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D265" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E265" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F265" s="424" t="s">
         <v>145</v>
@@ -11762,13 +11774,13 @@
     <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="421"/>
       <c r="C266" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D266" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E266" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F266" s="424"/>
       <c r="G266" s="425"/>
@@ -11783,13 +11795,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="423" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D267" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E267" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F267" s="436" t="s">
         <v>146</v>
@@ -11810,13 +11822,13 @@
     <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="429"/>
       <c r="C268" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D268" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E268" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F268" s="436"/>
       <c r="G268" s="425"/>
@@ -11831,13 +11843,13 @@
         <v>9</v>
       </c>
       <c r="C269" s="423" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D269" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E269" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F269" s="424" t="s">
         <v>145</v>
@@ -11858,13 +11870,13 @@
     <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="421"/>
       <c r="C270" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D270" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E270" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F270" s="424"/>
       <c r="G270" s="425"/>
@@ -11879,13 +11891,13 @@
         <v>10</v>
       </c>
       <c r="C271" s="423" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D271" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E271" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F271" s="436" t="s">
         <v>146</v>
@@ -11906,13 +11918,13 @@
     <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="429"/>
       <c r="C272" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D272" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E272" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F272" s="436"/>
       <c r="G272" s="425"/>
@@ -11927,13 +11939,13 @@
         <v>11</v>
       </c>
       <c r="C273" s="423" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D273" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E273" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F273" s="424" t="s">
         <v>145</v>
@@ -11954,13 +11966,13 @@
     <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="421"/>
       <c r="C274" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D274" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E274" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F274" s="424"/>
       <c r="G274" s="425"/>
@@ -11975,13 +11987,13 @@
         <v>12</v>
       </c>
       <c r="C275" s="442" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D275" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E275" s="443" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F275" s="436" t="s">
         <v>146</v>
@@ -12002,13 +12014,13 @@
     <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="429"/>
       <c r="C276" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D276" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E276" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F276" s="436"/>
       <c r="G276" s="425"/>
@@ -12023,25 +12035,25 @@
         <v>13</v>
       </c>
       <c r="C277" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D277" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E277" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F277" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G277" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H277" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I277" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J277" s="444"/>
       <c r="K277" s="437"/>
@@ -12063,23 +12075,23 @@
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="368"/>
       <c r="C282" s="368" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D282" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E282" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F282" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G282" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H282" s="397"/>
       <c r="I282" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J282" s="358"/>
       <c r="K282" s="358"/>
@@ -12100,14 +12112,14 @@
     </row>
     <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C284" s="398"/>
       <c r="D284" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E284" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F284" s="400" t="n">
         <v>3</v>
@@ -12124,7 +12136,7 @@
     </row>
     <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C285" s="403"/>
       <c r="D285" s="404" t="n">
@@ -12138,7 +12150,7 @@
       </c>
       <c r="H285" s="405"/>
       <c r="I285" s="406" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J285" s="406"/>
       <c r="K285" s="406"/>
@@ -12146,7 +12158,7 @@
     </row>
     <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C286" s="403"/>
       <c r="D286" s="407" t="n">
@@ -12160,7 +12172,7 @@
       </c>
       <c r="H286" s="408"/>
       <c r="I286" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J286" s="406"/>
       <c r="K286" s="406"/>
@@ -12168,18 +12180,18 @@
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="403" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C287" s="403"/>
       <c r="D287" s="409" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E287" s="409"/>
       <c r="F287" s="409"/>
       <c r="G287" s="409"/>
       <c r="H287" s="409"/>
       <c r="I287" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J287" s="410"/>
       <c r="K287" s="410"/>
@@ -12187,7 +12199,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C288" s="412"/>
       <c r="D288" s="413" t="n">
@@ -12198,7 +12210,7 @@
       <c r="G288" s="413"/>
       <c r="H288" s="413"/>
       <c r="I288" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J288" s="406"/>
       <c r="K288" s="406"/>
@@ -12223,11 +12235,11 @@
     </row>
     <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C290" s="416"/>
       <c r="D290" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E290" s="417"/>
       <c r="F290" s="417"/>
@@ -12254,13 +12266,13 @@
     <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="419"/>
       <c r="C292" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D292" s="420"/>
       <c r="E292" s="420"/>
       <c r="F292" s="420"/>
       <c r="G292" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H292" s="180"/>
       <c r="I292" s="180"/>
@@ -12273,13 +12285,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="422" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D293" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E293" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F293" s="424" t="s">
         <v>145</v>
@@ -12300,13 +12312,13 @@
     <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="421"/>
       <c r="C294" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D294" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E294" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F294" s="424"/>
       <c r="G294" s="425"/>
@@ -12321,13 +12333,13 @@
         <v>2</v>
       </c>
       <c r="C295" s="423" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D295" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E295" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F295" s="430" t="s">
         <v>145</v>
@@ -12348,13 +12360,13 @@
     <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="429"/>
       <c r="C296" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D296" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E296" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F296" s="430"/>
       <c r="G296" s="431"/>
@@ -12369,13 +12381,13 @@
         <v>3</v>
       </c>
       <c r="C297" s="423" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D297" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E297" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F297" s="436" t="s">
         <v>146</v>
@@ -12396,13 +12408,13 @@
     <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="421"/>
       <c r="C298" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D298" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E298" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F298" s="436"/>
       <c r="G298" s="425"/>
@@ -12417,13 +12429,13 @@
         <v>4</v>
       </c>
       <c r="C299" s="423" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D299" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E299" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F299" s="436" t="s">
         <v>146</v>
@@ -12444,13 +12456,13 @@
     <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="429"/>
       <c r="C300" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D300" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E300" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F300" s="436"/>
       <c r="G300" s="425"/>
@@ -12465,13 +12477,13 @@
         <v>5</v>
       </c>
       <c r="C301" s="441" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D301" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E301" s="441" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F301" s="424" t="s">
         <v>145</v>
@@ -12492,13 +12504,13 @@
     <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="421"/>
       <c r="C302" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D302" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E302" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F302" s="424"/>
       <c r="G302" s="425"/>
@@ -12513,13 +12525,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="423" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D303" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E303" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F303" s="436" t="s">
         <v>146</v>
@@ -12540,13 +12552,13 @@
     <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="429"/>
       <c r="C304" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D304" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E304" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F304" s="436"/>
       <c r="G304" s="425"/>
@@ -12561,13 +12573,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="423" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D305" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E305" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F305" s="424" t="s">
         <v>145</v>
@@ -12588,13 +12600,13 @@
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="421"/>
       <c r="C306" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D306" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E306" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F306" s="424"/>
       <c r="G306" s="425"/>
@@ -12609,13 +12621,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="423" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D307" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E307" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F307" s="436" t="s">
         <v>146</v>
@@ -12636,13 +12648,13 @@
     <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="429"/>
       <c r="C308" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D308" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E308" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F308" s="436"/>
       <c r="G308" s="425"/>
@@ -12657,13 +12669,13 @@
         <v>9</v>
       </c>
       <c r="C309" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D309" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E309" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F309" s="424" t="s">
         <v>145</v>
@@ -12684,13 +12696,13 @@
     <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="421"/>
       <c r="C310" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D310" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E310" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F310" s="424"/>
       <c r="G310" s="425"/>
@@ -12705,13 +12717,13 @@
         <v>10</v>
       </c>
       <c r="C311" s="423" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D311" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E311" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F311" s="436" t="s">
         <v>146</v>
@@ -12732,13 +12744,13 @@
     <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="429"/>
       <c r="C312" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D312" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E312" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F312" s="436"/>
       <c r="G312" s="425"/>
@@ -12753,13 +12765,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="423" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D313" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E313" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F313" s="424" t="s">
         <v>145</v>
@@ -12780,13 +12792,13 @@
     <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="421"/>
       <c r="C314" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D314" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E314" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F314" s="424"/>
       <c r="G314" s="425"/>
@@ -12801,25 +12813,25 @@
         <v>12</v>
       </c>
       <c r="C315" s="442" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D315" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E315" s="443" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F315" s="436" t="s">
         <v>146</v>
       </c>
       <c r="G315" s="425" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H315" s="425" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I315" s="425" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J315" s="425"/>
       <c r="K315" s="437"/>
@@ -12828,13 +12840,13 @@
     <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="429"/>
       <c r="C316" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D316" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E316" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F316" s="436"/>
       <c r="G316" s="425"/>
@@ -12849,25 +12861,25 @@
         <v>13</v>
       </c>
       <c r="C317" s="423" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D317" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E317" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F317" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G317" s="444" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H317" s="444" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I317" s="444" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J317" s="444"/>
       <c r="K317" s="437"/>
@@ -12876,13 +12888,13 @@
     <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="421"/>
       <c r="C318" s="440" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D318" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E318" s="440" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F318" s="424"/>
       <c r="G318" s="444"/>
@@ -12897,25 +12909,25 @@
         <v>13</v>
       </c>
       <c r="C319" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D319" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E319" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F319" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G319" s="444" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H319" s="444" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I319" s="444" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J319" s="444"/>
       <c r="K319" s="437"/>
@@ -12937,23 +12949,23 @@
     <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="368"/>
       <c r="C324" s="368" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D324" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E324" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F324" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G324" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H324" s="397"/>
       <c r="I324" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J324" s="358"/>
       <c r="K324" s="358"/>
@@ -12974,7 +12986,7 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C326" s="398"/>
       <c r="D326" s="399" t="e">
@@ -12982,7 +12994,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E326" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F326" s="400" t="n">
         <v>4</v>
@@ -12999,7 +13011,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C327" s="403"/>
       <c r="D327" s="404" t="n">
@@ -13014,7 +13026,7 @@
       </c>
       <c r="H327" s="405"/>
       <c r="I327" s="406" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J327" s="406"/>
       <c r="K327" s="406"/>
@@ -13022,7 +13034,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C328" s="403"/>
       <c r="D328" s="407" t="e">
@@ -13037,7 +13049,7 @@
       </c>
       <c r="H328" s="408"/>
       <c r="I328" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J328" s="406"/>
       <c r="K328" s="406"/>
@@ -13045,18 +13057,18 @@
     </row>
     <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="403" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C329" s="403"/>
       <c r="D329" s="409" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E329" s="409"/>
       <c r="F329" s="409"/>
       <c r="G329" s="409"/>
       <c r="H329" s="409"/>
       <c r="I329" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J329" s="410"/>
       <c r="K329" s="410"/>
@@ -13064,7 +13076,7 @@
     </row>
     <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C330" s="412"/>
       <c r="D330" s="413" t="n">
@@ -13075,7 +13087,7 @@
       <c r="G330" s="413"/>
       <c r="H330" s="413"/>
       <c r="I330" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J330" s="406"/>
       <c r="K330" s="406"/>
@@ -13094,7 +13106,7 @@
       <c r="G331" s="414"/>
       <c r="H331" s="414"/>
       <c r="I331" s="406" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J331" s="406"/>
       <c r="K331" s="406"/>
@@ -13102,18 +13114,18 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C332" s="416"/>
       <c r="D332" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E332" s="417"/>
       <c r="F332" s="417"/>
       <c r="G332" s="417"/>
       <c r="H332" s="417"/>
       <c r="I332" s="406" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J332" s="406"/>
       <c r="K332" s="406"/>
@@ -13135,13 +13147,13 @@
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="419"/>
       <c r="C334" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D334" s="420"/>
       <c r="E334" s="420"/>
       <c r="F334" s="420"/>
       <c r="G334" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H334" s="180"/>
       <c r="I334" s="180"/>
@@ -13154,13 +13166,13 @@
         <v>1</v>
       </c>
       <c r="C335" s="422" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D335" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E335" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F335" s="424" t="s">
         <v>145</v>
@@ -13183,13 +13195,13 @@
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="421"/>
       <c r="C336" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D336" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E336" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F336" s="424"/>
       <c r="G336" s="425"/>
@@ -13204,13 +13216,13 @@
         <v>2</v>
       </c>
       <c r="C337" s="423" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D337" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E337" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F337" s="430" t="s">
         <v>145</v>
@@ -13233,13 +13245,13 @@
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="429"/>
       <c r="C338" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D338" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E338" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F338" s="430"/>
       <c r="G338" s="431"/>
@@ -13254,13 +13266,13 @@
         <v>3</v>
       </c>
       <c r="C339" s="423" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D339" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E339" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F339" s="436" t="s">
         <v>146</v>
@@ -13283,13 +13295,13 @@
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="421"/>
       <c r="C340" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D340" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E340" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F340" s="436"/>
       <c r="G340" s="425"/>
@@ -13304,13 +13316,13 @@
         <v>4</v>
       </c>
       <c r="C341" s="423" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D341" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E341" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F341" s="436" t="s">
         <v>146</v>
@@ -13333,13 +13345,13 @@
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="429"/>
       <c r="C342" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D342" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E342" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F342" s="436"/>
       <c r="G342" s="425"/>
@@ -13354,13 +13366,13 @@
         <v>5</v>
       </c>
       <c r="C343" s="441" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D343" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E343" s="441" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F343" s="424" t="s">
         <v>145</v>
@@ -13383,13 +13395,13 @@
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="421"/>
       <c r="C344" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D344" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E344" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F344" s="424"/>
       <c r="G344" s="425"/>
@@ -13404,13 +13416,13 @@
         <v>6</v>
       </c>
       <c r="C345" s="423" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D345" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E345" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F345" s="436" t="s">
         <v>146</v>
@@ -13433,13 +13445,13 @@
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="429"/>
       <c r="C346" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D346" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E346" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F346" s="436"/>
       <c r="G346" s="425"/>
@@ -13454,13 +13466,13 @@
         <v>7</v>
       </c>
       <c r="C347" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D347" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E347" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F347" s="424" t="s">
         <v>145</v>
@@ -13483,13 +13495,13 @@
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="421"/>
       <c r="C348" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D348" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E348" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F348" s="424"/>
       <c r="G348" s="425"/>
@@ -13504,13 +13516,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="423" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D349" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E349" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F349" s="436" t="s">
         <v>146</v>
@@ -13533,13 +13545,13 @@
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="429"/>
       <c r="C350" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D350" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E350" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F350" s="436"/>
       <c r="G350" s="425"/>
@@ -13554,13 +13566,13 @@
         <v>9</v>
       </c>
       <c r="C351" s="423" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D351" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E351" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F351" s="424" t="s">
         <v>145</v>
@@ -13583,13 +13595,13 @@
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="421"/>
       <c r="C352" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D352" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E352" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F352" s="424"/>
       <c r="G352" s="425"/>
@@ -13604,13 +13616,13 @@
         <v>10</v>
       </c>
       <c r="C353" s="423" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D353" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E353" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F353" s="436" t="s">
         <v>146</v>
@@ -13633,13 +13645,13 @@
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="429"/>
       <c r="C354" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D354" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E354" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F354" s="436"/>
       <c r="G354" s="425"/>
@@ -13654,13 +13666,13 @@
         <v>11</v>
       </c>
       <c r="C355" s="423" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D355" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E355" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F355" s="424" t="s">
         <v>145</v>
@@ -13683,13 +13695,13 @@
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="421"/>
       <c r="C356" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D356" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E356" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F356" s="424"/>
       <c r="G356" s="425"/>
@@ -13704,13 +13716,13 @@
         <v>12</v>
       </c>
       <c r="C357" s="442" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D357" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E357" s="443" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F357" s="436" t="s">
         <v>146</v>
@@ -13733,13 +13745,13 @@
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="429"/>
       <c r="C358" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D358" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E358" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F358" s="436"/>
       <c r="G358" s="425"/>
@@ -13754,28 +13766,28 @@
         <v>13</v>
       </c>
       <c r="C359" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D359" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E359" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F359" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G359" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H359" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I359" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J359" s="444" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K359" s="437"/>
       <c r="L359" s="438"/>
@@ -13796,23 +13808,23 @@
     <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="368"/>
       <c r="C365" s="368" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D365" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E365" s="368" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F365" s="368" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G365" s="397" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H365" s="397"/>
       <c r="I365" s="358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J365" s="358"/>
       <c r="K365" s="358"/>
@@ -13833,14 +13845,14 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="398" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C367" s="398"/>
       <c r="D367" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E367" s="400" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F367" s="400" t="n">
         <v>3</v>
@@ -13857,7 +13869,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="403" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C368" s="403"/>
       <c r="D368" s="404" t="n">
@@ -13871,7 +13883,7 @@
       </c>
       <c r="H368" s="405"/>
       <c r="I368" s="406" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J368" s="406"/>
       <c r="K368" s="406"/>
@@ -13879,7 +13891,7 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="403" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C369" s="403"/>
       <c r="D369" s="407" t="n">
@@ -13892,7 +13904,7 @@
       </c>
       <c r="H369" s="408"/>
       <c r="I369" s="406" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J369" s="406"/>
       <c r="K369" s="406"/>
@@ -13900,18 +13912,18 @@
     </row>
     <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="403" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C370" s="403"/>
       <c r="D370" s="409" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E370" s="409"/>
       <c r="F370" s="409"/>
       <c r="G370" s="409"/>
       <c r="H370" s="409"/>
       <c r="I370" s="410" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J370" s="410"/>
       <c r="K370" s="410"/>
@@ -13919,7 +13931,7 @@
     </row>
     <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="411" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C371" s="412"/>
       <c r="D371" s="413" t="n">
@@ -13930,7 +13942,7 @@
       <c r="G371" s="413"/>
       <c r="H371" s="413"/>
       <c r="I371" s="406" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J371" s="406"/>
       <c r="K371" s="406"/>
@@ -13955,11 +13967,11 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="416" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C373" s="416"/>
       <c r="D373" s="417" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E373" s="417"/>
       <c r="F373" s="417"/>
@@ -13986,13 +13998,13 @@
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="419"/>
       <c r="C375" s="420" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D375" s="420"/>
       <c r="E375" s="420"/>
       <c r="F375" s="420"/>
       <c r="G375" s="180" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H375" s="180"/>
       <c r="I375" s="180"/>
@@ -14005,13 +14017,13 @@
         <v>1</v>
       </c>
       <c r="C376" s="422" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D376" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E376" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F376" s="424" t="s">
         <v>145</v>
@@ -14026,13 +14038,13 @@
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="421"/>
       <c r="C377" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D377" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E377" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F377" s="424"/>
       <c r="G377" s="425"/>
@@ -14047,13 +14059,13 @@
         <v>2</v>
       </c>
       <c r="C378" s="422" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D378" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E378" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F378" s="424" t="s">
         <v>145</v>
@@ -14068,13 +14080,13 @@
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="435"/>
       <c r="C379" s="427" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D379" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E379" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F379" s="424"/>
       <c r="G379" s="425"/>
@@ -14089,13 +14101,13 @@
         <v>3</v>
       </c>
       <c r="C380" s="423" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D380" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E380" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F380" s="430" t="s">
         <v>145</v>
@@ -14110,13 +14122,13 @@
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="435"/>
       <c r="C381" s="434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D381" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E381" s="434" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F381" s="445"/>
       <c r="G381" s="446"/>
@@ -14131,13 +14143,13 @@
         <v>4</v>
       </c>
       <c r="C382" s="423" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D382" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E382" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F382" s="448" t="s">
         <v>146</v>
@@ -14152,13 +14164,13 @@
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="435"/>
       <c r="C383" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D383" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E383" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F383" s="449"/>
       <c r="G383" s="446"/>
@@ -14173,13 +14185,13 @@
         <v>5</v>
       </c>
       <c r="C384" s="423" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D384" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E384" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F384" s="448" t="s">
         <v>146</v>
@@ -14194,13 +14206,13 @@
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="435"/>
       <c r="C385" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D385" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E385" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F385" s="449"/>
       <c r="G385" s="446"/>
@@ -14215,13 +14227,13 @@
         <v>6</v>
       </c>
       <c r="C386" s="441" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D386" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E386" s="441" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F386" s="430" t="s">
         <v>145</v>
@@ -14236,13 +14248,13 @@
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="435"/>
       <c r="C387" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D387" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E387" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F387" s="445"/>
       <c r="G387" s="446"/>
@@ -14257,13 +14269,13 @@
         <v>7</v>
       </c>
       <c r="C388" s="423" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D388" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E388" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F388" s="448" t="s">
         <v>146</v>
@@ -14278,13 +14290,13 @@
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="435"/>
       <c r="C389" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D389" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E389" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F389" s="449"/>
       <c r="G389" s="446"/>
@@ -14299,13 +14311,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="423" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D390" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E390" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F390" s="430" t="s">
         <v>145</v>
@@ -14320,13 +14332,13 @@
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="435"/>
       <c r="C391" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D391" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E391" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F391" s="445"/>
       <c r="G391" s="446"/>
@@ -14341,13 +14353,13 @@
         <v>9</v>
       </c>
       <c r="C392" s="423" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D392" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E392" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F392" s="448" t="s">
         <v>146</v>
@@ -14362,13 +14374,13 @@
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="435"/>
       <c r="C393" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D393" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E393" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F393" s="449"/>
       <c r="G393" s="446"/>
@@ -14383,13 +14395,13 @@
         <v>10</v>
       </c>
       <c r="C394" s="423" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D394" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E394" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F394" s="430" t="s">
         <v>145</v>
@@ -14404,13 +14416,13 @@
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="435"/>
       <c r="C395" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D395" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E395" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F395" s="445"/>
       <c r="G395" s="446"/>
@@ -14425,13 +14437,13 @@
         <v>11</v>
       </c>
       <c r="C396" s="423" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D396" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E396" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F396" s="448" t="s">
         <v>146</v>
@@ -14446,13 +14458,13 @@
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="435"/>
       <c r="C397" s="439" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D397" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E397" s="439" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F397" s="449"/>
       <c r="G397" s="446"/>
@@ -14467,13 +14479,13 @@
         <v>12</v>
       </c>
       <c r="C398" s="423" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D398" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E398" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F398" s="430" t="s">
         <v>145</v>
@@ -14488,13 +14500,13 @@
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="435"/>
       <c r="C399" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D399" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E399" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F399" s="445"/>
       <c r="G399" s="446"/>
@@ -14509,13 +14521,13 @@
         <v>13</v>
       </c>
       <c r="C400" s="442" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D400" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E400" s="443" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F400" s="448" t="s">
         <v>146</v>
@@ -14530,13 +14542,13 @@
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="435"/>
       <c r="C401" s="428" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D401" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E401" s="428" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F401" s="449"/>
       <c r="G401" s="446"/>
@@ -14551,13 +14563,13 @@
         <v>14</v>
       </c>
       <c r="C402" s="423" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D402" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E402" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F402" s="430" t="s">
         <v>145</v>
@@ -14572,13 +14584,13 @@
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="435"/>
       <c r="C403" s="440" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D403" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E403" s="440" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F403" s="445"/>
       <c r="G403" s="451"/>
@@ -14593,13 +14605,13 @@
         <v>15</v>
       </c>
       <c r="C404" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D404" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E404" s="423" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F404" s="430" t="s">
         <v>145</v>
@@ -15956,24 +15968,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="452" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B1" s="453" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B2" s="453" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="цели на сезон" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="339">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -811,7 +811,7 @@
     <t xml:space="preserve">ДИС(25)+СКИ(15)+ССИ/ОСИ(20)</t>
   </si>
   <si>
-    <t xml:space="preserve">ДИС(52)+ССИ/ОСИ (12)</t>
+    <t xml:space="preserve">ДИС(52)+ССИ/ОСИ (25)</t>
   </si>
   <si>
     <t xml:space="preserve">ССИ/ОСИ (60)+СКИ(10)</t>
@@ -820,13 +820,16 @@
     <t xml:space="preserve">СВД(177)</t>
   </si>
   <si>
-    <t xml:space="preserve">ССИ/ОСИ (35)+ГРИ(9)+СОР(15)</t>
+    <t xml:space="preserve">ССИ/ОСИ (20)+ГРИ(9)+СОР(15)</t>
   </si>
   <si>
     <t xml:space="preserve">Бег в лесу, разминка, затем 40 минут ДИС и ГРИ 27 минут. Итого отбегала 16 км, чувствовала себя хорошо. Луна светила как фонарь, моя тень бежала со мной)) В бассейн не успела. Ну и ладно. Очень много народу, не тянет туда в последнее время.</t>
   </si>
   <si>
-    <t xml:space="preserve">Разминка, СКИ 15 минут – хотела 25, но не хватило сил. После вторника напряжно, мышцы расстраиваются. Затем просто ДИС. И все равно, как бы тяжеловато не было, ГРИ и СКИ мои любимые. ССИ/ОСИ 20 минут.</t>
+    <t xml:space="preserve">Разминка, следом СКИ 15 минут – хотела 25, но не хватило сил. После вторника напряжно, мышцы расстраиваются. Затем просто ДИС. И все равно, как бы тяжеловато не было, ГРИ и СКИ мои любимые. Поставила случайно рекорд во время СКИ: 1км – 4.05мин. Затем ССИ/ОСИ 20 минут.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Силовая в 23 мкр – 20 минут, никого не было, погода самый класс. Свежо и прохладно. Потом пробежалась ДИС, ровно 52 минуты, вышло 10 км с небольшим и снова:  1км – 4.05 мин, но это не было СКИ, была просто ДИС. Видимо пошло хорошо)) Бежалось вообще очень легко. Пульс ровный. Местами поднимался до 170, но это не критично.</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -3792,7 +3795,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4018,12 +4021,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="47032178"/>
-        <c:axId val="21440307"/>
+        <c:axId val="29591451"/>
+        <c:axId val="77378379"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="47032178"/>
+        <c:axId val="29591451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4056,14 +4059,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21440307"/>
+        <c:crossAx val="77378379"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21440307"/>
+        <c:axId val="77378379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4144,7 +4147,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47032178"/>
+        <c:crossAx val="29591451"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4187,9 +4190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
+      <xdr:colOff>608040</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4198,7 +4201,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4386960" cy="2645280"/>
+        <a:ext cx="4386240" cy="2644560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5437,8 +5440,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5966,7 +5969,9 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21" t="n">
+        <v>4</v>
+      </c>
       <c r="G27" s="21" t="n">
         <v>56.5</v>
       </c>
@@ -5977,10 +5982,12 @@
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="377"/>
       <c r="B28" s="373"/>
-      <c r="C28" s="389"/>
+      <c r="C28" s="389" t="s">
+        <v>256</v>
+      </c>
       <c r="D28" s="389"/>
       <c r="E28" s="389"/>
       <c r="F28" s="389"/>
@@ -5990,7 +5997,7 @@
       <c r="J28" s="389"/>
       <c r="K28" s="389"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="377"/>
       <c r="B29" s="373"/>
       <c r="C29" s="389"/>
@@ -6014,8 +6021,12 @@
       <c r="D30" s="374"/>
       <c r="E30" s="374"/>
       <c r="F30" s="395"/>
-      <c r="G30" s="374"/>
-      <c r="H30" s="374"/>
+      <c r="G30" s="374" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H30" s="374" t="n">
+        <v>6.32</v>
+      </c>
       <c r="I30" s="383"/>
       <c r="J30" s="383"/>
       <c r="K30" s="383"/>
@@ -6190,10 +6201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:L405"/>
+  <dimension ref="B1:L449"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D372" activeCellId="0" sqref="D372"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A399" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R408" activeCellId="0" sqref="R408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6210,23 +6221,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G1" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H1" s="397"/>
       <c r="I1" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -6247,7 +6258,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C3" s="398"/>
       <c r="D3" s="399" t="n">
@@ -6255,7 +6266,7 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F3" s="400" t="n">
         <v>4</v>
@@ -6266,7 +6277,7 @@
       </c>
       <c r="H3" s="401"/>
       <c r="I3" s="402" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J3" s="402"/>
       <c r="K3" s="402"/>
@@ -6274,7 +6285,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C4" s="403"/>
       <c r="D4" s="404" t="n">
@@ -6289,7 +6300,7 @@
       </c>
       <c r="H4" s="405"/>
       <c r="I4" s="406" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J4" s="406"/>
       <c r="K4" s="406"/>
@@ -6297,7 +6308,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C5" s="403"/>
       <c r="D5" s="407" t="n">
@@ -6312,7 +6323,7 @@
       </c>
       <c r="H5" s="408"/>
       <c r="I5" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J5" s="406"/>
       <c r="K5" s="406"/>
@@ -6320,7 +6331,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="403" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C6" s="403"/>
       <c r="D6" s="409" t="n">
@@ -6332,7 +6343,7 @@
       <c r="G6" s="409"/>
       <c r="H6" s="409"/>
       <c r="I6" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J6" s="410"/>
       <c r="K6" s="410"/>
@@ -6340,7 +6351,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C7" s="412"/>
       <c r="D7" s="413" t="n">
@@ -6352,7 +6363,7 @@
       <c r="G7" s="413"/>
       <c r="H7" s="413"/>
       <c r="I7" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J7" s="406"/>
       <c r="K7" s="406"/>
@@ -6377,11 +6388,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C9" s="416"/>
       <c r="D9" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E9" s="417"/>
       <c r="F9" s="417"/>
@@ -6408,13 +6419,13 @@
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="419"/>
       <c r="C11" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D11" s="420"/>
       <c r="E11" s="420"/>
       <c r="F11" s="420"/>
       <c r="G11" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -6427,13 +6438,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="422" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D12" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F12" s="424" t="s">
         <v>145</v>
@@ -6456,13 +6467,13 @@
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="421"/>
       <c r="C13" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D13" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E13" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F13" s="424"/>
       <c r="G13" s="425"/>
@@ -6477,13 +6488,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D14" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E14" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F14" s="430" t="s">
         <v>145</v>
@@ -6506,13 +6517,13 @@
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="429"/>
       <c r="C15" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D15" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E15" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F15" s="430"/>
       <c r="G15" s="431"/>
@@ -6527,13 +6538,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D16" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F16" s="436" t="s">
         <v>146</v>
@@ -6556,13 +6567,13 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="435"/>
       <c r="C17" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D17" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F17" s="436"/>
       <c r="G17" s="425"/>
@@ -6577,13 +6588,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D18" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F18" s="436" t="s">
         <v>146</v>
@@ -6606,13 +6617,13 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="435"/>
       <c r="C19" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D19" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F19" s="436"/>
       <c r="G19" s="425"/>
@@ -6627,13 +6638,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="423" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D20" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F20" s="424" t="s">
         <v>145</v>
@@ -6656,13 +6667,13 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="435"/>
       <c r="C21" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D21" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E21" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F21" s="424"/>
       <c r="G21" s="425"/>
@@ -6677,13 +6688,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D22" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F22" s="436" t="s">
         <v>146</v>
@@ -6706,13 +6717,13 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="435"/>
       <c r="C23" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D23" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E23" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F23" s="436"/>
       <c r="G23" s="425"/>
@@ -6727,13 +6738,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D24" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F24" s="424" t="s">
         <v>145</v>
@@ -6756,13 +6767,13 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="435"/>
       <c r="C25" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D25" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E25" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F25" s="424"/>
       <c r="G25" s="425"/>
@@ -6777,13 +6788,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D26" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F26" s="436" t="s">
         <v>146</v>
@@ -6806,13 +6817,13 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="435"/>
       <c r="C27" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D27" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E27" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F27" s="436"/>
       <c r="G27" s="425"/>
@@ -6827,13 +6838,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D28" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E28" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F28" s="424" t="s">
         <v>145</v>
@@ -6856,13 +6867,13 @@
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="435"/>
       <c r="C29" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D29" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E29" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F29" s="424"/>
       <c r="G29" s="425"/>
@@ -6877,13 +6888,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D30" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E30" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F30" s="424" t="s">
         <v>145</v>
@@ -6906,13 +6917,13 @@
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="435"/>
       <c r="C31" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D31" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E31" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F31" s="424"/>
       <c r="G31" s="425"/>
@@ -6927,13 +6938,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D32" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E32" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F32" s="436" t="s">
         <v>146</v>
@@ -6956,13 +6967,13 @@
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="435"/>
       <c r="C33" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D33" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E33" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F33" s="436"/>
       <c r="G33" s="425"/>
@@ -6977,28 +6988,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D34" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E34" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F34" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G34" s="425" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H34" s="425" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I34" s="425" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J34" s="425" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K34" s="437"/>
       <c r="L34" s="438"/>
@@ -7019,23 +7030,23 @@
     <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G40" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H40" s="397"/>
       <c r="I40" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -7056,7 +7067,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C42" s="398"/>
       <c r="D42" s="399" t="n">
@@ -7064,7 +7075,7 @@
         <v>6.2</v>
       </c>
       <c r="E42" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F42" s="400" t="n">
         <v>4</v>
@@ -7075,7 +7086,7 @@
       </c>
       <c r="H42" s="401"/>
       <c r="I42" s="402" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J42" s="402"/>
       <c r="K42" s="402"/>
@@ -7083,7 +7094,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C43" s="403"/>
       <c r="D43" s="404" t="n">
@@ -7098,7 +7109,7 @@
       </c>
       <c r="H43" s="405"/>
       <c r="I43" s="406" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J43" s="406"/>
       <c r="K43" s="406"/>
@@ -7106,7 +7117,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C44" s="403"/>
       <c r="D44" s="407" t="n">
@@ -7121,7 +7132,7 @@
       </c>
       <c r="H44" s="408"/>
       <c r="I44" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J44" s="406"/>
       <c r="K44" s="406"/>
@@ -7129,7 +7140,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="403" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C45" s="403"/>
       <c r="D45" s="409" t="n">
@@ -7141,7 +7152,7 @@
       <c r="G45" s="409"/>
       <c r="H45" s="409"/>
       <c r="I45" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J45" s="410"/>
       <c r="K45" s="410"/>
@@ -7149,7 +7160,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C46" s="412"/>
       <c r="D46" s="413" t="n">
@@ -7161,7 +7172,7 @@
       <c r="G46" s="413"/>
       <c r="H46" s="413"/>
       <c r="I46" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J46" s="406"/>
       <c r="K46" s="406"/>
@@ -7180,7 +7191,7 @@
       <c r="G47" s="414"/>
       <c r="H47" s="414"/>
       <c r="I47" s="406" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J47" s="406"/>
       <c r="K47" s="406"/>
@@ -7188,18 +7199,18 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C48" s="416"/>
       <c r="D48" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E48" s="417"/>
       <c r="F48" s="417"/>
       <c r="G48" s="417"/>
       <c r="H48" s="417"/>
       <c r="I48" s="406" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J48" s="406"/>
       <c r="K48" s="406"/>
@@ -7221,13 +7232,13 @@
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="419"/>
       <c r="C50" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D50" s="420"/>
       <c r="E50" s="420"/>
       <c r="F50" s="420"/>
       <c r="G50" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -7240,13 +7251,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="422" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D51" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E51" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F51" s="424" t="s">
         <v>145</v>
@@ -7269,13 +7280,13 @@
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="421"/>
       <c r="C52" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D52" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E52" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F52" s="424"/>
       <c r="G52" s="425"/>
@@ -7290,13 +7301,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D53" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E53" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F53" s="430" t="s">
         <v>145</v>
@@ -7319,13 +7330,13 @@
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="429"/>
       <c r="C54" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D54" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E54" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F54" s="430"/>
       <c r="G54" s="431"/>
@@ -7340,13 +7351,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D55" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E55" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F55" s="436" t="s">
         <v>146</v>
@@ -7369,13 +7380,13 @@
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="421"/>
       <c r="C56" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D56" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E56" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F56" s="436"/>
       <c r="G56" s="425"/>
@@ -7390,13 +7401,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D57" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E57" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F57" s="436" t="s">
         <v>146</v>
@@ -7419,13 +7430,13 @@
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="429"/>
       <c r="C58" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D58" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E58" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F58" s="436"/>
       <c r="G58" s="425"/>
@@ -7440,28 +7451,28 @@
         <v>5</v>
       </c>
       <c r="C59" s="441" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D59" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E59" s="441" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F59" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G59" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H59" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I59" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J59" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K59" s="437"/>
       <c r="L59" s="438"/>
@@ -7469,13 +7480,13 @@
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="421"/>
       <c r="C60" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D60" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E60" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F60" s="424"/>
       <c r="G60" s="425"/>
@@ -7490,13 +7501,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D61" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E61" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F61" s="436" t="s">
         <v>146</v>
@@ -7519,13 +7530,13 @@
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="429"/>
       <c r="C62" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D62" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E62" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F62" s="436"/>
       <c r="G62" s="425"/>
@@ -7540,13 +7551,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D63" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E63" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F63" s="424" t="s">
         <v>145</v>
@@ -7569,13 +7580,13 @@
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="421"/>
       <c r="C64" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D64" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E64" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F64" s="424"/>
       <c r="G64" s="425"/>
@@ -7590,13 +7601,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D65" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E65" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F65" s="436" t="s">
         <v>146</v>
@@ -7619,13 +7630,13 @@
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="429"/>
       <c r="C66" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D66" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E66" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F66" s="436"/>
       <c r="G66" s="425"/>
@@ -7640,13 +7651,13 @@
         <v>9</v>
       </c>
       <c r="C67" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D67" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F67" s="424" t="s">
         <v>145</v>
@@ -7669,13 +7680,13 @@
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="421"/>
       <c r="C68" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D68" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E68" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F68" s="424"/>
       <c r="G68" s="425"/>
@@ -7690,13 +7701,13 @@
         <v>10</v>
       </c>
       <c r="C69" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D69" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E69" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F69" s="436" t="s">
         <v>146</v>
@@ -7719,13 +7730,13 @@
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="429"/>
       <c r="C70" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D70" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E70" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F70" s="436"/>
       <c r="G70" s="425"/>
@@ -7740,13 +7751,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="423" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D71" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F71" s="424" t="s">
         <v>145</v>
@@ -7773,7 +7784,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="440" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F72" s="424"/>
       <c r="G72" s="425"/>
@@ -7788,13 +7799,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="442" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D73" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E73" s="443" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F73" s="436" t="s">
         <v>146</v>
@@ -7821,7 +7832,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="440" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F74" s="436"/>
       <c r="G74" s="425"/>
@@ -7836,28 +7847,28 @@
         <v>13</v>
       </c>
       <c r="C75" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D75" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E75" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F75" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G75" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H75" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I75" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J75" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K75" s="437"/>
       <c r="L75" s="438"/>
@@ -7878,23 +7889,23 @@
     <row r="80" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G80" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H80" s="397"/>
       <c r="I80" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -7915,7 +7926,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C82" s="398"/>
       <c r="D82" s="399" t="n">
@@ -7923,7 +7934,7 @@
         <v>6.2</v>
       </c>
       <c r="E82" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F82" s="400" t="n">
         <v>4</v>
@@ -7934,7 +7945,7 @@
       </c>
       <c r="H82" s="401"/>
       <c r="I82" s="402" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J82" s="402"/>
       <c r="K82" s="402"/>
@@ -7942,7 +7953,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C83" s="403"/>
       <c r="D83" s="404" t="n">
@@ -7957,7 +7968,7 @@
       </c>
       <c r="H83" s="405"/>
       <c r="I83" s="406" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J83" s="406"/>
       <c r="K83" s="406"/>
@@ -7965,7 +7976,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C84" s="403"/>
       <c r="D84" s="407" t="n">
@@ -7980,7 +7991,7 @@
       </c>
       <c r="H84" s="408"/>
       <c r="I84" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J84" s="406"/>
       <c r="K84" s="406"/>
@@ -7988,7 +7999,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="403" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C85" s="403"/>
       <c r="D85" s="409" t="n">
@@ -8000,7 +8011,7 @@
       <c r="G85" s="409"/>
       <c r="H85" s="409"/>
       <c r="I85" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J85" s="410"/>
       <c r="K85" s="410"/>
@@ -8008,7 +8019,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C86" s="412"/>
       <c r="D86" s="413" t="n">
@@ -8020,7 +8031,7 @@
       <c r="G86" s="413"/>
       <c r="H86" s="413"/>
       <c r="I86" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J86" s="406"/>
       <c r="K86" s="406"/>
@@ -8039,7 +8050,7 @@
       <c r="G87" s="414"/>
       <c r="H87" s="414"/>
       <c r="I87" s="406" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J87" s="406"/>
       <c r="K87" s="406"/>
@@ -8047,18 +8058,18 @@
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C88" s="416"/>
       <c r="D88" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E88" s="417"/>
       <c r="F88" s="417"/>
       <c r="G88" s="417"/>
       <c r="H88" s="417"/>
       <c r="I88" s="406" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J88" s="406"/>
       <c r="K88" s="406"/>
@@ -8080,13 +8091,13 @@
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="419"/>
       <c r="C90" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D90" s="420"/>
       <c r="E90" s="420"/>
       <c r="F90" s="420"/>
       <c r="G90" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -8099,13 +8110,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="422" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D91" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E91" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F91" s="424" t="s">
         <v>145</v>
@@ -8128,13 +8139,13 @@
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="421"/>
       <c r="C92" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D92" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E92" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F92" s="424"/>
       <c r="G92" s="425"/>
@@ -8149,13 +8160,13 @@
         <v>2</v>
       </c>
       <c r="C93" s="423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D93" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E93" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F93" s="430" t="s">
         <v>145</v>
@@ -8178,13 +8189,13 @@
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="429"/>
       <c r="C94" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D94" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E94" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F94" s="430"/>
       <c r="G94" s="431"/>
@@ -8199,13 +8210,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D95" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E95" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F95" s="436" t="s">
         <v>146</v>
@@ -8228,13 +8239,13 @@
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="421"/>
       <c r="C96" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D96" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E96" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F96" s="436"/>
       <c r="G96" s="425"/>
@@ -8249,13 +8260,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E97" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F97" s="436" t="s">
         <v>146</v>
@@ -8278,13 +8289,13 @@
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="429"/>
       <c r="C98" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E98" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F98" s="436"/>
       <c r="G98" s="425"/>
@@ -8299,28 +8310,28 @@
         <v>5</v>
       </c>
       <c r="C99" s="441" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D99" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E99" s="441" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F99" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G99" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H99" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I99" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J99" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K99" s="437"/>
       <c r="L99" s="438"/>
@@ -8328,13 +8339,13 @@
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="421"/>
       <c r="C100" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E100" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F100" s="424"/>
       <c r="G100" s="425"/>
@@ -8349,13 +8360,13 @@
         <v>6</v>
       </c>
       <c r="C101" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E101" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F101" s="436" t="s">
         <v>146</v>
@@ -8378,13 +8389,13 @@
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="429"/>
       <c r="C102" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E102" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F102" s="436"/>
       <c r="G102" s="425"/>
@@ -8399,13 +8410,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D103" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E103" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F103" s="424" t="s">
         <v>145</v>
@@ -8428,13 +8439,13 @@
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="421"/>
       <c r="C104" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D104" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E104" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F104" s="424"/>
       <c r="G104" s="425"/>
@@ -8449,13 +8460,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E105" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F105" s="436" t="s">
         <v>146</v>
@@ -8478,13 +8489,13 @@
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="429"/>
       <c r="C106" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D106" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E106" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F106" s="436"/>
       <c r="G106" s="425"/>
@@ -8499,13 +8510,13 @@
         <v>9</v>
       </c>
       <c r="C107" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D107" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E107" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F107" s="424" t="s">
         <v>145</v>
@@ -8528,13 +8539,13 @@
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="421"/>
       <c r="C108" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D108" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E108" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F108" s="424"/>
       <c r="G108" s="425"/>
@@ -8549,13 +8560,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D109" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E109" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F109" s="436" t="s">
         <v>146</v>
@@ -8578,13 +8589,13 @@
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="429"/>
       <c r="C110" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D110" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E110" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F110" s="436"/>
       <c r="G110" s="425"/>
@@ -8599,13 +8610,13 @@
         <v>11</v>
       </c>
       <c r="C111" s="423" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D111" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E111" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F111" s="424" t="s">
         <v>145</v>
@@ -8632,7 +8643,7 @@
         <v>22</v>
       </c>
       <c r="E112" s="440" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F112" s="424"/>
       <c r="G112" s="425"/>
@@ -8647,13 +8658,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="442" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D113" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E113" s="443" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F113" s="436" t="s">
         <v>146</v>
@@ -8680,7 +8691,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="440" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F114" s="436"/>
       <c r="G114" s="425"/>
@@ -8695,28 +8706,28 @@
         <v>13</v>
       </c>
       <c r="C115" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D115" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E115" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F115" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G115" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H115" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I115" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J115" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K115" s="437"/>
       <c r="L115" s="438"/>
@@ -8737,23 +8748,23 @@
     <row r="121" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G121" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H121" s="397"/>
       <c r="I121" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -8774,7 +8785,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C123" s="398"/>
       <c r="D123" s="399" t="n">
@@ -8782,7 +8793,7 @@
         <v>7.23333333333333</v>
       </c>
       <c r="E123" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F123" s="400" t="n">
         <v>4</v>
@@ -8799,7 +8810,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C124" s="403"/>
       <c r="D124" s="404" t="n">
@@ -8814,7 +8825,7 @@
       </c>
       <c r="H124" s="405"/>
       <c r="I124" s="406" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J124" s="406"/>
       <c r="K124" s="406"/>
@@ -8822,7 +8833,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C125" s="403"/>
       <c r="D125" s="407" t="n">
@@ -8837,7 +8848,7 @@
       </c>
       <c r="H125" s="408"/>
       <c r="I125" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J125" s="406"/>
       <c r="K125" s="406"/>
@@ -8845,7 +8856,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="403" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C126" s="403"/>
       <c r="D126" s="409" t="n">
@@ -8857,7 +8868,7 @@
       <c r="G126" s="409"/>
       <c r="H126" s="409"/>
       <c r="I126" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J126" s="410"/>
       <c r="K126" s="410"/>
@@ -8865,7 +8876,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C127" s="412"/>
       <c r="D127" s="413" t="n">
@@ -8877,7 +8888,7 @@
       <c r="G127" s="413"/>
       <c r="H127" s="413"/>
       <c r="I127" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J127" s="406"/>
       <c r="K127" s="406"/>
@@ -8896,7 +8907,7 @@
       <c r="G128" s="414"/>
       <c r="H128" s="414"/>
       <c r="I128" s="406" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J128" s="406"/>
       <c r="K128" s="406"/>
@@ -8904,18 +8915,18 @@
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C129" s="416"/>
       <c r="D129" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
       <c r="G129" s="417"/>
       <c r="H129" s="417"/>
       <c r="I129" s="406" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J129" s="406"/>
       <c r="K129" s="406"/>
@@ -8937,13 +8948,13 @@
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="419"/>
       <c r="C131" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D131" s="420"/>
       <c r="E131" s="420"/>
       <c r="F131" s="420"/>
       <c r="G131" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -8956,13 +8967,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="422" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D132" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E132" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F132" s="424" t="s">
         <v>145</v>
@@ -8985,13 +8996,13 @@
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="421"/>
       <c r="C133" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D133" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E133" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F133" s="424"/>
       <c r="G133" s="425"/>
@@ -9006,13 +9017,13 @@
         <v>2</v>
       </c>
       <c r="C134" s="423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D134" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E134" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F134" s="430" t="s">
         <v>145</v>
@@ -9035,13 +9046,13 @@
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="429"/>
       <c r="C135" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D135" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E135" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F135" s="430"/>
       <c r="G135" s="431"/>
@@ -9056,13 +9067,13 @@
         <v>3</v>
       </c>
       <c r="C136" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D136" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E136" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F136" s="436" t="s">
         <v>146</v>
@@ -9085,13 +9096,13 @@
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="421"/>
       <c r="C137" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D137" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E137" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F137" s="436"/>
       <c r="G137" s="425"/>
@@ -9106,13 +9117,13 @@
         <v>4</v>
       </c>
       <c r="C138" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D138" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E138" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F138" s="436" t="s">
         <v>146</v>
@@ -9135,13 +9146,13 @@
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="429"/>
       <c r="C139" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D139" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E139" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F139" s="436"/>
       <c r="G139" s="425"/>
@@ -9156,13 +9167,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="441" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D140" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E140" s="441" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F140" s="424" t="s">
         <v>145</v>
@@ -9185,13 +9196,13 @@
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="421"/>
       <c r="C141" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D141" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E141" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F141" s="424"/>
       <c r="G141" s="425"/>
@@ -9206,13 +9217,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D142" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E142" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F142" s="436" t="s">
         <v>146</v>
@@ -9235,13 +9246,13 @@
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="429"/>
       <c r="C143" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D143" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E143" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F143" s="436"/>
       <c r="G143" s="425"/>
@@ -9256,13 +9267,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D144" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E144" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F144" s="424" t="s">
         <v>145</v>
@@ -9285,13 +9296,13 @@
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="421"/>
       <c r="C145" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D145" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E145" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F145" s="424"/>
       <c r="G145" s="425"/>
@@ -9306,13 +9317,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D146" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E146" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F146" s="436" t="s">
         <v>146</v>
@@ -9335,13 +9346,13 @@
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="429"/>
       <c r="C147" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D147" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E147" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F147" s="436"/>
       <c r="G147" s="425"/>
@@ -9356,13 +9367,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D148" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E148" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F148" s="424" t="s">
         <v>145</v>
@@ -9385,13 +9396,13 @@
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="421"/>
       <c r="C149" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D149" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E149" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F149" s="424"/>
       <c r="G149" s="425"/>
@@ -9406,13 +9417,13 @@
         <v>10</v>
       </c>
       <c r="C150" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D150" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E150" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F150" s="436" t="s">
         <v>146</v>
@@ -9435,13 +9446,13 @@
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="429"/>
       <c r="C151" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D151" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E151" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F151" s="436"/>
       <c r="G151" s="425"/>
@@ -9456,13 +9467,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="423" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D152" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E152" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F152" s="424" t="s">
         <v>145</v>
@@ -9485,13 +9496,13 @@
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="421"/>
       <c r="C153" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D153" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E153" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F153" s="424"/>
       <c r="G153" s="425"/>
@@ -9506,13 +9517,13 @@
         <v>12</v>
       </c>
       <c r="C154" s="442" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D154" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E154" s="443" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F154" s="436" t="s">
         <v>146</v>
@@ -9535,13 +9546,13 @@
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="429"/>
       <c r="C155" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D155" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E155" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F155" s="436"/>
       <c r="G155" s="425"/>
@@ -9556,13 +9567,13 @@
         <v>13</v>
       </c>
       <c r="C156" s="423" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D156" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E156" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F156" s="424" t="s">
         <v>145</v>
@@ -9585,13 +9596,13 @@
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="421"/>
       <c r="C157" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D157" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E157" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F157" s="424"/>
       <c r="G157" s="425"/>
@@ -9606,28 +9617,28 @@
         <v>14</v>
       </c>
       <c r="C158" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D158" s="423" t="n">
         <v>140</v>
       </c>
       <c r="E158" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F158" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G158" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H158" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I158" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J158" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K158" s="437"/>
       <c r="L158" s="438"/>
@@ -9648,23 +9659,23 @@
     <row r="164" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G164" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H164" s="397"/>
       <c r="I164" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -9685,7 +9696,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C166" s="398"/>
       <c r="D166" s="399" t="n">
@@ -9693,7 +9704,7 @@
         <v>7.2</v>
       </c>
       <c r="E166" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F166" s="400" t="n">
         <v>2</v>
@@ -9704,7 +9715,7 @@
       </c>
       <c r="H166" s="401"/>
       <c r="I166" s="402" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J166" s="402"/>
       <c r="K166" s="402"/>
@@ -9712,7 +9723,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C167" s="403"/>
       <c r="D167" s="404" t="n">
@@ -9727,7 +9738,7 @@
       </c>
       <c r="H167" s="405"/>
       <c r="I167" s="406" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J167" s="406"/>
       <c r="K167" s="406"/>
@@ -9735,7 +9746,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C168" s="403"/>
       <c r="D168" s="407" t="n">
@@ -9750,7 +9761,7 @@
       </c>
       <c r="H168" s="408"/>
       <c r="I168" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J168" s="406"/>
       <c r="K168" s="406"/>
@@ -9758,7 +9769,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="403" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C169" s="403"/>
       <c r="D169" s="409" t="n">
@@ -9770,7 +9781,7 @@
       <c r="G169" s="409"/>
       <c r="H169" s="409"/>
       <c r="I169" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J169" s="410"/>
       <c r="K169" s="410"/>
@@ -9778,7 +9789,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C170" s="412"/>
       <c r="D170" s="413" t="n">
@@ -9790,7 +9801,7 @@
       <c r="G170" s="413"/>
       <c r="H170" s="413"/>
       <c r="I170" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J170" s="406"/>
       <c r="K170" s="406"/>
@@ -9815,11 +9826,11 @@
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C172" s="416"/>
       <c r="D172" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E172" s="417"/>
       <c r="F172" s="417"/>
@@ -9846,13 +9857,13 @@
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="419"/>
       <c r="C174" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D174" s="420"/>
       <c r="E174" s="420"/>
       <c r="F174" s="420"/>
       <c r="G174" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -9865,13 +9876,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="422" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D175" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E175" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F175" s="424" t="s">
         <v>145</v>
@@ -9890,13 +9901,13 @@
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="421"/>
       <c r="C176" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D176" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E176" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F176" s="424"/>
       <c r="G176" s="425"/>
@@ -9911,13 +9922,13 @@
         <v>2</v>
       </c>
       <c r="C177" s="423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D177" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E177" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F177" s="430" t="s">
         <v>145</v>
@@ -9936,13 +9947,13 @@
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="429"/>
       <c r="C178" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D178" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E178" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F178" s="430"/>
       <c r="G178" s="431"/>
@@ -9957,13 +9968,13 @@
         <v>3</v>
       </c>
       <c r="C179" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D179" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E179" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F179" s="436" t="s">
         <v>146</v>
@@ -9982,13 +9993,13 @@
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="435"/>
       <c r="C180" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D180" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E180" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F180" s="436"/>
       <c r="G180" s="425"/>
@@ -10003,13 +10014,13 @@
         <v>4</v>
       </c>
       <c r="C181" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D181" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E181" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F181" s="436" t="s">
         <v>146</v>
@@ -10028,13 +10039,13 @@
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="435"/>
       <c r="C182" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D182" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E182" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F182" s="436"/>
       <c r="G182" s="425"/>
@@ -10049,13 +10060,13 @@
         <v>5</v>
       </c>
       <c r="C183" s="423" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D183" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E183" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F183" s="424" t="s">
         <v>145</v>
@@ -10074,13 +10085,13 @@
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="435"/>
       <c r="C184" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D184" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E184" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F184" s="424"/>
       <c r="G184" s="425"/>
@@ -10095,13 +10106,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D185" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E185" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F185" s="436" t="s">
         <v>146</v>
@@ -10120,13 +10131,13 @@
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="435"/>
       <c r="C186" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D186" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E186" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F186" s="436"/>
       <c r="G186" s="425"/>
@@ -10141,13 +10152,13 @@
         <v>7</v>
       </c>
       <c r="C187" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D187" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E187" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F187" s="424" t="s">
         <v>145</v>
@@ -10166,13 +10177,13 @@
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="435"/>
       <c r="C188" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D188" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E188" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F188" s="424"/>
       <c r="G188" s="425"/>
@@ -10187,13 +10198,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D189" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E189" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F189" s="436" t="s">
         <v>146</v>
@@ -10212,13 +10223,13 @@
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="435"/>
       <c r="C190" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D190" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E190" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F190" s="436"/>
       <c r="G190" s="425"/>
@@ -10233,13 +10244,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="423" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D191" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E191" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F191" s="424" t="s">
         <v>145</v>
@@ -10258,13 +10269,13 @@
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="435"/>
       <c r="C192" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D192" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E192" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F192" s="424"/>
       <c r="G192" s="425"/>
@@ -10279,13 +10290,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D193" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E193" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F193" s="424" t="s">
         <v>145</v>
@@ -10304,13 +10315,13 @@
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="435"/>
       <c r="C194" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D194" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E194" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F194" s="424"/>
       <c r="G194" s="425"/>
@@ -10325,13 +10336,13 @@
         <v>11</v>
       </c>
       <c r="C195" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D195" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E195" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F195" s="436" t="s">
         <v>146</v>
@@ -10350,13 +10361,13 @@
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="435"/>
       <c r="C196" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D196" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E196" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F196" s="436"/>
       <c r="G196" s="425"/>
@@ -10371,22 +10382,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D197" s="423" t="n">
         <v>180</v>
       </c>
       <c r="E197" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F197" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G197" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H197" s="425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I197" s="425"/>
       <c r="J197" s="425"/>
@@ -10409,23 +10420,23 @@
     <row r="202" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="368"/>
       <c r="C202" s="368" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D202" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E202" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F202" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G202" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H202" s="397"/>
       <c r="I202" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J202" s="358"/>
       <c r="K202" s="358"/>
@@ -10446,7 +10457,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C204" s="398"/>
       <c r="D204" s="399" t="e">
@@ -10454,7 +10465,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E204" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F204" s="400" t="n">
         <v>4</v>
@@ -10471,7 +10482,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C205" s="403"/>
       <c r="D205" s="404" t="n">
@@ -10486,7 +10497,7 @@
       </c>
       <c r="H205" s="405"/>
       <c r="I205" s="406" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J205" s="406"/>
       <c r="K205" s="406"/>
@@ -10494,7 +10505,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C206" s="403"/>
       <c r="D206" s="407" t="e">
@@ -10509,7 +10520,7 @@
       </c>
       <c r="H206" s="408"/>
       <c r="I206" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J206" s="406"/>
       <c r="K206" s="406"/>
@@ -10517,18 +10528,18 @@
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="403" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C207" s="403"/>
       <c r="D207" s="409" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E207" s="409"/>
       <c r="F207" s="409"/>
       <c r="G207" s="409"/>
       <c r="H207" s="409"/>
       <c r="I207" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J207" s="410"/>
       <c r="K207" s="410"/>
@@ -10536,7 +10547,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C208" s="412"/>
       <c r="D208" s="413" t="n">
@@ -10547,7 +10558,7 @@
       <c r="G208" s="413"/>
       <c r="H208" s="413"/>
       <c r="I208" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J208" s="406"/>
       <c r="K208" s="406"/>
@@ -10566,7 +10577,7 @@
       <c r="G209" s="414"/>
       <c r="H209" s="414"/>
       <c r="I209" s="406" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J209" s="406"/>
       <c r="K209" s="406"/>
@@ -10574,18 +10585,18 @@
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C210" s="416"/>
       <c r="D210" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E210" s="417"/>
       <c r="F210" s="417"/>
       <c r="G210" s="417"/>
       <c r="H210" s="417"/>
       <c r="I210" s="406" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J210" s="406"/>
       <c r="K210" s="406"/>
@@ -10607,13 +10618,13 @@
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="419"/>
       <c r="C212" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D212" s="420"/>
       <c r="E212" s="420"/>
       <c r="F212" s="420"/>
       <c r="G212" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H212" s="180"/>
       <c r="I212" s="180"/>
@@ -10626,13 +10637,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="422" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D213" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E213" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F213" s="424" t="s">
         <v>145</v>
@@ -10653,13 +10664,13 @@
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="421"/>
       <c r="C214" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D214" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E214" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F214" s="424"/>
       <c r="G214" s="425"/>
@@ -10674,13 +10685,13 @@
         <v>2</v>
       </c>
       <c r="C215" s="423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D215" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E215" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F215" s="430" t="s">
         <v>145</v>
@@ -10701,13 +10712,13 @@
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="429"/>
       <c r="C216" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D216" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E216" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F216" s="430"/>
       <c r="G216" s="431"/>
@@ -10722,13 +10733,13 @@
         <v>3</v>
       </c>
       <c r="C217" s="423" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D217" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E217" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F217" s="436" t="s">
         <v>146</v>
@@ -10749,13 +10760,13 @@
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="421"/>
       <c r="C218" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D218" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E218" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F218" s="436"/>
       <c r="G218" s="425"/>
@@ -10770,13 +10781,13 @@
         <v>4</v>
       </c>
       <c r="C219" s="423" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D219" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E219" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F219" s="436" t="s">
         <v>146</v>
@@ -10797,13 +10808,13 @@
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="429"/>
       <c r="C220" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D220" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E220" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F220" s="436"/>
       <c r="G220" s="425"/>
@@ -10818,13 +10829,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="441" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D221" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E221" s="441" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F221" s="424" t="s">
         <v>145</v>
@@ -10845,13 +10856,13 @@
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="421"/>
       <c r="C222" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D222" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E222" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F222" s="424"/>
       <c r="G222" s="425"/>
@@ -10866,13 +10877,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="423" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D223" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E223" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F223" s="436" t="s">
         <v>146</v>
@@ -10893,13 +10904,13 @@
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="429"/>
       <c r="C224" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D224" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E224" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F224" s="436"/>
       <c r="G224" s="425"/>
@@ -10914,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="423" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D225" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E225" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F225" s="424" t="s">
         <v>145</v>
@@ -10941,13 +10952,13 @@
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="421"/>
       <c r="C226" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D226" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E226" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F226" s="424"/>
       <c r="G226" s="425"/>
@@ -10962,13 +10973,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="423" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D227" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E227" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F227" s="436" t="s">
         <v>146</v>
@@ -10989,13 +11000,13 @@
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="429"/>
       <c r="C228" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D228" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E228" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F228" s="436"/>
       <c r="G228" s="425"/>
@@ -11010,13 +11021,13 @@
         <v>9</v>
       </c>
       <c r="C229" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D229" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E229" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F229" s="424" t="s">
         <v>145</v>
@@ -11037,13 +11048,13 @@
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="421"/>
       <c r="C230" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D230" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E230" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F230" s="424"/>
       <c r="G230" s="425"/>
@@ -11058,13 +11069,13 @@
         <v>10</v>
       </c>
       <c r="C231" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D231" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E231" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F231" s="436" t="s">
         <v>146</v>
@@ -11085,13 +11096,13 @@
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="429"/>
       <c r="C232" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D232" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E232" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F232" s="436"/>
       <c r="G232" s="425"/>
@@ -11106,13 +11117,13 @@
         <v>11</v>
       </c>
       <c r="C233" s="423" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D233" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E233" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F233" s="424" t="s">
         <v>145</v>
@@ -11133,13 +11144,13 @@
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="421"/>
       <c r="C234" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D234" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E234" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F234" s="424"/>
       <c r="G234" s="425"/>
@@ -11154,13 +11165,13 @@
         <v>12</v>
       </c>
       <c r="C235" s="442" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D235" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E235" s="443" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F235" s="436" t="s">
         <v>146</v>
@@ -11181,13 +11192,13 @@
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="429"/>
       <c r="C236" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D236" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E236" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F236" s="436"/>
       <c r="G236" s="425"/>
@@ -11202,25 +11213,25 @@
         <v>13</v>
       </c>
       <c r="C237" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D237" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E237" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F237" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G237" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H237" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I237" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J237" s="444"/>
       <c r="K237" s="437"/>
@@ -11242,23 +11253,23 @@
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="368"/>
       <c r="C242" s="368" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D242" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E242" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F242" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G242" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H242" s="397"/>
       <c r="I242" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J242" s="358"/>
       <c r="K242" s="358"/>
@@ -11279,7 +11290,7 @@
     </row>
     <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C244" s="398"/>
       <c r="D244" s="399" t="e">
@@ -11287,7 +11298,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E244" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F244" s="400" t="n">
         <v>4</v>
@@ -11304,7 +11315,7 @@
     </row>
     <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C245" s="403"/>
       <c r="D245" s="404" t="n">
@@ -11319,7 +11330,7 @@
       </c>
       <c r="H245" s="405"/>
       <c r="I245" s="406" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J245" s="406"/>
       <c r="K245" s="406"/>
@@ -11327,7 +11338,7 @@
     </row>
     <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C246" s="403"/>
       <c r="D246" s="407" t="e">
@@ -11342,7 +11353,7 @@
       </c>
       <c r="H246" s="408"/>
       <c r="I246" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J246" s="406"/>
       <c r="K246" s="406"/>
@@ -11350,18 +11361,18 @@
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="403" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C247" s="403"/>
       <c r="D247" s="409" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E247" s="409"/>
       <c r="F247" s="409"/>
       <c r="G247" s="409"/>
       <c r="H247" s="409"/>
       <c r="I247" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J247" s="410"/>
       <c r="K247" s="410"/>
@@ -11369,7 +11380,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C248" s="412"/>
       <c r="D248" s="413" t="n">
@@ -11380,7 +11391,7 @@
       <c r="G248" s="413"/>
       <c r="H248" s="413"/>
       <c r="I248" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J248" s="406"/>
       <c r="K248" s="406"/>
@@ -11399,7 +11410,7 @@
       <c r="G249" s="414"/>
       <c r="H249" s="414"/>
       <c r="I249" s="406" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J249" s="406"/>
       <c r="K249" s="406"/>
@@ -11407,18 +11418,18 @@
     </row>
     <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C250" s="416"/>
       <c r="D250" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E250" s="417"/>
       <c r="F250" s="417"/>
       <c r="G250" s="417"/>
       <c r="H250" s="417"/>
       <c r="I250" s="406" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J250" s="406"/>
       <c r="K250" s="406"/>
@@ -11440,13 +11451,13 @@
     <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="419"/>
       <c r="C252" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D252" s="420"/>
       <c r="E252" s="420"/>
       <c r="F252" s="420"/>
       <c r="G252" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H252" s="180"/>
       <c r="I252" s="180"/>
@@ -11459,13 +11470,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="422" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D253" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E253" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F253" s="424" t="s">
         <v>145</v>
@@ -11486,13 +11497,13 @@
     <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="421"/>
       <c r="C254" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D254" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E254" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F254" s="424"/>
       <c r="G254" s="425"/>
@@ -11507,13 +11518,13 @@
         <v>2</v>
       </c>
       <c r="C255" s="423" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D255" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E255" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F255" s="430" t="s">
         <v>145</v>
@@ -11534,13 +11545,13 @@
     <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="429"/>
       <c r="C256" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D256" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E256" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F256" s="430"/>
       <c r="G256" s="431"/>
@@ -11555,13 +11566,13 @@
         <v>3</v>
       </c>
       <c r="C257" s="423" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D257" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E257" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F257" s="436" t="s">
         <v>146</v>
@@ -11582,13 +11593,13 @@
     <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="421"/>
       <c r="C258" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D258" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E258" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F258" s="436"/>
       <c r="G258" s="425"/>
@@ -11603,13 +11614,13 @@
         <v>4</v>
       </c>
       <c r="C259" s="423" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D259" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E259" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F259" s="436" t="s">
         <v>146</v>
@@ -11630,13 +11641,13 @@
     <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="429"/>
       <c r="C260" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D260" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E260" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F260" s="436"/>
       <c r="G260" s="425"/>
@@ -11651,13 +11662,13 @@
         <v>5</v>
       </c>
       <c r="C261" s="441" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D261" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E261" s="441" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F261" s="424" t="s">
         <v>145</v>
@@ -11678,13 +11689,13 @@
     <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="421"/>
       <c r="C262" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D262" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E262" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F262" s="424"/>
       <c r="G262" s="425"/>
@@ -11699,13 +11710,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="423" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D263" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E263" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F263" s="436" t="s">
         <v>146</v>
@@ -11726,13 +11737,13 @@
     <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="429"/>
       <c r="C264" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D264" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E264" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F264" s="436"/>
       <c r="G264" s="425"/>
@@ -11747,13 +11758,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D265" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E265" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F265" s="424" t="s">
         <v>145</v>
@@ -11774,13 +11785,13 @@
     <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="421"/>
       <c r="C266" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D266" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E266" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F266" s="424"/>
       <c r="G266" s="425"/>
@@ -11795,13 +11806,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D267" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E267" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F267" s="436" t="s">
         <v>146</v>
@@ -11822,13 +11833,13 @@
     <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="429"/>
       <c r="C268" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D268" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E268" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F268" s="436"/>
       <c r="G268" s="425"/>
@@ -11843,13 +11854,13 @@
         <v>9</v>
       </c>
       <c r="C269" s="423" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D269" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E269" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F269" s="424" t="s">
         <v>145</v>
@@ -11870,13 +11881,13 @@
     <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="421"/>
       <c r="C270" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D270" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E270" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F270" s="424"/>
       <c r="G270" s="425"/>
@@ -11891,13 +11902,13 @@
         <v>10</v>
       </c>
       <c r="C271" s="423" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D271" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E271" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F271" s="436" t="s">
         <v>146</v>
@@ -11918,13 +11929,13 @@
     <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="429"/>
       <c r="C272" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D272" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E272" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F272" s="436"/>
       <c r="G272" s="425"/>
@@ -11939,13 +11950,13 @@
         <v>11</v>
       </c>
       <c r="C273" s="423" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D273" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E273" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F273" s="424" t="s">
         <v>145</v>
@@ -11966,13 +11977,13 @@
     <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="421"/>
       <c r="C274" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D274" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E274" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F274" s="424"/>
       <c r="G274" s="425"/>
@@ -11987,13 +11998,13 @@
         <v>12</v>
       </c>
       <c r="C275" s="442" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D275" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E275" s="443" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F275" s="436" t="s">
         <v>146</v>
@@ -12014,13 +12025,13 @@
     <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="429"/>
       <c r="C276" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D276" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E276" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F276" s="436"/>
       <c r="G276" s="425"/>
@@ -12035,25 +12046,25 @@
         <v>13</v>
       </c>
       <c r="C277" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D277" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E277" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F277" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G277" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H277" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I277" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J277" s="444"/>
       <c r="K277" s="437"/>
@@ -12075,23 +12086,23 @@
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="368"/>
       <c r="C282" s="368" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D282" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E282" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F282" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G282" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H282" s="397"/>
       <c r="I282" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J282" s="358"/>
       <c r="K282" s="358"/>
@@ -12112,14 +12123,14 @@
     </row>
     <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C284" s="398"/>
       <c r="D284" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E284" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F284" s="400" t="n">
         <v>3</v>
@@ -12136,7 +12147,7 @@
     </row>
     <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C285" s="403"/>
       <c r="D285" s="404" t="n">
@@ -12150,7 +12161,7 @@
       </c>
       <c r="H285" s="405"/>
       <c r="I285" s="406" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J285" s="406"/>
       <c r="K285" s="406"/>
@@ -12158,7 +12169,7 @@
     </row>
     <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C286" s="403"/>
       <c r="D286" s="407" t="n">
@@ -12172,7 +12183,7 @@
       </c>
       <c r="H286" s="408"/>
       <c r="I286" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J286" s="406"/>
       <c r="K286" s="406"/>
@@ -12180,18 +12191,18 @@
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="403" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C287" s="403"/>
       <c r="D287" s="409" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E287" s="409"/>
       <c r="F287" s="409"/>
       <c r="G287" s="409"/>
       <c r="H287" s="409"/>
       <c r="I287" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J287" s="410"/>
       <c r="K287" s="410"/>
@@ -12199,7 +12210,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C288" s="412"/>
       <c r="D288" s="413" t="n">
@@ -12210,7 +12221,7 @@
       <c r="G288" s="413"/>
       <c r="H288" s="413"/>
       <c r="I288" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J288" s="406"/>
       <c r="K288" s="406"/>
@@ -12235,11 +12246,11 @@
     </row>
     <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C290" s="416"/>
       <c r="D290" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E290" s="417"/>
       <c r="F290" s="417"/>
@@ -12266,13 +12277,13 @@
     <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="419"/>
       <c r="C292" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D292" s="420"/>
       <c r="E292" s="420"/>
       <c r="F292" s="420"/>
       <c r="G292" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H292" s="180"/>
       <c r="I292" s="180"/>
@@ -12285,13 +12296,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="422" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D293" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E293" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F293" s="424" t="s">
         <v>145</v>
@@ -12312,13 +12323,13 @@
     <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="421"/>
       <c r="C294" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D294" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E294" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F294" s="424"/>
       <c r="G294" s="425"/>
@@ -12333,13 +12344,13 @@
         <v>2</v>
       </c>
       <c r="C295" s="423" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D295" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E295" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F295" s="430" t="s">
         <v>145</v>
@@ -12360,13 +12371,13 @@
     <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="429"/>
       <c r="C296" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D296" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E296" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F296" s="430"/>
       <c r="G296" s="431"/>
@@ -12381,13 +12392,13 @@
         <v>3</v>
       </c>
       <c r="C297" s="423" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D297" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E297" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F297" s="436" t="s">
         <v>146</v>
@@ -12408,13 +12419,13 @@
     <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="421"/>
       <c r="C298" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D298" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E298" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F298" s="436"/>
       <c r="G298" s="425"/>
@@ -12429,13 +12440,13 @@
         <v>4</v>
       </c>
       <c r="C299" s="423" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D299" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E299" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F299" s="436" t="s">
         <v>146</v>
@@ -12456,13 +12467,13 @@
     <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="429"/>
       <c r="C300" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D300" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E300" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F300" s="436"/>
       <c r="G300" s="425"/>
@@ -12477,13 +12488,13 @@
         <v>5</v>
       </c>
       <c r="C301" s="441" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D301" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E301" s="441" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F301" s="424" t="s">
         <v>145</v>
@@ -12504,13 +12515,13 @@
     <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="421"/>
       <c r="C302" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D302" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E302" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F302" s="424"/>
       <c r="G302" s="425"/>
@@ -12525,13 +12536,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="423" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D303" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E303" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F303" s="436" t="s">
         <v>146</v>
@@ -12552,13 +12563,13 @@
     <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="429"/>
       <c r="C304" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D304" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E304" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F304" s="436"/>
       <c r="G304" s="425"/>
@@ -12573,13 +12584,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="423" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D305" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E305" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F305" s="424" t="s">
         <v>145</v>
@@ -12600,13 +12611,13 @@
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="421"/>
       <c r="C306" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D306" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E306" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F306" s="424"/>
       <c r="G306" s="425"/>
@@ -12621,13 +12632,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="423" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D307" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E307" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F307" s="436" t="s">
         <v>146</v>
@@ -12648,13 +12659,13 @@
     <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="429"/>
       <c r="C308" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D308" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E308" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F308" s="436"/>
       <c r="G308" s="425"/>
@@ -12669,13 +12680,13 @@
         <v>9</v>
       </c>
       <c r="C309" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D309" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E309" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F309" s="424" t="s">
         <v>145</v>
@@ -12696,13 +12707,13 @@
     <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="421"/>
       <c r="C310" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D310" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E310" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F310" s="424"/>
       <c r="G310" s="425"/>
@@ -12717,13 +12728,13 @@
         <v>10</v>
       </c>
       <c r="C311" s="423" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D311" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E311" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F311" s="436" t="s">
         <v>146</v>
@@ -12744,13 +12755,13 @@
     <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="429"/>
       <c r="C312" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D312" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E312" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F312" s="436"/>
       <c r="G312" s="425"/>
@@ -12765,13 +12776,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="423" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D313" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E313" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F313" s="424" t="s">
         <v>145</v>
@@ -12792,13 +12803,13 @@
     <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="421"/>
       <c r="C314" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D314" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E314" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F314" s="424"/>
       <c r="G314" s="425"/>
@@ -12813,25 +12824,25 @@
         <v>12</v>
       </c>
       <c r="C315" s="442" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D315" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E315" s="443" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F315" s="436" t="s">
         <v>146</v>
       </c>
       <c r="G315" s="425" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H315" s="425" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I315" s="425" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J315" s="425"/>
       <c r="K315" s="437"/>
@@ -12840,13 +12851,13 @@
     <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="429"/>
       <c r="C316" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D316" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E316" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F316" s="436"/>
       <c r="G316" s="425"/>
@@ -12861,25 +12872,25 @@
         <v>13</v>
       </c>
       <c r="C317" s="423" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D317" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E317" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F317" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G317" s="444" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H317" s="444" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I317" s="444" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J317" s="444"/>
       <c r="K317" s="437"/>
@@ -12888,13 +12899,13 @@
     <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="421"/>
       <c r="C318" s="440" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D318" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E318" s="440" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F318" s="424"/>
       <c r="G318" s="444"/>
@@ -12909,25 +12920,25 @@
         <v>13</v>
       </c>
       <c r="C319" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D319" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E319" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F319" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G319" s="444" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H319" s="444" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I319" s="444" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J319" s="444"/>
       <c r="K319" s="437"/>
@@ -12949,23 +12960,23 @@
     <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="368"/>
       <c r="C324" s="368" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D324" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E324" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F324" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G324" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H324" s="397"/>
       <c r="I324" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J324" s="358"/>
       <c r="K324" s="358"/>
@@ -12986,7 +12997,7 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C326" s="398"/>
       <c r="D326" s="399" t="e">
@@ -12994,7 +13005,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E326" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F326" s="400" t="n">
         <v>4</v>
@@ -13011,7 +13022,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C327" s="403"/>
       <c r="D327" s="404" t="n">
@@ -13026,7 +13037,7 @@
       </c>
       <c r="H327" s="405"/>
       <c r="I327" s="406" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J327" s="406"/>
       <c r="K327" s="406"/>
@@ -13034,7 +13045,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C328" s="403"/>
       <c r="D328" s="407" t="e">
@@ -13049,7 +13060,7 @@
       </c>
       <c r="H328" s="408"/>
       <c r="I328" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J328" s="406"/>
       <c r="K328" s="406"/>
@@ -13057,18 +13068,18 @@
     </row>
     <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="403" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C329" s="403"/>
       <c r="D329" s="409" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E329" s="409"/>
       <c r="F329" s="409"/>
       <c r="G329" s="409"/>
       <c r="H329" s="409"/>
       <c r="I329" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J329" s="410"/>
       <c r="K329" s="410"/>
@@ -13076,7 +13087,7 @@
     </row>
     <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C330" s="412"/>
       <c r="D330" s="413" t="n">
@@ -13087,7 +13098,7 @@
       <c r="G330" s="413"/>
       <c r="H330" s="413"/>
       <c r="I330" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J330" s="406"/>
       <c r="K330" s="406"/>
@@ -13106,7 +13117,7 @@
       <c r="G331" s="414"/>
       <c r="H331" s="414"/>
       <c r="I331" s="406" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J331" s="406"/>
       <c r="K331" s="406"/>
@@ -13114,18 +13125,18 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C332" s="416"/>
       <c r="D332" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E332" s="417"/>
       <c r="F332" s="417"/>
       <c r="G332" s="417"/>
       <c r="H332" s="417"/>
       <c r="I332" s="406" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J332" s="406"/>
       <c r="K332" s="406"/>
@@ -13147,13 +13158,13 @@
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="419"/>
       <c r="C334" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D334" s="420"/>
       <c r="E334" s="420"/>
       <c r="F334" s="420"/>
       <c r="G334" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H334" s="180"/>
       <c r="I334" s="180"/>
@@ -13166,13 +13177,13 @@
         <v>1</v>
       </c>
       <c r="C335" s="422" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D335" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E335" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F335" s="424" t="s">
         <v>145</v>
@@ -13195,13 +13206,13 @@
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="421"/>
       <c r="C336" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D336" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E336" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F336" s="424"/>
       <c r="G336" s="425"/>
@@ -13216,13 +13227,13 @@
         <v>2</v>
       </c>
       <c r="C337" s="423" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D337" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E337" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F337" s="430" t="s">
         <v>145</v>
@@ -13245,13 +13256,13 @@
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="429"/>
       <c r="C338" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D338" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E338" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F338" s="430"/>
       <c r="G338" s="431"/>
@@ -13266,13 +13277,13 @@
         <v>3</v>
       </c>
       <c r="C339" s="423" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D339" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E339" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F339" s="436" t="s">
         <v>146</v>
@@ -13295,13 +13306,13 @@
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="421"/>
       <c r="C340" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D340" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E340" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F340" s="436"/>
       <c r="G340" s="425"/>
@@ -13316,13 +13327,13 @@
         <v>4</v>
       </c>
       <c r="C341" s="423" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D341" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E341" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F341" s="436" t="s">
         <v>146</v>
@@ -13345,13 +13356,13 @@
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="429"/>
       <c r="C342" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D342" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E342" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F342" s="436"/>
       <c r="G342" s="425"/>
@@ -13366,13 +13377,13 @@
         <v>5</v>
       </c>
       <c r="C343" s="441" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D343" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E343" s="441" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F343" s="424" t="s">
         <v>145</v>
@@ -13395,13 +13406,13 @@
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="421"/>
       <c r="C344" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D344" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E344" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F344" s="424"/>
       <c r="G344" s="425"/>
@@ -13416,13 +13427,13 @@
         <v>6</v>
       </c>
       <c r="C345" s="423" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D345" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E345" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F345" s="436" t="s">
         <v>146</v>
@@ -13445,13 +13456,13 @@
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="429"/>
       <c r="C346" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D346" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E346" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F346" s="436"/>
       <c r="G346" s="425"/>
@@ -13466,13 +13477,13 @@
         <v>7</v>
       </c>
       <c r="C347" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D347" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E347" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F347" s="424" t="s">
         <v>145</v>
@@ -13495,13 +13506,13 @@
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="421"/>
       <c r="C348" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D348" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E348" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F348" s="424"/>
       <c r="G348" s="425"/>
@@ -13516,13 +13527,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D349" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E349" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F349" s="436" t="s">
         <v>146</v>
@@ -13545,13 +13556,13 @@
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="429"/>
       <c r="C350" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D350" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E350" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F350" s="436"/>
       <c r="G350" s="425"/>
@@ -13566,13 +13577,13 @@
         <v>9</v>
       </c>
       <c r="C351" s="423" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D351" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E351" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F351" s="424" t="s">
         <v>145</v>
@@ -13595,13 +13606,13 @@
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="421"/>
       <c r="C352" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D352" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E352" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F352" s="424"/>
       <c r="G352" s="425"/>
@@ -13616,13 +13627,13 @@
         <v>10</v>
       </c>
       <c r="C353" s="423" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D353" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E353" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F353" s="436" t="s">
         <v>146</v>
@@ -13645,13 +13656,13 @@
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="429"/>
       <c r="C354" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D354" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E354" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F354" s="436"/>
       <c r="G354" s="425"/>
@@ -13666,13 +13677,13 @@
         <v>11</v>
       </c>
       <c r="C355" s="423" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D355" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E355" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F355" s="424" t="s">
         <v>145</v>
@@ -13695,13 +13706,13 @@
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="421"/>
       <c r="C356" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D356" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E356" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F356" s="424"/>
       <c r="G356" s="425"/>
@@ -13716,13 +13727,13 @@
         <v>12</v>
       </c>
       <c r="C357" s="442" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D357" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E357" s="443" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F357" s="436" t="s">
         <v>146</v>
@@ -13745,13 +13756,13 @@
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="429"/>
       <c r="C358" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D358" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E358" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F358" s="436"/>
       <c r="G358" s="425"/>
@@ -13766,28 +13777,28 @@
         <v>13</v>
       </c>
       <c r="C359" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D359" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E359" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F359" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G359" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H359" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I359" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J359" s="444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K359" s="437"/>
       <c r="L359" s="438"/>
@@ -13808,23 +13819,23 @@
     <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="368"/>
       <c r="C365" s="368" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D365" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E365" s="368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F365" s="368" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G365" s="397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H365" s="397"/>
       <c r="I365" s="358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J365" s="358"/>
       <c r="K365" s="358"/>
@@ -13845,14 +13856,14 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C367" s="398"/>
       <c r="D367" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E367" s="400" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F367" s="400" t="n">
         <v>3</v>
@@ -13869,7 +13880,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="403" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C368" s="403"/>
       <c r="D368" s="404" t="n">
@@ -13883,7 +13894,7 @@
       </c>
       <c r="H368" s="405"/>
       <c r="I368" s="406" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J368" s="406"/>
       <c r="K368" s="406"/>
@@ -13891,7 +13902,7 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="403" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C369" s="403"/>
       <c r="D369" s="407" t="n">
@@ -13904,7 +13915,7 @@
       </c>
       <c r="H369" s="408"/>
       <c r="I369" s="406" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J369" s="406"/>
       <c r="K369" s="406"/>
@@ -13912,18 +13923,18 @@
     </row>
     <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="403" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C370" s="403"/>
       <c r="D370" s="409" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E370" s="409"/>
       <c r="F370" s="409"/>
       <c r="G370" s="409"/>
       <c r="H370" s="409"/>
       <c r="I370" s="410" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J370" s="410"/>
       <c r="K370" s="410"/>
@@ -13931,7 +13942,7 @@
     </row>
     <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C371" s="412"/>
       <c r="D371" s="413" t="n">
@@ -13942,7 +13953,7 @@
       <c r="G371" s="413"/>
       <c r="H371" s="413"/>
       <c r="I371" s="406" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J371" s="406"/>
       <c r="K371" s="406"/>
@@ -13967,11 +13978,11 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="416" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C373" s="416"/>
       <c r="D373" s="417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E373" s="417"/>
       <c r="F373" s="417"/>
@@ -13998,13 +14009,13 @@
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="419"/>
       <c r="C375" s="420" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D375" s="420"/>
       <c r="E375" s="420"/>
       <c r="F375" s="420"/>
       <c r="G375" s="180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H375" s="180"/>
       <c r="I375" s="180"/>
@@ -14017,13 +14028,13 @@
         <v>1</v>
       </c>
       <c r="C376" s="422" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D376" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E376" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F376" s="424" t="s">
         <v>145</v>
@@ -14038,13 +14049,13 @@
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="421"/>
       <c r="C377" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D377" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E377" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F377" s="424"/>
       <c r="G377" s="425"/>
@@ -14059,13 +14070,13 @@
         <v>2</v>
       </c>
       <c r="C378" s="422" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D378" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E378" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F378" s="424" t="s">
         <v>145</v>
@@ -14080,13 +14091,13 @@
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="435"/>
       <c r="C379" s="427" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D379" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E379" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F379" s="424"/>
       <c r="G379" s="425"/>
@@ -14101,13 +14112,13 @@
         <v>3</v>
       </c>
       <c r="C380" s="423" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D380" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E380" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F380" s="430" t="s">
         <v>145</v>
@@ -14122,13 +14133,13 @@
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="435"/>
       <c r="C381" s="434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D381" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E381" s="434" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F381" s="445"/>
       <c r="G381" s="446"/>
@@ -14143,13 +14154,13 @@
         <v>4</v>
       </c>
       <c r="C382" s="423" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D382" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E382" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F382" s="448" t="s">
         <v>146</v>
@@ -14164,13 +14175,13 @@
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="435"/>
       <c r="C383" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D383" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E383" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F383" s="449"/>
       <c r="G383" s="446"/>
@@ -14185,13 +14196,13 @@
         <v>5</v>
       </c>
       <c r="C384" s="423" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D384" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E384" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F384" s="448" t="s">
         <v>146</v>
@@ -14206,13 +14217,13 @@
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="435"/>
       <c r="C385" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D385" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E385" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F385" s="449"/>
       <c r="G385" s="446"/>
@@ -14227,13 +14238,13 @@
         <v>6</v>
       </c>
       <c r="C386" s="441" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D386" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E386" s="441" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F386" s="430" t="s">
         <v>145</v>
@@ -14248,13 +14259,13 @@
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="435"/>
       <c r="C387" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D387" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E387" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F387" s="445"/>
       <c r="G387" s="446"/>
@@ -14269,13 +14280,13 @@
         <v>7</v>
       </c>
       <c r="C388" s="423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D388" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E388" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F388" s="448" t="s">
         <v>146</v>
@@ -14290,13 +14301,13 @@
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="435"/>
       <c r="C389" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D389" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E389" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F389" s="449"/>
       <c r="G389" s="446"/>
@@ -14311,13 +14322,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="423" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D390" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E390" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F390" s="430" t="s">
         <v>145</v>
@@ -14332,13 +14343,13 @@
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="435"/>
       <c r="C391" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D391" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E391" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F391" s="445"/>
       <c r="G391" s="446"/>
@@ -14353,13 +14364,13 @@
         <v>9</v>
       </c>
       <c r="C392" s="423" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D392" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E392" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F392" s="448" t="s">
         <v>146</v>
@@ -14374,13 +14385,13 @@
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="435"/>
       <c r="C393" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D393" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E393" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F393" s="449"/>
       <c r="G393" s="446"/>
@@ -14395,13 +14406,13 @@
         <v>10</v>
       </c>
       <c r="C394" s="423" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D394" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E394" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F394" s="430" t="s">
         <v>145</v>
@@ -14416,13 +14427,13 @@
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="435"/>
       <c r="C395" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D395" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E395" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F395" s="445"/>
       <c r="G395" s="446"/>
@@ -14437,13 +14448,13 @@
         <v>11</v>
       </c>
       <c r="C396" s="423" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D396" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E396" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F396" s="448" t="s">
         <v>146</v>
@@ -14458,13 +14469,13 @@
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="435"/>
       <c r="C397" s="439" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D397" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E397" s="439" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F397" s="449"/>
       <c r="G397" s="446"/>
@@ -14479,13 +14490,13 @@
         <v>12</v>
       </c>
       <c r="C398" s="423" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D398" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E398" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F398" s="430" t="s">
         <v>145</v>
@@ -14500,13 +14511,13 @@
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="435"/>
       <c r="C399" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D399" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E399" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F399" s="445"/>
       <c r="G399" s="446"/>
@@ -14521,13 +14532,13 @@
         <v>13</v>
       </c>
       <c r="C400" s="442" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D400" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E400" s="443" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F400" s="448" t="s">
         <v>146</v>
@@ -14542,13 +14553,13 @@
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="435"/>
       <c r="C401" s="428" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D401" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E401" s="428" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F401" s="449"/>
       <c r="G401" s="446"/>
@@ -14563,13 +14574,13 @@
         <v>14</v>
       </c>
       <c r="C402" s="423" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D402" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E402" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F402" s="430" t="s">
         <v>145</v>
@@ -14584,13 +14595,13 @@
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="435"/>
       <c r="C403" s="440" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D403" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E403" s="440" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F403" s="445"/>
       <c r="G403" s="451"/>
@@ -14605,13 +14616,13 @@
         <v>15</v>
       </c>
       <c r="C404" s="423" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D404" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E404" s="423" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F404" s="430" t="s">
         <v>145</v>
@@ -14636,8 +14647,839 @@
       <c r="K405" s="447"/>
       <c r="L405" s="438"/>
     </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B409" s="368"/>
+      <c r="C409" s="368" t="s">
+        <v>298</v>
+      </c>
+      <c r="D409" s="368" t="s">
+        <v>126</v>
+      </c>
+      <c r="E409" s="368" t="s">
+        <v>258</v>
+      </c>
+      <c r="F409" s="368" t="s">
+        <v>259</v>
+      </c>
+      <c r="G409" s="397" t="s">
+        <v>260</v>
+      </c>
+      <c r="H409" s="397"/>
+      <c r="I409" s="358" t="s">
+        <v>261</v>
+      </c>
+      <c r="J409" s="358"/>
+      <c r="K409" s="358"/>
+      <c r="L409" s="358"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="368"/>
+      <c r="C410" s="368"/>
+      <c r="D410" s="368"/>
+      <c r="E410" s="368"/>
+      <c r="F410" s="368"/>
+      <c r="G410" s="368"/>
+      <c r="H410" s="397"/>
+      <c r="I410" s="358"/>
+      <c r="J410" s="358"/>
+      <c r="K410" s="358"/>
+      <c r="L410" s="358"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="398" t="s">
+        <v>262</v>
+      </c>
+      <c r="C411" s="398"/>
+      <c r="D411" s="399" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="E411" s="400" t="s">
+        <v>263</v>
+      </c>
+      <c r="F411" s="400" t="n">
+        <v>4</v>
+      </c>
+      <c r="G411" s="401" t="n">
+        <f aca="false">D411*F411</f>
+        <v>32.48</v>
+      </c>
+      <c r="H411" s="401"/>
+      <c r="I411" s="402"/>
+      <c r="J411" s="402"/>
+      <c r="K411" s="402"/>
+      <c r="L411" s="402"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="403" t="s">
+        <v>265</v>
+      </c>
+      <c r="C412" s="403"/>
+      <c r="D412" s="404" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E412" s="400"/>
+      <c r="F412" s="400"/>
+      <c r="G412" s="405" t="n">
+        <f aca="false">D412*F411</f>
+        <v>14</v>
+      </c>
+      <c r="H412" s="405"/>
+      <c r="I412" s="406" t="s">
+        <v>314</v>
+      </c>
+      <c r="J412" s="406"/>
+      <c r="K412" s="406"/>
+      <c r="L412" s="406"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B413" s="403" t="s">
+        <v>267</v>
+      </c>
+      <c r="C413" s="403"/>
+      <c r="D413" s="407" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E413" s="400"/>
+      <c r="F413" s="400"/>
+      <c r="G413" s="408" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="H413" s="408"/>
+      <c r="I413" s="406" t="s">
+        <v>268</v>
+      </c>
+      <c r="J413" s="406"/>
+      <c r="K413" s="406"/>
+      <c r="L413" s="406"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B414" s="403" t="s">
+        <v>269</v>
+      </c>
+      <c r="C414" s="403"/>
+      <c r="D414" s="409" t="s">
+        <v>327</v>
+      </c>
+      <c r="E414" s="409"/>
+      <c r="F414" s="409"/>
+      <c r="G414" s="409"/>
+      <c r="H414" s="409"/>
+      <c r="I414" s="410" t="s">
+        <v>270</v>
+      </c>
+      <c r="J414" s="410"/>
+      <c r="K414" s="410"/>
+      <c r="L414" s="410"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="411" t="s">
+        <v>271</v>
+      </c>
+      <c r="C415" s="412"/>
+      <c r="D415" s="413" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E415" s="413"/>
+      <c r="F415" s="413"/>
+      <c r="G415" s="413"/>
+      <c r="H415" s="413"/>
+      <c r="I415" s="406" t="s">
+        <v>272</v>
+      </c>
+      <c r="J415" s="406"/>
+      <c r="K415" s="406"/>
+      <c r="L415" s="406"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B416" s="403" t="s">
+        <v>31</v>
+      </c>
+      <c r="C416" s="403"/>
+      <c r="D416" s="414" t="n">
+        <v>43574</v>
+      </c>
+      <c r="E416" s="414"/>
+      <c r="F416" s="414"/>
+      <c r="G416" s="414"/>
+      <c r="H416" s="414"/>
+      <c r="I416" s="406"/>
+      <c r="J416" s="406"/>
+      <c r="K416" s="406"/>
+      <c r="L416" s="406"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="416" t="s">
+        <v>273</v>
+      </c>
+      <c r="C417" s="416"/>
+      <c r="D417" s="417" t="s">
+        <v>274</v>
+      </c>
+      <c r="E417" s="417"/>
+      <c r="F417" s="417"/>
+      <c r="G417" s="417"/>
+      <c r="H417" s="417"/>
+      <c r="I417" s="406"/>
+      <c r="J417" s="406"/>
+      <c r="K417" s="406"/>
+      <c r="L417" s="406"/>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="416"/>
+      <c r="C418" s="416"/>
+      <c r="D418" s="417"/>
+      <c r="E418" s="417"/>
+      <c r="F418" s="417"/>
+      <c r="G418" s="417"/>
+      <c r="H418" s="417"/>
+      <c r="I418" s="418"/>
+      <c r="J418" s="418"/>
+      <c r="K418" s="418"/>
+      <c r="L418" s="418"/>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="419"/>
+      <c r="C419" s="420" t="s">
+        <v>275</v>
+      </c>
+      <c r="D419" s="420"/>
+      <c r="E419" s="420"/>
+      <c r="F419" s="420"/>
+      <c r="G419" s="180" t="s">
+        <v>276</v>
+      </c>
+      <c r="H419" s="180"/>
+      <c r="I419" s="180"/>
+      <c r="J419" s="180"/>
+      <c r="K419" s="180"/>
+      <c r="L419" s="180"/>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="421" t="n">
+        <v>1</v>
+      </c>
+      <c r="C420" s="422" t="s">
+        <v>328</v>
+      </c>
+      <c r="D420" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E420" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F420" s="424" t="s">
+        <v>145</v>
+      </c>
+      <c r="G420" s="425"/>
+      <c r="H420" s="425"/>
+      <c r="I420" s="425"/>
+      <c r="J420" s="425"/>
+      <c r="K420" s="425"/>
+      <c r="L420" s="426"/>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="421"/>
+      <c r="C421" s="427" t="s">
+        <v>279</v>
+      </c>
+      <c r="D421" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="E421" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="F421" s="424"/>
+      <c r="G421" s="425"/>
+      <c r="H421" s="425"/>
+      <c r="I421" s="425"/>
+      <c r="J421" s="425"/>
+      <c r="K421" s="425"/>
+      <c r="L421" s="426"/>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="435" t="n">
+        <v>2</v>
+      </c>
+      <c r="C422" s="422" t="s">
+        <v>329</v>
+      </c>
+      <c r="D422" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E422" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F422" s="424" t="s">
+        <v>145</v>
+      </c>
+      <c r="G422" s="425"/>
+      <c r="H422" s="425"/>
+      <c r="I422" s="425"/>
+      <c r="J422" s="425"/>
+      <c r="K422" s="425"/>
+      <c r="L422" s="438"/>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="435"/>
+      <c r="C423" s="427" t="s">
+        <v>279</v>
+      </c>
+      <c r="D423" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="E423" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="F423" s="424"/>
+      <c r="G423" s="425"/>
+      <c r="H423" s="425"/>
+      <c r="I423" s="425"/>
+      <c r="J423" s="425"/>
+      <c r="K423" s="425"/>
+      <c r="L423" s="438"/>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="435" t="n">
+        <v>3</v>
+      </c>
+      <c r="C424" s="423" t="s">
+        <v>316</v>
+      </c>
+      <c r="D424" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E424" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F424" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="G424" s="431"/>
+      <c r="H424" s="431"/>
+      <c r="I424" s="431"/>
+      <c r="J424" s="431"/>
+      <c r="K424" s="432"/>
+      <c r="L424" s="438"/>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="435"/>
+      <c r="C425" s="434" t="s">
+        <v>279</v>
+      </c>
+      <c r="D425" s="434" t="n">
+        <v>22</v>
+      </c>
+      <c r="E425" s="434" t="s">
+        <v>278</v>
+      </c>
+      <c r="F425" s="445"/>
+      <c r="G425" s="446"/>
+      <c r="H425" s="446"/>
+      <c r="I425" s="446"/>
+      <c r="J425" s="446"/>
+      <c r="K425" s="447"/>
+      <c r="L425" s="438"/>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="435" t="n">
+        <v>4</v>
+      </c>
+      <c r="C426" s="423" t="s">
+        <v>317</v>
+      </c>
+      <c r="D426" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E426" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F426" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="G426" s="431"/>
+      <c r="H426" s="431"/>
+      <c r="I426" s="431"/>
+      <c r="J426" s="431"/>
+      <c r="K426" s="432"/>
+      <c r="L426" s="438"/>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="435"/>
+      <c r="C427" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="D427" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="E427" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="F427" s="449"/>
+      <c r="G427" s="446"/>
+      <c r="H427" s="446"/>
+      <c r="I427" s="446"/>
+      <c r="J427" s="446"/>
+      <c r="K427" s="447"/>
+      <c r="L427" s="438"/>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="435" t="n">
+        <v>5</v>
+      </c>
+      <c r="C428" s="423" t="s">
+        <v>318</v>
+      </c>
+      <c r="D428" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E428" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F428" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="G428" s="431"/>
+      <c r="H428" s="431"/>
+      <c r="I428" s="431"/>
+      <c r="J428" s="431"/>
+      <c r="K428" s="432"/>
+      <c r="L428" s="438"/>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="435"/>
+      <c r="C429" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="D429" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="E429" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="F429" s="449"/>
+      <c r="G429" s="446"/>
+      <c r="H429" s="446"/>
+      <c r="I429" s="446"/>
+      <c r="J429" s="446"/>
+      <c r="K429" s="447"/>
+      <c r="L429" s="438"/>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="435" t="n">
+        <v>6</v>
+      </c>
+      <c r="C430" s="441" t="s">
+        <v>330</v>
+      </c>
+      <c r="D430" s="441" t="n">
+        <v>20</v>
+      </c>
+      <c r="E430" s="441" t="s">
+        <v>278</v>
+      </c>
+      <c r="F430" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="G430" s="431"/>
+      <c r="H430" s="431"/>
+      <c r="I430" s="431"/>
+      <c r="J430" s="431"/>
+      <c r="K430" s="432"/>
+      <c r="L430" s="438"/>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="435"/>
+      <c r="C431" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="D431" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="E431" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="F431" s="445"/>
+      <c r="G431" s="446"/>
+      <c r="H431" s="446"/>
+      <c r="I431" s="446"/>
+      <c r="J431" s="446"/>
+      <c r="K431" s="447"/>
+      <c r="L431" s="438"/>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="435" t="n">
+        <v>7</v>
+      </c>
+      <c r="C432" s="423" t="s">
+        <v>288</v>
+      </c>
+      <c r="D432" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E432" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F432" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="G432" s="431"/>
+      <c r="H432" s="431"/>
+      <c r="I432" s="431"/>
+      <c r="J432" s="431"/>
+      <c r="K432" s="432"/>
+      <c r="L432" s="438"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="435"/>
+      <c r="C433" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="D433" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="E433" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="F433" s="449"/>
+      <c r="G433" s="446"/>
+      <c r="H433" s="446"/>
+      <c r="I433" s="446"/>
+      <c r="J433" s="446"/>
+      <c r="K433" s="447"/>
+      <c r="L433" s="438"/>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="435" t="n">
+        <v>8</v>
+      </c>
+      <c r="C434" s="423" t="s">
+        <v>331</v>
+      </c>
+      <c r="D434" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E434" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F434" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="G434" s="431"/>
+      <c r="H434" s="431"/>
+      <c r="I434" s="431"/>
+      <c r="J434" s="431"/>
+      <c r="K434" s="432"/>
+      <c r="L434" s="438"/>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="435"/>
+      <c r="C435" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="D435" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="E435" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="F435" s="445"/>
+      <c r="G435" s="446"/>
+      <c r="H435" s="446"/>
+      <c r="I435" s="446"/>
+      <c r="J435" s="446"/>
+      <c r="K435" s="447"/>
+      <c r="L435" s="438"/>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="435" t="n">
+        <v>9</v>
+      </c>
+      <c r="C436" s="423" t="s">
+        <v>322</v>
+      </c>
+      <c r="D436" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E436" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F436" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="G436" s="431"/>
+      <c r="H436" s="431"/>
+      <c r="I436" s="431"/>
+      <c r="J436" s="431"/>
+      <c r="K436" s="432"/>
+      <c r="L436" s="438"/>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="435"/>
+      <c r="C437" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="D437" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="E437" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="F437" s="449"/>
+      <c r="G437" s="446"/>
+      <c r="H437" s="446"/>
+      <c r="I437" s="446"/>
+      <c r="J437" s="446"/>
+      <c r="K437" s="447"/>
+      <c r="L437" s="438"/>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B438" s="435" t="n">
+        <v>10</v>
+      </c>
+      <c r="C438" s="423" t="s">
+        <v>287</v>
+      </c>
+      <c r="D438" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E438" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F438" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="G438" s="431"/>
+      <c r="H438" s="431"/>
+      <c r="I438" s="431"/>
+      <c r="J438" s="431"/>
+      <c r="K438" s="432"/>
+      <c r="L438" s="438"/>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B439" s="435"/>
+      <c r="C439" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="D439" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="E439" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="F439" s="445"/>
+      <c r="G439" s="446"/>
+      <c r="H439" s="446"/>
+      <c r="I439" s="446"/>
+      <c r="J439" s="446"/>
+      <c r="K439" s="447"/>
+      <c r="L439" s="438"/>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="435" t="n">
+        <v>11</v>
+      </c>
+      <c r="C440" s="423" t="s">
+        <v>332</v>
+      </c>
+      <c r="D440" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E440" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F440" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="G440" s="431"/>
+      <c r="H440" s="431"/>
+      <c r="I440" s="431"/>
+      <c r="J440" s="431"/>
+      <c r="K440" s="432"/>
+      <c r="L440" s="438"/>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="435"/>
+      <c r="C441" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="D441" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="E441" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="F441" s="449"/>
+      <c r="G441" s="446"/>
+      <c r="H441" s="446"/>
+      <c r="I441" s="446"/>
+      <c r="J441" s="446"/>
+      <c r="K441" s="447"/>
+      <c r="L441" s="438"/>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="435" t="n">
+        <v>12</v>
+      </c>
+      <c r="C442" s="423" t="s">
+        <v>310</v>
+      </c>
+      <c r="D442" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E442" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F442" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="G442" s="431"/>
+      <c r="H442" s="431"/>
+      <c r="I442" s="431"/>
+      <c r="J442" s="431"/>
+      <c r="K442" s="432"/>
+      <c r="L442" s="438"/>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="435"/>
+      <c r="C443" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="D443" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="E443" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="F443" s="445"/>
+      <c r="G443" s="446"/>
+      <c r="H443" s="446"/>
+      <c r="I443" s="446"/>
+      <c r="J443" s="446"/>
+      <c r="K443" s="447"/>
+      <c r="L443" s="438"/>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B444" s="435" t="n">
+        <v>13</v>
+      </c>
+      <c r="C444" s="442" t="s">
+        <v>325</v>
+      </c>
+      <c r="D444" s="443" t="n">
+        <v>20</v>
+      </c>
+      <c r="E444" s="443" t="s">
+        <v>278</v>
+      </c>
+      <c r="F444" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="G444" s="431"/>
+      <c r="H444" s="431"/>
+      <c r="I444" s="431"/>
+      <c r="J444" s="431"/>
+      <c r="K444" s="432"/>
+      <c r="L444" s="438"/>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="435"/>
+      <c r="C445" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="D445" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="E445" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="F445" s="449"/>
+      <c r="G445" s="446"/>
+      <c r="H445" s="446"/>
+      <c r="I445" s="446"/>
+      <c r="J445" s="446"/>
+      <c r="K445" s="447"/>
+      <c r="L445" s="438"/>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B446" s="435" t="n">
+        <v>14</v>
+      </c>
+      <c r="C446" s="423" t="s">
+        <v>326</v>
+      </c>
+      <c r="D446" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E446" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F446" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="G446" s="450"/>
+      <c r="H446" s="450"/>
+      <c r="I446" s="450"/>
+      <c r="J446" s="450"/>
+      <c r="K446" s="432"/>
+      <c r="L446" s="438"/>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B447" s="435"/>
+      <c r="C447" s="440" t="s">
+        <v>279</v>
+      </c>
+      <c r="D447" s="440" t="n">
+        <v>22</v>
+      </c>
+      <c r="E447" s="440" t="s">
+        <v>278</v>
+      </c>
+      <c r="F447" s="445"/>
+      <c r="G447" s="451"/>
+      <c r="H447" s="451"/>
+      <c r="I447" s="451"/>
+      <c r="J447" s="451"/>
+      <c r="K447" s="447"/>
+      <c r="L447" s="438"/>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B448" s="435" t="n">
+        <v>15</v>
+      </c>
+      <c r="C448" s="423" t="s">
+        <v>289</v>
+      </c>
+      <c r="D448" s="423" t="n">
+        <v>120</v>
+      </c>
+      <c r="E448" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="F448" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="G448" s="450"/>
+      <c r="H448" s="450"/>
+      <c r="I448" s="450"/>
+      <c r="J448" s="450"/>
+      <c r="K448" s="432"/>
+      <c r="L448" s="438"/>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B449" s="435"/>
+      <c r="C449" s="440"/>
+      <c r="D449" s="440"/>
+      <c r="E449" s="440"/>
+      <c r="F449" s="445"/>
+      <c r="G449" s="451"/>
+      <c r="H449" s="451"/>
+      <c r="I449" s="451"/>
+      <c r="J449" s="451"/>
+      <c r="K449" s="447"/>
+      <c r="L449" s="438"/>
+    </row>
   </sheetData>
-  <mergeCells count="1298">
+  <mergeCells count="1372">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -15936,6 +16778,80 @@
     <mergeCell ref="L402:L403"/>
     <mergeCell ref="B404:B405"/>
     <mergeCell ref="L404:L405"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="C409:C410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="E409:E410"/>
+    <mergeCell ref="F409:F410"/>
+    <mergeCell ref="G409:H410"/>
+    <mergeCell ref="I409:L410"/>
+    <mergeCell ref="B411:C411"/>
+    <mergeCell ref="E411:E413"/>
+    <mergeCell ref="F411:F413"/>
+    <mergeCell ref="G411:H411"/>
+    <mergeCell ref="I411:L411"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="G412:H412"/>
+    <mergeCell ref="I412:L412"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="G413:H413"/>
+    <mergeCell ref="I413:L413"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:H414"/>
+    <mergeCell ref="I414:L414"/>
+    <mergeCell ref="D415:H415"/>
+    <mergeCell ref="I415:L415"/>
+    <mergeCell ref="B416:C416"/>
+    <mergeCell ref="D416:H416"/>
+    <mergeCell ref="I416:L416"/>
+    <mergeCell ref="B417:C418"/>
+    <mergeCell ref="D417:H418"/>
+    <mergeCell ref="I417:L417"/>
+    <mergeCell ref="I418:L418"/>
+    <mergeCell ref="C419:F419"/>
+    <mergeCell ref="G419:L419"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="F420:F421"/>
+    <mergeCell ref="G420:G421"/>
+    <mergeCell ref="H420:H421"/>
+    <mergeCell ref="I420:I421"/>
+    <mergeCell ref="J420:J421"/>
+    <mergeCell ref="K420:K421"/>
+    <mergeCell ref="L420:L421"/>
+    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="F422:F423"/>
+    <mergeCell ref="G422:G423"/>
+    <mergeCell ref="H422:H423"/>
+    <mergeCell ref="I422:I423"/>
+    <mergeCell ref="J422:J423"/>
+    <mergeCell ref="K422:K423"/>
+    <mergeCell ref="L422:L423"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="L424:L425"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="L426:L427"/>
+    <mergeCell ref="B428:B429"/>
+    <mergeCell ref="L428:L429"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="L430:L431"/>
+    <mergeCell ref="B432:B433"/>
+    <mergeCell ref="L432:L433"/>
+    <mergeCell ref="B434:B435"/>
+    <mergeCell ref="L434:L435"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="L436:L437"/>
+    <mergeCell ref="B438:B439"/>
+    <mergeCell ref="L438:L439"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="L440:L441"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="L442:L443"/>
+    <mergeCell ref="B444:B445"/>
+    <mergeCell ref="L444:L445"/>
+    <mergeCell ref="B446:B447"/>
+    <mergeCell ref="L446:L447"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="L448:L449"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15968,24 +16884,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="452" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B1" s="453" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B2" s="453" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="342">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -1059,6 +1059,15 @@
   </si>
   <si>
     <t xml:space="preserve">шведская стенка подъем ног задний</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подъем руки обратный хват правая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отжимания узкий хват</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пресс на брусьях</t>
   </si>
   <si>
     <t xml:space="preserve">Приседания в выпаде с поднятыми руками и грузом</t>
@@ -1905,7 +1914,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="455">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3712,6 +3721,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3795,7 +3808,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4021,12 +4034,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="29591451"/>
-        <c:axId val="77378379"/>
+        <c:axId val="8791903"/>
+        <c:axId val="25255685"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="29591451"/>
+        <c:axId val="8791903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,14 +4072,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77378379"/>
+        <c:crossAx val="25255685"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77378379"/>
+        <c:axId val="25255685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,7 +4160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29591451"/>
+        <c:crossAx val="8791903"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4190,9 +4203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>608040</xdr:colOff>
+      <xdr:colOff>607320</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4201,7 +4214,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4386240" cy="2644560"/>
+        <a:ext cx="4385520" cy="2643840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6201,10 +6214,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:L449"/>
+  <dimension ref="B1:AL451"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A399" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R408" activeCellId="0" sqref="R408"/>
+      <selection pane="topLeft" activeCell="O409" activeCellId="0" sqref="O409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6212,10 +6225,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="17" style="0" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="33.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="8.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14648,838 +14665,1667 @@
       <c r="L405" s="438"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B409" s="368"/>
-      <c r="C409" s="368" t="s">
+      <c r="O409" s="368"/>
+      <c r="P409" s="368" t="s">
         <v>298</v>
       </c>
-      <c r="D409" s="368" t="s">
+      <c r="Q409" s="368" t="s">
         <v>126</v>
       </c>
-      <c r="E409" s="368" t="s">
+      <c r="R409" s="368" t="s">
         <v>258</v>
       </c>
-      <c r="F409" s="368" t="s">
+      <c r="S409" s="368" t="s">
         <v>259</v>
       </c>
-      <c r="G409" s="397" t="s">
+      <c r="T409" s="397" t="s">
         <v>260</v>
       </c>
-      <c r="H409" s="397"/>
-      <c r="I409" s="358" t="s">
+      <c r="U409" s="397"/>
+      <c r="V409" s="358" t="s">
         <v>261</v>
       </c>
-      <c r="J409" s="358"/>
-      <c r="K409" s="358"/>
-      <c r="L409" s="358"/>
+      <c r="W409" s="358"/>
+      <c r="X409" s="358"/>
+      <c r="Y409" s="358"/>
+      <c r="AB409" s="368"/>
+      <c r="AC409" s="368" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD409" s="368" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE409" s="368" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF409" s="368" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG409" s="397" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH409" s="397"/>
+      <c r="AI409" s="358" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ409" s="358"/>
+      <c r="AK409" s="358"/>
+      <c r="AL409" s="358"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B410" s="368"/>
-      <c r="C410" s="368"/>
-      <c r="D410" s="368"/>
-      <c r="E410" s="368"/>
-      <c r="F410" s="368"/>
-      <c r="G410" s="368"/>
-      <c r="H410" s="397"/>
-      <c r="I410" s="358"/>
-      <c r="J410" s="358"/>
-      <c r="K410" s="358"/>
-      <c r="L410" s="358"/>
+      <c r="O410" s="368"/>
+      <c r="P410" s="368"/>
+      <c r="Q410" s="368"/>
+      <c r="R410" s="368"/>
+      <c r="S410" s="368"/>
+      <c r="T410" s="368"/>
+      <c r="U410" s="397"/>
+      <c r="V410" s="358"/>
+      <c r="W410" s="358"/>
+      <c r="X410" s="358"/>
+      <c r="Y410" s="358"/>
+      <c r="AB410" s="368"/>
+      <c r="AC410" s="368"/>
+      <c r="AD410" s="368"/>
+      <c r="AE410" s="368"/>
+      <c r="AF410" s="368"/>
+      <c r="AG410" s="368"/>
+      <c r="AH410" s="397"/>
+      <c r="AI410" s="358"/>
+      <c r="AJ410" s="358"/>
+      <c r="AK410" s="358"/>
+      <c r="AL410" s="358"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B411" s="398" t="s">
+      <c r="O411" s="398" t="s">
         <v>262</v>
       </c>
-      <c r="C411" s="398"/>
-      <c r="D411" s="399" t="n">
+      <c r="P411" s="398"/>
+      <c r="Q411" s="399" t="n">
         <v>8.12</v>
       </c>
-      <c r="E411" s="400" t="s">
+      <c r="R411" s="400" t="s">
         <v>263</v>
       </c>
-      <c r="F411" s="400" t="n">
+      <c r="S411" s="400" t="n">
         <v>4</v>
       </c>
-      <c r="G411" s="401" t="n">
-        <f aca="false">D411*F411</f>
+      <c r="T411" s="401" t="n">
+        <f aca="false">Q411*S411</f>
         <v>32.48</v>
       </c>
-      <c r="H411" s="401"/>
-      <c r="I411" s="402"/>
-      <c r="J411" s="402"/>
-      <c r="K411" s="402"/>
-      <c r="L411" s="402"/>
+      <c r="U411" s="401"/>
+      <c r="V411" s="402"/>
+      <c r="W411" s="402"/>
+      <c r="X411" s="402"/>
+      <c r="Y411" s="402"/>
+      <c r="AB411" s="398" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC411" s="398"/>
+      <c r="AD411" s="399" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="AE411" s="400" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF411" s="400" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG411" s="401" t="n">
+        <f aca="false">AD411*AF411</f>
+        <v>32.48</v>
+      </c>
+      <c r="AH411" s="401"/>
+      <c r="AI411" s="402"/>
+      <c r="AJ411" s="402"/>
+      <c r="AK411" s="402"/>
+      <c r="AL411" s="402"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B412" s="403" t="s">
+      <c r="O412" s="403" t="s">
         <v>265</v>
       </c>
-      <c r="C412" s="403"/>
-      <c r="D412" s="404" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E412" s="400"/>
-      <c r="F412" s="400"/>
-      <c r="G412" s="405" t="n">
-        <f aca="false">D412*F411</f>
+      <c r="P412" s="403"/>
+      <c r="Q412" s="404" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="R412" s="400"/>
+      <c r="S412" s="400"/>
+      <c r="T412" s="405" t="n">
+        <f aca="false">Q412*S411</f>
+        <v>17.2</v>
+      </c>
+      <c r="U412" s="405"/>
+      <c r="V412" s="406" t="s">
+        <v>314</v>
+      </c>
+      <c r="W412" s="406"/>
+      <c r="X412" s="406"/>
+      <c r="Y412" s="406"/>
+      <c r="AB412" s="403" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC412" s="403"/>
+      <c r="AD412" s="404" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE412" s="400"/>
+      <c r="AF412" s="400"/>
+      <c r="AG412" s="405" t="n">
+        <f aca="false">AD412*AF411</f>
+        <v>17.2</v>
+      </c>
+      <c r="AH412" s="405"/>
+      <c r="AI412" s="406" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ412" s="406"/>
+      <c r="AK412" s="406"/>
+      <c r="AL412" s="406"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O413" s="403" t="s">
+        <v>267</v>
+      </c>
+      <c r="P413" s="403"/>
+      <c r="Q413" s="407" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="R413" s="400"/>
+      <c r="S413" s="400"/>
+      <c r="T413" s="408" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="U413" s="408"/>
+      <c r="V413" s="406" t="s">
+        <v>268</v>
+      </c>
+      <c r="W413" s="406"/>
+      <c r="X413" s="406"/>
+      <c r="Y413" s="406"/>
+      <c r="AB413" s="403" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC413" s="403"/>
+      <c r="AD413" s="407" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="AE413" s="400"/>
+      <c r="AF413" s="400"/>
+      <c r="AG413" s="408" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="AH413" s="408"/>
+      <c r="AI413" s="406" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ413" s="406"/>
+      <c r="AK413" s="406"/>
+      <c r="AL413" s="406"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O414" s="403" t="s">
+        <v>269</v>
+      </c>
+      <c r="P414" s="403"/>
+      <c r="Q414" s="409" t="s">
+        <v>327</v>
+      </c>
+      <c r="R414" s="409"/>
+      <c r="S414" s="409"/>
+      <c r="T414" s="409"/>
+      <c r="U414" s="409"/>
+      <c r="V414" s="410" t="s">
+        <v>270</v>
+      </c>
+      <c r="W414" s="410"/>
+      <c r="X414" s="410"/>
+      <c r="Y414" s="410"/>
+      <c r="AB414" s="403" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC414" s="403"/>
+      <c r="AD414" s="409" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE414" s="409"/>
+      <c r="AF414" s="409"/>
+      <c r="AG414" s="409"/>
+      <c r="AH414" s="409"/>
+      <c r="AI414" s="410" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ414" s="410"/>
+      <c r="AK414" s="410"/>
+      <c r="AL414" s="410"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O415" s="411" t="s">
+        <v>271</v>
+      </c>
+      <c r="P415" s="412"/>
+      <c r="Q415" s="413" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="R415" s="413"/>
+      <c r="S415" s="413"/>
+      <c r="T415" s="413"/>
+      <c r="U415" s="413"/>
+      <c r="V415" s="406" t="s">
+        <v>272</v>
+      </c>
+      <c r="W415" s="406"/>
+      <c r="X415" s="406"/>
+      <c r="Y415" s="406"/>
+      <c r="AB415" s="411" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC415" s="412"/>
+      <c r="AD415" s="413" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="AE415" s="413"/>
+      <c r="AF415" s="413"/>
+      <c r="AG415" s="413"/>
+      <c r="AH415" s="413"/>
+      <c r="AI415" s="406" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ415" s="406"/>
+      <c r="AK415" s="406"/>
+      <c r="AL415" s="406"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O416" s="403" t="s">
+        <v>31</v>
+      </c>
+      <c r="P416" s="403"/>
+      <c r="Q416" s="414" t="n">
+        <v>43574</v>
+      </c>
+      <c r="R416" s="414"/>
+      <c r="S416" s="414"/>
+      <c r="T416" s="414"/>
+      <c r="U416" s="414"/>
+      <c r="V416" s="406" t="s">
+        <v>264</v>
+      </c>
+      <c r="W416" s="406"/>
+      <c r="X416" s="406"/>
+      <c r="Y416" s="406"/>
+      <c r="AB416" s="403" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC416" s="403"/>
+      <c r="AD416" s="414" t="n">
+        <v>43574</v>
+      </c>
+      <c r="AE416" s="414"/>
+      <c r="AF416" s="414"/>
+      <c r="AG416" s="414"/>
+      <c r="AH416" s="414"/>
+      <c r="AI416" s="406" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ416" s="406"/>
+      <c r="AK416" s="406"/>
+      <c r="AL416" s="406"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O417" s="416" t="s">
+        <v>273</v>
+      </c>
+      <c r="P417" s="416"/>
+      <c r="Q417" s="417" t="s">
+        <v>274</v>
+      </c>
+      <c r="R417" s="417"/>
+      <c r="S417" s="417"/>
+      <c r="T417" s="417"/>
+      <c r="U417" s="417"/>
+      <c r="V417" s="406"/>
+      <c r="W417" s="406"/>
+      <c r="X417" s="406"/>
+      <c r="Y417" s="406"/>
+      <c r="AB417" s="416" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC417" s="416"/>
+      <c r="AD417" s="417" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE417" s="417"/>
+      <c r="AF417" s="417"/>
+      <c r="AG417" s="417"/>
+      <c r="AH417" s="417"/>
+      <c r="AI417" s="406"/>
+      <c r="AJ417" s="406"/>
+      <c r="AK417" s="406"/>
+      <c r="AL417" s="406"/>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O418" s="416"/>
+      <c r="P418" s="416"/>
+      <c r="Q418" s="417"/>
+      <c r="R418" s="417"/>
+      <c r="S418" s="417"/>
+      <c r="T418" s="417"/>
+      <c r="U418" s="417"/>
+      <c r="V418" s="418"/>
+      <c r="W418" s="418"/>
+      <c r="X418" s="418"/>
+      <c r="Y418" s="418"/>
+      <c r="AB418" s="416"/>
+      <c r="AC418" s="416"/>
+      <c r="AD418" s="417"/>
+      <c r="AE418" s="417"/>
+      <c r="AF418" s="417"/>
+      <c r="AG418" s="417"/>
+      <c r="AH418" s="417"/>
+      <c r="AI418" s="418"/>
+      <c r="AJ418" s="418"/>
+      <c r="AK418" s="418"/>
+      <c r="AL418" s="418"/>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O419" s="419"/>
+      <c r="P419" s="420" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q419" s="420"/>
+      <c r="R419" s="420"/>
+      <c r="S419" s="420"/>
+      <c r="T419" s="180" t="s">
+        <v>276</v>
+      </c>
+      <c r="U419" s="180"/>
+      <c r="V419" s="180"/>
+      <c r="W419" s="180"/>
+      <c r="X419" s="180"/>
+      <c r="Y419" s="180"/>
+      <c r="AB419" s="419"/>
+      <c r="AC419" s="420" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD419" s="420"/>
+      <c r="AE419" s="420"/>
+      <c r="AF419" s="420"/>
+      <c r="AG419" s="180" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH419" s="180"/>
+      <c r="AI419" s="180"/>
+      <c r="AJ419" s="180"/>
+      <c r="AK419" s="180"/>
+      <c r="AL419" s="180"/>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O420" s="421" t="n">
+        <v>1</v>
+      </c>
+      <c r="P420" s="422" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q420" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R420" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S420" s="424" t="s">
+        <v>145</v>
+      </c>
+      <c r="T420" s="425"/>
+      <c r="U420" s="425"/>
+      <c r="V420" s="425"/>
+      <c r="W420" s="425"/>
+      <c r="X420" s="425"/>
+      <c r="Y420" s="426"/>
+      <c r="AB420" s="421" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC420" s="422" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD420" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE420" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF420" s="424" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG420" s="425"/>
+      <c r="AH420" s="425"/>
+      <c r="AI420" s="425"/>
+      <c r="AJ420" s="425"/>
+      <c r="AK420" s="425"/>
+      <c r="AL420" s="426"/>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O421" s="421"/>
+      <c r="P421" s="427" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q421" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="R421" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="S421" s="424"/>
+      <c r="T421" s="425"/>
+      <c r="U421" s="425"/>
+      <c r="V421" s="425"/>
+      <c r="W421" s="425"/>
+      <c r="X421" s="425"/>
+      <c r="Y421" s="426"/>
+      <c r="AB421" s="421"/>
+      <c r="AC421" s="427" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD421" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE421" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF421" s="424"/>
+      <c r="AG421" s="425"/>
+      <c r="AH421" s="425"/>
+      <c r="AI421" s="425"/>
+      <c r="AJ421" s="425"/>
+      <c r="AK421" s="425"/>
+      <c r="AL421" s="426"/>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O422" s="435" t="n">
+        <v>2</v>
+      </c>
+      <c r="P422" s="423" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q422" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R422" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S422" s="424" t="s">
+        <v>145</v>
+      </c>
+      <c r="T422" s="425"/>
+      <c r="U422" s="425"/>
+      <c r="V422" s="425"/>
+      <c r="W422" s="425"/>
+      <c r="X422" s="425"/>
+      <c r="Y422" s="438"/>
+      <c r="AB422" s="435" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC422" s="423" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD422" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE422" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF422" s="424" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG422" s="425"/>
+      <c r="AH422" s="425"/>
+      <c r="AI422" s="425"/>
+      <c r="AJ422" s="425"/>
+      <c r="AK422" s="425"/>
+      <c r="AL422" s="438"/>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O423" s="435"/>
+      <c r="P423" s="427" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q423" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="R423" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="S423" s="424"/>
+      <c r="T423" s="425"/>
+      <c r="U423" s="425"/>
+      <c r="V423" s="425"/>
+      <c r="W423" s="425"/>
+      <c r="X423" s="425"/>
+      <c r="Y423" s="438"/>
+      <c r="AB423" s="435"/>
+      <c r="AC423" s="427" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD423" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE423" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF423" s="424"/>
+      <c r="AG423" s="425"/>
+      <c r="AH423" s="425"/>
+      <c r="AI423" s="425"/>
+      <c r="AJ423" s="425"/>
+      <c r="AK423" s="425"/>
+      <c r="AL423" s="438"/>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O424" s="435" t="n">
+        <v>3</v>
+      </c>
+      <c r="P424" s="452" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q424" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R424" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S424" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="T424" s="431"/>
+      <c r="U424" s="431"/>
+      <c r="V424" s="431"/>
+      <c r="W424" s="431"/>
+      <c r="X424" s="432"/>
+      <c r="Y424" s="438"/>
+      <c r="AB424" s="435" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC424" s="441" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD424" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE424" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF424" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG424" s="431"/>
+      <c r="AH424" s="431"/>
+      <c r="AI424" s="431"/>
+      <c r="AJ424" s="431"/>
+      <c r="AK424" s="432"/>
+      <c r="AL424" s="438"/>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O425" s="435"/>
+      <c r="P425" s="434" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q425" s="434" t="n">
+        <v>22</v>
+      </c>
+      <c r="R425" s="434" t="s">
+        <v>278</v>
+      </c>
+      <c r="S425" s="445"/>
+      <c r="T425" s="446"/>
+      <c r="U425" s="446"/>
+      <c r="V425" s="446"/>
+      <c r="W425" s="446"/>
+      <c r="X425" s="447"/>
+      <c r="Y425" s="438"/>
+      <c r="AB425" s="435"/>
+      <c r="AC425" s="434" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD425" s="434" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE425" s="434" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF425" s="445"/>
+      <c r="AG425" s="446"/>
+      <c r="AH425" s="446"/>
+      <c r="AI425" s="446"/>
+      <c r="AJ425" s="446"/>
+      <c r="AK425" s="447"/>
+      <c r="AL425" s="438"/>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O426" s="435" t="n">
+        <v>4</v>
+      </c>
+      <c r="P426" s="422" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q426" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R426" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S426" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="T426" s="431"/>
+      <c r="U426" s="431"/>
+      <c r="V426" s="431"/>
+      <c r="W426" s="431"/>
+      <c r="X426" s="432"/>
+      <c r="Y426" s="438"/>
+      <c r="AB426" s="435" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC426" s="422" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD426" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE426" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF426" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG426" s="431"/>
+      <c r="AH426" s="431"/>
+      <c r="AI426" s="431"/>
+      <c r="AJ426" s="431"/>
+      <c r="AK426" s="432"/>
+      <c r="AL426" s="438"/>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O427" s="435"/>
+      <c r="P427" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q427" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="R427" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="S427" s="449"/>
+      <c r="T427" s="446"/>
+      <c r="U427" s="446"/>
+      <c r="V427" s="446"/>
+      <c r="W427" s="446"/>
+      <c r="X427" s="447"/>
+      <c r="Y427" s="438"/>
+      <c r="AB427" s="435"/>
+      <c r="AC427" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD427" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE427" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF427" s="449"/>
+      <c r="AG427" s="446"/>
+      <c r="AH427" s="446"/>
+      <c r="AI427" s="446"/>
+      <c r="AJ427" s="446"/>
+      <c r="AK427" s="447"/>
+      <c r="AL427" s="438"/>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O428" s="435" t="n">
+        <v>5</v>
+      </c>
+      <c r="P428" s="423" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q428" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R428" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S428" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="T428" s="431"/>
+      <c r="U428" s="431"/>
+      <c r="V428" s="431"/>
+      <c r="W428" s="431"/>
+      <c r="X428" s="432"/>
+      <c r="Y428" s="438"/>
+      <c r="AB428" s="435" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC428" s="423" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD428" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE428" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF428" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG428" s="431"/>
+      <c r="AH428" s="431"/>
+      <c r="AI428" s="431"/>
+      <c r="AJ428" s="431"/>
+      <c r="AK428" s="432"/>
+      <c r="AL428" s="438"/>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O429" s="435"/>
+      <c r="P429" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q429" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="R429" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="S429" s="449"/>
+      <c r="T429" s="446"/>
+      <c r="U429" s="446"/>
+      <c r="V429" s="446"/>
+      <c r="W429" s="446"/>
+      <c r="X429" s="447"/>
+      <c r="Y429" s="438"/>
+      <c r="AB429" s="435"/>
+      <c r="AC429" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD429" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE429" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF429" s="449"/>
+      <c r="AG429" s="446"/>
+      <c r="AH429" s="446"/>
+      <c r="AI429" s="446"/>
+      <c r="AJ429" s="446"/>
+      <c r="AK429" s="447"/>
+      <c r="AL429" s="438"/>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O430" s="435" t="n">
+        <v>6</v>
+      </c>
+      <c r="P430" s="441" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q430" s="441" t="n">
+        <v>20</v>
+      </c>
+      <c r="R430" s="441" t="s">
+        <v>278</v>
+      </c>
+      <c r="S430" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="T430" s="431"/>
+      <c r="U430" s="431"/>
+      <c r="V430" s="431"/>
+      <c r="W430" s="431"/>
+      <c r="X430" s="432"/>
+      <c r="Y430" s="438"/>
+      <c r="AB430" s="435" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC430" s="423" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD430" s="441" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE430" s="441" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF430" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG430" s="431"/>
+      <c r="AH430" s="431"/>
+      <c r="AI430" s="431"/>
+      <c r="AJ430" s="431"/>
+      <c r="AK430" s="432"/>
+      <c r="AL430" s="438"/>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O431" s="435"/>
+      <c r="P431" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q431" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="R431" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="S431" s="445"/>
+      <c r="T431" s="446"/>
+      <c r="U431" s="446"/>
+      <c r="V431" s="446"/>
+      <c r="W431" s="446"/>
+      <c r="X431" s="447"/>
+      <c r="Y431" s="438"/>
+      <c r="AB431" s="435"/>
+      <c r="AC431" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD431" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE431" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF431" s="445"/>
+      <c r="AG431" s="446"/>
+      <c r="AH431" s="446"/>
+      <c r="AI431" s="446"/>
+      <c r="AJ431" s="446"/>
+      <c r="AK431" s="447"/>
+      <c r="AL431" s="438"/>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O432" s="435" t="n">
+        <v>7</v>
+      </c>
+      <c r="P432" s="423" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q432" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R432" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S432" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="T432" s="431"/>
+      <c r="U432" s="431"/>
+      <c r="V432" s="431"/>
+      <c r="W432" s="431"/>
+      <c r="X432" s="432"/>
+      <c r="Y432" s="438"/>
+      <c r="AB432" s="435" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC432" s="441" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD432" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE432" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF432" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG432" s="431"/>
+      <c r="AH432" s="431"/>
+      <c r="AI432" s="431"/>
+      <c r="AJ432" s="431"/>
+      <c r="AK432" s="432"/>
+      <c r="AL432" s="438"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O433" s="435"/>
+      <c r="P433" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q433" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="R433" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="S433" s="449"/>
+      <c r="T433" s="446"/>
+      <c r="U433" s="446"/>
+      <c r="V433" s="446"/>
+      <c r="W433" s="446"/>
+      <c r="X433" s="447"/>
+      <c r="Y433" s="438"/>
+      <c r="AB433" s="435"/>
+      <c r="AC433" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD433" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE433" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF433" s="449"/>
+      <c r="AG433" s="446"/>
+      <c r="AH433" s="446"/>
+      <c r="AI433" s="446"/>
+      <c r="AJ433" s="446"/>
+      <c r="AK433" s="447"/>
+      <c r="AL433" s="438"/>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O434" s="435" t="n">
+        <v>8</v>
+      </c>
+      <c r="P434" s="423" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q434" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R434" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S434" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="T434" s="431"/>
+      <c r="U434" s="431"/>
+      <c r="V434" s="431"/>
+      <c r="W434" s="431"/>
+      <c r="X434" s="432"/>
+      <c r="Y434" s="438"/>
+      <c r="AB434" s="435" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC434" s="423" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD434" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE434" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF434" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG434" s="431"/>
+      <c r="AH434" s="431"/>
+      <c r="AI434" s="431"/>
+      <c r="AJ434" s="431"/>
+      <c r="AK434" s="432"/>
+      <c r="AL434" s="438"/>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O435" s="435"/>
+      <c r="P435" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q435" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="R435" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="S435" s="445"/>
+      <c r="T435" s="446"/>
+      <c r="U435" s="446"/>
+      <c r="V435" s="446"/>
+      <c r="W435" s="446"/>
+      <c r="X435" s="447"/>
+      <c r="Y435" s="438"/>
+      <c r="AB435" s="435"/>
+      <c r="AC435" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD435" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE435" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF435" s="445"/>
+      <c r="AG435" s="446"/>
+      <c r="AH435" s="446"/>
+      <c r="AI435" s="446"/>
+      <c r="AJ435" s="446"/>
+      <c r="AK435" s="447"/>
+      <c r="AL435" s="438"/>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O436" s="435" t="n">
+        <v>9</v>
+      </c>
+      <c r="P436" s="423" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q436" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R436" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S436" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="T436" s="431"/>
+      <c r="U436" s="431"/>
+      <c r="V436" s="431"/>
+      <c r="W436" s="431"/>
+      <c r="X436" s="432"/>
+      <c r="Y436" s="438"/>
+      <c r="AB436" s="435" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC436" s="423" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD436" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE436" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF436" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG436" s="431"/>
+      <c r="AH436" s="431"/>
+      <c r="AI436" s="431"/>
+      <c r="AJ436" s="431"/>
+      <c r="AK436" s="432"/>
+      <c r="AL436" s="438"/>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O437" s="435"/>
+      <c r="P437" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q437" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="R437" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="S437" s="449"/>
+      <c r="T437" s="446"/>
+      <c r="U437" s="446"/>
+      <c r="V437" s="446"/>
+      <c r="W437" s="446"/>
+      <c r="X437" s="447"/>
+      <c r="Y437" s="438"/>
+      <c r="AB437" s="435"/>
+      <c r="AC437" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD437" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE437" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF437" s="449"/>
+      <c r="AG437" s="446"/>
+      <c r="AH437" s="446"/>
+      <c r="AI437" s="446"/>
+      <c r="AJ437" s="446"/>
+      <c r="AK437" s="447"/>
+      <c r="AL437" s="438"/>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O438" s="435" t="n">
+        <v>10</v>
+      </c>
+      <c r="P438" s="423" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q438" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R438" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S438" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="T438" s="431"/>
+      <c r="U438" s="431"/>
+      <c r="V438" s="431"/>
+      <c r="W438" s="431"/>
+      <c r="X438" s="432"/>
+      <c r="Y438" s="438"/>
+      <c r="AB438" s="435" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC438" s="423" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD438" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE438" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF438" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG438" s="431"/>
+      <c r="AH438" s="431"/>
+      <c r="AI438" s="431"/>
+      <c r="AJ438" s="431"/>
+      <c r="AK438" s="432"/>
+      <c r="AL438" s="438"/>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O439" s="435"/>
+      <c r="P439" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q439" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="R439" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="S439" s="445"/>
+      <c r="T439" s="446"/>
+      <c r="U439" s="446"/>
+      <c r="V439" s="446"/>
+      <c r="W439" s="446"/>
+      <c r="X439" s="447"/>
+      <c r="Y439" s="438"/>
+      <c r="AB439" s="435"/>
+      <c r="AC439" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD439" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE439" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF439" s="445"/>
+      <c r="AG439" s="446"/>
+      <c r="AH439" s="446"/>
+      <c r="AI439" s="446"/>
+      <c r="AJ439" s="446"/>
+      <c r="AK439" s="447"/>
+      <c r="AL439" s="438"/>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O440" s="435" t="n">
+        <v>11</v>
+      </c>
+      <c r="P440" s="423" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q440" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R440" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S440" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="T440" s="431"/>
+      <c r="U440" s="431"/>
+      <c r="V440" s="431"/>
+      <c r="W440" s="431"/>
+      <c r="X440" s="432"/>
+      <c r="Y440" s="438"/>
+      <c r="AB440" s="435" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC440" s="423" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD440" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE440" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF440" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG440" s="431"/>
+      <c r="AH440" s="431"/>
+      <c r="AI440" s="431"/>
+      <c r="AJ440" s="431"/>
+      <c r="AK440" s="432"/>
+      <c r="AL440" s="438"/>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O441" s="435"/>
+      <c r="P441" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q441" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="R441" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="S441" s="449"/>
+      <c r="T441" s="446"/>
+      <c r="U441" s="446"/>
+      <c r="V441" s="446"/>
+      <c r="W441" s="446"/>
+      <c r="X441" s="447"/>
+      <c r="Y441" s="438"/>
+      <c r="AB441" s="435"/>
+      <c r="AC441" s="439" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD441" s="439" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE441" s="439" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF441" s="449"/>
+      <c r="AG441" s="446"/>
+      <c r="AH441" s="446"/>
+      <c r="AI441" s="446"/>
+      <c r="AJ441" s="446"/>
+      <c r="AK441" s="447"/>
+      <c r="AL441" s="438"/>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O442" s="435" t="n">
+        <v>12</v>
+      </c>
+      <c r="P442" s="423" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q442" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="R442" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S442" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="T442" s="431"/>
+      <c r="U442" s="431"/>
+      <c r="V442" s="431"/>
+      <c r="W442" s="431"/>
+      <c r="X442" s="432"/>
+      <c r="Y442" s="438"/>
+      <c r="AB442" s="435" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC442" s="423" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD442" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE442" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF442" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG442" s="431"/>
+      <c r="AH442" s="431"/>
+      <c r="AI442" s="431"/>
+      <c r="AJ442" s="431"/>
+      <c r="AK442" s="432"/>
+      <c r="AL442" s="438"/>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O443" s="435"/>
+      <c r="P443" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q443" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="R443" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="S443" s="445"/>
+      <c r="T443" s="446"/>
+      <c r="U443" s="446"/>
+      <c r="V443" s="446"/>
+      <c r="W443" s="446"/>
+      <c r="X443" s="447"/>
+      <c r="Y443" s="438"/>
+      <c r="AB443" s="435"/>
+      <c r="AC443" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD443" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE443" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF443" s="445"/>
+      <c r="AG443" s="446"/>
+      <c r="AH443" s="446"/>
+      <c r="AI443" s="446"/>
+      <c r="AJ443" s="446"/>
+      <c r="AK443" s="447"/>
+      <c r="AL443" s="438"/>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O444" s="435" t="n">
+        <v>13</v>
+      </c>
+      <c r="P444" s="452" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q444" s="443" t="n">
+        <v>20</v>
+      </c>
+      <c r="R444" s="443" t="s">
+        <v>278</v>
+      </c>
+      <c r="S444" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="T444" s="431"/>
+      <c r="U444" s="431"/>
+      <c r="V444" s="431"/>
+      <c r="W444" s="431"/>
+      <c r="X444" s="432"/>
+      <c r="Y444" s="438"/>
+      <c r="AB444" s="435" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC444" s="423" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD444" s="443" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE444" s="443" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF444" s="448" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG444" s="431"/>
+      <c r="AH444" s="431"/>
+      <c r="AI444" s="431"/>
+      <c r="AJ444" s="431"/>
+      <c r="AK444" s="432"/>
+      <c r="AL444" s="438"/>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O445" s="435"/>
+      <c r="P445" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q445" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="R445" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="S445" s="449"/>
+      <c r="T445" s="446"/>
+      <c r="U445" s="446"/>
+      <c r="V445" s="446"/>
+      <c r="W445" s="446"/>
+      <c r="X445" s="447"/>
+      <c r="Y445" s="438"/>
+      <c r="AB445" s="435"/>
+      <c r="AC445" s="428" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD445" s="428" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE445" s="428" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF445" s="449"/>
+      <c r="AG445" s="446"/>
+      <c r="AH445" s="446"/>
+      <c r="AI445" s="446"/>
+      <c r="AJ445" s="446"/>
+      <c r="AK445" s="447"/>
+      <c r="AL445" s="438"/>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O446" s="435" t="n">
         <v>14</v>
       </c>
-      <c r="H412" s="405"/>
-      <c r="I412" s="406" t="s">
-        <v>314</v>
-      </c>
-      <c r="J412" s="406"/>
-      <c r="K412" s="406"/>
-      <c r="L412" s="406"/>
-    </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B413" s="403" t="s">
-        <v>267</v>
-      </c>
-      <c r="C413" s="403"/>
-      <c r="D413" s="407" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E413" s="400"/>
-      <c r="F413" s="400"/>
-      <c r="G413" s="408" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="H413" s="408"/>
-      <c r="I413" s="406" t="s">
-        <v>268</v>
-      </c>
-      <c r="J413" s="406"/>
-      <c r="K413" s="406"/>
-      <c r="L413" s="406"/>
-    </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B414" s="403" t="s">
-        <v>269</v>
-      </c>
-      <c r="C414" s="403"/>
-      <c r="D414" s="409" t="s">
-        <v>327</v>
-      </c>
-      <c r="E414" s="409"/>
-      <c r="F414" s="409"/>
-      <c r="G414" s="409"/>
-      <c r="H414" s="409"/>
-      <c r="I414" s="410" t="s">
-        <v>270</v>
-      </c>
-      <c r="J414" s="410"/>
-      <c r="K414" s="410"/>
-      <c r="L414" s="410"/>
-    </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B415" s="411" t="s">
-        <v>271</v>
-      </c>
-      <c r="C415" s="412"/>
-      <c r="D415" s="413" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="E415" s="413"/>
-      <c r="F415" s="413"/>
-      <c r="G415" s="413"/>
-      <c r="H415" s="413"/>
-      <c r="I415" s="406" t="s">
-        <v>272</v>
-      </c>
-      <c r="J415" s="406"/>
-      <c r="K415" s="406"/>
-      <c r="L415" s="406"/>
-    </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B416" s="403" t="s">
-        <v>31</v>
-      </c>
-      <c r="C416" s="403"/>
-      <c r="D416" s="414" t="n">
-        <v>43574</v>
-      </c>
-      <c r="E416" s="414"/>
-      <c r="F416" s="414"/>
-      <c r="G416" s="414"/>
-      <c r="H416" s="414"/>
-      <c r="I416" s="406"/>
-      <c r="J416" s="406"/>
-      <c r="K416" s="406"/>
-      <c r="L416" s="406"/>
-    </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B417" s="416" t="s">
-        <v>273</v>
-      </c>
-      <c r="C417" s="416"/>
-      <c r="D417" s="417" t="s">
-        <v>274</v>
-      </c>
-      <c r="E417" s="417"/>
-      <c r="F417" s="417"/>
-      <c r="G417" s="417"/>
-      <c r="H417" s="417"/>
-      <c r="I417" s="406"/>
-      <c r="J417" s="406"/>
-      <c r="K417" s="406"/>
-      <c r="L417" s="406"/>
-    </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B418" s="416"/>
-      <c r="C418" s="416"/>
-      <c r="D418" s="417"/>
-      <c r="E418" s="417"/>
-      <c r="F418" s="417"/>
-      <c r="G418" s="417"/>
-      <c r="H418" s="417"/>
-      <c r="I418" s="418"/>
-      <c r="J418" s="418"/>
-      <c r="K418" s="418"/>
-      <c r="L418" s="418"/>
-    </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B419" s="419"/>
-      <c r="C419" s="420" t="s">
-        <v>275</v>
-      </c>
-      <c r="D419" s="420"/>
-      <c r="E419" s="420"/>
-      <c r="F419" s="420"/>
-      <c r="G419" s="180" t="s">
-        <v>276</v>
-      </c>
-      <c r="H419" s="180"/>
-      <c r="I419" s="180"/>
-      <c r="J419" s="180"/>
-      <c r="K419" s="180"/>
-      <c r="L419" s="180"/>
-    </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B420" s="421" t="n">
-        <v>1</v>
-      </c>
-      <c r="C420" s="422" t="s">
-        <v>328</v>
-      </c>
-      <c r="D420" s="423" t="n">
+      <c r="P446" s="423" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q446" s="423" t="n">
         <v>20</v>
       </c>
-      <c r="E420" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F420" s="424" t="s">
+      <c r="R446" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S446" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="G420" s="425"/>
-      <c r="H420" s="425"/>
-      <c r="I420" s="425"/>
-      <c r="J420" s="425"/>
-      <c r="K420" s="425"/>
-      <c r="L420" s="426"/>
-    </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B421" s="421"/>
-      <c r="C421" s="427" t="s">
+      <c r="T446" s="450"/>
+      <c r="U446" s="450"/>
+      <c r="V446" s="450"/>
+      <c r="W446" s="450"/>
+      <c r="X446" s="432"/>
+      <c r="Y446" s="438"/>
+      <c r="AB446" s="435" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC446" s="423" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD446" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE446" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF446" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG446" s="450"/>
+      <c r="AH446" s="450"/>
+      <c r="AI446" s="450"/>
+      <c r="AJ446" s="450"/>
+      <c r="AK446" s="432"/>
+      <c r="AL446" s="438"/>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O447" s="435"/>
+      <c r="P447" s="440" t="s">
         <v>279</v>
       </c>
-      <c r="D421" s="428" t="n">
+      <c r="Q447" s="440" t="n">
         <v>22</v>
       </c>
-      <c r="E421" s="428" t="s">
-        <v>278</v>
-      </c>
-      <c r="F421" s="424"/>
-      <c r="G421" s="425"/>
-      <c r="H421" s="425"/>
-      <c r="I421" s="425"/>
-      <c r="J421" s="425"/>
-      <c r="K421" s="425"/>
-      <c r="L421" s="426"/>
-    </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B422" s="435" t="n">
-        <v>2</v>
-      </c>
-      <c r="C422" s="422" t="s">
-        <v>329</v>
-      </c>
-      <c r="D422" s="423" t="n">
+      <c r="R447" s="440" t="s">
+        <v>278</v>
+      </c>
+      <c r="S447" s="445"/>
+      <c r="T447" s="451"/>
+      <c r="U447" s="451"/>
+      <c r="V447" s="451"/>
+      <c r="W447" s="451"/>
+      <c r="X447" s="447"/>
+      <c r="Y447" s="438"/>
+      <c r="AB447" s="435"/>
+      <c r="AC447" s="440" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD447" s="440" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE447" s="440" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF447" s="445"/>
+      <c r="AG447" s="451"/>
+      <c r="AH447" s="451"/>
+      <c r="AI447" s="451"/>
+      <c r="AJ447" s="451"/>
+      <c r="AK447" s="447"/>
+      <c r="AL447" s="438"/>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O448" s="435" t="n">
+        <v>15</v>
+      </c>
+      <c r="P448" s="423" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q448" s="423" t="n">
         <v>20</v>
       </c>
-      <c r="E422" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F422" s="424" t="s">
+      <c r="R448" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S448" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="G422" s="425"/>
-      <c r="H422" s="425"/>
-      <c r="I422" s="425"/>
-      <c r="J422" s="425"/>
-      <c r="K422" s="425"/>
-      <c r="L422" s="438"/>
-    </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B423" s="435"/>
-      <c r="C423" s="427" t="s">
+      <c r="T448" s="450"/>
+      <c r="U448" s="450"/>
+      <c r="V448" s="450"/>
+      <c r="W448" s="450"/>
+      <c r="X448" s="432"/>
+      <c r="Y448" s="438"/>
+      <c r="AB448" s="435" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC448" s="423" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD448" s="423" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE448" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF448" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG448" s="450"/>
+      <c r="AH448" s="450"/>
+      <c r="AI448" s="450"/>
+      <c r="AJ448" s="450"/>
+      <c r="AK448" s="432"/>
+      <c r="AL448" s="438"/>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O449" s="435"/>
+      <c r="P449" s="440" t="s">
         <v>279</v>
       </c>
-      <c r="D423" s="428" t="n">
+      <c r="Q449" s="440" t="n">
         <v>22</v>
       </c>
-      <c r="E423" s="428" t="s">
-        <v>278</v>
-      </c>
-      <c r="F423" s="424"/>
-      <c r="G423" s="425"/>
-      <c r="H423" s="425"/>
-      <c r="I423" s="425"/>
-      <c r="J423" s="425"/>
-      <c r="K423" s="425"/>
-      <c r="L423" s="438"/>
-    </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B424" s="435" t="n">
-        <v>3</v>
-      </c>
-      <c r="C424" s="423" t="s">
-        <v>316</v>
-      </c>
-      <c r="D424" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E424" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F424" s="430" t="s">
+      <c r="R449" s="440"/>
+      <c r="S449" s="445"/>
+      <c r="T449" s="451"/>
+      <c r="U449" s="451"/>
+      <c r="V449" s="451"/>
+      <c r="W449" s="451"/>
+      <c r="X449" s="447"/>
+      <c r="Y449" s="438"/>
+      <c r="AB449" s="435"/>
+      <c r="AC449" s="440" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD449" s="440" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE449" s="440"/>
+      <c r="AF449" s="445"/>
+      <c r="AG449" s="451"/>
+      <c r="AH449" s="451"/>
+      <c r="AI449" s="451"/>
+      <c r="AJ449" s="451"/>
+      <c r="AK449" s="447"/>
+      <c r="AL449" s="438"/>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O450" s="435" t="n">
+        <v>16</v>
+      </c>
+      <c r="P450" s="423" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q450" s="423" t="n">
+        <v>120</v>
+      </c>
+      <c r="R450" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="S450" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="G424" s="431"/>
-      <c r="H424" s="431"/>
-      <c r="I424" s="431"/>
-      <c r="J424" s="431"/>
-      <c r="K424" s="432"/>
-      <c r="L424" s="438"/>
-    </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B425" s="435"/>
-      <c r="C425" s="434" t="s">
-        <v>279</v>
-      </c>
-      <c r="D425" s="434" t="n">
-        <v>22</v>
-      </c>
-      <c r="E425" s="434" t="s">
-        <v>278</v>
-      </c>
-      <c r="F425" s="445"/>
-      <c r="G425" s="446"/>
-      <c r="H425" s="446"/>
-      <c r="I425" s="446"/>
-      <c r="J425" s="446"/>
-      <c r="K425" s="447"/>
-      <c r="L425" s="438"/>
-    </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B426" s="435" t="n">
-        <v>4</v>
-      </c>
-      <c r="C426" s="423" t="s">
-        <v>317</v>
-      </c>
-      <c r="D426" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E426" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F426" s="448" t="s">
-        <v>146</v>
-      </c>
-      <c r="G426" s="431"/>
-      <c r="H426" s="431"/>
-      <c r="I426" s="431"/>
-      <c r="J426" s="431"/>
-      <c r="K426" s="432"/>
-      <c r="L426" s="438"/>
-    </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B427" s="435"/>
-      <c r="C427" s="439" t="s">
-        <v>279</v>
-      </c>
-      <c r="D427" s="439" t="n">
-        <v>22</v>
-      </c>
-      <c r="E427" s="439" t="s">
-        <v>278</v>
-      </c>
-      <c r="F427" s="449"/>
-      <c r="G427" s="446"/>
-      <c r="H427" s="446"/>
-      <c r="I427" s="446"/>
-      <c r="J427" s="446"/>
-      <c r="K427" s="447"/>
-      <c r="L427" s="438"/>
-    </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B428" s="435" t="n">
-        <v>5</v>
-      </c>
-      <c r="C428" s="423" t="s">
-        <v>318</v>
-      </c>
-      <c r="D428" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E428" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F428" s="448" t="s">
-        <v>146</v>
-      </c>
-      <c r="G428" s="431"/>
-      <c r="H428" s="431"/>
-      <c r="I428" s="431"/>
-      <c r="J428" s="431"/>
-      <c r="K428" s="432"/>
-      <c r="L428" s="438"/>
-    </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B429" s="435"/>
-      <c r="C429" s="439" t="s">
-        <v>279</v>
-      </c>
-      <c r="D429" s="439" t="n">
-        <v>22</v>
-      </c>
-      <c r="E429" s="439" t="s">
-        <v>278</v>
-      </c>
-      <c r="F429" s="449"/>
-      <c r="G429" s="446"/>
-      <c r="H429" s="446"/>
-      <c r="I429" s="446"/>
-      <c r="J429" s="446"/>
-      <c r="K429" s="447"/>
-      <c r="L429" s="438"/>
-    </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B430" s="435" t="n">
-        <v>6</v>
-      </c>
-      <c r="C430" s="441" t="s">
-        <v>330</v>
-      </c>
-      <c r="D430" s="441" t="n">
-        <v>20</v>
-      </c>
-      <c r="E430" s="441" t="s">
-        <v>278</v>
-      </c>
-      <c r="F430" s="430" t="s">
+      <c r="T450" s="450"/>
+      <c r="U450" s="450"/>
+      <c r="V450" s="450"/>
+      <c r="W450" s="450"/>
+      <c r="X450" s="432"/>
+      <c r="Y450" s="438"/>
+      <c r="AB450" s="435" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC450" s="423" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD450" s="423" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE450" s="423" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF450" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="G430" s="431"/>
-      <c r="H430" s="431"/>
-      <c r="I430" s="431"/>
-      <c r="J430" s="431"/>
-      <c r="K430" s="432"/>
-      <c r="L430" s="438"/>
-    </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B431" s="435"/>
-      <c r="C431" s="428" t="s">
-        <v>279</v>
-      </c>
-      <c r="D431" s="428" t="n">
-        <v>22</v>
-      </c>
-      <c r="E431" s="428" t="s">
-        <v>278</v>
-      </c>
-      <c r="F431" s="445"/>
-      <c r="G431" s="446"/>
-      <c r="H431" s="446"/>
-      <c r="I431" s="446"/>
-      <c r="J431" s="446"/>
-      <c r="K431" s="447"/>
-      <c r="L431" s="438"/>
-    </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B432" s="435" t="n">
-        <v>7</v>
-      </c>
-      <c r="C432" s="423" t="s">
-        <v>288</v>
-      </c>
-      <c r="D432" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E432" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F432" s="448" t="s">
-        <v>146</v>
-      </c>
-      <c r="G432" s="431"/>
-      <c r="H432" s="431"/>
-      <c r="I432" s="431"/>
-      <c r="J432" s="431"/>
-      <c r="K432" s="432"/>
-      <c r="L432" s="438"/>
-    </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B433" s="435"/>
-      <c r="C433" s="439" t="s">
-        <v>279</v>
-      </c>
-      <c r="D433" s="439" t="n">
-        <v>22</v>
-      </c>
-      <c r="E433" s="439" t="s">
-        <v>278</v>
-      </c>
-      <c r="F433" s="449"/>
-      <c r="G433" s="446"/>
-      <c r="H433" s="446"/>
-      <c r="I433" s="446"/>
-      <c r="J433" s="446"/>
-      <c r="K433" s="447"/>
-      <c r="L433" s="438"/>
-    </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B434" s="435" t="n">
-        <v>8</v>
-      </c>
-      <c r="C434" s="423" t="s">
-        <v>331</v>
-      </c>
-      <c r="D434" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E434" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F434" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="G434" s="431"/>
-      <c r="H434" s="431"/>
-      <c r="I434" s="431"/>
-      <c r="J434" s="431"/>
-      <c r="K434" s="432"/>
-      <c r="L434" s="438"/>
-    </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B435" s="435"/>
-      <c r="C435" s="428" t="s">
-        <v>279</v>
-      </c>
-      <c r="D435" s="428" t="n">
-        <v>22</v>
-      </c>
-      <c r="E435" s="428" t="s">
-        <v>278</v>
-      </c>
-      <c r="F435" s="445"/>
-      <c r="G435" s="446"/>
-      <c r="H435" s="446"/>
-      <c r="I435" s="446"/>
-      <c r="J435" s="446"/>
-      <c r="K435" s="447"/>
-      <c r="L435" s="438"/>
-    </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B436" s="435" t="n">
-        <v>9</v>
-      </c>
-      <c r="C436" s="423" t="s">
-        <v>322</v>
-      </c>
-      <c r="D436" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E436" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F436" s="448" t="s">
-        <v>146</v>
-      </c>
-      <c r="G436" s="431"/>
-      <c r="H436" s="431"/>
-      <c r="I436" s="431"/>
-      <c r="J436" s="431"/>
-      <c r="K436" s="432"/>
-      <c r="L436" s="438"/>
-    </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B437" s="435"/>
-      <c r="C437" s="439" t="s">
-        <v>279</v>
-      </c>
-      <c r="D437" s="439" t="n">
-        <v>22</v>
-      </c>
-      <c r="E437" s="439" t="s">
-        <v>278</v>
-      </c>
-      <c r="F437" s="449"/>
-      <c r="G437" s="446"/>
-      <c r="H437" s="446"/>
-      <c r="I437" s="446"/>
-      <c r="J437" s="446"/>
-      <c r="K437" s="447"/>
-      <c r="L437" s="438"/>
-    </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B438" s="435" t="n">
-        <v>10</v>
-      </c>
-      <c r="C438" s="423" t="s">
-        <v>287</v>
-      </c>
-      <c r="D438" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E438" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F438" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="G438" s="431"/>
-      <c r="H438" s="431"/>
-      <c r="I438" s="431"/>
-      <c r="J438" s="431"/>
-      <c r="K438" s="432"/>
-      <c r="L438" s="438"/>
-    </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B439" s="435"/>
-      <c r="C439" s="428" t="s">
-        <v>279</v>
-      </c>
-      <c r="D439" s="428" t="n">
-        <v>22</v>
-      </c>
-      <c r="E439" s="428" t="s">
-        <v>278</v>
-      </c>
-      <c r="F439" s="445"/>
-      <c r="G439" s="446"/>
-      <c r="H439" s="446"/>
-      <c r="I439" s="446"/>
-      <c r="J439" s="446"/>
-      <c r="K439" s="447"/>
-      <c r="L439" s="438"/>
-    </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B440" s="435" t="n">
-        <v>11</v>
-      </c>
-      <c r="C440" s="423" t="s">
-        <v>332</v>
-      </c>
-      <c r="D440" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E440" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F440" s="448" t="s">
-        <v>146</v>
-      </c>
-      <c r="G440" s="431"/>
-      <c r="H440" s="431"/>
-      <c r="I440" s="431"/>
-      <c r="J440" s="431"/>
-      <c r="K440" s="432"/>
-      <c r="L440" s="438"/>
-    </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B441" s="435"/>
-      <c r="C441" s="439" t="s">
-        <v>279</v>
-      </c>
-      <c r="D441" s="439" t="n">
-        <v>22</v>
-      </c>
-      <c r="E441" s="439" t="s">
-        <v>278</v>
-      </c>
-      <c r="F441" s="449"/>
-      <c r="G441" s="446"/>
-      <c r="H441" s="446"/>
-      <c r="I441" s="446"/>
-      <c r="J441" s="446"/>
-      <c r="K441" s="447"/>
-      <c r="L441" s="438"/>
-    </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B442" s="435" t="n">
-        <v>12</v>
-      </c>
-      <c r="C442" s="423" t="s">
-        <v>310</v>
-      </c>
-      <c r="D442" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E442" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F442" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="G442" s="431"/>
-      <c r="H442" s="431"/>
-      <c r="I442" s="431"/>
-      <c r="J442" s="431"/>
-      <c r="K442" s="432"/>
-      <c r="L442" s="438"/>
-    </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B443" s="435"/>
-      <c r="C443" s="428" t="s">
-        <v>279</v>
-      </c>
-      <c r="D443" s="428" t="n">
-        <v>22</v>
-      </c>
-      <c r="E443" s="428" t="s">
-        <v>278</v>
-      </c>
-      <c r="F443" s="445"/>
-      <c r="G443" s="446"/>
-      <c r="H443" s="446"/>
-      <c r="I443" s="446"/>
-      <c r="J443" s="446"/>
-      <c r="K443" s="447"/>
-      <c r="L443" s="438"/>
-    </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B444" s="435" t="n">
-        <v>13</v>
-      </c>
-      <c r="C444" s="442" t="s">
-        <v>325</v>
-      </c>
-      <c r="D444" s="443" t="n">
-        <v>20</v>
-      </c>
-      <c r="E444" s="443" t="s">
-        <v>278</v>
-      </c>
-      <c r="F444" s="448" t="s">
-        <v>146</v>
-      </c>
-      <c r="G444" s="431"/>
-      <c r="H444" s="431"/>
-      <c r="I444" s="431"/>
-      <c r="J444" s="431"/>
-      <c r="K444" s="432"/>
-      <c r="L444" s="438"/>
-    </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B445" s="435"/>
-      <c r="C445" s="428" t="s">
-        <v>279</v>
-      </c>
-      <c r="D445" s="428" t="n">
-        <v>22</v>
-      </c>
-      <c r="E445" s="428" t="s">
-        <v>278</v>
-      </c>
-      <c r="F445" s="449"/>
-      <c r="G445" s="446"/>
-      <c r="H445" s="446"/>
-      <c r="I445" s="446"/>
-      <c r="J445" s="446"/>
-      <c r="K445" s="447"/>
-      <c r="L445" s="438"/>
-    </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B446" s="435" t="n">
-        <v>14</v>
-      </c>
-      <c r="C446" s="423" t="s">
-        <v>326</v>
-      </c>
-      <c r="D446" s="423" t="n">
-        <v>20</v>
-      </c>
-      <c r="E446" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F446" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="G446" s="450"/>
-      <c r="H446" s="450"/>
-      <c r="I446" s="450"/>
-      <c r="J446" s="450"/>
-      <c r="K446" s="432"/>
-      <c r="L446" s="438"/>
-    </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B447" s="435"/>
-      <c r="C447" s="440" t="s">
-        <v>279</v>
-      </c>
-      <c r="D447" s="440" t="n">
-        <v>22</v>
-      </c>
-      <c r="E447" s="440" t="s">
-        <v>278</v>
-      </c>
-      <c r="F447" s="445"/>
-      <c r="G447" s="451"/>
-      <c r="H447" s="451"/>
-      <c r="I447" s="451"/>
-      <c r="J447" s="451"/>
-      <c r="K447" s="447"/>
-      <c r="L447" s="438"/>
-    </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B448" s="435" t="n">
-        <v>15</v>
-      </c>
-      <c r="C448" s="423" t="s">
-        <v>289</v>
-      </c>
-      <c r="D448" s="423" t="n">
-        <v>120</v>
-      </c>
-      <c r="E448" s="423" t="s">
-        <v>278</v>
-      </c>
-      <c r="F448" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="G448" s="450"/>
-      <c r="H448" s="450"/>
-      <c r="I448" s="450"/>
-      <c r="J448" s="450"/>
-      <c r="K448" s="432"/>
-      <c r="L448" s="438"/>
-    </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B449" s="435"/>
-      <c r="C449" s="440"/>
-      <c r="D449" s="440"/>
-      <c r="E449" s="440"/>
-      <c r="F449" s="445"/>
-      <c r="G449" s="451"/>
-      <c r="H449" s="451"/>
-      <c r="I449" s="451"/>
-      <c r="J449" s="451"/>
-      <c r="K449" s="447"/>
-      <c r="L449" s="438"/>
+      <c r="AG450" s="450"/>
+      <c r="AH450" s="450"/>
+      <c r="AI450" s="450"/>
+      <c r="AJ450" s="450"/>
+      <c r="AK450" s="432"/>
+      <c r="AL450" s="438"/>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O451" s="435"/>
+      <c r="P451" s="440"/>
+      <c r="Q451" s="440"/>
+      <c r="R451" s="440"/>
+      <c r="S451" s="445"/>
+      <c r="T451" s="451"/>
+      <c r="U451" s="451"/>
+      <c r="V451" s="451"/>
+      <c r="W451" s="451"/>
+      <c r="X451" s="447"/>
+      <c r="Y451" s="438"/>
+      <c r="AB451" s="435"/>
+      <c r="AC451" s="440"/>
+      <c r="AD451" s="440"/>
+      <c r="AE451" s="440"/>
+      <c r="AF451" s="445"/>
+      <c r="AG451" s="451"/>
+      <c r="AH451" s="451"/>
+      <c r="AI451" s="451"/>
+      <c r="AJ451" s="451"/>
+      <c r="AK451" s="447"/>
+      <c r="AL451" s="438"/>
     </row>
   </sheetData>
-  <mergeCells count="1372">
+  <mergeCells count="1450">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -16778,80 +17624,158 @@
     <mergeCell ref="L402:L403"/>
     <mergeCell ref="B404:B405"/>
     <mergeCell ref="L404:L405"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="C409:C410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="E409:E410"/>
-    <mergeCell ref="F409:F410"/>
-    <mergeCell ref="G409:H410"/>
-    <mergeCell ref="I409:L410"/>
-    <mergeCell ref="B411:C411"/>
-    <mergeCell ref="E411:E413"/>
-    <mergeCell ref="F411:F413"/>
-    <mergeCell ref="G411:H411"/>
-    <mergeCell ref="I411:L411"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="G412:H412"/>
-    <mergeCell ref="I412:L412"/>
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="G413:H413"/>
-    <mergeCell ref="I413:L413"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:H414"/>
-    <mergeCell ref="I414:L414"/>
-    <mergeCell ref="D415:H415"/>
-    <mergeCell ref="I415:L415"/>
-    <mergeCell ref="B416:C416"/>
-    <mergeCell ref="D416:H416"/>
-    <mergeCell ref="I416:L416"/>
-    <mergeCell ref="B417:C418"/>
-    <mergeCell ref="D417:H418"/>
-    <mergeCell ref="I417:L417"/>
-    <mergeCell ref="I418:L418"/>
-    <mergeCell ref="C419:F419"/>
-    <mergeCell ref="G419:L419"/>
-    <mergeCell ref="B420:B421"/>
-    <mergeCell ref="F420:F421"/>
-    <mergeCell ref="G420:G421"/>
-    <mergeCell ref="H420:H421"/>
-    <mergeCell ref="I420:I421"/>
-    <mergeCell ref="J420:J421"/>
-    <mergeCell ref="K420:K421"/>
-    <mergeCell ref="L420:L421"/>
-    <mergeCell ref="B422:B423"/>
-    <mergeCell ref="F422:F423"/>
-    <mergeCell ref="G422:G423"/>
-    <mergeCell ref="H422:H423"/>
-    <mergeCell ref="I422:I423"/>
-    <mergeCell ref="J422:J423"/>
-    <mergeCell ref="K422:K423"/>
-    <mergeCell ref="L422:L423"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="L424:L425"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="L426:L427"/>
-    <mergeCell ref="B428:B429"/>
-    <mergeCell ref="L428:L429"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="L430:L431"/>
-    <mergeCell ref="B432:B433"/>
-    <mergeCell ref="L432:L433"/>
-    <mergeCell ref="B434:B435"/>
-    <mergeCell ref="L434:L435"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="L436:L437"/>
-    <mergeCell ref="B438:B439"/>
-    <mergeCell ref="L438:L439"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="L440:L441"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="L442:L443"/>
-    <mergeCell ref="B444:B445"/>
-    <mergeCell ref="L444:L445"/>
-    <mergeCell ref="B446:B447"/>
-    <mergeCell ref="L446:L447"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="L448:L449"/>
+    <mergeCell ref="O409:O410"/>
+    <mergeCell ref="P409:P410"/>
+    <mergeCell ref="Q409:Q410"/>
+    <mergeCell ref="R409:R410"/>
+    <mergeCell ref="S409:S410"/>
+    <mergeCell ref="T409:U410"/>
+    <mergeCell ref="V409:Y410"/>
+    <mergeCell ref="AB409:AB410"/>
+    <mergeCell ref="AC409:AC410"/>
+    <mergeCell ref="AD409:AD410"/>
+    <mergeCell ref="AE409:AE410"/>
+    <mergeCell ref="AF409:AF410"/>
+    <mergeCell ref="AG409:AH410"/>
+    <mergeCell ref="AI409:AL410"/>
+    <mergeCell ref="O411:P411"/>
+    <mergeCell ref="R411:R413"/>
+    <mergeCell ref="S411:S413"/>
+    <mergeCell ref="T411:U411"/>
+    <mergeCell ref="V411:Y411"/>
+    <mergeCell ref="AB411:AC411"/>
+    <mergeCell ref="AE411:AE413"/>
+    <mergeCell ref="AF411:AF413"/>
+    <mergeCell ref="AG411:AH411"/>
+    <mergeCell ref="AI411:AL411"/>
+    <mergeCell ref="O412:P412"/>
+    <mergeCell ref="T412:U412"/>
+    <mergeCell ref="V412:Y412"/>
+    <mergeCell ref="AB412:AC412"/>
+    <mergeCell ref="AG412:AH412"/>
+    <mergeCell ref="AI412:AL412"/>
+    <mergeCell ref="O413:P413"/>
+    <mergeCell ref="T413:U413"/>
+    <mergeCell ref="V413:Y413"/>
+    <mergeCell ref="AB413:AC413"/>
+    <mergeCell ref="AG413:AH413"/>
+    <mergeCell ref="AI413:AL413"/>
+    <mergeCell ref="O414:P414"/>
+    <mergeCell ref="Q414:U414"/>
+    <mergeCell ref="V414:Y414"/>
+    <mergeCell ref="AB414:AC414"/>
+    <mergeCell ref="AD414:AH414"/>
+    <mergeCell ref="AI414:AL414"/>
+    <mergeCell ref="Q415:U415"/>
+    <mergeCell ref="V415:Y415"/>
+    <mergeCell ref="AD415:AH415"/>
+    <mergeCell ref="AI415:AL415"/>
+    <mergeCell ref="O416:P416"/>
+    <mergeCell ref="Q416:U416"/>
+    <mergeCell ref="V416:Y416"/>
+    <mergeCell ref="AB416:AC416"/>
+    <mergeCell ref="AD416:AH416"/>
+    <mergeCell ref="AI416:AL416"/>
+    <mergeCell ref="O417:P418"/>
+    <mergeCell ref="Q417:U418"/>
+    <mergeCell ref="V417:Y417"/>
+    <mergeCell ref="AB417:AC418"/>
+    <mergeCell ref="AD417:AH418"/>
+    <mergeCell ref="AI417:AL417"/>
+    <mergeCell ref="V418:Y418"/>
+    <mergeCell ref="AI418:AL418"/>
+    <mergeCell ref="P419:S419"/>
+    <mergeCell ref="T419:Y419"/>
+    <mergeCell ref="AC419:AF419"/>
+    <mergeCell ref="AG419:AL419"/>
+    <mergeCell ref="O420:O421"/>
+    <mergeCell ref="S420:S421"/>
+    <mergeCell ref="T420:T421"/>
+    <mergeCell ref="U420:U421"/>
+    <mergeCell ref="V420:V421"/>
+    <mergeCell ref="W420:W421"/>
+    <mergeCell ref="X420:X421"/>
+    <mergeCell ref="Y420:Y421"/>
+    <mergeCell ref="AB420:AB421"/>
+    <mergeCell ref="AF420:AF421"/>
+    <mergeCell ref="AG420:AG421"/>
+    <mergeCell ref="AH420:AH421"/>
+    <mergeCell ref="AI420:AI421"/>
+    <mergeCell ref="AJ420:AJ421"/>
+    <mergeCell ref="AK420:AK421"/>
+    <mergeCell ref="AL420:AL421"/>
+    <mergeCell ref="O422:O423"/>
+    <mergeCell ref="S422:S423"/>
+    <mergeCell ref="T422:T423"/>
+    <mergeCell ref="U422:U423"/>
+    <mergeCell ref="V422:V423"/>
+    <mergeCell ref="W422:W423"/>
+    <mergeCell ref="X422:X423"/>
+    <mergeCell ref="Y422:Y423"/>
+    <mergeCell ref="AB422:AB423"/>
+    <mergeCell ref="AF422:AF423"/>
+    <mergeCell ref="AG422:AG423"/>
+    <mergeCell ref="AH422:AH423"/>
+    <mergeCell ref="AI422:AI423"/>
+    <mergeCell ref="AJ422:AJ423"/>
+    <mergeCell ref="AK422:AK423"/>
+    <mergeCell ref="AL422:AL423"/>
+    <mergeCell ref="O424:O425"/>
+    <mergeCell ref="Y424:Y425"/>
+    <mergeCell ref="AB424:AB425"/>
+    <mergeCell ref="AL424:AL425"/>
+    <mergeCell ref="O426:O427"/>
+    <mergeCell ref="Y426:Y427"/>
+    <mergeCell ref="AB426:AB427"/>
+    <mergeCell ref="AL426:AL427"/>
+    <mergeCell ref="O428:O429"/>
+    <mergeCell ref="Y428:Y429"/>
+    <mergeCell ref="AB428:AB429"/>
+    <mergeCell ref="AL428:AL429"/>
+    <mergeCell ref="O430:O431"/>
+    <mergeCell ref="Y430:Y431"/>
+    <mergeCell ref="AB430:AB431"/>
+    <mergeCell ref="AL430:AL431"/>
+    <mergeCell ref="O432:O433"/>
+    <mergeCell ref="Y432:Y433"/>
+    <mergeCell ref="AB432:AB433"/>
+    <mergeCell ref="AL432:AL433"/>
+    <mergeCell ref="O434:O435"/>
+    <mergeCell ref="Y434:Y435"/>
+    <mergeCell ref="AB434:AB435"/>
+    <mergeCell ref="AL434:AL435"/>
+    <mergeCell ref="O436:O437"/>
+    <mergeCell ref="Y436:Y437"/>
+    <mergeCell ref="AB436:AB437"/>
+    <mergeCell ref="AL436:AL437"/>
+    <mergeCell ref="O438:O439"/>
+    <mergeCell ref="Y438:Y439"/>
+    <mergeCell ref="AB438:AB439"/>
+    <mergeCell ref="AL438:AL439"/>
+    <mergeCell ref="O440:O441"/>
+    <mergeCell ref="Y440:Y441"/>
+    <mergeCell ref="AB440:AB441"/>
+    <mergeCell ref="AL440:AL441"/>
+    <mergeCell ref="O442:O443"/>
+    <mergeCell ref="Y442:Y443"/>
+    <mergeCell ref="AB442:AB443"/>
+    <mergeCell ref="AL442:AL443"/>
+    <mergeCell ref="O444:O445"/>
+    <mergeCell ref="Y444:Y445"/>
+    <mergeCell ref="AB444:AB445"/>
+    <mergeCell ref="AL444:AL445"/>
+    <mergeCell ref="O446:O447"/>
+    <mergeCell ref="Y446:Y447"/>
+    <mergeCell ref="AB446:AB447"/>
+    <mergeCell ref="AL446:AL447"/>
+    <mergeCell ref="O448:O449"/>
+    <mergeCell ref="Y448:Y449"/>
+    <mergeCell ref="AB448:AB449"/>
+    <mergeCell ref="AL448:AL449"/>
+    <mergeCell ref="O450:O451"/>
+    <mergeCell ref="Y450:Y451"/>
+    <mergeCell ref="AB450:AB451"/>
+    <mergeCell ref="AL450:AL451"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16883,25 +17807,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="452" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="453" t="s">
-        <v>334</v>
+      <c r="A1" s="453" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="454" t="s">
+        <v>337</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="B2" s="453" t="s">
-        <v>337</v>
+        <v>339</v>
+      </c>
+      <c r="B2" s="454" t="s">
+        <v>340</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="цели на сезон" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="351">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -855,6 +855,12 @@
   </si>
   <si>
     <t xml:space="preserve">ССИ/ОСИ (44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Впервые в этом году- бегала в футболке! Домой ехала тоже в футболке, с удивлением обнаружила что на улице +13, а мне тепло. Радуюсь. Скоро еще болото согреется, и можно будет туда нырять с разбега)) Пробежка далась легко, сердце после первых пяти км успокоилось,ЧСС почти не выходила из третьей зоны, даже во время ГРИ.</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -3859,7 +3865,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4085,12 +4091,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="85658233"/>
-        <c:axId val="56877842"/>
+        <c:axId val="52312256"/>
+        <c:axId val="4529717"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85658233"/>
+        <c:axId val="52312256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,14 +4129,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56877842"/>
+        <c:crossAx val="4529717"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56877842"/>
+        <c:axId val="4529717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4211,7 +4217,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85658233"/>
+        <c:crossAx val="52312256"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4254,9 +4260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>605880</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4265,7 +4271,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4384080" cy="2642400"/>
+        <a:ext cx="4383360" cy="2641680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5504,7 +5510,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -6285,8 +6291,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6296,7 +6302,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -6716,9 +6722,15 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="378"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="F21" s="378" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" s="21" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>8.19</v>
+      </c>
       <c r="I21" s="394"/>
       <c r="J21" s="394"/>
       <c r="K21" s="394"/>
@@ -6726,7 +6738,9 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="377"/>
       <c r="B22" s="373"/>
-      <c r="C22" s="379"/>
+      <c r="C22" s="379" t="s">
+        <v>266</v>
+      </c>
       <c r="D22" s="379"/>
       <c r="E22" s="379"/>
       <c r="F22" s="379"/>
@@ -6736,7 +6750,7 @@
       <c r="J22" s="379"/>
       <c r="K22" s="379"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="377"/>
       <c r="B23" s="373"/>
       <c r="C23" s="379"/>
@@ -6760,8 +6774,12 @@
       <c r="D24" s="374"/>
       <c r="E24" s="374"/>
       <c r="F24" s="395"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="374"/>
+      <c r="G24" s="374" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="H24" s="374" t="n">
+        <v>7.48</v>
+      </c>
       <c r="I24" s="374"/>
       <c r="J24" s="374"/>
       <c r="K24" s="374"/>
@@ -7046,23 +7064,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G1" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H1" s="397"/>
       <c r="I1" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -7083,7 +7101,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C3" s="398"/>
       <c r="D3" s="399" t="n">
@@ -7091,7 +7109,7 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F3" s="400" t="n">
         <v>4</v>
@@ -7102,7 +7120,7 @@
       </c>
       <c r="H3" s="401"/>
       <c r="I3" s="402" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J3" s="402"/>
       <c r="K3" s="402"/>
@@ -7110,7 +7128,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C4" s="403"/>
       <c r="D4" s="404" t="n">
@@ -7125,7 +7143,7 @@
       </c>
       <c r="H4" s="405"/>
       <c r="I4" s="406" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J4" s="406"/>
       <c r="K4" s="406"/>
@@ -7133,7 +7151,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C5" s="403"/>
       <c r="D5" s="407" t="n">
@@ -7148,7 +7166,7 @@
       </c>
       <c r="H5" s="408"/>
       <c r="I5" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J5" s="406"/>
       <c r="K5" s="406"/>
@@ -7156,7 +7174,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C6" s="403"/>
       <c r="D6" s="409" t="n">
@@ -7168,7 +7186,7 @@
       <c r="G6" s="409"/>
       <c r="H6" s="409"/>
       <c r="I6" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J6" s="410"/>
       <c r="K6" s="410"/>
@@ -7176,7 +7194,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C7" s="412"/>
       <c r="D7" s="413" t="n">
@@ -7188,7 +7206,7 @@
       <c r="G7" s="413"/>
       <c r="H7" s="413"/>
       <c r="I7" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J7" s="406"/>
       <c r="K7" s="406"/>
@@ -7213,11 +7231,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C9" s="416"/>
       <c r="D9" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E9" s="417"/>
       <c r="F9" s="417"/>
@@ -7244,13 +7262,13 @@
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="419"/>
       <c r="C11" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D11" s="420"/>
       <c r="E11" s="420"/>
       <c r="F11" s="420"/>
       <c r="G11" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -7263,13 +7281,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="422" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D12" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F12" s="424" t="s">
         <v>145</v>
@@ -7292,13 +7310,13 @@
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="421"/>
       <c r="C13" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D13" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E13" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F13" s="424"/>
       <c r="G13" s="425"/>
@@ -7313,13 +7331,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D14" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E14" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F14" s="430" t="s">
         <v>145</v>
@@ -7342,13 +7360,13 @@
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="429"/>
       <c r="C15" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D15" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E15" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F15" s="430"/>
       <c r="G15" s="431"/>
@@ -7363,13 +7381,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="423" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D16" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F16" s="436" t="s">
         <v>146</v>
@@ -7392,13 +7410,13 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="435"/>
       <c r="C17" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D17" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F17" s="436"/>
       <c r="G17" s="425"/>
@@ -7413,13 +7431,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="423" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D18" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F18" s="436" t="s">
         <v>146</v>
@@ -7442,13 +7460,13 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="435"/>
       <c r="C19" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D19" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F19" s="436"/>
       <c r="G19" s="425"/>
@@ -7463,13 +7481,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="423" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D20" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F20" s="424" t="s">
         <v>145</v>
@@ -7492,13 +7510,13 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="435"/>
       <c r="C21" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D21" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E21" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F21" s="424"/>
       <c r="G21" s="425"/>
@@ -7513,13 +7531,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="423" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D22" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F22" s="436" t="s">
         <v>146</v>
@@ -7542,13 +7560,13 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="435"/>
       <c r="C23" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D23" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E23" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F23" s="436"/>
       <c r="G23" s="425"/>
@@ -7563,13 +7581,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D24" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F24" s="424" t="s">
         <v>145</v>
@@ -7592,13 +7610,13 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="435"/>
       <c r="C25" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D25" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E25" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F25" s="424"/>
       <c r="G25" s="425"/>
@@ -7613,13 +7631,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="423" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D26" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F26" s="436" t="s">
         <v>146</v>
@@ -7642,13 +7660,13 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="435"/>
       <c r="C27" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D27" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E27" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F27" s="436"/>
       <c r="G27" s="425"/>
@@ -7663,13 +7681,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="423" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D28" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E28" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F28" s="424" t="s">
         <v>145</v>
@@ -7692,13 +7710,13 @@
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="435"/>
       <c r="C29" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D29" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E29" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F29" s="424"/>
       <c r="G29" s="425"/>
@@ -7713,13 +7731,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D30" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E30" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F30" s="424" t="s">
         <v>145</v>
@@ -7742,13 +7760,13 @@
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="435"/>
       <c r="C31" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D31" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E31" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F31" s="424"/>
       <c r="G31" s="425"/>
@@ -7763,13 +7781,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D32" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E32" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F32" s="436" t="s">
         <v>146</v>
@@ -7792,13 +7810,13 @@
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="435"/>
       <c r="C33" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D33" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E33" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F33" s="436"/>
       <c r="G33" s="425"/>
@@ -7813,28 +7831,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D34" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E34" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F34" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G34" s="425" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H34" s="425" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I34" s="425" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J34" s="425" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K34" s="437"/>
       <c r="L34" s="438"/>
@@ -7855,23 +7873,23 @@
     <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D40" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E40" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F40" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G40" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H40" s="397"/>
       <c r="I40" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J40" s="358"/>
       <c r="K40" s="358"/>
@@ -7892,7 +7910,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C42" s="398"/>
       <c r="D42" s="399" t="n">
@@ -7900,7 +7918,7 @@
         <v>6.2</v>
       </c>
       <c r="E42" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F42" s="400" t="n">
         <v>4</v>
@@ -7911,7 +7929,7 @@
       </c>
       <c r="H42" s="401"/>
       <c r="I42" s="402" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J42" s="402"/>
       <c r="K42" s="402"/>
@@ -7919,7 +7937,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C43" s="403"/>
       <c r="D43" s="404" t="n">
@@ -7934,7 +7952,7 @@
       </c>
       <c r="H43" s="405"/>
       <c r="I43" s="406" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J43" s="406"/>
       <c r="K43" s="406"/>
@@ -7942,7 +7960,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C44" s="403"/>
       <c r="D44" s="407" t="n">
@@ -7957,7 +7975,7 @@
       </c>
       <c r="H44" s="408"/>
       <c r="I44" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J44" s="406"/>
       <c r="K44" s="406"/>
@@ -7965,7 +7983,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C45" s="403"/>
       <c r="D45" s="409" t="n">
@@ -7977,7 +7995,7 @@
       <c r="G45" s="409"/>
       <c r="H45" s="409"/>
       <c r="I45" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J45" s="410"/>
       <c r="K45" s="410"/>
@@ -7985,7 +8003,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C46" s="412"/>
       <c r="D46" s="413" t="n">
@@ -7997,7 +8015,7 @@
       <c r="G46" s="413"/>
       <c r="H46" s="413"/>
       <c r="I46" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J46" s="406"/>
       <c r="K46" s="406"/>
@@ -8016,7 +8034,7 @@
       <c r="G47" s="414"/>
       <c r="H47" s="414"/>
       <c r="I47" s="406" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J47" s="406"/>
       <c r="K47" s="406"/>
@@ -8024,18 +8042,18 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C48" s="416"/>
       <c r="D48" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E48" s="417"/>
       <c r="F48" s="417"/>
       <c r="G48" s="417"/>
       <c r="H48" s="417"/>
       <c r="I48" s="406" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J48" s="406"/>
       <c r="K48" s="406"/>
@@ -8057,13 +8075,13 @@
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="419"/>
       <c r="C50" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D50" s="420"/>
       <c r="E50" s="420"/>
       <c r="F50" s="420"/>
       <c r="G50" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H50" s="180"/>
       <c r="I50" s="180"/>
@@ -8076,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="422" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D51" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E51" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F51" s="424" t="s">
         <v>145</v>
@@ -8105,13 +8123,13 @@
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="421"/>
       <c r="C52" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D52" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E52" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F52" s="424"/>
       <c r="G52" s="425"/>
@@ -8126,13 +8144,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D53" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E53" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F53" s="430" t="s">
         <v>145</v>
@@ -8155,13 +8173,13 @@
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="429"/>
       <c r="C54" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D54" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E54" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F54" s="430"/>
       <c r="G54" s="431"/>
@@ -8176,13 +8194,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="423" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D55" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E55" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F55" s="436" t="s">
         <v>146</v>
@@ -8205,13 +8223,13 @@
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="421"/>
       <c r="C56" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D56" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E56" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F56" s="436"/>
       <c r="G56" s="425"/>
@@ -8226,13 +8244,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="423" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D57" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E57" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F57" s="436" t="s">
         <v>146</v>
@@ -8255,13 +8273,13 @@
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="429"/>
       <c r="C58" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D58" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E58" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F58" s="436"/>
       <c r="G58" s="425"/>
@@ -8276,28 +8294,28 @@
         <v>5</v>
       </c>
       <c r="C59" s="441" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D59" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E59" s="441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F59" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G59" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H59" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I59" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J59" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K59" s="437"/>
       <c r="L59" s="438"/>
@@ -8305,13 +8323,13 @@
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="421"/>
       <c r="C60" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D60" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E60" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F60" s="424"/>
       <c r="G60" s="425"/>
@@ -8326,13 +8344,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="423" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D61" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E61" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F61" s="436" t="s">
         <v>146</v>
@@ -8355,13 +8373,13 @@
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="429"/>
       <c r="C62" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D62" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E62" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F62" s="436"/>
       <c r="G62" s="425"/>
@@ -8376,13 +8394,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D63" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E63" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F63" s="424" t="s">
         <v>145</v>
@@ -8405,13 +8423,13 @@
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="421"/>
       <c r="C64" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D64" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E64" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F64" s="424"/>
       <c r="G64" s="425"/>
@@ -8426,13 +8444,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="423" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D65" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E65" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F65" s="436" t="s">
         <v>146</v>
@@ -8455,13 +8473,13 @@
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="429"/>
       <c r="C66" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D66" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E66" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F66" s="436"/>
       <c r="G66" s="425"/>
@@ -8476,13 +8494,13 @@
         <v>9</v>
       </c>
       <c r="C67" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D67" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F67" s="424" t="s">
         <v>145</v>
@@ -8505,13 +8523,13 @@
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="421"/>
       <c r="C68" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D68" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E68" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F68" s="424"/>
       <c r="G68" s="425"/>
@@ -8526,13 +8544,13 @@
         <v>10</v>
       </c>
       <c r="C69" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D69" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E69" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F69" s="436" t="s">
         <v>146</v>
@@ -8555,13 +8573,13 @@
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="429"/>
       <c r="C70" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D70" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E70" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F70" s="436"/>
       <c r="G70" s="425"/>
@@ -8576,13 +8594,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="423" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D71" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F71" s="424" t="s">
         <v>145</v>
@@ -8609,7 +8627,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="440" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F72" s="424"/>
       <c r="G72" s="425"/>
@@ -8624,13 +8642,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="442" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D73" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E73" s="443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F73" s="436" t="s">
         <v>146</v>
@@ -8657,7 +8675,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="440" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F74" s="436"/>
       <c r="G74" s="425"/>
@@ -8672,28 +8690,28 @@
         <v>13</v>
       </c>
       <c r="C75" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D75" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E75" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F75" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G75" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H75" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I75" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J75" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K75" s="437"/>
       <c r="L75" s="438"/>
@@ -8714,23 +8732,23 @@
     <row r="80" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="368"/>
       <c r="C80" s="368" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D80" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E80" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F80" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G80" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H80" s="397"/>
       <c r="I80" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J80" s="358"/>
       <c r="K80" s="358"/>
@@ -8751,7 +8769,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C82" s="398"/>
       <c r="D82" s="399" t="n">
@@ -8759,7 +8777,7 @@
         <v>6.2</v>
       </c>
       <c r="E82" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F82" s="400" t="n">
         <v>4</v>
@@ -8770,7 +8788,7 @@
       </c>
       <c r="H82" s="401"/>
       <c r="I82" s="402" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J82" s="402"/>
       <c r="K82" s="402"/>
@@ -8778,7 +8796,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C83" s="403"/>
       <c r="D83" s="404" t="n">
@@ -8793,7 +8811,7 @@
       </c>
       <c r="H83" s="405"/>
       <c r="I83" s="406" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J83" s="406"/>
       <c r="K83" s="406"/>
@@ -8801,7 +8819,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C84" s="403"/>
       <c r="D84" s="407" t="n">
@@ -8816,7 +8834,7 @@
       </c>
       <c r="H84" s="408"/>
       <c r="I84" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J84" s="406"/>
       <c r="K84" s="406"/>
@@ -8824,7 +8842,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C85" s="403"/>
       <c r="D85" s="409" t="n">
@@ -8836,7 +8854,7 @@
       <c r="G85" s="409"/>
       <c r="H85" s="409"/>
       <c r="I85" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J85" s="410"/>
       <c r="K85" s="410"/>
@@ -8844,7 +8862,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C86" s="412"/>
       <c r="D86" s="413" t="n">
@@ -8856,7 +8874,7 @@
       <c r="G86" s="413"/>
       <c r="H86" s="413"/>
       <c r="I86" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J86" s="406"/>
       <c r="K86" s="406"/>
@@ -8875,7 +8893,7 @@
       <c r="G87" s="414"/>
       <c r="H87" s="414"/>
       <c r="I87" s="406" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J87" s="406"/>
       <c r="K87" s="406"/>
@@ -8883,18 +8901,18 @@
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C88" s="416"/>
       <c r="D88" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E88" s="417"/>
       <c r="F88" s="417"/>
       <c r="G88" s="417"/>
       <c r="H88" s="417"/>
       <c r="I88" s="406" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J88" s="406"/>
       <c r="K88" s="406"/>
@@ -8916,13 +8934,13 @@
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="419"/>
       <c r="C90" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D90" s="420"/>
       <c r="E90" s="420"/>
       <c r="F90" s="420"/>
       <c r="G90" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H90" s="180"/>
       <c r="I90" s="180"/>
@@ -8935,13 +8953,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="422" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D91" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E91" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F91" s="424" t="s">
         <v>145</v>
@@ -8964,13 +8982,13 @@
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="421"/>
       <c r="C92" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D92" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E92" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F92" s="424"/>
       <c r="G92" s="425"/>
@@ -8985,13 +9003,13 @@
         <v>2</v>
       </c>
       <c r="C93" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D93" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E93" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F93" s="430" t="s">
         <v>145</v>
@@ -9014,13 +9032,13 @@
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="429"/>
       <c r="C94" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D94" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E94" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F94" s="430"/>
       <c r="G94" s="431"/>
@@ -9035,13 +9053,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="423" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D95" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E95" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F95" s="436" t="s">
         <v>146</v>
@@ -9064,13 +9082,13 @@
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="421"/>
       <c r="C96" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D96" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E96" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F96" s="436"/>
       <c r="G96" s="425"/>
@@ -9085,13 +9103,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="423" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D97" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E97" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F97" s="436" t="s">
         <v>146</v>
@@ -9114,13 +9132,13 @@
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="429"/>
       <c r="C98" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D98" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E98" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F98" s="436"/>
       <c r="G98" s="425"/>
@@ -9135,28 +9153,28 @@
         <v>5</v>
       </c>
       <c r="C99" s="441" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D99" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E99" s="441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F99" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G99" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H99" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I99" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J99" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K99" s="437"/>
       <c r="L99" s="438"/>
@@ -9164,13 +9182,13 @@
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="421"/>
       <c r="C100" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D100" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E100" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F100" s="424"/>
       <c r="G100" s="425"/>
@@ -9185,13 +9203,13 @@
         <v>6</v>
       </c>
       <c r="C101" s="423" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D101" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E101" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F101" s="436" t="s">
         <v>146</v>
@@ -9214,13 +9232,13 @@
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="429"/>
       <c r="C102" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E102" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F102" s="436"/>
       <c r="G102" s="425"/>
@@ -9235,13 +9253,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D103" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E103" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F103" s="424" t="s">
         <v>145</v>
@@ -9264,13 +9282,13 @@
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="421"/>
       <c r="C104" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E104" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F104" s="424"/>
       <c r="G104" s="425"/>
@@ -9285,13 +9303,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="423" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D105" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E105" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F105" s="436" t="s">
         <v>146</v>
@@ -9314,13 +9332,13 @@
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="429"/>
       <c r="C106" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E106" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F106" s="436"/>
       <c r="G106" s="425"/>
@@ -9335,13 +9353,13 @@
         <v>9</v>
       </c>
       <c r="C107" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E107" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F107" s="424" t="s">
         <v>145</v>
@@ -9364,13 +9382,13 @@
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="421"/>
       <c r="C108" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D108" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E108" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F108" s="424"/>
       <c r="G108" s="425"/>
@@ -9385,13 +9403,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D109" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E109" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F109" s="436" t="s">
         <v>146</v>
@@ -9414,13 +9432,13 @@
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="429"/>
       <c r="C110" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D110" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E110" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F110" s="436"/>
       <c r="G110" s="425"/>
@@ -9435,13 +9453,13 @@
         <v>11</v>
       </c>
       <c r="C111" s="423" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E111" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F111" s="424" t="s">
         <v>145</v>
@@ -9468,7 +9486,7 @@
         <v>22</v>
       </c>
       <c r="E112" s="440" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F112" s="424"/>
       <c r="G112" s="425"/>
@@ -9483,13 +9501,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="442" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D113" s="443" t="n">
         <v>22</v>
       </c>
       <c r="E113" s="443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F113" s="436" t="s">
         <v>146</v>
@@ -9516,7 +9534,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="440" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F114" s="436"/>
       <c r="G114" s="425"/>
@@ -9531,28 +9549,28 @@
         <v>13</v>
       </c>
       <c r="C115" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D115" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E115" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F115" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G115" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H115" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I115" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J115" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K115" s="437"/>
       <c r="L115" s="438"/>
@@ -9573,23 +9591,23 @@
     <row r="121" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="368"/>
       <c r="C121" s="368" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D121" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E121" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F121" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G121" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H121" s="397"/>
       <c r="I121" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J121" s="358"/>
       <c r="K121" s="358"/>
@@ -9610,7 +9628,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C123" s="398"/>
       <c r="D123" s="399" t="n">
@@ -9618,7 +9636,7 @@
         <v>7.23333333333333</v>
       </c>
       <c r="E123" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F123" s="400" t="n">
         <v>4</v>
@@ -9635,7 +9653,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C124" s="403"/>
       <c r="D124" s="404" t="n">
@@ -9650,7 +9668,7 @@
       </c>
       <c r="H124" s="405"/>
       <c r="I124" s="406" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J124" s="406"/>
       <c r="K124" s="406"/>
@@ -9658,7 +9676,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C125" s="403"/>
       <c r="D125" s="407" t="n">
@@ -9673,7 +9691,7 @@
       </c>
       <c r="H125" s="408"/>
       <c r="I125" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J125" s="406"/>
       <c r="K125" s="406"/>
@@ -9681,7 +9699,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C126" s="403"/>
       <c r="D126" s="409" t="n">
@@ -9693,7 +9711,7 @@
       <c r="G126" s="409"/>
       <c r="H126" s="409"/>
       <c r="I126" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J126" s="410"/>
       <c r="K126" s="410"/>
@@ -9701,7 +9719,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C127" s="412"/>
       <c r="D127" s="413" t="n">
@@ -9713,7 +9731,7 @@
       <c r="G127" s="413"/>
       <c r="H127" s="413"/>
       <c r="I127" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J127" s="406"/>
       <c r="K127" s="406"/>
@@ -9732,7 +9750,7 @@
       <c r="G128" s="414"/>
       <c r="H128" s="414"/>
       <c r="I128" s="406" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J128" s="406"/>
       <c r="K128" s="406"/>
@@ -9740,18 +9758,18 @@
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C129" s="416"/>
       <c r="D129" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
       <c r="G129" s="417"/>
       <c r="H129" s="417"/>
       <c r="I129" s="406" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J129" s="406"/>
       <c r="K129" s="406"/>
@@ -9773,13 +9791,13 @@
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="419"/>
       <c r="C131" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D131" s="420"/>
       <c r="E131" s="420"/>
       <c r="F131" s="420"/>
       <c r="G131" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H131" s="180"/>
       <c r="I131" s="180"/>
@@ -9792,13 +9810,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="422" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D132" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E132" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F132" s="424" t="s">
         <v>145</v>
@@ -9821,13 +9839,13 @@
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="421"/>
       <c r="C133" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D133" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E133" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F133" s="424"/>
       <c r="G133" s="425"/>
@@ -9842,13 +9860,13 @@
         <v>2</v>
       </c>
       <c r="C134" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D134" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E134" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F134" s="430" t="s">
         <v>145</v>
@@ -9871,13 +9889,13 @@
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="429"/>
       <c r="C135" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D135" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E135" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F135" s="430"/>
       <c r="G135" s="431"/>
@@ -9892,13 +9910,13 @@
         <v>3</v>
       </c>
       <c r="C136" s="423" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D136" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E136" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F136" s="436" t="s">
         <v>146</v>
@@ -9921,13 +9939,13 @@
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="421"/>
       <c r="C137" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D137" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E137" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F137" s="436"/>
       <c r="G137" s="425"/>
@@ -9942,13 +9960,13 @@
         <v>4</v>
       </c>
       <c r="C138" s="423" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D138" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E138" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F138" s="436" t="s">
         <v>146</v>
@@ -9971,13 +9989,13 @@
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="429"/>
       <c r="C139" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D139" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E139" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F139" s="436"/>
       <c r="G139" s="425"/>
@@ -9992,13 +10010,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="441" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D140" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E140" s="441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F140" s="424" t="s">
         <v>145</v>
@@ -10021,13 +10039,13 @@
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="421"/>
       <c r="C141" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D141" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E141" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F141" s="424"/>
       <c r="G141" s="425"/>
@@ -10042,13 +10060,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="423" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D142" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E142" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F142" s="436" t="s">
         <v>146</v>
@@ -10071,13 +10089,13 @@
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="429"/>
       <c r="C143" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D143" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E143" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F143" s="436"/>
       <c r="G143" s="425"/>
@@ -10092,13 +10110,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D144" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E144" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F144" s="424" t="s">
         <v>145</v>
@@ -10121,13 +10139,13 @@
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="421"/>
       <c r="C145" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D145" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E145" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F145" s="424"/>
       <c r="G145" s="425"/>
@@ -10142,13 +10160,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="423" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D146" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E146" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F146" s="436" t="s">
         <v>146</v>
@@ -10171,13 +10189,13 @@
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="429"/>
       <c r="C147" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D147" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E147" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F147" s="436"/>
       <c r="G147" s="425"/>
@@ -10192,13 +10210,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D148" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E148" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F148" s="424" t="s">
         <v>145</v>
@@ -10221,13 +10239,13 @@
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="421"/>
       <c r="C149" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D149" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E149" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F149" s="424"/>
       <c r="G149" s="425"/>
@@ -10242,13 +10260,13 @@
         <v>10</v>
       </c>
       <c r="C150" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D150" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E150" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F150" s="436" t="s">
         <v>146</v>
@@ -10271,13 +10289,13 @@
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="429"/>
       <c r="C151" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D151" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E151" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F151" s="436"/>
       <c r="G151" s="425"/>
@@ -10292,13 +10310,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="423" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D152" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E152" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F152" s="424" t="s">
         <v>145</v>
@@ -10321,13 +10339,13 @@
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="421"/>
       <c r="C153" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D153" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E153" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F153" s="424"/>
       <c r="G153" s="425"/>
@@ -10342,13 +10360,13 @@
         <v>12</v>
       </c>
       <c r="C154" s="442" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D154" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E154" s="443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F154" s="436" t="s">
         <v>146</v>
@@ -10371,13 +10389,13 @@
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="429"/>
       <c r="C155" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D155" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E155" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F155" s="436"/>
       <c r="G155" s="425"/>
@@ -10392,13 +10410,13 @@
         <v>13</v>
       </c>
       <c r="C156" s="423" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D156" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E156" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F156" s="424" t="s">
         <v>145</v>
@@ -10421,13 +10439,13 @@
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="421"/>
       <c r="C157" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D157" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E157" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F157" s="424"/>
       <c r="G157" s="425"/>
@@ -10442,28 +10460,28 @@
         <v>14</v>
       </c>
       <c r="C158" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D158" s="423" t="n">
         <v>140</v>
       </c>
       <c r="E158" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F158" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G158" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H158" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I158" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J158" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K158" s="437"/>
       <c r="L158" s="438"/>
@@ -10484,23 +10502,23 @@
     <row r="164" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="368"/>
       <c r="C164" s="368" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D164" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E164" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F164" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G164" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H164" s="397"/>
       <c r="I164" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J164" s="358"/>
       <c r="K164" s="358"/>
@@ -10521,7 +10539,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C166" s="398"/>
       <c r="D166" s="399" t="n">
@@ -10529,7 +10547,7 @@
         <v>7.2</v>
       </c>
       <c r="E166" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F166" s="400" t="n">
         <v>2</v>
@@ -10540,7 +10558,7 @@
       </c>
       <c r="H166" s="401"/>
       <c r="I166" s="402" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J166" s="402"/>
       <c r="K166" s="402"/>
@@ -10548,7 +10566,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C167" s="403"/>
       <c r="D167" s="404" t="n">
@@ -10563,7 +10581,7 @@
       </c>
       <c r="H167" s="405"/>
       <c r="I167" s="406" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J167" s="406"/>
       <c r="K167" s="406"/>
@@ -10571,7 +10589,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C168" s="403"/>
       <c r="D168" s="407" t="n">
@@ -10586,7 +10604,7 @@
       </c>
       <c r="H168" s="408"/>
       <c r="I168" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J168" s="406"/>
       <c r="K168" s="406"/>
@@ -10594,7 +10612,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="403" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C169" s="403"/>
       <c r="D169" s="409" t="n">
@@ -10606,7 +10624,7 @@
       <c r="G169" s="409"/>
       <c r="H169" s="409"/>
       <c r="I169" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J169" s="410"/>
       <c r="K169" s="410"/>
@@ -10614,7 +10632,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C170" s="412"/>
       <c r="D170" s="413" t="n">
@@ -10626,7 +10644,7 @@
       <c r="G170" s="413"/>
       <c r="H170" s="413"/>
       <c r="I170" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J170" s="406"/>
       <c r="K170" s="406"/>
@@ -10651,11 +10669,11 @@
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C172" s="416"/>
       <c r="D172" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E172" s="417"/>
       <c r="F172" s="417"/>
@@ -10682,13 +10700,13 @@
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="419"/>
       <c r="C174" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D174" s="420"/>
       <c r="E174" s="420"/>
       <c r="F174" s="420"/>
       <c r="G174" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H174" s="180"/>
       <c r="I174" s="180"/>
@@ -10701,13 +10719,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="422" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D175" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E175" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F175" s="424" t="s">
         <v>145</v>
@@ -10726,13 +10744,13 @@
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="421"/>
       <c r="C176" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D176" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E176" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F176" s="424"/>
       <c r="G176" s="425"/>
@@ -10747,13 +10765,13 @@
         <v>2</v>
       </c>
       <c r="C177" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D177" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E177" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F177" s="430" t="s">
         <v>145</v>
@@ -10772,13 +10790,13 @@
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="429"/>
       <c r="C178" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D178" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E178" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F178" s="430"/>
       <c r="G178" s="431"/>
@@ -10793,13 +10811,13 @@
         <v>3</v>
       </c>
       <c r="C179" s="423" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D179" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E179" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F179" s="436" t="s">
         <v>146</v>
@@ -10818,13 +10836,13 @@
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="435"/>
       <c r="C180" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D180" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E180" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F180" s="436"/>
       <c r="G180" s="425"/>
@@ -10839,13 +10857,13 @@
         <v>4</v>
       </c>
       <c r="C181" s="423" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D181" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E181" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F181" s="436" t="s">
         <v>146</v>
@@ -10864,13 +10882,13 @@
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="435"/>
       <c r="C182" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D182" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E182" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F182" s="436"/>
       <c r="G182" s="425"/>
@@ -10885,13 +10903,13 @@
         <v>5</v>
       </c>
       <c r="C183" s="423" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D183" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E183" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F183" s="424" t="s">
         <v>145</v>
@@ -10910,13 +10928,13 @@
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="435"/>
       <c r="C184" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D184" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E184" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F184" s="424"/>
       <c r="G184" s="425"/>
@@ -10931,13 +10949,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="423" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D185" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E185" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F185" s="436" t="s">
         <v>146</v>
@@ -10956,13 +10974,13 @@
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="435"/>
       <c r="C186" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D186" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E186" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F186" s="436"/>
       <c r="G186" s="425"/>
@@ -10977,13 +10995,13 @@
         <v>7</v>
       </c>
       <c r="C187" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D187" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E187" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F187" s="424" t="s">
         <v>145</v>
@@ -11002,13 +11020,13 @@
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="435"/>
       <c r="C188" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D188" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E188" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F188" s="424"/>
       <c r="G188" s="425"/>
@@ -11023,13 +11041,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="423" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D189" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E189" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F189" s="436" t="s">
         <v>146</v>
@@ -11048,13 +11066,13 @@
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="435"/>
       <c r="C190" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D190" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E190" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F190" s="436"/>
       <c r="G190" s="425"/>
@@ -11069,13 +11087,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="423" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D191" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E191" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F191" s="424" t="s">
         <v>145</v>
@@ -11094,13 +11112,13 @@
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="435"/>
       <c r="C192" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D192" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E192" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F192" s="424"/>
       <c r="G192" s="425"/>
@@ -11115,13 +11133,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D193" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E193" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F193" s="424" t="s">
         <v>145</v>
@@ -11140,13 +11158,13 @@
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="435"/>
       <c r="C194" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D194" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E194" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F194" s="424"/>
       <c r="G194" s="425"/>
@@ -11161,13 +11179,13 @@
         <v>11</v>
       </c>
       <c r="C195" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D195" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E195" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F195" s="436" t="s">
         <v>146</v>
@@ -11186,13 +11204,13 @@
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="435"/>
       <c r="C196" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D196" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E196" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F196" s="436"/>
       <c r="G196" s="425"/>
@@ -11207,22 +11225,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D197" s="423" t="n">
         <v>180</v>
       </c>
       <c r="E197" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F197" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G197" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H197" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I197" s="425"/>
       <c r="J197" s="425"/>
@@ -11245,23 +11263,23 @@
     <row r="202" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="368"/>
       <c r="C202" s="368" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D202" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E202" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F202" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G202" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H202" s="397"/>
       <c r="I202" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J202" s="358"/>
       <c r="K202" s="358"/>
@@ -11282,7 +11300,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C204" s="398"/>
       <c r="D204" s="399" t="e">
@@ -11290,7 +11308,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E204" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F204" s="400" t="n">
         <v>4</v>
@@ -11307,7 +11325,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C205" s="403"/>
       <c r="D205" s="404" t="n">
@@ -11322,7 +11340,7 @@
       </c>
       <c r="H205" s="405"/>
       <c r="I205" s="406" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J205" s="406"/>
       <c r="K205" s="406"/>
@@ -11330,7 +11348,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C206" s="403"/>
       <c r="D206" s="407" t="e">
@@ -11345,7 +11363,7 @@
       </c>
       <c r="H206" s="408"/>
       <c r="I206" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J206" s="406"/>
       <c r="K206" s="406"/>
@@ -11353,18 +11371,18 @@
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C207" s="403"/>
       <c r="D207" s="409" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E207" s="409"/>
       <c r="F207" s="409"/>
       <c r="G207" s="409"/>
       <c r="H207" s="409"/>
       <c r="I207" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J207" s="410"/>
       <c r="K207" s="410"/>
@@ -11372,7 +11390,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C208" s="412"/>
       <c r="D208" s="413" t="n">
@@ -11383,7 +11401,7 @@
       <c r="G208" s="413"/>
       <c r="H208" s="413"/>
       <c r="I208" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J208" s="406"/>
       <c r="K208" s="406"/>
@@ -11402,7 +11420,7 @@
       <c r="G209" s="414"/>
       <c r="H209" s="414"/>
       <c r="I209" s="406" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J209" s="406"/>
       <c r="K209" s="406"/>
@@ -11410,18 +11428,18 @@
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C210" s="416"/>
       <c r="D210" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E210" s="417"/>
       <c r="F210" s="417"/>
       <c r="G210" s="417"/>
       <c r="H210" s="417"/>
       <c r="I210" s="406" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J210" s="406"/>
       <c r="K210" s="406"/>
@@ -11443,13 +11461,13 @@
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="419"/>
       <c r="C212" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D212" s="420"/>
       <c r="E212" s="420"/>
       <c r="F212" s="420"/>
       <c r="G212" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H212" s="180"/>
       <c r="I212" s="180"/>
@@ -11462,13 +11480,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="422" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D213" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E213" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F213" s="424" t="s">
         <v>145</v>
@@ -11489,13 +11507,13 @@
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="421"/>
       <c r="C214" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D214" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E214" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F214" s="424"/>
       <c r="G214" s="425"/>
@@ -11510,13 +11528,13 @@
         <v>2</v>
       </c>
       <c r="C215" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D215" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E215" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F215" s="430" t="s">
         <v>145</v>
@@ -11537,13 +11555,13 @@
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="429"/>
       <c r="C216" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D216" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E216" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F216" s="430"/>
       <c r="G216" s="431"/>
@@ -11558,13 +11576,13 @@
         <v>3</v>
       </c>
       <c r="C217" s="423" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D217" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E217" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F217" s="436" t="s">
         <v>146</v>
@@ -11585,13 +11603,13 @@
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="421"/>
       <c r="C218" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D218" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E218" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F218" s="436"/>
       <c r="G218" s="425"/>
@@ -11606,13 +11624,13 @@
         <v>4</v>
       </c>
       <c r="C219" s="423" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D219" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E219" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F219" s="436" t="s">
         <v>146</v>
@@ -11633,13 +11651,13 @@
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="429"/>
       <c r="C220" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D220" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E220" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F220" s="436"/>
       <c r="G220" s="425"/>
@@ -11654,13 +11672,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="441" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D221" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E221" s="441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F221" s="424" t="s">
         <v>145</v>
@@ -11681,13 +11699,13 @@
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="421"/>
       <c r="C222" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D222" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E222" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F222" s="424"/>
       <c r="G222" s="425"/>
@@ -11702,13 +11720,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="423" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D223" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E223" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F223" s="436" t="s">
         <v>146</v>
@@ -11729,13 +11747,13 @@
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="429"/>
       <c r="C224" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D224" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E224" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F224" s="436"/>
       <c r="G224" s="425"/>
@@ -11750,13 +11768,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="423" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D225" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E225" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F225" s="424" t="s">
         <v>145</v>
@@ -11777,13 +11795,13 @@
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="421"/>
       <c r="C226" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D226" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E226" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F226" s="424"/>
       <c r="G226" s="425"/>
@@ -11798,13 +11816,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="423" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D227" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E227" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F227" s="436" t="s">
         <v>146</v>
@@ -11825,13 +11843,13 @@
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="429"/>
       <c r="C228" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D228" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E228" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F228" s="436"/>
       <c r="G228" s="425"/>
@@ -11846,13 +11864,13 @@
         <v>9</v>
       </c>
       <c r="C229" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D229" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E229" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F229" s="424" t="s">
         <v>145</v>
@@ -11873,13 +11891,13 @@
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="421"/>
       <c r="C230" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D230" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E230" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F230" s="424"/>
       <c r="G230" s="425"/>
@@ -11894,13 +11912,13 @@
         <v>10</v>
       </c>
       <c r="C231" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D231" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E231" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F231" s="436" t="s">
         <v>146</v>
@@ -11921,13 +11939,13 @@
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="429"/>
       <c r="C232" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D232" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E232" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F232" s="436"/>
       <c r="G232" s="425"/>
@@ -11942,13 +11960,13 @@
         <v>11</v>
       </c>
       <c r="C233" s="423" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D233" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E233" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F233" s="424" t="s">
         <v>145</v>
@@ -11969,13 +11987,13 @@
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="421"/>
       <c r="C234" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D234" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E234" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F234" s="424"/>
       <c r="G234" s="425"/>
@@ -11990,13 +12008,13 @@
         <v>12</v>
       </c>
       <c r="C235" s="442" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D235" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E235" s="443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F235" s="436" t="s">
         <v>146</v>
@@ -12017,13 +12035,13 @@
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="429"/>
       <c r="C236" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D236" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E236" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F236" s="436"/>
       <c r="G236" s="425"/>
@@ -12038,25 +12056,25 @@
         <v>13</v>
       </c>
       <c r="C237" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D237" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E237" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F237" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G237" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H237" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I237" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J237" s="444"/>
       <c r="K237" s="437"/>
@@ -12078,23 +12096,23 @@
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="368"/>
       <c r="C242" s="368" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D242" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E242" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F242" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G242" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H242" s="397"/>
       <c r="I242" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J242" s="358"/>
       <c r="K242" s="358"/>
@@ -12115,7 +12133,7 @@
     </row>
     <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C244" s="398"/>
       <c r="D244" s="399" t="e">
@@ -12123,7 +12141,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E244" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F244" s="400" t="n">
         <v>4</v>
@@ -12140,7 +12158,7 @@
     </row>
     <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C245" s="403"/>
       <c r="D245" s="404" t="n">
@@ -12155,7 +12173,7 @@
       </c>
       <c r="H245" s="405"/>
       <c r="I245" s="406" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J245" s="406"/>
       <c r="K245" s="406"/>
@@ -12163,7 +12181,7 @@
     </row>
     <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C246" s="403"/>
       <c r="D246" s="407" t="e">
@@ -12178,7 +12196,7 @@
       </c>
       <c r="H246" s="408"/>
       <c r="I246" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J246" s="406"/>
       <c r="K246" s="406"/>
@@ -12186,18 +12204,18 @@
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C247" s="403"/>
       <c r="D247" s="409" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E247" s="409"/>
       <c r="F247" s="409"/>
       <c r="G247" s="409"/>
       <c r="H247" s="409"/>
       <c r="I247" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J247" s="410"/>
       <c r="K247" s="410"/>
@@ -12205,7 +12223,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C248" s="412"/>
       <c r="D248" s="413" t="n">
@@ -12216,7 +12234,7 @@
       <c r="G248" s="413"/>
       <c r="H248" s="413"/>
       <c r="I248" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J248" s="406"/>
       <c r="K248" s="406"/>
@@ -12235,7 +12253,7 @@
       <c r="G249" s="414"/>
       <c r="H249" s="414"/>
       <c r="I249" s="406" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J249" s="406"/>
       <c r="K249" s="406"/>
@@ -12243,18 +12261,18 @@
     </row>
     <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C250" s="416"/>
       <c r="D250" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E250" s="417"/>
       <c r="F250" s="417"/>
       <c r="G250" s="417"/>
       <c r="H250" s="417"/>
       <c r="I250" s="406" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J250" s="406"/>
       <c r="K250" s="406"/>
@@ -12276,13 +12294,13 @@
     <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="419"/>
       <c r="C252" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D252" s="420"/>
       <c r="E252" s="420"/>
       <c r="F252" s="420"/>
       <c r="G252" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H252" s="180"/>
       <c r="I252" s="180"/>
@@ -12295,13 +12313,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="422" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D253" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E253" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F253" s="424" t="s">
         <v>145</v>
@@ -12322,13 +12340,13 @@
     <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="421"/>
       <c r="C254" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D254" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E254" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F254" s="424"/>
       <c r="G254" s="425"/>
@@ -12343,13 +12361,13 @@
         <v>2</v>
       </c>
       <c r="C255" s="423" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D255" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E255" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F255" s="430" t="s">
         <v>145</v>
@@ -12370,13 +12388,13 @@
     <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="429"/>
       <c r="C256" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D256" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E256" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F256" s="430"/>
       <c r="G256" s="431"/>
@@ -12391,13 +12409,13 @@
         <v>3</v>
       </c>
       <c r="C257" s="423" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D257" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E257" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F257" s="436" t="s">
         <v>146</v>
@@ -12418,13 +12436,13 @@
     <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="421"/>
       <c r="C258" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D258" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E258" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F258" s="436"/>
       <c r="G258" s="425"/>
@@ -12439,13 +12457,13 @@
         <v>4</v>
       </c>
       <c r="C259" s="423" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D259" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E259" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F259" s="436" t="s">
         <v>146</v>
@@ -12466,13 +12484,13 @@
     <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="429"/>
       <c r="C260" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D260" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E260" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F260" s="436"/>
       <c r="G260" s="425"/>
@@ -12487,13 +12505,13 @@
         <v>5</v>
       </c>
       <c r="C261" s="441" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D261" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E261" s="441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F261" s="424" t="s">
         <v>145</v>
@@ -12514,13 +12532,13 @@
     <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="421"/>
       <c r="C262" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D262" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E262" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F262" s="424"/>
       <c r="G262" s="425"/>
@@ -12535,13 +12553,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="423" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D263" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E263" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F263" s="436" t="s">
         <v>146</v>
@@ -12562,13 +12580,13 @@
     <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="429"/>
       <c r="C264" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D264" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E264" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F264" s="436"/>
       <c r="G264" s="425"/>
@@ -12583,13 +12601,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D265" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E265" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F265" s="424" t="s">
         <v>145</v>
@@ -12610,13 +12628,13 @@
     <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="421"/>
       <c r="C266" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D266" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E266" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F266" s="424"/>
       <c r="G266" s="425"/>
@@ -12631,13 +12649,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D267" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E267" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F267" s="436" t="s">
         <v>146</v>
@@ -12658,13 +12676,13 @@
     <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="429"/>
       <c r="C268" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D268" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E268" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F268" s="436"/>
       <c r="G268" s="425"/>
@@ -12679,13 +12697,13 @@
         <v>9</v>
       </c>
       <c r="C269" s="423" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D269" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E269" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F269" s="424" t="s">
         <v>145</v>
@@ -12706,13 +12724,13 @@
     <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="421"/>
       <c r="C270" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D270" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E270" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F270" s="424"/>
       <c r="G270" s="425"/>
@@ -12727,13 +12745,13 @@
         <v>10</v>
       </c>
       <c r="C271" s="423" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D271" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E271" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F271" s="436" t="s">
         <v>146</v>
@@ -12754,13 +12772,13 @@
     <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="429"/>
       <c r="C272" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D272" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E272" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F272" s="436"/>
       <c r="G272" s="425"/>
@@ -12775,13 +12793,13 @@
         <v>11</v>
       </c>
       <c r="C273" s="423" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D273" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E273" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F273" s="424" t="s">
         <v>145</v>
@@ -12802,13 +12820,13 @@
     <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="421"/>
       <c r="C274" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D274" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E274" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F274" s="424"/>
       <c r="G274" s="425"/>
@@ -12823,13 +12841,13 @@
         <v>12</v>
       </c>
       <c r="C275" s="442" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D275" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E275" s="443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F275" s="436" t="s">
         <v>146</v>
@@ -12850,13 +12868,13 @@
     <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="429"/>
       <c r="C276" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D276" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E276" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F276" s="436"/>
       <c r="G276" s="425"/>
@@ -12871,25 +12889,25 @@
         <v>13</v>
       </c>
       <c r="C277" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D277" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E277" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F277" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G277" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H277" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I277" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J277" s="444"/>
       <c r="K277" s="437"/>
@@ -12911,23 +12929,23 @@
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="368"/>
       <c r="C282" s="368" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D282" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E282" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F282" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G282" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H282" s="397"/>
       <c r="I282" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J282" s="358"/>
       <c r="K282" s="358"/>
@@ -12948,14 +12966,14 @@
     </row>
     <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C284" s="398"/>
       <c r="D284" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E284" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F284" s="400" t="n">
         <v>3</v>
@@ -12972,7 +12990,7 @@
     </row>
     <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C285" s="403"/>
       <c r="D285" s="404" t="n">
@@ -12986,7 +13004,7 @@
       </c>
       <c r="H285" s="405"/>
       <c r="I285" s="406" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J285" s="406"/>
       <c r="K285" s="406"/>
@@ -12994,7 +13012,7 @@
     </row>
     <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C286" s="403"/>
       <c r="D286" s="407" t="n">
@@ -13008,7 +13026,7 @@
       </c>
       <c r="H286" s="408"/>
       <c r="I286" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J286" s="406"/>
       <c r="K286" s="406"/>
@@ -13016,18 +13034,18 @@
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C287" s="403"/>
       <c r="D287" s="409" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E287" s="409"/>
       <c r="F287" s="409"/>
       <c r="G287" s="409"/>
       <c r="H287" s="409"/>
       <c r="I287" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J287" s="410"/>
       <c r="K287" s="410"/>
@@ -13035,7 +13053,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C288" s="412"/>
       <c r="D288" s="413" t="n">
@@ -13046,7 +13064,7 @@
       <c r="G288" s="413"/>
       <c r="H288" s="413"/>
       <c r="I288" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J288" s="406"/>
       <c r="K288" s="406"/>
@@ -13071,11 +13089,11 @@
     </row>
     <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C290" s="416"/>
       <c r="D290" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E290" s="417"/>
       <c r="F290" s="417"/>
@@ -13102,13 +13120,13 @@
     <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="419"/>
       <c r="C292" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D292" s="420"/>
       <c r="E292" s="420"/>
       <c r="F292" s="420"/>
       <c r="G292" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H292" s="180"/>
       <c r="I292" s="180"/>
@@ -13121,13 +13139,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="422" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D293" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E293" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F293" s="424" t="s">
         <v>145</v>
@@ -13148,13 +13166,13 @@
     <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="421"/>
       <c r="C294" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D294" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E294" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F294" s="424"/>
       <c r="G294" s="425"/>
@@ -13169,13 +13187,13 @@
         <v>2</v>
       </c>
       <c r="C295" s="423" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D295" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E295" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F295" s="430" t="s">
         <v>145</v>
@@ -13196,13 +13214,13 @@
     <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="429"/>
       <c r="C296" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D296" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E296" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F296" s="430"/>
       <c r="G296" s="431"/>
@@ -13217,13 +13235,13 @@
         <v>3</v>
       </c>
       <c r="C297" s="423" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D297" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E297" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F297" s="436" t="s">
         <v>146</v>
@@ -13244,13 +13262,13 @@
     <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="421"/>
       <c r="C298" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D298" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E298" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F298" s="436"/>
       <c r="G298" s="425"/>
@@ -13265,13 +13283,13 @@
         <v>4</v>
       </c>
       <c r="C299" s="423" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D299" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E299" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F299" s="436" t="s">
         <v>146</v>
@@ -13292,13 +13310,13 @@
     <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="429"/>
       <c r="C300" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D300" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E300" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F300" s="436"/>
       <c r="G300" s="425"/>
@@ -13313,13 +13331,13 @@
         <v>5</v>
       </c>
       <c r="C301" s="441" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D301" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E301" s="441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F301" s="424" t="s">
         <v>145</v>
@@ -13340,13 +13358,13 @@
     <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="421"/>
       <c r="C302" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D302" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E302" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F302" s="424"/>
       <c r="G302" s="425"/>
@@ -13361,13 +13379,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="423" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D303" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E303" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F303" s="436" t="s">
         <v>146</v>
@@ -13388,13 +13406,13 @@
     <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="429"/>
       <c r="C304" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D304" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E304" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F304" s="436"/>
       <c r="G304" s="425"/>
@@ -13409,13 +13427,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="423" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D305" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E305" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F305" s="424" t="s">
         <v>145</v>
@@ -13436,13 +13454,13 @@
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="421"/>
       <c r="C306" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D306" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E306" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F306" s="424"/>
       <c r="G306" s="425"/>
@@ -13457,13 +13475,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="423" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D307" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E307" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F307" s="436" t="s">
         <v>146</v>
@@ -13484,13 +13502,13 @@
     <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="429"/>
       <c r="C308" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D308" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E308" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F308" s="436"/>
       <c r="G308" s="425"/>
@@ -13505,13 +13523,13 @@
         <v>9</v>
       </c>
       <c r="C309" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D309" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E309" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F309" s="424" t="s">
         <v>145</v>
@@ -13532,13 +13550,13 @@
     <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="421"/>
       <c r="C310" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D310" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E310" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F310" s="424"/>
       <c r="G310" s="425"/>
@@ -13553,13 +13571,13 @@
         <v>10</v>
       </c>
       <c r="C311" s="423" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D311" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E311" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F311" s="436" t="s">
         <v>146</v>
@@ -13580,13 +13598,13 @@
     <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="429"/>
       <c r="C312" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D312" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E312" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F312" s="436"/>
       <c r="G312" s="425"/>
@@ -13601,13 +13619,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="423" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D313" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E313" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F313" s="424" t="s">
         <v>145</v>
@@ -13628,13 +13646,13 @@
     <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="421"/>
       <c r="C314" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D314" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E314" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F314" s="424"/>
       <c r="G314" s="425"/>
@@ -13649,25 +13667,25 @@
         <v>12</v>
       </c>
       <c r="C315" s="442" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D315" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E315" s="443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F315" s="436" t="s">
         <v>146</v>
       </c>
       <c r="G315" s="425" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H315" s="425" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I315" s="425" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J315" s="425"/>
       <c r="K315" s="437"/>
@@ -13676,13 +13694,13 @@
     <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="429"/>
       <c r="C316" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D316" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E316" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F316" s="436"/>
       <c r="G316" s="425"/>
@@ -13697,25 +13715,25 @@
         <v>13</v>
       </c>
       <c r="C317" s="423" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D317" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E317" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F317" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G317" s="444" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H317" s="444" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I317" s="444" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J317" s="444"/>
       <c r="K317" s="437"/>
@@ -13724,13 +13742,13 @@
     <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="421"/>
       <c r="C318" s="440" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D318" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E318" s="440" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F318" s="424"/>
       <c r="G318" s="444"/>
@@ -13745,25 +13763,25 @@
         <v>13</v>
       </c>
       <c r="C319" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D319" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E319" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F319" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G319" s="444" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H319" s="444" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I319" s="444" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J319" s="444"/>
       <c r="K319" s="437"/>
@@ -13785,23 +13803,23 @@
     <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="368"/>
       <c r="C324" s="368" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D324" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E324" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F324" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G324" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H324" s="397"/>
       <c r="I324" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J324" s="358"/>
       <c r="K324" s="358"/>
@@ -13822,7 +13840,7 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C326" s="398"/>
       <c r="D326" s="399" t="e">
@@ -13830,7 +13848,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E326" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F326" s="400" t="n">
         <v>4</v>
@@ -13847,7 +13865,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C327" s="403"/>
       <c r="D327" s="404" t="n">
@@ -13862,7 +13880,7 @@
       </c>
       <c r="H327" s="405"/>
       <c r="I327" s="406" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J327" s="406"/>
       <c r="K327" s="406"/>
@@ -13870,7 +13888,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C328" s="403"/>
       <c r="D328" s="407" t="e">
@@ -13885,7 +13903,7 @@
       </c>
       <c r="H328" s="408"/>
       <c r="I328" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J328" s="406"/>
       <c r="K328" s="406"/>
@@ -13893,18 +13911,18 @@
     </row>
     <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C329" s="403"/>
       <c r="D329" s="409" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E329" s="409"/>
       <c r="F329" s="409"/>
       <c r="G329" s="409"/>
       <c r="H329" s="409"/>
       <c r="I329" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J329" s="410"/>
       <c r="K329" s="410"/>
@@ -13912,7 +13930,7 @@
     </row>
     <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C330" s="412"/>
       <c r="D330" s="413" t="n">
@@ -13923,7 +13941,7 @@
       <c r="G330" s="413"/>
       <c r="H330" s="413"/>
       <c r="I330" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J330" s="406"/>
       <c r="K330" s="406"/>
@@ -13942,7 +13960,7 @@
       <c r="G331" s="414"/>
       <c r="H331" s="414"/>
       <c r="I331" s="406" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J331" s="406"/>
       <c r="K331" s="406"/>
@@ -13950,18 +13968,18 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C332" s="416"/>
       <c r="D332" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E332" s="417"/>
       <c r="F332" s="417"/>
       <c r="G332" s="417"/>
       <c r="H332" s="417"/>
       <c r="I332" s="406" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J332" s="406"/>
       <c r="K332" s="406"/>
@@ -13983,13 +14001,13 @@
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="419"/>
       <c r="C334" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D334" s="420"/>
       <c r="E334" s="420"/>
       <c r="F334" s="420"/>
       <c r="G334" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H334" s="180"/>
       <c r="I334" s="180"/>
@@ -14002,13 +14020,13 @@
         <v>1</v>
       </c>
       <c r="C335" s="422" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D335" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E335" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F335" s="424" t="s">
         <v>145</v>
@@ -14031,13 +14049,13 @@
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="421"/>
       <c r="C336" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D336" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E336" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F336" s="424"/>
       <c r="G336" s="425"/>
@@ -14052,13 +14070,13 @@
         <v>2</v>
       </c>
       <c r="C337" s="423" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D337" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E337" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F337" s="430" t="s">
         <v>145</v>
@@ -14081,13 +14099,13 @@
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="429"/>
       <c r="C338" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D338" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E338" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F338" s="430"/>
       <c r="G338" s="431"/>
@@ -14102,13 +14120,13 @@
         <v>3</v>
       </c>
       <c r="C339" s="423" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D339" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E339" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F339" s="436" t="s">
         <v>146</v>
@@ -14131,13 +14149,13 @@
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="421"/>
       <c r="C340" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D340" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E340" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F340" s="436"/>
       <c r="G340" s="425"/>
@@ -14152,13 +14170,13 @@
         <v>4</v>
       </c>
       <c r="C341" s="423" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D341" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E341" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F341" s="436" t="s">
         <v>146</v>
@@ -14181,13 +14199,13 @@
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="429"/>
       <c r="C342" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D342" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E342" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F342" s="436"/>
       <c r="G342" s="425"/>
@@ -14202,13 +14220,13 @@
         <v>5</v>
       </c>
       <c r="C343" s="441" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D343" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E343" s="441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F343" s="424" t="s">
         <v>145</v>
@@ -14231,13 +14249,13 @@
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="421"/>
       <c r="C344" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D344" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E344" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F344" s="424"/>
       <c r="G344" s="425"/>
@@ -14252,13 +14270,13 @@
         <v>6</v>
       </c>
       <c r="C345" s="423" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D345" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E345" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F345" s="436" t="s">
         <v>146</v>
@@ -14281,13 +14299,13 @@
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="429"/>
       <c r="C346" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D346" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E346" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F346" s="436"/>
       <c r="G346" s="425"/>
@@ -14302,13 +14320,13 @@
         <v>7</v>
       </c>
       <c r="C347" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D347" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E347" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F347" s="424" t="s">
         <v>145</v>
@@ -14331,13 +14349,13 @@
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="421"/>
       <c r="C348" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D348" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E348" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F348" s="424"/>
       <c r="G348" s="425"/>
@@ -14352,13 +14370,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D349" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E349" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F349" s="436" t="s">
         <v>146</v>
@@ -14381,13 +14399,13 @@
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="429"/>
       <c r="C350" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D350" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E350" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F350" s="436"/>
       <c r="G350" s="425"/>
@@ -14402,13 +14420,13 @@
         <v>9</v>
       </c>
       <c r="C351" s="423" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D351" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E351" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F351" s="424" t="s">
         <v>145</v>
@@ -14431,13 +14449,13 @@
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="421"/>
       <c r="C352" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D352" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E352" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F352" s="424"/>
       <c r="G352" s="425"/>
@@ -14452,13 +14470,13 @@
         <v>10</v>
       </c>
       <c r="C353" s="423" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D353" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E353" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F353" s="436" t="s">
         <v>146</v>
@@ -14481,13 +14499,13 @@
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="429"/>
       <c r="C354" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D354" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E354" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F354" s="436"/>
       <c r="G354" s="425"/>
@@ -14502,13 +14520,13 @@
         <v>11</v>
       </c>
       <c r="C355" s="423" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D355" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E355" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F355" s="424" t="s">
         <v>145</v>
@@ -14531,13 +14549,13 @@
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="421"/>
       <c r="C356" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D356" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E356" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F356" s="424"/>
       <c r="G356" s="425"/>
@@ -14552,13 +14570,13 @@
         <v>12</v>
       </c>
       <c r="C357" s="442" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D357" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E357" s="443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F357" s="436" t="s">
         <v>146</v>
@@ -14581,13 +14599,13 @@
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="429"/>
       <c r="C358" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D358" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E358" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F358" s="436"/>
       <c r="G358" s="425"/>
@@ -14602,28 +14620,28 @@
         <v>13</v>
       </c>
       <c r="C359" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D359" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E359" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F359" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G359" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H359" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I359" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J359" s="444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K359" s="437"/>
       <c r="L359" s="438"/>
@@ -14644,23 +14662,23 @@
     <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="368"/>
       <c r="C365" s="368" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D365" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E365" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F365" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G365" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H365" s="397"/>
       <c r="I365" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J365" s="358"/>
       <c r="K365" s="358"/>
@@ -14681,14 +14699,14 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C367" s="398"/>
       <c r="D367" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E367" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F367" s="400" t="n">
         <v>3</v>
@@ -14705,7 +14723,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C368" s="403"/>
       <c r="D368" s="404" t="n">
@@ -14719,7 +14737,7 @@
       </c>
       <c r="H368" s="405"/>
       <c r="I368" s="406" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J368" s="406"/>
       <c r="K368" s="406"/>
@@ -14727,7 +14745,7 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C369" s="403"/>
       <c r="D369" s="407" t="n">
@@ -14740,7 +14758,7 @@
       </c>
       <c r="H369" s="408"/>
       <c r="I369" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J369" s="406"/>
       <c r="K369" s="406"/>
@@ -14748,18 +14766,18 @@
     </row>
     <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C370" s="403"/>
       <c r="D370" s="409" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E370" s="409"/>
       <c r="F370" s="409"/>
       <c r="G370" s="409"/>
       <c r="H370" s="409"/>
       <c r="I370" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J370" s="410"/>
       <c r="K370" s="410"/>
@@ -14767,7 +14785,7 @@
     </row>
     <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C371" s="412"/>
       <c r="D371" s="413" t="n">
@@ -14778,7 +14796,7 @@
       <c r="G371" s="413"/>
       <c r="H371" s="413"/>
       <c r="I371" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J371" s="406"/>
       <c r="K371" s="406"/>
@@ -14803,11 +14821,11 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C373" s="416"/>
       <c r="D373" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E373" s="417"/>
       <c r="F373" s="417"/>
@@ -14834,13 +14852,13 @@
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="419"/>
       <c r="C375" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D375" s="420"/>
       <c r="E375" s="420"/>
       <c r="F375" s="420"/>
       <c r="G375" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H375" s="180"/>
       <c r="I375" s="180"/>
@@ -14853,13 +14871,13 @@
         <v>1</v>
       </c>
       <c r="C376" s="422" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D376" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E376" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F376" s="424" t="s">
         <v>145</v>
@@ -14874,13 +14892,13 @@
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="421"/>
       <c r="C377" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D377" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E377" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F377" s="424"/>
       <c r="G377" s="425"/>
@@ -14895,13 +14913,13 @@
         <v>2</v>
       </c>
       <c r="C378" s="422" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D378" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E378" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F378" s="424" t="s">
         <v>145</v>
@@ -14916,13 +14934,13 @@
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="435"/>
       <c r="C379" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D379" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E379" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F379" s="424"/>
       <c r="G379" s="425"/>
@@ -14937,13 +14955,13 @@
         <v>3</v>
       </c>
       <c r="C380" s="423" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D380" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E380" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F380" s="430" t="s">
         <v>145</v>
@@ -14958,13 +14976,13 @@
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="435"/>
       <c r="C381" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D381" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E381" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F381" s="445"/>
       <c r="G381" s="446"/>
@@ -14979,13 +14997,13 @@
         <v>4</v>
       </c>
       <c r="C382" s="423" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D382" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E382" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F382" s="448" t="s">
         <v>146</v>
@@ -15000,13 +15018,13 @@
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="435"/>
       <c r="C383" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D383" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E383" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F383" s="449"/>
       <c r="G383" s="446"/>
@@ -15021,13 +15039,13 @@
         <v>5</v>
       </c>
       <c r="C384" s="423" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D384" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E384" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F384" s="448" t="s">
         <v>146</v>
@@ -15042,13 +15060,13 @@
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="435"/>
       <c r="C385" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D385" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E385" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F385" s="449"/>
       <c r="G385" s="446"/>
@@ -15063,13 +15081,13 @@
         <v>6</v>
       </c>
       <c r="C386" s="441" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D386" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E386" s="441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F386" s="430" t="s">
         <v>145</v>
@@ -15084,13 +15102,13 @@
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="435"/>
       <c r="C387" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D387" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E387" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F387" s="445"/>
       <c r="G387" s="446"/>
@@ -15105,13 +15123,13 @@
         <v>7</v>
       </c>
       <c r="C388" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D388" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E388" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F388" s="448" t="s">
         <v>146</v>
@@ -15126,13 +15144,13 @@
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="435"/>
       <c r="C389" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D389" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E389" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F389" s="449"/>
       <c r="G389" s="446"/>
@@ -15147,13 +15165,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="423" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D390" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E390" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F390" s="430" t="s">
         <v>145</v>
@@ -15168,13 +15186,13 @@
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="435"/>
       <c r="C391" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D391" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E391" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F391" s="445"/>
       <c r="G391" s="446"/>
@@ -15189,13 +15207,13 @@
         <v>9</v>
       </c>
       <c r="C392" s="423" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D392" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E392" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F392" s="448" t="s">
         <v>146</v>
@@ -15210,13 +15228,13 @@
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="435"/>
       <c r="C393" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D393" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E393" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F393" s="449"/>
       <c r="G393" s="446"/>
@@ -15231,13 +15249,13 @@
         <v>10</v>
       </c>
       <c r="C394" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D394" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E394" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F394" s="430" t="s">
         <v>145</v>
@@ -15252,13 +15270,13 @@
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="435"/>
       <c r="C395" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D395" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E395" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F395" s="445"/>
       <c r="G395" s="446"/>
@@ -15273,13 +15291,13 @@
         <v>11</v>
       </c>
       <c r="C396" s="423" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D396" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E396" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F396" s="448" t="s">
         <v>146</v>
@@ -15294,13 +15312,13 @@
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="435"/>
       <c r="C397" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D397" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E397" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F397" s="449"/>
       <c r="G397" s="446"/>
@@ -15315,13 +15333,13 @@
         <v>12</v>
       </c>
       <c r="C398" s="423" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D398" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E398" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F398" s="430" t="s">
         <v>145</v>
@@ -15336,13 +15354,13 @@
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="435"/>
       <c r="C399" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D399" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E399" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F399" s="445"/>
       <c r="G399" s="446"/>
@@ -15357,13 +15375,13 @@
         <v>13</v>
       </c>
       <c r="C400" s="442" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D400" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E400" s="443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F400" s="448" t="s">
         <v>146</v>
@@ -15378,13 +15396,13 @@
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="435"/>
       <c r="C401" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D401" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E401" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F401" s="449"/>
       <c r="G401" s="446"/>
@@ -15399,13 +15417,13 @@
         <v>14</v>
       </c>
       <c r="C402" s="423" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D402" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E402" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F402" s="430" t="s">
         <v>145</v>
@@ -15420,13 +15438,13 @@
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="435"/>
       <c r="C403" s="440" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D403" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E403" s="440" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F403" s="445"/>
       <c r="G403" s="451"/>
@@ -15441,13 +15459,13 @@
         <v>15</v>
       </c>
       <c r="C404" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D404" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E404" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F404" s="430" t="s">
         <v>145</v>
@@ -15477,23 +15495,23 @@
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B409" s="368"/>
       <c r="C409" s="368" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D409" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E409" s="368" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F409" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G409" s="397" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H409" s="397"/>
       <c r="I409" s="358" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J409" s="358"/>
       <c r="K409" s="358"/>
@@ -15514,14 +15532,14 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="398" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C411" s="398"/>
       <c r="D411" s="399" t="n">
         <v>8.12</v>
       </c>
       <c r="E411" s="400" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F411" s="400" t="n">
         <v>4</v>
@@ -15538,7 +15556,7 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="403" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C412" s="403"/>
       <c r="D412" s="404" t="n">
@@ -15552,7 +15570,7 @@
       </c>
       <c r="H412" s="405"/>
       <c r="I412" s="406" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J412" s="406"/>
       <c r="K412" s="406"/>
@@ -15560,7 +15578,7 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C413" s="403"/>
       <c r="D413" s="407" t="n">
@@ -15573,7 +15591,7 @@
       </c>
       <c r="H413" s="408"/>
       <c r="I413" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J413" s="406"/>
       <c r="K413" s="406"/>
@@ -15581,18 +15599,18 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C414" s="403"/>
       <c r="D414" s="409" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E414" s="409"/>
       <c r="F414" s="409"/>
       <c r="G414" s="409"/>
       <c r="H414" s="409"/>
       <c r="I414" s="410" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J414" s="410"/>
       <c r="K414" s="410"/>
@@ -15600,7 +15618,7 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="411" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C415" s="412"/>
       <c r="D415" s="413" t="n">
@@ -15611,7 +15629,7 @@
       <c r="G415" s="413"/>
       <c r="H415" s="413"/>
       <c r="I415" s="406" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J415" s="406"/>
       <c r="K415" s="406"/>
@@ -15630,7 +15648,7 @@
       <c r="G416" s="414"/>
       <c r="H416" s="414"/>
       <c r="I416" s="406" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J416" s="406"/>
       <c r="K416" s="406"/>
@@ -15638,11 +15656,11 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="416" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C417" s="416"/>
       <c r="D417" s="417" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E417" s="417"/>
       <c r="F417" s="417"/>
@@ -15669,13 +15687,13 @@
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="419"/>
       <c r="C419" s="420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D419" s="420"/>
       <c r="E419" s="420"/>
       <c r="F419" s="420"/>
       <c r="G419" s="180" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H419" s="180"/>
       <c r="I419" s="180"/>
@@ -15688,13 +15706,13 @@
         <v>1</v>
       </c>
       <c r="C420" s="422" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D420" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E420" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F420" s="424" t="s">
         <v>145</v>
@@ -15717,13 +15735,13 @@
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="421"/>
       <c r="C421" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D421" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E421" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F421" s="424"/>
       <c r="G421" s="425"/>
@@ -15738,28 +15756,28 @@
         <v>2</v>
       </c>
       <c r="C422" s="423" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D422" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E422" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F422" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G422" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H422" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I422" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J422" s="425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K422" s="425"/>
       <c r="L422" s="438"/>
@@ -15767,13 +15785,13 @@
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="435"/>
       <c r="C423" s="427" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D423" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E423" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F423" s="424"/>
       <c r="G423" s="425"/>
@@ -15788,13 +15806,13 @@
         <v>3</v>
       </c>
       <c r="C424" s="441" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D424" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E424" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F424" s="430" t="s">
         <v>145</v>
@@ -15817,13 +15835,13 @@
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="435"/>
       <c r="C425" s="434" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D425" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E425" s="434" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F425" s="445"/>
       <c r="G425" s="431"/>
@@ -15838,13 +15856,13 @@
         <v>4</v>
       </c>
       <c r="C426" s="422" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D426" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E426" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F426" s="448" t="s">
         <v>146</v>
@@ -15867,13 +15885,13 @@
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="435"/>
       <c r="C427" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D427" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E427" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F427" s="449"/>
       <c r="G427" s="431"/>
@@ -15888,13 +15906,13 @@
         <v>5</v>
       </c>
       <c r="C428" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D428" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E428" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F428" s="448" t="s">
         <v>146</v>
@@ -15917,13 +15935,13 @@
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="435"/>
       <c r="C429" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D429" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E429" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F429" s="449"/>
       <c r="G429" s="431"/>
@@ -15938,28 +15956,28 @@
         <v>6</v>
       </c>
       <c r="C430" s="423" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D430" s="441" t="n">
         <v>20</v>
       </c>
       <c r="E430" s="441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F430" s="430" t="s">
         <v>145</v>
       </c>
       <c r="G430" s="431" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H430" s="431" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I430" s="431" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J430" s="431" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K430" s="432"/>
       <c r="L430" s="438"/>
@@ -15967,13 +15985,13 @@
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="435"/>
       <c r="C431" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D431" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E431" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F431" s="445"/>
       <c r="G431" s="431"/>
@@ -15988,13 +16006,13 @@
         <v>7</v>
       </c>
       <c r="C432" s="441" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D432" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E432" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F432" s="448" t="s">
         <v>146</v>
@@ -16017,13 +16035,13 @@
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="435"/>
       <c r="C433" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D433" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E433" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F433" s="449"/>
       <c r="G433" s="431"/>
@@ -16038,13 +16056,13 @@
         <v>8</v>
       </c>
       <c r="C434" s="423" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D434" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E434" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F434" s="430" t="s">
         <v>145</v>
@@ -16067,13 +16085,13 @@
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="435"/>
       <c r="C435" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D435" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E435" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F435" s="445"/>
       <c r="G435" s="431"/>
@@ -16088,13 +16106,13 @@
         <v>9</v>
       </c>
       <c r="C436" s="423" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D436" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E436" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F436" s="448" t="s">
         <v>146</v>
@@ -16117,13 +16135,13 @@
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="435"/>
       <c r="C437" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D437" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E437" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F437" s="449"/>
       <c r="G437" s="431"/>
@@ -16138,13 +16156,13 @@
         <v>10</v>
       </c>
       <c r="C438" s="423" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D438" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E438" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F438" s="430" t="s">
         <v>145</v>
@@ -16167,13 +16185,13 @@
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="435"/>
       <c r="C439" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D439" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E439" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F439" s="445"/>
       <c r="G439" s="431"/>
@@ -16188,13 +16206,13 @@
         <v>11</v>
       </c>
       <c r="C440" s="423" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D440" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E440" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F440" s="448" t="s">
         <v>146</v>
@@ -16217,13 +16235,13 @@
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="435"/>
       <c r="C441" s="439" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D441" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E441" s="439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F441" s="449"/>
       <c r="G441" s="431"/>
@@ -16238,13 +16256,13 @@
         <v>12</v>
       </c>
       <c r="C442" s="423" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D442" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E442" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F442" s="430" t="s">
         <v>145</v>
@@ -16267,13 +16285,13 @@
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="435"/>
       <c r="C443" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D443" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E443" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F443" s="445"/>
       <c r="G443" s="431"/>
@@ -16288,13 +16306,13 @@
         <v>13</v>
       </c>
       <c r="C444" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D444" s="443" t="n">
         <v>20</v>
       </c>
       <c r="E444" s="443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F444" s="448" t="s">
         <v>146</v>
@@ -16317,13 +16335,13 @@
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="435"/>
       <c r="C445" s="428" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D445" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E445" s="428" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F445" s="449"/>
       <c r="G445" s="431"/>
@@ -16338,13 +16356,13 @@
         <v>14</v>
       </c>
       <c r="C446" s="423" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D446" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E446" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F446" s="430" t="s">
         <v>145</v>
@@ -16367,13 +16385,13 @@
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="435"/>
       <c r="C447" s="440" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D447" s="440" t="n">
         <v>22</v>
       </c>
       <c r="E447" s="440" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F447" s="445"/>
       <c r="G447" s="450"/>
@@ -16388,13 +16406,13 @@
         <v>15</v>
       </c>
       <c r="C448" s="423" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D448" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E448" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F448" s="430" t="s">
         <v>145</v>
@@ -16417,7 +16435,7 @@
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="435"/>
       <c r="C449" s="440" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D449" s="440" t="n">
         <v>22</v>
@@ -16436,28 +16454,28 @@
         <v>16</v>
       </c>
       <c r="C450" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D450" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E450" s="423" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F450" s="430" t="s">
         <v>145</v>
       </c>
       <c r="G450" s="452" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H450" s="452" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I450" s="453" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J450" s="454" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K450" s="432"/>
       <c r="L450" s="438"/>
@@ -17939,24 +17957,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="455" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B1" s="456" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B2" s="456" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -24033,7 +24051,7 @@
       <c r="J22" s="379"/>
       <c r="K22" s="379"/>
     </row>
-    <row r="23" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="377"/>
       <c r="B23" s="377"/>
       <c r="C23" s="379"/>
@@ -25835,7 +25853,7 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/plan2018 (2) (2).xlsx
+++ b/plan2018 (2) (2).xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="353">
   <si>
     <t xml:space="preserve">мои цели на сезон 2019</t>
   </si>
@@ -861,6 +861,12 @@
   </si>
   <si>
     <t xml:space="preserve">Впервые в этом году- бегала в футболке! Домой ехала тоже в футболке, с удивлением обнаружила что на улице +13, а мне тепло. Радуюсь. Скоро еще болото согреется, и можно будет туда нырять с разбега)) Пробежка далась легко, сердце после первых пяти км успокоилось,ЧСС почти не выходила из третьей зоны, даже во время ГРИ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вечерняя прогулка. Как тренировку не засчитываю. Мышцы размяла после ГРИ, это главное. Легкая пробежка в лесу за работой с элементами офп. Итого вышло -6км с темпом 7минут.</t>
   </si>
   <si>
     <t xml:space="preserve">№1</t>
@@ -3865,7 +3871,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4091,12 +4097,12 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="52312256"/>
-        <c:axId val="4529717"/>
+        <c:axId val="22759256"/>
+        <c:axId val="50699704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="52312256"/>
+        <c:axId val="22759256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,14 +4135,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4529717"/>
+        <c:crossAx val="50699704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4529717"/>
+        <c:axId val="50699704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4217,7 +4223,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52312256"/>
+        <c:crossAx val="22759256"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4260,9 +4266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>605160</xdr:colOff>
+      <xdr:colOff>603720</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4271,7 +4277,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6262200"/>
-        <a:ext cx="4383360" cy="2641680"/>
+        <a:ext cx="4381920" cy="2640240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6291,8 +6297,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6773,7 +6779,9 @@
       <c r="C24" s="374"/>
       <c r="D24" s="374"/>
       <c r="E24" s="374"/>
-      <c r="F24" s="395"/>
+      <c r="F24" s="395" t="s">
+        <v>267</v>
+      </c>
       <c r="G24" s="374" t="n">
         <v>56.2</v>
       </c>
@@ -6787,7 +6795,9 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="372"/>
       <c r="B25" s="372"/>
-      <c r="C25" s="381"/>
+      <c r="C25" s="381" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" s="381"/>
       <c r="E25" s="381"/>
       <c r="F25" s="381"/>
@@ -6821,8 +6831,12 @@
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="G27" s="21" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -7064,23 +7078,23 @@
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="368"/>
       <c r="C1" s="368" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D1" s="368" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="368" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F1" s="368" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G1" s="397" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H1" s="397"/>
       <c r="I1" s="358" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J1" s="358"/>
       <c r="K1" s="358"/>
@@ -7101,7 +7115,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="398" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C3" s="398"/>
       <c r="D3" s="399" t="n">
@@ -7109,7 +7123,7 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="400" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F3" s="400" t="n">
         <v>4</v>
@@ -7120,7 +7134,7 @@
       </c>
       <c r="H3" s="401"/>
       <c r="I3" s="402" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J3" s="402"/>
       <c r="K3" s="402"/>
@@ -7128,7 +7142,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="403" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C4" s="403"/>
       <c r="D4" s="404" t="n">
@@ -7143,7 +7157,7 @@
       </c>
       <c r="H4" s="405"/>
       <c r="I4" s="406" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J4" s="406"/>
       <c r="K4" s="406"/>
@@ -7151,7 +7165,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C5" s="403"/>
       <c r="D5" s="407" t="n">
@@ -7166,7 +7180,7 @@
       </c>
       <c r="H5" s="408"/>
       <c r="I5" s="406" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J5" s="406"/>
       <c r="K5" s="406"/>
@@ -7174,7 +7188,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="403" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C6" s="403"/>
       <c r="D6" s="409" t="n">
@@ -7186,7 +7200,7 @@
       <c r="G6" s="409"/>
       <c r="H6" s="409"/>
       <c r="I6" s="410" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J6" s="410"/>
       <c r="K6" s="410"/>
@@ -7194,7 +7208,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="411" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C7" s="412"/>
       <c r="D7" s="413" t="n">
@@ -7206,7 +7220,7 @@
       <c r="G7" s="413"/>
       <c r="H7" s="413"/>
       <c r="I7" s="406" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J7" s="406"/>
       <c r="K7" s="406"/>
@@ -7231,11 +7245,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="416" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C9" s="416"/>
       <c r="D9" s="417" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E9" s="417"/>
       <c r="F9" s="417"/>
@@ -7262,13 +7276,13 @@
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="419"/>
       <c r="C11" s="420" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D11" s="420"/>
       <c r="E11" s="420"/>
       <c r="F11" s="420"/>
       <c r="G11" s="180" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
@@ -7281,13 +7295,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="422" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D12" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F12" s="424" t="s">
         <v>145</v>
@@ -7310,13 +7324,13 @@
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="421"/>
       <c r="C13" s="427" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D13" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E13" s="428" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F13" s="424"/>
       <c r="G13" s="425"/>
@@ -7331,13 +7345,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="423" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D14" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E14" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F14" s="430" t="s">
         <v>145</v>
@@ -7360,13 +7374,13 @@
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="429"/>
       <c r="C15" s="434" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D15" s="434" t="n">
         <v>22</v>
       </c>
       <c r="E15" s="434" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F15" s="430"/>
       <c r="G15" s="431"/>
@@ -7381,13 +7395,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="423" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D16" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F16" s="436" t="s">
         <v>146</v>
@@ -7410,13 +7424,13 @@
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="435"/>
       <c r="C17" s="439" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D17" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="439" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F17" s="436"/>
       <c r="G17" s="425"/>
@@ -7431,13 +7445,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="423" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D18" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F18" s="436" t="s">
         <v>146</v>
@@ -7460,13 +7474,13 @@
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="435"/>
       <c r="C19" s="439" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D19" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="439" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F19" s="436"/>
       <c r="G19" s="425"/>
@@ -7481,13 +7495,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="423" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D20" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F20" s="424" t="s">
         <v>145</v>
@@ -7510,13 +7524,13 @@
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="435"/>
       <c r="C21" s="428" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D21" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E21" s="428" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F21" s="424"/>
       <c r="G21" s="425"/>
@@ -7531,13 +7545,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="423" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D22" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F22" s="436" t="s">
         <v>146</v>
@@ -7560,13 +7574,13 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="435"/>
       <c r="C23" s="439" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D23" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E23" s="439" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F23" s="436"/>
       <c r="G23" s="425"/>
@@ -7581,13 +7595,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="423" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D24" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F24" s="424" t="s">
         <v>145</v>
@@ -7610,13 +7624,13 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="435"/>
       <c r="C25" s="428" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D25" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E25" s="428" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F25" s="424"/>
       <c r="G25" s="425"/>
@@ -7631,13 +7645,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="423" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D26" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F26" s="436" t="s">
         <v>146</v>
@@ -7660,13 +7674,13 @@
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="435"/>
       <c r="C27" s="439" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D27" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E27" s="439" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F27" s="436"/>
       <c r="G27" s="425"/>
@@ -7681,13 +7695,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="423" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D28" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E28" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F28" s="424" t="s">
         <v>145</v>
@@ -7710,13 +7724,13 @@
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="435"/>
       <c r="C29" s="428" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D29" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E29" s="428" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F29" s="424"/>
       <c r="G29" s="425"/>
@@ -7731,13 +7745,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="423" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D30" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E30" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F30" s="424" t="s">
         <v>145</v>
@@ -7760,13 +7774,13 @@
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="435"/>
       <c r="C31" s="428" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D31" s="428" t="n">
         <v>22</v>
       </c>
       <c r="E31" s="428" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F31" s="424"/>
       <c r="G31" s="425"/>
@@ -7781,13 +7795,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="423" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D32" s="423" t="n">
         <v>20</v>
       </c>
       <c r="E32" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F32" s="436" t="s">
         <v>146</v>
@@ -7810,13 +7824,13 @@
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="435"/>
       <c r="C33" s="439" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D33" s="439" t="n">
         <v>22</v>
       </c>
       <c r="E33" s="439" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F33" s="436"/>
       <c r="G33" s="425"/>
@@ -7831,28 +7845,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="423" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D34" s="423" t="n">
         <v>120</v>
       </c>
       <c r="E34" s="423" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F34" s="424" t="s">
         <v>145</v>
       </c>
       <c r="G34" s="425" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H34" s="425" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I34" s="425" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J34" s="425" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K34" s="437"/>
       <c r="L34" s="438"/>
@@ -7873,23 +7887,23 @@
     <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="368"/>
       <c r="C40" s="368" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D40" s="